--- a/ifrs-sme-model.xlsx
+++ b/ifrs-sme-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Desktop\IFRS - 2023 - BANANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1F6F88-2B2B-4AF1-90B0-55F8D0BC67D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB368CBB-71FE-48E1-90C0-14BA473EB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Statement of financial position, current/non-current</t>
   </si>
   <si>
-    <t>COMPANY ABC</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
@@ -1423,18 +1420,12 @@
     <t>Notes of Financial Statement</t>
   </si>
   <si>
-    <t>Individual entity, COMPANY ABC</t>
-  </si>
-  <si>
     <t>Specify the reporting entity, individual or group of entites</t>
   </si>
   <si>
     <t>Name of the reporting entity</t>
   </si>
   <si>
-    <t xml:space="preserve">COMPANY ABC, department Accountacy </t>
-  </si>
-  <si>
     <t>Company name and legal form</t>
   </si>
   <si>
@@ -1457,6 +1448,15 @@
   </si>
   <si>
     <t>Ensure that all policies are up-to-date and reflect the entity's current practices.</t>
+  </si>
+  <si>
+    <t>CompanyName LegalForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompanyNameReporting, department Accountacy </t>
+  </si>
+  <si>
+    <t>CompanyName, Individual or group entity</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1858,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2068,6 +2068,147 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2086,90 +2227,6 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2182,15 +2239,6 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2218,90 +2266,35 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2359,15 +2352,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>168649</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>178174</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2382,8 +2375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10820400" y="336550"/>
-          <a:ext cx="2613399" cy="1101725"/>
+          <a:off x="11636375" y="838200"/>
+          <a:ext cx="2619749" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -2445,16 +2438,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>70408</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>505943</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>95623</xdr:rowOff>
+      <xdr:rowOff>159683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>224115</xdr:colOff>
+      <xdr:colOff>57708</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>22785</xdr:rowOff>
+      <xdr:rowOff>102720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2469,8 +2462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15568143" y="2964329"/>
-          <a:ext cx="2574178" cy="823632"/>
+          <a:off x="15768355" y="3062007"/>
+          <a:ext cx="2577353" cy="839507"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -2478,8 +2471,8 @@
             <a:gd name="adj2" fmla="val -8333"/>
             <a:gd name="adj3" fmla="val 18750"/>
             <a:gd name="adj4" fmla="val -16667"/>
-            <a:gd name="adj5" fmla="val 20289"/>
-            <a:gd name="adj6" fmla="val -98776"/>
+            <a:gd name="adj5" fmla="val 18873"/>
+            <a:gd name="adj6" fmla="val -93899"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2527,16 +2520,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>36979</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>123077</xdr:rowOff>
+      <xdr:rowOff>118221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>246156</xdr:colOff>
+      <xdr:colOff>156510</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>159869</xdr:rowOff>
+      <xdr:rowOff>155013</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2551,8 +2544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17810629" y="4971302"/>
-          <a:ext cx="2647577" cy="960717"/>
+          <a:off x="15811687" y="5362574"/>
+          <a:ext cx="2632823" cy="955674"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -3239,234 +3232,240 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="97.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="160" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="162"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="140" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="151" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="140" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="140" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="151" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="153"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="140" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="154" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="156"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="140" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="151" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="153"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="163">
+        <v>45291</v>
+      </c>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="165"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="145">
+        <v>45657</v>
+      </c>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A9" s="137" t="s">
         <v>417</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="212" t="s">
-        <v>434</v>
-      </c>
-      <c r="B2" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="211"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="212" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="209" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="211"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="212" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" s="209" t="s">
-        <v>436</v>
-      </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="211"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="212" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="175" t="s">
-        <v>430</v>
-      </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="212" t="s">
-        <v>432</v>
-      </c>
-      <c r="B6" s="209" t="s">
-        <v>433</v>
-      </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="211"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="212" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="205">
-        <v>45291</v>
-      </c>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
-      <c r="G7" s="207"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="212" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="155">
-        <v>45657</v>
-      </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A9" s="201" t="s">
+      <c r="B9" s="157" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="159"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A10" s="138"/>
+      <c r="B10" s="145" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="147"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A11" s="138"/>
+      <c r="B11" s="145" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="147"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="139"/>
+      <c r="B12" s="148" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="150"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="138" t="s">
         <v>418</v>
       </c>
-      <c r="B9" s="193" t="s">
-        <v>420</v>
-      </c>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="195"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A10" s="202"/>
-      <c r="B10" s="155" t="s">
-        <v>421</v>
-      </c>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="157"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A11" s="202"/>
-      <c r="B11" s="155" t="s">
-        <v>422</v>
-      </c>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="157"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="204"/>
-      <c r="B12" s="190" t="s">
+      <c r="B13" s="145" t="s">
         <v>423</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="191"/>
-      <c r="G12" s="192"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="202" t="s">
-        <v>419</v>
-      </c>
-      <c r="B13" s="155" t="s">
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="147"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A14" s="137" t="s">
         <v>424</v>
       </c>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="157"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A14" s="201" t="s">
+      <c r="B14" s="157" t="s">
         <v>425</v>
       </c>
-      <c r="B14" s="193" t="s">
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="159"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A15" s="138"/>
+      <c r="B15" s="145" t="s">
         <v>426</v>
       </c>
-      <c r="C14" s="194"/>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="195"/>
-    </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A15" s="202"/>
-      <c r="B15" s="155" t="s">
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="147"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A16" s="138"/>
+      <c r="B16" s="145" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="147"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A17" s="138"/>
+      <c r="B17" s="145" t="s">
         <v>427</v>
       </c>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="157"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A16" s="202"/>
-      <c r="B16" s="155" t="s">
-        <v>392</v>
-      </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="157"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A17" s="202"/>
-      <c r="B17" s="155" t="s">
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="147"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="139"/>
+      <c r="B18" s="148" t="s">
         <v>428</v>
       </c>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="157"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="204"/>
-      <c r="B18" s="190" t="s">
-        <v>429</v>
-      </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="192"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
@@ -3479,11 +3478,6 @@
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3499,7 +3493,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B38" sqref="B38:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3517,120 +3511,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="146" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
+      <c r="A1" s="160" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="162"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="140" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="188" t="str">
+        <f>'General information'!B2</f>
+        <v>CompanyName LegalForm</v>
+      </c>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="190"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="144" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="137" t="str">
-        <f>'General information'!B2</f>
-        <v>COMPANY ABC</v>
-      </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="139"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="219" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="137" t="str">
+      <c r="B3" s="188" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="190"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="212" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="155">
+      <c r="A4" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="145">
         <f>'General information'!B7</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="157"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="147"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="212" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="155">
+      <c r="A5" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="145">
         <f>'General information'!B8</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="157"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="147"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="146" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="148"/>
+      <c r="A6" s="160" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="131" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="163"/>
+      <c r="B7" s="183" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="185"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="118" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="140" t="s">
-        <v>403</v>
-      </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142"/>
+        <v>283</v>
+      </c>
+      <c r="B8" s="191" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="193"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="159" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="160"/>
+      <c r="C10" s="182"/>
       <c r="D10" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="12">
         <f>$B$4</f>
@@ -3641,58 +3635,58 @@
         <v>45657</v>
       </c>
       <c r="G10" s="112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="143" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="145"/>
+      <c r="B11" s="169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="171"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="158"/>
+      <c r="B12" s="178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="180"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="151" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="152"/>
+        <v>92</v>
+      </c>
+      <c r="B13" s="176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="177"/>
       <c r="D13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="87">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F13" s="88">
         <v>2</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="150"/>
+        <v>93</v>
+      </c>
+      <c r="B14" s="174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="175"/>
       <c r="D14" s="8"/>
       <c r="E14" s="82"/>
       <c r="F14" s="89">
@@ -3702,12 +3696,12 @@
     </row>
     <row r="15" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="150"/>
+        <v>94</v>
+      </c>
+      <c r="B15" s="174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="175"/>
       <c r="D15" s="8"/>
       <c r="E15" s="82"/>
       <c r="F15" s="89"/>
@@ -3715,12 +3709,12 @@
     </row>
     <row r="16" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="150"/>
+        <v>95</v>
+      </c>
+      <c r="B16" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="175"/>
       <c r="D16" s="8"/>
       <c r="E16" s="82">
         <v>20</v>
@@ -3732,12 +3726,12 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="149" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="150"/>
+        <v>96</v>
+      </c>
+      <c r="B17" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="175"/>
       <c r="D17" s="8"/>
       <c r="E17" s="82">
         <v>30</v>
@@ -3749,12 +3743,12 @@
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="149" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="150"/>
+        <v>97</v>
+      </c>
+      <c r="B18" s="174" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="175"/>
       <c r="D18" s="8"/>
       <c r="E18" s="82"/>
       <c r="F18" s="89"/>
@@ -3762,12 +3756,12 @@
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="149" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="150"/>
+        <v>98</v>
+      </c>
+      <c r="B19" s="174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="175"/>
       <c r="D19" s="8"/>
       <c r="E19" s="82"/>
       <c r="F19" s="89"/>
@@ -3775,12 +3769,12 @@
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="150"/>
+        <v>99</v>
+      </c>
+      <c r="B20" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="175"/>
       <c r="D20" s="8"/>
       <c r="E20" s="82"/>
       <c r="F20" s="89"/>
@@ -3788,12 +3782,12 @@
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="149" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="150"/>
+        <v>100</v>
+      </c>
+      <c r="B21" s="174" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="175"/>
       <c r="D21" s="8"/>
       <c r="E21" s="82"/>
       <c r="F21" s="89"/>
@@ -3801,46 +3795,46 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="149" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="150"/>
+        <v>101</v>
+      </c>
+      <c r="B22" s="174" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="175"/>
       <c r="D22" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="82"/>
       <c r="F22" s="89"/>
       <c r="G22" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="149" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="150"/>
+        <v>102</v>
+      </c>
+      <c r="B23" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="175"/>
       <c r="D23" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="89"/>
       <c r="G23" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="149" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="150"/>
+        <v>103</v>
+      </c>
+      <c r="B24" s="174" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="175"/>
       <c r="D24" s="8"/>
       <c r="E24" s="82"/>
       <c r="F24" s="89"/>
@@ -3848,12 +3842,12 @@
     </row>
     <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="149" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="150"/>
+        <v>104</v>
+      </c>
+      <c r="B25" s="174" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="175"/>
       <c r="D25" s="8"/>
       <c r="E25" s="82"/>
       <c r="F25" s="89"/>
@@ -3861,12 +3855,12 @@
     </row>
     <row r="26" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="149" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="150"/>
+        <v>105</v>
+      </c>
+      <c r="B26" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="175"/>
       <c r="D26" s="8"/>
       <c r="E26" s="82"/>
       <c r="F26" s="89"/>
@@ -3874,25 +3868,25 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="166" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="167"/>
+        <v>106</v>
+      </c>
+      <c r="B27" s="172" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="173"/>
       <c r="D27" s="9"/>
       <c r="E27" s="90"/>
       <c r="F27" s="89"/>
       <c r="G27" s="47"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="164" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="165"/>
+      <c r="B28" s="186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="187"/>
       <c r="E28" s="86">
         <f>SUM(E13:E27)</f>
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F28" s="86">
         <f>SUM(F13:F27)</f>
@@ -3902,7 +3896,7 @@
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D30" s="113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="12">
         <f>$B$4</f>
@@ -3913,29 +3907,29 @@
         <v>45657</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="143" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
+      <c r="B31" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="152"/>
+        <v>107</v>
+      </c>
+      <c r="B32" s="176" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="177"/>
       <c r="D32" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" s="87">
         <v>30</v>
@@ -3944,34 +3938,34 @@
         <v>35</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="150"/>
+        <v>108</v>
+      </c>
+      <c r="B33" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="175"/>
       <c r="D33" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E33" s="82"/>
       <c r="F33" s="82"/>
       <c r="G33" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="150"/>
+        <v>109</v>
+      </c>
+      <c r="B34" s="174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="175"/>
       <c r="D34" s="8"/>
       <c r="E34" s="82"/>
       <c r="F34" s="82"/>
@@ -3979,12 +3973,12 @@
     </row>
     <row r="35" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="149" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="150"/>
+        <v>110</v>
+      </c>
+      <c r="B35" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="175"/>
       <c r="D35" s="8"/>
       <c r="E35" s="82"/>
       <c r="F35" s="82"/>
@@ -3992,12 +3986,12 @@
     </row>
     <row r="36" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="150"/>
+        <v>111</v>
+      </c>
+      <c r="B36" s="174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="175"/>
       <c r="D36" s="8"/>
       <c r="E36" s="82"/>
       <c r="F36" s="82"/>
@@ -4005,12 +3999,12 @@
     </row>
     <row r="37" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="149" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="150"/>
+        <v>112</v>
+      </c>
+      <c r="B37" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="175"/>
       <c r="D37" s="8"/>
       <c r="E37" s="82"/>
       <c r="F37" s="82"/>
@@ -4018,12 +4012,12 @@
     </row>
     <row r="38" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="149" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="150"/>
+        <v>113</v>
+      </c>
+      <c r="B38" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="175"/>
       <c r="D38" s="8"/>
       <c r="E38" s="82"/>
       <c r="F38" s="82"/>
@@ -4031,12 +4025,12 @@
     </row>
     <row r="39" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="149" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="150"/>
+        <v>114</v>
+      </c>
+      <c r="B39" s="174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="175"/>
       <c r="D39" s="8"/>
       <c r="E39" s="82">
         <v>10</v>
@@ -4048,22 +4042,22 @@
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="166" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="167"/>
+        <v>115</v>
+      </c>
+      <c r="B40" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="173"/>
       <c r="D40" s="9"/>
       <c r="E40" s="90"/>
       <c r="F40" s="90"/>
       <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="145"/>
+      <c r="B41" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="171"/>
       <c r="E41" s="91">
         <f>SUM(E32:E40)</f>
         <v>40</v>
@@ -4074,13 +4068,13 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="143" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="145"/>
+      <c r="B42" s="169" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="171"/>
       <c r="E42" s="91">
         <f>SUM(E28,E41)</f>
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="F42" s="91">
         <f>SUM(F28,F41)</f>
@@ -4093,7 +4087,7 @@
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D44" s="113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="12">
         <f>$B$4</f>
@@ -4104,88 +4098,88 @@
         <v>45657</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="143" t="s">
+      <c r="B45" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="171"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="145"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="143" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="145"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="171"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="151" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="152"/>
+        <v>116</v>
+      </c>
+      <c r="B47" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="177"/>
       <c r="D47" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E47" s="87"/>
       <c r="F47" s="89"/>
       <c r="G47" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="149" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="150"/>
+        <v>117</v>
+      </c>
+      <c r="B48" s="174" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="175"/>
       <c r="D48" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E48" s="82"/>
       <c r="F48" s="89"/>
       <c r="G48" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="150"/>
+        <v>118</v>
+      </c>
+      <c r="B49" s="174" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="175"/>
       <c r="D49" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="82"/>
       <c r="F49" s="89"/>
       <c r="G49" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="149" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="150"/>
+        <v>119</v>
+      </c>
+      <c r="B50" s="174" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="175"/>
       <c r="D50" s="8"/>
       <c r="E50" s="82"/>
       <c r="F50" s="89"/>
@@ -4193,31 +4187,31 @@
     </row>
     <row r="51" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="149" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="150"/>
+        <v>120</v>
+      </c>
+      <c r="B51" s="174" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="175"/>
       <c r="D51" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="82"/>
       <c r="F51" s="89"/>
       <c r="G51" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="150"/>
+        <v>121</v>
+      </c>
+      <c r="B52" s="174" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="175"/>
       <c r="D52" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E52" s="82">
         <v>15</v>
@@ -4226,15 +4220,15 @@
         <v>40</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="143" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="145"/>
+      <c r="B53" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="171"/>
       <c r="D53" s="92"/>
       <c r="E53" s="94">
         <f>SUM(E47:E52)</f>
@@ -4247,21 +4241,21 @@
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="166" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="167"/>
+        <v>122</v>
+      </c>
+      <c r="B54" s="172" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="173"/>
       <c r="D54" s="93"/>
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="143" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="145"/>
+      <c r="B55" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="171"/>
       <c r="E55" s="86">
         <f>SUM(E53,E54)</f>
         <v>15</v>
@@ -4274,7 +4268,7 @@
     <row r="56" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" s="12">
         <f>$B$4</f>
@@ -4285,37 +4279,37 @@
         <v>45657</v>
       </c>
       <c r="G57" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="143" t="s">
+      <c r="B58" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
+      <c r="E58" s="170"/>
+      <c r="F58" s="170"/>
+      <c r="G58" s="171"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="144"/>
-      <c r="D58" s="144"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="144"/>
-      <c r="G58" s="145"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="153" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
+      <c r="C59" s="179"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="179"/>
+      <c r="F59" s="179"/>
+      <c r="G59" s="179"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="B60" s="151" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="152"/>
+        <v>297</v>
+      </c>
+      <c r="B60" s="176" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="177"/>
       <c r="D60" s="7"/>
       <c r="E60" s="87"/>
       <c r="F60" s="88"/>
@@ -4323,14 +4317,14 @@
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="B61" s="149" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="150"/>
+        <v>298</v>
+      </c>
+      <c r="B61" s="174" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="175"/>
       <c r="D61" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E61" s="82">
         <v>3</v>
@@ -4339,17 +4333,17 @@
         <v>2</v>
       </c>
       <c r="G61" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B62" s="166" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="167"/>
+        <v>299</v>
+      </c>
+      <c r="B62" s="172" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="173"/>
       <c r="D62" s="9"/>
       <c r="E62" s="90">
         <v>2</v>
@@ -4361,7 +4355,7 @@
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="25"/>
       <c r="D63" s="97"/>
@@ -4376,29 +4370,29 @@
     </row>
     <row r="64" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="B64" s="151" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="152"/>
+        <v>300</v>
+      </c>
+      <c r="B64" s="176" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="177"/>
       <c r="D64" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E64" s="87"/>
       <c r="F64" s="89"/>
       <c r="G64" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="B65" s="149" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="150"/>
+        <v>301</v>
+      </c>
+      <c r="B65" s="174" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="175"/>
       <c r="D65" s="8"/>
       <c r="E65" s="82">
         <v>4</v>
@@ -4410,12 +4404,12 @@
     </row>
     <row r="66" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="B66" s="149" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="150"/>
+        <v>302</v>
+      </c>
+      <c r="B66" s="174" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="175"/>
       <c r="D66" s="8"/>
       <c r="E66" s="82"/>
       <c r="F66" s="89"/>
@@ -4423,12 +4417,12 @@
     </row>
     <row r="67" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="B67" s="149" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="150"/>
+        <v>303</v>
+      </c>
+      <c r="B67" s="174" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="175"/>
       <c r="D67" s="8"/>
       <c r="E67" s="82"/>
       <c r="F67" s="89"/>
@@ -4436,12 +4430,12 @@
     </row>
     <row r="68" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="B68" s="149" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="150"/>
+        <v>304</v>
+      </c>
+      <c r="B68" s="174" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="175"/>
       <c r="D68" s="8"/>
       <c r="E68" s="82"/>
       <c r="F68" s="89"/>
@@ -4449,22 +4443,22 @@
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="B69" s="166" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" s="167"/>
+        <v>305</v>
+      </c>
+      <c r="B69" s="172" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="173"/>
       <c r="D69" s="9"/>
       <c r="E69" s="90"/>
       <c r="F69" s="96"/>
       <c r="G69" s="47"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="145"/>
+      <c r="B70" s="169" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="171"/>
       <c r="E70" s="86">
         <f>SUM(E63:E69)</f>
         <v>9</v>
@@ -4478,7 +4472,7 @@
     <row r="72" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="D72" s="113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E72" s="12">
         <f>$B$4</f>
@@ -4489,27 +4483,27 @@
         <v>45657</v>
       </c>
       <c r="G72" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="143" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="144"/>
-      <c r="D73" s="144"/>
-      <c r="E73" s="144"/>
-      <c r="F73" s="144"/>
-      <c r="G73" s="144"/>
+      <c r="B73" s="169" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="170"/>
+      <c r="D73" s="170"/>
+      <c r="E73" s="170"/>
+      <c r="F73" s="170"/>
+      <c r="G73" s="170"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="B74" s="151" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="152"/>
+        <v>306</v>
+      </c>
+      <c r="B74" s="176" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="177"/>
       <c r="D74" s="7"/>
       <c r="E74" s="87"/>
       <c r="F74" s="89"/>
@@ -4517,14 +4511,14 @@
     </row>
     <row r="75" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="B75" s="149" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="150"/>
+        <v>307</v>
+      </c>
+      <c r="B75" s="174" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="175"/>
       <c r="D75" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E75" s="82">
         <v>10</v>
@@ -4533,27 +4527,27 @@
         <v>15</v>
       </c>
       <c r="G75" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="B76" s="166" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="167"/>
+        <v>308</v>
+      </c>
+      <c r="B76" s="172" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="173"/>
       <c r="D76" s="9"/>
       <c r="E76" s="90"/>
       <c r="F76" s="89"/>
       <c r="G76" s="47"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="143" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="145"/>
+      <c r="B77" s="169" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="171"/>
       <c r="D77" s="97"/>
       <c r="E77" s="83">
         <f>SUM(E74:E76)</f>
@@ -4566,14 +4560,14 @@
     </row>
     <row r="78" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="B78" s="151" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="152"/>
+        <v>309</v>
+      </c>
+      <c r="B78" s="176" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="177"/>
       <c r="D78" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E78" s="87">
         <v>2</v>
@@ -4582,17 +4576,17 @@
         <v>3</v>
       </c>
       <c r="G78" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="B79" s="149" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="150"/>
+        <v>310</v>
+      </c>
+      <c r="B79" s="174" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="175"/>
       <c r="D79" s="8"/>
       <c r="E79" s="82"/>
       <c r="F79" s="89"/>
@@ -4600,12 +4594,12 @@
     </row>
     <row r="80" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="B80" s="149" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="150"/>
+        <v>311</v>
+      </c>
+      <c r="B80" s="174" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="175"/>
       <c r="D80" s="8"/>
       <c r="E80" s="82"/>
       <c r="F80" s="89"/>
@@ -4613,12 +4607,12 @@
     </row>
     <row r="81" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="B81" s="149" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="150"/>
+        <v>312</v>
+      </c>
+      <c r="B81" s="174" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="175"/>
       <c r="D81" s="8"/>
       <c r="E81" s="82">
         <v>2</v>
@@ -4630,12 +4624,12 @@
     </row>
     <row r="82" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="B82" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" s="150"/>
+        <v>313</v>
+      </c>
+      <c r="B82" s="174" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="175"/>
       <c r="D82" s="8"/>
       <c r="E82" s="82">
         <v>2</v>
@@ -4647,23 +4641,23 @@
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="B83" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="C83" s="167"/>
+        <v>314</v>
+      </c>
+      <c r="B83" s="172" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="173"/>
       <c r="D83" s="9"/>
       <c r="E83" s="90"/>
       <c r="F83" s="96"/>
       <c r="G83" s="47"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="143" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" s="144"/>
-      <c r="D84" s="145"/>
+      <c r="B84" s="169" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="170"/>
+      <c r="D84" s="171"/>
       <c r="E84" s="86">
         <f>SUM(E77:E83)</f>
         <v>16</v>
@@ -4677,11 +4671,11 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" s="144"/>
-      <c r="D86" s="145"/>
+      <c r="B86" s="169" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="170"/>
+      <c r="D86" s="171"/>
       <c r="E86" s="86">
         <f>SUM(E70,E84)</f>
         <v>25</v>
@@ -4693,11 +4687,11 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="143" t="s">
-        <v>70</v>
-      </c>
-      <c r="C88" s="144"/>
-      <c r="D88" s="145"/>
+      <c r="B88" s="169" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="170"/>
+      <c r="D88" s="171"/>
       <c r="E88" s="86">
         <f>SUM(E55,E86)</f>
         <v>40</v>
@@ -4713,17 +4707,17 @@
     <row r="90" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="91" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" s="168" t="str">
+        <v>70</v>
+      </c>
+      <c r="B91" s="166" t="str">
         <f>IF(AND(E91=0,F91=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C91" s="169"/>
-      <c r="D91" s="170"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="168"/>
       <c r="E91" s="86">
         <f>E88-E42</f>
-        <v>-60</v>
+        <v>-104</v>
       </c>
       <c r="F91" s="86">
         <f>F88-F42</f>
@@ -4739,6 +4733,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B86:D86"/>
@@ -4755,67 +4810,6 @@
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B91">
@@ -4850,16 +4844,15 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="147.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="8.7265625" style="2"/>
     <col min="12" max="12" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="2" customWidth="1"/>
@@ -4868,97 +4861,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="146" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="148"/>
+      <c r="A1" s="160" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
       <c r="E1" s="130"/>
       <c r="F1" s="130"/>
       <c r="G1" s="130"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="140" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="154" t="str">
+        <f>'General information'!B2</f>
+        <v>CompanyName LegalForm</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="144" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="175" t="str">
-        <f>'General information'!B2</f>
-        <v>COMPANY ABC</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="177"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="219" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="137" t="str">
+      <c r="B3" s="188" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="139"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="190"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="212" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="155">
+      <c r="A4" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="145">
         <f>'General information'!B7</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="157"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="212" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="190">
+      <c r="A5" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="148">
         <f>'General information'!B8</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="191"/>
-      <c r="D5" s="192"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="146" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
+      <c r="A6" s="160" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="130"/>
       <c r="F6" s="130"/>
       <c r="G6" s="130"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="162"/>
-      <c r="D7" s="163"/>
+      <c r="B7" s="183" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="184"/>
+      <c r="D7" s="185"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="133" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="140" t="s">
-        <v>404</v>
-      </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142"/>
+        <v>283</v>
+      </c>
+      <c r="B8" s="191" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="192"/>
+      <c r="D8" s="193"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="159" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="160"/>
+      <c r="A12" s="181" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="182"/>
       <c r="C12" s="12">
         <f>B4</f>
         <v>45291</v>
@@ -4969,17 +4962,17 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="143" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
+      <c r="A13" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" s="82">
         <v>15</v>
@@ -4991,7 +4984,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C15" s="82">
         <v>2</v>
@@ -5003,7 +4996,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C16" s="82">
         <v>3</v>
@@ -5015,7 +5008,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C17" s="82">
         <v>2</v>
@@ -5027,7 +5020,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C18" s="82">
         <v>-6</v>
@@ -5039,7 +5032,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C19" s="82">
         <v>-6</v>
@@ -5051,7 +5044,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C20" s="82">
         <v>-6</v>
@@ -5063,7 +5056,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C21" s="82">
         <v>-6</v>
@@ -5075,7 +5068,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C22" s="82">
         <v>-4</v>
@@ -5087,7 +5080,7 @@
     <row r="23" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C23" s="82">
         <v>-6</v>
@@ -5097,10 +5090,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="143" t="s">
-        <v>292</v>
-      </c>
-      <c r="B24" s="145"/>
+      <c r="A24" s="169" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="171"/>
       <c r="C24" s="83">
         <f>SUM(C14:C23)</f>
         <v>-12</v>
@@ -5113,7 +5106,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C25" s="82">
         <v>6</v>
@@ -5125,7 +5118,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C26" s="82">
         <v>-3</v>
@@ -5137,7 +5130,7 @@
     <row r="27" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C27" s="82">
         <v>6</v>
@@ -5147,10 +5140,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="143" t="s">
-        <v>291</v>
-      </c>
-      <c r="B28" s="145"/>
+      <c r="A28" s="169" t="s">
+        <v>290</v>
+      </c>
+      <c r="B28" s="171"/>
       <c r="C28" s="83">
         <f>SUM(C24:C27)</f>
         <v>-3</v>
@@ -5163,7 +5156,7 @@
     <row r="29" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39"/>
       <c r="B29" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C29" s="84">
         <v>1</v>
@@ -5173,10 +5166,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="143" t="s">
-        <v>415</v>
-      </c>
-      <c r="B30" s="145"/>
+      <c r="A30" s="169" t="s">
+        <v>414</v>
+      </c>
+      <c r="B30" s="171"/>
       <c r="C30" s="83">
         <f>SUM(C28:C29)</f>
         <v>-2</v>
@@ -5194,12 +5187,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -5207,6 +5194,12 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9A9E6224-643C-4AD9-9436-A2DC070A0C83}"/>
@@ -5232,87 +5225,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="171" t="s">
-        <v>412</v>
-      </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="A1" s="194" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
       <c r="E1" s="130"/>
       <c r="F1" s="130"/>
       <c r="G1" s="130"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="140" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="154" t="str">
+        <f>'General information'!B2</f>
+        <v>CompanyName LegalForm</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="144" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="175" t="str">
-        <f>'General information'!B2</f>
-        <v>COMPANY ABC</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="177"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="219" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="137" t="str">
+      <c r="B3" s="188" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="190"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="212" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="155">
+      <c r="A4" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="145">
         <f>'General information'!B7</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="212" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="155">
+      <c r="A5" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="145">
         <f>'General information'!B8</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="146" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
+      <c r="A6" s="160" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="162"/>
-      <c r="D7" s="163"/>
+      <c r="B7" s="183" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="184"/>
+      <c r="D7" s="185"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="118" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="140" t="s">
-        <v>416</v>
-      </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142"/>
+        <v>283</v>
+      </c>
+      <c r="B8" s="191" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="192"/>
+      <c r="D8" s="193"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5327,19 +5320,19 @@
     </row>
     <row r="11" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="111" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C11" s="117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="121"/>
       <c r="B12" s="122" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12" s="82">
         <v>1</v>
@@ -5347,17 +5340,17 @@
       <c r="D12" s="121"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="172" t="s">
-        <v>393</v>
-      </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174"/>
+      <c r="A13" s="195" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="123" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C14" s="124"/>
       <c r="D14" s="82">
@@ -5367,7 +5360,7 @@
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="123" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C15" s="124"/>
       <c r="D15" s="82">
@@ -5375,11 +5368,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="172" t="s">
-        <v>389</v>
-      </c>
-      <c r="B16" s="173"/>
-      <c r="C16" s="174"/>
+      <c r="A16" s="195" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" s="196"/>
+      <c r="C16" s="197"/>
       <c r="D16" s="120">
         <f>SUM(D14:D15)</f>
         <v>2</v>
@@ -5388,7 +5381,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="125" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C17" s="126"/>
       <c r="D17" s="82">
@@ -5398,7 +5391,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="125" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C18" s="126"/>
       <c r="D18" s="82">
@@ -5408,7 +5401,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="125" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C19" s="126"/>
       <c r="D19" s="82">
@@ -5418,7 +5411,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="125" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C20" s="126"/>
       <c r="D20" s="82">
@@ -5428,7 +5421,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="125" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C21" s="126"/>
       <c r="D21" s="82">
@@ -5438,7 +5431,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C22" s="126"/>
       <c r="D22" s="82">
@@ -5448,7 +5441,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="125" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C23" s="126"/>
       <c r="D23" s="82">
@@ -5458,7 +5451,7 @@
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="125" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C24" s="126"/>
       <c r="D24" s="82">
@@ -5467,11 +5460,11 @@
       <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="172" t="s">
-        <v>390</v>
-      </c>
-      <c r="B25" s="173"/>
-      <c r="C25" s="174"/>
+      <c r="A25" s="195" t="s">
+        <v>389</v>
+      </c>
+      <c r="B25" s="196"/>
+      <c r="C25" s="197"/>
       <c r="D25" s="120">
         <f>SUM(D17:D24)</f>
         <v>2</v>
@@ -5481,7 +5474,7 @@
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="127" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C26" s="128"/>
       <c r="D26" s="105">
@@ -5519,7 +5512,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="A44" sqref="A44:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5531,117 +5524,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="146" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148"/>
+      <c r="A1" s="160" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="162"/>
       <c r="D1" s="130"/>
     </row>
     <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="140" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="154" t="str">
+        <f>'General information'!B2</f>
+        <v>CompanyName LegalForm</v>
+      </c>
+      <c r="C2" s="156"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="144" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="175" t="str">
-        <f>'General information'!B2</f>
-        <v>COMPANY ABC</v>
-      </c>
-      <c r="C2" s="177"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="219" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="137" t="str">
+      <c r="B3" s="188" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="139"/>
+      <c r="C3" s="190"/>
     </row>
     <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="212" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="155">
+      <c r="A4" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="145">
         <f>'General information'!B7</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="157"/>
+      <c r="C4" s="147"/>
     </row>
     <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="212" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="155">
+      <c r="A5" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="145">
         <f>'General information'!B8</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="157"/>
+      <c r="C5" s="147"/>
     </row>
     <row r="6" spans="1:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="146" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="148"/>
+      <c r="A6" s="160" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="130"/>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="163"/>
+      <c r="B7" s="183" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="185"/>
     </row>
     <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="134" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="140" t="s">
-        <v>405</v>
-      </c>
-      <c r="C8" s="142"/>
+        <v>283</v>
+      </c>
+      <c r="B8" s="191" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" s="193"/>
     </row>
     <row r="9" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="183" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="184"/>
+      <c r="A10" s="203" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="204"/>
       <c r="C10" s="63">
         <f>B5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="185"/>
-      <c r="B11" s="186"/>
+      <c r="A11" s="205"/>
+      <c r="B11" s="206"/>
       <c r="C11" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="178" t="s">
-        <v>386</v>
-      </c>
-      <c r="B12" s="180"/>
+      <c r="A12" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="200"/>
       <c r="C12" s="98">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="178" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="180"/>
+      <c r="A13" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="200"/>
       <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C14" s="99">
         <v>1</v>
@@ -5650,7 +5643,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C15" s="100">
         <v>-1</v>
@@ -5659,7 +5652,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C16" s="100">
         <v>-1</v>
@@ -5668,7 +5661,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C17" s="100">
         <v>-1</v>
@@ -5677,7 +5670,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
       <c r="B18" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C18" s="100">
         <v>2</v>
@@ -5686,7 +5679,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C19" s="100">
         <v>2</v>
@@ -5695,7 +5688,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C20" s="100">
         <v>3</v>
@@ -5705,7 +5698,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="39"/>
       <c r="B21" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C21" s="100">
         <v>3</v>
@@ -5715,7 +5708,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C22" s="100">
         <v>4</v>
@@ -5725,7 +5718,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C23" s="100">
         <v>1</v>
@@ -5735,7 +5728,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
       <c r="B24" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C24" s="100">
         <v>5</v>
@@ -5745,7 +5738,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C25" s="100">
         <v>-3</v>
@@ -5755,7 +5748,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C26" s="100">
         <v>4</v>
@@ -5765,7 +5758,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="39"/>
       <c r="B27" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C27" s="100">
         <v>-5</v>
@@ -5775,7 +5768,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C28" s="100">
         <v>-2</v>
@@ -5784,21 +5777,21 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
       <c r="B29" s="39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C29" s="100"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C30" s="100"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="39"/>
       <c r="B31" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C31" s="100">
         <v>-3</v>
@@ -5807,14 +5800,14 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
       <c r="B32" s="39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C32" s="100"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="39"/>
       <c r="B33" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C33" s="100">
         <v>2</v>
@@ -5823,24 +5816,24 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
       <c r="B34" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C34" s="100"/>
     </row>
     <row r="35" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="41"/>
       <c r="B35" s="41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C35" s="101">
         <v>-5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="178" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="179"/>
+      <c r="A36" s="198" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="199"/>
       <c r="C36" s="102">
         <f>SUM(C14:C35)</f>
         <v>6</v>
@@ -5849,7 +5842,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C37" s="99">
         <v>-5</v>
@@ -5859,7 +5852,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
       <c r="B38" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C38" s="100">
         <v>6</v>
@@ -5869,7 +5862,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="39"/>
       <c r="B39" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C39" s="100">
         <v>-5</v>
@@ -5879,7 +5872,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="39"/>
       <c r="B40" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C40" s="100">
         <v>5</v>
@@ -5889,7 +5882,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="39"/>
       <c r="B41" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C41" s="100">
         <v>-5</v>
@@ -5899,7 +5892,7 @@
     <row r="42" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="39"/>
       <c r="B42" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C42" s="101">
         <v>5</v>
@@ -5907,40 +5900,40 @@
       <c r="D42" s="62"/>
     </row>
     <row r="43" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="178" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="179"/>
+      <c r="A43" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="199"/>
       <c r="C43" s="104">
         <f>C12+C36+SUM(C37:C42)</f>
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="181" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="182"/>
+      <c r="A44" s="201" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="202"/>
       <c r="C44" s="50"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C45" s="99"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="39"/>
       <c r="B46" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C46" s="100"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C47" s="100">
         <v>5</v>
@@ -5950,14 +5943,14 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="39"/>
       <c r="B48" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C48" s="100"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="39"/>
       <c r="B49" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C49" s="100">
         <v>65</v>
@@ -5967,35 +5960,35 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="39"/>
       <c r="B50" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C50" s="100"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="39"/>
       <c r="B51" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C51" s="100"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="39"/>
       <c r="B52" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C52" s="100"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C53" s="100"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C54" s="100">
         <v>-45</v>
@@ -6005,70 +5998,70 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="39"/>
       <c r="B55" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C55" s="100"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="39"/>
       <c r="B56" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C56" s="100"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="39"/>
       <c r="B57" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C57" s="100"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="39"/>
       <c r="B58" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C58" s="100"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C59" s="100"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C60" s="100"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
       <c r="B61" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C61" s="100"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C62" s="100"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C63" s="100"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C64" s="100">
         <v>64</v>
@@ -6078,31 +6071,31 @@
     <row r="65" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="41"/>
       <c r="B65" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C65" s="101"/>
     </row>
     <row r="66" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="178" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="179"/>
+      <c r="A66" s="198" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="199"/>
       <c r="C66" s="103">
         <f>SUM(C45:C65)</f>
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="178" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" s="180"/>
+      <c r="A67" s="198" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="200"/>
       <c r="C67" s="50"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C68" s="99">
         <v>54</v>
@@ -6112,21 +6105,21 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C69" s="100"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C70" s="100"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
       <c r="B71" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C71" s="100">
         <v>54</v>
@@ -6136,21 +6129,21 @@
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C72" s="100"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
       <c r="B73" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C73" s="100"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="39"/>
       <c r="B74" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C74" s="100">
         <v>-45</v>
@@ -6160,14 +6153,14 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="39"/>
       <c r="B75" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C75" s="100"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C76" s="100">
         <v>-54</v>
@@ -6177,7 +6170,7 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39"/>
       <c r="B77" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C77" s="100">
         <v>3</v>
@@ -6187,25 +6180,25 @@
     <row r="78" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C78" s="101"/>
     </row>
     <row r="79" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="178" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="179"/>
+      <c r="A79" s="198" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="199"/>
       <c r="C79" s="103">
         <f>SUM(C68:C78)</f>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="179"/>
+      <c r="A80" s="198" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="199"/>
       <c r="C80" s="86">
         <f>SUM(C43,C66,C79)</f>
         <v>118</v>
@@ -6214,45 +6207,45 @@
     <row r="81" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
       <c r="B81" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C81" s="101"/>
     </row>
     <row r="82" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="178" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="180"/>
+      <c r="A82" s="198" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="200"/>
       <c r="C82" s="86">
         <f>C80+C81</f>
         <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="178" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83" s="180"/>
+      <c r="A83" s="198" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="200"/>
       <c r="C83" s="86">
         <f>'Statement of financial position'!E39</f>
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="178" t="s">
-        <v>79</v>
-      </c>
-      <c r="B84" s="180"/>
+      <c r="A84" s="198" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="200"/>
       <c r="C84" s="86">
         <f>'Statement of financial position'!F39</f>
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="178" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" s="180"/>
+      <c r="A85" s="198" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="200"/>
       <c r="C85" s="86">
         <f>C84-C83</f>
         <v>5</v>
@@ -6266,6 +6259,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B3:C3"/>
@@ -6282,12 +6281,6 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{5A53CF31-79B9-4E1F-A6DA-D8AE91352090}"/>
@@ -6323,156 +6316,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="146" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="148"/>
+      <c r="A1" s="160" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="162"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="140" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="154" t="str">
+        <f>'General information'!B2</f>
+        <v>CompanyName LegalForm</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="156"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="144" t="s">
         <v>434</v>
-      </c>
-      <c r="B2" s="175" t="str">
-        <f>'General information'!B2</f>
-        <v>COMPANY ABC</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="177"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="219" t="s">
-        <v>437</v>
       </c>
       <c r="B3" s="129" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="212" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="155">
+      <c r="A4" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="145">
         <f>'General information'!B7</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="157"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="212" t="s">
-        <v>82</v>
+      <c r="A5" s="140" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="114">
         <f>'General information'!B8</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="146" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="148"/>
+      <c r="A6" s="160" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="162"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="135" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="193" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="195"/>
+      <c r="B7" s="157" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="159"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="115" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="190" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="192"/>
+        <v>283</v>
+      </c>
+      <c r="B8" s="148" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="150"/>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -6480,52 +6473,52 @@
       <c r="C9" s="59"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="159" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="160"/>
+      <c r="A10" s="181" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="216"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="216"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="182"/>
     </row>
     <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="214" t="s">
+      <c r="A11" s="141" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="136" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="136" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="136" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="198" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="199"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="199"/>
-      <c r="L11" s="199"/>
-      <c r="M11" s="200"/>
+      <c r="E11" s="213" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="214"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="215"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="217" t="s">
-        <v>438</v>
-      </c>
-      <c r="B12" s="218"/>
+      <c r="A12" s="207" t="s">
+        <v>435</v>
+      </c>
+      <c r="B12" s="208"/>
       <c r="C12" s="66"/>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
@@ -6540,283 +6533,283 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
-      <c r="B13" s="215"/>
+      <c r="B13" s="142"/>
       <c r="C13" s="69"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="213"/>
-      <c r="L13" s="213"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
-      <c r="B14" s="215"/>
+      <c r="B14" s="142"/>
       <c r="C14" s="69"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="213"/>
-      <c r="K14" s="213"/>
-      <c r="L14" s="213"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
-      <c r="B15" s="215"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="69"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="213"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
-      <c r="B16" s="215"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="69" t="s">
-        <v>439</v>
-      </c>
-      <c r="D16" s="213"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="213"/>
+        <v>436</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
       <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
-      <c r="B17" s="215"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="69"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="213"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
       <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
-      <c r="B18" s="215"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="69" t="s">
-        <v>440</v>
-      </c>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="213"/>
+        <v>437</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
       <c r="M18" s="38"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
-      <c r="B19" s="215"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="69"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
       <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="37"/>
-      <c r="B20" s="215"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="69" t="s">
-        <v>441</v>
-      </c>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="213"/>
+        <v>438</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
       <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="37"/>
-      <c r="B21" s="215"/>
+      <c r="B21" s="142"/>
       <c r="C21" s="69"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="213"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
       <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="37"/>
-      <c r="B22" s="215"/>
+      <c r="B22" s="142"/>
       <c r="C22" s="69"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="213"/>
-      <c r="L22" s="213"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
       <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
-      <c r="B23" s="215"/>
+      <c r="B23" s="142"/>
       <c r="C23" s="69"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="213"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
       <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="37"/>
-      <c r="B24" s="215"/>
+      <c r="B24" s="142"/>
       <c r="C24" s="69"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
       <c r="M24" s="38"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
-      <c r="B25" s="215"/>
+      <c r="B25" s="142"/>
       <c r="C25" s="69"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="213"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="213"/>
-      <c r="K25" s="213"/>
-      <c r="L25" s="213"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
       <c r="M25" s="38"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="37"/>
-      <c r="B26" s="215"/>
+      <c r="B26" s="142"/>
       <c r="C26" s="69"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="213"/>
-      <c r="K26" s="213"/>
-      <c r="L26" s="213"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
       <c r="M26" s="38"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="37"/>
-      <c r="B27" s="215"/>
+      <c r="B27" s="142"/>
       <c r="C27" s="69"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="213"/>
-      <c r="L27" s="213"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
       <c r="M27" s="38"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
-      <c r="B28" s="215"/>
+      <c r="B28" s="142"/>
       <c r="C28" s="69"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="213"/>
-      <c r="L28" s="213"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
       <c r="M28" s="38"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
-      <c r="B29" s="215"/>
+      <c r="B29" s="142"/>
       <c r="C29" s="69"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="213"/>
-      <c r="L29" s="213"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
       <c r="M29" s="38"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
-      <c r="B30" s="215"/>
+      <c r="B30" s="142"/>
       <c r="C30" s="69"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="213"/>
-      <c r="L30" s="213"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
       <c r="M30" s="38"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="57"/>
-      <c r="B31" s="216"/>
+      <c r="B31" s="143"/>
       <c r="C31" s="71"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -6831,32 +6824,32 @@
     </row>
     <row r="32" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="153" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="158"/>
+        <v>12</v>
+      </c>
+      <c r="C32" s="178" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="180"/>
       <c r="E32" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="213"/>
-      <c r="L32" s="213"/>
+        <v>406</v>
+      </c>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
       <c r="M32" s="38"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33" s="87">
         <v>1</v>
@@ -6875,13 +6868,13 @@
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="90">
         <v>2</v>
       </c>
       <c r="E34" s="70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F34" s="70"/>
       <c r="G34" s="70"/>
@@ -6896,7 +6889,7 @@
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="105">
         <f>SUM(D33:D34)</f>
@@ -6916,13 +6909,13 @@
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36" s="100">
         <v>3</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F36" s="70"/>
       <c r="G36" s="70"/>
@@ -6936,10 +6929,10 @@
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="143" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="145"/>
+      <c r="C37" s="169" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="171"/>
       <c r="E37" s="70"/>
       <c r="F37" s="70"/>
       <c r="G37" s="70"/>
@@ -6954,13 +6947,13 @@
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" s="87">
         <v>5</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F38" s="70"/>
       <c r="G38" s="70"/>
@@ -6975,7 +6968,7 @@
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" s="82">
         <v>3</v>
@@ -6994,13 +6987,13 @@
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" s="90">
         <v>2</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F40" s="70"/>
       <c r="G40" s="70"/>
@@ -7015,7 +7008,7 @@
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D41" s="105">
         <f>SUM(D38:D40)</f>
@@ -7035,7 +7028,7 @@
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" s="89">
         <v>1</v>
@@ -7054,7 +7047,7 @@
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" s="89">
         <v>2</v>
@@ -7073,7 +7066,7 @@
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44" s="89">
         <v>6</v>
@@ -7092,7 +7085,7 @@
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" s="89">
         <v>7</v>
@@ -7111,7 +7104,7 @@
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="89">
         <v>8</v>
@@ -7130,7 +7123,7 @@
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="89">
         <v>4</v>
@@ -7149,7 +7142,7 @@
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="89">
         <v>5</v>
@@ -7168,7 +7161,7 @@
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="89">
         <v>3</v>
@@ -7187,7 +7180,7 @@
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="89">
         <v>2</v>
@@ -7206,7 +7199,7 @@
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="105">
         <f>SUM(D35,D36,D41,D42:D50)</f>
@@ -7224,15 +7217,15 @@
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="143" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="145"/>
+        <v>3</v>
+      </c>
+      <c r="C52" s="169" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="171"/>
       <c r="E52" s="69"/>
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
@@ -7247,7 +7240,7 @@
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D53" s="89">
         <v>1</v>
@@ -7266,7 +7259,7 @@
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D54" s="89">
         <v>2</v>
@@ -7285,7 +7278,7 @@
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" s="89">
         <v>3</v>
@@ -7304,7 +7297,7 @@
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="89">
         <v>4</v>
@@ -7322,10 +7315,10 @@
     <row r="57" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
-      <c r="C57" s="143" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" s="145"/>
+      <c r="C57" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="171"/>
       <c r="E57" s="69"/>
       <c r="F57" s="70"/>
       <c r="G57" s="70"/>
@@ -7339,10 +7332,10 @@
     <row r="58" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
-      <c r="C58" s="143" t="s">
-        <v>188</v>
-      </c>
-      <c r="D58" s="145"/>
+      <c r="C58" s="169" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="171"/>
       <c r="E58" s="69"/>
       <c r="F58" s="70"/>
       <c r="G58" s="70"/>
@@ -7357,7 +7350,7 @@
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="89">
         <v>5</v>
@@ -7376,7 +7369,7 @@
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="89">
         <v>7</v>
@@ -7395,7 +7388,7 @@
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="105">
         <f>SUM(D59:D60)</f>
@@ -7415,7 +7408,7 @@
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="89">
         <v>4</v>
@@ -7434,7 +7427,7 @@
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="105">
         <f>SUM(D53:D56,D61)</f>
@@ -7454,7 +7447,7 @@
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="89">
         <v>3</v>
@@ -7473,7 +7466,7 @@
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65" s="89">
         <v>2</v>
@@ -7492,7 +7485,7 @@
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="89">
         <v>5</v>
@@ -7511,7 +7504,7 @@
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="89">
         <v>4</v>
@@ -7530,7 +7523,7 @@
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D68" s="89">
         <v>2</v>
@@ -7549,7 +7542,7 @@
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D69" s="106">
         <f>SUM(D64:D68,D63)</f>
@@ -7567,15 +7560,15 @@
     </row>
     <row r="70" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="144"/>
+        <v>21</v>
+      </c>
+      <c r="C70" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="170"/>
       <c r="E70" s="69"/>
       <c r="F70" s="70"/>
       <c r="G70" s="70"/>
@@ -7590,7 +7583,7 @@
       <c r="A71" s="20"/>
       <c r="B71" s="20"/>
       <c r="C71" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D71" s="89">
         <v>1</v>
@@ -7609,7 +7602,7 @@
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D72" s="89">
         <v>4</v>
@@ -7628,7 +7621,7 @@
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D73" s="89">
         <v>2</v>
@@ -7647,7 +7640,7 @@
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D74" s="89">
         <v>3</v>
@@ -7666,7 +7659,7 @@
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D75" s="106">
         <f>SUM(D71:D74)</f>
@@ -7686,7 +7679,7 @@
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D76" s="89">
         <v>2</v>
@@ -7705,7 +7698,7 @@
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D77" s="89">
         <v>3</v>
@@ -7724,7 +7717,7 @@
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="89">
         <v>4</v>
@@ -7743,7 +7736,7 @@
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D79" s="106">
         <f>SUM(D71:D78)</f>
@@ -7763,7 +7756,7 @@
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="89">
         <v>4</v>
@@ -7782,7 +7775,7 @@
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D81" s="89">
         <v>6</v>
@@ -7801,7 +7794,7 @@
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D82" s="89">
         <v>7</v>
@@ -7820,7 +7813,7 @@
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D83" s="89">
         <v>8</v>
@@ -7839,7 +7832,7 @@
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D84" s="89">
         <v>9</v>
@@ -7858,7 +7851,7 @@
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="C85" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D85" s="107">
         <f>SUM(D80:D84)</f>
@@ -7875,56 +7868,56 @@
       <c r="M85" s="72"/>
     </row>
     <row r="86" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="188" t="s">
-        <v>297</v>
-      </c>
-      <c r="B86" s="189"/>
-      <c r="C86" s="189"/>
-      <c r="D86" s="189"/>
-      <c r="E86" s="196"/>
-      <c r="F86" s="196"/>
-      <c r="G86" s="196"/>
-      <c r="H86" s="196"/>
-      <c r="I86" s="196"/>
-      <c r="J86" s="196"/>
-      <c r="K86" s="196"/>
-      <c r="L86" s="196"/>
-      <c r="M86" s="197"/>
+      <c r="A86" s="209" t="s">
+        <v>296</v>
+      </c>
+      <c r="B86" s="210"/>
+      <c r="C86" s="210"/>
+      <c r="D86" s="210"/>
+      <c r="E86" s="211"/>
+      <c r="F86" s="211"/>
+      <c r="G86" s="211"/>
+      <c r="H86" s="211"/>
+      <c r="I86" s="211"/>
+      <c r="J86" s="211"/>
+      <c r="K86" s="211"/>
+      <c r="L86" s="211"/>
+      <c r="M86" s="212"/>
     </row>
     <row r="87" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="B87" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="E87" s="198" t="s">
-        <v>74</v>
-      </c>
-      <c r="F87" s="199"/>
-      <c r="G87" s="199"/>
-      <c r="H87" s="199"/>
-      <c r="I87" s="199"/>
-      <c r="J87" s="199"/>
-      <c r="K87" s="199"/>
-      <c r="L87" s="199"/>
-      <c r="M87" s="200"/>
+      <c r="E87" s="213" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="214"/>
+      <c r="G87" s="214"/>
+      <c r="H87" s="214"/>
+      <c r="I87" s="214"/>
+      <c r="J87" s="214"/>
+      <c r="K87" s="214"/>
+      <c r="L87" s="214"/>
+      <c r="M87" s="215"/>
     </row>
     <row r="88" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D88" s="25"/>
       <c r="E88" s="73"/>
@@ -7940,10 +7933,10 @@
     <row r="89" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="20"/>
       <c r="B89" s="30"/>
-      <c r="C89" s="143" t="s">
-        <v>206</v>
-      </c>
-      <c r="D89" s="145"/>
+      <c r="C89" s="169" t="s">
+        <v>205</v>
+      </c>
+      <c r="D89" s="171"/>
       <c r="E89" s="76"/>
       <c r="F89" s="77"/>
       <c r="G89" s="77"/>
@@ -7958,7 +7951,7 @@
       <c r="A90" s="20"/>
       <c r="B90" s="30"/>
       <c r="C90" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D90" s="89">
         <v>2</v>
@@ -7977,7 +7970,7 @@
       <c r="A91" s="20"/>
       <c r="B91" s="30"/>
       <c r="C91" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D91" s="89">
         <v>3</v>
@@ -7996,7 +7989,7 @@
       <c r="A92" s="20"/>
       <c r="B92" s="30"/>
       <c r="C92" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D92" s="108">
         <f>SUM(D90:D91)</f>
@@ -8016,7 +8009,7 @@
       <c r="A93" s="20"/>
       <c r="B93" s="30"/>
       <c r="C93" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D93" s="89">
         <v>4</v>
@@ -8035,7 +8028,7 @@
       <c r="A94" s="20"/>
       <c r="B94" s="30"/>
       <c r="C94" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D94" s="89">
         <v>5</v>
@@ -8054,7 +8047,7 @@
       <c r="A95" s="20"/>
       <c r="B95" s="30"/>
       <c r="C95" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D95" s="89">
         <v>6</v>
@@ -8073,7 +8066,7 @@
       <c r="A96" s="20"/>
       <c r="B96" s="30"/>
       <c r="C96" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D96" s="89">
         <v>7</v>
@@ -8092,7 +8085,7 @@
       <c r="A97" s="20"/>
       <c r="B97" s="30"/>
       <c r="C97" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D97" s="89">
         <v>4</v>
@@ -8111,7 +8104,7 @@
       <c r="A98" s="20"/>
       <c r="B98" s="30"/>
       <c r="C98" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D98" s="89">
         <v>4</v>
@@ -8130,7 +8123,7 @@
       <c r="A99" s="20"/>
       <c r="B99" s="30"/>
       <c r="C99" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D99" s="89">
         <v>6</v>
@@ -8149,7 +8142,7 @@
       <c r="A100" s="20"/>
       <c r="B100" s="30"/>
       <c r="C100" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D100" s="89">
         <v>7</v>
@@ -8168,7 +8161,7 @@
       <c r="A101" s="20"/>
       <c r="B101" s="30"/>
       <c r="C101" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D101" s="89">
         <v>8</v>
@@ -8187,7 +8180,7 @@
       <c r="A102" s="20"/>
       <c r="B102" s="30"/>
       <c r="C102" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D102" s="89">
         <v>9</v>
@@ -8206,7 +8199,7 @@
       <c r="A103" s="20"/>
       <c r="B103" s="30"/>
       <c r="C103" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D103" s="89">
         <v>5</v>
@@ -8225,7 +8218,7 @@
       <c r="A104" s="21"/>
       <c r="B104" s="30"/>
       <c r="C104" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D104" s="108">
         <f>SUM(D93:D103)</f>
@@ -8243,13 +8236,13 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="25"/>
       <c r="E105" s="66"/>
@@ -8265,10 +8258,10 @@
     <row r="106" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="20"/>
       <c r="B106" s="20"/>
-      <c r="C106" s="144" t="s">
-        <v>206</v>
-      </c>
-      <c r="D106" s="145"/>
+      <c r="C106" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="D106" s="171"/>
       <c r="E106" s="69"/>
       <c r="F106" s="70"/>
       <c r="G106" s="70"/>
@@ -8283,7 +8276,7 @@
       <c r="A107" s="20"/>
       <c r="B107" s="20"/>
       <c r="C107" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D107" s="89">
         <v>2</v>
@@ -8302,7 +8295,7 @@
       <c r="A108" s="20"/>
       <c r="B108" s="20"/>
       <c r="C108" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D108" s="89">
         <v>3</v>
@@ -8321,7 +8314,7 @@
       <c r="A109" s="20"/>
       <c r="B109" s="20"/>
       <c r="C109" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D109" s="108">
         <f>SUM(D107:D108)</f>
@@ -8341,7 +8334,7 @@
       <c r="A110" s="20"/>
       <c r="B110" s="20"/>
       <c r="C110" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D110" s="89">
         <v>4</v>
@@ -8360,7 +8353,7 @@
       <c r="A111" s="20"/>
       <c r="B111" s="20"/>
       <c r="C111" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D111" s="89">
         <v>5</v>
@@ -8379,7 +8372,7 @@
       <c r="A112" s="20"/>
       <c r="B112" s="20"/>
       <c r="C112" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D112" s="89">
         <v>6</v>
@@ -8398,7 +8391,7 @@
       <c r="A113" s="20"/>
       <c r="B113" s="20"/>
       <c r="C113" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D113" s="89">
         <v>7</v>
@@ -8417,7 +8410,7 @@
       <c r="A114" s="20"/>
       <c r="B114" s="20"/>
       <c r="C114" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D114" s="89">
         <v>4</v>
@@ -8436,7 +8429,7 @@
       <c r="A115" s="20"/>
       <c r="B115" s="20"/>
       <c r="C115" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D115" s="89">
         <v>4</v>
@@ -8455,7 +8448,7 @@
       <c r="A116" s="20"/>
       <c r="B116" s="20"/>
       <c r="C116" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D116" s="89">
         <v>6</v>
@@ -8474,7 +8467,7 @@
       <c r="A117" s="20"/>
       <c r="B117" s="20"/>
       <c r="C117" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D117" s="89">
         <v>7</v>
@@ -8493,7 +8486,7 @@
       <c r="A118" s="20"/>
       <c r="B118" s="20"/>
       <c r="C118" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D118" s="89">
         <v>8</v>
@@ -8512,7 +8505,7 @@
       <c r="A119" s="20"/>
       <c r="B119" s="20"/>
       <c r="C119" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D119" s="89">
         <v>9</v>
@@ -8531,7 +8524,7 @@
       <c r="A120" s="20"/>
       <c r="B120" s="20"/>
       <c r="C120" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D120" s="89">
         <v>5</v>
@@ -8550,7 +8543,7 @@
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D121" s="108">
         <f>SUM(D110:D120)</f>
@@ -8568,15 +8561,15 @@
     </row>
     <row r="122" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C122" s="143" t="s">
-        <v>62</v>
-      </c>
-      <c r="D122" s="145"/>
+        <v>61</v>
+      </c>
+      <c r="C122" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="D122" s="171"/>
       <c r="E122" s="66"/>
       <c r="F122" s="67"/>
       <c r="G122" s="67"/>
@@ -8591,7 +8584,7 @@
       <c r="A123" s="20"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D123" s="89">
         <v>4</v>
@@ -8610,7 +8603,7 @@
       <c r="A124" s="20"/>
       <c r="B124" s="20"/>
       <c r="C124" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D124" s="89">
         <v>6</v>
@@ -8629,7 +8622,7 @@
       <c r="A125" s="20"/>
       <c r="B125" s="20"/>
       <c r="C125" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D125" s="89">
         <v>7</v>
@@ -8648,7 +8641,7 @@
       <c r="A126" s="20"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D126" s="89">
         <v>9</v>
@@ -8666,10 +8659,10 @@
     <row r="127" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="20"/>
       <c r="B127" s="20"/>
-      <c r="C127" s="143" t="s">
-        <v>228</v>
-      </c>
-      <c r="D127" s="145"/>
+      <c r="C127" s="169" t="s">
+        <v>227</v>
+      </c>
+      <c r="D127" s="171"/>
       <c r="E127" s="69"/>
       <c r="F127" s="70"/>
       <c r="G127" s="70"/>
@@ -8683,10 +8676,10 @@
     <row r="128" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="20"/>
       <c r="B128" s="20"/>
-      <c r="C128" s="143" t="s">
-        <v>229</v>
-      </c>
-      <c r="D128" s="145"/>
+      <c r="C128" s="169" t="s">
+        <v>228</v>
+      </c>
+      <c r="D128" s="171"/>
       <c r="E128" s="69"/>
       <c r="F128" s="70"/>
       <c r="G128" s="70"/>
@@ -8701,7 +8694,7 @@
       <c r="A129" s="20"/>
       <c r="B129" s="20"/>
       <c r="C129" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D129" s="89">
         <v>6</v>
@@ -8720,7 +8713,7 @@
       <c r="A130" s="20"/>
       <c r="B130" s="20"/>
       <c r="C130" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D130" s="89">
         <v>5</v>
@@ -8739,7 +8732,7 @@
       <c r="A131" s="20"/>
       <c r="B131" s="20"/>
       <c r="C131" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D131" s="89">
         <v>3</v>
@@ -8758,7 +8751,7 @@
       <c r="A132" s="20"/>
       <c r="B132" s="20"/>
       <c r="C132" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D132" s="105">
         <f>SUM(D129:D131)</f>
@@ -8778,7 +8771,7 @@
       <c r="A133" s="20"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D133" s="89">
         <v>5</v>
@@ -8797,7 +8790,7 @@
       <c r="A134" s="20"/>
       <c r="B134" s="20"/>
       <c r="C134" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D134" s="89">
         <v>6</v>
@@ -8816,7 +8809,7 @@
       <c r="A135" s="20"/>
       <c r="B135" s="20"/>
       <c r="C135" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D135" s="89">
         <v>7</v>
@@ -8835,7 +8828,7 @@
       <c r="A136" s="20"/>
       <c r="B136" s="20"/>
       <c r="C136" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D136" s="105">
         <f>SUM(D133:D135)</f>
@@ -8855,7 +8848,7 @@
       <c r="A137" s="20"/>
       <c r="B137" s="20"/>
       <c r="C137" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D137" s="89">
         <v>3</v>
@@ -8874,7 +8867,7 @@
       <c r="A138" s="20"/>
       <c r="B138" s="20"/>
       <c r="C138" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D138" s="89">
         <v>2</v>
@@ -8893,7 +8886,7 @@
       <c r="A139" s="20"/>
       <c r="B139" s="20"/>
       <c r="C139" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D139" s="105">
         <f>SUM(D137:D138)</f>
@@ -8913,7 +8906,7 @@
       <c r="A140" s="20"/>
       <c r="B140" s="20"/>
       <c r="C140" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D140" s="89">
         <v>4</v>
@@ -8932,7 +8925,7 @@
       <c r="A141" s="20"/>
       <c r="B141" s="20"/>
       <c r="C141" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D141" s="89">
         <v>4</v>
@@ -8951,7 +8944,7 @@
       <c r="A142" s="20"/>
       <c r="B142" s="20"/>
       <c r="C142" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D142" s="89">
         <v>5</v>
@@ -8970,7 +8963,7 @@
       <c r="A143" s="20"/>
       <c r="B143" s="20"/>
       <c r="C143" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D143" s="89">
         <v>7</v>
@@ -8989,7 +8982,7 @@
       <c r="A144" s="20"/>
       <c r="B144" s="20"/>
       <c r="C144" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D144" s="89">
         <v>6</v>
@@ -9008,7 +9001,7 @@
       <c r="A145" s="20"/>
       <c r="B145" s="20"/>
       <c r="C145" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D145" s="105">
         <f>SUM(D140:D144,D123:D126,D132,D136,D139)</f>
@@ -9026,15 +9019,15 @@
     </row>
     <row r="146" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C146" s="143" t="s">
-        <v>50</v>
-      </c>
-      <c r="D146" s="145"/>
+        <v>49</v>
+      </c>
+      <c r="C146" s="169" t="s">
+        <v>49</v>
+      </c>
+      <c r="D146" s="171"/>
       <c r="E146" s="66"/>
       <c r="F146" s="67"/>
       <c r="G146" s="67"/>
@@ -9049,7 +9042,7 @@
       <c r="A147" s="20"/>
       <c r="B147" s="20"/>
       <c r="C147" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D147" s="89">
         <v>2</v>
@@ -9068,7 +9061,7 @@
       <c r="A148" s="20"/>
       <c r="B148" s="20"/>
       <c r="C148" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D148" s="89">
         <v>4</v>
@@ -9087,7 +9080,7 @@
       <c r="A149" s="20"/>
       <c r="B149" s="20"/>
       <c r="C149" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D149" s="89">
         <v>2</v>
@@ -9106,7 +9099,7 @@
       <c r="A150" s="20"/>
       <c r="B150" s="20"/>
       <c r="C150" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D150" s="89">
         <v>3</v>
@@ -9124,10 +9117,10 @@
     <row r="151" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="20"/>
       <c r="B151" s="20"/>
-      <c r="C151" s="143" t="s">
-        <v>250</v>
-      </c>
-      <c r="D151" s="145"/>
+      <c r="C151" s="169" t="s">
+        <v>249</v>
+      </c>
+      <c r="D151" s="171"/>
       <c r="E151" s="69"/>
       <c r="F151" s="70"/>
       <c r="G151" s="70"/>
@@ -9141,10 +9134,10 @@
     <row r="152" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="20"/>
       <c r="B152" s="20"/>
-      <c r="C152" s="143" t="s">
-        <v>251</v>
-      </c>
-      <c r="D152" s="145"/>
+      <c r="C152" s="169" t="s">
+        <v>250</v>
+      </c>
+      <c r="D152" s="171"/>
       <c r="E152" s="69"/>
       <c r="F152" s="70"/>
       <c r="G152" s="70"/>
@@ -9158,10 +9151,10 @@
     <row r="153" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="20"/>
       <c r="B153" s="20"/>
-      <c r="C153" s="143" t="s">
-        <v>252</v>
-      </c>
-      <c r="D153" s="145"/>
+      <c r="C153" s="169" t="s">
+        <v>251</v>
+      </c>
+      <c r="D153" s="171"/>
       <c r="E153" s="69"/>
       <c r="F153" s="70"/>
       <c r="G153" s="70"/>
@@ -9176,7 +9169,7 @@
       <c r="A154" s="20"/>
       <c r="B154" s="20"/>
       <c r="C154" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D154" s="89">
         <v>4</v>
@@ -9195,7 +9188,7 @@
       <c r="A155" s="20"/>
       <c r="B155" s="20"/>
       <c r="C155" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D155" s="89">
         <v>5</v>
@@ -9214,7 +9207,7 @@
       <c r="A156" s="20"/>
       <c r="B156" s="20"/>
       <c r="C156" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D156" s="105">
         <f>SUM(D154:D155)</f>
@@ -9234,7 +9227,7 @@
       <c r="A157" s="20"/>
       <c r="B157" s="20"/>
       <c r="C157" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D157" s="89">
         <v>4</v>
@@ -9253,7 +9246,7 @@
       <c r="A158" s="20"/>
       <c r="B158" s="20"/>
       <c r="C158" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D158" s="89">
         <v>7</v>
@@ -9272,7 +9265,7 @@
       <c r="A159" s="20"/>
       <c r="B159" s="20"/>
       <c r="C159" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D159" s="89">
         <v>9</v>
@@ -9291,7 +9284,7 @@
       <c r="A160" s="20"/>
       <c r="B160" s="20"/>
       <c r="C160" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D160" s="105">
         <f>SUM(D157:D159)</f>
@@ -9311,7 +9304,7 @@
       <c r="A161" s="20"/>
       <c r="B161" s="20"/>
       <c r="C161" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D161" s="109">
         <v>5</v>
@@ -9330,7 +9323,7 @@
       <c r="A162" s="20"/>
       <c r="B162" s="20"/>
       <c r="C162" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D162" s="105">
         <f>SUM(D161)</f>
@@ -9350,7 +9343,7 @@
       <c r="A163" s="20"/>
       <c r="B163" s="20"/>
       <c r="C163" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D163" s="89">
         <v>4</v>
@@ -9369,7 +9362,7 @@
       <c r="A164" s="20"/>
       <c r="B164" s="20"/>
       <c r="C164" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D164" s="89">
         <v>5</v>
@@ -9388,7 +9381,7 @@
       <c r="A165" s="20"/>
       <c r="B165" s="20"/>
       <c r="C165" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D165" s="89">
         <v>6</v>
@@ -9407,7 +9400,7 @@
       <c r="A166" s="20"/>
       <c r="B166" s="20"/>
       <c r="C166" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D166" s="89">
         <v>7</v>
@@ -9426,7 +9419,7 @@
       <c r="A167" s="20"/>
       <c r="B167" s="20"/>
       <c r="C167" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D167" s="89">
         <v>1</v>
@@ -9445,7 +9438,7 @@
       <c r="A168" s="20"/>
       <c r="B168" s="20"/>
       <c r="C168" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D168" s="105">
         <f>SUM(D163:D167,D147:D150,D156,D160,D162)</f>
@@ -9463,13 +9456,13 @@
     </row>
     <row r="169" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C169" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D169" s="33"/>
       <c r="E169" s="69"/>
@@ -9486,7 +9479,7 @@
       <c r="A170" s="20"/>
       <c r="B170" s="20"/>
       <c r="C170" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D170" s="89">
         <v>5</v>
@@ -9505,7 +9498,7 @@
       <c r="A171" s="20"/>
       <c r="B171" s="20"/>
       <c r="C171" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D171" s="89">
         <v>2</v>
@@ -9524,7 +9517,7 @@
       <c r="A172" s="20"/>
       <c r="B172" s="20"/>
       <c r="C172" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D172" s="89">
         <v>9</v>
@@ -9543,7 +9536,7 @@
       <c r="A173" s="20"/>
       <c r="B173" s="20"/>
       <c r="C173" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D173" s="89">
         <v>1</v>
@@ -9562,7 +9555,7 @@
       <c r="A174" s="20"/>
       <c r="B174" s="20"/>
       <c r="C174" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D174" s="105">
         <f>SUM(D170:D173)</f>
@@ -9597,7 +9590,7 @@
       <c r="A176" s="20"/>
       <c r="B176" s="20"/>
       <c r="C176" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="69"/>
@@ -9614,7 +9607,7 @@
       <c r="A177" s="20"/>
       <c r="B177" s="20"/>
       <c r="C177" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D177" s="16"/>
       <c r="E177" s="69"/>
@@ -9629,15 +9622,15 @@
     </row>
     <row r="178" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C178" s="143" t="s">
-        <v>47</v>
-      </c>
-      <c r="D178" s="145"/>
+        <v>46</v>
+      </c>
+      <c r="C178" s="169" t="s">
+        <v>46</v>
+      </c>
+      <c r="D178" s="171"/>
       <c r="E178" s="69"/>
       <c r="F178" s="70"/>
       <c r="G178" s="70"/>
@@ -9652,7 +9645,7 @@
       <c r="A179" s="20"/>
       <c r="B179" s="35"/>
       <c r="C179" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D179" s="89">
         <v>4</v>
@@ -9671,7 +9664,7 @@
       <c r="A180" s="20"/>
       <c r="B180" s="35"/>
       <c r="C180" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D180" s="89">
         <v>5</v>
@@ -9690,7 +9683,7 @@
       <c r="A181" s="20"/>
       <c r="B181" s="35"/>
       <c r="C181" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D181" s="89">
         <v>7</v>
@@ -9709,7 +9702,7 @@
       <c r="A182" s="20"/>
       <c r="B182" s="35"/>
       <c r="C182" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D182" s="89">
         <v>6</v>
@@ -9728,7 +9721,7 @@
       <c r="A183" s="20"/>
       <c r="B183" s="35"/>
       <c r="C183" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D183" s="110">
         <f>SUM(D179:D182)</f>
@@ -9746,15 +9739,15 @@
     </row>
     <row r="184" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C184" s="143" t="s">
-        <v>35</v>
-      </c>
-      <c r="D184" s="145"/>
+        <v>34</v>
+      </c>
+      <c r="C184" s="169" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" s="171"/>
       <c r="E184" s="66"/>
       <c r="F184" s="67"/>
       <c r="G184" s="67"/>
@@ -9769,7 +9762,7 @@
       <c r="A185" s="20"/>
       <c r="B185" s="20"/>
       <c r="C185" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D185" s="89">
         <v>1</v>
@@ -9788,7 +9781,7 @@
       <c r="A186" s="20"/>
       <c r="B186" s="20"/>
       <c r="C186" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D186" s="89">
         <v>2</v>
@@ -9807,7 +9800,7 @@
       <c r="A187" s="20"/>
       <c r="B187" s="20"/>
       <c r="C187" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D187" s="105">
         <f>SUM(D185:D186)</f>
@@ -9825,15 +9818,15 @@
     </row>
     <row r="188" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C188" s="143" t="s">
-        <v>259</v>
-      </c>
-      <c r="D188" s="145"/>
+        <v>35</v>
+      </c>
+      <c r="C188" s="169" t="s">
+        <v>258</v>
+      </c>
+      <c r="D188" s="171"/>
       <c r="E188" s="66"/>
       <c r="F188" s="67"/>
       <c r="G188" s="67"/>
@@ -9848,7 +9841,7 @@
       <c r="A189" s="20"/>
       <c r="B189" s="20"/>
       <c r="C189" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D189" s="89">
         <v>3</v>
@@ -9867,7 +9860,7 @@
       <c r="A190" s="20"/>
       <c r="B190" s="20"/>
       <c r="C190" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D190" s="89">
         <v>4</v>
@@ -9886,7 +9879,7 @@
       <c r="A191" s="20"/>
       <c r="B191" s="20"/>
       <c r="C191" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D191" s="110">
         <f>SUM(D188:D190)</f>
@@ -9904,13 +9897,13 @@
     </row>
     <row r="192" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C192" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D192" s="33"/>
       <c r="E192" s="66"/>
@@ -9957,7 +9950,7 @@
       <c r="A195" s="20"/>
       <c r="B195" s="35"/>
       <c r="C195" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D195" s="16"/>
       <c r="E195" s="69"/>
@@ -10004,7 +9997,7 @@
       <c r="A198" s="20"/>
       <c r="B198" s="35"/>
       <c r="C198" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D198" s="16"/>
       <c r="E198" s="69"/>
@@ -10021,7 +10014,7 @@
       <c r="A199" s="20"/>
       <c r="B199" s="35"/>
       <c r="C199" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D199" s="16"/>
       <c r="E199" s="69"/>
@@ -10038,7 +10031,7 @@
       <c r="A200" s="20"/>
       <c r="B200" s="35"/>
       <c r="C200" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D200" s="16"/>
       <c r="E200" s="69"/>
@@ -10070,7 +10063,7 @@
       <c r="A202" s="20"/>
       <c r="B202" s="35"/>
       <c r="C202" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D202" s="16"/>
       <c r="E202" s="69"/>
@@ -10087,7 +10080,7 @@
       <c r="A203" s="20"/>
       <c r="B203" s="35"/>
       <c r="C203" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D203" s="16"/>
       <c r="E203" s="69"/>
@@ -10177,13 +10170,13 @@
     </row>
     <row r="209" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B209" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C209" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D209" s="33"/>
       <c r="E209" s="66"/>
@@ -10200,7 +10193,7 @@
       <c r="A210" s="20"/>
       <c r="B210" s="20"/>
       <c r="C210" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="69"/>
@@ -10247,7 +10240,7 @@
       <c r="A213" s="20"/>
       <c r="B213" s="20"/>
       <c r="C213" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D213" s="16"/>
       <c r="E213" s="69"/>
@@ -10264,7 +10257,7 @@
       <c r="A214" s="20"/>
       <c r="B214" s="20"/>
       <c r="C214" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D214" s="16"/>
       <c r="E214" s="69"/>
@@ -10296,7 +10289,7 @@
       <c r="A216" s="20"/>
       <c r="B216" s="20"/>
       <c r="C216" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D216" s="16"/>
       <c r="E216" s="69"/>
@@ -10313,7 +10306,7 @@
       <c r="A217" s="20"/>
       <c r="B217" s="20"/>
       <c r="C217" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="69"/>
@@ -10360,7 +10353,7 @@
       <c r="A220" s="20"/>
       <c r="B220" s="20"/>
       <c r="C220" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D220" s="16"/>
       <c r="E220" s="69"/>
@@ -10377,7 +10370,7 @@
       <c r="A221" s="20"/>
       <c r="B221" s="20"/>
       <c r="C221" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D221" s="16"/>
       <c r="E221" s="69"/>
@@ -10467,15 +10460,15 @@
     </row>
     <row r="227" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B227" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C227" s="143" t="s">
-        <v>40</v>
-      </c>
-      <c r="D227" s="144"/>
+        <v>39</v>
+      </c>
+      <c r="C227" s="169" t="s">
+        <v>39</v>
+      </c>
+      <c r="D227" s="170"/>
       <c r="E227" s="51"/>
       <c r="F227" s="53"/>
       <c r="G227" s="53"/>
@@ -10490,7 +10483,7 @@
       <c r="A228" s="19"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D228" s="88">
         <v>1</v>
@@ -10509,7 +10502,7 @@
       <c r="A229" s="20"/>
       <c r="B229" s="20"/>
       <c r="C229" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D229" s="89">
         <v>4</v>
@@ -10528,7 +10521,7 @@
       <c r="A230" s="20"/>
       <c r="B230" s="20"/>
       <c r="C230" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D230" s="89">
         <v>2</v>
@@ -10547,7 +10540,7 @@
       <c r="A231" s="21"/>
       <c r="B231" s="21"/>
       <c r="C231" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D231" s="106">
         <f>SUM(D228:D230)</f>
@@ -10565,22 +10558,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A86:M86"/>
-    <mergeCell ref="E87:M87"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="B7:M7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="C184:D184"/>
@@ -10597,6 +10574,22 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="B8:M8"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A86:M86"/>
+    <mergeCell ref="E87:M87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{CAFC6D68-6070-4D51-BEF1-3FF68EC64F87}"/>

--- a/ifrs-sme-model.xlsx
+++ b/ifrs-sme-model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Desktop\IFRS - 2023 - BANANA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB368CBB-71FE-48E1-90C0-14BA473EB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946482BB-6DB1-4703-B596-E11656B694FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="527">
   <si>
     <t>Statement of financial position, current/non-current</t>
   </si>
@@ -1441,9 +1441,6 @@
     <t>Significant accounting policies</t>
   </si>
   <si>
-    <t xml:space="preserve">Insert here the accounting policies adopted by the entity in accordance with IFRS for SMEs. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Include details such as revenue recognition, inventory valuation, fixed asset treatment, and any other relevant policies that impact the preparation and presentation of the financial statements. </t>
   </si>
   <si>
@@ -1457,6 +1454,264 @@
   </si>
   <si>
     <t>CompanyName, Individual or group entity</t>
+  </si>
+  <si>
+    <t>DAE</t>
+  </si>
+  <si>
+    <t>OGL</t>
+  </si>
+  <si>
+    <t>REV</t>
+  </si>
+  <si>
+    <t>OTI</t>
+  </si>
+  <si>
+    <t>IDI</t>
+  </si>
+  <si>
+    <t>OWC</t>
+  </si>
+  <si>
+    <t>RMC</t>
+  </si>
+  <si>
+    <t>EBE</t>
+  </si>
+  <si>
+    <t>RIL</t>
+  </si>
+  <si>
+    <t>OTE</t>
+  </si>
+  <si>
+    <t>FNI</t>
+  </si>
+  <si>
+    <t>FNC</t>
+  </si>
+  <si>
+    <t>SAJ</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>EQB</t>
+  </si>
+  <si>
+    <t>PLE</t>
+  </si>
+  <si>
+    <t>OCI</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
+  <si>
+    <t>DRD</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>DDE</t>
+  </si>
+  <si>
+    <t>IDO</t>
+  </si>
+  <si>
+    <t>IDT</t>
+  </si>
+  <si>
+    <t>IDS</t>
+  </si>
+  <si>
+    <t>EQE</t>
+  </si>
+  <si>
+    <t>PLC</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>ADF</t>
+  </si>
+  <si>
+    <t>ADNT</t>
+  </si>
+  <si>
+    <t>ADTX</t>
+  </si>
+  <si>
+    <t>ADTD</t>
+  </si>
+  <si>
+    <t>ADOR</t>
+  </si>
+  <si>
+    <t>ADTP</t>
+  </si>
+  <si>
+    <t>ADOP</t>
+  </si>
+  <si>
+    <t>ADDA</t>
+  </si>
+  <si>
+    <t>ADIR</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>ADSP</t>
+  </si>
+  <si>
+    <t>ADUE</t>
+  </si>
+  <si>
+    <t>ADFV</t>
+  </si>
+  <si>
+    <t>ADUP</t>
+  </si>
+  <si>
+    <t>ADNI</t>
+  </si>
+  <si>
+    <t>ADAE</t>
+  </si>
+  <si>
+    <t>ADON</t>
+  </si>
+  <si>
+    <t>ADGD</t>
+  </si>
+  <si>
+    <t>ADOI</t>
+  </si>
+  <si>
+    <t>ADRP</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>LCSB</t>
+  </si>
+  <si>
+    <t>OCSB</t>
+  </si>
+  <si>
+    <t>OSED</t>
+  </si>
+  <si>
+    <t>OAED</t>
+  </si>
+  <si>
+    <t>OSIJ</t>
+  </si>
+  <si>
+    <t>OAIJ</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>PSIA</t>
+  </si>
+  <si>
+    <t>PIA</t>
+  </si>
+  <si>
+    <t>PSOL</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>CALO</t>
+  </si>
+  <si>
+    <t>CRRL</t>
+  </si>
+  <si>
+    <t>CPC</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t>IRO</t>
+  </si>
+  <si>
+    <t>IPI</t>
+  </si>
+  <si>
+    <t>IRI</t>
+  </si>
+  <si>
+    <t>ITI</t>
+  </si>
+  <si>
+    <t>OIOI</t>
+  </si>
+  <si>
+    <t>OIOO</t>
+  </si>
+  <si>
+    <t>PIS</t>
+  </si>
+  <si>
+    <t>PIOE</t>
+  </si>
+  <si>
+    <t>PARE</t>
+  </si>
+  <si>
+    <t>POEI</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>PFL</t>
+  </si>
+  <si>
+    <t>DPF</t>
+  </si>
+  <si>
+    <t>IPF</t>
+  </si>
+  <si>
+    <t>ITF</t>
+  </si>
+  <si>
+    <t>OIOF</t>
+  </si>
+  <si>
+    <t>EXRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert here the description of accounting policies adopted by the entity in accordance with IFRS for SMEs. </t>
   </si>
 </sst>
 </file>
@@ -1858,7 +2113,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2022,9 +2277,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,6 +2332,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2227,6 +2481,27 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2239,6 +2514,12 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2295,6 +2576,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2809,13 +3096,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>155015</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
@@ -3229,10 +3516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF98B21-6444-45D8-9FCF-A476D917F48D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3242,222 +3532,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="161" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="162"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="163"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="139" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="152" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="154"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="139" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="154"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="139" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="152" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="154"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="139" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="155" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="157"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="139" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="152" t="s">
         <v>439</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="153"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="140" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" s="151" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="140" t="s">
-        <v>432</v>
-      </c>
-      <c r="B4" s="151" t="s">
-        <v>433</v>
-      </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="153"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="140" t="s">
-        <v>429</v>
-      </c>
-      <c r="B5" s="154" t="s">
-        <v>441</v>
-      </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="156"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="140" t="s">
-        <v>430</v>
-      </c>
-      <c r="B6" s="151" t="s">
-        <v>440</v>
-      </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="154"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="163">
+      <c r="B7" s="164">
         <v>45291</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="166"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="145">
+      <c r="B8" s="146">
         <v>45657</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="136" t="s">
         <v>417</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="158" t="s">
         <v>419</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="160"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A10" s="138"/>
-      <c r="B10" s="145" t="s">
+      <c r="A10" s="137"/>
+      <c r="B10" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="148"/>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A11" s="138"/>
-      <c r="B11" s="145" t="s">
+      <c r="A11" s="137"/>
+      <c r="B11" s="146" t="s">
         <v>421</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="148"/>
     </row>
     <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="139"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="138"/>
+      <c r="B12" s="149" t="s">
         <v>422</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="151"/>
     </row>
     <row r="13" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="137" t="s">
         <v>418</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="146" t="s">
         <v>423</v>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="148"/>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="136" t="s">
         <v>424</v>
       </c>
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="158" t="s">
         <v>425</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="159"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="160"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A15" s="138"/>
-      <c r="B15" s="145" t="s">
+      <c r="A15" s="137"/>
+      <c r="B15" s="146" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="148"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A16" s="138"/>
-      <c r="B16" s="145" t="s">
+      <c r="A16" s="137"/>
+      <c r="B16" s="146" t="s">
         <v>391</v>
       </c>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="148"/>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A17" s="138"/>
-      <c r="B17" s="145" t="s">
+      <c r="A17" s="137"/>
+      <c r="B17" s="146" t="s">
         <v>427</v>
       </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
     </row>
     <row r="18" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="139"/>
-      <c r="B18" s="148" t="s">
+      <c r="A18" s="138"/>
+      <c r="B18" s="149" t="s">
         <v>428</v>
       </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3481,7 +3771,8 @@
     <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3492,8 +3783,8 @@
   </sheetPr>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:C38"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3511,118 +3802,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="161" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="162"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="163"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="139" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="188" t="str">
+      <c r="B2" s="189" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="191"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="143" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="188" t="str">
+      <c r="B3" s="189" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="191"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="146">
         <f>'General information'!B7</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="148"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="146">
         <f>'General information'!B8</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="148"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="161" t="s">
         <v>412</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="162"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="163"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="186"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="117" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="192" t="s">
         <v>402</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="194"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="182"/>
+      <c r="C10" s="183"/>
       <c r="D10" s="14" t="s">
         <v>73</v>
       </c>
@@ -3634,38 +3925,38 @@
         <f>$B$5</f>
         <v>45657</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="111" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="172"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="180"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="181"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="177"/>
+      <c r="C13" s="178"/>
       <c r="D13" s="7" t="s">
         <v>123</v>
       </c>
@@ -3683,10 +3974,10 @@
       <c r="A14" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="175"/>
+      <c r="C14" s="176"/>
       <c r="D14" s="8"/>
       <c r="E14" s="82"/>
       <c r="F14" s="89">
@@ -3698,10 +3989,10 @@
       <c r="A15" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="175"/>
+      <c r="C15" s="176"/>
       <c r="D15" s="8"/>
       <c r="E15" s="82"/>
       <c r="F15" s="89"/>
@@ -3711,10 +4002,10 @@
       <c r="A16" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="175"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="8"/>
       <c r="E16" s="82">
         <v>20</v>
@@ -3728,10 +4019,10 @@
       <c r="A17" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="175"/>
+      <c r="C17" s="176"/>
       <c r="D17" s="8"/>
       <c r="E17" s="82">
         <v>30</v>
@@ -3745,10 +4036,10 @@
       <c r="A18" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="175"/>
+      <c r="C18" s="176"/>
       <c r="D18" s="8"/>
       <c r="E18" s="82"/>
       <c r="F18" s="89"/>
@@ -3758,10 +4049,10 @@
       <c r="A19" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="175"/>
+      <c r="C19" s="176"/>
       <c r="D19" s="8"/>
       <c r="E19" s="82"/>
       <c r="F19" s="89"/>
@@ -3771,10 +4062,10 @@
       <c r="A20" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="175"/>
+      <c r="C20" s="176"/>
       <c r="D20" s="8"/>
       <c r="E20" s="82"/>
       <c r="F20" s="89"/>
@@ -3784,10 +4075,10 @@
       <c r="A21" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="174" t="s">
+      <c r="B21" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="175"/>
+      <c r="C21" s="176"/>
       <c r="D21" s="8"/>
       <c r="E21" s="82"/>
       <c r="F21" s="89"/>
@@ -3797,10 +4088,10 @@
       <c r="A22" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="174" t="s">
+      <c r="B22" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="175"/>
+      <c r="C22" s="176"/>
       <c r="D22" s="8" t="s">
         <v>124</v>
       </c>
@@ -3814,10 +4105,10 @@
       <c r="A23" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="175"/>
+      <c r="C23" s="176"/>
       <c r="D23" s="8" t="s">
         <v>125</v>
       </c>
@@ -3831,10 +4122,10 @@
       <c r="A24" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="175"/>
+      <c r="C24" s="176"/>
       <c r="D24" s="8"/>
       <c r="E24" s="82"/>
       <c r="F24" s="89"/>
@@ -3844,10 +4135,10 @@
       <c r="A25" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="175"/>
+      <c r="C25" s="176"/>
       <c r="D25" s="8"/>
       <c r="E25" s="82"/>
       <c r="F25" s="89"/>
@@ -3857,10 +4148,10 @@
       <c r="A26" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="175"/>
+      <c r="C26" s="176"/>
       <c r="D26" s="8"/>
       <c r="E26" s="82"/>
       <c r="F26" s="89"/>
@@ -3870,20 +4161,20 @@
       <c r="A27" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="172" t="s">
+      <c r="B27" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="173"/>
+      <c r="C27" s="174"/>
       <c r="D27" s="9"/>
       <c r="E27" s="90"/>
       <c r="F27" s="89"/>
       <c r="G27" s="47"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="186" t="s">
+      <c r="B28" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="187"/>
+      <c r="C28" s="188"/>
       <c r="E28" s="86">
         <f>SUM(E13:E27)</f>
         <v>104</v>
@@ -3895,7 +4186,7 @@
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="112" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="12">
@@ -3911,23 +4202,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="169" t="s">
+      <c r="B31" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="176" t="s">
+      <c r="B32" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="177"/>
+      <c r="C32" s="178"/>
       <c r="D32" s="7" t="s">
         <v>126</v>
       </c>
@@ -3945,10 +4236,10 @@
       <c r="A33" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="174" t="s">
+      <c r="B33" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="175"/>
+      <c r="C33" s="176"/>
       <c r="D33" s="8" t="s">
         <v>127</v>
       </c>
@@ -3962,10 +4253,10 @@
       <c r="A34" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="175"/>
+      <c r="C34" s="176"/>
       <c r="D34" s="8"/>
       <c r="E34" s="82"/>
       <c r="F34" s="82"/>
@@ -3975,10 +4266,10 @@
       <c r="A35" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="175"/>
+      <c r="C35" s="176"/>
       <c r="D35" s="8"/>
       <c r="E35" s="82"/>
       <c r="F35" s="82"/>
@@ -3988,10 +4279,10 @@
       <c r="A36" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="174" t="s">
+      <c r="B36" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="175"/>
+      <c r="C36" s="176"/>
       <c r="D36" s="8"/>
       <c r="E36" s="82"/>
       <c r="F36" s="82"/>
@@ -4001,10 +4292,10 @@
       <c r="A37" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="175"/>
+      <c r="C37" s="176"/>
       <c r="D37" s="8"/>
       <c r="E37" s="82"/>
       <c r="F37" s="82"/>
@@ -4014,10 +4305,10 @@
       <c r="A38" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="175"/>
+      <c r="C38" s="176"/>
       <c r="D38" s="8"/>
       <c r="E38" s="82"/>
       <c r="F38" s="82"/>
@@ -4027,10 +4318,10 @@
       <c r="A39" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="175"/>
+      <c r="C39" s="176"/>
       <c r="D39" s="8"/>
       <c r="E39" s="82">
         <v>10</v>
@@ -4044,20 +4335,20 @@
       <c r="A40" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="173"/>
+      <c r="C40" s="174"/>
       <c r="D40" s="9"/>
       <c r="E40" s="90"/>
       <c r="F40" s="90"/>
       <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="169" t="s">
+      <c r="B41" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="171"/>
+      <c r="C41" s="172"/>
       <c r="E41" s="91">
         <f>SUM(E32:E40)</f>
         <v>40</v>
@@ -4068,10 +4359,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="171"/>
+      <c r="C42" s="172"/>
       <c r="E42" s="91">
         <f>SUM(E28,E41)</f>
         <v>144</v>
@@ -4086,7 +4377,7 @@
       <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="113" t="s">
+      <c r="D44" s="112" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="12">
@@ -4102,33 +4393,33 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="171"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="172"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="169" t="s">
+      <c r="B46" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="171"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="172"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="176" t="s">
+      <c r="B47" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="177"/>
+      <c r="C47" s="178"/>
       <c r="D47" s="7" t="s">
         <v>128</v>
       </c>
@@ -4142,10 +4433,10 @@
       <c r="A48" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="174" t="s">
+      <c r="B48" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="175"/>
+      <c r="C48" s="176"/>
       <c r="D48" s="8" t="s">
         <v>129</v>
       </c>
@@ -4159,10 +4450,10 @@
       <c r="A49" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="174" t="s">
+      <c r="B49" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="175"/>
+      <c r="C49" s="176"/>
       <c r="D49" s="8" t="s">
         <v>130</v>
       </c>
@@ -4176,10 +4467,10 @@
       <c r="A50" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="175"/>
+      <c r="C50" s="176"/>
       <c r="D50" s="8"/>
       <c r="E50" s="82"/>
       <c r="F50" s="89"/>
@@ -4189,10 +4480,10 @@
       <c r="A51" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="174" t="s">
+      <c r="B51" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="175"/>
+      <c r="C51" s="176"/>
       <c r="D51" s="8" t="s">
         <v>131</v>
       </c>
@@ -4206,10 +4497,10 @@
       <c r="A52" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="174" t="s">
+      <c r="B52" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="175"/>
+      <c r="C52" s="176"/>
       <c r="D52" s="9" t="s">
         <v>132</v>
       </c>
@@ -4225,10 +4516,10 @@
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="169" t="s">
+      <c r="B53" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="171"/>
+      <c r="C53" s="172"/>
       <c r="D53" s="92"/>
       <c r="E53" s="94">
         <f>SUM(E47:E52)</f>
@@ -4243,19 +4534,19 @@
       <c r="A54" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="172" t="s">
+      <c r="B54" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="173"/>
+      <c r="C54" s="174"/>
       <c r="D54" s="93"/>
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="169" t="s">
+      <c r="B55" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="171"/>
+      <c r="C55" s="172"/>
       <c r="E55" s="86">
         <f>SUM(E53,E54)</f>
         <v>15</v>
@@ -4267,7 +4558,7 @@
     </row>
     <row r="56" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="113" t="s">
+      <c r="D57" s="112" t="s">
         <v>73</v>
       </c>
       <c r="E57" s="12">
@@ -4283,33 +4574,33 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="169" t="s">
+      <c r="B58" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="170"/>
-      <c r="G58" s="171"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="172"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="178" t="s">
+      <c r="B59" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="179"/>
-      <c r="D59" s="179"/>
-      <c r="E59" s="179"/>
-      <c r="F59" s="179"/>
-      <c r="G59" s="179"/>
+      <c r="C59" s="180"/>
+      <c r="D59" s="180"/>
+      <c r="E59" s="180"/>
+      <c r="F59" s="180"/>
+      <c r="G59" s="180"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="B60" s="176" t="s">
+      <c r="B60" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="177"/>
+      <c r="C60" s="178"/>
       <c r="D60" s="7"/>
       <c r="E60" s="87"/>
       <c r="F60" s="88"/>
@@ -4319,10 +4610,10 @@
       <c r="A61" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="B61" s="174" t="s">
+      <c r="B61" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="175"/>
+      <c r="C61" s="176"/>
       <c r="D61" s="8" t="s">
         <v>315</v>
       </c>
@@ -4340,10 +4631,10 @@
       <c r="A62" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="B62" s="172" t="s">
+      <c r="B62" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="173"/>
+      <c r="C62" s="174"/>
       <c r="D62" s="9"/>
       <c r="E62" s="90">
         <v>2</v>
@@ -4372,10 +4663,10 @@
       <c r="A64" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="B64" s="176" t="s">
+      <c r="B64" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="177"/>
+      <c r="C64" s="178"/>
       <c r="D64" s="7" t="s">
         <v>316</v>
       </c>
@@ -4389,10 +4680,10 @@
       <c r="A65" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="B65" s="174" t="s">
+      <c r="B65" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="175"/>
+      <c r="C65" s="176"/>
       <c r="D65" s="8"/>
       <c r="E65" s="82">
         <v>4</v>
@@ -4406,10 +4697,10 @@
       <c r="A66" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="B66" s="174" t="s">
+      <c r="B66" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="175"/>
+      <c r="C66" s="176"/>
       <c r="D66" s="8"/>
       <c r="E66" s="82"/>
       <c r="F66" s="89"/>
@@ -4419,10 +4710,10 @@
       <c r="A67" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="B67" s="174" t="s">
+      <c r="B67" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="175"/>
+      <c r="C67" s="176"/>
       <c r="D67" s="8"/>
       <c r="E67" s="82"/>
       <c r="F67" s="89"/>
@@ -4432,10 +4723,10 @@
       <c r="A68" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="B68" s="174" t="s">
+      <c r="B68" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="175"/>
+      <c r="C68" s="176"/>
       <c r="D68" s="8"/>
       <c r="E68" s="82"/>
       <c r="F68" s="89"/>
@@ -4445,20 +4736,20 @@
       <c r="A69" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="B69" s="172" t="s">
+      <c r="B69" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="173"/>
+      <c r="C69" s="174"/>
       <c r="D69" s="9"/>
       <c r="E69" s="90"/>
       <c r="F69" s="96"/>
       <c r="G69" s="47"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="169" t="s">
+      <c r="B70" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="171"/>
+      <c r="C70" s="172"/>
       <c r="E70" s="86">
         <f>SUM(E63:E69)</f>
         <v>9</v>
@@ -4471,7 +4762,7 @@
     <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
-      <c r="D72" s="113" t="s">
+      <c r="D72" s="112" t="s">
         <v>73</v>
       </c>
       <c r="E72" s="12">
@@ -4487,23 +4778,23 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="169" t="s">
+      <c r="B73" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="170"/>
-      <c r="D73" s="170"/>
-      <c r="E73" s="170"/>
-      <c r="F73" s="170"/>
-      <c r="G73" s="170"/>
+      <c r="C73" s="171"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="171"/>
+      <c r="F73" s="171"/>
+      <c r="G73" s="171"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="176" t="s">
+      <c r="B74" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="177"/>
+      <c r="C74" s="178"/>
       <c r="D74" s="7"/>
       <c r="E74" s="87"/>
       <c r="F74" s="89"/>
@@ -4513,10 +4804,10 @@
       <c r="A75" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="174" t="s">
+      <c r="B75" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="175"/>
+      <c r="C75" s="176"/>
       <c r="D75" s="8" t="s">
         <v>315</v>
       </c>
@@ -4534,20 +4825,20 @@
       <c r="A76" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="172" t="s">
+      <c r="B76" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="173"/>
+      <c r="C76" s="174"/>
       <c r="D76" s="9"/>
       <c r="E76" s="90"/>
       <c r="F76" s="89"/>
       <c r="G76" s="47"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="169" t="s">
+      <c r="B77" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="171"/>
+      <c r="C77" s="172"/>
       <c r="D77" s="97"/>
       <c r="E77" s="83">
         <f>SUM(E74:E76)</f>
@@ -4562,10 +4853,10 @@
       <c r="A78" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="B78" s="176" t="s">
+      <c r="B78" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="177"/>
+      <c r="C78" s="178"/>
       <c r="D78" s="7" t="s">
         <v>316</v>
       </c>
@@ -4583,10 +4874,10 @@
       <c r="A79" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="B79" s="174" t="s">
+      <c r="B79" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="175"/>
+      <c r="C79" s="176"/>
       <c r="D79" s="8"/>
       <c r="E79" s="82"/>
       <c r="F79" s="89"/>
@@ -4596,10 +4887,10 @@
       <c r="A80" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="B80" s="174" t="s">
+      <c r="B80" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="175"/>
+      <c r="C80" s="176"/>
       <c r="D80" s="8"/>
       <c r="E80" s="82"/>
       <c r="F80" s="89"/>
@@ -4609,10 +4900,10 @@
       <c r="A81" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="B81" s="174" t="s">
+      <c r="B81" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="175"/>
+      <c r="C81" s="176"/>
       <c r="D81" s="8"/>
       <c r="E81" s="82">
         <v>2</v>
@@ -4626,10 +4917,10 @@
       <c r="A82" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="B82" s="174" t="s">
+      <c r="B82" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="175"/>
+      <c r="C82" s="176"/>
       <c r="D82" s="8"/>
       <c r="E82" s="82">
         <v>2</v>
@@ -4643,21 +4934,21 @@
       <c r="A83" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="B83" s="172" t="s">
+      <c r="B83" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="173"/>
+      <c r="C83" s="174"/>
       <c r="D83" s="9"/>
       <c r="E83" s="90"/>
       <c r="F83" s="96"/>
       <c r="G83" s="47"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="169" t="s">
+      <c r="B84" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="170"/>
-      <c r="D84" s="171"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="172"/>
       <c r="E84" s="86">
         <f>SUM(E77:E83)</f>
         <v>16</v>
@@ -4671,11 +4962,11 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="169" t="s">
+      <c r="B86" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="170"/>
-      <c r="D86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="172"/>
       <c r="E86" s="86">
         <f>SUM(E70,E84)</f>
         <v>25</v>
@@ -4687,11 +4978,11 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="169" t="s">
+      <c r="B88" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="170"/>
-      <c r="D88" s="171"/>
+      <c r="C88" s="171"/>
+      <c r="D88" s="172"/>
       <c r="E88" s="86">
         <f>SUM(E55,E86)</f>
         <v>40</v>
@@ -4709,12 +5000,12 @@
       <c r="A91" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="166" t="str">
+      <c r="B91" s="167" t="str">
         <f>IF(AND(E91=0,F91=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C91" s="167"/>
-      <c r="D91" s="168"/>
+      <c r="C91" s="168"/>
+      <c r="D91" s="169"/>
       <c r="E91" s="86">
         <f>E88-E42</f>
         <v>-104</v>
@@ -4739,6 +5030,8 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B14:C14"/>
@@ -4751,22 +5044,23 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="B59:G59"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B10:C10"/>
@@ -4778,22 +5072,19 @@
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B86:D86"/>
@@ -4832,7 +5123,7 @@
     <hyperlink ref="B7" r:id="rId1" xr:uid="{A4558C15-3FCF-4DFC-A7F3-020C85CA449C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="30" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="32" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4842,364 +5133,419 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="147.08984375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.7265625" style="2"/>
-    <col min="12" max="12" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="2" width="40.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="147.08984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="8.7265625" style="2"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="195" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="140" t="s">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="139" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="154" t="str">
+      <c r="B2" s="152" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="144" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="143" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="188" t="str">
+      <c r="B3" s="152" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="140" t="s">
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="164">
         <f>'General information'!B7</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="140" t="s">
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="166"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="148">
+      <c r="B5" s="164">
         <f>'General information'!B8</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="160" t="s">
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="200" t="s">
         <v>412</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="132" t="s">
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="185"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="133" t="s">
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="199"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="132" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="197" t="s">
         <v>403</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="193"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="181" t="s">
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="199"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="12">
+      <c r="C12" s="183"/>
+      <c r="D12" s="12">
         <f>B4</f>
         <v>45291</v>
       </c>
-      <c r="D12" s="13">
+      <c r="E12" s="13">
         <f>B5</f>
         <v>45657</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="169" t="s">
+    <row r="13" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="B14" s="144"/>
+      <c r="C14" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C14" s="82">
+      <c r="D14" s="82">
         <v>15</v>
       </c>
-      <c r="D14" s="85">
+      <c r="E14" s="85">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C15" s="82">
+      <c r="D15" s="82">
         <v>2</v>
       </c>
-      <c r="D15" s="85">
+      <c r="E15" s="85">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="B16" s="144"/>
+      <c r="C16" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C16" s="82">
+      <c r="D16" s="82">
         <v>3</v>
       </c>
-      <c r="D16" s="85">
+      <c r="E16" s="85">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" s="144"/>
+      <c r="C17" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="82">
+      <c r="D17" s="82">
         <v>2</v>
       </c>
-      <c r="D17" s="85">
+      <c r="E17" s="85">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="B18" s="144"/>
+      <c r="C18" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C18" s="82">
+      <c r="D18" s="82">
         <v>-6</v>
       </c>
-      <c r="D18" s="85">
+      <c r="E18" s="85">
         <v>-6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="B19" s="144"/>
+      <c r="C19" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C19" s="82">
+      <c r="D19" s="82">
         <v>-6</v>
       </c>
-      <c r="D19" s="85">
+      <c r="E19" s="85">
         <v>-6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="B20" s="144"/>
+      <c r="C20" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C20" s="82">
+      <c r="D20" s="82">
         <v>-6</v>
       </c>
-      <c r="D20" s="85">
+      <c r="E20" s="85">
         <v>-4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="B21" s="144"/>
+      <c r="C21" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C21" s="82">
+      <c r="D21" s="82">
         <v>-6</v>
       </c>
-      <c r="D21" s="85">
+      <c r="E21" s="85">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="B22" s="144"/>
+      <c r="C22" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C22" s="82">
+      <c r="D22" s="82">
         <v>-4</v>
       </c>
-      <c r="D22" s="85">
+      <c r="E22" s="85">
         <v>-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" s="144"/>
+      <c r="C23" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C23" s="82">
+      <c r="D23" s="82">
         <v>-6</v>
       </c>
-      <c r="D23" s="85">
+      <c r="E23" s="85">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="169" t="s">
+    <row r="24" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="144"/>
+      <c r="B24" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="B24" s="171"/>
-      <c r="C24" s="83">
-        <f>SUM(C14:C23)</f>
+      <c r="C24" s="172"/>
+      <c r="D24" s="83">
+        <f>SUM(D14:D23)</f>
         <v>-12</v>
       </c>
-      <c r="D24" s="86">
-        <f>SUM(D14:D23)</f>
+      <c r="E24" s="86">
+        <f>SUM(E14:E23)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C25" s="82">
+      <c r="D25" s="82">
         <v>6</v>
       </c>
-      <c r="D25" s="85">
+      <c r="E25" s="85">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="B26" s="144"/>
+      <c r="C26" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C26" s="82">
+      <c r="D26" s="82">
         <v>-3</v>
       </c>
-      <c r="D26" s="85">
+      <c r="E26" s="85">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="B27" s="145"/>
+      <c r="C27" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C27" s="82">
+      <c r="D27" s="82">
         <v>6</v>
       </c>
-      <c r="D27" s="85">
+      <c r="E27" s="85">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="169" t="s">
+    <row r="28" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="144"/>
+      <c r="B28" s="171" t="s">
         <v>290</v>
       </c>
-      <c r="B28" s="171"/>
-      <c r="C28" s="83">
-        <f>SUM(C24:C27)</f>
+      <c r="C28" s="172"/>
+      <c r="D28" s="83">
+        <f>SUM(D24:D27)</f>
         <v>-3</v>
       </c>
-      <c r="D28" s="86">
-        <f>SUM(D24:D27)</f>
+      <c r="E28" s="86">
+        <f>SUM(E24:E27)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="39"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C29" s="84">
+      <c r="D29" s="84">
         <v>1</v>
       </c>
-      <c r="D29" s="84">
+      <c r="E29" s="84">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="169" t="s">
+    <row r="30" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="144"/>
+      <c r="B30" s="171" t="s">
         <v>414</v>
       </c>
-      <c r="B30" s="171"/>
-      <c r="C30" s="83">
-        <f>SUM(C28:C29)</f>
+      <c r="C30" s="172"/>
+      <c r="D30" s="83">
+        <f>SUM(D28:D29)</f>
         <v>-2</v>
       </c>
-      <c r="D30" s="86">
-        <f>SUM(D28:D29)</f>
+      <c r="E30" s="86">
+        <f>SUM(E28:E29)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="22"/>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9A9E6224-643C-4AD9-9436-A2DC070A0C83}"/>
@@ -5211,290 +5557,337 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4674B013-C86F-4D4E-83B3-A484CE5618BF}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.08984375" customWidth="1"/>
-    <col min="3" max="4" width="10.7265625" customWidth="1"/>
+    <col min="1" max="2" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.08984375" customWidth="1"/>
+    <col min="4" max="5" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="194" t="s">
+    <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="202" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="140" t="s">
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="139" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="154" t="str">
+      <c r="B2" s="152" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="144" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="143" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="188" t="str">
+      <c r="B3" s="152" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="140" t="s">
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="164">
         <f>'General information'!B7</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="140" t="s">
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="166"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="164">
         <f>'General information'!B8</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="160" t="s">
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="161" t="s">
         <v>412</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="162"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="118" t="s">
+      <c r="E6" s="163"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="185"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="118" t="s">
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="199"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="117" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="197" t="s">
         <v>415</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="193"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="117">
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="199"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="116">
         <f>DATE(YEAR(B5),1,1)</f>
         <v>45292</v>
       </c>
-      <c r="D10" s="117">
+      <c r="E10" s="116">
         <f>B5</f>
         <v>45657</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="111" t="s">
+    <row r="11" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="227" t="s">
         <v>391</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="228"/>
+      <c r="D11" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="E11" s="116" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="121"/>
-      <c r="B12" s="122" t="s">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121" t="s">
         <v>387</v>
       </c>
-      <c r="C12" s="82">
+      <c r="D12" s="82">
         <v>1</v>
       </c>
-      <c r="D12" s="121"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="195" t="s">
+      <c r="E12" s="120"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="203" t="s">
         <v>392</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="123" t="s">
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="205"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="122" t="s">
         <v>385</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="82">
+      <c r="D14" s="123"/>
+      <c r="E14" s="82">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="123" t="s">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="122" t="s">
         <v>393</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="82">
+      <c r="D15" s="123"/>
+      <c r="E15" s="82">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="195" t="s">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="203" t="s">
         <v>388</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="120">
-        <f>SUM(D14:D15)</f>
+      <c r="C16" s="204"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="119">
+        <f>SUM(E14:E15)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="125" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="124" t="s">
         <v>394</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="82">
+      <c r="D17" s="125"/>
+      <c r="E17" s="82">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="125" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="124" t="s">
         <v>395</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="82">
+      <c r="D18" s="125"/>
+      <c r="E18" s="82">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="125" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="124" t="s">
         <v>396</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="82">
+      <c r="D19" s="125"/>
+      <c r="E19" s="82">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="125" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="124" t="s">
         <v>397</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="82">
+      <c r="D20" s="125"/>
+      <c r="E20" s="82">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="125" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="124" t="s">
         <v>398</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="82">
+      <c r="D21" s="125"/>
+      <c r="E21" s="82">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="125" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="124" t="s">
         <v>399</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="82">
+      <c r="D22" s="125"/>
+      <c r="E22" s="82">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="125" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="124" t="s">
         <v>400</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="82">
+      <c r="D23" s="125"/>
+      <c r="E23" s="82">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="125" t="s">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="124" t="s">
         <v>401</v>
       </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="82">
+      <c r="D24" s="125"/>
+      <c r="E24" s="82">
         <v>1</v>
       </c>
-      <c r="F24" s="50"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="195" t="s">
+      <c r="G24" s="50"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="203" t="s">
         <v>389</v>
       </c>
-      <c r="B25" s="196"/>
-      <c r="C25" s="197"/>
-      <c r="D25" s="120">
-        <f>SUM(D17:D24)</f>
+      <c r="C25" s="204"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="119">
+        <f>SUM(E17:E24)</f>
         <v>2</v>
       </c>
-      <c r="E25" s="119"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="127" t="s">
+      <c r="F25" s="118"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="126" t="s">
         <v>390</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="105">
-        <f>SUM(C12,D16,D25)</f>
+      <c r="D26" s="127"/>
+      <c r="E26" s="105">
+        <f>SUM(D12,E16,E25)</f>
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
+  <mergeCells count="12">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{C1006350-697E-4D07-926A-51DA25DB4809}"/>
@@ -5509,778 +5902,975 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B44"/>
+      <selection activeCell="B10" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="166.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="2" width="40.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="166.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:5" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="161" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="161"/>
       <c r="C1" s="162"/>
-      <c r="D1" s="130"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="140" t="s">
+      <c r="D1" s="163"/>
+      <c r="E1" s="129"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="139" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="154" t="str">
+      <c r="B2" s="152" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="156"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="144" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="143" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="188" t="str">
+      <c r="B3" s="152" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="190"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="140" t="s">
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="164">
         <f>'General information'!B7</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="147"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="140" t="s">
+      <c r="C4" s="165"/>
+      <c r="D4" s="166"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="164">
         <f>'General information'!B8</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="147"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="160" t="s">
+      <c r="C5" s="165"/>
+      <c r="D5" s="166"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="161" t="s">
         <v>412</v>
       </c>
-      <c r="B6" s="161"/>
       <c r="C6" s="162"/>
-      <c r="D6" s="130"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.4">
-      <c r="A7" s="132" t="s">
+      <c r="D6" s="163"/>
+      <c r="E6" s="129"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="185"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="134" t="s">
+      <c r="C7" s="198"/>
+      <c r="D7" s="199"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="197" t="s">
         <v>404</v>
       </c>
-      <c r="C8" s="193"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="203" t="s">
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="213" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="204"/>
-      <c r="C10" s="63">
+      <c r="C10" s="214"/>
+      <c r="D10" s="63">
         <f>B5</f>
         <v>45657</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="205"/>
-      <c r="B11" s="206"/>
-      <c r="C11" s="63" t="s">
+    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="207"/>
+      <c r="B11" s="215"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="63" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="198" t="s">
+    <row r="12" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" s="208" t="s">
         <v>385</v>
       </c>
-      <c r="B12" s="200"/>
-      <c r="C12" s="98">
+      <c r="C12" s="210"/>
+      <c r="D12" s="98">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="198" t="s">
+    <row r="13" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="200"/>
-      <c r="C13" s="50"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40" t="s">
+      <c r="C13" s="210"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="C14" s="99">
+      <c r="D14" s="99">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="C15" s="100">
+      <c r="D15" s="100">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="100">
+      <c r="D16" s="100">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="C17" s="100">
+      <c r="D17" s="100">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="100">
+      <c r="D18" s="100">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="C19" s="100">
+      <c r="D19" s="100">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="C20" s="100">
+      <c r="D20" s="100">
         <v>3</v>
       </c>
-      <c r="D20" s="62"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39" t="s">
+      <c r="E20" s="62"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="100">
+      <c r="D21" s="100">
         <v>3</v>
       </c>
-      <c r="D21" s="62"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39" t="s">
+      <c r="E21" s="62"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="100">
+      <c r="D22" s="100">
         <v>4</v>
       </c>
-      <c r="D22" s="62"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39" t="s">
+      <c r="E22" s="62"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="C23" s="100">
+      <c r="D23" s="100">
         <v>1</v>
       </c>
-      <c r="D23" s="62"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39" t="s">
+      <c r="E23" s="62"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="C24" s="100">
+      <c r="D24" s="100">
         <v>5</v>
       </c>
-      <c r="D24" s="62"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39" t="s">
+      <c r="E24" s="62"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="C25" s="100">
+      <c r="D25" s="100">
         <v>-3</v>
       </c>
-      <c r="D25" s="62"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39" t="s">
+      <c r="E25" s="62"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="C26" s="100">
+      <c r="D26" s="100">
         <v>4</v>
       </c>
-      <c r="D26" s="62"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39" t="s">
+      <c r="E26" s="62"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="C27" s="100">
+      <c r="D27" s="100">
         <v>-5</v>
       </c>
-      <c r="D27" s="62"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39" t="s">
+      <c r="E27" s="62"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="C28" s="100">
+      <c r="D28" s="100">
         <v>-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="C29" s="100"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39" t="s">
+      <c r="D29" s="100"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="C30" s="100"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39" t="s">
+      <c r="D30" s="100"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="C31" s="100">
+      <c r="D31" s="100">
         <v>-3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="C32" s="100"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39" t="s">
+      <c r="D32" s="100"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="C33" s="100">
+      <c r="D33" s="100">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="C34" s="100"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41" t="s">
+      <c r="D34" s="100"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="C35" s="101">
+      <c r="D35" s="101">
         <v>-5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="198" t="s">
+    <row r="36" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="199"/>
-      <c r="C36" s="102">
-        <f>SUM(C14:C35)</f>
+      <c r="C36" s="209"/>
+      <c r="D36" s="102">
+        <f>SUM(D14:D35)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="C37" s="99">
+      <c r="D37" s="99">
         <v>-5</v>
       </c>
-      <c r="D37" s="62"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39" t="s">
+      <c r="E37" s="62"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="C38" s="100">
+      <c r="D38" s="100">
         <v>6</v>
       </c>
-      <c r="D38" s="62"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39" t="s">
+      <c r="E38" s="62"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C39" s="100">
+      <c r="D39" s="100">
         <v>-5</v>
       </c>
-      <c r="D39" s="62"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39" t="s">
+      <c r="E39" s="62"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="C40" s="100">
+      <c r="D40" s="100">
         <v>5</v>
       </c>
-      <c r="D40" s="62"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39" t="s">
+      <c r="E40" s="62"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="C41" s="100">
+      <c r="D41" s="100">
         <v>-5</v>
       </c>
-      <c r="D41" s="62"/>
-    </row>
-    <row r="42" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39" t="s">
+      <c r="E41" s="62"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="C42" s="101">
+      <c r="D42" s="101">
         <v>5</v>
       </c>
-      <c r="D42" s="62"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="198" t="s">
+      <c r="E42" s="62"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="208" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="199"/>
-      <c r="C43" s="104">
-        <f>C12+C36+SUM(C37:C42)</f>
+      <c r="C43" s="209"/>
+      <c r="D43" s="104">
+        <f>D12+D36+SUM(D37:D42)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="201" t="s">
+    <row r="44" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="211" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="202"/>
-      <c r="C44" s="50"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40" t="s">
+      <c r="C44" s="212"/>
+      <c r="D44" s="50"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="C45" s="99"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39" t="s">
+      <c r="D45" s="99"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="C46" s="100"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39" t="s">
+      <c r="D46" s="100"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="C47" s="100">
+      <c r="D47" s="100">
         <v>5</v>
       </c>
-      <c r="D47" s="62"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39" t="s">
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="C48" s="100"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39" t="s">
+      <c r="D48" s="100"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="C49" s="100">
+      <c r="D49" s="100">
         <v>65</v>
       </c>
-      <c r="D49" s="62"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39" t="s">
+      <c r="E49" s="62"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="C50" s="100"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39" t="s">
+      <c r="D50" s="100"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="C51" s="100"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39" t="s">
+      <c r="D51" s="100"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="C52" s="100"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39" t="s">
+      <c r="D52" s="100"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="C53" s="100"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39" t="s">
+      <c r="D53" s="100"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="C54" s="100">
+      <c r="D54" s="100">
         <v>-45</v>
       </c>
-      <c r="D54" s="62"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39" t="s">
+      <c r="E54" s="62"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39" t="s">
         <v>354</v>
       </c>
-      <c r="C55" s="100"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39" t="s">
+      <c r="D55" s="100"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="100"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39" t="s">
+      <c r="D56" s="100"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="C57" s="100"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39" t="s">
+      <c r="D57" s="100"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="100"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39" t="s">
+      <c r="D58" s="100"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="C59" s="100"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39" t="s">
+      <c r="D59" s="100"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="C60" s="100"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39" t="s">
+      <c r="D60" s="100"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="C61" s="100"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39" t="s">
+      <c r="D61" s="100"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C62" s="100"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39" t="s">
+      <c r="D62" s="100"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="C63" s="100"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39" t="s">
+      <c r="D63" s="100"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="C64" s="100">
+      <c r="D64" s="100">
         <v>64</v>
       </c>
-      <c r="D64" s="62"/>
-    </row>
-    <row r="65" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41" t="s">
+      <c r="E64" s="62"/>
+    </row>
+    <row r="65" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="C65" s="101"/>
-    </row>
-    <row r="66" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="198" t="s">
+      <c r="D65" s="101"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="199"/>
-      <c r="C66" s="103">
-        <f>SUM(C45:C65)</f>
+      <c r="C66" s="209"/>
+      <c r="D66" s="103">
+        <f>SUM(D45:D65)</f>
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="198" t="s">
+    <row r="67" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="200"/>
-      <c r="C67" s="50"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39" t="s">
+      <c r="C67" s="210"/>
+      <c r="D67" s="50"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="C68" s="99">
+      <c r="D68" s="99">
         <v>54</v>
       </c>
-      <c r="D68" s="62"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39" t="s">
+      <c r="E68" s="62"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="C69" s="100"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39" t="s">
+      <c r="D69" s="100"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="C70" s="100"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39" t="s">
+      <c r="D70" s="100"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="C71" s="100">
+      <c r="D71" s="100">
         <v>54</v>
       </c>
-      <c r="D71" s="62"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39" t="s">
+      <c r="E71" s="62"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="C72" s="100"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39" t="s">
+      <c r="D72" s="100"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="C73" s="100"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39" t="s">
+      <c r="D73" s="100"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="C74" s="100">
+      <c r="D74" s="100">
         <v>-45</v>
       </c>
-      <c r="D74" s="62"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39" t="s">
+      <c r="E74" s="62"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="C75" s="100"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39" t="s">
+      <c r="D75" s="100"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C76" s="100">
+      <c r="D76" s="100">
         <v>-54</v>
       </c>
-      <c r="D76" s="62"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39" t="s">
+      <c r="E76" s="62"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="C77" s="100">
+      <c r="D77" s="100">
         <v>3</v>
       </c>
-      <c r="D77" s="62"/>
-    </row>
-    <row r="78" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="41"/>
-      <c r="B78" s="41" t="s">
+      <c r="E77" s="62"/>
+    </row>
+    <row r="78" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="C78" s="101"/>
-    </row>
-    <row r="79" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="198" t="s">
+      <c r="D78" s="101"/>
+    </row>
+    <row r="79" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="199"/>
-      <c r="C79" s="103">
-        <f>SUM(C68:C78)</f>
+      <c r="C79" s="209"/>
+      <c r="D79" s="103">
+        <f>SUM(D68:D78)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="198" t="s">
+    <row r="80" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="199"/>
-      <c r="C80" s="86">
-        <f>SUM(C43,C66,C79)</f>
+      <c r="C80" s="209"/>
+      <c r="D80" s="86">
+        <f>SUM(D43,D66,D79)</f>
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5" t="s">
+    <row r="81" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C81" s="101"/>
-    </row>
-    <row r="82" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="198" t="s">
+      <c r="D81" s="101"/>
+    </row>
+    <row r="82" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="200"/>
-      <c r="C82" s="86">
-        <f>C80+C81</f>
+      <c r="C82" s="210"/>
+      <c r="D82" s="86">
+        <f>D80+D81</f>
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="198" t="s">
+    <row r="83" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="200"/>
-      <c r="C83" s="86">
+      <c r="C83" s="210"/>
+      <c r="D83" s="86">
         <f>'Statement of financial position'!E39</f>
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="198" t="s">
+    <row r="84" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="208" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="200"/>
-      <c r="C84" s="86">
+      <c r="C84" s="210"/>
+      <c r="D84" s="86">
         <f>'Statement of financial position'!F39</f>
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="198" t="s">
+    <row r="85" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="200"/>
-      <c r="C85" s="86">
-        <f>C84-C83</f>
+      <c r="C85" s="210"/>
+      <c r="D85" s="86">
+        <f>D84-D83</f>
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="22"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C92" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="23">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{5A53CF31-79B9-4E1F-A6DA-D8AE91352090}"/>
@@ -6298,8 +6888,8 @@
   </sheetPr>
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:M6"/>
+    <sheetView topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6316,156 +6906,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="161" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="162"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="163"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="139" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="154" t="str">
+      <c r="B2" s="155" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="157"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="143" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="129" t="str">
+      <c r="B3" s="128" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="146">
         <f>'General information'!B7</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="148"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="114">
+      <c r="B5" s="113">
         <f>'General information'!B8</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="161" t="s">
         <v>412</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="162"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="163"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="160"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="114" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="149" t="s">
         <v>405</v>
       </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="151"/>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -6473,52 +7063,52 @@
       <c r="C9" s="59"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="182" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="216"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="216"/>
-      <c r="M10" s="182"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="226"/>
+      <c r="J10" s="226"/>
+      <c r="K10" s="226"/>
+      <c r="L10" s="226"/>
+      <c r="M10" s="183"/>
     </row>
     <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="140" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="213" t="s">
+      <c r="E11" s="223" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="214"/>
-      <c r="G11" s="214"/>
-      <c r="H11" s="214"/>
-      <c r="I11" s="214"/>
-      <c r="J11" s="214"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="215"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="225"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="207" t="s">
+      <c r="A12" s="217" t="s">
         <v>435</v>
       </c>
-      <c r="B12" s="208"/>
+      <c r="B12" s="218"/>
       <c r="C12" s="66"/>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
@@ -6533,7 +7123,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
-      <c r="B13" s="142"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="69"/>
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
@@ -6548,7 +7138,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
-      <c r="B14" s="142"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="69"/>
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
@@ -6563,7 +7153,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
-      <c r="B15" s="142"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="69"/>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
@@ -6578,9 +7168,9 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
-      <c r="B16" s="142"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="69" t="s">
-        <v>436</v>
+        <v>526</v>
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -6595,7 +7185,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
-      <c r="B17" s="142"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="69"/>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
@@ -6610,9 +7200,9 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
-      <c r="B18" s="142"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="70"/>
@@ -6627,7 +7217,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
-      <c r="B19" s="142"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="69"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -6642,9 +7232,9 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="37"/>
-      <c r="B20" s="142"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
@@ -6659,7 +7249,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="37"/>
-      <c r="B21" s="142"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="69"/>
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
@@ -6674,7 +7264,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="37"/>
-      <c r="B22" s="142"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="69"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -6689,7 +7279,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
-      <c r="B23" s="142"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="69"/>
       <c r="D23" s="70"/>
       <c r="E23" s="70"/>
@@ -6704,7 +7294,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="37"/>
-      <c r="B24" s="142"/>
+      <c r="B24" s="141"/>
       <c r="C24" s="69"/>
       <c r="D24" s="70"/>
       <c r="E24" s="70"/>
@@ -6719,7 +7309,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
-      <c r="B25" s="142"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="69"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -6734,7 +7324,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="37"/>
-      <c r="B26" s="142"/>
+      <c r="B26" s="141"/>
       <c r="C26" s="69"/>
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
@@ -6749,7 +7339,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="37"/>
-      <c r="B27" s="142"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="69"/>
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
@@ -6764,7 +7354,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
-      <c r="B28" s="142"/>
+      <c r="B28" s="141"/>
       <c r="C28" s="69"/>
       <c r="D28" s="70"/>
       <c r="E28" s="70"/>
@@ -6779,7 +7369,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
-      <c r="B29" s="142"/>
+      <c r="B29" s="141"/>
       <c r="C29" s="69"/>
       <c r="D29" s="70"/>
       <c r="E29" s="70"/>
@@ -6794,7 +7384,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
-      <c r="B30" s="142"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="69"/>
       <c r="D30" s="70"/>
       <c r="E30" s="70"/>
@@ -6809,7 +7399,7 @@
     </row>
     <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="57"/>
-      <c r="B31" s="143"/>
+      <c r="B31" s="142"/>
       <c r="C31" s="71"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -6829,10 +7419,10 @@
       <c r="B32" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="178" t="s">
+      <c r="C32" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="180"/>
+      <c r="D32" s="181"/>
       <c r="E32" s="70" t="s">
         <v>406</v>
       </c>
@@ -6929,10 +7519,10 @@
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="169" t="s">
+      <c r="C37" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="171"/>
+      <c r="D37" s="172"/>
       <c r="E37" s="70"/>
       <c r="F37" s="70"/>
       <c r="G37" s="70"/>
@@ -7222,10 +7812,10 @@
       <c r="B52" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="169" t="s">
+      <c r="C52" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="171"/>
+      <c r="D52" s="172"/>
       <c r="E52" s="69"/>
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
@@ -7315,10 +7905,10 @@
     <row r="57" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
-      <c r="C57" s="169" t="s">
+      <c r="C57" s="170" t="s">
         <v>188</v>
       </c>
-      <c r="D57" s="171"/>
+      <c r="D57" s="172"/>
       <c r="E57" s="69"/>
       <c r="F57" s="70"/>
       <c r="G57" s="70"/>
@@ -7332,10 +7922,10 @@
     <row r="58" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
-      <c r="C58" s="169" t="s">
+      <c r="C58" s="170" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="171"/>
+      <c r="D58" s="172"/>
       <c r="E58" s="69"/>
       <c r="F58" s="70"/>
       <c r="G58" s="70"/>
@@ -7565,10 +8155,10 @@
       <c r="B70" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="169" t="s">
+      <c r="C70" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="170"/>
+      <c r="D70" s="171"/>
       <c r="E70" s="69"/>
       <c r="F70" s="70"/>
       <c r="G70" s="70"/>
@@ -7868,21 +8458,21 @@
       <c r="M85" s="72"/>
     </row>
     <row r="86" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="209" t="s">
+      <c r="A86" s="219" t="s">
         <v>296</v>
       </c>
-      <c r="B86" s="210"/>
-      <c r="C86" s="210"/>
-      <c r="D86" s="210"/>
-      <c r="E86" s="211"/>
-      <c r="F86" s="211"/>
-      <c r="G86" s="211"/>
-      <c r="H86" s="211"/>
-      <c r="I86" s="211"/>
-      <c r="J86" s="211"/>
-      <c r="K86" s="211"/>
-      <c r="L86" s="211"/>
-      <c r="M86" s="212"/>
+      <c r="B86" s="220"/>
+      <c r="C86" s="220"/>
+      <c r="D86" s="220"/>
+      <c r="E86" s="221"/>
+      <c r="F86" s="221"/>
+      <c r="G86" s="221"/>
+      <c r="H86" s="221"/>
+      <c r="I86" s="221"/>
+      <c r="J86" s="221"/>
+      <c r="K86" s="221"/>
+      <c r="L86" s="221"/>
+      <c r="M86" s="222"/>
     </row>
     <row r="87" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="61" t="s">
@@ -7897,17 +8487,17 @@
       <c r="D87" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="E87" s="213" t="s">
+      <c r="E87" s="223" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="214"/>
-      <c r="G87" s="214"/>
-      <c r="H87" s="214"/>
-      <c r="I87" s="214"/>
-      <c r="J87" s="214"/>
-      <c r="K87" s="214"/>
-      <c r="L87" s="214"/>
-      <c r="M87" s="215"/>
+      <c r="F87" s="224"/>
+      <c r="G87" s="224"/>
+      <c r="H87" s="224"/>
+      <c r="I87" s="224"/>
+      <c r="J87" s="224"/>
+      <c r="K87" s="224"/>
+      <c r="L87" s="224"/>
+      <c r="M87" s="225"/>
     </row>
     <row r="88" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="57" t="s">
@@ -7933,10 +8523,10 @@
     <row r="89" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="20"/>
       <c r="B89" s="30"/>
-      <c r="C89" s="169" t="s">
+      <c r="C89" s="170" t="s">
         <v>205</v>
       </c>
-      <c r="D89" s="171"/>
+      <c r="D89" s="172"/>
       <c r="E89" s="76"/>
       <c r="F89" s="77"/>
       <c r="G89" s="77"/>
@@ -8258,10 +8848,10 @@
     <row r="106" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="20"/>
       <c r="B106" s="20"/>
-      <c r="C106" s="170" t="s">
+      <c r="C106" s="171" t="s">
         <v>205</v>
       </c>
-      <c r="D106" s="171"/>
+      <c r="D106" s="172"/>
       <c r="E106" s="69"/>
       <c r="F106" s="70"/>
       <c r="G106" s="70"/>
@@ -8566,10 +9156,10 @@
       <c r="B122" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C122" s="169" t="s">
+      <c r="C122" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="D122" s="171"/>
+      <c r="D122" s="172"/>
       <c r="E122" s="66"/>
       <c r="F122" s="67"/>
       <c r="G122" s="67"/>
@@ -8659,10 +9249,10 @@
     <row r="127" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="20"/>
       <c r="B127" s="20"/>
-      <c r="C127" s="169" t="s">
+      <c r="C127" s="170" t="s">
         <v>227</v>
       </c>
-      <c r="D127" s="171"/>
+      <c r="D127" s="172"/>
       <c r="E127" s="69"/>
       <c r="F127" s="70"/>
       <c r="G127" s="70"/>
@@ -8676,10 +9266,10 @@
     <row r="128" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="20"/>
       <c r="B128" s="20"/>
-      <c r="C128" s="169" t="s">
+      <c r="C128" s="170" t="s">
         <v>228</v>
       </c>
-      <c r="D128" s="171"/>
+      <c r="D128" s="172"/>
       <c r="E128" s="69"/>
       <c r="F128" s="70"/>
       <c r="G128" s="70"/>
@@ -9024,10 +9614,10 @@
       <c r="B146" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C146" s="169" t="s">
+      <c r="C146" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="D146" s="171"/>
+      <c r="D146" s="172"/>
       <c r="E146" s="66"/>
       <c r="F146" s="67"/>
       <c r="G146" s="67"/>
@@ -9117,10 +9707,10 @@
     <row r="151" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="20"/>
       <c r="B151" s="20"/>
-      <c r="C151" s="169" t="s">
+      <c r="C151" s="170" t="s">
         <v>249</v>
       </c>
-      <c r="D151" s="171"/>
+      <c r="D151" s="172"/>
       <c r="E151" s="69"/>
       <c r="F151" s="70"/>
       <c r="G151" s="70"/>
@@ -9134,10 +9724,10 @@
     <row r="152" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="20"/>
       <c r="B152" s="20"/>
-      <c r="C152" s="169" t="s">
+      <c r="C152" s="170" t="s">
         <v>250</v>
       </c>
-      <c r="D152" s="171"/>
+      <c r="D152" s="172"/>
       <c r="E152" s="69"/>
       <c r="F152" s="70"/>
       <c r="G152" s="70"/>
@@ -9151,10 +9741,10 @@
     <row r="153" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="20"/>
       <c r="B153" s="20"/>
-      <c r="C153" s="169" t="s">
+      <c r="C153" s="170" t="s">
         <v>251</v>
       </c>
-      <c r="D153" s="171"/>
+      <c r="D153" s="172"/>
       <c r="E153" s="69"/>
       <c r="F153" s="70"/>
       <c r="G153" s="70"/>
@@ -9627,10 +10217,10 @@
       <c r="B178" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C178" s="169" t="s">
+      <c r="C178" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="D178" s="171"/>
+      <c r="D178" s="172"/>
       <c r="E178" s="69"/>
       <c r="F178" s="70"/>
       <c r="G178" s="70"/>
@@ -9744,10 +10334,10 @@
       <c r="B184" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C184" s="169" t="s">
+      <c r="C184" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="D184" s="171"/>
+      <c r="D184" s="172"/>
       <c r="E184" s="66"/>
       <c r="F184" s="67"/>
       <c r="G184" s="67"/>
@@ -9823,10 +10413,10 @@
       <c r="B188" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C188" s="169" t="s">
+      <c r="C188" s="170" t="s">
         <v>258</v>
       </c>
-      <c r="D188" s="171"/>
+      <c r="D188" s="172"/>
       <c r="E188" s="66"/>
       <c r="F188" s="67"/>
       <c r="G188" s="67"/>
@@ -10465,10 +11055,10 @@
       <c r="B227" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C227" s="169" t="s">
+      <c r="C227" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="D227" s="170"/>
+      <c r="D227" s="171"/>
       <c r="E227" s="51"/>
       <c r="F227" s="53"/>
       <c r="G227" s="53"/>
@@ -10489,13 +11079,13 @@
         <v>1</v>
       </c>
       <c r="E228" s="52"/>
-      <c r="F228" s="116"/>
-      <c r="G228" s="116"/>
-      <c r="H228" s="116"/>
-      <c r="I228" s="116"/>
-      <c r="J228" s="116"/>
-      <c r="K228" s="116"/>
-      <c r="L228" s="116"/>
+      <c r="F228" s="115"/>
+      <c r="G228" s="115"/>
+      <c r="H228" s="115"/>
+      <c r="I228" s="115"/>
+      <c r="J228" s="115"/>
+      <c r="K228" s="115"/>
+      <c r="L228" s="115"/>
       <c r="M228" s="55"/>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
@@ -10508,13 +11098,13 @@
         <v>4</v>
       </c>
       <c r="E229" s="52"/>
-      <c r="F229" s="116"/>
-      <c r="G229" s="116"/>
-      <c r="H229" s="116"/>
-      <c r="I229" s="116"/>
-      <c r="J229" s="116"/>
-      <c r="K229" s="116"/>
-      <c r="L229" s="116"/>
+      <c r="F229" s="115"/>
+      <c r="G229" s="115"/>
+      <c r="H229" s="115"/>
+      <c r="I229" s="115"/>
+      <c r="J229" s="115"/>
+      <c r="K229" s="115"/>
+      <c r="L229" s="115"/>
       <c r="M229" s="55"/>
     </row>
     <row r="230" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -10527,13 +11117,13 @@
         <v>2</v>
       </c>
       <c r="E230" s="52"/>
-      <c r="F230" s="116"/>
-      <c r="G230" s="116"/>
-      <c r="H230" s="116"/>
-      <c r="I230" s="116"/>
-      <c r="J230" s="116"/>
-      <c r="K230" s="116"/>
-      <c r="L230" s="116"/>
+      <c r="F230" s="115"/>
+      <c r="G230" s="115"/>
+      <c r="H230" s="115"/>
+      <c r="I230" s="115"/>
+      <c r="J230" s="115"/>
+      <c r="K230" s="115"/>
+      <c r="L230" s="115"/>
       <c r="M230" s="55"/>
     </row>
     <row r="231" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">

--- a/ifrs-sme-model.xlsx
+++ b/ifrs-sme-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE880764-18BD-4350-A00A-1C7C5CE956AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D18EF-B99F-4E87-9671-2E7066B2444B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="692" firstSheet="3" activeTab="7" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="692" activeTab="4" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="7" r:id="rId1"/>
@@ -2308,7 +2308,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2562,9 +2562,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2592,265 +2589,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,9 +2609,267 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3826,119 +3822,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="203" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="183"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="205"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="197" t="s">
         <v>430</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="186"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="199"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="136" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="186"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="199"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>424</v>
       </c>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="197" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="199"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
         <v>551</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="197" t="s">
         <v>554</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="199"/>
     </row>
     <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="136" t="s">
         <v>422</v>
       </c>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="197" t="s">
         <v>431</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="186"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="199"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="136" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="197" t="s">
         <v>555</v>
       </c>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="186"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="199"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="187">
+      <c r="B8" s="206">
         <v>45291</v>
       </c>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="189"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="208"/>
     </row>
     <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="190">
+      <c r="B9" s="191">
         <v>45657</v>
       </c>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="192"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="193"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="151" t="s">
@@ -3984,120 +3980,125 @@
       <c r="A14" s="134" t="s">
         <v>410</v>
       </c>
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="191" t="s">
         <v>412</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="192"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A15" s="134"/>
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="191" t="s">
         <v>413</v>
       </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="192"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="193"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" s="134"/>
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="191" t="s">
         <v>414</v>
       </c>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="192"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="193"/>
     </row>
     <row r="17" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="135"/>
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="194" t="s">
         <v>415</v>
       </c>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="196"/>
     </row>
     <row r="18" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="134" t="s">
         <v>411</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="191" t="s">
         <v>416</v>
       </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="192"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="193"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" s="133" t="s">
         <v>417</v>
       </c>
-      <c r="B19" s="196" t="s">
+      <c r="B19" s="200" t="s">
         <v>418</v>
       </c>
-      <c r="C19" s="197"/>
-      <c r="D19" s="197"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="198"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="202"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A20" s="134"/>
-      <c r="B20" s="190" t="s">
+      <c r="B20" s="191" t="s">
         <v>419</v>
       </c>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="192"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="193"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A21" s="134"/>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="191" t="s">
         <v>389</v>
       </c>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="192"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="193"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="134"/>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="191" t="s">
         <v>420</v>
       </c>
-      <c r="C22" s="191"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="191"/>
-      <c r="G22" s="192"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="193"/>
     </row>
     <row r="23" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="135"/>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="194" t="s">
         <v>421</v>
       </c>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="195"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -4112,11 +4113,6 @@
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
@@ -4150,119 +4146,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="203" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="183"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="205"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="199" t="str">
+      <c r="B2" s="231" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="201"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="233"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="140" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="199" t="str">
+      <c r="B3" s="231" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="201"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="233"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="190">
+      <c r="B4" s="191">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="193"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="190">
+      <c r="B5" s="191">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="191"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="203" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="183"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="205"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="226" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="222"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="223"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="228"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="234" t="s">
         <v>579</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="204"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="236"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="219" t="s">
+      <c r="B10" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="220"/>
-      <c r="D10" s="180" t="s">
+      <c r="C10" s="225"/>
+      <c r="D10" s="179" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="12">
@@ -4278,33 +4274,33 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="206"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="207"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="218"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="218"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="223"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="208" t="s">
+      <c r="B13" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="209"/>
+      <c r="C13" s="220"/>
       <c r="D13" s="7" t="s">
         <v>123</v>
       </c>
@@ -4322,10 +4318,10 @@
       <c r="A14" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="210" t="s">
+      <c r="B14" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="211"/>
+      <c r="C14" s="212"/>
       <c r="D14" s="8"/>
       <c r="E14" s="81"/>
       <c r="F14" s="87">
@@ -4337,10 +4333,10 @@
       <c r="A15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="211"/>
+      <c r="C15" s="212"/>
       <c r="D15" s="8"/>
       <c r="E15" s="81"/>
       <c r="F15" s="87"/>
@@ -4350,10 +4346,10 @@
       <c r="A16" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="211"/>
+      <c r="C16" s="212"/>
       <c r="D16" s="8"/>
       <c r="E16" s="81">
         <v>20</v>
@@ -4367,10 +4363,10 @@
       <c r="A17" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="211" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="211"/>
+      <c r="C17" s="212"/>
       <c r="D17" s="8"/>
       <c r="E17" s="81">
         <v>30</v>
@@ -4384,10 +4380,10 @@
       <c r="A18" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="211"/>
+      <c r="C18" s="212"/>
       <c r="D18" s="8"/>
       <c r="E18" s="81"/>
       <c r="F18" s="87"/>
@@ -4397,10 +4393,10 @@
       <c r="A19" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="211"/>
+      <c r="C19" s="212"/>
       <c r="D19" s="8"/>
       <c r="E19" s="81"/>
       <c r="F19" s="87"/>
@@ -4410,10 +4406,10 @@
       <c r="A20" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="210" t="s">
+      <c r="B20" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="211"/>
+      <c r="C20" s="212"/>
       <c r="D20" s="8"/>
       <c r="E20" s="81"/>
       <c r="F20" s="87"/>
@@ -4423,10 +4419,10 @@
       <c r="A21" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="211"/>
+      <c r="C21" s="212"/>
       <c r="D21" s="8"/>
       <c r="E21" s="81"/>
       <c r="F21" s="87"/>
@@ -4436,10 +4432,10 @@
       <c r="A22" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="211"/>
+      <c r="C22" s="212"/>
       <c r="D22" s="8" t="s">
         <v>124</v>
       </c>
@@ -4453,10 +4449,10 @@
       <c r="A23" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="210" t="s">
+      <c r="B23" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="211"/>
+      <c r="C23" s="212"/>
       <c r="D23" s="8" t="s">
         <v>125</v>
       </c>
@@ -4470,10 +4466,10 @@
       <c r="A24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="211"/>
+      <c r="C24" s="212"/>
       <c r="D24" s="8"/>
       <c r="E24" s="81"/>
       <c r="F24" s="87"/>
@@ -4483,10 +4479,10 @@
       <c r="A25" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="211" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="211"/>
+      <c r="C25" s="212"/>
       <c r="D25" s="8"/>
       <c r="E25" s="81"/>
       <c r="F25" s="87"/>
@@ -4496,10 +4492,10 @@
       <c r="A26" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="210" t="s">
+      <c r="B26" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="211"/>
+      <c r="C26" s="212"/>
       <c r="D26" s="8"/>
       <c r="E26" s="81"/>
       <c r="F26" s="87"/>
@@ -4509,20 +4505,20 @@
       <c r="A27" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="214" t="s">
+      <c r="B27" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="215"/>
+      <c r="C27" s="210"/>
       <c r="D27" s="9"/>
       <c r="E27" s="88"/>
       <c r="F27" s="87"/>
       <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="212" t="s">
+      <c r="B28" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="213"/>
+      <c r="C28" s="230"/>
       <c r="E28" s="84">
         <f>SUM(E13:E27)</f>
         <v>104</v>
@@ -4550,23 +4546,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="205" t="s">
+      <c r="B31" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="206"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="206"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="217"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="208" t="s">
+      <c r="B32" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="209"/>
+      <c r="C32" s="220"/>
       <c r="D32" s="7" t="s">
         <v>126</v>
       </c>
@@ -4584,10 +4580,10 @@
       <c r="A33" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="210" t="s">
+      <c r="B33" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="211"/>
+      <c r="C33" s="212"/>
       <c r="D33" s="8" t="s">
         <v>127</v>
       </c>
@@ -4601,10 +4597,10 @@
       <c r="A34" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="210" t="s">
+      <c r="B34" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="211"/>
+      <c r="C34" s="212"/>
       <c r="D34" s="8"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
@@ -4614,10 +4610,10 @@
       <c r="A35" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="210" t="s">
+      <c r="B35" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="211"/>
+      <c r="C35" s="212"/>
       <c r="D35" s="8"/>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
@@ -4627,10 +4623,10 @@
       <c r="A36" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="210" t="s">
+      <c r="B36" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="211"/>
+      <c r="C36" s="212"/>
       <c r="D36" s="8"/>
       <c r="E36" s="81"/>
       <c r="F36" s="81"/>
@@ -4640,10 +4636,10 @@
       <c r="A37" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="210" t="s">
+      <c r="B37" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="211"/>
+      <c r="C37" s="212"/>
       <c r="D37" s="8"/>
       <c r="E37" s="81"/>
       <c r="F37" s="81"/>
@@ -4653,10 +4649,10 @@
       <c r="A38" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="210" t="s">
+      <c r="B38" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="211"/>
+      <c r="C38" s="212"/>
       <c r="D38" s="8"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
@@ -4666,10 +4662,10 @@
       <c r="A39" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="210" t="s">
+      <c r="B39" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="211"/>
+      <c r="C39" s="212"/>
       <c r="D39" s="8"/>
       <c r="E39" s="81">
         <v>10</v>
@@ -4683,20 +4679,20 @@
       <c r="A40" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="214" t="s">
+      <c r="B40" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="215"/>
+      <c r="C40" s="210"/>
       <c r="D40" s="9"/>
       <c r="E40" s="88"/>
       <c r="F40" s="88"/>
       <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="205" t="s">
+      <c r="B41" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="207"/>
+      <c r="C41" s="218"/>
       <c r="E41" s="89">
         <f>SUM(E32:E40)</f>
         <v>40</v>
@@ -4707,10 +4703,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="205" t="s">
+      <c r="B42" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="207"/>
+      <c r="C42" s="218"/>
       <c r="E42" s="89">
         <f>SUM(E28,E41)</f>
         <v>144</v>
@@ -4741,33 +4737,33 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="205" t="s">
+      <c r="B45" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="206"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="206"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="207"/>
+      <c r="C45" s="217"/>
+      <c r="D45" s="217"/>
+      <c r="E45" s="217"/>
+      <c r="F45" s="217"/>
+      <c r="G45" s="218"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="205" t="s">
+      <c r="B46" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="206"/>
-      <c r="D46" s="206"/>
-      <c r="E46" s="206"/>
-      <c r="F46" s="206"/>
-      <c r="G46" s="207"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="217"/>
+      <c r="F46" s="217"/>
+      <c r="G46" s="218"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="208" t="s">
+      <c r="B47" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="209"/>
+      <c r="C47" s="220"/>
       <c r="D47" s="7" t="s">
         <v>128</v>
       </c>
@@ -4781,10 +4777,10 @@
       <c r="A48" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="210" t="s">
+      <c r="B48" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="211"/>
+      <c r="C48" s="212"/>
       <c r="D48" s="8" t="s">
         <v>129</v>
       </c>
@@ -4798,10 +4794,10 @@
       <c r="A49" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="210" t="s">
+      <c r="B49" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="211"/>
+      <c r="C49" s="212"/>
       <c r="D49" s="8" t="s">
         <v>130</v>
       </c>
@@ -4815,10 +4811,10 @@
       <c r="A50" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="210" t="s">
+      <c r="B50" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="211"/>
+      <c r="C50" s="212"/>
       <c r="D50" s="8"/>
       <c r="E50" s="81"/>
       <c r="F50" s="87"/>
@@ -4828,10 +4824,10 @@
       <c r="A51" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="210" t="s">
+      <c r="B51" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="211"/>
+      <c r="C51" s="212"/>
       <c r="D51" s="8" t="s">
         <v>131</v>
       </c>
@@ -4845,10 +4841,10 @@
       <c r="A52" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="210" t="s">
+      <c r="B52" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="211"/>
+      <c r="C52" s="212"/>
       <c r="D52" s="9" t="s">
         <v>132</v>
       </c>
@@ -4864,10 +4860,10 @@
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="205" t="s">
+      <c r="B53" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="207"/>
+      <c r="C53" s="218"/>
       <c r="D53" s="90"/>
       <c r="E53" s="92">
         <f>SUM(E47:E52)</f>
@@ -4882,19 +4878,19 @@
       <c r="A54" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="214" t="s">
+      <c r="B54" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="215"/>
+      <c r="C54" s="210"/>
       <c r="D54" s="91"/>
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="205" t="s">
+      <c r="B55" s="216" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="207"/>
+      <c r="C55" s="218"/>
       <c r="E55" s="84">
         <f>SUM(E53,E54)</f>
         <v>15</v>
@@ -4922,33 +4918,33 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="205" t="s">
+      <c r="B58" s="216" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="206"/>
-      <c r="D58" s="206"/>
-      <c r="E58" s="206"/>
-      <c r="F58" s="206"/>
-      <c r="G58" s="207"/>
+      <c r="C58" s="217"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="217"/>
+      <c r="F58" s="217"/>
+      <c r="G58" s="218"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="216" t="s">
+      <c r="B59" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="217"/>
-      <c r="D59" s="217"/>
-      <c r="E59" s="217"/>
-      <c r="F59" s="217"/>
-      <c r="G59" s="217"/>
+      <c r="C59" s="222"/>
+      <c r="D59" s="222"/>
+      <c r="E59" s="222"/>
+      <c r="F59" s="222"/>
+      <c r="G59" s="222"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="B60" s="208" t="s">
+      <c r="B60" s="219" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="209"/>
+      <c r="C60" s="220"/>
       <c r="D60" s="7"/>
       <c r="E60" s="85"/>
       <c r="F60" s="86"/>
@@ -4958,10 +4954,10 @@
       <c r="A61" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="B61" s="210" t="s">
+      <c r="B61" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="211"/>
+      <c r="C61" s="212"/>
       <c r="D61" s="8" t="s">
         <v>313</v>
       </c>
@@ -4979,10 +4975,10 @@
       <c r="A62" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="B62" s="214" t="s">
+      <c r="B62" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="215"/>
+      <c r="C62" s="210"/>
       <c r="D62" s="9"/>
       <c r="E62" s="88">
         <v>2</v>
@@ -5011,10 +5007,10 @@
       <c r="A64" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="B64" s="208" t="s">
+      <c r="B64" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="209"/>
+      <c r="C64" s="220"/>
       <c r="D64" s="7" t="s">
         <v>314</v>
       </c>
@@ -5028,10 +5024,10 @@
       <c r="A65" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="B65" s="210" t="s">
+      <c r="B65" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="211"/>
+      <c r="C65" s="212"/>
       <c r="D65" s="8"/>
       <c r="E65" s="81">
         <v>4</v>
@@ -5045,10 +5041,10 @@
       <c r="A66" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="B66" s="210" t="s">
+      <c r="B66" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="211"/>
+      <c r="C66" s="212"/>
       <c r="D66" s="8"/>
       <c r="E66" s="81"/>
       <c r="F66" s="87"/>
@@ -5058,10 +5054,10 @@
       <c r="A67" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="B67" s="210" t="s">
+      <c r="B67" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="211"/>
+      <c r="C67" s="212"/>
       <c r="D67" s="8"/>
       <c r="E67" s="81"/>
       <c r="F67" s="87"/>
@@ -5071,10 +5067,10 @@
       <c r="A68" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="B68" s="210" t="s">
+      <c r="B68" s="211" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="211"/>
+      <c r="C68" s="212"/>
       <c r="D68" s="8"/>
       <c r="E68" s="81"/>
       <c r="F68" s="87"/>
@@ -5084,20 +5080,20 @@
       <c r="A69" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="B69" s="214" t="s">
+      <c r="B69" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="215"/>
+      <c r="C69" s="210"/>
       <c r="D69" s="9"/>
       <c r="E69" s="88"/>
       <c r="F69" s="94"/>
       <c r="G69" s="46"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="205" t="s">
+      <c r="B70" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="207"/>
+      <c r="C70" s="218"/>
       <c r="E70" s="84">
         <f>SUM(E63:E69)</f>
         <v>9</v>
@@ -5126,23 +5122,23 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="205" t="s">
+      <c r="B73" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="206"/>
-      <c r="D73" s="206"/>
-      <c r="E73" s="206"/>
-      <c r="F73" s="206"/>
-      <c r="G73" s="206"/>
+      <c r="C73" s="217"/>
+      <c r="D73" s="217"/>
+      <c r="E73" s="217"/>
+      <c r="F73" s="217"/>
+      <c r="G73" s="217"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="B74" s="208" t="s">
+      <c r="B74" s="219" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="209"/>
+      <c r="C74" s="220"/>
       <c r="D74" s="7"/>
       <c r="E74" s="85"/>
       <c r="F74" s="87"/>
@@ -5152,10 +5148,10 @@
       <c r="A75" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="B75" s="210" t="s">
+      <c r="B75" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="211"/>
+      <c r="C75" s="212"/>
       <c r="D75" s="8" t="s">
         <v>313</v>
       </c>
@@ -5173,20 +5169,20 @@
       <c r="A76" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="B76" s="214" t="s">
+      <c r="B76" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="215"/>
+      <c r="C76" s="210"/>
       <c r="D76" s="9"/>
       <c r="E76" s="88"/>
       <c r="F76" s="87"/>
       <c r="G76" s="46"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="205" t="s">
+      <c r="B77" s="216" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="207"/>
+      <c r="C77" s="218"/>
       <c r="D77" s="95"/>
       <c r="E77" s="82">
         <f>SUM(E74:E76)</f>
@@ -5201,10 +5197,10 @@
       <c r="A78" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="B78" s="208" t="s">
+      <c r="B78" s="219" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="209"/>
+      <c r="C78" s="220"/>
       <c r="D78" s="7" t="s">
         <v>314</v>
       </c>
@@ -5222,10 +5218,10 @@
       <c r="A79" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="B79" s="210" t="s">
+      <c r="B79" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="211"/>
+      <c r="C79" s="212"/>
       <c r="D79" s="8"/>
       <c r="E79" s="81"/>
       <c r="F79" s="87"/>
@@ -5235,10 +5231,10 @@
       <c r="A80" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="B80" s="210" t="s">
+      <c r="B80" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="211"/>
+      <c r="C80" s="212"/>
       <c r="D80" s="8"/>
       <c r="E80" s="81"/>
       <c r="F80" s="87"/>
@@ -5248,10 +5244,10 @@
       <c r="A81" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="B81" s="210" t="s">
+      <c r="B81" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="211"/>
+      <c r="C81" s="212"/>
       <c r="D81" s="8"/>
       <c r="E81" s="81">
         <v>2</v>
@@ -5265,10 +5261,10 @@
       <c r="A82" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="B82" s="210" t="s">
+      <c r="B82" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="211"/>
+      <c r="C82" s="212"/>
       <c r="D82" s="8"/>
       <c r="E82" s="81">
         <v>2</v>
@@ -5282,21 +5278,21 @@
       <c r="A83" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="B83" s="214" t="s">
+      <c r="B83" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="215"/>
+      <c r="C83" s="210"/>
       <c r="D83" s="9"/>
       <c r="E83" s="88"/>
       <c r="F83" s="94"/>
       <c r="G83" s="46"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="205" t="s">
+      <c r="B84" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="206"/>
-      <c r="D84" s="207"/>
+      <c r="C84" s="217"/>
+      <c r="D84" s="218"/>
       <c r="E84" s="84">
         <f>SUM(E77:E83)</f>
         <v>16</v>
@@ -5310,11 +5306,11 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="205" t="s">
+      <c r="B86" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="206"/>
-      <c r="D86" s="207"/>
+      <c r="C86" s="217"/>
+      <c r="D86" s="218"/>
       <c r="E86" s="84">
         <f>SUM(E70,E84)</f>
         <v>25</v>
@@ -5326,11 +5322,11 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="205" t="s">
+      <c r="B88" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="206"/>
-      <c r="D88" s="207"/>
+      <c r="C88" s="217"/>
+      <c r="D88" s="218"/>
       <c r="E88" s="84">
         <f>SUM(E55,E86)</f>
         <v>40</v>
@@ -5348,12 +5344,12 @@
       <c r="A91" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="224" t="str">
+      <c r="B91" s="213" t="str">
         <f>IF(AND(E91=0,F91=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C91" s="225"/>
-      <c r="D91" s="226"/>
+      <c r="C91" s="214"/>
+      <c r="D91" s="215"/>
       <c r="E91" s="84">
         <f>E88-E42</f>
         <v>-104</v>
@@ -5372,6 +5368,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B78:C78"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B39:C39"/>
@@ -5388,67 +5445,6 @@
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B91">
@@ -5483,13 +5479,13 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="40.7265625" style="2" customWidth="1"/>
     <col min="3" max="3" width="147.08984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
     <col min="5" max="6" width="10.7265625" style="2" customWidth="1"/>
@@ -5502,14 +5498,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="237" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="231"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="238"/>
       <c r="G1" s="126"/>
       <c r="H1" s="126"/>
       <c r="I1" s="126"/>
@@ -5518,63 +5514,63 @@
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="184" t="str">
+      <c r="B2" s="197" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="186"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="199"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="140" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="184" t="str">
+      <c r="B3" s="197" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="186"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="199"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="187">
+      <c r="B4" s="206">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="189"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="208"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="187">
+      <c r="B5" s="206">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="189"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="208"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="242" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="233"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243"/>
       <c r="G6" s="126"/>
       <c r="H6" s="126"/>
       <c r="I6" s="126"/>
@@ -5583,36 +5579,36 @@
       <c r="A7" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="229"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="241"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="129" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="227" t="s">
+      <c r="B8" s="239" t="s">
         <v>580</v>
       </c>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="229"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="241"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="220"/>
-      <c r="D12" s="180" t="s">
+      <c r="C12" s="225"/>
+      <c r="D12" s="179" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="12">
@@ -5623,19 +5619,19 @@
         <f>B5</f>
         <v>45657</v>
       </c>
-      <c r="G12" s="269" t="s">
+      <c r="G12" s="181" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="205" t="s">
+      <c r="B13" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="206"/>
-      <c r="D13" s="206"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="206"/>
-      <c r="G13" s="270"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="182"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
@@ -5651,10 +5647,10 @@
       <c r="E14" s="81">
         <v>15</v>
       </c>
-      <c r="F14" s="267">
+      <c r="F14" s="87">
         <v>10</v>
       </c>
-      <c r="G14" s="273" t="s">
+      <c r="G14" s="185" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5670,10 +5666,10 @@
       <c r="E15" s="81">
         <v>2</v>
       </c>
-      <c r="F15" s="267">
+      <c r="F15" s="87">
         <v>3</v>
       </c>
-      <c r="G15" s="271"/>
+      <c r="G15" s="183"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
@@ -5687,10 +5683,10 @@
       <c r="E16" s="81">
         <v>3</v>
       </c>
-      <c r="F16" s="267">
+      <c r="F16" s="87">
         <v>5</v>
       </c>
-      <c r="G16" s="271"/>
+      <c r="G16" s="183"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
@@ -5704,10 +5700,10 @@
       <c r="E17" s="81">
         <v>2</v>
       </c>
-      <c r="F17" s="267">
+      <c r="F17" s="87">
         <v>10</v>
       </c>
-      <c r="G17" s="271"/>
+      <c r="G17" s="183"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
@@ -5721,10 +5717,10 @@
       <c r="E18" s="81">
         <v>-6</v>
       </c>
-      <c r="F18" s="267">
+      <c r="F18" s="87">
         <v>-6</v>
       </c>
-      <c r="G18" s="271"/>
+      <c r="G18" s="183"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
@@ -5740,10 +5736,10 @@
       <c r="E19" s="81">
         <v>-6</v>
       </c>
-      <c r="F19" s="267">
+      <c r="F19" s="87">
         <v>-6</v>
       </c>
-      <c r="G19" s="273" t="s">
+      <c r="G19" s="185" t="s">
         <v>578</v>
       </c>
     </row>
@@ -5759,10 +5755,10 @@
       <c r="E20" s="81">
         <v>-6</v>
       </c>
-      <c r="F20" s="267">
+      <c r="F20" s="87">
         <v>-4</v>
       </c>
-      <c r="G20" s="271"/>
+      <c r="G20" s="183"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
@@ -5776,10 +5772,10 @@
       <c r="E21" s="81">
         <v>-6</v>
       </c>
-      <c r="F21" s="267">
+      <c r="F21" s="87">
         <v>16</v>
       </c>
-      <c r="G21" s="271"/>
+      <c r="G21" s="183"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
@@ -5793,10 +5789,10 @@
       <c r="E22" s="81">
         <v>-4</v>
       </c>
-      <c r="F22" s="267">
+      <c r="F22" s="87">
         <v>-3</v>
       </c>
-      <c r="G22" s="271"/>
+      <c r="G22" s="183"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
@@ -5810,17 +5806,17 @@
       <c r="E23" s="81">
         <v>-6</v>
       </c>
-      <c r="F23" s="267">
+      <c r="F23" s="87">
         <v>2</v>
       </c>
-      <c r="G23" s="271"/>
+      <c r="G23" s="183"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="141"/>
-      <c r="B24" s="206" t="s">
+      <c r="B24" s="217" t="s">
         <v>290</v>
       </c>
-      <c r="C24" s="207"/>
+      <c r="C24" s="218"/>
       <c r="D24" s="143"/>
       <c r="E24" s="82">
         <f>SUM(E14:E23)</f>
@@ -5830,7 +5826,7 @@
         <f>SUM(F14:F23)</f>
         <v>27</v>
       </c>
-      <c r="G24" s="271"/>
+      <c r="G24" s="183"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
@@ -5840,14 +5836,14 @@
       <c r="C25" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="144"/>
       <c r="E25" s="81">
         <v>6</v>
       </c>
-      <c r="F25" s="267">
+      <c r="F25" s="87">
         <v>5</v>
       </c>
-      <c r="G25" s="271"/>
+      <c r="G25" s="183"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
@@ -5857,14 +5853,14 @@
       <c r="C26" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="144"/>
       <c r="E26" s="81">
         <v>-3</v>
       </c>
-      <c r="F26" s="267">
+      <c r="F26" s="87">
         <v>3</v>
       </c>
-      <c r="G26" s="271"/>
+      <c r="G26" s="183"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
@@ -5874,21 +5870,21 @@
       <c r="C27" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="144"/>
       <c r="E27" s="81">
         <v>6</v>
       </c>
-      <c r="F27" s="267">
+      <c r="F27" s="87">
         <v>6</v>
       </c>
-      <c r="G27" s="271"/>
+      <c r="G27" s="183"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="141"/>
-      <c r="B28" s="206" t="s">
+      <c r="B28" s="217" t="s">
         <v>289</v>
       </c>
-      <c r="C28" s="207"/>
+      <c r="C28" s="218"/>
       <c r="D28" s="143"/>
       <c r="E28" s="82">
         <f>SUM(E24:E27)</f>
@@ -5898,7 +5894,7 @@
         <f>SUM(F24:F27)</f>
         <v>41</v>
       </c>
-      <c r="G28" s="271"/>
+      <c r="G28" s="183"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
@@ -5907,21 +5903,21 @@
       <c r="C29" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="144"/>
       <c r="E29" s="83">
         <v>1</v>
       </c>
-      <c r="F29" s="268">
+      <c r="F29" s="180">
         <v>5</v>
       </c>
-      <c r="G29" s="271"/>
+      <c r="G29" s="183"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="141"/>
-      <c r="B30" s="206" t="s">
+      <c r="B30" s="217" t="s">
         <v>408</v>
       </c>
-      <c r="C30" s="207"/>
+      <c r="C30" s="218"/>
       <c r="D30" s="143"/>
       <c r="E30" s="82">
         <f>SUM(E28:E29)</f>
@@ -5931,7 +5927,7 @@
         <f>SUM(F28:F29)</f>
         <v>46</v>
       </c>
-      <c r="G30" s="272"/>
+      <c r="G30" s="184"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
@@ -5941,12 +5937,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B12:C12"/>
@@ -5954,6 +5944,12 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9A9E6224-643C-4AD9-9436-A2DC070A0C83}"/>
@@ -5979,12 +5975,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="244" t="s">
         <v>405</v>
       </c>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
       <c r="F1" s="126"/>
       <c r="G1" s="126"/>
       <c r="H1" s="126"/>
@@ -5993,79 +5989,79 @@
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="184" t="str">
+      <c r="B2" s="197" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="140" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="184" t="str">
+      <c r="B3" s="197" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="186"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="199"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="187">
+      <c r="B4" s="206">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="208"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="187">
+      <c r="B5" s="206">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="189"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="208"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="203" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="183"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="205"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="229"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="241"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="227" t="s">
+      <c r="B8" s="239" t="s">
         <v>581</v>
       </c>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="229"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="241"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6082,10 +6078,10 @@
       <c r="A11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="238" t="s">
+      <c r="B11" s="248" t="s">
         <v>389</v>
       </c>
-      <c r="C11" s="239"/>
+      <c r="C11" s="249"/>
       <c r="D11" s="113" t="s">
         <v>134</v>
       </c>
@@ -6107,12 +6103,12 @@
       <c r="E12" s="117"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="235" t="s">
+      <c r="B13" s="245" t="s">
         <v>390</v>
       </c>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="237"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="247"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
@@ -6141,11 +6137,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="235" t="s">
+      <c r="B16" s="245" t="s">
         <v>386</v>
       </c>
-      <c r="C16" s="236"/>
-      <c r="D16" s="237"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="247"/>
       <c r="E16" s="116">
         <f>SUM(E14:E15)</f>
         <v>2</v>
@@ -6257,11 +6253,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="247"/>
       <c r="E25" s="116">
         <f>SUM(E17:E24)</f>
         <v>2</v>
@@ -6312,8 +6308,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6326,103 +6322,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="203" t="s">
         <v>407</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="183"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="205"/>
       <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="184" t="str">
+      <c r="B2" s="197" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="140" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="184" t="str">
+      <c r="B3" s="197" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="186"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="199"/>
     </row>
     <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="187">
+      <c r="B4" s="206">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="208"/>
     </row>
     <row r="5" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="187">
+      <c r="B5" s="206">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="189"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="208"/>
     </row>
     <row r="6" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="203" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="183"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="205"/>
       <c r="F6" s="126"/>
     </row>
     <row r="7" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="229"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="241"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="130" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="227" t="s">
+      <c r="B8" s="239" t="s">
         <v>582</v>
       </c>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="229"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="241"/>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="245" t="s">
+      <c r="A10" s="250" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="247" t="s">
+      <c r="B10" s="252" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="248"/>
-      <c r="D10" s="240" t="s">
+      <c r="C10" s="253"/>
+      <c r="D10" s="259" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="62">
@@ -6431,10 +6427,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="246"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="250"/>
-      <c r="D11" s="241"/>
+      <c r="A11" s="251"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="260"/>
       <c r="E11" s="62" t="s">
         <v>134</v>
       </c>
@@ -6443,21 +6439,21 @@
       <c r="A12" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="B12" s="242" t="s">
+      <c r="B12" s="256" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="243"/>
-      <c r="D12" s="244"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="257"/>
       <c r="E12" s="96">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="242" t="s">
+      <c r="B13" s="256" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="243"/>
-      <c r="D13" s="244"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="257"/>
       <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6468,7 +6464,7 @@
       <c r="C14" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="D14" s="165"/>
+      <c r="D14" s="144"/>
       <c r="E14" s="97">
         <v>1</v>
       </c>
@@ -6481,7 +6477,7 @@
       <c r="C15" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="D15" s="165"/>
+      <c r="D15" s="144"/>
       <c r="E15" s="98">
         <v>-1</v>
       </c>
@@ -6494,7 +6490,7 @@
       <c r="C16" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="144"/>
       <c r="E16" s="98">
         <v>-1</v>
       </c>
@@ -6507,7 +6503,7 @@
       <c r="C17" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="D17" s="165"/>
+      <c r="D17" s="144"/>
       <c r="E17" s="98">
         <v>-1</v>
       </c>
@@ -6520,7 +6516,7 @@
       <c r="C18" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="D18" s="165"/>
+      <c r="D18" s="144"/>
       <c r="E18" s="98">
         <v>2</v>
       </c>
@@ -6533,7 +6529,7 @@
       <c r="C19" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="D19" s="165"/>
+      <c r="D19" s="144"/>
       <c r="E19" s="98">
         <v>2</v>
       </c>
@@ -6546,7 +6542,7 @@
       <c r="C20" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="D20" s="165"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="98">
         <v>3</v>
       </c>
@@ -6560,7 +6556,7 @@
       <c r="C21" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="D21" s="165"/>
+      <c r="D21" s="144"/>
       <c r="E21" s="98">
         <v>3</v>
       </c>
@@ -6574,7 +6570,7 @@
       <c r="C22" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="98">
         <v>4</v>
       </c>
@@ -6588,7 +6584,7 @@
       <c r="C23" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="144"/>
       <c r="E23" s="98">
         <v>1</v>
       </c>
@@ -6602,7 +6598,7 @@
       <c r="C24" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="144"/>
       <c r="E24" s="98">
         <v>5</v>
       </c>
@@ -6616,7 +6612,7 @@
       <c r="C25" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="38"/>
+      <c r="D25" s="144"/>
       <c r="E25" s="98">
         <v>-3</v>
       </c>
@@ -6630,7 +6626,7 @@
       <c r="C26" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="D26" s="38"/>
+      <c r="D26" s="144"/>
       <c r="E26" s="98">
         <v>4</v>
       </c>
@@ -6644,7 +6640,7 @@
       <c r="C27" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="144"/>
       <c r="E27" s="98">
         <v>-5</v>
       </c>
@@ -6658,7 +6654,7 @@
       <c r="C28" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="144"/>
       <c r="E28" s="98">
         <v>-2</v>
       </c>
@@ -6671,7 +6667,7 @@
       <c r="C29" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="144"/>
       <c r="E29" s="98"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -6682,7 +6678,7 @@
       <c r="C30" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="D30" s="38"/>
+      <c r="D30" s="144"/>
       <c r="E30" s="98"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6693,7 +6689,7 @@
       <c r="C31" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="144"/>
       <c r="E31" s="98">
         <v>-3</v>
       </c>
@@ -6706,7 +6702,7 @@
       <c r="C32" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="144"/>
       <c r="E32" s="98"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6717,7 +6713,7 @@
       <c r="C33" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="38"/>
+      <c r="D33" s="144"/>
       <c r="E33" s="98">
         <v>2</v>
       </c>
@@ -6730,7 +6726,7 @@
       <c r="C34" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="144"/>
       <c r="E34" s="98"/>
     </row>
     <row r="35" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6741,16 +6737,16 @@
       <c r="C35" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="D35" s="40"/>
+      <c r="D35" s="144"/>
       <c r="E35" s="99">
         <v>-5</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="242" t="s">
+      <c r="B36" s="256" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="243"/>
+      <c r="C36" s="258"/>
       <c r="D36" s="164"/>
       <c r="E36" s="100">
         <f>SUM(E14:E35)</f>
@@ -6765,7 +6761,7 @@
       <c r="C37" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="D37" s="144"/>
       <c r="E37" s="97">
         <v>-5</v>
       </c>
@@ -6779,7 +6775,7 @@
       <c r="C38" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="D38" s="38"/>
+      <c r="D38" s="144"/>
       <c r="E38" s="98">
         <v>6</v>
       </c>
@@ -6793,7 +6789,7 @@
       <c r="C39" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="D39" s="38"/>
+      <c r="D39" s="144"/>
       <c r="E39" s="98">
         <v>-5</v>
       </c>
@@ -6807,7 +6803,7 @@
       <c r="C40" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="D40" s="38"/>
+      <c r="D40" s="144"/>
       <c r="E40" s="98">
         <v>5</v>
       </c>
@@ -6837,29 +6833,29 @@
       <c r="C42" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="D42" s="38"/>
+      <c r="D42" s="144"/>
       <c r="E42" s="99">
         <v>5</v>
       </c>
       <c r="F42" s="61"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="242" t="s">
+      <c r="B43" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="243"/>
-      <c r="D43" s="244"/>
-      <c r="E43" s="167">
+      <c r="C43" s="258"/>
+      <c r="D43" s="257"/>
+      <c r="E43" s="166">
         <f>E12+E36+SUM(E37:E42)</f>
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="242" t="s">
+      <c r="B44" s="256" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="243"/>
-      <c r="D44" s="244"/>
+      <c r="C44" s="258"/>
+      <c r="D44" s="257"/>
       <c r="E44" s="49"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -6870,7 +6866,7 @@
       <c r="C45" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="D45" s="38"/>
+      <c r="D45" s="144"/>
       <c r="E45" s="97"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -6881,7 +6877,7 @@
       <c r="C46" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="D46" s="38"/>
+      <c r="D46" s="144"/>
       <c r="E46" s="98"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -6892,7 +6888,7 @@
       <c r="C47" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="D47" s="38"/>
+      <c r="D47" s="144"/>
       <c r="E47" s="98">
         <v>5</v>
       </c>
@@ -6906,7 +6902,7 @@
       <c r="C48" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="D48" s="38"/>
+      <c r="D48" s="144"/>
       <c r="E48" s="98"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -6917,7 +6913,7 @@
       <c r="C49" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="D49" s="38"/>
+      <c r="D49" s="144"/>
       <c r="E49" s="98">
         <v>65</v>
       </c>
@@ -6931,7 +6927,7 @@
       <c r="C50" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="D50" s="38"/>
+      <c r="D50" s="144"/>
       <c r="E50" s="98"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -6942,7 +6938,7 @@
       <c r="C51" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="D51" s="38"/>
+      <c r="D51" s="144"/>
       <c r="E51" s="98"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -6953,7 +6949,7 @@
       <c r="C52" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="D52" s="38"/>
+      <c r="D52" s="144"/>
       <c r="E52" s="98"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -6964,7 +6960,7 @@
       <c r="C53" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="D53" s="38"/>
+      <c r="D53" s="144"/>
       <c r="E53" s="98"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -6975,7 +6971,7 @@
       <c r="C54" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="D54" s="38"/>
+      <c r="D54" s="144"/>
       <c r="E54" s="98">
         <v>-45</v>
       </c>
@@ -6989,7 +6985,7 @@
       <c r="C55" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="D55" s="38"/>
+      <c r="D55" s="144"/>
       <c r="E55" s="98"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7000,7 +6996,7 @@
       <c r="C56" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="D56" s="38"/>
+      <c r="D56" s="144"/>
       <c r="E56" s="98"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7011,7 +7007,7 @@
       <c r="C57" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="D57" s="38"/>
+      <c r="D57" s="144"/>
       <c r="E57" s="98"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7022,7 +7018,7 @@
       <c r="C58" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="D58" s="38"/>
+      <c r="D58" s="144"/>
       <c r="E58" s="98"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7033,7 +7029,7 @@
       <c r="C59" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="D59" s="38"/>
+      <c r="D59" s="144"/>
       <c r="E59" s="98"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7044,7 +7040,7 @@
       <c r="C60" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="D60" s="38"/>
+      <c r="D60" s="144"/>
       <c r="E60" s="98"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -7055,7 +7051,7 @@
       <c r="C61" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="D61" s="38"/>
+      <c r="D61" s="144"/>
       <c r="E61" s="98"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -7066,7 +7062,7 @@
       <c r="C62" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="D62" s="38"/>
+      <c r="D62" s="144"/>
       <c r="E62" s="98"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -7077,7 +7073,7 @@
       <c r="C63" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="D63" s="38"/>
+      <c r="D63" s="144"/>
       <c r="E63" s="98"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -7104,26 +7100,26 @@
       <c r="C65" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="D65" s="38"/>
+      <c r="D65" s="144"/>
       <c r="E65" s="99"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="242" t="s">
+      <c r="B66" s="256" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="243"/>
-      <c r="D66" s="244"/>
-      <c r="E66" s="166">
+      <c r="C66" s="258"/>
+      <c r="D66" s="257"/>
+      <c r="E66" s="165">
         <f>SUM(E45:E65)</f>
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="242" t="s">
+      <c r="B67" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="243"/>
-      <c r="D67" s="244"/>
+      <c r="C67" s="258"/>
+      <c r="D67" s="257"/>
       <c r="E67" s="49"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -7134,7 +7130,7 @@
       <c r="C68" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="D68" s="38"/>
+      <c r="D68" s="144"/>
       <c r="E68" s="97">
         <v>54</v>
       </c>
@@ -7148,7 +7144,7 @@
       <c r="C69" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="D69" s="38"/>
+      <c r="D69" s="144"/>
       <c r="E69" s="98"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -7159,7 +7155,7 @@
       <c r="C70" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="D70" s="38"/>
+      <c r="D70" s="144"/>
       <c r="E70" s="98"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -7170,7 +7166,7 @@
       <c r="C71" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="D71" s="38"/>
+      <c r="D71" s="144"/>
       <c r="E71" s="98">
         <v>54</v>
       </c>
@@ -7184,7 +7180,7 @@
       <c r="C72" s="38" t="s">
         <v>362</v>
       </c>
-      <c r="D72" s="38"/>
+      <c r="D72" s="144"/>
       <c r="E72" s="98"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -7195,7 +7191,7 @@
       <c r="C73" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="D73" s="38"/>
+      <c r="D73" s="144"/>
       <c r="E73" s="98"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -7206,7 +7202,7 @@
       <c r="C74" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="D74" s="38"/>
+      <c r="D74" s="144"/>
       <c r="E74" s="98">
         <v>-45</v>
       </c>
@@ -7220,7 +7216,7 @@
       <c r="C75" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="D75" s="38"/>
+      <c r="D75" s="144"/>
       <c r="E75" s="98"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -7231,7 +7227,7 @@
       <c r="C76" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="D76" s="38"/>
+      <c r="D76" s="144"/>
       <c r="E76" s="98">
         <v>-54</v>
       </c>
@@ -7261,26 +7257,26 @@
       <c r="C78" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="D78" s="40"/>
+      <c r="D78" s="144"/>
       <c r="E78" s="99"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="242" t="s">
+      <c r="B79" s="256" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="243"/>
-      <c r="D79" s="244"/>
+      <c r="C79" s="258"/>
+      <c r="D79" s="257"/>
       <c r="E79" s="101">
         <f>SUM(E68:E78)</f>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="242" t="s">
+      <c r="B80" s="256" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="243"/>
-      <c r="D80" s="244"/>
+      <c r="C80" s="258"/>
+      <c r="D80" s="257"/>
       <c r="E80" s="84">
         <f>SUM(E43,E66,E79)</f>
         <v>118</v>
@@ -7294,15 +7290,15 @@
       <c r="C81" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="144"/>
       <c r="E81" s="99"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="242" t="s">
+      <c r="B82" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="244"/>
-      <c r="D82" s="172">
+      <c r="C82" s="257"/>
+      <c r="D82" s="171">
         <v>7.2</v>
       </c>
       <c r="E82" s="84">
@@ -7311,33 +7307,33 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="242" t="s">
+      <c r="B83" s="256" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="243"/>
-      <c r="D83" s="244"/>
+      <c r="C83" s="258"/>
+      <c r="D83" s="257"/>
       <c r="E83" s="84">
         <f>'Statement of financial position'!E39</f>
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="242" t="s">
+      <c r="B84" s="256" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="243"/>
-      <c r="D84" s="244"/>
+      <c r="C84" s="258"/>
+      <c r="D84" s="257"/>
       <c r="E84" s="84">
         <f>'Statement of financial position'!F39</f>
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="242" t="s">
+      <c r="B85" s="256" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="243"/>
-      <c r="D85" s="244"/>
+      <c r="C85" s="258"/>
+      <c r="D85" s="257"/>
       <c r="E85" s="84">
         <f>E84-E83</f>
         <v>5</v>
@@ -7352,6 +7348,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B82:C82"/>
@@ -7365,17 +7372,6 @@
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{5A53CF31-79B9-4E1F-A6DA-D8AE91352090}"/>
@@ -7411,41 +7407,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="203" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="183"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="205"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="255" t="str">
+      <c r="B2" s="270" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="257"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="271"/>
+      <c r="M2" s="272"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="140" t="s">
@@ -7455,37 +7451,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="190">
+      <c r="B4" s="191">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="192"/>
+      <c r="M4" s="193"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
@@ -7495,72 +7491,72 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="192"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="193"/>
+      <c r="M5" s="193"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="203" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="183"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="205"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="198"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="202"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="194" t="s">
         <v>583</v>
       </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="196"/>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -7568,21 +7564,21 @@
       <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="219" t="s">
+      <c r="A10" s="224" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="251"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="251"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="251"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="251"/>
-      <c r="M10" s="220"/>
+      <c r="B10" s="273"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="273"/>
+      <c r="L10" s="273"/>
+      <c r="M10" s="225"/>
     </row>
     <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="137" t="s">
@@ -7597,23 +7593,23 @@
       <c r="D11" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="252" t="s">
+      <c r="E11" s="267" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="254"/>
+      <c r="F11" s="268"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="268"/>
+      <c r="L11" s="268"/>
+      <c r="M11" s="269"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="258" t="s">
+      <c r="A12" s="261" t="s">
         <v>427</v>
       </c>
-      <c r="B12" s="259"/>
+      <c r="B12" s="262"/>
       <c r="C12" s="65"/>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -7924,10 +7920,10 @@
       <c r="B32" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="216" t="s">
+      <c r="C32" s="221" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="218"/>
+      <c r="D32" s="223"/>
       <c r="E32" s="69" t="s">
         <v>400</v>
       </c>
@@ -8024,10 +8020,10 @@
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
-      <c r="C37" s="205" t="s">
+      <c r="C37" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="207"/>
+      <c r="D37" s="218"/>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
       <c r="G37" s="69"/>
@@ -8317,10 +8313,10 @@
       <c r="B52" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="205" t="s">
+      <c r="C52" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="207"/>
+      <c r="D52" s="218"/>
       <c r="E52" s="68"/>
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
@@ -8410,10 +8406,10 @@
     <row r="57" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
-      <c r="C57" s="205" t="s">
+      <c r="C57" s="216" t="s">
         <v>188</v>
       </c>
-      <c r="D57" s="207"/>
+      <c r="D57" s="218"/>
       <c r="E57" s="68"/>
       <c r="F57" s="69"/>
       <c r="G57" s="69"/>
@@ -8427,10 +8423,10 @@
     <row r="58" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
-      <c r="C58" s="205" t="s">
+      <c r="C58" s="216" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="207"/>
+      <c r="D58" s="218"/>
       <c r="E58" s="68"/>
       <c r="F58" s="69"/>
       <c r="G58" s="69"/>
@@ -8660,10 +8656,10 @@
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="205" t="s">
+      <c r="C70" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="206"/>
+      <c r="D70" s="217"/>
       <c r="E70" s="68"/>
       <c r="F70" s="69"/>
       <c r="G70" s="69"/>
@@ -8963,21 +8959,21 @@
       <c r="M85" s="71"/>
     </row>
     <row r="86" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="260" t="s">
+      <c r="A86" s="263" t="s">
         <v>294</v>
       </c>
-      <c r="B86" s="261"/>
-      <c r="C86" s="261"/>
-      <c r="D86" s="261"/>
-      <c r="E86" s="262"/>
-      <c r="F86" s="262"/>
-      <c r="G86" s="262"/>
-      <c r="H86" s="262"/>
-      <c r="I86" s="262"/>
-      <c r="J86" s="262"/>
-      <c r="K86" s="262"/>
-      <c r="L86" s="262"/>
-      <c r="M86" s="263"/>
+      <c r="B86" s="264"/>
+      <c r="C86" s="264"/>
+      <c r="D86" s="264"/>
+      <c r="E86" s="265"/>
+      <c r="F86" s="265"/>
+      <c r="G86" s="265"/>
+      <c r="H86" s="265"/>
+      <c r="I86" s="265"/>
+      <c r="J86" s="265"/>
+      <c r="K86" s="265"/>
+      <c r="L86" s="265"/>
+      <c r="M86" s="266"/>
     </row>
     <row r="87" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="60" t="s">
@@ -8992,17 +8988,17 @@
       <c r="D87" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E87" s="252" t="s">
+      <c r="E87" s="267" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="253"/>
-      <c r="G87" s="253"/>
-      <c r="H87" s="253"/>
-      <c r="I87" s="253"/>
-      <c r="J87" s="253"/>
-      <c r="K87" s="253"/>
-      <c r="L87" s="253"/>
-      <c r="M87" s="254"/>
+      <c r="F87" s="268"/>
+      <c r="G87" s="268"/>
+      <c r="H87" s="268"/>
+      <c r="I87" s="268"/>
+      <c r="J87" s="268"/>
+      <c r="K87" s="268"/>
+      <c r="L87" s="268"/>
+      <c r="M87" s="269"/>
     </row>
     <row r="88" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56" t="s">
@@ -9028,10 +9024,10 @@
     <row r="89" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="19"/>
       <c r="B89" s="29"/>
-      <c r="C89" s="205" t="s">
+      <c r="C89" s="216" t="s">
         <v>205</v>
       </c>
-      <c r="D89" s="207"/>
+      <c r="D89" s="218"/>
       <c r="E89" s="75"/>
       <c r="F89" s="76"/>
       <c r="G89" s="76"/>
@@ -9353,10 +9349,10 @@
     <row r="106" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
-      <c r="C106" s="206" t="s">
+      <c r="C106" s="217" t="s">
         <v>205</v>
       </c>
-      <c r="D106" s="207"/>
+      <c r="D106" s="218"/>
       <c r="E106" s="68"/>
       <c r="F106" s="69"/>
       <c r="G106" s="69"/>
@@ -9661,10 +9657,10 @@
       <c r="B122" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C122" s="205" t="s">
+      <c r="C122" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="D122" s="207"/>
+      <c r="D122" s="218"/>
       <c r="E122" s="65"/>
       <c r="F122" s="66"/>
       <c r="G122" s="66"/>
@@ -9754,10 +9750,10 @@
     <row r="127" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
-      <c r="C127" s="205" t="s">
+      <c r="C127" s="216" t="s">
         <v>227</v>
       </c>
-      <c r="D127" s="207"/>
+      <c r="D127" s="218"/>
       <c r="E127" s="68"/>
       <c r="F127" s="69"/>
       <c r="G127" s="69"/>
@@ -9771,10 +9767,10 @@
     <row r="128" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
-      <c r="C128" s="205" t="s">
+      <c r="C128" s="216" t="s">
         <v>228</v>
       </c>
-      <c r="D128" s="207"/>
+      <c r="D128" s="218"/>
       <c r="E128" s="68"/>
       <c r="F128" s="69"/>
       <c r="G128" s="69"/>
@@ -10119,10 +10115,10 @@
       <c r="B146" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C146" s="205" t="s">
+      <c r="C146" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="D146" s="207"/>
+      <c r="D146" s="218"/>
       <c r="E146" s="65"/>
       <c r="F146" s="66"/>
       <c r="G146" s="66"/>
@@ -10212,10 +10208,10 @@
     <row r="151" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
-      <c r="C151" s="205" t="s">
+      <c r="C151" s="216" t="s">
         <v>249</v>
       </c>
-      <c r="D151" s="207"/>
+      <c r="D151" s="218"/>
       <c r="E151" s="68"/>
       <c r="F151" s="69"/>
       <c r="G151" s="69"/>
@@ -10229,10 +10225,10 @@
     <row r="152" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
-      <c r="C152" s="205" t="s">
+      <c r="C152" s="216" t="s">
         <v>250</v>
       </c>
-      <c r="D152" s="207"/>
+      <c r="D152" s="218"/>
       <c r="E152" s="68"/>
       <c r="F152" s="69"/>
       <c r="G152" s="69"/>
@@ -10246,10 +10242,10 @@
     <row r="153" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
-      <c r="C153" s="205" t="s">
+      <c r="C153" s="216" t="s">
         <v>251</v>
       </c>
-      <c r="D153" s="207"/>
+      <c r="D153" s="218"/>
       <c r="E153" s="68"/>
       <c r="F153" s="69"/>
       <c r="G153" s="69"/>
@@ -10556,10 +10552,10 @@
       <c r="B169" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="205" t="s">
+      <c r="C169" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="D169" s="207"/>
+      <c r="D169" s="218"/>
       <c r="E169" s="68"/>
       <c r="F169" s="69"/>
       <c r="G169" s="69"/>
@@ -10880,10 +10876,10 @@
       <c r="B187" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C187" s="205" t="s">
+      <c r="C187" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="D187" s="207"/>
+      <c r="D187" s="218"/>
       <c r="E187" s="68"/>
       <c r="F187" s="69"/>
       <c r="G187" s="69"/>
@@ -11155,10 +11151,10 @@
       <c r="B202" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C202" s="205" t="s">
+      <c r="C202" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="D202" s="207"/>
+      <c r="D202" s="218"/>
       <c r="E202" s="65"/>
       <c r="F202" s="66"/>
       <c r="G202" s="66"/>
@@ -11234,10 +11230,10 @@
       <c r="B206" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C206" s="205" t="s">
+      <c r="C206" s="216" t="s">
         <v>258</v>
       </c>
-      <c r="D206" s="207"/>
+      <c r="D206" s="218"/>
       <c r="E206" s="65"/>
       <c r="F206" s="66"/>
       <c r="G206" s="66"/>
@@ -11876,10 +11872,10 @@
       <c r="B245" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C245" s="205" t="s">
+      <c r="C245" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="D245" s="206"/>
+      <c r="D245" s="217"/>
       <c r="E245" s="50"/>
       <c r="F245" s="52"/>
       <c r="G245" s="52"/>
@@ -11969,23 +11965,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A86:M86"/>
-    <mergeCell ref="E87:M87"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="B7:M7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="C202:D202"/>
@@ -12002,6 +11981,23 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="B8:M8"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A86:M86"/>
+    <mergeCell ref="E87:M87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{CAFC6D68-6070-4D51-BEF1-3FF68EC64F87}"/>
@@ -12036,21 +12032,21 @@
       <c r="A1" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="255" t="str">
+      <c r="B1" s="270" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="257"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="272"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="140" t="s">
@@ -12060,37 +12056,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="190">
+      <c r="B3" s="191">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="193"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
@@ -12100,90 +12096,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="193"/>
     </row>
     <row r="5" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="203" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="183"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="205"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="198"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="201"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="202"/>
     </row>
     <row r="7" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="193" t="s">
+      <c r="B7" s="194" t="s">
         <v>584</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="196"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="219" t="s">
+      <c r="A10" s="224" t="s">
         <v>518</v>
       </c>
-      <c r="B10" s="251"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="251"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="251"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="251"/>
-      <c r="M10" s="220"/>
+      <c r="B10" s="273"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="273"/>
+      <c r="L10" s="273"/>
+      <c r="M10" s="225"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="60" t="s">
@@ -12198,17 +12194,17 @@
       <c r="D11" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="260" t="s">
+      <c r="E11" s="263" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="261"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="261"/>
-      <c r="K11" s="261"/>
-      <c r="L11" s="261"/>
-      <c r="M11" s="264"/>
+      <c r="F11" s="264"/>
+      <c r="G11" s="264"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="264"/>
+      <c r="J11" s="264"/>
+      <c r="K11" s="264"/>
+      <c r="L11" s="264"/>
+      <c r="M11" s="274"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="55" t="s">
@@ -12217,10 +12213,10 @@
       <c r="B12" s="55" t="s">
         <v>531</v>
       </c>
-      <c r="C12" s="265" t="s">
+      <c r="C12" s="275" t="s">
         <v>532</v>
       </c>
-      <c r="D12" s="266"/>
+      <c r="D12" s="276"/>
       <c r="E12" s="65"/>
       <c r="F12" s="66"/>
       <c r="G12" s="66"/>
@@ -12622,7 +12618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B93A2ED-056F-4720-99B4-8FAF3132C851}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -12639,21 +12635,21 @@
       <c r="A1" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="255" t="str">
+      <c r="B1" s="270" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="257"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="272"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="140" t="s">
@@ -12663,37 +12659,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="190">
+      <c r="B3" s="191">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="193"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
@@ -12703,90 +12699,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="193"/>
     </row>
     <row r="5" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="203" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="183"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="205"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="198"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="201"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="202"/>
     </row>
     <row r="7" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="193" t="s">
+      <c r="B7" s="194" t="s">
         <v>588</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="196"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="219" t="s">
+      <c r="A10" s="224" t="s">
         <v>561</v>
       </c>
-      <c r="B10" s="251"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="251"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="251"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="251"/>
-      <c r="M10" s="220"/>
+      <c r="B10" s="273"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="273"/>
+      <c r="L10" s="273"/>
+      <c r="M10" s="225"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="137" t="s">
@@ -12801,29 +12797,29 @@
       <c r="D11" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="260" t="s">
+      <c r="E11" s="263" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="261"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="261"/>
-      <c r="K11" s="261"/>
-      <c r="L11" s="261"/>
-      <c r="M11" s="264"/>
+      <c r="F11" s="264"/>
+      <c r="G11" s="264"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="264"/>
+      <c r="J11" s="264"/>
+      <c r="K11" s="264"/>
+      <c r="L11" s="264"/>
+      <c r="M11" s="274"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="270">
+      <c r="A12" s="182">
         <v>7.17</v>
       </c>
-      <c r="B12" s="175" t="s">
+      <c r="B12" s="174" t="s">
         <v>565</v>
       </c>
-      <c r="C12" s="265" t="s">
+      <c r="C12" s="275" t="s">
         <v>565</v>
       </c>
-      <c r="D12" s="266"/>
+      <c r="D12" s="276"/>
       <c r="E12" s="65"/>
       <c r="F12" s="66"/>
       <c r="G12" s="66"/>
@@ -12835,7 +12831,7 @@
       <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="273"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="29"/>
       <c r="C13" s="148" t="s">
         <v>560</v>
@@ -12854,7 +12850,7 @@
       <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="273"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="29"/>
       <c r="C14" s="34" t="s">
         <v>562</v>
@@ -12873,7 +12869,7 @@
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="273"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="29"/>
       <c r="C15" s="34" t="s">
         <v>563</v>
@@ -12893,12 +12889,12 @@
       <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="274"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="29"/>
       <c r="C16" s="35" t="s">
         <v>564</v>
       </c>
-      <c r="D16" s="168">
+      <c r="D16" s="167">
         <f>SUM(D13:D15)</f>
         <v>6</v>
       </c>
@@ -12913,14 +12909,14 @@
       <c r="M16" s="37"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="275">
+      <c r="A17" s="187">
         <v>7.2</v>
       </c>
-      <c r="B17" s="206" t="s">
+      <c r="B17" s="217" t="s">
         <v>570</v>
       </c>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
       <c r="E17" s="65"/>
       <c r="F17" s="66"/>
       <c r="G17" s="66"/>
@@ -12932,12 +12928,12 @@
       <c r="M17" s="67"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="273"/>
-      <c r="B18" s="173"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="176">
+      <c r="D18" s="175">
         <v>1</v>
       </c>
       <c r="E18" s="68"/>
@@ -12951,12 +12947,12 @@
       <c r="M18" s="37"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="273"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="29"/>
       <c r="C19" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="D19" s="177">
+      <c r="D19" s="176">
         <v>2</v>
       </c>
       <c r="E19" s="68"/>
@@ -12970,12 +12966,12 @@
       <c r="M19" s="37"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="273"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="29"/>
       <c r="C20" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="D20" s="177"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="68"/>
       <c r="F20" s="69"/>
       <c r="G20" s="69"/>
@@ -12987,12 +12983,12 @@
       <c r="M20" s="37"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="274"/>
-      <c r="B21" s="174"/>
+      <c r="A21" s="186"/>
+      <c r="B21" s="173"/>
       <c r="C21" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="D21" s="178">
+      <c r="D21" s="177">
         <f>SUM(D18:D20)</f>
         <v>3</v>
       </c>
@@ -13007,13 +13003,13 @@
       <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="179">
+      <c r="A22" s="178">
         <v>7.21</v>
       </c>
-      <c r="B22" s="205" t="s">
+      <c r="B22" s="216" t="s">
         <v>574</v>
       </c>
-      <c r="C22" s="207"/>
+      <c r="C22" s="218"/>
       <c r="D22" s="49"/>
       <c r="E22" s="70"/>
       <c r="F22" s="11"/>
@@ -13029,7 +13025,7 @@
       <c r="A23" s="38"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="171"/>
+      <c r="D23" s="170"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -13041,10 +13037,10 @@
       <c r="M23" s="141"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="270">
+      <c r="A24" s="182">
         <v>7.18</v>
       </c>
-      <c r="B24" s="276" t="s">
+      <c r="B24" s="188" t="s">
         <v>566</v>
       </c>
       <c r="C24" s="66"/>
@@ -13060,8 +13056,8 @@
       <c r="M24" s="67"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="278"/>
-      <c r="B25" s="277"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="189"/>
       <c r="C25" s="69"/>
       <c r="D25" s="87"/>
       <c r="E25" s="69"/>
@@ -13075,7 +13071,7 @@
       <c r="M25" s="37"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="273"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="15"/>
       <c r="C26" s="69"/>
       <c r="D26" s="87"/>
@@ -13090,7 +13086,7 @@
       <c r="M26" s="37"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="273"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="15"/>
       <c r="C27" s="69"/>
       <c r="D27" s="87"/>
@@ -13105,7 +13101,7 @@
       <c r="M27" s="37"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="273"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="15"/>
       <c r="C28" s="69"/>
       <c r="D28" s="87"/>
@@ -13120,7 +13116,7 @@
       <c r="M28" s="37"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="273"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="15"/>
       <c r="C29" s="69"/>
       <c r="D29" s="87"/>
@@ -13135,7 +13131,7 @@
       <c r="M29" s="37"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="273"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="15"/>
       <c r="C30" s="69"/>
       <c r="D30" s="87"/>
@@ -13150,7 +13146,7 @@
       <c r="M30" s="37"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="273"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="15"/>
       <c r="C31" s="69"/>
       <c r="D31" s="87"/>
@@ -13165,10 +13161,10 @@
       <c r="M31" s="37"/>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="274"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="169"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="168"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -13180,10 +13176,10 @@
       <c r="M32" s="71"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="270" t="s">
+      <c r="A33" s="182" t="s">
         <v>585</v>
       </c>
-      <c r="B33" s="276" t="s">
+      <c r="B33" s="188" t="s">
         <v>567</v>
       </c>
       <c r="C33" s="66"/>
@@ -13199,8 +13195,8 @@
       <c r="M33" s="67"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="278"/>
-      <c r="B34" s="277"/>
+      <c r="A34" s="190"/>
+      <c r="B34" s="189"/>
       <c r="C34" s="69"/>
       <c r="D34" s="87"/>
       <c r="E34" s="69"/>
@@ -13214,7 +13210,7 @@
       <c r="M34" s="37"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="273"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="15"/>
       <c r="C35" s="69"/>
       <c r="D35" s="87"/>
@@ -13229,7 +13225,7 @@
       <c r="M35" s="37"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="273"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="15"/>
       <c r="C36" s="69"/>
       <c r="D36" s="87"/>
@@ -13244,7 +13240,7 @@
       <c r="M36" s="37"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="273"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="15"/>
       <c r="C37" s="69"/>
       <c r="D37" s="87"/>
@@ -13259,7 +13255,7 @@
       <c r="M37" s="37"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="273"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="15"/>
       <c r="C38" s="69"/>
       <c r="D38" s="87"/>
@@ -13274,7 +13270,7 @@
       <c r="M38" s="37"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="273"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="15"/>
       <c r="C39" s="69"/>
       <c r="D39" s="87"/>
@@ -13289,7 +13285,7 @@
       <c r="M39" s="37"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="273"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="15"/>
       <c r="C40" s="69"/>
       <c r="D40" s="87"/>
@@ -13304,10 +13300,10 @@
       <c r="M40" s="37"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="274"/>
+      <c r="A41" s="186"/>
       <c r="B41" s="17"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -13319,10 +13315,10 @@
       <c r="M41" s="71"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="270" t="s">
+      <c r="A42" s="182" t="s">
         <v>586</v>
       </c>
-      <c r="B42" s="276" t="s">
+      <c r="B42" s="188" t="s">
         <v>568</v>
       </c>
       <c r="C42" s="69"/>
@@ -13338,8 +13334,8 @@
       <c r="M42" s="67"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="278"/>
-      <c r="B43" s="277"/>
+      <c r="A43" s="190"/>
+      <c r="B43" s="189"/>
       <c r="C43" s="69"/>
       <c r="D43" s="87"/>
       <c r="E43" s="69"/>
@@ -13353,7 +13349,7 @@
       <c r="M43" s="37"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="273"/>
+      <c r="A44" s="185"/>
       <c r="B44" s="15"/>
       <c r="C44" s="69"/>
       <c r="D44" s="87"/>
@@ -13368,7 +13364,7 @@
       <c r="M44" s="37"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="273"/>
+      <c r="A45" s="185"/>
       <c r="B45" s="15"/>
       <c r="C45" s="69"/>
       <c r="D45" s="87"/>
@@ -13383,7 +13379,7 @@
       <c r="M45" s="37"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="273"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="15"/>
       <c r="C46" s="69"/>
       <c r="D46" s="87"/>
@@ -13398,7 +13394,7 @@
       <c r="M46" s="37"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="273"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="15"/>
       <c r="C47" s="69"/>
       <c r="D47" s="87"/>
@@ -13413,7 +13409,7 @@
       <c r="M47" s="37"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="273"/>
+      <c r="A48" s="185"/>
       <c r="B48" s="15"/>
       <c r="C48" s="69"/>
       <c r="D48" s="87"/>
@@ -13428,7 +13424,7 @@
       <c r="M48" s="37"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" s="273"/>
+      <c r="A49" s="185"/>
       <c r="B49" s="15"/>
       <c r="C49" s="69"/>
       <c r="D49" s="87"/>
@@ -13443,10 +13439,10 @@
       <c r="M49" s="37"/>
     </row>
     <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="274"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -13458,10 +13454,10 @@
       <c r="M50" s="71"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="270" t="s">
+      <c r="A51" s="182" t="s">
         <v>587</v>
       </c>
-      <c r="B51" s="276" t="s">
+      <c r="B51" s="188" t="s">
         <v>569</v>
       </c>
       <c r="C51" s="69"/>
@@ -13477,8 +13473,8 @@
       <c r="M51" s="67"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="278"/>
-      <c r="B52" s="277"/>
+      <c r="A52" s="190"/>
+      <c r="B52" s="189"/>
       <c r="C52" s="69"/>
       <c r="D52" s="87"/>
       <c r="E52" s="69"/>
@@ -13492,7 +13488,7 @@
       <c r="M52" s="37"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="273"/>
+      <c r="A53" s="185"/>
       <c r="B53" s="15"/>
       <c r="C53" s="69"/>
       <c r="D53" s="87"/>
@@ -13507,7 +13503,7 @@
       <c r="M53" s="37"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" s="273"/>
+      <c r="A54" s="185"/>
       <c r="B54" s="15"/>
       <c r="C54" s="69"/>
       <c r="D54" s="87"/>
@@ -13522,7 +13518,7 @@
       <c r="M54" s="37"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A55" s="273"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="15"/>
       <c r="C55" s="69"/>
       <c r="D55" s="87"/>
@@ -13537,7 +13533,7 @@
       <c r="M55" s="37"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A56" s="273"/>
+      <c r="A56" s="185"/>
       <c r="B56" s="15"/>
       <c r="C56" s="69"/>
       <c r="D56" s="87"/>
@@ -13552,7 +13548,7 @@
       <c r="M56" s="37"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" s="273"/>
+      <c r="A57" s="185"/>
       <c r="B57" s="15"/>
       <c r="C57" s="69"/>
       <c r="D57" s="87"/>
@@ -13567,7 +13563,7 @@
       <c r="M57" s="37"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="273"/>
+      <c r="A58" s="185"/>
       <c r="B58" s="15"/>
       <c r="C58" s="69"/>
       <c r="D58" s="87"/>
@@ -13582,10 +13578,10 @@
       <c r="M58" s="37"/>
     </row>
     <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="274"/>
+      <c r="A59" s="186"/>
       <c r="B59" s="17"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
@@ -13597,10 +13593,10 @@
       <c r="M59" s="71"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="270">
+      <c r="A60" s="182">
         <v>7.21</v>
       </c>
-      <c r="B60" s="276" t="s">
+      <c r="B60" s="188" t="s">
         <v>575</v>
       </c>
       <c r="C60" s="69"/>
@@ -13616,8 +13612,8 @@
       <c r="M60" s="67"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="273"/>
-      <c r="B61" s="277"/>
+      <c r="A61" s="185"/>
+      <c r="B61" s="189"/>
       <c r="C61" s="69"/>
       <c r="D61" s="87"/>
       <c r="E61" s="69"/>
@@ -13631,7 +13627,7 @@
       <c r="M61" s="37"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A62" s="278"/>
+      <c r="A62" s="190"/>
       <c r="B62" s="15"/>
       <c r="C62" s="69"/>
       <c r="D62" s="87"/>
@@ -13646,7 +13642,7 @@
       <c r="M62" s="37"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A63" s="273"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="15"/>
       <c r="C63" s="69"/>
       <c r="D63" s="87"/>
@@ -13661,7 +13657,7 @@
       <c r="M63" s="37"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A64" s="273"/>
+      <c r="A64" s="185"/>
       <c r="B64" s="15"/>
       <c r="C64" s="69"/>
       <c r="D64" s="87"/>
@@ -13676,7 +13672,7 @@
       <c r="M64" s="37"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A65" s="273"/>
+      <c r="A65" s="185"/>
       <c r="B65" s="15"/>
       <c r="C65" s="69"/>
       <c r="D65" s="87"/>
@@ -13691,7 +13687,7 @@
       <c r="M65" s="37"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A66" s="273"/>
+      <c r="A66" s="185"/>
       <c r="B66" s="15"/>
       <c r="C66" s="69"/>
       <c r="D66" s="87"/>
@@ -13706,7 +13702,7 @@
       <c r="M66" s="37"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" s="273"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="15"/>
       <c r="C67" s="69"/>
       <c r="D67" s="87"/>
@@ -13721,10 +13717,10 @@
       <c r="M67" s="37"/>
     </row>
     <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="274"/>
+      <c r="A68" s="186"/>
       <c r="B68" s="17"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -13737,18 +13733,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="A5:M5"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="E11:M11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="A5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{DFD286F1-C21A-4D73-9C41-C9C69D815B5A}"/>

--- a/ifrs-sme-model.xlsx
+++ b/ifrs-sme-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D18EF-B99F-4E87-9671-2E7066B2444B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9E44F2-1CBA-4A40-8A65-7669520C14CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="692" activeTab="4" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="692" firstSheet="3" activeTab="5" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="7" r:id="rId1"/>
@@ -2308,7 +2308,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2614,6 +2614,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2632,15 +2659,6 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2650,22 +2668,49 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2674,10 +2719,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2689,67 +2752,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2758,15 +2767,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2785,10 +2785,19 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2809,20 +2818,26 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2840,27 +2855,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3811,7 +3805,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3822,119 +3816,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="191" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="205"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="193"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="194" t="s">
         <v>430</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="199"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="196"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="136" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="199"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="196"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>424</v>
       </c>
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="194" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="199"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="196"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
         <v>551</v>
       </c>
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="194" t="s">
         <v>554</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="199"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="196"/>
     </row>
     <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="136" t="s">
         <v>422</v>
       </c>
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="194" t="s">
         <v>431</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="199"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="196"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="136" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="194" t="s">
         <v>555</v>
       </c>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="199"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="196"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="206">
+      <c r="B8" s="197">
         <v>45291</v>
       </c>
-      <c r="C8" s="207"/>
-      <c r="D8" s="207"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="208"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="199"/>
     </row>
     <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="191">
+      <c r="B9" s="200">
         <v>45657</v>
       </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="193"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="202"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="151" t="s">
@@ -3980,125 +3974,120 @@
       <c r="A14" s="134" t="s">
         <v>410</v>
       </c>
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="200" t="s">
         <v>412</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="193"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="202"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A15" s="134"/>
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="200" t="s">
         <v>413</v>
       </c>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="193"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="202"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" s="134"/>
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="200" t="s">
         <v>414</v>
       </c>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="202"/>
     </row>
     <row r="17" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="135"/>
-      <c r="B17" s="194" t="s">
+      <c r="B17" s="203" t="s">
         <v>415</v>
       </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="196"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="205"/>
     </row>
     <row r="18" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="134" t="s">
         <v>411</v>
       </c>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="200" t="s">
         <v>416</v>
       </c>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="193"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="202"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" s="133" t="s">
         <v>417</v>
       </c>
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="206" t="s">
         <v>418</v>
       </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="202"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="208"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A20" s="134"/>
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="200" t="s">
         <v>419</v>
       </c>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="193"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="202"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A21" s="134"/>
-      <c r="B21" s="191" t="s">
+      <c r="B21" s="200" t="s">
         <v>389</v>
       </c>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="193"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="202"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="134"/>
-      <c r="B22" s="191" t="s">
+      <c r="B22" s="200" t="s">
         <v>420</v>
       </c>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="193"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="202"/>
     </row>
     <row r="23" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="135"/>
-      <c r="B23" s="194" t="s">
+      <c r="B23" s="203" t="s">
         <v>421</v>
       </c>
-      <c r="C23" s="195"/>
-      <c r="D23" s="195"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="196"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -4113,6 +4102,11 @@
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
@@ -4128,7 +4122,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4137,7 +4131,7 @@
     <col min="2" max="2" width="111.1796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.54296875" style="41" customWidth="1"/>
     <col min="8" max="19" width="8.7265625" style="2"/>
     <col min="20" max="20" width="7" style="2" customWidth="1"/>
@@ -4146,118 +4140,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="191" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="205"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="193"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="231" t="str">
+      <c r="B2" s="209" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="233"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="211"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="140" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="231" t="str">
+      <c r="B3" s="209" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="233"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="211"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="191">
+      <c r="B4" s="200">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="193"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="202"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="191">
+      <c r="B5" s="200">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="193"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="191" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="205"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="193"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="226" t="s">
+      <c r="B7" s="231" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="228"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
+      <c r="G7" s="233"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="234" t="s">
+      <c r="B8" s="212" t="s">
         <v>579</v>
       </c>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="236"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="214"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="225"/>
+      <c r="C10" s="230"/>
       <c r="D10" s="179" t="s">
         <v>73</v>
       </c>
@@ -4274,33 +4268,33 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="216" t="s">
+      <c r="B11" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="218"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="217"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="221" t="s">
+      <c r="B12" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="222"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="223"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="228"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="220"/>
+      <c r="C13" s="219"/>
       <c r="D13" s="7" t="s">
         <v>123</v>
       </c>
@@ -4318,10 +4312,10 @@
       <c r="A14" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="211" t="s">
+      <c r="B14" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="212"/>
+      <c r="C14" s="221"/>
       <c r="D14" s="8"/>
       <c r="E14" s="81"/>
       <c r="F14" s="87">
@@ -4333,10 +4327,10 @@
       <c r="A15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="211" t="s">
+      <c r="B15" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="212"/>
+      <c r="C15" s="221"/>
       <c r="D15" s="8"/>
       <c r="E15" s="81"/>
       <c r="F15" s="87"/>
@@ -4346,10 +4340,10 @@
       <c r="A16" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="211" t="s">
+      <c r="B16" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="212"/>
+      <c r="C16" s="221"/>
       <c r="D16" s="8"/>
       <c r="E16" s="81">
         <v>20</v>
@@ -4363,10 +4357,10 @@
       <c r="A17" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="212"/>
+      <c r="C17" s="221"/>
       <c r="D17" s="8"/>
       <c r="E17" s="81">
         <v>30</v>
@@ -4380,10 +4374,10 @@
       <c r="A18" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="211" t="s">
+      <c r="B18" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="212"/>
+      <c r="C18" s="221"/>
       <c r="D18" s="8"/>
       <c r="E18" s="81"/>
       <c r="F18" s="87"/>
@@ -4393,10 +4387,10 @@
       <c r="A19" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="212"/>
+      <c r="C19" s="221"/>
       <c r="D19" s="8"/>
       <c r="E19" s="81"/>
       <c r="F19" s="87"/>
@@ -4406,10 +4400,10 @@
       <c r="A20" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="211" t="s">
+      <c r="B20" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="212"/>
+      <c r="C20" s="221"/>
       <c r="D20" s="8"/>
       <c r="E20" s="81"/>
       <c r="F20" s="87"/>
@@ -4419,10 +4413,10 @@
       <c r="A21" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="211" t="s">
+      <c r="B21" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="212"/>
+      <c r="C21" s="221"/>
       <c r="D21" s="8"/>
       <c r="E21" s="81"/>
       <c r="F21" s="87"/>
@@ -4432,10 +4426,10 @@
       <c r="A22" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="211" t="s">
+      <c r="B22" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="212"/>
+      <c r="C22" s="221"/>
       <c r="D22" s="8" t="s">
         <v>124</v>
       </c>
@@ -4449,10 +4443,10 @@
       <c r="A23" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="211" t="s">
+      <c r="B23" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="212"/>
+      <c r="C23" s="221"/>
       <c r="D23" s="8" t="s">
         <v>125</v>
       </c>
@@ -4466,10 +4460,10 @@
       <c r="A24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="211" t="s">
+      <c r="B24" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="212"/>
+      <c r="C24" s="221"/>
       <c r="D24" s="8"/>
       <c r="E24" s="81"/>
       <c r="F24" s="87"/>
@@ -4479,10 +4473,10 @@
       <c r="A25" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="211" t="s">
+      <c r="B25" s="220" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="212"/>
+      <c r="C25" s="221"/>
       <c r="D25" s="8"/>
       <c r="E25" s="81"/>
       <c r="F25" s="87"/>
@@ -4492,10 +4486,10 @@
       <c r="A26" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="211" t="s">
+      <c r="B26" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="212"/>
+      <c r="C26" s="221"/>
       <c r="D26" s="8"/>
       <c r="E26" s="81"/>
       <c r="F26" s="87"/>
@@ -4505,20 +4499,20 @@
       <c r="A27" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="209" t="s">
+      <c r="B27" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="210"/>
+      <c r="C27" s="225"/>
       <c r="D27" s="9"/>
       <c r="E27" s="88"/>
       <c r="F27" s="87"/>
       <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="229" t="s">
+      <c r="B28" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="230"/>
+      <c r="C28" s="223"/>
       <c r="E28" s="84">
         <f>SUM(E13:E27)</f>
         <v>104</v>
@@ -4546,23 +4540,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="217"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="217"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="219" t="s">
+      <c r="B32" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="220"/>
+      <c r="C32" s="219"/>
       <c r="D32" s="7" t="s">
         <v>126</v>
       </c>
@@ -4580,10 +4574,10 @@
       <c r="A33" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="211" t="s">
+      <c r="B33" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="212"/>
+      <c r="C33" s="221"/>
       <c r="D33" s="8" t="s">
         <v>127</v>
       </c>
@@ -4597,10 +4591,10 @@
       <c r="A34" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="211" t="s">
+      <c r="B34" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="212"/>
+      <c r="C34" s="221"/>
       <c r="D34" s="8"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
@@ -4610,10 +4604,10 @@
       <c r="A35" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="211" t="s">
+      <c r="B35" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="212"/>
+      <c r="C35" s="221"/>
       <c r="D35" s="8"/>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
@@ -4623,10 +4617,10 @@
       <c r="A36" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="211" t="s">
+      <c r="B36" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="212"/>
+      <c r="C36" s="221"/>
       <c r="D36" s="8"/>
       <c r="E36" s="81"/>
       <c r="F36" s="81"/>
@@ -4636,10 +4630,10 @@
       <c r="A37" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="211" t="s">
+      <c r="B37" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="212"/>
+      <c r="C37" s="221"/>
       <c r="D37" s="8"/>
       <c r="E37" s="81"/>
       <c r="F37" s="81"/>
@@ -4649,10 +4643,10 @@
       <c r="A38" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="211" t="s">
+      <c r="B38" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="212"/>
+      <c r="C38" s="221"/>
       <c r="D38" s="8"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
@@ -4662,10 +4656,10 @@
       <c r="A39" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="211" t="s">
+      <c r="B39" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="212"/>
+      <c r="C39" s="221"/>
       <c r="D39" s="8"/>
       <c r="E39" s="81">
         <v>10</v>
@@ -4679,20 +4673,20 @@
       <c r="A40" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="209" t="s">
+      <c r="B40" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="210"/>
+      <c r="C40" s="225"/>
       <c r="D40" s="9"/>
       <c r="E40" s="88"/>
       <c r="F40" s="88"/>
       <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="216" t="s">
+      <c r="B41" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="218"/>
+      <c r="C41" s="217"/>
       <c r="E41" s="89">
         <f>SUM(E32:E40)</f>
         <v>40</v>
@@ -4703,10 +4697,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="216" t="s">
+      <c r="B42" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="218"/>
+      <c r="C42" s="217"/>
       <c r="E42" s="89">
         <f>SUM(E28,E41)</f>
         <v>144</v>
@@ -4737,33 +4731,33 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="216" t="s">
+      <c r="B45" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="217"/>
-      <c r="D45" s="217"/>
-      <c r="E45" s="217"/>
-      <c r="F45" s="217"/>
-      <c r="G45" s="218"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="217"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="216" t="s">
+      <c r="B46" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="217"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="217"/>
-      <c r="F46" s="217"/>
-      <c r="G46" s="218"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="216"/>
+      <c r="E46" s="216"/>
+      <c r="F46" s="216"/>
+      <c r="G46" s="217"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="219" t="s">
+      <c r="B47" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="220"/>
+      <c r="C47" s="219"/>
       <c r="D47" s="7" t="s">
         <v>128</v>
       </c>
@@ -4777,10 +4771,10 @@
       <c r="A48" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="211" t="s">
+      <c r="B48" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="212"/>
+      <c r="C48" s="221"/>
       <c r="D48" s="8" t="s">
         <v>129</v>
       </c>
@@ -4794,10 +4788,10 @@
       <c r="A49" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="211" t="s">
+      <c r="B49" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="212"/>
+      <c r="C49" s="221"/>
       <c r="D49" s="8" t="s">
         <v>130</v>
       </c>
@@ -4811,10 +4805,10 @@
       <c r="A50" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="211" t="s">
+      <c r="B50" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="212"/>
+      <c r="C50" s="221"/>
       <c r="D50" s="8"/>
       <c r="E50" s="81"/>
       <c r="F50" s="87"/>
@@ -4824,10 +4818,10 @@
       <c r="A51" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="211" t="s">
+      <c r="B51" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="212"/>
+      <c r="C51" s="221"/>
       <c r="D51" s="8" t="s">
         <v>131</v>
       </c>
@@ -4841,10 +4835,10 @@
       <c r="A52" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="211" t="s">
+      <c r="B52" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="212"/>
+      <c r="C52" s="221"/>
       <c r="D52" s="9" t="s">
         <v>132</v>
       </c>
@@ -4860,10 +4854,10 @@
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="216" t="s">
+      <c r="B53" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="218"/>
+      <c r="C53" s="217"/>
       <c r="D53" s="90"/>
       <c r="E53" s="92">
         <f>SUM(E47:E52)</f>
@@ -4878,19 +4872,19 @@
       <c r="A54" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="209" t="s">
+      <c r="B54" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="210"/>
+      <c r="C54" s="225"/>
       <c r="D54" s="91"/>
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="216" t="s">
+      <c r="B55" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="218"/>
+      <c r="C55" s="217"/>
       <c r="E55" s="84">
         <f>SUM(E53,E54)</f>
         <v>15</v>
@@ -4918,33 +4912,33 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="216" t="s">
+      <c r="B58" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="217"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="217"/>
-      <c r="G58" s="218"/>
+      <c r="C58" s="216"/>
+      <c r="D58" s="216"/>
+      <c r="E58" s="216"/>
+      <c r="F58" s="216"/>
+      <c r="G58" s="217"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="221" t="s">
+      <c r="B59" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="222"/>
-      <c r="D59" s="222"/>
-      <c r="E59" s="222"/>
-      <c r="F59" s="222"/>
-      <c r="G59" s="222"/>
+      <c r="C59" s="227"/>
+      <c r="D59" s="227"/>
+      <c r="E59" s="227"/>
+      <c r="F59" s="227"/>
+      <c r="G59" s="227"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="B60" s="219" t="s">
+      <c r="B60" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="220"/>
+      <c r="C60" s="219"/>
       <c r="D60" s="7"/>
       <c r="E60" s="85"/>
       <c r="F60" s="86"/>
@@ -4954,10 +4948,10 @@
       <c r="A61" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="B61" s="211" t="s">
+      <c r="B61" s="220" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="212"/>
+      <c r="C61" s="221"/>
       <c r="D61" s="8" t="s">
         <v>313</v>
       </c>
@@ -4975,10 +4969,10 @@
       <c r="A62" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="B62" s="209" t="s">
+      <c r="B62" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="210"/>
+      <c r="C62" s="225"/>
       <c r="D62" s="9"/>
       <c r="E62" s="88">
         <v>2</v>
@@ -5007,10 +5001,10 @@
       <c r="A64" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="B64" s="219" t="s">
+      <c r="B64" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="220"/>
+      <c r="C64" s="219"/>
       <c r="D64" s="7" t="s">
         <v>314</v>
       </c>
@@ -5024,10 +5018,10 @@
       <c r="A65" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="B65" s="211" t="s">
+      <c r="B65" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="212"/>
+      <c r="C65" s="221"/>
       <c r="D65" s="8"/>
       <c r="E65" s="81">
         <v>4</v>
@@ -5041,10 +5035,10 @@
       <c r="A66" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="B66" s="211" t="s">
+      <c r="B66" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="212"/>
+      <c r="C66" s="221"/>
       <c r="D66" s="8"/>
       <c r="E66" s="81"/>
       <c r="F66" s="87"/>
@@ -5054,10 +5048,10 @@
       <c r="A67" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="B67" s="211" t="s">
+      <c r="B67" s="220" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="212"/>
+      <c r="C67" s="221"/>
       <c r="D67" s="8"/>
       <c r="E67" s="81"/>
       <c r="F67" s="87"/>
@@ -5067,10 +5061,10 @@
       <c r="A68" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="B68" s="211" t="s">
+      <c r="B68" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="212"/>
+      <c r="C68" s="221"/>
       <c r="D68" s="8"/>
       <c r="E68" s="81"/>
       <c r="F68" s="87"/>
@@ -5080,20 +5074,20 @@
       <c r="A69" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="B69" s="209" t="s">
+      <c r="B69" s="224" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="210"/>
+      <c r="C69" s="225"/>
       <c r="D69" s="9"/>
       <c r="E69" s="88"/>
       <c r="F69" s="94"/>
       <c r="G69" s="46"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="216" t="s">
+      <c r="B70" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="218"/>
+      <c r="C70" s="217"/>
       <c r="E70" s="84">
         <f>SUM(E63:E69)</f>
         <v>9</v>
@@ -5122,23 +5116,23 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="216" t="s">
+      <c r="B73" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="217"/>
-      <c r="D73" s="217"/>
-      <c r="E73" s="217"/>
-      <c r="F73" s="217"/>
-      <c r="G73" s="217"/>
+      <c r="C73" s="216"/>
+      <c r="D73" s="216"/>
+      <c r="E73" s="216"/>
+      <c r="F73" s="216"/>
+      <c r="G73" s="216"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="B74" s="219" t="s">
+      <c r="B74" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="220"/>
+      <c r="C74" s="219"/>
       <c r="D74" s="7"/>
       <c r="E74" s="85"/>
       <c r="F74" s="87"/>
@@ -5148,10 +5142,10 @@
       <c r="A75" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="B75" s="211" t="s">
+      <c r="B75" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="212"/>
+      <c r="C75" s="221"/>
       <c r="D75" s="8" t="s">
         <v>313</v>
       </c>
@@ -5169,20 +5163,20 @@
       <c r="A76" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="B76" s="209" t="s">
+      <c r="B76" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="210"/>
+      <c r="C76" s="225"/>
       <c r="D76" s="9"/>
       <c r="E76" s="88"/>
       <c r="F76" s="87"/>
       <c r="G76" s="46"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="216" t="s">
+      <c r="B77" s="215" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="218"/>
+      <c r="C77" s="217"/>
       <c r="D77" s="95"/>
       <c r="E77" s="82">
         <f>SUM(E74:E76)</f>
@@ -5197,10 +5191,10 @@
       <c r="A78" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="B78" s="219" t="s">
+      <c r="B78" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="220"/>
+      <c r="C78" s="219"/>
       <c r="D78" s="7" t="s">
         <v>314</v>
       </c>
@@ -5218,10 +5212,10 @@
       <c r="A79" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="B79" s="211" t="s">
+      <c r="B79" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="212"/>
+      <c r="C79" s="221"/>
       <c r="D79" s="8"/>
       <c r="E79" s="81"/>
       <c r="F79" s="87"/>
@@ -5231,10 +5225,10 @@
       <c r="A80" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="B80" s="211" t="s">
+      <c r="B80" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="212"/>
+      <c r="C80" s="221"/>
       <c r="D80" s="8"/>
       <c r="E80" s="81"/>
       <c r="F80" s="87"/>
@@ -5244,10 +5238,10 @@
       <c r="A81" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="B81" s="211" t="s">
+      <c r="B81" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="212"/>
+      <c r="C81" s="221"/>
       <c r="D81" s="8"/>
       <c r="E81" s="81">
         <v>2</v>
@@ -5261,10 +5255,10 @@
       <c r="A82" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="B82" s="211" t="s">
+      <c r="B82" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="212"/>
+      <c r="C82" s="221"/>
       <c r="D82" s="8"/>
       <c r="E82" s="81">
         <v>2</v>
@@ -5278,21 +5272,21 @@
       <c r="A83" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="B83" s="209" t="s">
+      <c r="B83" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="210"/>
+      <c r="C83" s="225"/>
       <c r="D83" s="9"/>
       <c r="E83" s="88"/>
       <c r="F83" s="94"/>
       <c r="G83" s="46"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="216" t="s">
+      <c r="B84" s="215" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="217"/>
-      <c r="D84" s="218"/>
+      <c r="C84" s="216"/>
+      <c r="D84" s="217"/>
       <c r="E84" s="84">
         <f>SUM(E77:E83)</f>
         <v>16</v>
@@ -5306,11 +5300,11 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="216" t="s">
+      <c r="B86" s="215" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="217"/>
-      <c r="D86" s="218"/>
+      <c r="C86" s="216"/>
+      <c r="D86" s="217"/>
       <c r="E86" s="84">
         <f>SUM(E70,E84)</f>
         <v>25</v>
@@ -5322,11 +5316,11 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="216" t="s">
+      <c r="B88" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="217"/>
-      <c r="D88" s="218"/>
+      <c r="C88" s="216"/>
+      <c r="D88" s="217"/>
       <c r="E88" s="84">
         <f>SUM(E55,E86)</f>
         <v>40</v>
@@ -5344,12 +5338,12 @@
       <c r="A91" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="213" t="str">
+      <c r="B91" s="234" t="str">
         <f>IF(AND(E91=0,F91=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C91" s="214"/>
-      <c r="D91" s="215"/>
+      <c r="C91" s="235"/>
+      <c r="D91" s="236"/>
       <c r="E91" s="84">
         <f>E88-E42</f>
         <v>-104</v>
@@ -5368,13 +5362,60 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B14:C14"/>
@@ -5391,60 +5432,13 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B91">
@@ -5480,7 +5474,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5498,14 +5492,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="240" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="238"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="241"/>
       <c r="G1" s="126"/>
       <c r="H1" s="126"/>
       <c r="I1" s="126"/>
@@ -5514,53 +5508,53 @@
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="197" t="str">
+      <c r="B2" s="194" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="196"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="140" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="197" t="str">
+      <c r="B3" s="194" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="199"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="196"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="206">
+      <c r="B4" s="197">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="208"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="199"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="206">
+      <c r="B5" s="197">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="208"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="199"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="242" t="s">
@@ -5579,35 +5573,35 @@
       <c r="A7" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="241"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="239"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="129" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="237" t="s">
         <v>580</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="241"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="239"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="224" t="s">
+      <c r="B12" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="225"/>
+      <c r="C12" s="230"/>
       <c r="D12" s="179" t="s">
         <v>73</v>
       </c>
@@ -5624,13 +5618,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
       <c r="G13" s="182"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -5813,10 +5807,10 @@
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="141"/>
-      <c r="B24" s="217" t="s">
+      <c r="B24" s="216" t="s">
         <v>290</v>
       </c>
-      <c r="C24" s="218"/>
+      <c r="C24" s="217"/>
       <c r="D24" s="143"/>
       <c r="E24" s="82">
         <f>SUM(E14:E23)</f>
@@ -5881,10 +5875,10 @@
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="141"/>
-      <c r="B28" s="217" t="s">
+      <c r="B28" s="216" t="s">
         <v>289</v>
       </c>
-      <c r="C28" s="218"/>
+      <c r="C28" s="217"/>
       <c r="D28" s="143"/>
       <c r="E28" s="82">
         <f>SUM(E24:E27)</f>
@@ -5914,10 +5908,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="141"/>
-      <c r="B30" s="217" t="s">
+      <c r="B30" s="216" t="s">
         <v>408</v>
       </c>
-      <c r="C30" s="218"/>
+      <c r="C30" s="217"/>
       <c r="D30" s="143"/>
       <c r="E30" s="82">
         <f>SUM(E28:E29)</f>
@@ -5937,6 +5931,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B12:C12"/>
@@ -5944,12 +5944,6 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9A9E6224-643C-4AD9-9436-A2DC070A0C83}"/>
@@ -5964,12 +5958,13 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="111.08984375" customWidth="1"/>
     <col min="4" max="5" width="10.7265625" customWidth="1"/>
   </cols>
@@ -5989,79 +5984,79 @@
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="197" t="str">
+      <c r="B2" s="194" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="140" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="197" t="str">
+      <c r="B3" s="194" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="199"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="206">
+      <c r="B4" s="197">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="206">
+      <c r="B5" s="197">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="208"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="199"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="191" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="205"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="193"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="241"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="239"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="237" t="s">
         <v>581</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="241"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="239"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6078,10 +6073,10 @@
       <c r="A11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="229" t="s">
         <v>389</v>
       </c>
-      <c r="C11" s="249"/>
+      <c r="C11" s="230"/>
       <c r="D11" s="113" t="s">
         <v>134</v>
       </c>
@@ -6308,117 +6303,117 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="40.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="129.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="191" t="s">
         <v>407</v>
       </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="205"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="193"/>
       <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="197" t="str">
+      <c r="B2" s="194" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="140" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="197" t="str">
+      <c r="B3" s="194" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="199"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
     </row>
     <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="206">
+      <c r="B4" s="197">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199"/>
     </row>
     <row r="5" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="206">
+      <c r="B5" s="197">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="208"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="199"/>
     </row>
     <row r="6" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="191" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="205"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="193"/>
       <c r="F6" s="126"/>
     </row>
     <row r="7" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="237" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="241"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="239"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="130" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="237" t="s">
         <v>582</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="241"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="239"/>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="250" t="s">
+      <c r="A10" s="253" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="252" t="s">
+      <c r="B10" s="255" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="253"/>
-      <c r="D10" s="259" t="s">
+      <c r="C10" s="256"/>
+      <c r="D10" s="248" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="62">
@@ -6427,10 +6422,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="251"/>
-      <c r="B11" s="254"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="260"/>
+      <c r="A11" s="254"/>
+      <c r="B11" s="257"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="249"/>
       <c r="E11" s="62" t="s">
         <v>134</v>
       </c>
@@ -6439,21 +6434,21 @@
       <c r="A12" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="B12" s="256" t="s">
+      <c r="B12" s="250" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="258"/>
-      <c r="D12" s="257"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="252"/>
       <c r="E12" s="96">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="256" t="s">
+      <c r="B13" s="250" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="258"/>
-      <c r="D13" s="257"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="252"/>
       <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6743,10 +6738,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="256" t="s">
+      <c r="B36" s="250" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="258"/>
+      <c r="C36" s="251"/>
       <c r="D36" s="164"/>
       <c r="E36" s="100">
         <f>SUM(E14:E35)</f>
@@ -6840,22 +6835,22 @@
       <c r="F42" s="61"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="256" t="s">
+      <c r="B43" s="250" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="258"/>
-      <c r="D43" s="257"/>
+      <c r="C43" s="251"/>
+      <c r="D43" s="252"/>
       <c r="E43" s="166">
         <f>E12+E36+SUM(E37:E42)</f>
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="256" t="s">
+      <c r="B44" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="258"/>
-      <c r="D44" s="257"/>
+      <c r="C44" s="251"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="49"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7104,22 +7099,22 @@
       <c r="E65" s="99"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="256" t="s">
+      <c r="B66" s="250" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="258"/>
-      <c r="D66" s="257"/>
+      <c r="C66" s="251"/>
+      <c r="D66" s="252"/>
       <c r="E66" s="165">
         <f>SUM(E45:E65)</f>
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="256" t="s">
+      <c r="B67" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="258"/>
-      <c r="D67" s="257"/>
+      <c r="C67" s="251"/>
+      <c r="D67" s="252"/>
       <c r="E67" s="49"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -7261,22 +7256,22 @@
       <c r="E78" s="99"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="256" t="s">
+      <c r="B79" s="250" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="258"/>
-      <c r="D79" s="257"/>
+      <c r="C79" s="251"/>
+      <c r="D79" s="252"/>
       <c r="E79" s="101">
         <f>SUM(E68:E78)</f>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="256" t="s">
+      <c r="B80" s="250" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="258"/>
-      <c r="D80" s="257"/>
+      <c r="C80" s="251"/>
+      <c r="D80" s="252"/>
       <c r="E80" s="84">
         <f>SUM(E43,E66,E79)</f>
         <v>118</v>
@@ -7294,10 +7289,10 @@
       <c r="E81" s="99"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="256" t="s">
+      <c r="B82" s="250" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="257"/>
+      <c r="C82" s="252"/>
       <c r="D82" s="171">
         <v>7.2</v>
       </c>
@@ -7307,33 +7302,33 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="256" t="s">
+      <c r="B83" s="250" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="258"/>
-      <c r="D83" s="257"/>
+      <c r="C83" s="251"/>
+      <c r="D83" s="252"/>
       <c r="E83" s="84">
         <f>'Statement of financial position'!E39</f>
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="256" t="s">
+      <c r="B84" s="250" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="258"/>
-      <c r="D84" s="257"/>
+      <c r="C84" s="251"/>
+      <c r="D84" s="252"/>
       <c r="E84" s="84">
         <f>'Statement of financial position'!F39</f>
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="256" t="s">
+      <c r="B85" s="250" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="258"/>
-      <c r="D85" s="257"/>
+      <c r="C85" s="251"/>
+      <c r="D85" s="252"/>
       <c r="E85" s="84">
         <f>E84-E83</f>
         <v>5</v>
@@ -7348,17 +7343,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B82:C82"/>
@@ -7372,6 +7356,17 @@
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{5A53CF31-79B9-4E1F-A6DA-D8AE91352090}"/>
@@ -7389,8 +7384,8 @@
   </sheetPr>
   <dimension ref="A1:M249"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7407,41 +7402,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="191" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="205"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="193"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="270" t="str">
+      <c r="B2" s="263" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="272"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="265"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="140" t="s">
@@ -7451,37 +7446,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
-      <c r="M3" s="233"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="191">
+      <c r="B4" s="200">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="192"/>
-      <c r="M4" s="193"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="202"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="136" t="s">
@@ -7491,72 +7486,72 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="193"/>
-      <c r="M5" s="193"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="202"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="191" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="205"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="193"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="202"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="208"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="194" t="s">
+      <c r="B8" s="203" t="s">
         <v>583</v>
       </c>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="196"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="205"/>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -7564,21 +7559,21 @@
       <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="229" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="273"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="273"/>
-      <c r="K10" s="273"/>
-      <c r="L10" s="273"/>
-      <c r="M10" s="225"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="259"/>
+      <c r="K10" s="259"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="230"/>
     </row>
     <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="137" t="s">
@@ -7593,23 +7588,23 @@
       <c r="D11" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="267" t="s">
+      <c r="E11" s="260" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="268"/>
-      <c r="G11" s="268"/>
-      <c r="H11" s="268"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="268"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="269"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="261"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="261"/>
+      <c r="M11" s="262"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="261" t="s">
+      <c r="A12" s="266" t="s">
         <v>427</v>
       </c>
-      <c r="B12" s="262"/>
+      <c r="B12" s="267"/>
       <c r="C12" s="65"/>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -7920,10 +7915,10 @@
       <c r="B32" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="221" t="s">
+      <c r="C32" s="226" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="223"/>
+      <c r="D32" s="228"/>
       <c r="E32" s="69" t="s">
         <v>400</v>
       </c>
@@ -8020,10 +8015,10 @@
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
-      <c r="C37" s="216" t="s">
+      <c r="C37" s="215" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="218"/>
+      <c r="D37" s="217"/>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
       <c r="G37" s="69"/>
@@ -8313,10 +8308,10 @@
       <c r="B52" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="216" t="s">
+      <c r="C52" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="218"/>
+      <c r="D52" s="217"/>
       <c r="E52" s="68"/>
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
@@ -8406,10 +8401,10 @@
     <row r="57" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
-      <c r="C57" s="216" t="s">
+      <c r="C57" s="215" t="s">
         <v>188</v>
       </c>
-      <c r="D57" s="218"/>
+      <c r="D57" s="217"/>
       <c r="E57" s="68"/>
       <c r="F57" s="69"/>
       <c r="G57" s="69"/>
@@ -8423,10 +8418,10 @@
     <row r="58" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
-      <c r="C58" s="216" t="s">
+      <c r="C58" s="215" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="218"/>
+      <c r="D58" s="217"/>
       <c r="E58" s="68"/>
       <c r="F58" s="69"/>
       <c r="G58" s="69"/>
@@ -8656,10 +8651,10 @@
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="216" t="s">
+      <c r="C70" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="217"/>
+      <c r="D70" s="216"/>
       <c r="E70" s="68"/>
       <c r="F70" s="69"/>
       <c r="G70" s="69"/>
@@ -8959,21 +8954,21 @@
       <c r="M85" s="71"/>
     </row>
     <row r="86" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="263" t="s">
+      <c r="A86" s="268" t="s">
         <v>294</v>
       </c>
-      <c r="B86" s="264"/>
-      <c r="C86" s="264"/>
-      <c r="D86" s="264"/>
-      <c r="E86" s="265"/>
-      <c r="F86" s="265"/>
-      <c r="G86" s="265"/>
-      <c r="H86" s="265"/>
-      <c r="I86" s="265"/>
-      <c r="J86" s="265"/>
-      <c r="K86" s="265"/>
-      <c r="L86" s="265"/>
-      <c r="M86" s="266"/>
+      <c r="B86" s="269"/>
+      <c r="C86" s="269"/>
+      <c r="D86" s="269"/>
+      <c r="E86" s="270"/>
+      <c r="F86" s="270"/>
+      <c r="G86" s="270"/>
+      <c r="H86" s="270"/>
+      <c r="I86" s="270"/>
+      <c r="J86" s="270"/>
+      <c r="K86" s="270"/>
+      <c r="L86" s="270"/>
+      <c r="M86" s="271"/>
     </row>
     <row r="87" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="60" t="s">
@@ -8988,17 +8983,17 @@
       <c r="D87" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E87" s="267" t="s">
+      <c r="E87" s="260" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="268"/>
-      <c r="G87" s="268"/>
-      <c r="H87" s="268"/>
-      <c r="I87" s="268"/>
-      <c r="J87" s="268"/>
-      <c r="K87" s="268"/>
-      <c r="L87" s="268"/>
-      <c r="M87" s="269"/>
+      <c r="F87" s="261"/>
+      <c r="G87" s="261"/>
+      <c r="H87" s="261"/>
+      <c r="I87" s="261"/>
+      <c r="J87" s="261"/>
+      <c r="K87" s="261"/>
+      <c r="L87" s="261"/>
+      <c r="M87" s="262"/>
     </row>
     <row r="88" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56" t="s">
@@ -9024,10 +9019,10 @@
     <row r="89" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="19"/>
       <c r="B89" s="29"/>
-      <c r="C89" s="216" t="s">
+      <c r="C89" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="D89" s="218"/>
+      <c r="D89" s="217"/>
       <c r="E89" s="75"/>
       <c r="F89" s="76"/>
       <c r="G89" s="76"/>
@@ -9349,10 +9344,10 @@
     <row r="106" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
-      <c r="C106" s="217" t="s">
+      <c r="C106" s="216" t="s">
         <v>205</v>
       </c>
-      <c r="D106" s="218"/>
+      <c r="D106" s="217"/>
       <c r="E106" s="68"/>
       <c r="F106" s="69"/>
       <c r="G106" s="69"/>
@@ -9657,10 +9652,10 @@
       <c r="B122" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C122" s="216" t="s">
+      <c r="C122" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="D122" s="218"/>
+      <c r="D122" s="217"/>
       <c r="E122" s="65"/>
       <c r="F122" s="66"/>
       <c r="G122" s="66"/>
@@ -9750,10 +9745,10 @@
     <row r="127" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
-      <c r="C127" s="216" t="s">
+      <c r="C127" s="215" t="s">
         <v>227</v>
       </c>
-      <c r="D127" s="218"/>
+      <c r="D127" s="217"/>
       <c r="E127" s="68"/>
       <c r="F127" s="69"/>
       <c r="G127" s="69"/>
@@ -9767,10 +9762,10 @@
     <row r="128" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
-      <c r="C128" s="216" t="s">
+      <c r="C128" s="215" t="s">
         <v>228</v>
       </c>
-      <c r="D128" s="218"/>
+      <c r="D128" s="217"/>
       <c r="E128" s="68"/>
       <c r="F128" s="69"/>
       <c r="G128" s="69"/>
@@ -10115,10 +10110,10 @@
       <c r="B146" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C146" s="216" t="s">
+      <c r="C146" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="D146" s="218"/>
+      <c r="D146" s="217"/>
       <c r="E146" s="65"/>
       <c r="F146" s="66"/>
       <c r="G146" s="66"/>
@@ -10208,10 +10203,10 @@
     <row r="151" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
-      <c r="C151" s="216" t="s">
+      <c r="C151" s="215" t="s">
         <v>249</v>
       </c>
-      <c r="D151" s="218"/>
+      <c r="D151" s="217"/>
       <c r="E151" s="68"/>
       <c r="F151" s="69"/>
       <c r="G151" s="69"/>
@@ -10225,10 +10220,10 @@
     <row r="152" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
-      <c r="C152" s="216" t="s">
+      <c r="C152" s="215" t="s">
         <v>250</v>
       </c>
-      <c r="D152" s="218"/>
+      <c r="D152" s="217"/>
       <c r="E152" s="68"/>
       <c r="F152" s="69"/>
       <c r="G152" s="69"/>
@@ -10242,10 +10237,10 @@
     <row r="153" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
-      <c r="C153" s="216" t="s">
+      <c r="C153" s="215" t="s">
         <v>251</v>
       </c>
-      <c r="D153" s="218"/>
+      <c r="D153" s="217"/>
       <c r="E153" s="68"/>
       <c r="F153" s="69"/>
       <c r="G153" s="69"/>
@@ -10552,10 +10547,10 @@
       <c r="B169" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="216" t="s">
+      <c r="C169" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="D169" s="218"/>
+      <c r="D169" s="217"/>
       <c r="E169" s="68"/>
       <c r="F169" s="69"/>
       <c r="G169" s="69"/>
@@ -10876,10 +10871,10 @@
       <c r="B187" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C187" s="216" t="s">
+      <c r="C187" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="D187" s="218"/>
+      <c r="D187" s="217"/>
       <c r="E187" s="68"/>
       <c r="F187" s="69"/>
       <c r="G187" s="69"/>
@@ -11151,10 +11146,10 @@
       <c r="B202" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C202" s="216" t="s">
+      <c r="C202" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="D202" s="218"/>
+      <c r="D202" s="217"/>
       <c r="E202" s="65"/>
       <c r="F202" s="66"/>
       <c r="G202" s="66"/>
@@ -11230,10 +11225,10 @@
       <c r="B206" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C206" s="216" t="s">
+      <c r="C206" s="215" t="s">
         <v>258</v>
       </c>
-      <c r="D206" s="218"/>
+      <c r="D206" s="217"/>
       <c r="E206" s="65"/>
       <c r="F206" s="66"/>
       <c r="G206" s="66"/>
@@ -11872,10 +11867,10 @@
       <c r="B245" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C245" s="216" t="s">
+      <c r="C245" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="D245" s="217"/>
+      <c r="D245" s="216"/>
       <c r="E245" s="50"/>
       <c r="F245" s="52"/>
       <c r="G245" s="52"/>
@@ -11965,6 +11960,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A86:M86"/>
+    <mergeCell ref="E87:M87"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="B7:M7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="C202:D202"/>
@@ -11981,23 +11993,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="B8:M8"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A86:M86"/>
-    <mergeCell ref="E87:M87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{CAFC6D68-6070-4D51-BEF1-3FF68EC64F87}"/>
@@ -12015,8 +12010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB94D964-28C5-4002-956C-C8A9A1B2D354}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12032,21 +12027,21 @@
       <c r="A1" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="270" t="str">
+      <c r="B1" s="263" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="271"/>
-      <c r="M1" s="272"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="265"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="140" t="s">
@@ -12056,37 +12051,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="191">
+      <c r="B3" s="200">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="193"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="202"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
@@ -12096,90 +12091,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
     </row>
     <row r="5" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="191" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="204"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="205"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="193"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="201"/>
-      <c r="K6" s="201"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="202"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="208"/>
     </row>
     <row r="7" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="203" t="s">
         <v>584</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="196"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="205"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="229" t="s">
         <v>518</v>
       </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="273"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="273"/>
-      <c r="K10" s="273"/>
-      <c r="L10" s="273"/>
-      <c r="M10" s="225"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="259"/>
+      <c r="K10" s="259"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="230"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="60" t="s">
@@ -12194,17 +12189,17 @@
       <c r="D11" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="268" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="264"/>
-      <c r="G11" s="264"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="264"/>
-      <c r="J11" s="264"/>
-      <c r="K11" s="264"/>
-      <c r="L11" s="264"/>
-      <c r="M11" s="274"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="269"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="269"/>
+      <c r="M11" s="272"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="55" t="s">
@@ -12213,10 +12208,10 @@
       <c r="B12" s="55" t="s">
         <v>531</v>
       </c>
-      <c r="C12" s="275" t="s">
+      <c r="C12" s="273" t="s">
         <v>532</v>
       </c>
-      <c r="D12" s="276"/>
+      <c r="D12" s="274"/>
       <c r="E12" s="65"/>
       <c r="F12" s="66"/>
       <c r="G12" s="66"/>
@@ -12310,7 +12305,9 @@
       <c r="C17" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="81">
+        <v>1</v>
+      </c>
       <c r="E17" s="68"/>
       <c r="F17" s="69"/>
       <c r="G17" s="69"/>
@@ -12385,8 +12382,7 @@
         <v>540</v>
       </c>
       <c r="D21" s="88">
-        <f>SUM(D18:D20)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="69"/>
@@ -12406,7 +12402,7 @@
       </c>
       <c r="D22" s="149">
         <f>SUM(D13:D21)</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E22" s="68"/>
       <c r="F22" s="69"/>
@@ -12618,8 +12614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B93A2ED-056F-4720-99B4-8FAF3132C851}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12635,21 +12631,21 @@
       <c r="A1" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="270" t="str">
+      <c r="B1" s="263" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="271"/>
-      <c r="M1" s="272"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="265"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="140" t="s">
@@ -12659,37 +12655,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="191">
+      <c r="B3" s="200">
         <f>'General information'!B8</f>
         <v>45291</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="193"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="202"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="136" t="s">
@@ -12699,90 +12695,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
     </row>
     <row r="5" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="191" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="204"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="205"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="193"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="201"/>
-      <c r="K6" s="201"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="202"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="208"/>
     </row>
     <row r="7" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="203" t="s">
         <v>588</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="196"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="205"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="229" t="s">
         <v>561</v>
       </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="273"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="273"/>
-      <c r="K10" s="273"/>
-      <c r="L10" s="273"/>
-      <c r="M10" s="225"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="259"/>
+      <c r="K10" s="259"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="230"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="137" t="s">
@@ -12797,17 +12793,17 @@
       <c r="D11" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="268" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="264"/>
-      <c r="G11" s="264"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="264"/>
-      <c r="J11" s="264"/>
-      <c r="K11" s="264"/>
-      <c r="L11" s="264"/>
-      <c r="M11" s="274"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="269"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="269"/>
+      <c r="M11" s="272"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="182">
@@ -12816,10 +12812,10 @@
       <c r="B12" s="174" t="s">
         <v>565</v>
       </c>
-      <c r="C12" s="275" t="s">
+      <c r="C12" s="273" t="s">
         <v>565</v>
       </c>
-      <c r="D12" s="276"/>
+      <c r="D12" s="274"/>
       <c r="E12" s="65"/>
       <c r="F12" s="66"/>
       <c r="G12" s="66"/>
@@ -12912,11 +12908,11 @@
       <c r="A17" s="187">
         <v>7.2</v>
       </c>
-      <c r="B17" s="217" t="s">
+      <c r="B17" s="216" t="s">
         <v>570</v>
       </c>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
       <c r="E17" s="65"/>
       <c r="F17" s="66"/>
       <c r="G17" s="66"/>
@@ -12971,7 +12967,9 @@
       <c r="C20" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="D20" s="176"/>
+      <c r="D20" s="176">
+        <v>1</v>
+      </c>
       <c r="E20" s="68"/>
       <c r="F20" s="69"/>
       <c r="G20" s="69"/>
@@ -12990,7 +12988,7 @@
       </c>
       <c r="D21" s="177">
         <f>SUM(D18:D20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="69"/>
@@ -13006,10 +13004,10 @@
       <c r="A22" s="178">
         <v>7.21</v>
       </c>
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="215" t="s">
         <v>574</v>
       </c>
-      <c r="C22" s="218"/>
+      <c r="C22" s="217"/>
       <c r="D22" s="49"/>
       <c r="E22" s="70"/>
       <c r="F22" s="11"/>
@@ -13733,18 +13731,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="A5:M5"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{DFD286F1-C21A-4D73-9C41-C9C69D815B5A}"/>

--- a/ifrs-sme-model.xlsx
+++ b/ifrs-sme-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D574852-DDFE-4FA1-9FB3-2CC08B7CF4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA9B6FB-1B58-4A9F-A41F-2342327174B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="692" firstSheet="1" activeTab="3" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
@@ -2760,31 +2760,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2805,6 +2812,15 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2812,6 +2828,75 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2832,15 +2917,6 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2856,46 +2932,10 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2907,32 +2947,11 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2943,20 +2962,23 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2970,6 +2992,30 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2981,21 +3027,6 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3015,16 +3046,37 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3054,22 +3106,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3079,52 +3125,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6126,119 +6126,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="229" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="205"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="231"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="131" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="223" t="s">
         <v>429</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="208"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="225"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="131" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="223" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="208"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="225"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="131" t="s">
         <v>423</v>
       </c>
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="223" t="s">
         <v>424</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="208"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="225"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="131" t="s">
         <v>550</v>
       </c>
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="223" t="s">
         <v>553</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="208"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="225"/>
     </row>
     <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="131" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="223" t="s">
         <v>430</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="208"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="225"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="131" t="s">
         <v>551</v>
       </c>
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="223" t="s">
         <v>554</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="225"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="209">
+      <c r="B8" s="232">
         <v>45292</v>
       </c>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="211"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="233"/>
+      <c r="G8" s="234"/>
     </row>
     <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="212">
+      <c r="B9" s="217">
         <v>45657</v>
       </c>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="219"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="143" t="s">
@@ -6284,120 +6284,125 @@
       <c r="A14" s="129" t="s">
         <v>409</v>
       </c>
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="217" t="s">
         <v>411</v>
       </c>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="214"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="219"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A15" s="129"/>
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="217" t="s">
         <v>412</v>
       </c>
-      <c r="C15" s="213"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="214"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="219"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" s="129"/>
-      <c r="B16" s="212" t="s">
+      <c r="B16" s="217" t="s">
         <v>413</v>
       </c>
-      <c r="C16" s="213"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="214"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="219"/>
     </row>
     <row r="17" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="130"/>
-      <c r="B17" s="215" t="s">
+      <c r="B17" s="220" t="s">
         <v>414</v>
       </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="217"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="222"/>
     </row>
     <row r="18" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="129" t="s">
         <v>410</v>
       </c>
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="217" t="s">
         <v>415</v>
       </c>
-      <c r="C18" s="213"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="214"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="219"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" s="128" t="s">
         <v>416</v>
       </c>
-      <c r="B19" s="218" t="s">
+      <c r="B19" s="226" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="220"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="228"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A20" s="129"/>
-      <c r="B20" s="212" t="s">
+      <c r="B20" s="217" t="s">
         <v>418</v>
       </c>
-      <c r="C20" s="213"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="214"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="219"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A21" s="129"/>
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="217" t="s">
         <v>388</v>
       </c>
-      <c r="C21" s="213"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="219"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="129"/>
-      <c r="B22" s="212" t="s">
+      <c r="B22" s="217" t="s">
         <v>419</v>
       </c>
-      <c r="C22" s="213"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="214"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="219"/>
     </row>
     <row r="23" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="130"/>
-      <c r="B23" s="215" t="s">
+      <c r="B23" s="220" t="s">
         <v>420</v>
       </c>
-      <c r="C23" s="216"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="217"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -6412,11 +6417,6 @@
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
@@ -6448,21 +6448,21 @@
       <c r="A1" s="131" t="s">
         <v>422</v>
       </c>
-      <c r="B1" s="292" t="str">
+      <c r="B1" s="312" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="294"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="314"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="133" t="s">
@@ -6472,37 +6472,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="212">
+      <c r="B3" s="217">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="214"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="219"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="131" t="s">
@@ -6512,90 +6512,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="219"/>
+      <c r="K4" s="219"/>
+      <c r="L4" s="219"/>
+      <c r="M4" s="219"/>
     </row>
     <row r="5" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="229" t="s">
         <v>405</v>
       </c>
-      <c r="B5" s="204"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="205"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="231"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="226" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="219"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="219"/>
-      <c r="M6" s="220"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="228"/>
     </row>
     <row r="7" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="106" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="220" t="s">
         <v>584</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="216"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="216"/>
-      <c r="K7" s="216"/>
-      <c r="L7" s="216"/>
-      <c r="M7" s="217"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="222"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="230" t="s">
+      <c r="A10" s="258" t="s">
         <v>559</v>
       </c>
-      <c r="B10" s="288"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="231"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="324"/>
+      <c r="J10" s="324"/>
+      <c r="K10" s="324"/>
+      <c r="L10" s="324"/>
+      <c r="M10" s="259"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="132" t="s">
@@ -6610,17 +6610,17 @@
       <c r="D11" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="297" t="s">
+      <c r="E11" s="317" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="298"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="298"/>
-      <c r="I11" s="298"/>
-      <c r="J11" s="298"/>
-      <c r="K11" s="298"/>
-      <c r="L11" s="298"/>
-      <c r="M11" s="307"/>
+      <c r="F11" s="318"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="318"/>
+      <c r="I11" s="318"/>
+      <c r="J11" s="318"/>
+      <c r="K11" s="318"/>
+      <c r="L11" s="318"/>
+      <c r="M11" s="325"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="172">
@@ -6629,10 +6629,10 @@
       <c r="B12" s="164" t="s">
         <v>561</v>
       </c>
-      <c r="C12" s="308" t="s">
+      <c r="C12" s="326" t="s">
         <v>561</v>
       </c>
-      <c r="D12" s="309"/>
+      <c r="D12" s="327"/>
       <c r="E12" s="60"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
@@ -6646,7 +6646,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="198"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="316" t="s">
+      <c r="C13" s="209" t="s">
         <v>585</v>
       </c>
       <c r="D13" s="80">
@@ -6665,7 +6665,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="198"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="313" t="s">
+      <c r="C14" s="206" t="s">
         <v>587</v>
       </c>
       <c r="D14" s="76">
@@ -6684,7 +6684,7 @@
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="198"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="313" t="s">
+      <c r="C15" s="206" t="s">
         <v>586</v>
       </c>
       <c r="D15" s="76">
@@ -6745,7 +6745,7 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="198"/>
       <c r="B18" s="194"/>
-      <c r="C18" s="316" t="s">
+      <c r="C18" s="209" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="165">
@@ -6764,7 +6764,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="198"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="313" t="s">
+      <c r="C19" s="206" t="s">
         <v>567</v>
       </c>
       <c r="D19" s="166">
@@ -6783,7 +6783,7 @@
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="198"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="313" t="s">
+      <c r="C20" s="206" t="s">
         <v>568</v>
       </c>
       <c r="D20" s="166">
@@ -6823,10 +6823,10 @@
       <c r="A22" s="168">
         <v>7.21</v>
       </c>
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="239" t="s">
         <v>570</v>
       </c>
-      <c r="C22" s="229"/>
+      <c r="C22" s="241"/>
       <c r="D22" s="44"/>
       <c r="E22" s="65"/>
       <c r="F22" s="11"/>
@@ -7550,17 +7550,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="A5:M5"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{DFD286F1-C21A-4D73-9C41-C9C69D815B5A}"/>
@@ -7599,118 +7599,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="229" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="205"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="231"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="131" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="221" t="str">
+      <c r="B2" s="252" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="223"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="254"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="133" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="221" t="str">
+      <c r="B3" s="252" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="223"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="254"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="212">
+      <c r="B4" s="217">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="214"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="219"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="212">
+      <c r="B5" s="217">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="214"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="219"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="229" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="205"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="231"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="234"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="262"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="255" t="s">
         <v>575</v>
       </c>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="226"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="257"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="231"/>
+      <c r="C10" s="259"/>
       <c r="D10" s="169" t="s">
         <v>73</v>
       </c>
@@ -7727,24 +7727,24 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="227" t="s">
+      <c r="B11" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="229"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="241"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="243" t="s">
+      <c r="B12" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="244"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="245"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="249"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
@@ -7958,20 +7958,20 @@
       <c r="A27" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="241" t="s">
+      <c r="B27" s="245" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="242"/>
+      <c r="C27" s="246"/>
       <c r="D27" s="9"/>
       <c r="E27" s="83"/>
       <c r="F27" s="82"/>
       <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="239" t="s">
+      <c r="B28" s="250" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="240"/>
+      <c r="C28" s="251"/>
       <c r="E28" s="79">
         <f>SUM(E13:E27)</f>
         <v>104</v>
@@ -7999,14 +7999,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="227" t="s">
+      <c r="B31" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="228"/>
-      <c r="D31" s="228"/>
-      <c r="E31" s="228"/>
-      <c r="F31" s="228"/>
-      <c r="G31" s="228"/>
+      <c r="C31" s="240"/>
+      <c r="D31" s="240"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="240"/>
+      <c r="G31" s="240"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
@@ -8132,20 +8132,20 @@
       <c r="A40" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="241" t="s">
+      <c r="B40" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="242"/>
+      <c r="C40" s="246"/>
       <c r="D40" s="9"/>
       <c r="E40" s="83"/>
       <c r="F40" s="83"/>
       <c r="G40" s="41"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="227" t="s">
+      <c r="B41" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="229"/>
+      <c r="C41" s="241"/>
       <c r="E41" s="84">
         <f>SUM(E32:E40)</f>
         <v>40</v>
@@ -8156,10 +8156,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="227" t="s">
+      <c r="B42" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="229"/>
+      <c r="C42" s="241"/>
       <c r="E42" s="84">
         <f>SUM(E28,E41)</f>
         <v>144</v>
@@ -8190,24 +8190,24 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="227" t="s">
+      <c r="B45" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="228"/>
-      <c r="D45" s="228"/>
-      <c r="E45" s="228"/>
-      <c r="F45" s="228"/>
-      <c r="G45" s="229"/>
+      <c r="C45" s="240"/>
+      <c r="D45" s="240"/>
+      <c r="E45" s="240"/>
+      <c r="F45" s="240"/>
+      <c r="G45" s="241"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="227" t="s">
+      <c r="B46" s="239" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="228"/>
-      <c r="D46" s="228"/>
-      <c r="E46" s="228"/>
-      <c r="F46" s="228"/>
-      <c r="G46" s="229"/>
+      <c r="C46" s="240"/>
+      <c r="D46" s="240"/>
+      <c r="E46" s="240"/>
+      <c r="F46" s="240"/>
+      <c r="G46" s="241"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
@@ -8313,10 +8313,10 @@
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="227" t="s">
+      <c r="B53" s="239" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="229"/>
+      <c r="C53" s="241"/>
       <c r="D53" s="85"/>
       <c r="E53" s="87">
         <f>SUM(E47:E52)</f>
@@ -8331,19 +8331,19 @@
       <c r="A54" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="241" t="s">
+      <c r="B54" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="242"/>
+      <c r="C54" s="246"/>
       <c r="D54" s="86"/>
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="227" t="s">
+      <c r="B55" s="239" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="229"/>
+      <c r="C55" s="241"/>
       <c r="E55" s="79">
         <f>SUM(E53,E54)</f>
         <v>15</v>
@@ -8371,24 +8371,24 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="227" t="s">
+      <c r="B58" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="228"/>
-      <c r="D58" s="228"/>
-      <c r="E58" s="228"/>
-      <c r="F58" s="228"/>
-      <c r="G58" s="229"/>
+      <c r="C58" s="240"/>
+      <c r="D58" s="240"/>
+      <c r="E58" s="240"/>
+      <c r="F58" s="240"/>
+      <c r="G58" s="241"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="243" t="s">
+      <c r="B59" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="244"/>
-      <c r="D59" s="244"/>
-      <c r="E59" s="244"/>
-      <c r="F59" s="244"/>
-      <c r="G59" s="244"/>
+      <c r="C59" s="248"/>
+      <c r="D59" s="248"/>
+      <c r="E59" s="248"/>
+      <c r="F59" s="248"/>
+      <c r="G59" s="248"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
@@ -8428,10 +8428,10 @@
       <c r="A62" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="B62" s="241" t="s">
+      <c r="B62" s="245" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="242"/>
+      <c r="C62" s="246"/>
       <c r="D62" s="9"/>
       <c r="E62" s="83">
         <v>2</v>
@@ -8533,20 +8533,20 @@
       <c r="A69" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B69" s="241" t="s">
+      <c r="B69" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="242"/>
+      <c r="C69" s="246"/>
       <c r="D69" s="9"/>
       <c r="E69" s="83"/>
       <c r="F69" s="89"/>
       <c r="G69" s="41"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="227" t="s">
+      <c r="B70" s="239" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="229"/>
+      <c r="C70" s="241"/>
       <c r="E70" s="79">
         <f>SUM(E63:E69)</f>
         <v>9</v>
@@ -8575,14 +8575,14 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="227" t="s">
+      <c r="B73" s="239" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="228"/>
-      <c r="D73" s="228"/>
-      <c r="E73" s="228"/>
-      <c r="F73" s="228"/>
-      <c r="G73" s="228"/>
+      <c r="C73" s="240"/>
+      <c r="D73" s="240"/>
+      <c r="E73" s="240"/>
+      <c r="F73" s="240"/>
+      <c r="G73" s="240"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
@@ -8622,20 +8622,20 @@
       <c r="A76" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B76" s="241" t="s">
+      <c r="B76" s="245" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="242"/>
+      <c r="C76" s="246"/>
       <c r="D76" s="9"/>
       <c r="E76" s="83"/>
       <c r="F76" s="82"/>
       <c r="G76" s="41"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="227" t="s">
+      <c r="B77" s="239" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="229"/>
+      <c r="C77" s="241"/>
       <c r="D77" s="90"/>
       <c r="E77" s="77">
         <f>SUM(E74:E76)</f>
@@ -8731,21 +8731,21 @@
       <c r="A83" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="B83" s="241" t="s">
+      <c r="B83" s="245" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="242"/>
+      <c r="C83" s="246"/>
       <c r="D83" s="9"/>
       <c r="E83" s="83"/>
       <c r="F83" s="89"/>
       <c r="G83" s="41"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="227" t="s">
+      <c r="B84" s="239" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="228"/>
-      <c r="D84" s="229"/>
+      <c r="C84" s="240"/>
+      <c r="D84" s="241"/>
       <c r="E84" s="79">
         <f>SUM(E77:E83)</f>
         <v>16</v>
@@ -8759,11 +8759,11 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="227" t="s">
+      <c r="B86" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="228"/>
-      <c r="D86" s="229"/>
+      <c r="C86" s="240"/>
+      <c r="D86" s="241"/>
       <c r="E86" s="79">
         <f>SUM(E70,E84)</f>
         <v>25</v>
@@ -8775,11 +8775,11 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="227" t="s">
+      <c r="B88" s="239" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="228"/>
-      <c r="D88" s="229"/>
+      <c r="C88" s="240"/>
+      <c r="D88" s="241"/>
       <c r="E88" s="79">
         <f>SUM(E55,E86)</f>
         <v>40</v>
@@ -8797,12 +8797,12 @@
       <c r="A91" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="246" t="str">
+      <c r="B91" s="242" t="str">
         <f>IF(AND(E91=0,F91=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C91" s="247"/>
-      <c r="D91" s="248"/>
+      <c r="C91" s="243"/>
+      <c r="D91" s="244"/>
       <c r="E91" s="79">
         <f>E88-E42</f>
         <v>-104</v>
@@ -8821,11 +8821,62 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B84:D84"/>
@@ -8842,62 +8893,11 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B91">
@@ -8954,14 +8954,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="263" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="253"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="264"/>
       <c r="G1" s="121"/>
       <c r="H1" s="121"/>
       <c r="I1" s="121"/>
@@ -8970,63 +8970,63 @@
       <c r="A2" s="131" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="206" t="str">
+      <c r="B2" s="223" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="225"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="133" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="223" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="232">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="211"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="234"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="209">
+      <c r="B5" s="232">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="211"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="234"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="268" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="255"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="269"/>
       <c r="G6" s="121"/>
       <c r="H6" s="121"/>
       <c r="I6" s="121"/>
@@ -9035,35 +9035,35 @@
       <c r="A7" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="250"/>
-      <c r="F7" s="251"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="267"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="124" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="265" t="s">
         <v>576</v>
       </c>
-      <c r="C8" s="250"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="251"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="267"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="230" t="s">
+      <c r="B12" s="258" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="231"/>
+      <c r="C12" s="259"/>
       <c r="D12" s="169" t="s">
         <v>73</v>
       </c>
@@ -9080,13 +9080,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="227" t="s">
+      <c r="B13" s="239" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="228"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="240"/>
       <c r="G13" s="172"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -9269,10 +9269,10 @@
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="134"/>
-      <c r="B24" s="228" t="s">
+      <c r="B24" s="240" t="s">
         <v>290</v>
       </c>
-      <c r="C24" s="229"/>
+      <c r="C24" s="241"/>
       <c r="D24" s="136"/>
       <c r="E24" s="77">
         <f>SUM(E14:E23)</f>
@@ -9337,10 +9337,10 @@
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="134"/>
-      <c r="B28" s="228" t="s">
+      <c r="B28" s="240" t="s">
         <v>289</v>
       </c>
-      <c r="C28" s="229"/>
+      <c r="C28" s="241"/>
       <c r="D28" s="136"/>
       <c r="E28" s="77">
         <f>SUM(E24:E27)</f>
@@ -9370,10 +9370,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="134"/>
-      <c r="B30" s="228" t="s">
+      <c r="B30" s="240" t="s">
         <v>407</v>
       </c>
-      <c r="C30" s="229"/>
+      <c r="C30" s="241"/>
       <c r="D30" s="136"/>
       <c r="E30" s="77">
         <f>SUM(E28:E29)</f>
@@ -9393,12 +9393,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B12:C12"/>
@@ -9406,6 +9400,12 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9A9E6224-643C-4AD9-9436-A2DC070A0C83}"/>
@@ -9423,7 +9423,7 @@
   <dimension ref="A1:G268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9441,118 +9441,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="229" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="205"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="231"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="131" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="221" t="str">
+      <c r="B2" s="252" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="223"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="254"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="133" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="221" t="str">
+      <c r="B3" s="252" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="223"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="254"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="212">
+      <c r="B4" s="217">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="214"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="219"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="212">
+      <c r="B5" s="217">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="214"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="219"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="229" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="205"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="231"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="234"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="262"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="255" t="s">
         <v>575</v>
       </c>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="226"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="257"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="231"/>
+      <c r="C10" s="259"/>
       <c r="D10" s="169" t="s">
         <v>73</v>
       </c>
@@ -9569,55 +9569,55 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="227" t="s">
+      <c r="B11" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="229"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="241"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="227" t="s">
+      <c r="B12" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="229"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="240"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="241"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="283" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="267"/>
+      <c r="C13" s="284"/>
       <c r="D13" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="256" t="s">
+      <c r="E13" s="288" t="s">
         <v>283</v>
       </c>
-      <c r="F13" s="257"/>
-      <c r="G13" s="258"/>
+      <c r="F13" s="289"/>
+      <c r="G13" s="290"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="B14" s="259" t="s">
+      <c r="B14" s="273" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="260"/>
+      <c r="C14" s="274"/>
       <c r="D14" s="184"/>
       <c r="E14" s="80">
         <v>5</v>
       </c>
-      <c r="F14" s="323">
+      <c r="F14" s="212">
         <v>5</v>
       </c>
       <c r="G14" s="185"/>
@@ -9626,15 +9626,15 @@
       <c r="A15" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="B15" s="259" t="s">
+      <c r="B15" s="273" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="260"/>
+      <c r="C15" s="274"/>
       <c r="D15" s="184"/>
       <c r="E15" s="76">
         <v>4</v>
       </c>
-      <c r="F15" s="324">
+      <c r="F15" s="213">
         <v>4</v>
       </c>
       <c r="G15" s="185"/>
@@ -9643,10 +9643,10 @@
       <c r="A16" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="B16" s="318" t="s">
+      <c r="B16" s="286" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="319"/>
+      <c r="C16" s="287"/>
       <c r="D16" s="184"/>
       <c r="E16" s="83">
         <v>2</v>
@@ -9660,16 +9660,16 @@
       <c r="A17" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="B17" s="320" t="s">
+      <c r="B17" s="277" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="321"/>
+      <c r="C17" s="278"/>
       <c r="D17" s="184"/>
       <c r="E17" s="180">
         <f>SUM(E14:E16)</f>
         <v>11</v>
       </c>
-      <c r="F17" s="325">
+      <c r="F17" s="214">
         <f>SUM(F14:F16)</f>
         <v>14</v>
       </c>
@@ -9679,15 +9679,15 @@
       <c r="A18" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="B18" s="259" t="s">
+      <c r="B18" s="273" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="260"/>
+      <c r="C18" s="274"/>
       <c r="D18" s="184"/>
       <c r="E18" s="76">
         <v>5</v>
       </c>
-      <c r="F18" s="324">
+      <c r="F18" s="213">
         <v>5</v>
       </c>
       <c r="G18" s="185"/>
@@ -9696,15 +9696,15 @@
       <c r="A19" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="B19" s="259" t="s">
+      <c r="B19" s="273" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="260"/>
+      <c r="C19" s="274"/>
       <c r="D19" s="184"/>
       <c r="E19" s="76">
         <v>94</v>
       </c>
-      <c r="F19" s="324">
+      <c r="F19" s="213">
         <v>5</v>
       </c>
       <c r="G19" s="185"/>
@@ -9713,15 +9713,15 @@
       <c r="A20" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="B20" s="259" t="s">
+      <c r="B20" s="273" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="260"/>
+      <c r="C20" s="274"/>
       <c r="D20" s="184"/>
       <c r="E20" s="76">
         <v>5</v>
       </c>
-      <c r="F20" s="324">
+      <c r="F20" s="213">
         <v>4</v>
       </c>
       <c r="G20" s="185"/>
@@ -9730,15 +9730,15 @@
       <c r="A21" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="B21" s="259" t="s">
+      <c r="B21" s="273" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="260"/>
+      <c r="C21" s="274"/>
       <c r="D21" s="184"/>
       <c r="E21" s="76">
         <v>8</v>
       </c>
-      <c r="F21" s="324">
+      <c r="F21" s="213">
         <v>2</v>
       </c>
       <c r="G21" s="185"/>
@@ -9747,10 +9747,10 @@
       <c r="A22" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="B22" s="318" t="s">
+      <c r="B22" s="286" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="319"/>
+      <c r="C22" s="287"/>
       <c r="D22" s="184"/>
       <c r="E22" s="83">
         <v>6</v>
@@ -9764,16 +9764,16 @@
       <c r="A23" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="B23" s="320" t="s">
+      <c r="B23" s="277" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="321"/>
+      <c r="C23" s="278"/>
       <c r="D23" s="184"/>
       <c r="E23" s="180">
         <f>SUM(E18:E22)</f>
         <v>118</v>
       </c>
-      <c r="F23" s="325">
+      <c r="F23" s="214">
         <f>SUM(F18:F22)</f>
         <v>19</v>
       </c>
@@ -9783,15 +9783,15 @@
       <c r="A24" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="B24" s="259" t="s">
+      <c r="B24" s="273" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="260"/>
+      <c r="C24" s="274"/>
       <c r="D24" s="184"/>
       <c r="E24" s="76">
         <v>1</v>
       </c>
-      <c r="F24" s="324">
+      <c r="F24" s="213">
         <v>3</v>
       </c>
       <c r="G24" s="185"/>
@@ -9800,15 +9800,15 @@
       <c r="A25" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="B25" s="259" t="s">
+      <c r="B25" s="273" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="260"/>
+      <c r="C25" s="274"/>
       <c r="D25" s="184"/>
       <c r="E25" s="76">
         <v>5</v>
       </c>
-      <c r="F25" s="324">
+      <c r="F25" s="213">
         <v>4</v>
       </c>
       <c r="G25" s="185"/>
@@ -9817,15 +9817,15 @@
       <c r="A26" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="B26" s="259" t="s">
+      <c r="B26" s="273" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="260"/>
+      <c r="C26" s="274"/>
       <c r="D26" s="184"/>
       <c r="E26" s="76">
         <v>6</v>
       </c>
-      <c r="F26" s="324">
+      <c r="F26" s="213">
         <v>7</v>
       </c>
       <c r="G26" s="185"/>
@@ -9834,15 +9834,15 @@
       <c r="A27" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="B27" s="259" t="s">
+      <c r="B27" s="273" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="260"/>
+      <c r="C27" s="274"/>
       <c r="D27" s="184"/>
       <c r="E27" s="76">
         <v>3</v>
       </c>
-      <c r="F27" s="324">
+      <c r="F27" s="213">
         <v>5</v>
       </c>
       <c r="G27" s="185"/>
@@ -9851,15 +9851,15 @@
       <c r="A28" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="B28" s="259" t="s">
+      <c r="B28" s="273" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="260"/>
+      <c r="C28" s="274"/>
       <c r="D28" s="184"/>
       <c r="E28" s="76">
         <v>7</v>
       </c>
-      <c r="F28" s="324">
+      <c r="F28" s="213">
         <v>5</v>
       </c>
       <c r="G28" s="185"/>
@@ -9868,15 +9868,15 @@
       <c r="A29" s="22" t="s">
         <v>603</v>
       </c>
-      <c r="B29" s="259" t="s">
+      <c r="B29" s="273" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="260"/>
+      <c r="C29" s="274"/>
       <c r="D29" s="184"/>
       <c r="E29" s="76">
         <v>6</v>
       </c>
-      <c r="F29" s="324">
+      <c r="F29" s="213">
         <v>4</v>
       </c>
       <c r="G29" s="185"/>
@@ -9885,15 +9885,15 @@
       <c r="A30" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="B30" s="259" t="s">
+      <c r="B30" s="273" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="260"/>
+      <c r="C30" s="274"/>
       <c r="D30" s="184"/>
       <c r="E30" s="76">
         <v>7</v>
       </c>
-      <c r="F30" s="324">
+      <c r="F30" s="213">
         <v>5</v>
       </c>
       <c r="G30" s="185"/>
@@ -9902,15 +9902,15 @@
       <c r="A31" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="B31" s="259" t="s">
+      <c r="B31" s="273" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="260"/>
+      <c r="C31" s="274"/>
       <c r="D31" s="184"/>
       <c r="E31" s="76">
         <v>6</v>
       </c>
-      <c r="F31" s="324">
+      <c r="F31" s="213">
         <v>3</v>
       </c>
       <c r="G31" s="185"/>
@@ -9919,10 +9919,10 @@
       <c r="A32" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="B32" s="318" t="s">
+      <c r="B32" s="286" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="319"/>
+      <c r="C32" s="287"/>
       <c r="D32" s="184"/>
       <c r="E32" s="83">
         <v>7</v>
@@ -9936,16 +9936,16 @@
       <c r="A33" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="B33" s="320" t="s">
+      <c r="B33" s="277" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="321"/>
+      <c r="C33" s="278"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="327">
+      <c r="E33" s="216">
         <f>SUM(E17,E23:E32)</f>
         <v>177</v>
       </c>
-      <c r="F33" s="326">
+      <c r="F33" s="215">
         <f>SUM(F17,F23:F32)</f>
         <v>77</v>
       </c>
@@ -9955,10 +9955,10 @@
       <c r="A34" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="264" t="s">
+      <c r="B34" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="265"/>
+      <c r="C34" s="276"/>
       <c r="D34" s="8"/>
       <c r="E34" s="76">
         <v>4</v>
@@ -9972,10 +9972,10 @@
       <c r="A35" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="264" t="s">
+      <c r="B35" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="265"/>
+      <c r="C35" s="276"/>
       <c r="D35" s="8"/>
       <c r="E35" s="76">
         <v>4</v>
@@ -9989,10 +9989,10 @@
       <c r="A36" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="264" t="s">
+      <c r="B36" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="265"/>
+      <c r="C36" s="276"/>
       <c r="D36" s="8"/>
       <c r="E36" s="76">
         <v>20</v>
@@ -10006,10 +10006,10 @@
       <c r="A37" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="275" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="265"/>
+      <c r="C37" s="276"/>
       <c r="D37" s="8"/>
       <c r="E37" s="76">
         <v>30</v>
@@ -10023,10 +10023,10 @@
       <c r="A38" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="265"/>
+      <c r="C38" s="276"/>
       <c r="D38" s="8"/>
       <c r="E38" s="76">
         <v>4</v>
@@ -10040,10 +10040,10 @@
       <c r="A39" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="264" t="s">
+      <c r="B39" s="275" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="265"/>
+      <c r="C39" s="276"/>
       <c r="D39" s="8"/>
       <c r="E39" s="76">
         <v>6</v>
@@ -10057,10 +10057,10 @@
       <c r="A40" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="264" t="s">
+      <c r="B40" s="275" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="265"/>
+      <c r="C40" s="276"/>
       <c r="D40" s="8"/>
       <c r="E40" s="76">
         <v>4</v>
@@ -10074,10 +10074,10 @@
       <c r="A41" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="264" t="s">
+      <c r="B41" s="275" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="265"/>
+      <c r="C41" s="276"/>
       <c r="D41" s="8"/>
       <c r="E41" s="83">
         <v>6</v>
@@ -10091,27 +10091,27 @@
       <c r="A42" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="264" t="s">
+      <c r="B42" s="275" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="265"/>
+      <c r="C42" s="276"/>
       <c r="D42" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="256" t="s">
+      <c r="E42" s="288" t="s">
         <v>284</v>
       </c>
-      <c r="F42" s="257"/>
-      <c r="G42" s="258"/>
+      <c r="F42" s="289"/>
+      <c r="G42" s="290"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="B43" s="259" t="s">
+      <c r="B43" s="273" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="260"/>
+      <c r="C43" s="274"/>
       <c r="D43" s="8"/>
       <c r="E43" s="76">
         <v>1</v>
@@ -10125,10 +10125,10 @@
       <c r="A44" s="22" t="s">
         <v>609</v>
       </c>
-      <c r="B44" s="259" t="s">
+      <c r="B44" s="273" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="260"/>
+      <c r="C44" s="274"/>
       <c r="D44" s="8"/>
       <c r="E44" s="76">
         <v>4</v>
@@ -10142,10 +10142,10 @@
       <c r="A45" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="B45" s="259" t="s">
+      <c r="B45" s="273" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="260"/>
+      <c r="C45" s="274"/>
       <c r="D45" s="8"/>
       <c r="E45" s="76">
         <v>2</v>
@@ -10159,10 +10159,10 @@
       <c r="A46" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="B46" s="259" t="s">
+      <c r="B46" s="273" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="260"/>
+      <c r="C46" s="274"/>
       <c r="D46" s="8"/>
       <c r="E46" s="83">
         <v>3</v>
@@ -10176,10 +10176,10 @@
       <c r="A47" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="B47" s="320" t="s">
+      <c r="B47" s="277" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="321"/>
+      <c r="C47" s="278"/>
       <c r="D47" s="8"/>
       <c r="E47" s="186">
         <f>SUM(E43:E46)</f>
@@ -10195,10 +10195,10 @@
       <c r="A48" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="B48" s="259" t="s">
+      <c r="B48" s="273" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="260"/>
+      <c r="C48" s="274"/>
       <c r="D48" s="8"/>
       <c r="E48" s="76">
         <v>2</v>
@@ -10212,10 +10212,10 @@
       <c r="A49" s="22" t="s">
         <v>614</v>
       </c>
-      <c r="B49" s="259" t="s">
+      <c r="B49" s="273" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="260"/>
+      <c r="C49" s="274"/>
       <c r="D49" s="8"/>
       <c r="E49" s="76">
         <v>3</v>
@@ -10229,10 +10229,10 @@
       <c r="A50" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="B50" s="259" t="s">
+      <c r="B50" s="273" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="260"/>
+      <c r="C50" s="274"/>
       <c r="D50" s="8"/>
       <c r="E50" s="83">
         <v>4</v>
@@ -10246,10 +10246,10 @@
       <c r="A51" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="B51" s="320" t="s">
+      <c r="B51" s="277" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="321"/>
+      <c r="C51" s="278"/>
       <c r="D51" s="8"/>
       <c r="E51" s="186">
         <f>SUM(E48:E50)</f>
@@ -10265,10 +10265,10 @@
       <c r="A52" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="B52" s="259" t="s">
+      <c r="B52" s="273" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="260"/>
+      <c r="C52" s="274"/>
       <c r="D52" s="8"/>
       <c r="E52" s="76">
         <v>4</v>
@@ -10282,10 +10282,10 @@
       <c r="A53" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="B53" s="259" t="s">
+      <c r="B53" s="273" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="260"/>
+      <c r="C53" s="274"/>
       <c r="D53" s="8"/>
       <c r="E53" s="76">
         <v>6</v>
@@ -10299,10 +10299,10 @@
       <c r="A54" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="B54" s="259" t="s">
+      <c r="B54" s="273" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="260"/>
+      <c r="C54" s="274"/>
       <c r="D54" s="8"/>
       <c r="E54" s="76">
         <v>7</v>
@@ -10316,10 +10316,10 @@
       <c r="A55" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="B55" s="259" t="s">
+      <c r="B55" s="273" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="260"/>
+      <c r="C55" s="274"/>
       <c r="D55" s="8"/>
       <c r="E55" s="76">
         <v>8</v>
@@ -10333,10 +10333,10 @@
       <c r="A56" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="B56" s="259" t="s">
+      <c r="B56" s="273" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="260"/>
+      <c r="C56" s="274"/>
       <c r="D56" s="8"/>
       <c r="E56" s="83">
         <v>9</v>
@@ -10350,10 +10350,10 @@
       <c r="A57" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="B57" s="320" t="s">
+      <c r="B57" s="277" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="321"/>
+      <c r="C57" s="278"/>
       <c r="D57" s="8"/>
       <c r="E57" s="178">
         <f>SUM(E52:E56,E51,E47)</f>
@@ -10369,10 +10369,10 @@
       <c r="A58" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="264" t="s">
+      <c r="B58" s="275" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="265"/>
+      <c r="C58" s="276"/>
       <c r="D58" s="8"/>
       <c r="E58" s="76">
         <v>4</v>
@@ -10386,10 +10386,10 @@
       <c r="A59" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="264" t="s">
+      <c r="B59" s="275" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="265"/>
+      <c r="C59" s="276"/>
       <c r="D59" s="8"/>
       <c r="E59" s="76">
         <v>5</v>
@@ -10403,10 +10403,10 @@
       <c r="A60" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="264" t="s">
+      <c r="B60" s="275" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="265"/>
+      <c r="C60" s="276"/>
       <c r="D60" s="8"/>
       <c r="E60" s="76">
         <v>6</v>
@@ -10420,10 +10420,10 @@
       <c r="A61" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="264" t="s">
+      <c r="B61" s="275" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="265"/>
+      <c r="C61" s="276"/>
       <c r="D61" s="8"/>
       <c r="E61" s="76">
         <v>7</v>
@@ -10437,10 +10437,10 @@
       <c r="A62" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="264" t="s">
+      <c r="B62" s="275" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="265"/>
+      <c r="C62" s="276"/>
       <c r="D62" s="9"/>
       <c r="E62" s="83">
         <v>4</v>
@@ -10451,10 +10451,10 @@
       <c r="G62" s="41"/>
     </row>
     <row r="63" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="268" t="s">
+      <c r="B63" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="240"/>
+      <c r="C63" s="251"/>
       <c r="E63" s="79">
         <f>SUM(E57:E62,E33:E41)</f>
         <v>334</v>
@@ -10482,38 +10482,38 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="227" t="s">
+      <c r="B66" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="228"/>
-      <c r="D66" s="228"/>
-      <c r="E66" s="228"/>
-      <c r="F66" s="228"/>
-      <c r="G66" s="228"/>
+      <c r="C66" s="240"/>
+      <c r="D66" s="240"/>
+      <c r="E66" s="240"/>
+      <c r="F66" s="240"/>
+      <c r="G66" s="240"/>
     </row>
     <row r="67" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="266" t="s">
+      <c r="B67" s="283" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="267"/>
+      <c r="C67" s="284"/>
       <c r="D67" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E67" s="261" t="s">
+      <c r="E67" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="F67" s="262"/>
-      <c r="G67" s="263"/>
+      <c r="F67" s="271"/>
+      <c r="G67" s="272"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
-      <c r="B68" s="259" t="s">
+      <c r="B68" s="273" t="s">
         <v>205</v>
       </c>
-      <c r="C68" s="260"/>
+      <c r="C68" s="274"/>
       <c r="D68" s="8"/>
       <c r="E68" s="76">
         <v>1</v>
@@ -10525,10 +10525,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
-      <c r="B69" s="259" t="s">
+      <c r="B69" s="273" t="s">
         <v>189</v>
       </c>
-      <c r="C69" s="260">
+      <c r="C69" s="274">
         <v>2</v>
       </c>
       <c r="D69" s="8"/>
@@ -10542,10 +10542,10 @@
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="22"/>
-      <c r="B70" s="259" t="s">
+      <c r="B70" s="273" t="s">
         <v>190</v>
       </c>
-      <c r="C70" s="260">
+      <c r="C70" s="274">
         <v>3</v>
       </c>
       <c r="D70" s="8"/>
@@ -10559,10 +10559,10 @@
     </row>
     <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="22"/>
-      <c r="B71" s="320" t="s">
+      <c r="B71" s="277" t="s">
         <v>191</v>
       </c>
-      <c r="C71" s="321">
+      <c r="C71" s="278">
         <f>SUM(C69:C70)</f>
         <v>5</v>
       </c>
@@ -10579,10 +10579,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="22"/>
-      <c r="B72" s="259" t="s">
+      <c r="B72" s="273" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="260">
+      <c r="C72" s="274">
         <v>4</v>
       </c>
       <c r="D72" s="8"/>
@@ -10596,10 +10596,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="22"/>
-      <c r="B73" s="259" t="s">
+      <c r="B73" s="273" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="260">
+      <c r="C73" s="274">
         <v>5</v>
       </c>
       <c r="D73" s="8"/>
@@ -10613,10 +10613,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="22"/>
-      <c r="B74" s="259" t="s">
+      <c r="B74" s="273" t="s">
         <v>194</v>
       </c>
-      <c r="C74" s="260">
+      <c r="C74" s="274">
         <v>6</v>
       </c>
       <c r="D74" s="8"/>
@@ -10630,10 +10630,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="22"/>
-      <c r="B75" s="259" t="s">
+      <c r="B75" s="273" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="260">
+      <c r="C75" s="274">
         <v>7</v>
       </c>
       <c r="D75" s="8"/>
@@ -10647,10 +10647,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
-      <c r="B76" s="259" t="s">
+      <c r="B76" s="273" t="s">
         <v>196</v>
       </c>
-      <c r="C76" s="260">
+      <c r="C76" s="274">
         <v>4</v>
       </c>
       <c r="D76" s="8"/>
@@ -10664,10 +10664,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="22"/>
-      <c r="B77" s="259" t="s">
+      <c r="B77" s="273" t="s">
         <v>197</v>
       </c>
-      <c r="C77" s="260">
+      <c r="C77" s="274">
         <v>4</v>
       </c>
       <c r="D77" s="8"/>
@@ -10681,10 +10681,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
-      <c r="B78" s="259" t="s">
+      <c r="B78" s="273" t="s">
         <v>198</v>
       </c>
-      <c r="C78" s="260">
+      <c r="C78" s="274">
         <v>6</v>
       </c>
       <c r="D78" s="8"/>
@@ -10698,10 +10698,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
-      <c r="B79" s="259" t="s">
+      <c r="B79" s="273" t="s">
         <v>199</v>
       </c>
-      <c r="C79" s="260">
+      <c r="C79" s="274">
         <v>7</v>
       </c>
       <c r="D79" s="8"/>
@@ -10715,10 +10715,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="22"/>
-      <c r="B80" s="259" t="s">
+      <c r="B80" s="273" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="260">
+      <c r="C80" s="274">
         <v>8</v>
       </c>
       <c r="D80" s="8"/>
@@ -10732,10 +10732,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
-      <c r="B81" s="259" t="s">
+      <c r="B81" s="273" t="s">
         <v>201</v>
       </c>
-      <c r="C81" s="260">
+      <c r="C81" s="274">
         <v>9</v>
       </c>
       <c r="D81" s="8"/>
@@ -10749,10 +10749,10 @@
     </row>
     <row r="82" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="22"/>
-      <c r="B82" s="259" t="s">
+      <c r="B82" s="273" t="s">
         <v>202</v>
       </c>
-      <c r="C82" s="260">
+      <c r="C82" s="274">
         <v>5</v>
       </c>
       <c r="D82" s="8"/>
@@ -10766,10 +10766,10 @@
     </row>
     <row r="83" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="22"/>
-      <c r="B83" s="320" t="s">
+      <c r="B83" s="277" t="s">
         <v>203</v>
       </c>
-      <c r="C83" s="321">
+      <c r="C83" s="278">
         <f>SUM(C72:C82)</f>
         <v>65</v>
       </c>
@@ -10788,25 +10788,25 @@
       <c r="A84" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="269" t="s">
+      <c r="B84" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="270"/>
+      <c r="C84" s="280"/>
       <c r="D84" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E84" s="261" t="s">
+      <c r="E84" s="270" t="s">
         <v>284</v>
       </c>
-      <c r="F84" s="262"/>
-      <c r="G84" s="263"/>
+      <c r="F84" s="271"/>
+      <c r="G84" s="272"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
-      <c r="B85" s="259" t="s">
+      <c r="B85" s="273" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="260">
+      <c r="C85" s="274">
         <v>1</v>
       </c>
       <c r="D85" s="8"/>
@@ -10820,10 +10820,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="22"/>
-      <c r="B86" s="259" t="s">
+      <c r="B86" s="273" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="260">
+      <c r="C86" s="274">
         <v>2</v>
       </c>
       <c r="D86" s="8"/>
@@ -10837,10 +10837,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="22"/>
-      <c r="B87" s="259" t="s">
+      <c r="B87" s="273" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="260">
+      <c r="C87" s="274">
         <v>3</v>
       </c>
       <c r="D87" s="8"/>
@@ -10854,10 +10854,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="22"/>
-      <c r="B88" s="259" t="s">
+      <c r="B88" s="273" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="260">
+      <c r="C88" s="274">
         <v>4</v>
       </c>
       <c r="D88" s="8"/>
@@ -10871,10 +10871,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="22"/>
-      <c r="B89" s="259" t="s">
+      <c r="B89" s="273" t="s">
         <v>188</v>
       </c>
-      <c r="C89" s="260"/>
+      <c r="C89" s="274"/>
       <c r="D89" s="8"/>
       <c r="E89" s="76">
         <v>4</v>
@@ -10886,10 +10886,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="22"/>
-      <c r="B90" s="259" t="s">
+      <c r="B90" s="273" t="s">
         <v>187</v>
       </c>
-      <c r="C90" s="260"/>
+      <c r="C90" s="274"/>
       <c r="D90" s="8"/>
       <c r="E90" s="76">
         <v>2</v>
@@ -10901,10 +10901,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="22"/>
-      <c r="B91" s="259" t="s">
+      <c r="B91" s="273" t="s">
         <v>176</v>
       </c>
-      <c r="C91" s="260">
+      <c r="C91" s="274">
         <v>5</v>
       </c>
       <c r="D91" s="8"/>
@@ -10918,10 +10918,10 @@
     </row>
     <row r="92" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="22"/>
-      <c r="B92" s="259" t="s">
+      <c r="B92" s="273" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="260">
+      <c r="C92" s="274">
         <v>7</v>
       </c>
       <c r="D92" s="8"/>
@@ -10935,10 +10935,10 @@
     </row>
     <row r="93" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="22"/>
-      <c r="B93" s="320" t="s">
+      <c r="B93" s="277" t="s">
         <v>178</v>
       </c>
-      <c r="C93" s="321">
+      <c r="C93" s="278">
         <f>SUM(C91:C92)</f>
         <v>12</v>
       </c>
@@ -10955,10 +10955,10 @@
     </row>
     <row r="94" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="22"/>
-      <c r="B94" s="259" t="s">
+      <c r="B94" s="273" t="s">
         <v>179</v>
       </c>
-      <c r="C94" s="260">
+      <c r="C94" s="274">
         <v>4</v>
       </c>
       <c r="D94" s="8"/>
@@ -10972,10 +10972,10 @@
     </row>
     <row r="95" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="22"/>
-      <c r="B95" s="320" t="s">
+      <c r="B95" s="277" t="s">
         <v>180</v>
       </c>
-      <c r="C95" s="321">
+      <c r="C95" s="278">
         <f>SUM(C85:C88,C93)</f>
         <v>22</v>
       </c>
@@ -10992,10 +10992,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="22"/>
-      <c r="B96" s="259" t="s">
+      <c r="B96" s="273" t="s">
         <v>181</v>
       </c>
-      <c r="C96" s="260">
+      <c r="C96" s="274">
         <v>3</v>
       </c>
       <c r="D96" s="8"/>
@@ -11009,10 +11009,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="22"/>
-      <c r="B97" s="259" t="s">
+      <c r="B97" s="273" t="s">
         <v>182</v>
       </c>
-      <c r="C97" s="260">
+      <c r="C97" s="274">
         <v>2</v>
       </c>
       <c r="D97" s="8"/>
@@ -11026,10 +11026,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="22"/>
-      <c r="B98" s="259" t="s">
+      <c r="B98" s="273" t="s">
         <v>183</v>
       </c>
-      <c r="C98" s="260">
+      <c r="C98" s="274">
         <v>5</v>
       </c>
       <c r="D98" s="8"/>
@@ -11043,10 +11043,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="22"/>
-      <c r="B99" s="259" t="s">
+      <c r="B99" s="273" t="s">
         <v>184</v>
       </c>
-      <c r="C99" s="260">
+      <c r="C99" s="274">
         <v>4</v>
       </c>
       <c r="D99" s="8"/>
@@ -11060,10 +11060,10 @@
     </row>
     <row r="100" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="22"/>
-      <c r="B100" s="259" t="s">
+      <c r="B100" s="273" t="s">
         <v>185</v>
       </c>
-      <c r="C100" s="260">
+      <c r="C100" s="274">
         <v>2</v>
       </c>
       <c r="D100" s="8"/>
@@ -11077,10 +11077,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="22"/>
-      <c r="B101" s="320" t="s">
+      <c r="B101" s="277" t="s">
         <v>186</v>
       </c>
-      <c r="C101" s="321">
+      <c r="C101" s="278">
         <f>SUM(C96:C100,C95)</f>
         <v>38</v>
       </c>
@@ -11099,10 +11099,10 @@
       <c r="A102" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="264" t="s">
+      <c r="B102" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="265"/>
+      <c r="C102" s="276"/>
       <c r="D102" s="8"/>
       <c r="E102" s="76">
         <v>3</v>
@@ -11116,10 +11116,10 @@
       <c r="A103" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="264" t="s">
+      <c r="B103" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="265"/>
+      <c r="C103" s="276"/>
       <c r="D103" s="8"/>
       <c r="E103" s="76">
         <v>4</v>
@@ -11133,10 +11133,10 @@
       <c r="A104" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="264" t="s">
+      <c r="B104" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="265"/>
+      <c r="C104" s="276"/>
       <c r="D104" s="8"/>
       <c r="E104" s="76">
         <v>5</v>
@@ -11150,10 +11150,10 @@
       <c r="A105" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="264" t="s">
+      <c r="B105" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="265"/>
+      <c r="C105" s="276"/>
       <c r="D105" s="8"/>
       <c r="E105" s="76">
         <v>5</v>
@@ -11167,10 +11167,10 @@
       <c r="A106" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="264" t="s">
+      <c r="B106" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="265"/>
+      <c r="C106" s="276"/>
       <c r="D106" s="8"/>
       <c r="E106" s="76">
         <v>2</v>
@@ -11184,10 +11184,10 @@
       <c r="A107" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="264" t="s">
+      <c r="B107" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="265"/>
+      <c r="C107" s="276"/>
       <c r="D107" s="8"/>
       <c r="E107" s="76">
         <v>10</v>
@@ -11201,10 +11201,10 @@
       <c r="A108" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="271" t="s">
+      <c r="B108" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="272"/>
+      <c r="C108" s="282"/>
       <c r="D108" s="9"/>
       <c r="E108" s="83">
         <v>4</v>
@@ -11215,10 +11215,10 @@
       <c r="G108" s="41"/>
     </row>
     <row r="109" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="227" t="s">
+      <c r="B109" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="229"/>
+      <c r="C109" s="241"/>
       <c r="E109" s="84">
         <f>SUM(E101:E108,E83)</f>
         <v>169</v>
@@ -11229,10 +11229,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="227" t="s">
+      <c r="B110" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="229"/>
+      <c r="C110" s="241"/>
       <c r="E110" s="84">
         <f>SUM(E63,E109)</f>
         <v>503</v>
@@ -11260,48 +11260,48 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="227" t="s">
+      <c r="B113" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="228"/>
-      <c r="D113" s="228"/>
-      <c r="E113" s="228"/>
-      <c r="F113" s="228"/>
-      <c r="G113" s="229"/>
+      <c r="C113" s="240"/>
+      <c r="D113" s="240"/>
+      <c r="E113" s="240"/>
+      <c r="F113" s="240"/>
+      <c r="G113" s="241"/>
     </row>
     <row r="114" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="227" t="s">
+      <c r="B114" s="239" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="228"/>
-      <c r="D114" s="228"/>
-      <c r="E114" s="228"/>
-      <c r="F114" s="228"/>
-      <c r="G114" s="229"/>
+      <c r="C114" s="240"/>
+      <c r="D114" s="240"/>
+      <c r="E114" s="240"/>
+      <c r="F114" s="240"/>
+      <c r="G114" s="241"/>
     </row>
     <row r="115" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="266" t="s">
+      <c r="B115" s="283" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="267"/>
+      <c r="C115" s="284"/>
       <c r="D115" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E115" s="261" t="s">
+      <c r="E115" s="270" t="s">
         <v>286</v>
       </c>
-      <c r="F115" s="262"/>
-      <c r="G115" s="263"/>
+      <c r="F115" s="271"/>
+      <c r="G115" s="272"/>
     </row>
     <row r="116" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="22"/>
-      <c r="B116" s="259" t="s">
+      <c r="B116" s="273" t="s">
         <v>252</v>
       </c>
-      <c r="C116" s="260">
+      <c r="C116" s="274">
         <v>1</v>
       </c>
       <c r="D116" s="8"/>
@@ -11315,10 +11315,10 @@
     </row>
     <row r="117" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="22"/>
-      <c r="B117" s="259" t="s">
+      <c r="B117" s="273" t="s">
         <v>253</v>
       </c>
-      <c r="C117" s="260">
+      <c r="C117" s="274">
         <v>2</v>
       </c>
       <c r="D117" s="8"/>
@@ -11332,10 +11332,10 @@
     </row>
     <row r="118" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="22"/>
-      <c r="B118" s="320" t="s">
+      <c r="B118" s="277" t="s">
         <v>254</v>
       </c>
-      <c r="C118" s="321">
+      <c r="C118" s="278">
         <f>SUM(C116:C117)</f>
         <v>3</v>
       </c>
@@ -11354,25 +11354,25 @@
       <c r="A119" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="269" t="s">
+      <c r="B119" s="279" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="270"/>
+      <c r="C119" s="280"/>
       <c r="D119" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E119" s="261" t="s">
+      <c r="E119" s="270" t="s">
         <v>286</v>
       </c>
-      <c r="F119" s="262"/>
-      <c r="G119" s="263"/>
+      <c r="F119" s="271"/>
+      <c r="G119" s="272"/>
     </row>
     <row r="120" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="22"/>
-      <c r="B120" s="259" t="s">
+      <c r="B120" s="273" t="s">
         <v>255</v>
       </c>
-      <c r="C120" s="260">
+      <c r="C120" s="274">
         <v>3</v>
       </c>
       <c r="D120" s="8"/>
@@ -11386,10 +11386,10 @@
     </row>
     <row r="121" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="22"/>
-      <c r="B121" s="259" t="s">
+      <c r="B121" s="273" t="s">
         <v>256</v>
       </c>
-      <c r="C121" s="260">
+      <c r="C121" s="274">
         <v>4</v>
       </c>
       <c r="D121" s="8"/>
@@ -11403,10 +11403,10 @@
     </row>
     <row r="122" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="22"/>
-      <c r="B122" s="320" t="s">
+      <c r="B122" s="277" t="s">
         <v>257</v>
       </c>
-      <c r="C122" s="321">
+      <c r="C122" s="278">
         <f>SUM(C120:C121)</f>
         <v>7</v>
       </c>
@@ -11425,10 +11425,10 @@
       <c r="A123" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="264" t="s">
+      <c r="B123" s="275" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="265"/>
+      <c r="C123" s="276"/>
       <c r="D123" s="8" t="s">
         <v>130</v>
       </c>
@@ -11446,10 +11446,10 @@
       <c r="A124" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B124" s="264" t="s">
+      <c r="B124" s="275" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="265"/>
+      <c r="C124" s="276"/>
       <c r="D124" s="8"/>
       <c r="E124" s="76">
         <v>5</v>
@@ -11463,10 +11463,10 @@
       <c r="A125" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B125" s="264" t="s">
+      <c r="B125" s="275" t="s">
         <v>38</v>
       </c>
-      <c r="C125" s="265"/>
+      <c r="C125" s="276"/>
       <c r="D125" s="8" t="s">
         <v>131</v>
       </c>
@@ -11484,25 +11484,25 @@
       <c r="A126" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B126" s="269" t="s">
+      <c r="B126" s="279" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="270"/>
+      <c r="C126" s="280"/>
       <c r="D126" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E126" s="261" t="s">
+      <c r="E126" s="270" t="s">
         <v>286</v>
       </c>
-      <c r="F126" s="262"/>
-      <c r="G126" s="263"/>
+      <c r="F126" s="271"/>
+      <c r="G126" s="272"/>
     </row>
     <row r="127" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="22"/>
-      <c r="B127" s="259" t="s">
+      <c r="B127" s="273" t="s">
         <v>266</v>
       </c>
-      <c r="C127" s="260">
+      <c r="C127" s="274">
         <v>1</v>
       </c>
       <c r="D127" s="8"/>
@@ -11516,10 +11516,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="22"/>
-      <c r="B128" s="259" t="s">
+      <c r="B128" s="273" t="s">
         <v>267</v>
       </c>
-      <c r="C128" s="260">
+      <c r="C128" s="274">
         <v>4</v>
       </c>
       <c r="D128" s="8"/>
@@ -11533,10 +11533,10 @@
     </row>
     <row r="129" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="22"/>
-      <c r="B129" s="259" t="s">
+      <c r="B129" s="273" t="s">
         <v>268</v>
       </c>
-      <c r="C129" s="260">
+      <c r="C129" s="274">
         <v>2</v>
       </c>
       <c r="D129" s="8"/>
@@ -11550,10 +11550,10 @@
     </row>
     <row r="130" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="23"/>
-      <c r="B130" s="320" t="s">
+      <c r="B130" s="277" t="s">
         <v>269</v>
       </c>
-      <c r="C130" s="321">
+      <c r="C130" s="278">
         <f>SUM(C127:C129)</f>
         <v>7</v>
       </c>
@@ -11570,10 +11570,10 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
-      <c r="B131" s="227" t="s">
+      <c r="B131" s="239" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="229"/>
+      <c r="C131" s="241"/>
       <c r="D131" s="85"/>
       <c r="E131" s="200">
         <f>SUM(E130,E118,E122:E125)</f>
@@ -11588,10 +11588,10 @@
       <c r="A132" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B132" s="241" t="s">
+      <c r="B132" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="C132" s="242"/>
+      <c r="C132" s="246"/>
       <c r="D132" s="86"/>
       <c r="E132" s="83">
         <v>3</v>
@@ -11601,10 +11601,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="227" t="s">
+      <c r="B133" s="239" t="s">
         <v>42</v>
       </c>
-      <c r="C133" s="229"/>
+      <c r="C133" s="241"/>
       <c r="E133" s="79">
         <f>SUM(E131,E132)</f>
         <v>29</v>
@@ -11632,33 +11632,33 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="227" t="s">
+      <c r="B136" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="228"/>
-      <c r="D136" s="228"/>
-      <c r="E136" s="228"/>
-      <c r="F136" s="228"/>
-      <c r="G136" s="229"/>
+      <c r="C136" s="240"/>
+      <c r="D136" s="240"/>
+      <c r="E136" s="240"/>
+      <c r="F136" s="240"/>
+      <c r="G136" s="241"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="243" t="s">
+      <c r="B137" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="244"/>
-      <c r="D137" s="244"/>
-      <c r="E137" s="244"/>
-      <c r="F137" s="244"/>
-      <c r="G137" s="244"/>
+      <c r="C137" s="248"/>
+      <c r="D137" s="248"/>
+      <c r="E137" s="248"/>
+      <c r="F137" s="248"/>
+      <c r="G137" s="248"/>
     </row>
     <row r="138" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B138" s="264" t="s">
+      <c r="B138" s="275" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="265"/>
+      <c r="C138" s="276"/>
       <c r="D138" s="7"/>
       <c r="E138" s="80">
         <v>2</v>
@@ -11672,25 +11672,25 @@
       <c r="A139" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B139" s="269" t="s">
+      <c r="B139" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="270"/>
+      <c r="C139" s="280"/>
       <c r="D139" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E139" s="261" t="s">
+      <c r="E139" s="270" t="s">
         <v>287</v>
       </c>
-      <c r="F139" s="262"/>
-      <c r="G139" s="263"/>
+      <c r="F139" s="271"/>
+      <c r="G139" s="272"/>
     </row>
     <row r="140" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="22"/>
-      <c r="B140" s="259" t="s">
+      <c r="B140" s="273" t="s">
         <v>46</v>
       </c>
-      <c r="C140" s="260"/>
+      <c r="C140" s="274"/>
       <c r="D140" s="8"/>
       <c r="E140" s="76">
         <v>2</v>
@@ -11702,10 +11702,10 @@
     </row>
     <row r="141" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="22"/>
-      <c r="B141" s="259" t="s">
+      <c r="B141" s="273" t="s">
         <v>519</v>
       </c>
-      <c r="C141" s="260"/>
+      <c r="C141" s="274"/>
       <c r="D141" s="8"/>
       <c r="E141" s="76">
         <v>3</v>
@@ -11717,10 +11717,10 @@
     </row>
     <row r="142" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="22"/>
-      <c r="B142" s="259" t="s">
+      <c r="B142" s="273" t="s">
         <v>521</v>
       </c>
-      <c r="C142" s="260"/>
+      <c r="C142" s="274"/>
       <c r="D142" s="8"/>
       <c r="E142" s="76">
         <v>2</v>
@@ -11732,10 +11732,10 @@
     </row>
     <row r="143" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="22"/>
-      <c r="B143" s="259" t="s">
+      <c r="B143" s="273" t="s">
         <v>520</v>
       </c>
-      <c r="C143" s="260"/>
+      <c r="C143" s="274"/>
       <c r="D143" s="8"/>
       <c r="E143" s="76">
         <v>2</v>
@@ -11747,10 +11747,10 @@
     </row>
     <row r="144" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="22"/>
-      <c r="B144" s="259" t="s">
+      <c r="B144" s="273" t="s">
         <v>522</v>
       </c>
-      <c r="C144" s="260"/>
+      <c r="C144" s="274"/>
       <c r="D144" s="8"/>
       <c r="E144" s="76">
         <v>4</v>
@@ -11762,10 +11762,10 @@
     </row>
     <row r="145" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="22"/>
-      <c r="B145" s="320" t="s">
+      <c r="B145" s="277" t="s">
         <v>270</v>
       </c>
-      <c r="C145" s="321">
+      <c r="C145" s="278">
         <f>SUM(C140:C144)</f>
         <v>0</v>
       </c>
@@ -11782,10 +11782,10 @@
     </row>
     <row r="146" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="22"/>
-      <c r="B146" s="259" t="s">
+      <c r="B146" s="273" t="s">
         <v>523</v>
       </c>
-      <c r="C146" s="260">
+      <c r="C146" s="274">
         <v>5</v>
       </c>
       <c r="D146" s="8"/>
@@ -11799,10 +11799,10 @@
     </row>
     <row r="147" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="22"/>
-      <c r="B147" s="259" t="s">
+      <c r="B147" s="273" t="s">
         <v>524</v>
       </c>
-      <c r="C147" s="260"/>
+      <c r="C147" s="274"/>
       <c r="D147" s="8"/>
       <c r="E147" s="76">
         <v>5</v>
@@ -11814,10 +11814,10 @@
     </row>
     <row r="148" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="22"/>
-      <c r="B148" s="320" t="s">
+      <c r="B148" s="277" t="s">
         <v>271</v>
       </c>
-      <c r="C148" s="321">
+      <c r="C148" s="278">
         <f>SUM(C146:C147)</f>
         <v>5</v>
       </c>
@@ -11834,10 +11834,10 @@
     </row>
     <row r="149" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="22"/>
-      <c r="B149" s="259" t="s">
+      <c r="B149" s="273" t="s">
         <v>525</v>
       </c>
-      <c r="C149" s="260"/>
+      <c r="C149" s="274"/>
       <c r="D149" s="8"/>
       <c r="E149" s="76">
         <v>1</v>
@@ -11849,10 +11849,10 @@
     </row>
     <row r="150" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="22"/>
-      <c r="B150" s="259" t="s">
+      <c r="B150" s="273" t="s">
         <v>526</v>
       </c>
-      <c r="C150" s="260"/>
+      <c r="C150" s="274"/>
       <c r="D150" s="8"/>
       <c r="E150" s="76">
         <v>4</v>
@@ -11864,10 +11864,10 @@
     </row>
     <row r="151" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="22"/>
-      <c r="B151" s="259" t="s">
+      <c r="B151" s="273" t="s">
         <v>527</v>
       </c>
-      <c r="C151" s="260"/>
+      <c r="C151" s="274"/>
       <c r="D151" s="8"/>
       <c r="E151" s="76">
         <v>1</v>
@@ -11879,10 +11879,10 @@
     </row>
     <row r="152" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="22"/>
-      <c r="B152" s="320" t="s">
+      <c r="B152" s="277" t="s">
         <v>272</v>
       </c>
-      <c r="C152" s="321">
+      <c r="C152" s="278">
         <f>SUM(C149:C151)</f>
         <v>0</v>
       </c>
@@ -11899,10 +11899,10 @@
     </row>
     <row r="153" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="22"/>
-      <c r="B153" s="320" t="s">
+      <c r="B153" s="277" t="s">
         <v>273</v>
       </c>
-      <c r="C153" s="321">
+      <c r="C153" s="278">
         <v>1</v>
       </c>
       <c r="D153" s="8"/>
@@ -11916,10 +11916,10 @@
     </row>
     <row r="154" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="22"/>
-      <c r="B154" s="320" t="s">
+      <c r="B154" s="277" t="s">
         <v>528</v>
       </c>
-      <c r="C154" s="321">
+      <c r="C154" s="278">
         <f>SUM(C145,C148,C152,C153)</f>
         <v>6</v>
       </c>
@@ -11938,10 +11938,10 @@
       <c r="A155" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="B155" s="264" t="s">
+      <c r="B155" s="275" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="265"/>
+      <c r="C155" s="276"/>
       <c r="D155" s="9"/>
       <c r="E155" s="83">
         <v>2</v>
@@ -11970,25 +11970,25 @@
       <c r="A157" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B157" s="266" t="s">
+      <c r="B157" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="267"/>
+      <c r="C157" s="284"/>
       <c r="D157" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E157" s="261" t="s">
+      <c r="E157" s="270" t="s">
         <v>288</v>
       </c>
-      <c r="F157" s="262"/>
-      <c r="G157" s="263"/>
+      <c r="F157" s="271"/>
+      <c r="G157" s="272"/>
     </row>
     <row r="158" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="22"/>
-      <c r="B158" s="259" t="s">
+      <c r="B158" s="273" t="s">
         <v>230</v>
       </c>
-      <c r="C158" s="260">
+      <c r="C158" s="274">
         <v>2</v>
       </c>
       <c r="D158" s="8"/>
@@ -12002,10 +12002,10 @@
     </row>
     <row r="159" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="22"/>
-      <c r="B159" s="259" t="s">
+      <c r="B159" s="273" t="s">
         <v>231</v>
       </c>
-      <c r="C159" s="260">
+      <c r="C159" s="274">
         <v>4</v>
       </c>
       <c r="D159" s="8"/>
@@ -12019,10 +12019,10 @@
     </row>
     <row r="160" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="22"/>
-      <c r="B160" s="259" t="s">
+      <c r="B160" s="273" t="s">
         <v>232</v>
       </c>
-      <c r="C160" s="260">
+      <c r="C160" s="274">
         <v>2</v>
       </c>
       <c r="D160" s="8"/>
@@ -12036,10 +12036,10 @@
     </row>
     <row r="161" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="22"/>
-      <c r="B161" s="259" t="s">
+      <c r="B161" s="273" t="s">
         <v>233</v>
       </c>
-      <c r="C161" s="260">
+      <c r="C161" s="274">
         <v>3</v>
       </c>
       <c r="D161" s="8"/>
@@ -12053,10 +12053,10 @@
     </row>
     <row r="162" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="22"/>
-      <c r="B162" s="259" t="s">
+      <c r="B162" s="273" t="s">
         <v>249</v>
       </c>
-      <c r="C162" s="260"/>
+      <c r="C162" s="274"/>
       <c r="D162" s="8"/>
       <c r="E162" s="76">
         <v>4</v>
@@ -12068,10 +12068,10 @@
     </row>
     <row r="163" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="22"/>
-      <c r="B163" s="259" t="s">
+      <c r="B163" s="273" t="s">
         <v>250</v>
       </c>
-      <c r="C163" s="260"/>
+      <c r="C163" s="274"/>
       <c r="D163" s="8"/>
       <c r="E163" s="76">
         <v>3</v>
@@ -12083,10 +12083,10 @@
     </row>
     <row r="164" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="22"/>
-      <c r="B164" s="259" t="s">
+      <c r="B164" s="273" t="s">
         <v>251</v>
       </c>
-      <c r="C164" s="260"/>
+      <c r="C164" s="274"/>
       <c r="D164" s="8"/>
       <c r="E164" s="76">
         <v>1</v>
@@ -12098,10 +12098,10 @@
     </row>
     <row r="165" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="22"/>
-      <c r="B165" s="259" t="s">
+      <c r="B165" s="273" t="s">
         <v>234</v>
       </c>
-      <c r="C165" s="260">
+      <c r="C165" s="274">
         <v>4</v>
       </c>
       <c r="D165" s="8"/>
@@ -12115,10 +12115,10 @@
     </row>
     <row r="166" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="22"/>
-      <c r="B166" s="259" t="s">
+      <c r="B166" s="273" t="s">
         <v>235</v>
       </c>
-      <c r="C166" s="260">
+      <c r="C166" s="274">
         <v>5</v>
       </c>
       <c r="D166" s="8"/>
@@ -12132,10 +12132,10 @@
     </row>
     <row r="167" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="22"/>
-      <c r="B167" s="320" t="s">
+      <c r="B167" s="277" t="s">
         <v>236</v>
       </c>
-      <c r="C167" s="321">
+      <c r="C167" s="278">
         <f>SUM(C165:C166)</f>
         <v>9</v>
       </c>
@@ -12152,10 +12152,10 @@
     </row>
     <row r="168" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="22"/>
-      <c r="B168" s="259" t="s">
+      <c r="B168" s="273" t="s">
         <v>237</v>
       </c>
-      <c r="C168" s="260">
+      <c r="C168" s="274">
         <v>4</v>
       </c>
       <c r="D168" s="8"/>
@@ -12169,10 +12169,10 @@
     </row>
     <row r="169" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="22"/>
-      <c r="B169" s="259" t="s">
+      <c r="B169" s="273" t="s">
         <v>238</v>
       </c>
-      <c r="C169" s="260">
+      <c r="C169" s="274">
         <v>7</v>
       </c>
       <c r="D169" s="8"/>
@@ -12186,10 +12186,10 @@
     </row>
     <row r="170" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="22"/>
-      <c r="B170" s="259" t="s">
+      <c r="B170" s="273" t="s">
         <v>239</v>
       </c>
-      <c r="C170" s="260">
+      <c r="C170" s="274">
         <v>9</v>
       </c>
       <c r="D170" s="8"/>
@@ -12203,10 +12203,10 @@
     </row>
     <row r="171" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="22"/>
-      <c r="B171" s="320" t="s">
+      <c r="B171" s="277" t="s">
         <v>240</v>
       </c>
-      <c r="C171" s="321">
+      <c r="C171" s="278">
         <f>SUM(C168:C170)</f>
         <v>20</v>
       </c>
@@ -12223,10 +12223,10 @@
     </row>
     <row r="172" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="22"/>
-      <c r="B172" s="259" t="s">
+      <c r="B172" s="273" t="s">
         <v>241</v>
       </c>
-      <c r="C172" s="260">
+      <c r="C172" s="274">
         <v>5</v>
       </c>
       <c r="D172" s="8"/>
@@ -12240,10 +12240,10 @@
     </row>
     <row r="173" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="22"/>
-      <c r="B173" s="320" t="s">
+      <c r="B173" s="277" t="s">
         <v>242</v>
       </c>
-      <c r="C173" s="321">
+      <c r="C173" s="278">
         <f>SUM(C172)</f>
         <v>5</v>
       </c>
@@ -12260,10 +12260,10 @@
     </row>
     <row r="174" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="22"/>
-      <c r="B174" s="259" t="s">
+      <c r="B174" s="273" t="s">
         <v>243</v>
       </c>
-      <c r="C174" s="260">
+      <c r="C174" s="274">
         <v>4</v>
       </c>
       <c r="D174" s="8"/>
@@ -12277,10 +12277,10 @@
     </row>
     <row r="175" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="22"/>
-      <c r="B175" s="259" t="s">
+      <c r="B175" s="273" t="s">
         <v>244</v>
       </c>
-      <c r="C175" s="260">
+      <c r="C175" s="274">
         <v>5</v>
       </c>
       <c r="D175" s="8"/>
@@ -12294,10 +12294,10 @@
     </row>
     <row r="176" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="22"/>
-      <c r="B176" s="259" t="s">
+      <c r="B176" s="273" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="260">
+      <c r="C176" s="274">
         <v>6</v>
       </c>
       <c r="D176" s="8"/>
@@ -12311,10 +12311,10 @@
     </row>
     <row r="177" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="22"/>
-      <c r="B177" s="259" t="s">
+      <c r="B177" s="273" t="s">
         <v>246</v>
       </c>
-      <c r="C177" s="260">
+      <c r="C177" s="274">
         <v>7</v>
       </c>
       <c r="D177" s="8"/>
@@ -12328,10 +12328,10 @@
     </row>
     <row r="178" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="22"/>
-      <c r="B178" s="259" t="s">
+      <c r="B178" s="273" t="s">
         <v>247</v>
       </c>
-      <c r="C178" s="260">
+      <c r="C178" s="274">
         <v>1</v>
       </c>
       <c r="D178" s="8"/>
@@ -12345,10 +12345,10 @@
     </row>
     <row r="179" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="22"/>
-      <c r="B179" s="320" t="s">
+      <c r="B179" s="277" t="s">
         <v>248</v>
       </c>
-      <c r="C179" s="321">
+      <c r="C179" s="278">
         <f>SUM(C174:C178,C158:C161,C167,C171,C173)</f>
         <v>68</v>
       </c>
@@ -12367,10 +12367,10 @@
       <c r="A180" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="B180" s="264" t="s">
+      <c r="B180" s="275" t="s">
         <v>50</v>
       </c>
-      <c r="C180" s="265"/>
+      <c r="C180" s="276"/>
       <c r="D180" s="8"/>
       <c r="E180" s="76">
         <v>4</v>
@@ -12384,10 +12384,10 @@
       <c r="A181" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="B181" s="264" t="s">
+      <c r="B181" s="275" t="s">
         <v>51</v>
       </c>
-      <c r="C181" s="265"/>
+      <c r="C181" s="276"/>
       <c r="D181" s="8"/>
       <c r="E181" s="76">
         <v>4</v>
@@ -12401,10 +12401,10 @@
       <c r="A182" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="B182" s="264" t="s">
+      <c r="B182" s="275" t="s">
         <v>52</v>
       </c>
-      <c r="C182" s="265"/>
+      <c r="C182" s="276"/>
       <c r="D182" s="8"/>
       <c r="E182" s="76">
         <v>1</v>
@@ -12418,10 +12418,10 @@
       <c r="A183" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B183" s="264" t="s">
+      <c r="B183" s="275" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="265"/>
+      <c r="C183" s="276"/>
       <c r="D183" s="8"/>
       <c r="E183" s="76">
         <v>2</v>
@@ -12435,10 +12435,10 @@
       <c r="A184" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B184" s="271" t="s">
+      <c r="B184" s="281" t="s">
         <v>54</v>
       </c>
-      <c r="C184" s="272"/>
+      <c r="C184" s="282"/>
       <c r="D184" s="9"/>
       <c r="E184" s="83">
         <v>1</v>
@@ -12449,10 +12449,10 @@
       <c r="G184" s="41"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="227" t="s">
+      <c r="B185" s="239" t="s">
         <v>55</v>
       </c>
-      <c r="C185" s="229"/>
+      <c r="C185" s="241"/>
       <c r="E185" s="79">
         <f>SUM(E156:E184)</f>
         <v>302</v>
@@ -12482,23 +12482,23 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="227" t="s">
+      <c r="B189" s="239" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="228"/>
-      <c r="D189" s="228"/>
-      <c r="E189" s="228"/>
-      <c r="F189" s="228"/>
-      <c r="G189" s="228"/>
+      <c r="C189" s="240"/>
+      <c r="D189" s="240"/>
+      <c r="E189" s="240"/>
+      <c r="F189" s="240"/>
+      <c r="G189" s="240"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B190" s="264" t="s">
+      <c r="B190" s="275" t="s">
         <v>57</v>
       </c>
-      <c r="C190" s="265"/>
+      <c r="C190" s="276"/>
       <c r="D190" s="7"/>
       <c r="E190" s="80">
         <v>1</v>
@@ -12512,10 +12512,10 @@
       <c r="A191" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B191" s="269" t="s">
+      <c r="B191" s="279" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="270"/>
+      <c r="C191" s="280"/>
       <c r="D191" s="8" t="s">
         <v>312</v>
       </c>
@@ -12531,10 +12531,10 @@
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="22"/>
-      <c r="B192" s="259" t="s">
+      <c r="B192" s="273" t="s">
         <v>519</v>
       </c>
-      <c r="C192" s="260"/>
+      <c r="C192" s="274"/>
       <c r="D192" s="8"/>
       <c r="E192" s="76">
         <v>2</v>
@@ -12546,10 +12546,10 @@
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="22"/>
-      <c r="B193" s="259" t="s">
+      <c r="B193" s="273" t="s">
         <v>521</v>
       </c>
-      <c r="C193" s="260"/>
+      <c r="C193" s="274"/>
       <c r="D193" s="8"/>
       <c r="E193" s="76">
         <v>1</v>
@@ -12561,10 +12561,10 @@
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="22"/>
-      <c r="B194" s="259" t="s">
+      <c r="B194" s="273" t="s">
         <v>520</v>
       </c>
-      <c r="C194" s="260"/>
+      <c r="C194" s="274"/>
       <c r="D194" s="8"/>
       <c r="E194" s="76">
         <v>2</v>
@@ -12576,10 +12576,10 @@
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="22"/>
-      <c r="B195" s="259" t="s">
+      <c r="B195" s="273" t="s">
         <v>522</v>
       </c>
-      <c r="C195" s="260"/>
+      <c r="C195" s="274"/>
       <c r="D195" s="8"/>
       <c r="E195" s="76">
         <v>3</v>
@@ -12591,10 +12591,10 @@
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="22"/>
-      <c r="B196" s="259" t="s">
+      <c r="B196" s="273" t="s">
         <v>270</v>
       </c>
-      <c r="C196" s="260">
+      <c r="C196" s="274">
         <f>SUM(C192:C195)</f>
         <v>0</v>
       </c>
@@ -12609,10 +12609,10 @@
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="22"/>
-      <c r="B197" s="259" t="s">
+      <c r="B197" s="273" t="s">
         <v>523</v>
       </c>
-      <c r="C197" s="260">
+      <c r="C197" s="274">
         <v>5</v>
       </c>
       <c r="D197" s="8"/>
@@ -12626,10 +12626,10 @@
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="22"/>
-      <c r="B198" s="259" t="s">
+      <c r="B198" s="273" t="s">
         <v>524</v>
       </c>
-      <c r="C198" s="260"/>
+      <c r="C198" s="274"/>
       <c r="D198" s="8"/>
       <c r="E198" s="76">
         <v>1</v>
@@ -12641,10 +12641,10 @@
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="22"/>
-      <c r="B199" s="259" t="s">
+      <c r="B199" s="273" t="s">
         <v>271</v>
       </c>
-      <c r="C199" s="260">
+      <c r="C199" s="274">
         <f>SUM(C197:C198)</f>
         <v>5</v>
       </c>
@@ -12659,10 +12659,10 @@
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="22"/>
-      <c r="B200" s="259" t="s">
+      <c r="B200" s="273" t="s">
         <v>525</v>
       </c>
-      <c r="C200" s="260"/>
+      <c r="C200" s="274"/>
       <c r="D200" s="8"/>
       <c r="E200" s="76">
         <v>4</v>
@@ -12674,10 +12674,10 @@
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="22"/>
-      <c r="B201" s="259" t="s">
+      <c r="B201" s="273" t="s">
         <v>526</v>
       </c>
-      <c r="C201" s="260"/>
+      <c r="C201" s="274"/>
       <c r="D201" s="8"/>
       <c r="E201" s="76">
         <v>1</v>
@@ -12689,10 +12689,10 @@
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="22"/>
-      <c r="B202" s="259" t="s">
+      <c r="B202" s="273" t="s">
         <v>527</v>
       </c>
-      <c r="C202" s="260"/>
+      <c r="C202" s="274"/>
       <c r="D202" s="8"/>
       <c r="E202" s="76">
         <v>2</v>
@@ -12704,10 +12704,10 @@
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="22"/>
-      <c r="B203" s="259" t="s">
+      <c r="B203" s="273" t="s">
         <v>272</v>
       </c>
-      <c r="C203" s="260">
+      <c r="C203" s="274">
         <f>SUM(C200:C202)</f>
         <v>0</v>
       </c>
@@ -12722,10 +12722,10 @@
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="22"/>
-      <c r="B204" s="259" t="s">
+      <c r="B204" s="273" t="s">
         <v>273</v>
       </c>
-      <c r="C204" s="260">
+      <c r="C204" s="274">
         <v>1</v>
       </c>
       <c r="D204" s="8"/>
@@ -12739,10 +12739,10 @@
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="22"/>
-      <c r="B205" s="320" t="s">
+      <c r="B205" s="277" t="s">
         <v>291</v>
       </c>
-      <c r="C205" s="321">
+      <c r="C205" s="278">
         <f>SUM(C196,C199,C203,C204)</f>
         <v>6</v>
       </c>
@@ -12759,10 +12759,10 @@
       <c r="A206" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B206" s="264" t="s">
+      <c r="B206" s="275" t="s">
         <v>59</v>
       </c>
-      <c r="C206" s="265"/>
+      <c r="C206" s="276"/>
       <c r="D206" s="9"/>
       <c r="E206" s="83">
         <v>4</v>
@@ -12773,10 +12773,10 @@
       <c r="G206" s="41"/>
     </row>
     <row r="207" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="227" t="s">
+      <c r="B207" s="239" t="s">
         <v>60</v>
       </c>
-      <c r="C207" s="229"/>
+      <c r="C207" s="241"/>
       <c r="D207" s="90"/>
       <c r="E207" s="77">
         <f>SUM(E190:E206)</f>
@@ -12791,25 +12791,25 @@
       <c r="A208" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B208" s="266" t="s">
+      <c r="B208" s="283" t="s">
         <v>61</v>
       </c>
-      <c r="C208" s="267"/>
+      <c r="C208" s="284"/>
       <c r="D208" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E208" s="261" t="s">
+      <c r="E208" s="270" t="s">
         <v>288</v>
       </c>
-      <c r="F208" s="262"/>
-      <c r="G208" s="263"/>
+      <c r="F208" s="271"/>
+      <c r="G208" s="272"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="22"/>
-      <c r="B209" s="259" t="s">
+      <c r="B209" s="273" t="s">
         <v>207</v>
       </c>
-      <c r="C209" s="260">
+      <c r="C209" s="274">
         <v>4</v>
       </c>
       <c r="D209" s="8"/>
@@ -12823,10 +12823,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="22"/>
-      <c r="B210" s="259" t="s">
+      <c r="B210" s="273" t="s">
         <v>208</v>
       </c>
-      <c r="C210" s="260">
+      <c r="C210" s="274">
         <v>6</v>
       </c>
       <c r="D210" s="8"/>
@@ -12840,10 +12840,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="22"/>
-      <c r="B211" s="259" t="s">
+      <c r="B211" s="273" t="s">
         <v>209</v>
       </c>
-      <c r="C211" s="260">
+      <c r="C211" s="274">
         <v>7</v>
       </c>
       <c r="D211" s="8"/>
@@ -12857,10 +12857,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="22"/>
-      <c r="B212" s="259" t="s">
+      <c r="B212" s="273" t="s">
         <v>210</v>
       </c>
-      <c r="C212" s="260">
+      <c r="C212" s="274">
         <v>9</v>
       </c>
       <c r="D212" s="8"/>
@@ -12874,10 +12874,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="22"/>
-      <c r="B213" s="259" t="s">
+      <c r="B213" s="273" t="s">
         <v>227</v>
       </c>
-      <c r="C213" s="260"/>
+      <c r="C213" s="274"/>
       <c r="D213" s="8"/>
       <c r="E213" s="76">
         <v>5</v>
@@ -12889,10 +12889,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="22"/>
-      <c r="B214" s="259" t="s">
+      <c r="B214" s="273" t="s">
         <v>228</v>
       </c>
-      <c r="C214" s="260"/>
+      <c r="C214" s="274"/>
       <c r="D214" s="8"/>
       <c r="E214" s="76">
         <v>7</v>
@@ -12904,10 +12904,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="22"/>
-      <c r="B215" s="259" t="s">
+      <c r="B215" s="273" t="s">
         <v>229</v>
       </c>
-      <c r="C215" s="260">
+      <c r="C215" s="274">
         <v>6</v>
       </c>
       <c r="D215" s="8"/>
@@ -12921,10 +12921,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="22"/>
-      <c r="B216" s="259" t="s">
+      <c r="B216" s="273" t="s">
         <v>211</v>
       </c>
-      <c r="C216" s="260">
+      <c r="C216" s="274">
         <v>5</v>
       </c>
       <c r="D216" s="8"/>
@@ -12938,10 +12938,10 @@
     </row>
     <row r="217" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="22"/>
-      <c r="B217" s="259" t="s">
+      <c r="B217" s="273" t="s">
         <v>212</v>
       </c>
-      <c r="C217" s="260">
+      <c r="C217" s="274">
         <v>3</v>
       </c>
       <c r="D217" s="8"/>
@@ -12955,10 +12955,10 @@
     </row>
     <row r="218" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="22"/>
-      <c r="B218" s="320" t="s">
+      <c r="B218" s="277" t="s">
         <v>213</v>
       </c>
-      <c r="C218" s="321">
+      <c r="C218" s="278">
         <f>SUM(C215:C217)</f>
         <v>14</v>
       </c>
@@ -12975,10 +12975,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="22"/>
-      <c r="B219" s="259" t="s">
+      <c r="B219" s="273" t="s">
         <v>214</v>
       </c>
-      <c r="C219" s="260">
+      <c r="C219" s="274">
         <v>5</v>
       </c>
       <c r="D219" s="8"/>
@@ -12992,10 +12992,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="22"/>
-      <c r="B220" s="259" t="s">
+      <c r="B220" s="273" t="s">
         <v>215</v>
       </c>
-      <c r="C220" s="260">
+      <c r="C220" s="274">
         <v>6</v>
       </c>
       <c r="D220" s="8"/>
@@ -13009,10 +13009,10 @@
     </row>
     <row r="221" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="22"/>
-      <c r="B221" s="259" t="s">
+      <c r="B221" s="273" t="s">
         <v>216</v>
       </c>
-      <c r="C221" s="260">
+      <c r="C221" s="274">
         <v>7</v>
       </c>
       <c r="D221" s="8"/>
@@ -13026,10 +13026,10 @@
     </row>
     <row r="222" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="22"/>
-      <c r="B222" s="320" t="s">
+      <c r="B222" s="277" t="s">
         <v>217</v>
       </c>
-      <c r="C222" s="321">
+      <c r="C222" s="278">
         <f>SUM(C219:C221)</f>
         <v>18</v>
       </c>
@@ -13046,10 +13046,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="22"/>
-      <c r="B223" s="259" t="s">
+      <c r="B223" s="273" t="s">
         <v>218</v>
       </c>
-      <c r="C223" s="260">
+      <c r="C223" s="274">
         <v>3</v>
       </c>
       <c r="D223" s="8"/>
@@ -13063,10 +13063,10 @@
     </row>
     <row r="224" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="22"/>
-      <c r="B224" s="259" t="s">
+      <c r="B224" s="273" t="s">
         <v>219</v>
       </c>
-      <c r="C224" s="260">
+      <c r="C224" s="274">
         <v>2</v>
       </c>
       <c r="D224" s="8"/>
@@ -13080,10 +13080,10 @@
     </row>
     <row r="225" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="22"/>
-      <c r="B225" s="320" t="s">
+      <c r="B225" s="277" t="s">
         <v>220</v>
       </c>
-      <c r="C225" s="321">
+      <c r="C225" s="278">
         <f>SUM(C223:C224)</f>
         <v>5</v>
       </c>
@@ -13100,10 +13100,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="22"/>
-      <c r="B226" s="259" t="s">
+      <c r="B226" s="273" t="s">
         <v>221</v>
       </c>
-      <c r="C226" s="260">
+      <c r="C226" s="274">
         <v>4</v>
       </c>
       <c r="D226" s="8"/>
@@ -13117,10 +13117,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="22"/>
-      <c r="B227" s="259" t="s">
+      <c r="B227" s="273" t="s">
         <v>222</v>
       </c>
-      <c r="C227" s="260">
+      <c r="C227" s="274">
         <v>4</v>
       </c>
       <c r="D227" s="8"/>
@@ -13134,10 +13134,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="22"/>
-      <c r="B228" s="259" t="s">
+      <c r="B228" s="273" t="s">
         <v>223</v>
       </c>
-      <c r="C228" s="260">
+      <c r="C228" s="274">
         <v>5</v>
       </c>
       <c r="D228" s="8"/>
@@ -13151,10 +13151,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="22"/>
-      <c r="B229" s="259" t="s">
+      <c r="B229" s="273" t="s">
         <v>224</v>
       </c>
-      <c r="C229" s="260">
+      <c r="C229" s="274">
         <v>7</v>
       </c>
       <c r="D229" s="8"/>
@@ -13168,10 +13168,10 @@
     </row>
     <row r="230" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="22"/>
-      <c r="B230" s="259" t="s">
+      <c r="B230" s="273" t="s">
         <v>225</v>
       </c>
-      <c r="C230" s="260">
+      <c r="C230" s="274">
         <v>6</v>
       </c>
       <c r="D230" s="8"/>
@@ -13185,10 +13185,10 @@
     </row>
     <row r="231" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="22"/>
-      <c r="B231" s="320" t="s">
+      <c r="B231" s="277" t="s">
         <v>226</v>
       </c>
-      <c r="C231" s="321">
+      <c r="C231" s="278">
         <f>SUM(C226:C230,C209:C212,C218,C222,C225)</f>
         <v>89</v>
       </c>
@@ -13207,10 +13207,10 @@
       <c r="A232" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="B232" s="264" t="s">
+      <c r="B232" s="275" t="s">
         <v>62</v>
       </c>
-      <c r="C232" s="265"/>
+      <c r="C232" s="276"/>
       <c r="D232" s="8"/>
       <c r="E232" s="76">
         <v>4</v>
@@ -13224,10 +13224,10 @@
       <c r="A233" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="B233" s="264" t="s">
+      <c r="B233" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="C233" s="265"/>
+      <c r="C233" s="276"/>
       <c r="D233" s="8"/>
       <c r="E233" s="76">
         <v>5</v>
@@ -13241,10 +13241,10 @@
       <c r="A234" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="B234" s="264" t="s">
+      <c r="B234" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="C234" s="265"/>
+      <c r="C234" s="276"/>
       <c r="D234" s="8"/>
       <c r="E234" s="76">
         <v>2</v>
@@ -13258,10 +13258,10 @@
       <c r="A235" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B235" s="264" t="s">
+      <c r="B235" s="275" t="s">
         <v>65</v>
       </c>
-      <c r="C235" s="265"/>
+      <c r="C235" s="276"/>
       <c r="D235" s="8"/>
       <c r="E235" s="76">
         <v>2</v>
@@ -13275,10 +13275,10 @@
       <c r="A236" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="B236" s="271" t="s">
+      <c r="B236" s="281" t="s">
         <v>66</v>
       </c>
-      <c r="C236" s="272"/>
+      <c r="C236" s="282"/>
       <c r="D236" s="9"/>
       <c r="E236" s="83">
         <v>2</v>
@@ -13289,11 +13289,11 @@
       <c r="G236" s="41"/>
     </row>
     <row r="237" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="227" t="s">
+      <c r="B237" s="239" t="s">
         <v>67</v>
       </c>
-      <c r="C237" s="228"/>
-      <c r="D237" s="229"/>
+      <c r="C237" s="240"/>
+      <c r="D237" s="241"/>
       <c r="E237" s="79">
         <f>SUM(E207,E231:E236)</f>
         <v>121</v>
@@ -13307,11 +13307,11 @@
       <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="227" t="s">
+      <c r="B239" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="C239" s="228"/>
-      <c r="D239" s="229"/>
+      <c r="C239" s="240"/>
+      <c r="D239" s="241"/>
       <c r="E239" s="79">
         <f>SUM(E185,E237)</f>
         <v>423</v>
@@ -13323,11 +13323,11 @@
     </row>
     <row r="240" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="241" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="227" t="s">
+      <c r="B241" s="239" t="s">
         <v>69</v>
       </c>
-      <c r="C241" s="228"/>
-      <c r="D241" s="229"/>
+      <c r="C241" s="240"/>
+      <c r="D241" s="241"/>
       <c r="E241" s="79">
         <f>SUM(E133,E239)</f>
         <v>452</v>
@@ -13345,12 +13345,12 @@
       <c r="A244" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B244" s="246" t="str">
+      <c r="B244" s="242" t="str">
         <f>IF(AND(E244=0,F244=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C244" s="247"/>
-      <c r="D244" s="248"/>
+      <c r="C244" s="243"/>
+      <c r="D244" s="244"/>
       <c r="E244" s="79">
         <f>E241-E110</f>
         <v>-51</v>
@@ -13380,6 +13380,221 @@
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="E139:G139"/>
+    <mergeCell ref="E157:G157"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:D237"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
     <mergeCell ref="E208:G208"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
@@ -13404,221 +13619,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:D237"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="E139:G139"/>
-    <mergeCell ref="E157:G157"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B158:C158"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B244">
@@ -13668,14 +13668,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="263" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="253"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="264"/>
       <c r="G1" s="121"/>
       <c r="H1" s="121"/>
       <c r="I1" s="121"/>
@@ -13684,63 +13684,63 @@
       <c r="A2" s="131" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="206" t="str">
+      <c r="B2" s="223" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="225"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="133" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="223" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="232">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="211"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="234"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="209">
+      <c r="B5" s="232">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="211"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="234"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="268" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="255"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="269"/>
       <c r="G6" s="121"/>
       <c r="H6" s="121"/>
       <c r="I6" s="121"/>
@@ -13749,35 +13749,35 @@
       <c r="A7" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="250"/>
-      <c r="F7" s="251"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="267"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="124" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="265" t="s">
         <v>576</v>
       </c>
-      <c r="C8" s="250"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="251"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="267"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="230" t="s">
+      <c r="B12" s="258" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="231"/>
+      <c r="C12" s="259"/>
       <c r="D12" s="169" t="s">
         <v>73</v>
       </c>
@@ -13794,13 +13794,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="227" t="s">
+      <c r="B13" s="239" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="228"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="240"/>
       <c r="G13" s="172"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -13985,7 +13985,7 @@
         <v>436</v>
       </c>
       <c r="B25" s="134"/>
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="211" t="s">
         <v>540</v>
       </c>
       <c r="D25" s="137"/>
@@ -14162,7 +14162,7 @@
     <row r="36" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="22"/>
       <c r="B36" s="134"/>
-      <c r="C36" s="322" t="s">
+      <c r="C36" s="211" t="s">
         <v>549</v>
       </c>
       <c r="D36" s="137"/>
@@ -14246,10 +14246,10 @@
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="134"/>
-      <c r="B41" s="228" t="s">
+      <c r="B41" s="240" t="s">
         <v>290</v>
       </c>
-      <c r="C41" s="229"/>
+      <c r="C41" s="241"/>
       <c r="D41" s="136"/>
       <c r="E41" s="77">
         <f>SUM(E14:E40)</f>
@@ -14314,10 +14314,10 @@
     </row>
     <row r="45" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="134"/>
-      <c r="B45" s="228" t="s">
+      <c r="B45" s="240" t="s">
         <v>289</v>
       </c>
-      <c r="C45" s="229"/>
+      <c r="C45" s="241"/>
       <c r="D45" s="136"/>
       <c r="E45" s="77">
         <f>SUM(E41:E44)</f>
@@ -14347,10 +14347,10 @@
     </row>
     <row r="47" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="134"/>
-      <c r="B47" s="228" t="s">
+      <c r="B47" s="240" t="s">
         <v>407</v>
       </c>
-      <c r="C47" s="229"/>
+      <c r="C47" s="241"/>
       <c r="D47" s="136"/>
       <c r="E47" s="77">
         <f>SUM(E45:E46)</f>
@@ -14370,6 +14370,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -14377,12 +14383,6 @@
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DD4B0C15-1D0A-4E6A-9C64-50293F400D9C}"/>
@@ -14408,12 +14408,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="273" t="s">
+      <c r="B1" s="291" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
       <c r="F1" s="121"/>
       <c r="G1" s="121"/>
       <c r="H1" s="121"/>
@@ -14422,79 +14422,79 @@
       <c r="A2" s="131" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="206" t="str">
+      <c r="B2" s="223" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="208"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="225"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="133" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="223" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="232">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="211"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="234"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="209">
+      <c r="B5" s="232">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="211"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="234"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="229" t="s">
         <v>405</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="205"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="231"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="251"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="267"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="265" t="s">
         <v>577</v>
       </c>
-      <c r="C8" s="250"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="251"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14511,10 +14511,10 @@
       <c r="A11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="230" t="s">
+      <c r="B11" s="258" t="s">
         <v>388</v>
       </c>
-      <c r="C11" s="231"/>
+      <c r="C11" s="259"/>
       <c r="D11" s="108" t="s">
         <v>134</v>
       </c>
@@ -14536,12 +14536,12 @@
       <c r="E12" s="112"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="274" t="s">
+      <c r="B13" s="292" t="s">
         <v>389</v>
       </c>
-      <c r="C13" s="275"/>
-      <c r="D13" s="275"/>
-      <c r="E13" s="276"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="294"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
@@ -14570,11 +14570,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="274" t="s">
+      <c r="B16" s="292" t="s">
         <v>385</v>
       </c>
-      <c r="C16" s="275"/>
-      <c r="D16" s="276"/>
+      <c r="C16" s="293"/>
+      <c r="D16" s="294"/>
       <c r="E16" s="111">
         <f>SUM(E14:E15)</f>
         <v>2</v>
@@ -14686,11 +14686,11 @@
       <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="274" t="s">
+      <c r="B25" s="292" t="s">
         <v>386</v>
       </c>
-      <c r="C25" s="275"/>
-      <c r="D25" s="276"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="294"/>
       <c r="E25" s="111">
         <f>SUM(E17:E24)</f>
         <v>2</v>
@@ -14758,103 +14758,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="229" t="s">
         <v>406</v>
       </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="205"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="231"/>
       <c r="F1" s="121"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="131" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="206" t="str">
+      <c r="B2" s="223" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="208"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="225"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="133" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="223" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
     </row>
     <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="232">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="211"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="234"/>
     </row>
     <row r="5" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="209">
+      <c r="B5" s="232">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="211"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="234"/>
     </row>
     <row r="6" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="229" t="s">
         <v>405</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="205"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="231"/>
       <c r="F6" s="121"/>
     </row>
     <row r="7" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="251"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="267"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="125" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="265" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="250"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="251"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="282" t="s">
+      <c r="A10" s="295" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="284" t="s">
+      <c r="B10" s="297" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="285"/>
-      <c r="D10" s="277" t="s">
+      <c r="C10" s="298"/>
+      <c r="D10" s="304" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="57">
@@ -14863,10 +14863,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="283"/>
-      <c r="B11" s="286"/>
-      <c r="C11" s="287"/>
-      <c r="D11" s="278"/>
+      <c r="A11" s="296"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="300"/>
+      <c r="D11" s="305"/>
       <c r="E11" s="57" t="s">
         <v>134</v>
       </c>
@@ -14875,21 +14875,21 @@
       <c r="A12" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="279" t="s">
+      <c r="B12" s="301" t="s">
         <v>382</v>
       </c>
-      <c r="C12" s="280"/>
-      <c r="D12" s="281"/>
+      <c r="C12" s="303"/>
+      <c r="D12" s="302"/>
       <c r="E12" s="91">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="279" t="s">
+      <c r="B13" s="301" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="280"/>
-      <c r="D13" s="281"/>
+      <c r="C13" s="303"/>
+      <c r="D13" s="302"/>
       <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -15179,10 +15179,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="279" t="s">
+      <c r="B36" s="301" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="280"/>
+      <c r="C36" s="303"/>
       <c r="D36" s="156"/>
       <c r="E36" s="95">
         <f>SUM(E14:E35)</f>
@@ -15276,22 +15276,22 @@
       <c r="F42" s="56"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="279" t="s">
+      <c r="B43" s="301" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="280"/>
-      <c r="D43" s="281"/>
+      <c r="C43" s="303"/>
+      <c r="D43" s="302"/>
       <c r="E43" s="158">
         <f>E12+E36+SUM(E37:E42)</f>
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="279" t="s">
+      <c r="B44" s="301" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="280"/>
-      <c r="D44" s="281"/>
+      <c r="C44" s="303"/>
+      <c r="D44" s="302"/>
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -15540,22 +15540,22 @@
       <c r="E65" s="94"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="279" t="s">
+      <c r="B66" s="301" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="280"/>
-      <c r="D66" s="281"/>
+      <c r="C66" s="303"/>
+      <c r="D66" s="302"/>
       <c r="E66" s="157">
         <f>SUM(E45:E65)</f>
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="279" t="s">
+      <c r="B67" s="301" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="280"/>
-      <c r="D67" s="281"/>
+      <c r="C67" s="303"/>
+      <c r="D67" s="302"/>
       <c r="E67" s="44"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -15697,22 +15697,22 @@
       <c r="E78" s="94"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="279" t="s">
+      <c r="B79" s="301" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="280"/>
-      <c r="D79" s="281"/>
+      <c r="C79" s="303"/>
+      <c r="D79" s="302"/>
       <c r="E79" s="96">
         <f>SUM(E68:E78)</f>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="279" t="s">
+      <c r="B80" s="301" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="280"/>
-      <c r="D80" s="281"/>
+      <c r="C80" s="303"/>
+      <c r="D80" s="302"/>
       <c r="E80" s="79">
         <f>SUM(E43,E66,E79)</f>
         <v>118</v>
@@ -15730,10 +15730,10 @@
       <c r="E81" s="94"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="279" t="s">
+      <c r="B82" s="301" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="281"/>
+      <c r="C82" s="302"/>
       <c r="D82" s="163">
         <v>7.2</v>
       </c>
@@ -15743,33 +15743,33 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="279" t="s">
+      <c r="B83" s="301" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="280"/>
-      <c r="D83" s="281"/>
+      <c r="C83" s="303"/>
+      <c r="D83" s="302"/>
       <c r="E83" s="79">
         <f>'Statement of financial position'!E39</f>
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="279" t="s">
+      <c r="B84" s="301" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="280"/>
-      <c r="D84" s="281"/>
+      <c r="C84" s="303"/>
+      <c r="D84" s="302"/>
       <c r="E84" s="79">
         <f>'Statement of financial position'!F39</f>
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="279" t="s">
+      <c r="B85" s="301" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="280"/>
-      <c r="D85" s="281"/>
+      <c r="C85" s="303"/>
+      <c r="D85" s="302"/>
       <c r="E85" s="79">
         <f>E84-E83</f>
         <v>5</v>
@@ -15784,6 +15784,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B82:C82"/>
@@ -15797,17 +15808,6 @@
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{5A53CF31-79B9-4E1F-A6DA-D8AE91352090}"/>
@@ -15846,41 +15846,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="229" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="205"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="231"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="131" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="292" t="str">
+      <c r="B2" s="312" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="294"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="314"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="133" t="s">
@@ -15890,37 +15890,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="212">
+      <c r="B4" s="217">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="214"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="218"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="219"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="131" t="s">
@@ -15930,72 +15930,72 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="214"/>
-      <c r="J5" s="214"/>
-      <c r="K5" s="214"/>
-      <c r="L5" s="214"/>
-      <c r="M5" s="214"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="219"/>
+      <c r="J5" s="219"/>
+      <c r="K5" s="219"/>
+      <c r="L5" s="219"/>
+      <c r="M5" s="219"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="229" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="205"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="230"/>
+      <c r="L6" s="230"/>
+      <c r="M6" s="231"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="226" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="219"/>
-      <c r="L7" s="219"/>
-      <c r="M7" s="220"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="227"/>
+      <c r="L7" s="227"/>
+      <c r="M7" s="228"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="106" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="220" t="s">
         <v>579</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="216"/>
-      <c r="L8" s="216"/>
-      <c r="M8" s="217"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="222"/>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -16003,21 +16003,21 @@
       <c r="C9" s="53"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="230" t="s">
+      <c r="A10" s="258" t="s">
         <v>293</v>
       </c>
-      <c r="B10" s="288"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="231"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="324"/>
+      <c r="J10" s="324"/>
+      <c r="K10" s="324"/>
+      <c r="L10" s="324"/>
+      <c r="M10" s="259"/>
     </row>
     <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="132" t="s">
@@ -16032,23 +16032,23 @@
       <c r="D11" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="289" t="s">
+      <c r="E11" s="321" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="290"/>
-      <c r="G11" s="290"/>
-      <c r="H11" s="290"/>
-      <c r="I11" s="290"/>
-      <c r="J11" s="290"/>
-      <c r="K11" s="290"/>
-      <c r="L11" s="290"/>
-      <c r="M11" s="291"/>
+      <c r="F11" s="322"/>
+      <c r="G11" s="322"/>
+      <c r="H11" s="322"/>
+      <c r="I11" s="322"/>
+      <c r="J11" s="322"/>
+      <c r="K11" s="322"/>
+      <c r="L11" s="322"/>
+      <c r="M11" s="323"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="295" t="s">
+      <c r="A12" s="315" t="s">
         <v>426</v>
       </c>
-      <c r="B12" s="296"/>
+      <c r="B12" s="316"/>
       <c r="C12" s="60"/>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -16062,8 +16062,8 @@
       <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="301"/>
-      <c r="B13" s="302"/>
+      <c r="A13" s="310"/>
+      <c r="B13" s="311"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
@@ -16077,8 +16077,8 @@
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="303"/>
-      <c r="B14" s="304"/>
+      <c r="A14" s="306"/>
+      <c r="B14" s="307"/>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
@@ -16092,8 +16092,8 @@
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="303"/>
-      <c r="B15" s="304"/>
+      <c r="A15" s="306"/>
+      <c r="B15" s="307"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
@@ -16107,8 +16107,8 @@
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="303"/>
-      <c r="B16" s="304"/>
+      <c r="A16" s="306"/>
+      <c r="B16" s="307"/>
       <c r="C16" s="64" t="s">
         <v>516</v>
       </c>
@@ -16124,8 +16124,8 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="303"/>
-      <c r="B17" s="304"/>
+      <c r="A17" s="306"/>
+      <c r="B17" s="307"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
@@ -16139,8 +16139,8 @@
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="303"/>
-      <c r="B18" s="304"/>
+      <c r="A18" s="306"/>
+      <c r="B18" s="307"/>
       <c r="C18" s="64" t="s">
         <v>427</v>
       </c>
@@ -16156,8 +16156,8 @@
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="303"/>
-      <c r="B19" s="304"/>
+      <c r="A19" s="306"/>
+      <c r="B19" s="307"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -16171,8 +16171,8 @@
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="303"/>
-      <c r="B20" s="304"/>
+      <c r="A20" s="306"/>
+      <c r="B20" s="307"/>
       <c r="C20" s="64" t="s">
         <v>428</v>
       </c>
@@ -16188,8 +16188,8 @@
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="303"/>
-      <c r="B21" s="304"/>
+      <c r="A21" s="306"/>
+      <c r="B21" s="307"/>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
@@ -16203,8 +16203,8 @@
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="303"/>
-      <c r="B22" s="304"/>
+      <c r="A22" s="306"/>
+      <c r="B22" s="307"/>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
@@ -16218,8 +16218,8 @@
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="303"/>
-      <c r="B23" s="304"/>
+      <c r="A23" s="306"/>
+      <c r="B23" s="307"/>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
@@ -16233,8 +16233,8 @@
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="303"/>
-      <c r="B24" s="304"/>
+      <c r="A24" s="306"/>
+      <c r="B24" s="307"/>
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
       <c r="E24" s="64"/>
@@ -16248,8 +16248,8 @@
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="303"/>
-      <c r="B25" s="304"/>
+      <c r="A25" s="306"/>
+      <c r="B25" s="307"/>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
       <c r="E25" s="64"/>
@@ -16263,8 +16263,8 @@
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="303"/>
-      <c r="B26" s="304"/>
+      <c r="A26" s="306"/>
+      <c r="B26" s="307"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
@@ -16278,8 +16278,8 @@
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="303"/>
-      <c r="B27" s="304"/>
+      <c r="A27" s="306"/>
+      <c r="B27" s="307"/>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
       <c r="E27" s="64"/>
@@ -16293,8 +16293,8 @@
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="303"/>
-      <c r="B28" s="304"/>
+      <c r="A28" s="306"/>
+      <c r="B28" s="307"/>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
       <c r="E28" s="64"/>
@@ -16308,8 +16308,8 @@
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="303"/>
-      <c r="B29" s="304"/>
+      <c r="A29" s="306"/>
+      <c r="B29" s="307"/>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="64"/>
@@ -16323,8 +16323,8 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="303"/>
-      <c r="B30" s="304"/>
+      <c r="A30" s="306"/>
+      <c r="B30" s="307"/>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
       <c r="E30" s="64"/>
@@ -16338,8 +16338,8 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="305"/>
-      <c r="B31" s="306"/>
+      <c r="A31" s="308"/>
+      <c r="B31" s="309"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -16359,10 +16359,10 @@
       <c r="B32" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="243" t="s">
+      <c r="C32" s="247" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="245"/>
+      <c r="D32" s="249"/>
       <c r="E32" s="64" t="s">
         <v>399</v>
       </c>
@@ -16378,7 +16378,7 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="310" t="s">
+      <c r="C33" s="203" t="s">
         <v>135</v>
       </c>
       <c r="D33" s="80">
@@ -16397,7 +16397,7 @@
     <row r="34" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="311" t="s">
+      <c r="C34" s="204" t="s">
         <v>136</v>
       </c>
       <c r="D34" s="83">
@@ -16459,10 +16459,10 @@
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="227" t="s">
+      <c r="C37" s="239" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="229"/>
+      <c r="D37" s="241"/>
       <c r="E37" s="64"/>
       <c r="F37" s="64"/>
       <c r="G37" s="64"/>
@@ -16476,7 +16476,7 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="311" t="s">
+      <c r="C38" s="204" t="s">
         <v>139</v>
       </c>
       <c r="D38" s="80">
@@ -16497,7 +16497,7 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="311" t="s">
+      <c r="C39" s="204" t="s">
         <v>140</v>
       </c>
       <c r="D39" s="76">
@@ -16516,7 +16516,7 @@
     <row r="40" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="311" t="s">
+      <c r="C40" s="204" t="s">
         <v>141</v>
       </c>
       <c r="D40" s="83">
@@ -16557,7 +16557,7 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="311" t="s">
+      <c r="C42" s="204" t="s">
         <v>143</v>
       </c>
       <c r="D42" s="82">
@@ -16576,7 +16576,7 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="311" t="s">
+      <c r="C43" s="204" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="82">
@@ -16595,7 +16595,7 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="311" t="s">
+      <c r="C44" s="204" t="s">
         <v>145</v>
       </c>
       <c r="D44" s="82">
@@ -16614,7 +16614,7 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="311" t="s">
+      <c r="C45" s="204" t="s">
         <v>146</v>
       </c>
       <c r="D45" s="82">
@@ -16633,7 +16633,7 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="311" t="s">
+      <c r="C46" s="204" t="s">
         <v>147</v>
       </c>
       <c r="D46" s="82">
@@ -16652,7 +16652,7 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="311" t="s">
+      <c r="C47" s="204" t="s">
         <v>148</v>
       </c>
       <c r="D47" s="82">
@@ -16671,7 +16671,7 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="311" t="s">
+      <c r="C48" s="204" t="s">
         <v>149</v>
       </c>
       <c r="D48" s="82">
@@ -16690,7 +16690,7 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="311" t="s">
+      <c r="C49" s="204" t="s">
         <v>150</v>
       </c>
       <c r="D49" s="82">
@@ -16709,7 +16709,7 @@
     <row r="50" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="311" t="s">
+      <c r="C50" s="204" t="s">
         <v>151</v>
       </c>
       <c r="D50" s="82">
@@ -16752,10 +16752,10 @@
       <c r="B52" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="227" t="s">
+      <c r="C52" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="229"/>
+      <c r="D52" s="241"/>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
@@ -16769,7 +16769,7 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="311" t="s">
+      <c r="C53" s="204" t="s">
         <v>172</v>
       </c>
       <c r="D53" s="44">
@@ -16788,7 +16788,7 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="311" t="s">
+      <c r="C54" s="204" t="s">
         <v>173</v>
       </c>
       <c r="D54" s="44">
@@ -16807,7 +16807,7 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="311" t="s">
+      <c r="C55" s="204" t="s">
         <v>174</v>
       </c>
       <c r="D55" s="44">
@@ -16826,7 +16826,7 @@
     <row r="56" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="311" t="s">
+      <c r="C56" s="204" t="s">
         <v>175</v>
       </c>
       <c r="D56" s="44">
@@ -16845,10 +16845,10 @@
     <row r="57" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="227" t="s">
+      <c r="C57" s="239" t="s">
         <v>188</v>
       </c>
-      <c r="D57" s="229"/>
+      <c r="D57" s="241"/>
       <c r="E57" s="63"/>
       <c r="F57" s="64"/>
       <c r="G57" s="64"/>
@@ -16862,10 +16862,10 @@
     <row r="58" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="227" t="s">
+      <c r="C58" s="239" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="229"/>
+      <c r="D58" s="241"/>
       <c r="E58" s="63"/>
       <c r="F58" s="64"/>
       <c r="G58" s="64"/>
@@ -16879,7 +16879,7 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="311" t="s">
+      <c r="C59" s="204" t="s">
         <v>176</v>
       </c>
       <c r="D59" s="82">
@@ -16898,7 +16898,7 @@
     <row r="60" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="311" t="s">
+      <c r="C60" s="204" t="s">
         <v>177</v>
       </c>
       <c r="D60" s="82">
@@ -16937,7 +16937,7 @@
     <row r="62" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="312" t="s">
+      <c r="C62" s="205" t="s">
         <v>179</v>
       </c>
       <c r="D62" s="82">
@@ -16976,7 +16976,7 @@
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="311" t="s">
+      <c r="C64" s="204" t="s">
         <v>181</v>
       </c>
       <c r="D64" s="82">
@@ -16995,7 +16995,7 @@
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="311" t="s">
+      <c r="C65" s="204" t="s">
         <v>182</v>
       </c>
       <c r="D65" s="82">
@@ -17014,7 +17014,7 @@
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="311" t="s">
+      <c r="C66" s="204" t="s">
         <v>183</v>
       </c>
       <c r="D66" s="82">
@@ -17033,7 +17033,7 @@
     <row r="67" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="311" t="s">
+      <c r="C67" s="204" t="s">
         <v>184</v>
       </c>
       <c r="D67" s="82">
@@ -17052,7 +17052,7 @@
     <row r="68" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="311" t="s">
+      <c r="C68" s="204" t="s">
         <v>185</v>
       </c>
       <c r="D68" s="82">
@@ -17095,10 +17095,10 @@
       <c r="B70" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="227" t="s">
+      <c r="C70" s="239" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="228"/>
+      <c r="D70" s="240"/>
       <c r="E70" s="63"/>
       <c r="F70" s="64"/>
       <c r="G70" s="64"/>
@@ -17112,7 +17112,7 @@
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="310" t="s">
+      <c r="C71" s="203" t="s">
         <v>157</v>
       </c>
       <c r="D71" s="82">
@@ -17131,7 +17131,7 @@
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="311" t="s">
+      <c r="C72" s="204" t="s">
         <v>158</v>
       </c>
       <c r="D72" s="82">
@@ -17150,7 +17150,7 @@
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="311" t="s">
+      <c r="C73" s="204" t="s">
         <v>159</v>
       </c>
       <c r="D73" s="82">
@@ -17169,7 +17169,7 @@
     <row r="74" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="311" t="s">
+      <c r="C74" s="204" t="s">
         <v>160</v>
       </c>
       <c r="D74" s="82">
@@ -17208,7 +17208,7 @@
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="311" t="s">
+      <c r="C76" s="204" t="s">
         <v>161</v>
       </c>
       <c r="D76" s="82">
@@ -17227,7 +17227,7 @@
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="311" t="s">
+      <c r="C77" s="204" t="s">
         <v>162</v>
       </c>
       <c r="D77" s="82">
@@ -17246,7 +17246,7 @@
     <row r="78" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="311" t="s">
+      <c r="C78" s="204" t="s">
         <v>163</v>
       </c>
       <c r="D78" s="82">
@@ -17285,7 +17285,7 @@
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="311" t="s">
+      <c r="C80" s="204" t="s">
         <v>165</v>
       </c>
       <c r="D80" s="82">
@@ -17304,7 +17304,7 @@
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="311" t="s">
+      <c r="C81" s="204" t="s">
         <v>166</v>
       </c>
       <c r="D81" s="82">
@@ -17323,7 +17323,7 @@
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="311" t="s">
+      <c r="C82" s="204" t="s">
         <v>167</v>
       </c>
       <c r="D82" s="82">
@@ -17342,7 +17342,7 @@
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="311" t="s">
+      <c r="C83" s="204" t="s">
         <v>168</v>
       </c>
       <c r="D83" s="82">
@@ -17361,7 +17361,7 @@
     <row r="84" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="311" t="s">
+      <c r="C84" s="204" t="s">
         <v>169</v>
       </c>
       <c r="D84" s="82">
@@ -17398,21 +17398,21 @@
       <c r="M85" s="66"/>
     </row>
     <row r="86" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="297" t="s">
+      <c r="A86" s="317" t="s">
         <v>293</v>
       </c>
-      <c r="B86" s="298"/>
-      <c r="C86" s="298"/>
-      <c r="D86" s="298"/>
-      <c r="E86" s="299"/>
-      <c r="F86" s="299"/>
-      <c r="G86" s="299"/>
-      <c r="H86" s="299"/>
-      <c r="I86" s="299"/>
-      <c r="J86" s="299"/>
-      <c r="K86" s="299"/>
-      <c r="L86" s="299"/>
-      <c r="M86" s="300"/>
+      <c r="B86" s="318"/>
+      <c r="C86" s="318"/>
+      <c r="D86" s="318"/>
+      <c r="E86" s="319"/>
+      <c r="F86" s="319"/>
+      <c r="G86" s="319"/>
+      <c r="H86" s="319"/>
+      <c r="I86" s="319"/>
+      <c r="J86" s="319"/>
+      <c r="K86" s="319"/>
+      <c r="L86" s="319"/>
+      <c r="M86" s="320"/>
     </row>
     <row r="87" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="55" t="s">
@@ -17427,17 +17427,17 @@
       <c r="D87" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="E87" s="289" t="s">
+      <c r="E87" s="321" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="290"/>
-      <c r="G87" s="290"/>
-      <c r="H87" s="290"/>
-      <c r="I87" s="290"/>
-      <c r="J87" s="290"/>
-      <c r="K87" s="290"/>
-      <c r="L87" s="290"/>
-      <c r="M87" s="291"/>
+      <c r="F87" s="322"/>
+      <c r="G87" s="322"/>
+      <c r="H87" s="322"/>
+      <c r="I87" s="322"/>
+      <c r="J87" s="322"/>
+      <c r="K87" s="322"/>
+      <c r="L87" s="322"/>
+      <c r="M87" s="323"/>
     </row>
     <row r="88" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="51" t="s">
@@ -17462,10 +17462,10 @@
     </row>
     <row r="89" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
-      <c r="C89" s="227" t="s">
+      <c r="C89" s="239" t="s">
         <v>205</v>
       </c>
-      <c r="D89" s="229"/>
+      <c r="D89" s="241"/>
       <c r="E89" s="70"/>
       <c r="F89" s="71"/>
       <c r="G89" s="71"/>
@@ -17478,7 +17478,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
-      <c r="C90" s="311" t="s">
+      <c r="C90" s="204" t="s">
         <v>189</v>
       </c>
       <c r="D90" s="82">
@@ -17496,7 +17496,7 @@
     </row>
     <row r="91" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
-      <c r="C91" s="311" t="s">
+      <c r="C91" s="204" t="s">
         <v>190</v>
       </c>
       <c r="D91" s="82">
@@ -17533,7 +17533,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
-      <c r="C93" s="311" t="s">
+      <c r="C93" s="204" t="s">
         <v>192</v>
       </c>
       <c r="D93" s="82">
@@ -17551,7 +17551,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="C94" s="311" t="s">
+      <c r="C94" s="204" t="s">
         <v>193</v>
       </c>
       <c r="D94" s="82">
@@ -17569,7 +17569,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
-      <c r="C95" s="311" t="s">
+      <c r="C95" s="204" t="s">
         <v>194</v>
       </c>
       <c r="D95" s="82">
@@ -17587,7 +17587,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
-      <c r="C96" s="311" t="s">
+      <c r="C96" s="204" t="s">
         <v>195</v>
       </c>
       <c r="D96" s="82">
@@ -17605,7 +17605,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
-      <c r="C97" s="311" t="s">
+      <c r="C97" s="204" t="s">
         <v>196</v>
       </c>
       <c r="D97" s="82">
@@ -17623,7 +17623,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
-      <c r="C98" s="311" t="s">
+      <c r="C98" s="204" t="s">
         <v>197</v>
       </c>
       <c r="D98" s="82">
@@ -17641,7 +17641,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
-      <c r="C99" s="311" t="s">
+      <c r="C99" s="204" t="s">
         <v>198</v>
       </c>
       <c r="D99" s="82">
@@ -17659,7 +17659,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
-      <c r="C100" s="311" t="s">
+      <c r="C100" s="204" t="s">
         <v>199</v>
       </c>
       <c r="D100" s="82">
@@ -17677,7 +17677,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
-      <c r="C101" s="311" t="s">
+      <c r="C101" s="204" t="s">
         <v>200</v>
       </c>
       <c r="D101" s="82">
@@ -17695,7 +17695,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
-      <c r="C102" s="311" t="s">
+      <c r="C102" s="204" t="s">
         <v>201</v>
       </c>
       <c r="D102" s="82">
@@ -17713,7 +17713,7 @@
     </row>
     <row r="103" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
-      <c r="C103" s="311" t="s">
+      <c r="C103" s="204" t="s">
         <v>202</v>
       </c>
       <c r="D103" s="82">
@@ -17755,10 +17755,10 @@
       <c r="B105" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="227" t="s">
+      <c r="C105" s="239" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="229"/>
+      <c r="D105" s="241"/>
       <c r="E105" s="60"/>
       <c r="F105" s="61"/>
       <c r="G105" s="61"/>
@@ -17772,7 +17772,7 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="311" t="s">
+      <c r="C106" s="204" t="s">
         <v>207</v>
       </c>
       <c r="D106" s="82">
@@ -17791,7 +17791,7 @@
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="311" t="s">
+      <c r="C107" s="204" t="s">
         <v>208</v>
       </c>
       <c r="D107" s="82">
@@ -17810,7 +17810,7 @@
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="311" t="s">
+      <c r="C108" s="204" t="s">
         <v>209</v>
       </c>
       <c r="D108" s="82">
@@ -17829,7 +17829,7 @@
     <row r="109" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="311" t="s">
+      <c r="C109" s="204" t="s">
         <v>210</v>
       </c>
       <c r="D109" s="82">
@@ -17848,10 +17848,10 @@
     <row r="110" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="227" t="s">
+      <c r="C110" s="239" t="s">
         <v>227</v>
       </c>
-      <c r="D110" s="229"/>
+      <c r="D110" s="241"/>
       <c r="E110" s="63"/>
       <c r="F110" s="64"/>
       <c r="G110" s="64"/>
@@ -17865,10 +17865,10 @@
     <row r="111" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="227" t="s">
+      <c r="C111" s="239" t="s">
         <v>228</v>
       </c>
-      <c r="D111" s="229"/>
+      <c r="D111" s="241"/>
       <c r="E111" s="63"/>
       <c r="F111" s="64"/>
       <c r="G111" s="64"/>
@@ -17882,7 +17882,7 @@
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="311" t="s">
+      <c r="C112" s="204" t="s">
         <v>229</v>
       </c>
       <c r="D112" s="82">
@@ -17901,7 +17901,7 @@
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="311" t="s">
+      <c r="C113" s="204" t="s">
         <v>211</v>
       </c>
       <c r="D113" s="82">
@@ -17920,7 +17920,7 @@
     <row r="114" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="311" t="s">
+      <c r="C114" s="204" t="s">
         <v>212</v>
       </c>
       <c r="D114" s="82">
@@ -17959,7 +17959,7 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="311" t="s">
+      <c r="C116" s="204" t="s">
         <v>214</v>
       </c>
       <c r="D116" s="82">
@@ -17978,7 +17978,7 @@
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="311" t="s">
+      <c r="C117" s="204" t="s">
         <v>215</v>
       </c>
       <c r="D117" s="82">
@@ -17997,7 +17997,7 @@
     <row r="118" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="311" t="s">
+      <c r="C118" s="204" t="s">
         <v>216</v>
       </c>
       <c r="D118" s="82">
@@ -18036,7 +18036,7 @@
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="311" t="s">
+      <c r="C120" s="204" t="s">
         <v>218</v>
       </c>
       <c r="D120" s="82">
@@ -18055,7 +18055,7 @@
     <row r="121" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
-      <c r="C121" s="311" t="s">
+      <c r="C121" s="204" t="s">
         <v>219</v>
       </c>
       <c r="D121" s="82">
@@ -18094,7 +18094,7 @@
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="311" t="s">
+      <c r="C123" s="204" t="s">
         <v>221</v>
       </c>
       <c r="D123" s="82">
@@ -18113,7 +18113,7 @@
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="311" t="s">
+      <c r="C124" s="204" t="s">
         <v>222</v>
       </c>
       <c r="D124" s="82">
@@ -18132,7 +18132,7 @@
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="311" t="s">
+      <c r="C125" s="204" t="s">
         <v>223</v>
       </c>
       <c r="D125" s="82">
@@ -18151,7 +18151,7 @@
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
-      <c r="C126" s="311" t="s">
+      <c r="C126" s="204" t="s">
         <v>224</v>
       </c>
       <c r="D126" s="82">
@@ -18170,7 +18170,7 @@
     <row r="127" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
-      <c r="C127" s="311" t="s">
+      <c r="C127" s="204" t="s">
         <v>225</v>
       </c>
       <c r="D127" s="82">
@@ -18213,10 +18213,10 @@
       <c r="B129" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C129" s="227" t="s">
+      <c r="C129" s="239" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="229"/>
+      <c r="D129" s="241"/>
       <c r="E129" s="60"/>
       <c r="F129" s="61"/>
       <c r="G129" s="61"/>
@@ -18230,7 +18230,7 @@
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="311" t="s">
+      <c r="C130" s="204" t="s">
         <v>230</v>
       </c>
       <c r="D130" s="82">
@@ -18249,7 +18249,7 @@
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="311" t="s">
+      <c r="C131" s="204" t="s">
         <v>231</v>
       </c>
       <c r="D131" s="82">
@@ -18268,7 +18268,7 @@
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="311" t="s">
+      <c r="C132" s="204" t="s">
         <v>232</v>
       </c>
       <c r="D132" s="82">
@@ -18287,7 +18287,7 @@
     <row r="133" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="311" t="s">
+      <c r="C133" s="204" t="s">
         <v>233</v>
       </c>
       <c r="D133" s="82">
@@ -18306,10 +18306,10 @@
     <row r="134" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="227" t="s">
+      <c r="C134" s="239" t="s">
         <v>249</v>
       </c>
-      <c r="D134" s="229"/>
+      <c r="D134" s="241"/>
       <c r="E134" s="63"/>
       <c r="F134" s="64"/>
       <c r="G134" s="64"/>
@@ -18323,10 +18323,10 @@
     <row r="135" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="227" t="s">
+      <c r="C135" s="239" t="s">
         <v>250</v>
       </c>
-      <c r="D135" s="229"/>
+      <c r="D135" s="241"/>
       <c r="E135" s="63"/>
       <c r="F135" s="64"/>
       <c r="G135" s="64"/>
@@ -18340,10 +18340,10 @@
     <row r="136" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="227" t="s">
+      <c r="C136" s="239" t="s">
         <v>251</v>
       </c>
-      <c r="D136" s="229"/>
+      <c r="D136" s="241"/>
       <c r="E136" s="63"/>
       <c r="F136" s="64"/>
       <c r="G136" s="64"/>
@@ -18357,7 +18357,7 @@
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="311" t="s">
+      <c r="C137" s="204" t="s">
         <v>234</v>
       </c>
       <c r="D137" s="190">
@@ -18376,7 +18376,7 @@
     <row r="138" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="311" t="s">
+      <c r="C138" s="204" t="s">
         <v>235</v>
       </c>
       <c r="D138" s="190">
@@ -18415,7 +18415,7 @@
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="311" t="s">
+      <c r="C140" s="204" t="s">
         <v>237</v>
       </c>
       <c r="D140" s="82">
@@ -18434,7 +18434,7 @@
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="311" t="s">
+      <c r="C141" s="204" t="s">
         <v>238</v>
       </c>
       <c r="D141" s="82">
@@ -18453,7 +18453,7 @@
     <row r="142" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="311" t="s">
+      <c r="C142" s="204" t="s">
         <v>239</v>
       </c>
       <c r="D142" s="82">
@@ -18492,7 +18492,7 @@
     <row r="144" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="311" t="s">
+      <c r="C144" s="204" t="s">
         <v>241</v>
       </c>
       <c r="D144" s="101">
@@ -18531,7 +18531,7 @@
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
-      <c r="C146" s="311" t="s">
+      <c r="C146" s="204" t="s">
         <v>243</v>
       </c>
       <c r="D146" s="82">
@@ -18550,7 +18550,7 @@
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
-      <c r="C147" s="311" t="s">
+      <c r="C147" s="204" t="s">
         <v>244</v>
       </c>
       <c r="D147" s="82">
@@ -18569,7 +18569,7 @@
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
-      <c r="C148" s="311" t="s">
+      <c r="C148" s="204" t="s">
         <v>245</v>
       </c>
       <c r="D148" s="82">
@@ -18588,7 +18588,7 @@
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="311" t="s">
+      <c r="C149" s="204" t="s">
         <v>246</v>
       </c>
       <c r="D149" s="82">
@@ -18607,7 +18607,7 @@
     <row r="150" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="311" t="s">
+      <c r="C150" s="204" t="s">
         <v>247</v>
       </c>
       <c r="D150" s="82">
@@ -18650,10 +18650,10 @@
       <c r="B152" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C152" s="227" t="s">
+      <c r="C152" s="239" t="s">
         <v>58</v>
       </c>
-      <c r="D152" s="229"/>
+      <c r="D152" s="241"/>
       <c r="E152" s="63"/>
       <c r="F152" s="64"/>
       <c r="G152" s="64"/>
@@ -18667,7 +18667,7 @@
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="192"/>
       <c r="B153" s="192"/>
-      <c r="C153" s="313" t="s">
+      <c r="C153" s="206" t="s">
         <v>519</v>
       </c>
       <c r="D153" s="76"/>
@@ -18684,7 +18684,7 @@
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="192"/>
       <c r="B154" s="192"/>
-      <c r="C154" s="313" t="s">
+      <c r="C154" s="206" t="s">
         <v>521</v>
       </c>
       <c r="D154" s="76"/>
@@ -18701,7 +18701,7 @@
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="192"/>
       <c r="B155" s="192"/>
-      <c r="C155" s="313" t="s">
+      <c r="C155" s="206" t="s">
         <v>520</v>
       </c>
       <c r="D155" s="76"/>
@@ -18718,7 +18718,7 @@
     <row r="156" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="192"/>
       <c r="B156" s="192"/>
-      <c r="C156" s="313" t="s">
+      <c r="C156" s="206" t="s">
         <v>522</v>
       </c>
       <c r="D156" s="83"/>
@@ -18755,7 +18755,7 @@
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
-      <c r="C158" s="310" t="s">
+      <c r="C158" s="203" t="s">
         <v>523</v>
       </c>
       <c r="D158" s="82">
@@ -18774,7 +18774,7 @@
     <row r="159" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
-      <c r="C159" s="311" t="s">
+      <c r="C159" s="204" t="s">
         <v>524</v>
       </c>
       <c r="D159" s="82"/>
@@ -18811,7 +18811,7 @@
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
-      <c r="C161" s="314" t="s">
+      <c r="C161" s="207" t="s">
         <v>525</v>
       </c>
       <c r="D161" s="82"/>
@@ -18828,7 +18828,7 @@
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
-      <c r="C162" s="311" t="s">
+      <c r="C162" s="204" t="s">
         <v>526</v>
       </c>
       <c r="D162" s="82"/>
@@ -18845,7 +18845,7 @@
     <row r="163" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
-      <c r="C163" s="311" t="s">
+      <c r="C163" s="204" t="s">
         <v>527</v>
       </c>
       <c r="D163" s="82"/>
@@ -18882,7 +18882,7 @@
     <row r="165" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="315" t="s">
+      <c r="C165" s="208" t="s">
         <v>273</v>
       </c>
       <c r="D165" s="82">
@@ -18974,10 +18974,10 @@
       <c r="B170" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C170" s="227" t="s">
+      <c r="C170" s="239" t="s">
         <v>46</v>
       </c>
-      <c r="D170" s="229"/>
+      <c r="D170" s="241"/>
       <c r="E170" s="63"/>
       <c r="F170" s="64"/>
       <c r="G170" s="64"/>
@@ -18991,7 +18991,7 @@
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="192"/>
       <c r="B171" s="191"/>
-      <c r="C171" s="313" t="s">
+      <c r="C171" s="206" t="s">
         <v>519</v>
       </c>
       <c r="D171" s="76"/>
@@ -19008,7 +19008,7 @@
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="192"/>
       <c r="B172" s="191"/>
-      <c r="C172" s="313" t="s">
+      <c r="C172" s="206" t="s">
         <v>521</v>
       </c>
       <c r="D172" s="76"/>
@@ -19025,7 +19025,7 @@
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="192"/>
       <c r="B173" s="191"/>
-      <c r="C173" s="313" t="s">
+      <c r="C173" s="206" t="s">
         <v>520</v>
       </c>
       <c r="D173" s="76"/>
@@ -19042,7 +19042,7 @@
     <row r="174" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="192"/>
       <c r="B174" s="191"/>
-      <c r="C174" s="313" t="s">
+      <c r="C174" s="206" t="s">
         <v>522</v>
       </c>
       <c r="D174" s="83"/>
@@ -19079,7 +19079,7 @@
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="192"/>
       <c r="B176" s="191"/>
-      <c r="C176" s="310" t="s">
+      <c r="C176" s="203" t="s">
         <v>523</v>
       </c>
       <c r="D176" s="82">
@@ -19098,7 +19098,7 @@
     <row r="177" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="192"/>
       <c r="B177" s="191"/>
-      <c r="C177" s="311" t="s">
+      <c r="C177" s="204" t="s">
         <v>524</v>
       </c>
       <c r="D177" s="82"/>
@@ -19135,7 +19135,7 @@
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="192"/>
       <c r="B179" s="191"/>
-      <c r="C179" s="314" t="s">
+      <c r="C179" s="207" t="s">
         <v>525</v>
       </c>
       <c r="D179" s="82"/>
@@ -19152,7 +19152,7 @@
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="192"/>
       <c r="B180" s="191"/>
-      <c r="C180" s="311" t="s">
+      <c r="C180" s="204" t="s">
         <v>526</v>
       </c>
       <c r="D180" s="82"/>
@@ -19169,7 +19169,7 @@
     <row r="181" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="192"/>
       <c r="B181" s="191"/>
-      <c r="C181" s="311" t="s">
+      <c r="C181" s="204" t="s">
         <v>527</v>
       </c>
       <c r="D181" s="82"/>
@@ -19206,7 +19206,7 @@
     <row r="183" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="192"/>
       <c r="B183" s="191"/>
-      <c r="C183" s="315" t="s">
+      <c r="C183" s="208" t="s">
         <v>273</v>
       </c>
       <c r="D183" s="82">
@@ -19249,10 +19249,10 @@
       <c r="B185" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="227" t="s">
+      <c r="C185" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="D185" s="229"/>
+      <c r="D185" s="241"/>
       <c r="E185" s="60"/>
       <c r="F185" s="61"/>
       <c r="G185" s="61"/>
@@ -19266,7 +19266,7 @@
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
-      <c r="C186" s="311" t="s">
+      <c r="C186" s="204" t="s">
         <v>252</v>
       </c>
       <c r="D186" s="82">
@@ -19285,7 +19285,7 @@
     <row r="187" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
-      <c r="C187" s="311" t="s">
+      <c r="C187" s="204" t="s">
         <v>253</v>
       </c>
       <c r="D187" s="82">
@@ -19328,10 +19328,10 @@
       <c r="B189" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C189" s="227" t="s">
+      <c r="C189" s="239" t="s">
         <v>258</v>
       </c>
-      <c r="D189" s="229"/>
+      <c r="D189" s="241"/>
       <c r="E189" s="60"/>
       <c r="F189" s="61"/>
       <c r="G189" s="61"/>
@@ -19345,7 +19345,7 @@
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
-      <c r="C190" s="311" t="s">
+      <c r="C190" s="204" t="s">
         <v>255</v>
       </c>
       <c r="D190" s="82">
@@ -19364,7 +19364,7 @@
     <row r="191" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
-      <c r="C191" s="311" t="s">
+      <c r="C191" s="204" t="s">
         <v>256</v>
       </c>
       <c r="D191" s="82">
@@ -19970,10 +19970,10 @@
       <c r="B228" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C228" s="227" t="s">
+      <c r="C228" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="D228" s="228"/>
+      <c r="D228" s="240"/>
       <c r="E228" s="45"/>
       <c r="F228" s="47"/>
       <c r="G228" s="47"/>
@@ -19987,7 +19987,7 @@
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="112"/>
       <c r="B229" s="112"/>
-      <c r="C229" s="310" t="s">
+      <c r="C229" s="203" t="s">
         <v>266</v>
       </c>
       <c r="D229" s="81">
@@ -20006,7 +20006,7 @@
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
-      <c r="C230" s="311" t="s">
+      <c r="C230" s="204" t="s">
         <v>267</v>
       </c>
       <c r="D230" s="82">
@@ -20025,7 +20025,7 @@
     <row r="231" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
-      <c r="C231" s="311" t="s">
+      <c r="C231" s="204" t="s">
         <v>268</v>
       </c>
       <c r="D231" s="82">
@@ -20063,25 +20063,22 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="C5:M5"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C3:M3"/>
@@ -20098,22 +20095,25 @@
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="A86:M86"/>
     <mergeCell ref="E87:M87"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{CAFC6D68-6070-4D51-BEF1-3FF68EC64F87}"/>
@@ -20148,21 +20148,21 @@
       <c r="A1" s="131" t="s">
         <v>422</v>
       </c>
-      <c r="B1" s="292" t="str">
+      <c r="B1" s="312" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="294"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="314"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="133" t="s">
@@ -20172,37 +20172,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="212">
+      <c r="B3" s="217">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="214"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="219"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="131" t="s">
@@ -20212,90 +20212,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="219"/>
+      <c r="K4" s="219"/>
+      <c r="L4" s="219"/>
+      <c r="M4" s="219"/>
     </row>
     <row r="5" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="229" t="s">
         <v>405</v>
       </c>
-      <c r="B5" s="204"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="205"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="231"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="226" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="219"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="219"/>
-      <c r="M6" s="220"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="228"/>
     </row>
     <row r="7" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="106" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="220" t="s">
         <v>580</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="216"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="216"/>
-      <c r="K7" s="216"/>
-      <c r="L7" s="216"/>
-      <c r="M7" s="217"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="222"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="230" t="s">
+      <c r="A10" s="258" t="s">
         <v>517</v>
       </c>
-      <c r="B10" s="288"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="231"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="324"/>
+      <c r="J10" s="324"/>
+      <c r="K10" s="324"/>
+      <c r="L10" s="324"/>
+      <c r="M10" s="259"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="55" t="s">
@@ -20310,17 +20310,17 @@
       <c r="D11" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="297" t="s">
+      <c r="E11" s="317" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="298"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="298"/>
-      <c r="I11" s="298"/>
-      <c r="J11" s="298"/>
-      <c r="K11" s="298"/>
-      <c r="L11" s="298"/>
-      <c r="M11" s="307"/>
+      <c r="F11" s="318"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="318"/>
+      <c r="I11" s="318"/>
+      <c r="J11" s="318"/>
+      <c r="K11" s="318"/>
+      <c r="L11" s="318"/>
+      <c r="M11" s="325"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="50" t="s">
@@ -20329,10 +20329,10 @@
       <c r="B12" s="50" t="s">
         <v>530</v>
       </c>
-      <c r="C12" s="308" t="s">
+      <c r="C12" s="326" t="s">
         <v>531</v>
       </c>
-      <c r="D12" s="309"/>
+      <c r="D12" s="327"/>
       <c r="E12" s="60"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
@@ -20346,7 +20346,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="316" t="s">
+      <c r="C13" s="209" t="s">
         <v>531</v>
       </c>
       <c r="D13" s="80">
@@ -20365,7 +20365,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="33"/>
-      <c r="C14" s="313" t="s">
+      <c r="C14" s="206" t="s">
         <v>532</v>
       </c>
       <c r="D14" s="76">
@@ -20384,7 +20384,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="313" t="s">
+      <c r="C15" s="206" t="s">
         <v>533</v>
       </c>
       <c r="D15" s="76">
@@ -20404,7 +20404,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="33"/>
-      <c r="C16" s="313" t="s">
+      <c r="C16" s="206" t="s">
         <v>534</v>
       </c>
       <c r="D16" s="76">
@@ -20423,7 +20423,7 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="33"/>
-      <c r="C17" s="313" t="s">
+      <c r="C17" s="206" t="s">
         <v>535</v>
       </c>
       <c r="D17" s="76">
@@ -20442,7 +20442,7 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="33"/>
-      <c r="C18" s="313" t="s">
+      <c r="C18" s="206" t="s">
         <v>536</v>
       </c>
       <c r="D18" s="76">
@@ -20461,7 +20461,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="313" t="s">
+      <c r="C19" s="206" t="s">
         <v>537</v>
       </c>
       <c r="D19" s="76">
@@ -20480,7 +20480,7 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="313" t="s">
+      <c r="C20" s="206" t="s">
         <v>538</v>
       </c>
       <c r="D20" s="76">
@@ -20499,7 +20499,7 @@
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="317" t="s">
+      <c r="C21" s="210" t="s">
         <v>539</v>
       </c>
       <c r="D21" s="83">
@@ -20542,7 +20542,7 @@
       <c r="B23" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="C23" s="311" t="s">
+      <c r="C23" s="204" t="s">
         <v>542</v>
       </c>
       <c r="D23" s="80">
@@ -20561,7 +20561,7 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="311" t="s">
+      <c r="C24" s="204" t="s">
         <v>543</v>
       </c>
       <c r="D24" s="76">
@@ -20580,7 +20580,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="311" t="s">
+      <c r="C25" s="204" t="s">
         <v>544</v>
       </c>
       <c r="D25" s="76">
@@ -20599,7 +20599,7 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="311" t="s">
+      <c r="C26" s="204" t="s">
         <v>545</v>
       </c>
       <c r="D26" s="76">
@@ -20618,7 +20618,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="311" t="s">
+      <c r="C27" s="204" t="s">
         <v>546</v>
       </c>
       <c r="D27" s="76">
@@ -20637,7 +20637,7 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="311" t="s">
+      <c r="C28" s="204" t="s">
         <v>547</v>
       </c>
       <c r="D28" s="76">
@@ -20656,7 +20656,7 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="311" t="s">
+      <c r="C29" s="204" t="s">
         <v>272</v>
       </c>
       <c r="D29" s="76">
@@ -20675,7 +20675,7 @@
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="311" t="s">
+      <c r="C30" s="204" t="s">
         <v>548</v>
       </c>
       <c r="D30" s="83">

--- a/ifrs-sme-model.xlsx
+++ b/ifrs-sme-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F9D3D8-DF92-4A0B-85FD-3D62B2CACE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97639F6-200D-4B80-B2D9-F4B61E15F5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
@@ -2446,7 +2446,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2804,6 +2804,51 @@
     <xf numFmtId="2" fontId="1" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2813,49 +2858,55 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2876,15 +2927,6 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2909,47 +2951,29 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2960,38 +2984,44 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3005,80 +3035,104 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3088,72 +3142,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3171,15 +3159,66 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3189,45 +3228,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -5139,41 +5140,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="213"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="228"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="267" t="str">
+      <c r="B2" s="262" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="268"/>
-      <c r="M2" s="269"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="264"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -5183,37 +5184,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="248"/>
+      <c r="K3" s="248"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="252">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="240"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="253"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="253"/>
+      <c r="K4" s="253"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="254"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -5223,90 +5224,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="254"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="226" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="212"/>
-      <c r="L6" s="212"/>
-      <c r="M6" s="213"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="228"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="211" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="221"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="222"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="213"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="226" t="s">
+      <c r="B8" s="223" t="s">
         <v>574</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="227"/>
-      <c r="M8" s="228"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="225"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="241" t="s">
+      <c r="A11" s="255" t="s">
         <v>514</v>
       </c>
-      <c r="B11" s="336"/>
-      <c r="C11" s="336"/>
-      <c r="D11" s="336"/>
-      <c r="E11" s="336"/>
-      <c r="F11" s="336"/>
-      <c r="G11" s="336"/>
-      <c r="H11" s="336"/>
-      <c r="I11" s="336"/>
-      <c r="J11" s="336"/>
-      <c r="K11" s="336"/>
-      <c r="L11" s="336"/>
-      <c r="M11" s="242"/>
+      <c r="B11" s="351"/>
+      <c r="C11" s="351"/>
+      <c r="D11" s="351"/>
+      <c r="E11" s="351"/>
+      <c r="F11" s="351"/>
+      <c r="G11" s="351"/>
+      <c r="H11" s="351"/>
+      <c r="I11" s="351"/>
+      <c r="J11" s="351"/>
+      <c r="K11" s="351"/>
+      <c r="L11" s="351"/>
+      <c r="M11" s="256"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="52" t="s">
@@ -5321,17 +5322,17 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="337" t="s">
+      <c r="E12" s="344" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="338"/>
-      <c r="G12" s="338"/>
-      <c r="H12" s="338"/>
-      <c r="I12" s="338"/>
-      <c r="J12" s="338"/>
-      <c r="K12" s="338"/>
-      <c r="L12" s="338"/>
-      <c r="M12" s="339"/>
+      <c r="F12" s="345"/>
+      <c r="G12" s="345"/>
+      <c r="H12" s="345"/>
+      <c r="I12" s="345"/>
+      <c r="J12" s="345"/>
+      <c r="K12" s="345"/>
+      <c r="L12" s="345"/>
+      <c r="M12" s="352"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47" t="s">
@@ -5340,10 +5341,10 @@
       <c r="B13" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="C13" s="340" t="s">
+      <c r="C13" s="353" t="s">
         <v>528</v>
       </c>
-      <c r="D13" s="341"/>
+      <c r="D13" s="354"/>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -5765,41 +5766,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="213"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="228"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="267" t="str">
+      <c r="B2" s="262" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="268"/>
-      <c r="M2" s="269"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="264"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -5809,37 +5810,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="248"/>
+      <c r="K3" s="248"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="252">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="240"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="253"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="253"/>
+      <c r="K4" s="253"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="254"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -5849,90 +5850,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="254"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="226" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="212"/>
-      <c r="L6" s="212"/>
-      <c r="M6" s="213"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="228"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="211" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="221"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="222"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="213"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="226" t="s">
+      <c r="B8" s="223" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="227"/>
-      <c r="M8" s="228"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="225"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="241" t="s">
+      <c r="A11" s="255" t="s">
         <v>553</v>
       </c>
-      <c r="B11" s="336"/>
-      <c r="C11" s="336"/>
-      <c r="D11" s="336"/>
-      <c r="E11" s="336"/>
-      <c r="F11" s="336"/>
-      <c r="G11" s="336"/>
-      <c r="H11" s="336"/>
-      <c r="I11" s="336"/>
-      <c r="J11" s="336"/>
-      <c r="K11" s="336"/>
-      <c r="L11" s="336"/>
-      <c r="M11" s="242"/>
+      <c r="B11" s="351"/>
+      <c r="C11" s="351"/>
+      <c r="D11" s="351"/>
+      <c r="E11" s="351"/>
+      <c r="F11" s="351"/>
+      <c r="G11" s="351"/>
+      <c r="H11" s="351"/>
+      <c r="I11" s="351"/>
+      <c r="J11" s="351"/>
+      <c r="K11" s="351"/>
+      <c r="L11" s="351"/>
+      <c r="M11" s="256"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="108" t="s">
@@ -5947,17 +5948,17 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="337" t="s">
+      <c r="E12" s="344" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="338"/>
-      <c r="G12" s="338"/>
-      <c r="H12" s="338"/>
-      <c r="I12" s="338"/>
-      <c r="J12" s="338"/>
-      <c r="K12" s="338"/>
-      <c r="L12" s="338"/>
-      <c r="M12" s="339"/>
+      <c r="F12" s="345"/>
+      <c r="G12" s="345"/>
+      <c r="H12" s="345"/>
+      <c r="I12" s="345"/>
+      <c r="J12" s="345"/>
+      <c r="K12" s="345"/>
+      <c r="L12" s="345"/>
+      <c r="M12" s="352"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="141" t="s">
@@ -5966,10 +5967,10 @@
       <c r="B13" s="134" t="s">
         <v>555</v>
       </c>
-      <c r="C13" s="340" t="s">
+      <c r="C13" s="353" t="s">
         <v>555</v>
       </c>
-      <c r="D13" s="341"/>
+      <c r="D13" s="354"/>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -6160,10 +6161,10 @@
       <c r="A23" s="137">
         <v>7.21</v>
       </c>
-      <c r="B23" s="235" t="s">
+      <c r="B23" s="233" t="s">
         <v>564</v>
       </c>
-      <c r="C23" s="237"/>
+      <c r="C23" s="235"/>
       <c r="D23" s="41"/>
       <c r="E23" s="61"/>
       <c r="F23" s="10"/>
@@ -6930,119 +6931,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="226" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="213"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="228"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="217" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="216"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="219"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="107" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="216"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="219"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="214" t="s">
+      <c r="B4" s="217" t="s">
         <v>421</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="216"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="219"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>547</v>
       </c>
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="217" t="s">
         <v>550</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="216"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="219"/>
     </row>
     <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107" t="s">
         <v>418</v>
       </c>
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="217" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="216"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="219"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="107" t="s">
         <v>548</v>
       </c>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="217" t="s">
         <v>551</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="219"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="217">
+      <c r="B8" s="220">
         <v>45292</v>
       </c>
-      <c r="C8" s="218"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="219"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="222"/>
     </row>
     <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="217">
+      <c r="B9" s="220">
         <v>45657</v>
       </c>
-      <c r="C9" s="218"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="219"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="222"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="117" t="s">
@@ -7115,95 +7116,95 @@
       <c r="A17" s="105" t="s">
         <v>407</v>
       </c>
-      <c r="B17" s="220" t="s">
+      <c r="B17" s="211" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="222"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="213"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" s="105"/>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="214" t="s">
         <v>410</v>
       </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="225"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="215"/>
+      <c r="G18" s="216"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" s="105"/>
-      <c r="B19" s="223" t="s">
+      <c r="B19" s="214" t="s">
         <v>411</v>
       </c>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="225"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="216"/>
     </row>
     <row r="20" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="106"/>
-      <c r="B20" s="226" t="s">
+      <c r="B20" s="223" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="227"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="228"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="225"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="105" t="s">
         <v>408</v>
       </c>
-      <c r="B21" s="217" t="s">
+      <c r="B21" s="220" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="218"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="218"/>
-      <c r="G21" s="219"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="222"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="104" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="220" t="s">
+      <c r="B22" s="211" t="s">
         <v>415</v>
       </c>
-      <c r="C22" s="221"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="221"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="222"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="213"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A23" s="105"/>
-      <c r="B23" s="223" t="s">
+      <c r="B23" s="214" t="s">
         <v>416</v>
       </c>
-      <c r="C23" s="224"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="225"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="216"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A24" s="105"/>
-      <c r="B24" s="223" t="s">
+      <c r="B24" s="214" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="224"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="224"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="225"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="216"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A25" s="105"/>
@@ -7273,6 +7274,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
@@ -7282,14 +7291,6 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
@@ -7325,118 +7326,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="213"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="228"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="229" t="str">
+      <c r="B2" s="246" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="231"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="248"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="229" t="str">
+      <c r="B3" s="246" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="231"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="248"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="252">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="240"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="254"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="238">
+      <c r="B5" s="252">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="240"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="254"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="226" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="213"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="228"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="257" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="245"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="258"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="258"/>
+      <c r="G7" s="259"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="232" t="s">
+      <c r="B8" s="249" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="233"/>
-      <c r="G8" s="234"/>
+      <c r="C8" s="250"/>
+      <c r="D8" s="250"/>
+      <c r="E8" s="250"/>
+      <c r="F8" s="250"/>
+      <c r="G8" s="251"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="241" t="s">
+      <c r="B10" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="242"/>
+      <c r="C10" s="256"/>
       <c r="D10" s="138" t="s">
         <v>73</v>
       </c>
@@ -7453,33 +7454,33 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="235" t="s">
+      <c r="B11" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="236"/>
-      <c r="G11" s="237"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="235"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="254" t="s">
+      <c r="B12" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="255"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="255"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="256"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="243"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="248" t="s">
+      <c r="B13" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="249"/>
+      <c r="C13" s="232"/>
       <c r="D13" s="6" t="s">
         <v>123</v>
       </c>
@@ -7498,10 +7499,10 @@
       <c r="A14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="246" t="s">
+      <c r="B14" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="247"/>
+      <c r="C14" s="230"/>
       <c r="D14" s="7"/>
       <c r="E14" s="72"/>
       <c r="F14" s="78">
@@ -7513,10 +7514,10 @@
       <c r="A15" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="246" t="s">
+      <c r="B15" s="229" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="247"/>
+      <c r="C15" s="230"/>
       <c r="D15" s="7"/>
       <c r="E15" s="72"/>
       <c r="F15" s="78"/>
@@ -7526,10 +7527,10 @@
       <c r="A16" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="247"/>
+      <c r="C16" s="230"/>
       <c r="D16" s="7"/>
       <c r="E16" s="72">
         <v>20</v>
@@ -7543,10 +7544,10 @@
       <c r="A17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="246" t="s">
+      <c r="B17" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="247"/>
+      <c r="C17" s="230"/>
       <c r="D17" s="7"/>
       <c r="E17" s="72">
         <v>30</v>
@@ -7560,10 +7561,10 @@
       <c r="A18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="246" t="s">
+      <c r="B18" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="247"/>
+      <c r="C18" s="230"/>
       <c r="D18" s="7"/>
       <c r="E18" s="72"/>
       <c r="F18" s="78"/>
@@ -7573,10 +7574,10 @@
       <c r="A19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="246" t="s">
+      <c r="B19" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="247"/>
+      <c r="C19" s="230"/>
       <c r="D19" s="7"/>
       <c r="E19" s="72"/>
       <c r="F19" s="78"/>
@@ -7586,10 +7587,10 @@
       <c r="A20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="246" t="s">
+      <c r="B20" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="247"/>
+      <c r="C20" s="230"/>
       <c r="D20" s="7"/>
       <c r="E20" s="72"/>
       <c r="F20" s="78"/>
@@ -7599,10 +7600,10 @@
       <c r="A21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="246" t="s">
+      <c r="B21" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="247"/>
+      <c r="C21" s="230"/>
       <c r="D21" s="7"/>
       <c r="E21" s="72"/>
       <c r="F21" s="78"/>
@@ -7612,10 +7613,10 @@
       <c r="A22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="246" t="s">
+      <c r="B22" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="247"/>
+      <c r="C22" s="230"/>
       <c r="D22" s="7" t="s">
         <v>124</v>
       </c>
@@ -7632,10 +7633,10 @@
       <c r="A23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="247"/>
+      <c r="C23" s="230"/>
       <c r="D23" s="7"/>
       <c r="E23" s="72"/>
       <c r="F23" s="78"/>
@@ -7645,10 +7646,10 @@
       <c r="A24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="246" t="s">
+      <c r="B24" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="247"/>
+      <c r="C24" s="230"/>
       <c r="D24" s="7"/>
       <c r="E24" s="72"/>
       <c r="F24" s="78"/>
@@ -7658,10 +7659,10 @@
       <c r="A25" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="246" t="s">
+      <c r="B25" s="229" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="247"/>
+      <c r="C25" s="230"/>
       <c r="D25" s="7"/>
       <c r="E25" s="72"/>
       <c r="F25" s="78"/>
@@ -7671,10 +7672,10 @@
       <c r="A26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="246" t="s">
+      <c r="B26" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="247"/>
+      <c r="C26" s="230"/>
       <c r="D26" s="7"/>
       <c r="E26" s="72"/>
       <c r="F26" s="78"/>
@@ -7684,20 +7685,20 @@
       <c r="A27" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="252" t="s">
+      <c r="B27" s="239" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="253"/>
+      <c r="C27" s="240"/>
       <c r="D27" s="8"/>
       <c r="E27" s="79"/>
       <c r="F27" s="78"/>
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="250" t="s">
+      <c r="B28" s="244" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="251"/>
+      <c r="C28" s="245"/>
       <c r="E28" s="184">
         <f>SUM(E13:E27)</f>
         <v>51</v>
@@ -7725,23 +7726,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="235" t="s">
+      <c r="B31" s="233" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="236"/>
-      <c r="D31" s="236"/>
-      <c r="E31" s="236"/>
-      <c r="F31" s="236"/>
-      <c r="G31" s="236"/>
+      <c r="C31" s="234"/>
+      <c r="D31" s="234"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="234"/>
+      <c r="G31" s="234"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="248" t="s">
+      <c r="B32" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="249"/>
+      <c r="C32" s="232"/>
       <c r="D32" s="6" t="s">
         <v>125</v>
       </c>
@@ -7760,10 +7761,10 @@
       <c r="A33" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="246" t="s">
+      <c r="B33" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="247"/>
+      <c r="C33" s="230"/>
       <c r="D33" s="7" t="s">
         <v>126</v>
       </c>
@@ -7780,10 +7781,10 @@
       <c r="A34" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="246" t="s">
+      <c r="B34" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="247"/>
+      <c r="C34" s="230"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72"/>
       <c r="F34" s="72"/>
@@ -7793,10 +7794,10 @@
       <c r="A35" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="246" t="s">
+      <c r="B35" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="247"/>
+      <c r="C35" s="230"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72"/>
       <c r="F35" s="72"/>
@@ -7806,10 +7807,10 @@
       <c r="A36" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="246" t="s">
+      <c r="B36" s="229" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="247"/>
+      <c r="C36" s="230"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72"/>
       <c r="F36" s="72"/>
@@ -7819,10 +7820,10 @@
       <c r="A37" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="246" t="s">
+      <c r="B37" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="247"/>
+      <c r="C37" s="230"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
@@ -7832,10 +7833,10 @@
       <c r="A38" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="246" t="s">
+      <c r="B38" s="229" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="247"/>
+      <c r="C38" s="230"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72"/>
       <c r="F38" s="72"/>
@@ -7845,10 +7846,10 @@
       <c r="A39" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="246" t="s">
+      <c r="B39" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="247"/>
+      <c r="C39" s="230"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>10</v>
@@ -7862,20 +7863,20 @@
       <c r="A40" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="252" t="s">
+      <c r="B40" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="253"/>
+      <c r="C40" s="240"/>
       <c r="D40" s="8"/>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
       <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="235" t="s">
+      <c r="B41" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="237"/>
+      <c r="C41" s="235"/>
       <c r="E41" s="185">
         <f>SUM(E32:E40)</f>
         <v>40</v>
@@ -7886,10 +7887,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="235" t="s">
+      <c r="B42" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="237"/>
+      <c r="C42" s="235"/>
       <c r="E42" s="185">
         <f>SUM(E28,E41)</f>
         <v>91</v>
@@ -7920,33 +7921,33 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="235" t="s">
+      <c r="B45" s="233" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="236"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="236"/>
-      <c r="G45" s="237"/>
+      <c r="C45" s="234"/>
+      <c r="D45" s="234"/>
+      <c r="E45" s="234"/>
+      <c r="F45" s="234"/>
+      <c r="G45" s="235"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="235" t="s">
+      <c r="B46" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="236"/>
-      <c r="D46" s="236"/>
-      <c r="E46" s="236"/>
-      <c r="F46" s="236"/>
-      <c r="G46" s="237"/>
+      <c r="C46" s="234"/>
+      <c r="D46" s="234"/>
+      <c r="E46" s="234"/>
+      <c r="F46" s="234"/>
+      <c r="G46" s="235"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="248" t="s">
+      <c r="B47" s="231" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="249"/>
+      <c r="C47" s="232"/>
       <c r="D47" s="6" t="s">
         <v>127</v>
       </c>
@@ -7963,10 +7964,10 @@
       <c r="A48" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="246" t="s">
+      <c r="B48" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="247"/>
+      <c r="C48" s="230"/>
       <c r="D48" s="7" t="s">
         <v>128</v>
       </c>
@@ -7983,10 +7984,10 @@
       <c r="A49" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="246" t="s">
+      <c r="B49" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="247"/>
+      <c r="C49" s="230"/>
       <c r="D49" s="7" t="s">
         <v>129</v>
       </c>
@@ -8003,10 +8004,10 @@
       <c r="A50" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="246" t="s">
+      <c r="B50" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="247"/>
+      <c r="C50" s="230"/>
       <c r="D50" s="7"/>
       <c r="E50" s="72"/>
       <c r="F50" s="78"/>
@@ -8016,10 +8017,10 @@
       <c r="A51" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="246" t="s">
+      <c r="B51" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="247"/>
+      <c r="C51" s="230"/>
       <c r="D51" s="7" t="s">
         <v>130</v>
       </c>
@@ -8036,10 +8037,10 @@
       <c r="A52" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="246" t="s">
+      <c r="B52" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="247"/>
+      <c r="C52" s="230"/>
       <c r="D52" s="8" t="s">
         <v>131</v>
       </c>
@@ -8056,10 +8057,10 @@
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="235" t="s">
+      <c r="B53" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="237"/>
+      <c r="C53" s="235"/>
       <c r="D53" s="81"/>
       <c r="E53" s="186">
         <f>SUM(E47:E52)</f>
@@ -8074,19 +8075,19 @@
       <c r="A54" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="252" t="s">
+      <c r="B54" s="239" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="253"/>
+      <c r="C54" s="240"/>
       <c r="D54" s="82"/>
       <c r="E54" s="9"/>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="235" t="s">
+      <c r="B55" s="233" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="237"/>
+      <c r="C55" s="235"/>
       <c r="E55" s="184">
         <f>SUM(E53,E54)</f>
         <v>15</v>
@@ -8114,33 +8115,33 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="235" t="s">
+      <c r="B58" s="233" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="236"/>
-      <c r="D58" s="236"/>
-      <c r="E58" s="236"/>
-      <c r="F58" s="236"/>
-      <c r="G58" s="237"/>
+      <c r="C58" s="234"/>
+      <c r="D58" s="234"/>
+      <c r="E58" s="234"/>
+      <c r="F58" s="234"/>
+      <c r="G58" s="235"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="254" t="s">
+      <c r="B59" s="241" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="255"/>
-      <c r="D59" s="255"/>
-      <c r="E59" s="255"/>
-      <c r="F59" s="255"/>
-      <c r="G59" s="255"/>
+      <c r="C59" s="242"/>
+      <c r="D59" s="242"/>
+      <c r="E59" s="242"/>
+      <c r="F59" s="242"/>
+      <c r="G59" s="242"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="248" t="s">
+      <c r="B60" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="249"/>
+      <c r="C60" s="232"/>
       <c r="D60" s="6"/>
       <c r="E60" s="76"/>
       <c r="F60" s="77"/>
@@ -8150,10 +8151,10 @@
       <c r="A61" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="246" t="s">
+      <c r="B61" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="247"/>
+      <c r="C61" s="230"/>
       <c r="D61" s="7" t="s">
         <v>311</v>
       </c>
@@ -8172,10 +8173,10 @@
       <c r="A62" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="252" t="s">
+      <c r="B62" s="239" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="253"/>
+      <c r="C62" s="240"/>
       <c r="D62" s="8"/>
       <c r="E62" s="79">
         <v>2</v>
@@ -8204,10 +8205,10 @@
       <c r="A64" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="248" t="s">
+      <c r="B64" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="249"/>
+      <c r="C64" s="232"/>
       <c r="D64" s="6" t="s">
         <v>312</v>
       </c>
@@ -8224,10 +8225,10 @@
       <c r="A65" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="246" t="s">
+      <c r="B65" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="247"/>
+      <c r="C65" s="230"/>
       <c r="D65" s="7"/>
       <c r="E65" s="72">
         <v>4</v>
@@ -8241,10 +8242,10 @@
       <c r="A66" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="246" t="s">
+      <c r="B66" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="247"/>
+      <c r="C66" s="230"/>
       <c r="D66" s="7"/>
       <c r="E66" s="72"/>
       <c r="F66" s="78"/>
@@ -8254,10 +8255,10 @@
       <c r="A67" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="246" t="s">
+      <c r="B67" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="247"/>
+      <c r="C67" s="230"/>
       <c r="D67" s="7"/>
       <c r="E67" s="72"/>
       <c r="F67" s="78"/>
@@ -8267,10 +8268,10 @@
       <c r="A68" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="246" t="s">
+      <c r="B68" s="229" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="247"/>
+      <c r="C68" s="230"/>
       <c r="D68" s="7"/>
       <c r="E68" s="72"/>
       <c r="F68" s="78"/>
@@ -8280,20 +8281,20 @@
       <c r="A69" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="252" t="s">
+      <c r="B69" s="239" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="253"/>
+      <c r="C69" s="240"/>
       <c r="D69" s="8"/>
       <c r="E69" s="79"/>
       <c r="F69" s="83"/>
       <c r="G69" s="38"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="235" t="s">
+      <c r="B70" s="233" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="237"/>
+      <c r="C70" s="235"/>
       <c r="E70" s="184">
         <f>SUM(E63:E69)</f>
         <v>9</v>
@@ -8322,23 +8323,23 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="235" t="s">
+      <c r="B73" s="233" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="236"/>
-      <c r="D73" s="236"/>
-      <c r="E73" s="236"/>
-      <c r="F73" s="236"/>
-      <c r="G73" s="236"/>
+      <c r="C73" s="234"/>
+      <c r="D73" s="234"/>
+      <c r="E73" s="234"/>
+      <c r="F73" s="234"/>
+      <c r="G73" s="234"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B74" s="248" t="s">
+      <c r="B74" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="249"/>
+      <c r="C74" s="232"/>
       <c r="D74" s="6"/>
       <c r="E74" s="76"/>
       <c r="F74" s="78"/>
@@ -8348,10 +8349,10 @@
       <c r="A75" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B75" s="246" t="s">
+      <c r="B75" s="229" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="247"/>
+      <c r="C75" s="230"/>
       <c r="D75" s="7" t="s">
         <v>311</v>
       </c>
@@ -8370,20 +8371,20 @@
       <c r="A76" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B76" s="252" t="s">
+      <c r="B76" s="239" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="253"/>
+      <c r="C76" s="240"/>
       <c r="D76" s="8"/>
       <c r="E76" s="79"/>
       <c r="F76" s="78"/>
       <c r="G76" s="38"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="235" t="s">
+      <c r="B77" s="233" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="237"/>
+      <c r="C77" s="235"/>
       <c r="D77" s="84"/>
       <c r="E77" s="188">
         <f>SUM(E74:E76)</f>
@@ -8398,10 +8399,10 @@
       <c r="A78" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B78" s="248" t="s">
+      <c r="B78" s="231" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="249"/>
+      <c r="C78" s="232"/>
       <c r="D78" s="6" t="s">
         <v>312</v>
       </c>
@@ -8420,10 +8421,10 @@
       <c r="A79" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B79" s="246" t="s">
+      <c r="B79" s="229" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="247"/>
+      <c r="C79" s="230"/>
       <c r="D79" s="7"/>
       <c r="E79" s="72"/>
       <c r="F79" s="78"/>
@@ -8433,10 +8434,10 @@
       <c r="A80" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B80" s="246" t="s">
+      <c r="B80" s="229" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="247"/>
+      <c r="C80" s="230"/>
       <c r="D80" s="7"/>
       <c r="E80" s="72"/>
       <c r="F80" s="78"/>
@@ -8446,10 +8447,10 @@
       <c r="A81" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B81" s="246" t="s">
+      <c r="B81" s="229" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="247"/>
+      <c r="C81" s="230"/>
       <c r="D81" s="7"/>
       <c r="E81" s="72">
         <v>2</v>
@@ -8463,10 +8464,10 @@
       <c r="A82" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B82" s="246" t="s">
+      <c r="B82" s="229" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="247"/>
+      <c r="C82" s="230"/>
       <c r="D82" s="7"/>
       <c r="E82" s="72">
         <v>2</v>
@@ -8480,21 +8481,21 @@
       <c r="A83" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B83" s="252" t="s">
+      <c r="B83" s="239" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="253"/>
+      <c r="C83" s="240"/>
       <c r="D83" s="8"/>
       <c r="E83" s="79"/>
       <c r="F83" s="83"/>
       <c r="G83" s="38"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="235" t="s">
+      <c r="B84" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="236"/>
-      <c r="D84" s="237"/>
+      <c r="C84" s="234"/>
+      <c r="D84" s="235"/>
       <c r="E84" s="184">
         <f>SUM(E77:E83)</f>
         <v>16</v>
@@ -8508,11 +8509,11 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="235" t="s">
+      <c r="B86" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="236"/>
-      <c r="D86" s="237"/>
+      <c r="C86" s="234"/>
+      <c r="D86" s="235"/>
       <c r="E86" s="184">
         <f>SUM(E70,E84)</f>
         <v>25</v>
@@ -8524,11 +8525,11 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="235" t="s">
+      <c r="B88" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="236"/>
-      <c r="D88" s="237"/>
+      <c r="C88" s="234"/>
+      <c r="D88" s="235"/>
       <c r="E88" s="184">
         <f>SUM(E55,E86)</f>
         <v>40</v>
@@ -8546,12 +8547,12 @@
       <c r="A91" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="257" t="str">
+      <c r="B91" s="236" t="str">
         <f>IF(AND(E91=0,F91=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C91" s="258"/>
-      <c r="D91" s="259"/>
+      <c r="C91" s="237"/>
+      <c r="D91" s="238"/>
       <c r="E91" s="75">
         <f>E88-E42</f>
         <v>-51</v>
@@ -8570,11 +8571,62 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B84:D84"/>
@@ -8591,62 +8643,11 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B91">
@@ -8703,14 +8704,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="260" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="266"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="261"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
       <c r="I1" s="97"/>
@@ -8719,63 +8720,63 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="267" t="str">
+      <c r="B2" s="262" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="269"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="264"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="229" t="str">
+      <c r="B3" s="246" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="231"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="248"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="252">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="240"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="254"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="270">
+      <c r="B5" s="265">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="271"/>
-      <c r="D5" s="271"/>
-      <c r="E5" s="271"/>
-      <c r="F5" s="272"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="267"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="273" t="s">
+      <c r="A6" s="271" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="266"/>
+      <c r="B6" s="260"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="261"/>
       <c r="G6" s="97"/>
       <c r="H6" s="97"/>
       <c r="I6" s="97"/>
@@ -8784,35 +8785,35 @@
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="260" t="s">
+      <c r="B7" s="268" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="262"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="270"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="260" t="s">
+      <c r="B8" s="268" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="261"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="262"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="270"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="241" t="s">
+      <c r="B12" s="255" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="242"/>
+      <c r="C12" s="256"/>
       <c r="D12" s="138" t="s">
         <v>73</v>
       </c>
@@ -8829,23 +8830,23 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="235" t="s">
+      <c r="B13" s="233" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="236"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="234"/>
       <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="231" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="249"/>
+      <c r="C14" s="232"/>
       <c r="D14" s="113" t="s">
         <v>566</v>
       </c>
@@ -8864,10 +8865,10 @@
       <c r="A15" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B15" s="246" t="s">
+      <c r="B15" s="229" t="s">
         <v>372</v>
       </c>
-      <c r="C15" s="247"/>
+      <c r="C15" s="230"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>2</v>
@@ -8881,10 +8882,10 @@
       <c r="A16" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="229" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="247"/>
+      <c r="C16" s="230"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>3</v>
@@ -8898,10 +8899,10 @@
       <c r="A17" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="246" t="s">
+      <c r="B17" s="229" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="247"/>
+      <c r="C17" s="230"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>2</v>
@@ -8915,10 +8916,10 @@
       <c r="A18" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="246" t="s">
+      <c r="B18" s="229" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="247"/>
+      <c r="C18" s="230"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>-6</v>
@@ -8932,10 +8933,10 @@
       <c r="A19" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B19" s="246" t="s">
+      <c r="B19" s="229" t="s">
         <v>370</v>
       </c>
-      <c r="C19" s="247"/>
+      <c r="C19" s="230"/>
       <c r="D19" s="113">
         <v>28.4</v>
       </c>
@@ -8954,10 +8955,10 @@
       <c r="A20" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B20" s="246" t="s">
+      <c r="B20" s="229" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="247"/>
+      <c r="C20" s="230"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>-6</v>
@@ -8971,10 +8972,10 @@
       <c r="A21" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B21" s="246" t="s">
+      <c r="B21" s="229" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="247"/>
+      <c r="C21" s="230"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>-6</v>
@@ -8988,10 +8989,10 @@
       <c r="A22" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="246" t="s">
+      <c r="B22" s="229" t="s">
         <v>368</v>
       </c>
-      <c r="C22" s="247"/>
+      <c r="C22" s="230"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>-4</v>
@@ -9005,10 +9006,10 @@
       <c r="A23" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B23" s="252" t="s">
+      <c r="B23" s="239" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="253"/>
+      <c r="C23" s="240"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>-6</v>
@@ -9020,10 +9021,10 @@
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="110"/>
-      <c r="B24" s="236" t="s">
+      <c r="B24" s="234" t="s">
         <v>289</v>
       </c>
-      <c r="C24" s="237"/>
+      <c r="C24" s="235"/>
       <c r="D24" s="112"/>
       <c r="E24" s="188">
         <f>SUM(E14:E23)</f>
@@ -9039,10 +9040,10 @@
       <c r="A25" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B25" s="248" t="s">
+      <c r="B25" s="231" t="s">
         <v>374</v>
       </c>
-      <c r="C25" s="249"/>
+      <c r="C25" s="232"/>
       <c r="D25" s="113"/>
       <c r="E25" s="72">
         <v>6</v>
@@ -9056,10 +9057,10 @@
       <c r="A26" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B26" s="246" t="s">
+      <c r="B26" s="229" t="s">
         <v>375</v>
       </c>
-      <c r="C26" s="247"/>
+      <c r="C26" s="230"/>
       <c r="D26" s="113"/>
       <c r="E26" s="72">
         <v>-3</v>
@@ -9073,10 +9074,10 @@
       <c r="A27" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B27" s="252" t="s">
+      <c r="B27" s="239" t="s">
         <v>376</v>
       </c>
-      <c r="C27" s="253"/>
+      <c r="C27" s="240"/>
       <c r="D27" s="113"/>
       <c r="E27" s="72">
         <v>6</v>
@@ -9088,10 +9089,10 @@
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="110"/>
-      <c r="B28" s="236" t="s">
+      <c r="B28" s="234" t="s">
         <v>288</v>
       </c>
-      <c r="C28" s="237"/>
+      <c r="C28" s="235"/>
       <c r="D28" s="112"/>
       <c r="E28" s="188">
         <f>SUM(E24:E27)</f>
@@ -9107,10 +9108,10 @@
       <c r="A29" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B29" s="263" t="s">
+      <c r="B29" s="272" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="264"/>
+      <c r="C29" s="273"/>
       <c r="D29" s="113"/>
       <c r="E29" s="74">
         <v>1</v>
@@ -9122,10 +9123,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="110"/>
-      <c r="B30" s="236" t="s">
+      <c r="B30" s="234" t="s">
         <v>405</v>
       </c>
-      <c r="C30" s="237"/>
+      <c r="C30" s="235"/>
       <c r="D30" s="112"/>
       <c r="E30" s="188">
         <f>SUM(E28:E29)</f>
@@ -9145,12 +9146,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B12:C12"/>
@@ -9167,11 +9167,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9A9E6224-643C-4AD9-9436-A2DC070A0C83}"/>
@@ -9201,12 +9202,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="260" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
@@ -9215,79 +9216,79 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="267" t="str">
+      <c r="B2" s="262" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="269"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="264"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="229" t="str">
+      <c r="B3" s="246" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="231"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="248"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="252">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="240"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="254"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="270">
+      <c r="B5" s="265">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="271"/>
-      <c r="D5" s="271"/>
-      <c r="E5" s="272"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="267"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="282" t="s">
+      <c r="B6" s="276" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="284"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="277"/>
+      <c r="E6" s="278"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="260" t="s">
+      <c r="B7" s="268" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="262"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="270"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="260" t="s">
+      <c r="B8" s="268" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="261"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="262"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="270"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9295,10 +9296,10 @@
       <c r="A11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="241" t="s">
+      <c r="B11" s="255" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="242"/>
+      <c r="C11" s="256"/>
       <c r="D11" s="11">
         <f>DATE(YEAR(B5),1,1)</f>
         <v>45292</v>
@@ -9312,31 +9313,31 @@
       <c r="A12" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="278" t="s">
+      <c r="B12" s="274" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="279"/>
+      <c r="C12" s="275"/>
       <c r="D12" s="72">
         <v>1</v>
       </c>
       <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="279" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="287"/>
+      <c r="C13" s="280"/>
+      <c r="D13" s="280"/>
+      <c r="E13" s="281"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B14" s="276" t="s">
+      <c r="B14" s="286" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="277"/>
+      <c r="C14" s="287"/>
       <c r="D14" s="94"/>
       <c r="E14" s="72">
         <v>1</v>
@@ -9346,21 +9347,21 @@
       <c r="A15" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="280" t="s">
+      <c r="B15" s="282" t="s">
         <v>389</v>
       </c>
-      <c r="C15" s="281"/>
+      <c r="C15" s="283"/>
       <c r="D15" s="94"/>
       <c r="E15" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="285" t="s">
+      <c r="B16" s="279" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="286"/>
-      <c r="D16" s="287"/>
+      <c r="C16" s="280"/>
+      <c r="D16" s="281"/>
       <c r="E16" s="189">
         <f>SUM(E14:E15)</f>
         <v>2</v>
@@ -9370,10 +9371,10 @@
       <c r="A17" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="B17" s="276" t="s">
+      <c r="B17" s="286" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="277"/>
+      <c r="C17" s="287"/>
       <c r="D17" s="95"/>
       <c r="E17" s="72">
         <v>1</v>
@@ -9383,10 +9384,10 @@
       <c r="A18" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="B18" s="274" t="s">
+      <c r="B18" s="284" t="s">
         <v>391</v>
       </c>
-      <c r="C18" s="275"/>
+      <c r="C18" s="285"/>
       <c r="D18" s="95"/>
       <c r="E18" s="72">
         <v>-1</v>
@@ -9396,10 +9397,10 @@
       <c r="A19" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="B19" s="274" t="s">
+      <c r="B19" s="284" t="s">
         <v>392</v>
       </c>
-      <c r="C19" s="275"/>
+      <c r="C19" s="285"/>
       <c r="D19" s="95"/>
       <c r="E19" s="72">
         <v>1</v>
@@ -9409,10 +9410,10 @@
       <c r="A20" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B20" s="274" t="s">
+      <c r="B20" s="284" t="s">
         <v>393</v>
       </c>
-      <c r="C20" s="275"/>
+      <c r="C20" s="285"/>
       <c r="D20" s="95"/>
       <c r="E20" s="72">
         <v>-1</v>
@@ -9422,10 +9423,10 @@
       <c r="A21" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="B21" s="274" t="s">
+      <c r="B21" s="284" t="s">
         <v>394</v>
       </c>
-      <c r="C21" s="275"/>
+      <c r="C21" s="285"/>
       <c r="D21" s="95"/>
       <c r="E21" s="72">
         <v>1</v>
@@ -9435,10 +9436,10 @@
       <c r="A22" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="284" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="275"/>
+      <c r="C22" s="285"/>
       <c r="D22" s="95"/>
       <c r="E22" s="72">
         <v>1</v>
@@ -9448,10 +9449,10 @@
       <c r="A23" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B23" s="274" t="s">
+      <c r="B23" s="284" t="s">
         <v>396</v>
       </c>
-      <c r="C23" s="275"/>
+      <c r="C23" s="285"/>
       <c r="D23" s="95"/>
       <c r="E23" s="72">
         <v>-1</v>
@@ -9461,10 +9462,10 @@
       <c r="A24" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B24" s="280" t="s">
+      <c r="B24" s="282" t="s">
         <v>397</v>
       </c>
-      <c r="C24" s="281"/>
+      <c r="C24" s="283"/>
       <c r="D24" s="95"/>
       <c r="E24" s="72">
         <v>1</v>
@@ -9472,11 +9473,11 @@
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="285" t="s">
+      <c r="B25" s="279" t="s">
         <v>385</v>
       </c>
-      <c r="C25" s="286"/>
-      <c r="D25" s="287"/>
+      <c r="C25" s="280"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="189">
         <f>SUM(E17:E24)</f>
         <v>2</v>
@@ -9487,10 +9488,10 @@
       <c r="A26" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B26" s="278" t="s">
+      <c r="B26" s="274" t="s">
         <v>386</v>
       </c>
-      <c r="C26" s="279"/>
+      <c r="C26" s="275"/>
       <c r="D26" s="96"/>
       <c r="E26" s="184">
         <f>SUM(D12,E16,E25)</f>
@@ -9499,6 +9500,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B1:E1"/>
@@ -9515,14 +9524,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{C1006350-697E-4D07-926A-51DA25DB4809}"/>
@@ -9556,146 +9557,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="296" t="s">
+      <c r="B1" s="298" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="297"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="299"/>
       <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="267" t="str">
+      <c r="B2" s="262" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="269"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="264"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="229" t="str">
+      <c r="B3" s="246" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="231"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="248"/>
     </row>
     <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="252">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="240"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="254"/>
     </row>
     <row r="5" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="270">
+      <c r="B5" s="265">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="271"/>
-      <c r="D5" s="271"/>
-      <c r="E5" s="272"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="267"/>
     </row>
     <row r="6" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="282" t="s">
+      <c r="B6" s="276" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="284"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="277"/>
+      <c r="E6" s="278"/>
       <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="260" t="s">
+      <c r="B7" s="268" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="262"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="270"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="260" t="s">
+      <c r="B8" s="268" t="s">
         <v>572</v>
       </c>
-      <c r="C8" s="261"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="262"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="270"/>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="294" t="s">
+      <c r="A10" s="288" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="298" t="s">
+      <c r="B10" s="290" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="299"/>
-      <c r="D10" s="289" t="s">
+      <c r="C10" s="291"/>
+      <c r="D10" s="300" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="294">
+      <c r="E10" s="288">
         <f>B5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="295"/>
-      <c r="B11" s="300"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="290"/>
-      <c r="E11" s="295"/>
+      <c r="A11" s="289"/>
+      <c r="B11" s="292"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="301"/>
+      <c r="E11" s="289"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="291" t="s">
+      <c r="B12" s="294" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="292"/>
-      <c r="D12" s="293"/>
+      <c r="C12" s="296"/>
+      <c r="D12" s="297"/>
       <c r="E12" s="149">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="291" t="s">
+      <c r="B13" s="294" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="292"/>
-      <c r="D13" s="292"/>
-      <c r="E13" s="293"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="297"/>
     </row>
     <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="231" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="249"/>
+      <c r="C14" s="232"/>
       <c r="D14" s="113"/>
       <c r="E14" s="76">
         <v>1</v>
@@ -9705,10 +9706,10 @@
       <c r="A15" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B15" s="246" t="s">
+      <c r="B15" s="229" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="247"/>
+      <c r="C15" s="230"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>-1</v>
@@ -9718,10 +9719,10 @@
       <c r="A16" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="229" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="247"/>
+      <c r="C16" s="230"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>-1</v>
@@ -9731,10 +9732,10 @@
       <c r="A17" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="246" t="s">
+      <c r="B17" s="229" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="247"/>
+      <c r="C17" s="230"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>-1</v>
@@ -9744,10 +9745,10 @@
       <c r="A18" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="B18" s="246" t="s">
+      <c r="B18" s="229" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="247"/>
+      <c r="C18" s="230"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>2</v>
@@ -9757,10 +9758,10 @@
       <c r="A19" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="B19" s="246" t="s">
+      <c r="B19" s="229" t="s">
         <v>320</v>
       </c>
-      <c r="C19" s="247"/>
+      <c r="C19" s="230"/>
       <c r="D19" s="113"/>
       <c r="E19" s="72">
         <v>2</v>
@@ -9770,10 +9771,10 @@
       <c r="A20" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="B20" s="246" t="s">
+      <c r="B20" s="229" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="247"/>
+      <c r="C20" s="230"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>3</v>
@@ -9784,10 +9785,10 @@
       <c r="A21" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="B21" s="246" t="s">
+      <c r="B21" s="229" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="247"/>
+      <c r="C21" s="230"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>3</v>
@@ -9798,10 +9799,10 @@
       <c r="A22" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="246" t="s">
+      <c r="B22" s="229" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="247"/>
+      <c r="C22" s="230"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>4</v>
@@ -9812,10 +9813,10 @@
       <c r="A23" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="229" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="247"/>
+      <c r="C23" s="230"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>1</v>
@@ -9826,10 +9827,10 @@
       <c r="A24" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B24" s="246" t="s">
+      <c r="B24" s="229" t="s">
         <v>366</v>
       </c>
-      <c r="C24" s="247"/>
+      <c r="C24" s="230"/>
       <c r="D24" s="113"/>
       <c r="E24" s="72">
         <v>5</v>
@@ -9840,10 +9841,10 @@
       <c r="A25" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B25" s="246" t="s">
+      <c r="B25" s="229" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="247"/>
+      <c r="C25" s="230"/>
       <c r="D25" s="113"/>
       <c r="E25" s="72">
         <v>-3</v>
@@ -9854,10 +9855,10 @@
       <c r="A26" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="B26" s="246" t="s">
+      <c r="B26" s="229" t="s">
         <v>326</v>
       </c>
-      <c r="C26" s="247"/>
+      <c r="C26" s="230"/>
       <c r="D26" s="113"/>
       <c r="E26" s="72">
         <v>4</v>
@@ -9868,10 +9869,10 @@
       <c r="A27" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B27" s="246" t="s">
+      <c r="B27" s="229" t="s">
         <v>327</v>
       </c>
-      <c r="C27" s="247"/>
+      <c r="C27" s="230"/>
       <c r="D27" s="113"/>
       <c r="E27" s="72">
         <v>-5</v>
@@ -9882,10 +9883,10 @@
       <c r="A28" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B28" s="246" t="s">
+      <c r="B28" s="229" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="247"/>
+      <c r="C28" s="230"/>
       <c r="D28" s="113"/>
       <c r="E28" s="72">
         <v>-2</v>
@@ -9895,10 +9896,10 @@
       <c r="A29" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="B29" s="246" t="s">
+      <c r="B29" s="229" t="s">
         <v>328</v>
       </c>
-      <c r="C29" s="247"/>
+      <c r="C29" s="230"/>
       <c r="D29" s="113"/>
       <c r="E29" s="72"/>
     </row>
@@ -9906,10 +9907,10 @@
       <c r="A30" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="246" t="s">
+      <c r="B30" s="229" t="s">
         <v>329</v>
       </c>
-      <c r="C30" s="247"/>
+      <c r="C30" s="230"/>
       <c r="D30" s="113"/>
       <c r="E30" s="72"/>
     </row>
@@ -9917,10 +9918,10 @@
       <c r="A31" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="246" t="s">
+      <c r="B31" s="229" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="247"/>
+      <c r="C31" s="230"/>
       <c r="D31" s="113"/>
       <c r="E31" s="72">
         <v>-3</v>
@@ -9930,10 +9931,10 @@
       <c r="A32" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B32" s="246" t="s">
+      <c r="B32" s="229" t="s">
         <v>330</v>
       </c>
-      <c r="C32" s="247"/>
+      <c r="C32" s="230"/>
       <c r="D32" s="113"/>
       <c r="E32" s="72"/>
     </row>
@@ -9941,10 +9942,10 @@
       <c r="A33" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B33" s="246" t="s">
+      <c r="B33" s="229" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="247"/>
+      <c r="C33" s="230"/>
       <c r="D33" s="113"/>
       <c r="E33" s="72">
         <v>2</v>
@@ -9954,10 +9955,10 @@
       <c r="A34" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="246" t="s">
+      <c r="B34" s="229" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="247"/>
+      <c r="C34" s="230"/>
       <c r="D34" s="113"/>
       <c r="E34" s="72"/>
     </row>
@@ -9965,21 +9966,21 @@
       <c r="A35" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B35" s="252" t="s">
+      <c r="B35" s="239" t="s">
         <v>333</v>
       </c>
-      <c r="C35" s="253"/>
+      <c r="C35" s="240"/>
       <c r="D35" s="113"/>
       <c r="E35" s="79">
         <v>-5</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="291" t="s">
+      <c r="B36" s="294" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="292"/>
-      <c r="D36" s="293"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="297"/>
       <c r="E36" s="191">
         <f>SUM(E14:E35)</f>
         <v>6</v>
@@ -9989,10 +9990,10 @@
       <c r="A37" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="B37" s="248" t="s">
+      <c r="B37" s="231" t="s">
         <v>334</v>
       </c>
-      <c r="C37" s="249"/>
+      <c r="C37" s="232"/>
       <c r="D37" s="113"/>
       <c r="E37" s="76">
         <v>-5</v>
@@ -10003,10 +10004,10 @@
       <c r="A38" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B38" s="246" t="s">
+      <c r="B38" s="229" t="s">
         <v>335</v>
       </c>
-      <c r="C38" s="247"/>
+      <c r="C38" s="230"/>
       <c r="D38" s="113"/>
       <c r="E38" s="72">
         <v>6</v>
@@ -10017,10 +10018,10 @@
       <c r="A39" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="B39" s="246" t="s">
+      <c r="B39" s="229" t="s">
         <v>336</v>
       </c>
-      <c r="C39" s="247"/>
+      <c r="C39" s="230"/>
       <c r="D39" s="113"/>
       <c r="E39" s="72">
         <v>-5</v>
@@ -10031,10 +10032,10 @@
       <c r="A40" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="B40" s="246" t="s">
+      <c r="B40" s="229" t="s">
         <v>337</v>
       </c>
-      <c r="C40" s="247"/>
+      <c r="C40" s="230"/>
       <c r="D40" s="113"/>
       <c r="E40" s="72">
         <v>5</v>
@@ -10045,10 +10046,10 @@
       <c r="A41" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="B41" s="246" t="s">
+      <c r="B41" s="229" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="247"/>
+      <c r="C41" s="230"/>
       <c r="D41" s="113" t="s">
         <v>619</v>
       </c>
@@ -10062,10 +10063,10 @@
       <c r="A42" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="B42" s="252" t="s">
+      <c r="B42" s="239" t="s">
         <v>339</v>
       </c>
-      <c r="C42" s="253"/>
+      <c r="C42" s="240"/>
       <c r="D42" s="113"/>
       <c r="E42" s="79">
         <v>5</v>
@@ -10073,32 +10074,32 @@
       <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="291" t="s">
+      <c r="B43" s="294" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="292"/>
-      <c r="D43" s="293"/>
+      <c r="C43" s="296"/>
+      <c r="D43" s="297"/>
       <c r="E43" s="192">
         <f>E12+E36+SUM(E37:E42)</f>
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="291" t="s">
+      <c r="B44" s="294" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="292"/>
-      <c r="D44" s="292"/>
-      <c r="E44" s="293"/>
+      <c r="C44" s="296"/>
+      <c r="D44" s="296"/>
+      <c r="E44" s="297"/>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="B45" s="248" t="s">
+      <c r="B45" s="231" t="s">
         <v>340</v>
       </c>
-      <c r="C45" s="249"/>
+      <c r="C45" s="232"/>
       <c r="D45" s="113"/>
       <c r="E45" s="76"/>
     </row>
@@ -10106,10 +10107,10 @@
       <c r="A46" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="246" t="s">
+      <c r="B46" s="229" t="s">
         <v>341</v>
       </c>
-      <c r="C46" s="247"/>
+      <c r="C46" s="230"/>
       <c r="D46" s="113"/>
       <c r="E46" s="72"/>
     </row>
@@ -10117,10 +10118,10 @@
       <c r="A47" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="B47" s="246" t="s">
+      <c r="B47" s="229" t="s">
         <v>342</v>
       </c>
-      <c r="C47" s="247"/>
+      <c r="C47" s="230"/>
       <c r="D47" s="113"/>
       <c r="E47" s="72">
         <v>5</v>
@@ -10131,10 +10132,10 @@
       <c r="A48" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="B48" s="246" t="s">
+      <c r="B48" s="229" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="247"/>
+      <c r="C48" s="230"/>
       <c r="D48" s="113"/>
       <c r="E48" s="72"/>
     </row>
@@ -10142,10 +10143,10 @@
       <c r="A49" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="B49" s="246" t="s">
+      <c r="B49" s="229" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="247"/>
+      <c r="C49" s="230"/>
       <c r="D49" s="113"/>
       <c r="E49" s="72">
         <v>65</v>
@@ -10156,10 +10157,10 @@
       <c r="A50" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="B50" s="246" t="s">
+      <c r="B50" s="229" t="s">
         <v>345</v>
       </c>
-      <c r="C50" s="247"/>
+      <c r="C50" s="230"/>
       <c r="D50" s="113"/>
       <c r="E50" s="72"/>
     </row>
@@ -10167,10 +10168,10 @@
       <c r="A51" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="246" t="s">
+      <c r="B51" s="229" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="247"/>
+      <c r="C51" s="230"/>
       <c r="D51" s="113"/>
       <c r="E51" s="72"/>
     </row>
@@ -10178,10 +10179,10 @@
       <c r="A52" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="B52" s="246" t="s">
+      <c r="B52" s="229" t="s">
         <v>347</v>
       </c>
-      <c r="C52" s="247"/>
+      <c r="C52" s="230"/>
       <c r="D52" s="113"/>
       <c r="E52" s="72"/>
     </row>
@@ -10189,10 +10190,10 @@
       <c r="A53" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="B53" s="246" t="s">
+      <c r="B53" s="229" t="s">
         <v>348</v>
       </c>
-      <c r="C53" s="247"/>
+      <c r="C53" s="230"/>
       <c r="D53" s="113"/>
       <c r="E53" s="72"/>
     </row>
@@ -10200,10 +10201,10 @@
       <c r="A54" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="B54" s="246" t="s">
+      <c r="B54" s="229" t="s">
         <v>349</v>
       </c>
-      <c r="C54" s="247"/>
+      <c r="C54" s="230"/>
       <c r="D54" s="113"/>
       <c r="E54" s="72">
         <v>-45</v>
@@ -10214,10 +10215,10 @@
       <c r="A55" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="B55" s="246" t="s">
+      <c r="B55" s="229" t="s">
         <v>350</v>
       </c>
-      <c r="C55" s="247"/>
+      <c r="C55" s="230"/>
       <c r="D55" s="113"/>
       <c r="E55" s="72"/>
     </row>
@@ -10225,10 +10226,10 @@
       <c r="A56" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="B56" s="246" t="s">
+      <c r="B56" s="229" t="s">
         <v>351</v>
       </c>
-      <c r="C56" s="247"/>
+      <c r="C56" s="230"/>
       <c r="D56" s="113"/>
       <c r="E56" s="72"/>
     </row>
@@ -10236,10 +10237,10 @@
       <c r="A57" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="B57" s="246" t="s">
+      <c r="B57" s="229" t="s">
         <v>352</v>
       </c>
-      <c r="C57" s="247"/>
+      <c r="C57" s="230"/>
       <c r="D57" s="113"/>
       <c r="E57" s="72"/>
     </row>
@@ -10247,10 +10248,10 @@
       <c r="A58" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="B58" s="246" t="s">
+      <c r="B58" s="229" t="s">
         <v>353</v>
       </c>
-      <c r="C58" s="247"/>
+      <c r="C58" s="230"/>
       <c r="D58" s="113"/>
       <c r="E58" s="72"/>
     </row>
@@ -10258,10 +10259,10 @@
       <c r="A59" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="B59" s="246" t="s">
+      <c r="B59" s="229" t="s">
         <v>354</v>
       </c>
-      <c r="C59" s="247"/>
+      <c r="C59" s="230"/>
       <c r="D59" s="113"/>
       <c r="E59" s="72"/>
     </row>
@@ -10269,10 +10270,10 @@
       <c r="A60" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B60" s="246" t="s">
+      <c r="B60" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="C60" s="247"/>
+      <c r="C60" s="230"/>
       <c r="D60" s="113"/>
       <c r="E60" s="72"/>
     </row>
@@ -10280,10 +10281,10 @@
       <c r="A61" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B61" s="246" t="s">
+      <c r="B61" s="229" t="s">
         <v>335</v>
       </c>
-      <c r="C61" s="247"/>
+      <c r="C61" s="230"/>
       <c r="D61" s="113"/>
       <c r="E61" s="72"/>
     </row>
@@ -10291,10 +10292,10 @@
       <c r="A62" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B62" s="246" t="s">
+      <c r="B62" s="229" t="s">
         <v>336</v>
       </c>
-      <c r="C62" s="247"/>
+      <c r="C62" s="230"/>
       <c r="D62" s="113"/>
       <c r="E62" s="72"/>
     </row>
@@ -10302,10 +10303,10 @@
       <c r="A63" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="B63" s="246" t="s">
+      <c r="B63" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="C63" s="247"/>
+      <c r="C63" s="230"/>
       <c r="D63" s="113"/>
       <c r="E63" s="72"/>
     </row>
@@ -10313,10 +10314,10 @@
       <c r="A64" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B64" s="246" t="s">
+      <c r="B64" s="229" t="s">
         <v>338</v>
       </c>
-      <c r="C64" s="247"/>
+      <c r="C64" s="230"/>
       <c r="D64" s="113" t="s">
         <v>619</v>
       </c>
@@ -10330,40 +10331,40 @@
       <c r="A65" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="B65" s="252" t="s">
+      <c r="B65" s="239" t="s">
         <v>339</v>
       </c>
-      <c r="C65" s="253"/>
+      <c r="C65" s="240"/>
       <c r="D65" s="113"/>
       <c r="E65" s="79"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="291" t="s">
+      <c r="B66" s="294" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="292"/>
-      <c r="D66" s="293"/>
+      <c r="C66" s="296"/>
+      <c r="D66" s="297"/>
       <c r="E66" s="193">
         <f>SUM(E45:E65)</f>
         <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="291" t="s">
+      <c r="B67" s="294" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="292"/>
-      <c r="D67" s="292"/>
-      <c r="E67" s="293"/>
+      <c r="C67" s="296"/>
+      <c r="D67" s="296"/>
+      <c r="E67" s="297"/>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="B68" s="248" t="s">
+      <c r="B68" s="231" t="s">
         <v>357</v>
       </c>
-      <c r="C68" s="249"/>
+      <c r="C68" s="232"/>
       <c r="D68" s="113"/>
       <c r="E68" s="76">
         <v>54</v>
@@ -10374,10 +10375,10 @@
       <c r="A69" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="B69" s="246" t="s">
+      <c r="B69" s="229" t="s">
         <v>365</v>
       </c>
-      <c r="C69" s="247"/>
+      <c r="C69" s="230"/>
       <c r="D69" s="113"/>
       <c r="E69" s="72"/>
     </row>
@@ -10385,10 +10386,10 @@
       <c r="A70" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B70" s="246" t="s">
+      <c r="B70" s="229" t="s">
         <v>358</v>
       </c>
-      <c r="C70" s="247"/>
+      <c r="C70" s="230"/>
       <c r="D70" s="113"/>
       <c r="E70" s="72"/>
     </row>
@@ -10396,10 +10397,10 @@
       <c r="A71" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="B71" s="246" t="s">
+      <c r="B71" s="229" t="s">
         <v>359</v>
       </c>
-      <c r="C71" s="247"/>
+      <c r="C71" s="230"/>
       <c r="D71" s="113"/>
       <c r="E71" s="72">
         <v>54</v>
@@ -10410,10 +10411,10 @@
       <c r="A72" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="229" t="s">
         <v>360</v>
       </c>
-      <c r="C72" s="247"/>
+      <c r="C72" s="230"/>
       <c r="D72" s="113"/>
       <c r="E72" s="72"/>
     </row>
@@ -10421,10 +10422,10 @@
       <c r="A73" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B73" s="246" t="s">
+      <c r="B73" s="229" t="s">
         <v>362</v>
       </c>
-      <c r="C73" s="247"/>
+      <c r="C73" s="230"/>
       <c r="D73" s="113"/>
       <c r="E73" s="72"/>
     </row>
@@ -10432,10 +10433,10 @@
       <c r="A74" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B74" s="246" t="s">
+      <c r="B74" s="229" t="s">
         <v>361</v>
       </c>
-      <c r="C74" s="247"/>
+      <c r="C74" s="230"/>
       <c r="D74" s="113"/>
       <c r="E74" s="72">
         <v>-45</v>
@@ -10446,10 +10447,10 @@
       <c r="A75" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B75" s="246" t="s">
+      <c r="B75" s="229" t="s">
         <v>334</v>
       </c>
-      <c r="C75" s="247"/>
+      <c r="C75" s="230"/>
       <c r="D75" s="113"/>
       <c r="E75" s="72"/>
     </row>
@@ -10457,10 +10458,10 @@
       <c r="A76" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B76" s="246" t="s">
+      <c r="B76" s="229" t="s">
         <v>336</v>
       </c>
-      <c r="C76" s="247"/>
+      <c r="C76" s="230"/>
       <c r="D76" s="113"/>
       <c r="E76" s="72">
         <v>-54</v>
@@ -10471,10 +10472,10 @@
       <c r="A77" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="B77" s="246" t="s">
+      <c r="B77" s="229" t="s">
         <v>338</v>
       </c>
-      <c r="C77" s="247"/>
+      <c r="C77" s="230"/>
       <c r="D77" s="113" t="s">
         <v>619</v>
       </c>
@@ -10488,30 +10489,30 @@
       <c r="A78" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B78" s="252" t="s">
+      <c r="B78" s="239" t="s">
         <v>339</v>
       </c>
-      <c r="C78" s="253"/>
+      <c r="C78" s="240"/>
       <c r="D78" s="113"/>
       <c r="E78" s="79"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="291" t="s">
+      <c r="B79" s="294" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="292"/>
-      <c r="D79" s="293"/>
+      <c r="C79" s="296"/>
+      <c r="D79" s="297"/>
       <c r="E79" s="194">
         <f>SUM(E68:E78)</f>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="291" t="s">
+      <c r="B80" s="294" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="292"/>
-      <c r="D80" s="293"/>
+      <c r="C80" s="296"/>
+      <c r="D80" s="297"/>
       <c r="E80" s="184">
         <f>SUM(E43,E66,E79)</f>
         <v>62</v>
@@ -10521,18 +10522,18 @@
       <c r="A81" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="B81" s="263" t="s">
+      <c r="B81" s="272" t="s">
         <v>363</v>
       </c>
-      <c r="C81" s="288"/>
-      <c r="D81" s="264"/>
+      <c r="C81" s="302"/>
+      <c r="D81" s="273"/>
       <c r="E81" s="79"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="291" t="s">
+      <c r="B82" s="294" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="302"/>
+      <c r="C82" s="295"/>
       <c r="D82" s="133">
         <v>7.2</v>
       </c>
@@ -10542,33 +10543,33 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="291" t="s">
+      <c r="B83" s="294" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="292"/>
-      <c r="D83" s="293"/>
+      <c r="C83" s="296"/>
+      <c r="D83" s="297"/>
       <c r="E83" s="184">
         <f>'Statement of financial position'!E39</f>
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="291" t="s">
+      <c r="B84" s="294" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="292"/>
-      <c r="D84" s="293"/>
+      <c r="C84" s="296"/>
+      <c r="D84" s="297"/>
       <c r="E84" s="184">
         <f>'Statement of financial position'!F39</f>
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="291" t="s">
+      <c r="B85" s="294" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="292"/>
-      <c r="D85" s="293"/>
+      <c r="C85" s="296"/>
+      <c r="D85" s="297"/>
       <c r="E85" s="184">
         <f>E84-E83</f>
         <v>5</v>
@@ -10637,6 +10638,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B82:C82"/>
@@ -10653,76 +10724,6 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{5A53CF31-79B9-4E1F-A6DA-D8AE91352090}"/>
@@ -10743,8 +10744,8 @@
   </sheetPr>
   <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10762,118 +10763,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="213"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="228"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="229" t="str">
+      <c r="B2" s="246" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="231"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="248"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="229" t="str">
+      <c r="B3" s="246" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="231"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="248"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="252">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="240"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="254"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="238">
+      <c r="B5" s="252">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="240"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="254"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="226" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="213"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="228"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="257" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="245"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="258"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="258"/>
+      <c r="G7" s="259"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="232" t="s">
+      <c r="B8" s="249" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="233"/>
-      <c r="G8" s="234"/>
+      <c r="C8" s="250"/>
+      <c r="D8" s="250"/>
+      <c r="E8" s="250"/>
+      <c r="F8" s="250"/>
+      <c r="G8" s="251"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="241" t="s">
+      <c r="B10" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="242"/>
+      <c r="C10" s="256"/>
       <c r="D10" s="138" t="s">
         <v>73</v>
       </c>
@@ -10890,41 +10891,41 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="235" t="s">
+      <c r="B11" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="236"/>
-      <c r="G11" s="237"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="235"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="235" t="s">
+      <c r="B12" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="236"/>
-      <c r="G12" s="237"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="234"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="235"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="316" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="316"/>
+      <c r="C13" s="317"/>
       <c r="D13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="303" t="s">
+      <c r="E13" s="321" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="304"/>
-      <c r="G13" s="305"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="323"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
@@ -10964,10 +10965,10 @@
       <c r="A16" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="B16" s="317" t="s">
+      <c r="B16" s="319" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="318"/>
+      <c r="C16" s="320"/>
       <c r="D16" s="150"/>
       <c r="E16" s="79">
         <v>2</v>
@@ -10981,10 +10982,10 @@
       <c r="A17" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="B17" s="311" t="s">
+      <c r="B17" s="310" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="312"/>
+      <c r="C17" s="311"/>
       <c r="D17" s="150"/>
       <c r="E17" s="195">
         <f>SUM(E14:E16)</f>
@@ -11068,10 +11069,10 @@
       <c r="A22" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="B22" s="317" t="s">
+      <c r="B22" s="319" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="318"/>
+      <c r="C22" s="320"/>
       <c r="D22" s="150"/>
       <c r="E22" s="79">
         <v>6</v>
@@ -11085,10 +11086,10 @@
       <c r="A23" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="B23" s="311" t="s">
+      <c r="B23" s="310" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="312"/>
+      <c r="C23" s="311"/>
       <c r="D23" s="150"/>
       <c r="E23" s="195">
         <f>SUM(E18:E22)</f>
@@ -11240,10 +11241,10 @@
       <c r="A32" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="B32" s="317" t="s">
+      <c r="B32" s="319" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="318"/>
+      <c r="C32" s="320"/>
       <c r="D32" s="150"/>
       <c r="E32" s="79">
         <v>7</v>
@@ -11257,10 +11258,10 @@
       <c r="A33" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B33" s="311" t="s">
+      <c r="B33" s="310" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="312"/>
+      <c r="C33" s="311"/>
       <c r="D33" s="7"/>
       <c r="E33" s="197">
         <f>SUM(E17,E23:E32)</f>
@@ -11276,10 +11277,10 @@
       <c r="A34" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="313" t="s">
+      <c r="B34" s="308" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="314"/>
+      <c r="C34" s="309"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72">
         <v>4</v>
@@ -11293,10 +11294,10 @@
       <c r="A35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="313" t="s">
+      <c r="B35" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="314"/>
+      <c r="C35" s="309"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72">
         <v>4</v>
@@ -11310,10 +11311,10 @@
       <c r="A36" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="313" t="s">
+      <c r="B36" s="308" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="314"/>
+      <c r="C36" s="309"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72">
         <v>20</v>
@@ -11327,10 +11328,10 @@
       <c r="A37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="313" t="s">
+      <c r="B37" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="314"/>
+      <c r="C37" s="309"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72">
         <v>30</v>
@@ -11344,10 +11345,10 @@
       <c r="A38" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="313" t="s">
+      <c r="B38" s="308" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="314"/>
+      <c r="C38" s="309"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72">
         <v>4</v>
@@ -11361,10 +11362,10 @@
       <c r="A39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="313" t="s">
+      <c r="B39" s="308" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="314"/>
+      <c r="C39" s="309"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>6</v>
@@ -11378,10 +11379,10 @@
       <c r="A40" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="313" t="s">
+      <c r="B40" s="308" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="314"/>
+      <c r="C40" s="309"/>
       <c r="D40" s="7"/>
       <c r="E40" s="72">
         <v>4</v>
@@ -11395,10 +11396,10 @@
       <c r="A41" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="313" t="s">
+      <c r="B41" s="308" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="314"/>
+      <c r="C41" s="309"/>
       <c r="D41" s="7"/>
       <c r="E41" s="79">
         <v>6</v>
@@ -11412,18 +11413,18 @@
       <c r="A42" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="313" t="s">
+      <c r="B42" s="308" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="314"/>
+      <c r="C42" s="309"/>
       <c r="D42" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="303" t="s">
+      <c r="E42" s="321" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="304"/>
-      <c r="G42" s="305"/>
+      <c r="F42" s="322"/>
+      <c r="G42" s="323"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
@@ -11497,10 +11498,10 @@
       <c r="A47" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="B47" s="311" t="s">
+      <c r="B47" s="310" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="312"/>
+      <c r="C47" s="311"/>
       <c r="D47" s="7"/>
       <c r="E47" s="199">
         <f>SUM(E43:E46)</f>
@@ -11567,10 +11568,10 @@
       <c r="A51" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="B51" s="311" t="s">
+      <c r="B51" s="310" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="312"/>
+      <c r="C51" s="311"/>
       <c r="D51" s="7"/>
       <c r="E51" s="199">
         <f>SUM(E48:E50)</f>
@@ -11671,10 +11672,10 @@
       <c r="A57" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="B57" s="311" t="s">
+      <c r="B57" s="310" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="312"/>
+      <c r="C57" s="311"/>
       <c r="D57" s="7"/>
       <c r="E57" s="200">
         <f>SUM(E52:E56,E51,E47)</f>
@@ -11690,10 +11691,10 @@
       <c r="A58" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="313" t="s">
+      <c r="B58" s="308" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="314"/>
+      <c r="C58" s="309"/>
       <c r="D58" s="7"/>
       <c r="E58" s="72">
         <v>4</v>
@@ -11707,10 +11708,10 @@
       <c r="A59" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="313" t="s">
+      <c r="B59" s="308" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="314"/>
+      <c r="C59" s="309"/>
       <c r="D59" s="7"/>
       <c r="E59" s="72">
         <v>5</v>
@@ -11724,10 +11725,10 @@
       <c r="A60" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="313" t="s">
+      <c r="B60" s="308" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="314"/>
+      <c r="C60" s="309"/>
       <c r="D60" s="7"/>
       <c r="E60" s="72">
         <v>6</v>
@@ -11741,10 +11742,10 @@
       <c r="A61" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="313" t="s">
+      <c r="B61" s="308" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="314"/>
+      <c r="C61" s="309"/>
       <c r="D61" s="7"/>
       <c r="E61" s="72">
         <v>7</v>
@@ -11758,10 +11759,10 @@
       <c r="A62" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="313" t="s">
+      <c r="B62" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="314"/>
+      <c r="C62" s="309"/>
       <c r="D62" s="8"/>
       <c r="E62" s="79">
         <v>4</v>
@@ -11772,10 +11773,10 @@
       <c r="G62" s="38"/>
     </row>
     <row r="63" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="319" t="s">
+      <c r="B63" s="318" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="251"/>
+      <c r="C63" s="245"/>
       <c r="E63" s="184">
         <f>SUM(E57:E62,E33:E41)</f>
         <v>334</v>
@@ -11803,31 +11804,31 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="235" t="s">
+      <c r="B66" s="233" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="236"/>
-      <c r="D66" s="236"/>
-      <c r="E66" s="236"/>
-      <c r="F66" s="236"/>
-      <c r="G66" s="236"/>
+      <c r="C66" s="234"/>
+      <c r="D66" s="234"/>
+      <c r="E66" s="234"/>
+      <c r="F66" s="234"/>
+      <c r="G66" s="234"/>
     </row>
     <row r="67" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="315" t="s">
+      <c r="B67" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="316"/>
+      <c r="C67" s="317"/>
       <c r="D67" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="308" t="s">
+      <c r="E67" s="303" t="s">
         <v>284</v>
       </c>
-      <c r="F67" s="309"/>
-      <c r="G67" s="310"/>
+      <c r="F67" s="304"/>
+      <c r="G67" s="305"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
@@ -11880,10 +11881,10 @@
     </row>
     <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="21"/>
-      <c r="B71" s="311" t="s">
+      <c r="B71" s="310" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="312">
+      <c r="C71" s="311">
         <f>SUM(C69:C70)</f>
         <v>5</v>
       </c>
@@ -12087,10 +12088,10 @@
     </row>
     <row r="83" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="21"/>
-      <c r="B83" s="311" t="s">
+      <c r="B83" s="310" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="312">
+      <c r="C83" s="311">
         <f>SUM(C72:C82)</f>
         <v>65</v>
       </c>
@@ -12109,18 +12110,18 @@
       <c r="A84" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="320" t="s">
+      <c r="B84" s="312" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="321"/>
+      <c r="C84" s="313"/>
       <c r="D84" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E84" s="308" t="s">
+      <c r="E84" s="303" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="309"/>
-      <c r="G84" s="310"/>
+      <c r="F84" s="304"/>
+      <c r="G84" s="305"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
@@ -12256,10 +12257,10 @@
     </row>
     <row r="93" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="21"/>
-      <c r="B93" s="311" t="s">
+      <c r="B93" s="310" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="312">
+      <c r="C93" s="311">
         <f>SUM(C91:C92)</f>
         <v>12</v>
       </c>
@@ -12293,10 +12294,10 @@
     </row>
     <row r="95" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="21"/>
-      <c r="B95" s="311" t="s">
+      <c r="B95" s="310" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="312">
+      <c r="C95" s="311">
         <f>SUM(C85:C88,C93)</f>
         <v>22</v>
       </c>
@@ -12398,10 +12399,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="21"/>
-      <c r="B101" s="311" t="s">
+      <c r="B101" s="310" t="s">
         <v>185</v>
       </c>
-      <c r="C101" s="312">
+      <c r="C101" s="311">
         <f>SUM(C96:C100,C95)</f>
         <v>38</v>
       </c>
@@ -12420,10 +12421,10 @@
       <c r="A102" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="313" t="s">
+      <c r="B102" s="308" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="314"/>
+      <c r="C102" s="309"/>
       <c r="D102" s="7"/>
       <c r="E102" s="72">
         <v>3</v>
@@ -12437,10 +12438,10 @@
       <c r="A103" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="313" t="s">
+      <c r="B103" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="314"/>
+      <c r="C103" s="309"/>
       <c r="D103" s="7"/>
       <c r="E103" s="72">
         <v>4</v>
@@ -12454,10 +12455,10 @@
       <c r="A104" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="313" t="s">
+      <c r="B104" s="308" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="314"/>
+      <c r="C104" s="309"/>
       <c r="D104" s="7"/>
       <c r="E104" s="72">
         <v>5</v>
@@ -12471,10 +12472,10 @@
       <c r="A105" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="313" t="s">
+      <c r="B105" s="308" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="314"/>
+      <c r="C105" s="309"/>
       <c r="D105" s="7"/>
       <c r="E105" s="72">
         <v>5</v>
@@ -12488,10 +12489,10 @@
       <c r="A106" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="313" t="s">
+      <c r="B106" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="314"/>
+      <c r="C106" s="309"/>
       <c r="D106" s="7"/>
       <c r="E106" s="72">
         <v>2</v>
@@ -12505,10 +12506,10 @@
       <c r="A107" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="313" t="s">
+      <c r="B107" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="314"/>
+      <c r="C107" s="309"/>
       <c r="D107" s="7"/>
       <c r="E107" s="72">
         <v>10</v>
@@ -12522,10 +12523,10 @@
       <c r="A108" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="322" t="s">
+      <c r="B108" s="314" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="323"/>
+      <c r="C108" s="315"/>
       <c r="D108" s="8"/>
       <c r="E108" s="79">
         <v>4</v>
@@ -12536,10 +12537,10 @@
       <c r="G108" s="38"/>
     </row>
     <row r="109" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="235" t="s">
+      <c r="B109" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="237"/>
+      <c r="C109" s="235"/>
       <c r="E109" s="185">
         <f>SUM(E101:E108,E83)</f>
         <v>169</v>
@@ -12550,10 +12551,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="235" t="s">
+      <c r="B110" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="237"/>
+      <c r="C110" s="235"/>
       <c r="E110" s="185">
         <f>SUM(E63,E109)</f>
         <v>503</v>
@@ -12581,41 +12582,41 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="235" t="s">
+      <c r="B113" s="233" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="236"/>
-      <c r="D113" s="236"/>
-      <c r="E113" s="236"/>
-      <c r="F113" s="236"/>
-      <c r="G113" s="237"/>
+      <c r="C113" s="234"/>
+      <c r="D113" s="234"/>
+      <c r="E113" s="234"/>
+      <c r="F113" s="234"/>
+      <c r="G113" s="235"/>
     </row>
     <row r="114" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="235" t="s">
+      <c r="B114" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="236"/>
-      <c r="D114" s="236"/>
-      <c r="E114" s="236"/>
-      <c r="F114" s="236"/>
-      <c r="G114" s="237"/>
+      <c r="C114" s="234"/>
+      <c r="D114" s="234"/>
+      <c r="E114" s="234"/>
+      <c r="F114" s="234"/>
+      <c r="G114" s="235"/>
     </row>
     <row r="115" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="315" t="s">
+      <c r="B115" s="316" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="316"/>
+      <c r="C115" s="317"/>
       <c r="D115" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E115" s="308" t="s">
+      <c r="E115" s="303" t="s">
         <v>285</v>
       </c>
-      <c r="F115" s="309"/>
-      <c r="G115" s="310"/>
+      <c r="F115" s="304"/>
+      <c r="G115" s="305"/>
     </row>
     <row r="116" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
@@ -12653,10 +12654,10 @@
     </row>
     <row r="118" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="21"/>
-      <c r="B118" s="311" t="s">
+      <c r="B118" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="C118" s="312">
+      <c r="C118" s="311">
         <f>SUM(C116:C117)</f>
         <v>3</v>
       </c>
@@ -12675,18 +12676,18 @@
       <c r="A119" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="320" t="s">
+      <c r="B119" s="312" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="321"/>
+      <c r="C119" s="313"/>
       <c r="D119" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E119" s="308" t="s">
+      <c r="E119" s="303" t="s">
         <v>285</v>
       </c>
-      <c r="F119" s="309"/>
-      <c r="G119" s="310"/>
+      <c r="F119" s="304"/>
+      <c r="G119" s="305"/>
     </row>
     <row r="120" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21"/>
@@ -12724,10 +12725,10 @@
     </row>
     <row r="122" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="21"/>
-      <c r="B122" s="311" t="s">
+      <c r="B122" s="310" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="312">
+      <c r="C122" s="311">
         <f>SUM(C120:C121)</f>
         <v>7</v>
       </c>
@@ -12746,10 +12747,10 @@
       <c r="A123" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="313" t="s">
+      <c r="B123" s="308" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="314"/>
+      <c r="C123" s="309"/>
       <c r="D123" s="7" t="s">
         <v>129</v>
       </c>
@@ -12767,10 +12768,10 @@
       <c r="A124" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B124" s="313" t="s">
+      <c r="B124" s="308" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="314"/>
+      <c r="C124" s="309"/>
       <c r="D124" s="7"/>
       <c r="E124" s="72">
         <v>5</v>
@@ -12784,10 +12785,10 @@
       <c r="A125" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B125" s="313" t="s">
+      <c r="B125" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="C125" s="314"/>
+      <c r="C125" s="309"/>
       <c r="D125" s="7" t="s">
         <v>130</v>
       </c>
@@ -12805,18 +12806,18 @@
       <c r="A126" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B126" s="320" t="s">
+      <c r="B126" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="321"/>
+      <c r="C126" s="313"/>
       <c r="D126" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="308" t="s">
+      <c r="E126" s="303" t="s">
         <v>285</v>
       </c>
-      <c r="F126" s="309"/>
-      <c r="G126" s="310"/>
+      <c r="F126" s="304"/>
+      <c r="G126" s="305"/>
     </row>
     <row r="127" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21"/>
@@ -12871,10 +12872,10 @@
     </row>
     <row r="130" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="22"/>
-      <c r="B130" s="311" t="s">
+      <c r="B130" s="310" t="s">
         <v>268</v>
       </c>
-      <c r="C130" s="312">
+      <c r="C130" s="311">
         <f>SUM(C127:C129)</f>
         <v>7</v>
       </c>
@@ -12891,10 +12892,10 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
-      <c r="B131" s="235" t="s">
+      <c r="B131" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="237"/>
+      <c r="C131" s="235"/>
       <c r="D131" s="81"/>
       <c r="E131" s="203">
         <f>SUM(E130,E118,E122:E125)</f>
@@ -12909,10 +12910,10 @@
       <c r="A132" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B132" s="252" t="s">
+      <c r="B132" s="239" t="s">
         <v>41</v>
       </c>
-      <c r="C132" s="253"/>
+      <c r="C132" s="240"/>
       <c r="D132" s="82"/>
       <c r="E132" s="79">
         <v>3</v>
@@ -12922,10 +12923,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="235" t="s">
+      <c r="B133" s="233" t="s">
         <v>42</v>
       </c>
-      <c r="C133" s="237"/>
+      <c r="C133" s="235"/>
       <c r="E133" s="184">
         <f>SUM(E131,E132)</f>
         <v>29</v>
@@ -12953,33 +12954,33 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="235" t="s">
+      <c r="B136" s="233" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="236"/>
-      <c r="D136" s="236"/>
-      <c r="E136" s="236"/>
-      <c r="F136" s="236"/>
-      <c r="G136" s="237"/>
+      <c r="C136" s="234"/>
+      <c r="D136" s="234"/>
+      <c r="E136" s="234"/>
+      <c r="F136" s="234"/>
+      <c r="G136" s="235"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="254" t="s">
+      <c r="B137" s="241" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="255"/>
-      <c r="D137" s="255"/>
-      <c r="E137" s="255"/>
-      <c r="F137" s="255"/>
-      <c r="G137" s="255"/>
+      <c r="C137" s="242"/>
+      <c r="D137" s="242"/>
+      <c r="E137" s="242"/>
+      <c r="F137" s="242"/>
+      <c r="G137" s="242"/>
     </row>
     <row r="138" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B138" s="313" t="s">
+      <c r="B138" s="308" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="314"/>
+      <c r="C138" s="309"/>
       <c r="D138" s="6"/>
       <c r="E138" s="76">
         <v>2</v>
@@ -12993,18 +12994,18 @@
       <c r="A139" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B139" s="320" t="s">
+      <c r="B139" s="312" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="321"/>
+      <c r="C139" s="313"/>
       <c r="D139" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E139" s="308" t="s">
+      <c r="E139" s="303" t="s">
         <v>286</v>
       </c>
-      <c r="F139" s="309"/>
-      <c r="G139" s="310"/>
+      <c r="F139" s="304"/>
+      <c r="G139" s="305"/>
     </row>
     <row r="140" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="21"/>
@@ -13083,10 +13084,10 @@
     </row>
     <row r="145" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="21"/>
-      <c r="B145" s="311" t="s">
+      <c r="B145" s="310" t="s">
         <v>269</v>
       </c>
-      <c r="C145" s="312">
+      <c r="C145" s="311">
         <f>SUM(C140:C144)</f>
         <v>0</v>
       </c>
@@ -13135,10 +13136,10 @@
     </row>
     <row r="148" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="21"/>
-      <c r="B148" s="311" t="s">
+      <c r="B148" s="310" t="s">
         <v>270</v>
       </c>
-      <c r="C148" s="312">
+      <c r="C148" s="311">
         <f>SUM(C146:C147)</f>
         <v>5</v>
       </c>
@@ -13200,10 +13201,10 @@
     </row>
     <row r="152" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="21"/>
-      <c r="B152" s="311" t="s">
+      <c r="B152" s="310" t="s">
         <v>271</v>
       </c>
-      <c r="C152" s="312">
+      <c r="C152" s="311">
         <f>SUM(C149:C151)</f>
         <v>0</v>
       </c>
@@ -13220,10 +13221,10 @@
     </row>
     <row r="153" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="21"/>
-      <c r="B153" s="311" t="s">
+      <c r="B153" s="310" t="s">
         <v>272</v>
       </c>
-      <c r="C153" s="312">
+      <c r="C153" s="311">
         <v>1</v>
       </c>
       <c r="D153" s="7"/>
@@ -13237,10 +13238,10 @@
     </row>
     <row r="154" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="21"/>
-      <c r="B154" s="311" t="s">
+      <c r="B154" s="310" t="s">
         <v>525</v>
       </c>
-      <c r="C154" s="312">
+      <c r="C154" s="311">
         <f>SUM(C145,C148,C152,C153)</f>
         <v>6</v>
       </c>
@@ -13259,10 +13260,10 @@
       <c r="A155" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B155" s="313" t="s">
+      <c r="B155" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="314"/>
+      <c r="C155" s="309"/>
       <c r="D155" s="8"/>
       <c r="E155" s="79">
         <v>2</v>
@@ -13291,18 +13292,18 @@
       <c r="A157" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B157" s="315" t="s">
+      <c r="B157" s="316" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="316"/>
+      <c r="C157" s="317"/>
       <c r="D157" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E157" s="308" t="s">
+      <c r="E157" s="303" t="s">
         <v>287</v>
       </c>
-      <c r="F157" s="309"/>
-      <c r="G157" s="310"/>
+      <c r="F157" s="304"/>
+      <c r="G157" s="305"/>
     </row>
     <row r="158" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
@@ -13453,10 +13454,10 @@
     </row>
     <row r="167" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="21"/>
-      <c r="B167" s="311" t="s">
+      <c r="B167" s="310" t="s">
         <v>235</v>
       </c>
-      <c r="C167" s="312">
+      <c r="C167" s="311">
         <f>SUM(C165:C166)</f>
         <v>9</v>
       </c>
@@ -13524,10 +13525,10 @@
     </row>
     <row r="171" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="21"/>
-      <c r="B171" s="311" t="s">
+      <c r="B171" s="310" t="s">
         <v>239</v>
       </c>
-      <c r="C171" s="312">
+      <c r="C171" s="311">
         <f>SUM(C168:C170)</f>
         <v>20</v>
       </c>
@@ -13561,10 +13562,10 @@
     </row>
     <row r="173" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="21"/>
-      <c r="B173" s="311" t="s">
+      <c r="B173" s="310" t="s">
         <v>241</v>
       </c>
-      <c r="C173" s="312">
+      <c r="C173" s="311">
         <f>SUM(C172)</f>
         <v>5</v>
       </c>
@@ -13666,10 +13667,10 @@
     </row>
     <row r="179" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="21"/>
-      <c r="B179" s="311" t="s">
+      <c r="B179" s="310" t="s">
         <v>247</v>
       </c>
-      <c r="C179" s="312">
+      <c r="C179" s="311">
         <f>SUM(C174:C178,C158:C161,C167,C171,C173)</f>
         <v>68</v>
       </c>
@@ -13688,10 +13689,10 @@
       <c r="A180" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B180" s="313" t="s">
+      <c r="B180" s="308" t="s">
         <v>50</v>
       </c>
-      <c r="C180" s="314"/>
+      <c r="C180" s="309"/>
       <c r="D180" s="7"/>
       <c r="E180" s="72">
         <v>4</v>
@@ -13705,10 +13706,10 @@
       <c r="A181" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B181" s="313" t="s">
+      <c r="B181" s="308" t="s">
         <v>51</v>
       </c>
-      <c r="C181" s="314"/>
+      <c r="C181" s="309"/>
       <c r="D181" s="7"/>
       <c r="E181" s="72">
         <v>4</v>
@@ -13722,10 +13723,10 @@
       <c r="A182" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B182" s="313" t="s">
+      <c r="B182" s="308" t="s">
         <v>52</v>
       </c>
-      <c r="C182" s="314"/>
+      <c r="C182" s="309"/>
       <c r="D182" s="7"/>
       <c r="E182" s="72">
         <v>1</v>
@@ -13739,10 +13740,10 @@
       <c r="A183" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B183" s="313" t="s">
+      <c r="B183" s="308" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="314"/>
+      <c r="C183" s="309"/>
       <c r="D183" s="7"/>
       <c r="E183" s="72">
         <v>2</v>
@@ -13756,10 +13757,10 @@
       <c r="A184" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B184" s="322" t="s">
+      <c r="B184" s="314" t="s">
         <v>54</v>
       </c>
-      <c r="C184" s="323"/>
+      <c r="C184" s="315"/>
       <c r="D184" s="8"/>
       <c r="E184" s="79">
         <v>1</v>
@@ -13770,10 +13771,10 @@
       <c r="G184" s="38"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="235" t="s">
+      <c r="B185" s="233" t="s">
         <v>55</v>
       </c>
-      <c r="C185" s="237"/>
+      <c r="C185" s="235"/>
       <c r="E185" s="184">
         <f>SUM(E156:E184)</f>
         <v>302</v>
@@ -13803,23 +13804,23 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="235" t="s">
+      <c r="B189" s="233" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="236"/>
-      <c r="D189" s="236"/>
-      <c r="E189" s="236"/>
-      <c r="F189" s="236"/>
-      <c r="G189" s="236"/>
+      <c r="C189" s="234"/>
+      <c r="D189" s="234"/>
+      <c r="E189" s="234"/>
+      <c r="F189" s="234"/>
+      <c r="G189" s="234"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B190" s="313" t="s">
+      <c r="B190" s="308" t="s">
         <v>57</v>
       </c>
-      <c r="C190" s="314"/>
+      <c r="C190" s="309"/>
       <c r="D190" s="6"/>
       <c r="E190" s="76">
         <v>1</v>
@@ -13833,10 +13834,10 @@
       <c r="A191" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B191" s="320" t="s">
+      <c r="B191" s="312" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="321"/>
+      <c r="C191" s="313"/>
       <c r="D191" s="7" t="s">
         <v>311</v>
       </c>
@@ -14060,10 +14061,10 @@
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="21"/>
-      <c r="B205" s="311" t="s">
+      <c r="B205" s="310" t="s">
         <v>290</v>
       </c>
-      <c r="C205" s="312">
+      <c r="C205" s="311">
         <f>SUM(C196,C199,C203,C204)</f>
         <v>6</v>
       </c>
@@ -14080,10 +14081,10 @@
       <c r="A206" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B206" s="313" t="s">
+      <c r="B206" s="308" t="s">
         <v>59</v>
       </c>
-      <c r="C206" s="314"/>
+      <c r="C206" s="309"/>
       <c r="D206" s="8"/>
       <c r="E206" s="79">
         <v>4</v>
@@ -14094,10 +14095,10 @@
       <c r="G206" s="38"/>
     </row>
     <row r="207" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="235" t="s">
+      <c r="B207" s="233" t="s">
         <v>60</v>
       </c>
-      <c r="C207" s="237"/>
+      <c r="C207" s="235"/>
       <c r="D207" s="84"/>
       <c r="E207" s="73">
         <f>SUM(E190:E206)</f>
@@ -14112,18 +14113,18 @@
       <c r="A208" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B208" s="315" t="s">
+      <c r="B208" s="316" t="s">
         <v>61</v>
       </c>
-      <c r="C208" s="316"/>
+      <c r="C208" s="317"/>
       <c r="D208" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E208" s="308" t="s">
+      <c r="E208" s="303" t="s">
         <v>287</v>
       </c>
-      <c r="F208" s="309"/>
-      <c r="G208" s="310"/>
+      <c r="F208" s="304"/>
+      <c r="G208" s="305"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="21"/>
@@ -14276,10 +14277,10 @@
     </row>
     <row r="218" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="21"/>
-      <c r="B218" s="311" t="s">
+      <c r="B218" s="310" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="312">
+      <c r="C218" s="311">
         <f>SUM(C215:C217)</f>
         <v>14</v>
       </c>
@@ -14347,10 +14348,10 @@
     </row>
     <row r="222" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="21"/>
-      <c r="B222" s="311" t="s">
+      <c r="B222" s="310" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="312">
+      <c r="C222" s="311">
         <f>SUM(C219:C221)</f>
         <v>18</v>
       </c>
@@ -14401,10 +14402,10 @@
     </row>
     <row r="225" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="21"/>
-      <c r="B225" s="311" t="s">
+      <c r="B225" s="310" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="312">
+      <c r="C225" s="311">
         <f>SUM(C223:C224)</f>
         <v>5</v>
       </c>
@@ -14506,10 +14507,10 @@
     </row>
     <row r="231" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="21"/>
-      <c r="B231" s="311" t="s">
+      <c r="B231" s="310" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="312">
+      <c r="C231" s="311">
         <f>SUM(C226:C230,C209:C212,C218,C222,C225)</f>
         <v>89</v>
       </c>
@@ -14528,10 +14529,10 @@
       <c r="A232" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B232" s="313" t="s">
+      <c r="B232" s="308" t="s">
         <v>62</v>
       </c>
-      <c r="C232" s="314"/>
+      <c r="C232" s="309"/>
       <c r="D232" s="7"/>
       <c r="E232" s="72">
         <v>4</v>
@@ -14545,10 +14546,10 @@
       <c r="A233" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B233" s="313" t="s">
+      <c r="B233" s="308" t="s">
         <v>63</v>
       </c>
-      <c r="C233" s="314"/>
+      <c r="C233" s="309"/>
       <c r="D233" s="7"/>
       <c r="E233" s="72">
         <v>5</v>
@@ -14562,10 +14563,10 @@
       <c r="A234" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B234" s="313" t="s">
+      <c r="B234" s="308" t="s">
         <v>64</v>
       </c>
-      <c r="C234" s="314"/>
+      <c r="C234" s="309"/>
       <c r="D234" s="7"/>
       <c r="E234" s="72">
         <v>2</v>
@@ -14579,10 +14580,10 @@
       <c r="A235" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B235" s="313" t="s">
+      <c r="B235" s="308" t="s">
         <v>65</v>
       </c>
-      <c r="C235" s="314"/>
+      <c r="C235" s="309"/>
       <c r="D235" s="7"/>
       <c r="E235" s="72">
         <v>2</v>
@@ -14596,10 +14597,10 @@
       <c r="A236" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B236" s="322" t="s">
+      <c r="B236" s="314" t="s">
         <v>66</v>
       </c>
-      <c r="C236" s="323"/>
+      <c r="C236" s="315"/>
       <c r="D236" s="8"/>
       <c r="E236" s="79">
         <v>2</v>
@@ -14610,11 +14611,11 @@
       <c r="G236" s="38"/>
     </row>
     <row r="237" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="235" t="s">
+      <c r="B237" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="C237" s="236"/>
-      <c r="D237" s="237"/>
+      <c r="C237" s="234"/>
+      <c r="D237" s="235"/>
       <c r="E237" s="75">
         <f>SUM(E207,E231:E236)</f>
         <v>121</v>
@@ -14628,11 +14629,11 @@
       <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="235" t="s">
+      <c r="B239" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="C239" s="236"/>
-      <c r="D239" s="237"/>
+      <c r="C239" s="234"/>
+      <c r="D239" s="235"/>
       <c r="E239" s="75">
         <f>SUM(E185,E237)</f>
         <v>423</v>
@@ -14644,11 +14645,11 @@
     </row>
     <row r="240" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="241" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="235" t="s">
+      <c r="B241" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="C241" s="236"/>
-      <c r="D241" s="237"/>
+      <c r="C241" s="234"/>
+      <c r="D241" s="235"/>
       <c r="E241" s="75">
         <f>SUM(E133,E239)</f>
         <v>452</v>
@@ -14666,12 +14667,12 @@
       <c r="A244" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B244" s="257" t="str">
+      <c r="B244" s="236" t="str">
         <f>IF(AND(E244=0,F244=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C244" s="258"/>
-      <c r="D244" s="259"/>
+      <c r="C244" s="237"/>
+      <c r="D244" s="238"/>
       <c r="E244" s="75">
         <f>E241-E110</f>
         <v>-51</v>
@@ -14701,6 +14702,221 @@
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="E139:G139"/>
+    <mergeCell ref="E157:G157"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:D237"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
     <mergeCell ref="E208:G208"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
@@ -14725,221 +14941,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:D237"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="E139:G139"/>
-    <mergeCell ref="E157:G157"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B158:C158"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B244">
@@ -14997,14 +14998,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="260" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="266"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="261"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
       <c r="I1" s="97"/>
@@ -15013,63 +15014,63 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="267" t="str">
+      <c r="B2" s="262" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="269"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="264"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="229" t="str">
+      <c r="B3" s="246" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="231"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="248"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="252">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="240"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="254"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="270">
+      <c r="B5" s="265">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="271"/>
-      <c r="D5" s="271"/>
-      <c r="E5" s="271"/>
-      <c r="F5" s="272"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="267"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="273" t="s">
+      <c r="A6" s="271" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="266"/>
+      <c r="B6" s="260"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="261"/>
       <c r="G6" s="97"/>
       <c r="H6" s="97"/>
       <c r="I6" s="97"/>
@@ -15078,35 +15079,35 @@
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="260" t="s">
+      <c r="B7" s="268" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="262"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="270"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="260" t="s">
+      <c r="B8" s="268" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="261"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="262"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="270"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="241" t="s">
+      <c r="B12" s="255" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="242"/>
+      <c r="C12" s="256"/>
       <c r="D12" s="138" t="s">
         <v>73</v>
       </c>
@@ -15123,23 +15124,23 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="235" t="s">
+      <c r="B13" s="233" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="236"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="234"/>
       <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="315" t="s">
+      <c r="B14" s="316" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="316"/>
+      <c r="C14" s="317"/>
       <c r="D14" s="113" t="s">
         <v>566</v>
       </c>
@@ -15157,10 +15158,10 @@
     </row>
     <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="328" t="s">
+      <c r="B15" s="324" t="s">
         <v>528</v>
       </c>
-      <c r="C15" s="329"/>
+      <c r="C15" s="325"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>3</v>
@@ -15172,10 +15173,10 @@
     </row>
     <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="328" t="s">
+      <c r="B16" s="324" t="s">
         <v>528</v>
       </c>
-      <c r="C16" s="329"/>
+      <c r="C16" s="325"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>2</v>
@@ -15187,10 +15188,10 @@
     </row>
     <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="328" t="s">
+      <c r="B17" s="324" t="s">
         <v>529</v>
       </c>
-      <c r="C17" s="329"/>
+      <c r="C17" s="325"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>3</v>
@@ -15202,10 +15203,10 @@
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
-      <c r="B18" s="328" t="s">
+      <c r="B18" s="324" t="s">
         <v>530</v>
       </c>
-      <c r="C18" s="329"/>
+      <c r="C18" s="325"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>4</v>
@@ -15217,10 +15218,10 @@
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="328" t="s">
+      <c r="B19" s="324" t="s">
         <v>531</v>
       </c>
-      <c r="C19" s="329"/>
+      <c r="C19" s="325"/>
       <c r="D19" s="113"/>
       <c r="E19" s="72">
         <v>5</v>
@@ -15232,10 +15233,10 @@
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
-      <c r="B20" s="328" t="s">
+      <c r="B20" s="324" t="s">
         <v>532</v>
       </c>
-      <c r="C20" s="329"/>
+      <c r="C20" s="325"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>6</v>
@@ -15247,10 +15248,10 @@
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="328" t="s">
+      <c r="B21" s="324" t="s">
         <v>533</v>
       </c>
-      <c r="C21" s="329"/>
+      <c r="C21" s="325"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>76</v>
@@ -15262,10 +15263,10 @@
     </row>
     <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="328" t="s">
+      <c r="B22" s="324" t="s">
         <v>534</v>
       </c>
-      <c r="C22" s="329"/>
+      <c r="C22" s="325"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>8</v>
@@ -15279,10 +15280,10 @@
       <c r="A23" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B23" s="328" t="s">
+      <c r="B23" s="324" t="s">
         <v>535</v>
       </c>
-      <c r="C23" s="329"/>
+      <c r="C23" s="325"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>9</v>
@@ -15296,10 +15297,10 @@
       <c r="A24" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B24" s="328" t="s">
+      <c r="B24" s="324" t="s">
         <v>536</v>
       </c>
-      <c r="C24" s="329"/>
+      <c r="C24" s="325"/>
       <c r="D24" s="113"/>
       <c r="E24" s="79">
         <v>0</v>
@@ -15313,10 +15314,10 @@
       <c r="A25" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B25" s="330" t="s">
+      <c r="B25" s="326" t="s">
         <v>537</v>
       </c>
-      <c r="C25" s="331"/>
+      <c r="C25" s="327"/>
       <c r="D25" s="113"/>
       <c r="E25" s="201">
         <f>SUM(E15:E24)</f>
@@ -15332,10 +15333,10 @@
       <c r="A26" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="313" t="s">
+      <c r="B26" s="308" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="314"/>
+      <c r="C26" s="309"/>
       <c r="D26" s="113"/>
       <c r="E26" s="79">
         <v>-6</v>
@@ -15349,10 +15350,10 @@
       <c r="A27" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B27" s="320" t="s">
+      <c r="B27" s="312" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="321"/>
+      <c r="C27" s="313"/>
       <c r="D27" s="113">
         <v>28.4</v>
       </c>
@@ -15370,10 +15371,10 @@
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="334" t="s">
+      <c r="B28" s="330" t="s">
         <v>539</v>
       </c>
-      <c r="C28" s="335"/>
+      <c r="C28" s="331"/>
       <c r="D28" s="113"/>
       <c r="E28" s="72">
         <v>2</v>
@@ -15385,10 +15386,10 @@
     </row>
     <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
-      <c r="B29" s="334" t="s">
+      <c r="B29" s="330" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="335"/>
+      <c r="C29" s="331"/>
       <c r="D29" s="113"/>
       <c r="E29" s="72">
         <v>3</v>
@@ -15400,10 +15401,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
-      <c r="B30" s="334" t="s">
+      <c r="B30" s="330" t="s">
         <v>541</v>
       </c>
-      <c r="C30" s="335"/>
+      <c r="C30" s="331"/>
       <c r="D30" s="113"/>
       <c r="E30" s="72">
         <v>4</v>
@@ -15415,10 +15416,10 @@
     </row>
     <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="334" t="s">
+      <c r="B31" s="330" t="s">
         <v>542</v>
       </c>
-      <c r="C31" s="335"/>
+      <c r="C31" s="331"/>
       <c r="D31" s="113"/>
       <c r="E31" s="72">
         <v>5</v>
@@ -15430,10 +15431,10 @@
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
-      <c r="B32" s="334" t="s">
+      <c r="B32" s="330" t="s">
         <v>543</v>
       </c>
-      <c r="C32" s="335"/>
+      <c r="C32" s="331"/>
       <c r="D32" s="113"/>
       <c r="E32" s="72">
         <v>6</v>
@@ -15445,10 +15446,10 @@
     </row>
     <row r="33" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
-      <c r="B33" s="334" t="s">
+      <c r="B33" s="330" t="s">
         <v>544</v>
       </c>
-      <c r="C33" s="335"/>
+      <c r="C33" s="331"/>
       <c r="D33" s="113"/>
       <c r="E33" s="72">
         <v>7</v>
@@ -15460,10 +15461,10 @@
     </row>
     <row r="34" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="334" t="s">
+      <c r="B34" s="330" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="335"/>
+      <c r="C34" s="331"/>
       <c r="D34" s="113"/>
       <c r="E34" s="72">
         <v>8</v>
@@ -15475,10 +15476,10 @@
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21"/>
-      <c r="B35" s="334" t="s">
+      <c r="B35" s="330" t="s">
         <v>545</v>
       </c>
-      <c r="C35" s="335"/>
+      <c r="C35" s="331"/>
       <c r="D35" s="113"/>
       <c r="E35" s="79">
         <v>9</v>
@@ -15490,10 +15491,10 @@
     </row>
     <row r="36" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="332" t="s">
+      <c r="B36" s="328" t="s">
         <v>546</v>
       </c>
-      <c r="C36" s="333"/>
+      <c r="C36" s="329"/>
       <c r="D36" s="113"/>
       <c r="E36" s="195">
         <f>SUM(E28:E35)</f>
@@ -15509,10 +15510,10 @@
       <c r="A37" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B37" s="313" t="s">
+      <c r="B37" s="308" t="s">
         <v>369</v>
       </c>
-      <c r="C37" s="314"/>
+      <c r="C37" s="309"/>
       <c r="D37" s="113"/>
       <c r="E37" s="72">
         <v>-6</v>
@@ -15526,10 +15527,10 @@
       <c r="A38" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B38" s="313" t="s">
+      <c r="B38" s="308" t="s">
         <v>378</v>
       </c>
-      <c r="C38" s="314"/>
+      <c r="C38" s="309"/>
       <c r="D38" s="113"/>
       <c r="E38" s="72">
         <v>-6</v>
@@ -15543,10 +15544,10 @@
       <c r="A39" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B39" s="313" t="s">
+      <c r="B39" s="308" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="314"/>
+      <c r="C39" s="309"/>
       <c r="D39" s="113"/>
       <c r="E39" s="72">
         <v>-4</v>
@@ -15560,10 +15561,10 @@
       <c r="A40" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B40" s="322" t="s">
+      <c r="B40" s="314" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="323"/>
+      <c r="C40" s="315"/>
       <c r="D40" s="113"/>
       <c r="E40" s="72">
         <v>-6</v>
@@ -15575,10 +15576,10 @@
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="110"/>
-      <c r="B41" s="236" t="s">
+      <c r="B41" s="234" t="s">
         <v>289</v>
       </c>
-      <c r="C41" s="237"/>
+      <c r="C41" s="235"/>
       <c r="D41" s="112"/>
       <c r="E41" s="188">
         <f>SUM(E14:E40)</f>
@@ -15594,10 +15595,10 @@
       <c r="A42" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B42" s="326" t="s">
+      <c r="B42" s="334" t="s">
         <v>374</v>
       </c>
-      <c r="C42" s="327"/>
+      <c r="C42" s="335"/>
       <c r="D42" s="113"/>
       <c r="E42" s="72">
         <v>6</v>
@@ -15611,10 +15612,10 @@
       <c r="A43" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B43" s="313" t="s">
+      <c r="B43" s="308" t="s">
         <v>375</v>
       </c>
-      <c r="C43" s="314"/>
+      <c r="C43" s="309"/>
       <c r="D43" s="113"/>
       <c r="E43" s="72">
         <v>-3</v>
@@ -15628,10 +15629,10 @@
       <c r="A44" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B44" s="322" t="s">
+      <c r="B44" s="314" t="s">
         <v>376</v>
       </c>
-      <c r="C44" s="323"/>
+      <c r="C44" s="315"/>
       <c r="D44" s="113"/>
       <c r="E44" s="72">
         <v>6</v>
@@ -15643,10 +15644,10 @@
     </row>
     <row r="45" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="110"/>
-      <c r="B45" s="236" t="s">
+      <c r="B45" s="234" t="s">
         <v>288</v>
       </c>
-      <c r="C45" s="237"/>
+      <c r="C45" s="235"/>
       <c r="D45" s="112"/>
       <c r="E45" s="188">
         <f>SUM(E41:E44)</f>
@@ -15662,10 +15663,10 @@
       <c r="A46" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B46" s="324" t="s">
+      <c r="B46" s="332" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="325"/>
+      <c r="C46" s="333"/>
       <c r="D46" s="113"/>
       <c r="E46" s="74">
         <v>1</v>
@@ -15677,10 +15678,10 @@
     </row>
     <row r="47" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="110"/>
-      <c r="B47" s="236" t="s">
+      <c r="B47" s="234" t="s">
         <v>405</v>
       </c>
-      <c r="C47" s="237"/>
+      <c r="C47" s="235"/>
       <c r="D47" s="112"/>
       <c r="E47" s="188">
         <f>SUM(E45:E46)</f>
@@ -15700,6 +15701,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -15716,34 +15745,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DD4B0C15-1D0A-4E6A-9C64-50293F400D9C}"/>
@@ -15781,41 +15782,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="213"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="228"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="267" t="str">
+      <c r="B2" s="262" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="268"/>
-      <c r="M2" s="269"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="264"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -15825,37 +15826,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="248"/>
+      <c r="K3" s="248"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="252">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="240"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="253"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="253"/>
+      <c r="K4" s="253"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="254"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -15865,72 +15866,72 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="254"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="226" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="212"/>
-      <c r="L6" s="212"/>
-      <c r="M6" s="213"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="228"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="211" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="221"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="222"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="213"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="226" t="s">
+      <c r="B8" s="223" t="s">
         <v>573</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="227"/>
-      <c r="M8" s="228"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="225"/>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -15938,21 +15939,21 @@
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="241" t="s">
+      <c r="A10" s="255" t="s">
         <v>292</v>
       </c>
-      <c r="B10" s="336"/>
-      <c r="C10" s="336"/>
-      <c r="D10" s="336"/>
-      <c r="E10" s="336"/>
-      <c r="F10" s="336"/>
-      <c r="G10" s="336"/>
-      <c r="H10" s="336"/>
-      <c r="I10" s="336"/>
-      <c r="J10" s="336"/>
-      <c r="K10" s="336"/>
-      <c r="L10" s="336"/>
-      <c r="M10" s="242"/>
+      <c r="B10" s="351"/>
+      <c r="C10" s="351"/>
+      <c r="D10" s="351"/>
+      <c r="E10" s="351"/>
+      <c r="F10" s="351"/>
+      <c r="G10" s="351"/>
+      <c r="H10" s="351"/>
+      <c r="I10" s="351"/>
+      <c r="J10" s="351"/>
+      <c r="K10" s="351"/>
+      <c r="L10" s="351"/>
+      <c r="M10" s="256"/>
     </row>
     <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="108" t="s">
@@ -15967,23 +15968,23 @@
       <c r="D11" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="342" t="s">
+      <c r="E11" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="343"/>
-      <c r="G11" s="343"/>
-      <c r="H11" s="343"/>
-      <c r="I11" s="343"/>
-      <c r="J11" s="343"/>
-      <c r="K11" s="343"/>
-      <c r="L11" s="343"/>
-      <c r="M11" s="344"/>
+      <c r="F11" s="349"/>
+      <c r="G11" s="349"/>
+      <c r="H11" s="349"/>
+      <c r="I11" s="349"/>
+      <c r="J11" s="349"/>
+      <c r="K11" s="349"/>
+      <c r="L11" s="349"/>
+      <c r="M11" s="350"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="345" t="s">
+      <c r="A12" s="342" t="s">
         <v>423</v>
       </c>
-      <c r="B12" s="346"/>
+      <c r="B12" s="343"/>
       <c r="C12" s="56"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
@@ -15997,8 +15998,8 @@
       <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="349"/>
-      <c r="B13" s="350"/>
+      <c r="A13" s="340"/>
+      <c r="B13" s="341"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -16012,8 +16013,8 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="351"/>
-      <c r="B14" s="352"/>
+      <c r="A14" s="336"/>
+      <c r="B14" s="337"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
@@ -16027,8 +16028,8 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="351"/>
-      <c r="B15" s="352"/>
+      <c r="A15" s="336"/>
+      <c r="B15" s="337"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
@@ -16042,8 +16043,8 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="351"/>
-      <c r="B16" s="352"/>
+      <c r="A16" s="336"/>
+      <c r="B16" s="337"/>
       <c r="C16" s="60" t="s">
         <v>513</v>
       </c>
@@ -16059,8 +16060,8 @@
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="351"/>
-      <c r="B17" s="352"/>
+      <c r="A17" s="336"/>
+      <c r="B17" s="337"/>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
@@ -16074,8 +16075,8 @@
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="351"/>
-      <c r="B18" s="352"/>
+      <c r="A18" s="336"/>
+      <c r="B18" s="337"/>
       <c r="C18" s="60" t="s">
         <v>424</v>
       </c>
@@ -16091,8 +16092,8 @@
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="351"/>
-      <c r="B19" s="352"/>
+      <c r="A19" s="336"/>
+      <c r="B19" s="337"/>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
@@ -16106,8 +16107,8 @@
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="351"/>
-      <c r="B20" s="352"/>
+      <c r="A20" s="336"/>
+      <c r="B20" s="337"/>
       <c r="C20" s="60" t="s">
         <v>425</v>
       </c>
@@ -16123,8 +16124,8 @@
       <c r="M20" s="31"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="351"/>
-      <c r="B21" s="352"/>
+      <c r="A21" s="336"/>
+      <c r="B21" s="337"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
@@ -16138,8 +16139,8 @@
       <c r="M21" s="31"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="351"/>
-      <c r="B22" s="352"/>
+      <c r="A22" s="336"/>
+      <c r="B22" s="337"/>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -16153,8 +16154,8 @@
       <c r="M22" s="31"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="351"/>
-      <c r="B23" s="352"/>
+      <c r="A23" s="336"/>
+      <c r="B23" s="337"/>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
@@ -16168,8 +16169,8 @@
       <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="351"/>
-      <c r="B24" s="352"/>
+      <c r="A24" s="336"/>
+      <c r="B24" s="337"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
@@ -16183,8 +16184,8 @@
       <c r="M24" s="31"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="351"/>
-      <c r="B25" s="352"/>
+      <c r="A25" s="336"/>
+      <c r="B25" s="337"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
@@ -16198,8 +16199,8 @@
       <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="351"/>
-      <c r="B26" s="352"/>
+      <c r="A26" s="336"/>
+      <c r="B26" s="337"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
@@ -16213,8 +16214,8 @@
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="351"/>
-      <c r="B27" s="352"/>
+      <c r="A27" s="336"/>
+      <c r="B27" s="337"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
@@ -16228,8 +16229,8 @@
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="351"/>
-      <c r="B28" s="352"/>
+      <c r="A28" s="336"/>
+      <c r="B28" s="337"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
@@ -16243,8 +16244,8 @@
       <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="351"/>
-      <c r="B29" s="352"/>
+      <c r="A29" s="336"/>
+      <c r="B29" s="337"/>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
@@ -16258,8 +16259,8 @@
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="351"/>
-      <c r="B30" s="352"/>
+      <c r="A30" s="336"/>
+      <c r="B30" s="337"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
@@ -16273,8 +16274,8 @@
       <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="353"/>
-      <c r="B31" s="354"/>
+      <c r="A31" s="338"/>
+      <c r="B31" s="339"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -16294,10 +16295,10 @@
       <c r="B32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="254" t="s">
+      <c r="C32" s="241" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="256"/>
+      <c r="D32" s="243"/>
       <c r="E32" s="60" t="s">
         <v>398</v>
       </c>
@@ -16394,10 +16395,10 @@
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="235" t="s">
+      <c r="C37" s="233" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="237"/>
+      <c r="D37" s="235"/>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
@@ -16687,10 +16688,10 @@
       <c r="B52" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="235" t="s">
+      <c r="C52" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="237"/>
+      <c r="D52" s="235"/>
       <c r="E52" s="59"/>
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
@@ -16780,10 +16781,10 @@
     <row r="57" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="235" t="s">
+      <c r="C57" s="233" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="237"/>
+      <c r="D57" s="235"/>
       <c r="E57" s="59"/>
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
@@ -16797,10 +16798,10 @@
     <row r="58" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="235" t="s">
+      <c r="C58" s="233" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="237"/>
+      <c r="D58" s="235"/>
       <c r="E58" s="59"/>
       <c r="F58" s="60"/>
       <c r="G58" s="60"/>
@@ -17030,10 +17031,10 @@
       <c r="B70" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="235" t="s">
+      <c r="C70" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="236"/>
+      <c r="D70" s="234"/>
       <c r="E70" s="59"/>
       <c r="F70" s="60"/>
       <c r="G70" s="60"/>
@@ -17333,21 +17334,21 @@
       <c r="M85" s="62"/>
     </row>
     <row r="86" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="337" t="s">
+      <c r="A86" s="344" t="s">
         <v>292</v>
       </c>
-      <c r="B86" s="338"/>
-      <c r="C86" s="338"/>
-      <c r="D86" s="338"/>
-      <c r="E86" s="347"/>
-      <c r="F86" s="347"/>
-      <c r="G86" s="347"/>
-      <c r="H86" s="347"/>
-      <c r="I86" s="347"/>
-      <c r="J86" s="347"/>
-      <c r="K86" s="347"/>
-      <c r="L86" s="347"/>
-      <c r="M86" s="348"/>
+      <c r="B86" s="345"/>
+      <c r="C86" s="345"/>
+      <c r="D86" s="345"/>
+      <c r="E86" s="346"/>
+      <c r="F86" s="346"/>
+      <c r="G86" s="346"/>
+      <c r="H86" s="346"/>
+      <c r="I86" s="346"/>
+      <c r="J86" s="346"/>
+      <c r="K86" s="346"/>
+      <c r="L86" s="346"/>
+      <c r="M86" s="347"/>
     </row>
     <row r="87" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="52" t="s">
@@ -17362,17 +17363,17 @@
       <c r="D87" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E87" s="342" t="s">
+      <c r="E87" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="343"/>
-      <c r="G87" s="343"/>
-      <c r="H87" s="343"/>
-      <c r="I87" s="343"/>
-      <c r="J87" s="343"/>
-      <c r="K87" s="343"/>
-      <c r="L87" s="343"/>
-      <c r="M87" s="344"/>
+      <c r="F87" s="349"/>
+      <c r="G87" s="349"/>
+      <c r="H87" s="349"/>
+      <c r="I87" s="349"/>
+      <c r="J87" s="349"/>
+      <c r="K87" s="349"/>
+      <c r="L87" s="349"/>
+      <c r="M87" s="350"/>
     </row>
     <row r="88" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="48" t="s">
@@ -17397,10 +17398,10 @@
     </row>
     <row r="89" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
-      <c r="C89" s="235" t="s">
+      <c r="C89" s="233" t="s">
         <v>204</v>
       </c>
-      <c r="D89" s="237"/>
+      <c r="D89" s="235"/>
       <c r="E89" s="66"/>
       <c r="F89" s="67"/>
       <c r="G89" s="67"/>
@@ -17690,10 +17691,10 @@
       <c r="B105" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="235" t="s">
+      <c r="C105" s="233" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="237"/>
+      <c r="D105" s="235"/>
       <c r="E105" s="56"/>
       <c r="F105" s="57"/>
       <c r="G105" s="57"/>
@@ -17783,10 +17784,10 @@
     <row r="110" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="235" t="s">
+      <c r="C110" s="233" t="s">
         <v>226</v>
       </c>
-      <c r="D110" s="237"/>
+      <c r="D110" s="235"/>
       <c r="E110" s="59"/>
       <c r="F110" s="60"/>
       <c r="G110" s="60"/>
@@ -17800,10 +17801,10 @@
     <row r="111" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="235" t="s">
+      <c r="C111" s="233" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="237"/>
+      <c r="D111" s="235"/>
       <c r="E111" s="59"/>
       <c r="F111" s="60"/>
       <c r="G111" s="60"/>
@@ -18148,10 +18149,10 @@
       <c r="B129" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C129" s="235" t="s">
+      <c r="C129" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="237"/>
+      <c r="D129" s="235"/>
       <c r="E129" s="56"/>
       <c r="F129" s="57"/>
       <c r="G129" s="57"/>
@@ -18241,10 +18242,10 @@
     <row r="134" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="235" t="s">
+      <c r="C134" s="233" t="s">
         <v>248</v>
       </c>
-      <c r="D134" s="237"/>
+      <c r="D134" s="235"/>
       <c r="E134" s="59"/>
       <c r="F134" s="60"/>
       <c r="G134" s="60"/>
@@ -18258,10 +18259,10 @@
     <row r="135" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="235" t="s">
+      <c r="C135" s="233" t="s">
         <v>249</v>
       </c>
-      <c r="D135" s="237"/>
+      <c r="D135" s="235"/>
       <c r="E135" s="59"/>
       <c r="F135" s="60"/>
       <c r="G135" s="60"/>
@@ -18275,10 +18276,10 @@
     <row r="136" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="235" t="s">
+      <c r="C136" s="233" t="s">
         <v>250</v>
       </c>
-      <c r="D136" s="237"/>
+      <c r="D136" s="235"/>
       <c r="E136" s="59"/>
       <c r="F136" s="60"/>
       <c r="G136" s="60"/>
@@ -18585,19 +18586,19 @@
       <c r="B152" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C152" s="235" t="s">
+      <c r="C152" s="233" t="s">
         <v>58</v>
       </c>
-      <c r="D152" s="237"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="60"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="60"/>
-      <c r="I152" s="60"/>
-      <c r="J152" s="60"/>
-      <c r="K152" s="60"/>
-      <c r="L152" s="60"/>
-      <c r="M152" s="31"/>
+      <c r="D152" s="235"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="57"/>
+      <c r="H152" s="57"/>
+      <c r="I152" s="57"/>
+      <c r="J152" s="57"/>
+      <c r="K152" s="57"/>
+      <c r="L152" s="57"/>
+      <c r="M152" s="58"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="154"/>
@@ -18607,13 +18608,13 @@
       </c>
       <c r="D153" s="72"/>
       <c r="E153" s="59"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="60"/>
-      <c r="H153" s="60"/>
-      <c r="I153" s="60"/>
-      <c r="J153" s="60"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="60"/>
+      <c r="F153" s="355"/>
+      <c r="G153" s="355"/>
+      <c r="H153" s="355"/>
+      <c r="I153" s="355"/>
+      <c r="J153" s="355"/>
+      <c r="K153" s="355"/>
+      <c r="L153" s="355"/>
       <c r="M153" s="31"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
@@ -18624,13 +18625,13 @@
       </c>
       <c r="D154" s="72"/>
       <c r="E154" s="59"/>
-      <c r="F154" s="60"/>
-      <c r="G154" s="60"/>
-      <c r="H154" s="60"/>
-      <c r="I154" s="60"/>
-      <c r="J154" s="60"/>
-      <c r="K154" s="60"/>
-      <c r="L154" s="60"/>
+      <c r="F154" s="355"/>
+      <c r="G154" s="355"/>
+      <c r="H154" s="355"/>
+      <c r="I154" s="355"/>
+      <c r="J154" s="355"/>
+      <c r="K154" s="355"/>
+      <c r="L154" s="355"/>
       <c r="M154" s="31"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
@@ -18641,13 +18642,13 @@
       </c>
       <c r="D155" s="72"/>
       <c r="E155" s="59"/>
-      <c r="F155" s="60"/>
-      <c r="G155" s="60"/>
-      <c r="H155" s="60"/>
-      <c r="I155" s="60"/>
-      <c r="J155" s="60"/>
-      <c r="K155" s="60"/>
-      <c r="L155" s="60"/>
+      <c r="F155" s="355"/>
+      <c r="G155" s="355"/>
+      <c r="H155" s="355"/>
+      <c r="I155" s="355"/>
+      <c r="J155" s="355"/>
+      <c r="K155" s="355"/>
+      <c r="L155" s="355"/>
       <c r="M155" s="31"/>
     </row>
     <row r="156" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18658,13 +18659,13 @@
       </c>
       <c r="D156" s="79"/>
       <c r="E156" s="59"/>
-      <c r="F156" s="60"/>
-      <c r="G156" s="60"/>
-      <c r="H156" s="60"/>
-      <c r="I156" s="60"/>
-      <c r="J156" s="60"/>
-      <c r="K156" s="60"/>
-      <c r="L156" s="60"/>
+      <c r="F156" s="355"/>
+      <c r="G156" s="355"/>
+      <c r="H156" s="355"/>
+      <c r="I156" s="355"/>
+      <c r="J156" s="355"/>
+      <c r="K156" s="355"/>
+      <c r="L156" s="355"/>
       <c r="M156" s="31"/>
     </row>
     <row r="157" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18678,13 +18679,13 @@
         <v>0</v>
       </c>
       <c r="E157" s="59"/>
-      <c r="F157" s="60"/>
-      <c r="G157" s="60"/>
-      <c r="H157" s="60"/>
-      <c r="I157" s="60"/>
-      <c r="J157" s="60"/>
-      <c r="K157" s="60"/>
-      <c r="L157" s="60"/>
+      <c r="F157" s="355"/>
+      <c r="G157" s="355"/>
+      <c r="H157" s="355"/>
+      <c r="I157" s="355"/>
+      <c r="J157" s="355"/>
+      <c r="K157" s="355"/>
+      <c r="L157" s="355"/>
       <c r="M157" s="31"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -18697,13 +18698,13 @@
         <v>5</v>
       </c>
       <c r="E158" s="59"/>
-      <c r="F158" s="60"/>
-      <c r="G158" s="60"/>
-      <c r="H158" s="60"/>
-      <c r="I158" s="60"/>
-      <c r="J158" s="60"/>
-      <c r="K158" s="60"/>
-      <c r="L158" s="60"/>
+      <c r="F158" s="355"/>
+      <c r="G158" s="355"/>
+      <c r="H158" s="355"/>
+      <c r="I158" s="355"/>
+      <c r="J158" s="355"/>
+      <c r="K158" s="355"/>
+      <c r="L158" s="355"/>
       <c r="M158" s="31"/>
     </row>
     <row r="159" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18714,13 +18715,13 @@
       </c>
       <c r="D159" s="78"/>
       <c r="E159" s="59"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="60"/>
-      <c r="H159" s="60"/>
-      <c r="I159" s="60"/>
-      <c r="J159" s="60"/>
-      <c r="K159" s="60"/>
-      <c r="L159" s="60"/>
+      <c r="F159" s="355"/>
+      <c r="G159" s="355"/>
+      <c r="H159" s="355"/>
+      <c r="I159" s="355"/>
+      <c r="J159" s="355"/>
+      <c r="K159" s="355"/>
+      <c r="L159" s="355"/>
       <c r="M159" s="31"/>
     </row>
     <row r="160" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18734,13 +18735,13 @@
         <v>5</v>
       </c>
       <c r="E160" s="59"/>
-      <c r="F160" s="60"/>
-      <c r="G160" s="60"/>
-      <c r="H160" s="60"/>
-      <c r="I160" s="60"/>
-      <c r="J160" s="60"/>
-      <c r="K160" s="60"/>
-      <c r="L160" s="60"/>
+      <c r="F160" s="355"/>
+      <c r="G160" s="355"/>
+      <c r="H160" s="355"/>
+      <c r="I160" s="355"/>
+      <c r="J160" s="355"/>
+      <c r="K160" s="355"/>
+      <c r="L160" s="355"/>
       <c r="M160" s="31"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -18751,13 +18752,13 @@
       </c>
       <c r="D161" s="78"/>
       <c r="E161" s="59"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="60"/>
-      <c r="H161" s="60"/>
-      <c r="I161" s="60"/>
-      <c r="J161" s="60"/>
-      <c r="K161" s="60"/>
-      <c r="L161" s="60"/>
+      <c r="F161" s="355"/>
+      <c r="G161" s="355"/>
+      <c r="H161" s="355"/>
+      <c r="I161" s="355"/>
+      <c r="J161" s="355"/>
+      <c r="K161" s="355"/>
+      <c r="L161" s="355"/>
       <c r="M161" s="31"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -18768,13 +18769,13 @@
       </c>
       <c r="D162" s="78"/>
       <c r="E162" s="59"/>
-      <c r="F162" s="60"/>
-      <c r="G162" s="60"/>
-      <c r="H162" s="60"/>
-      <c r="I162" s="60"/>
-      <c r="J162" s="60"/>
-      <c r="K162" s="60"/>
-      <c r="L162" s="60"/>
+      <c r="F162" s="355"/>
+      <c r="G162" s="355"/>
+      <c r="H162" s="355"/>
+      <c r="I162" s="355"/>
+      <c r="J162" s="355"/>
+      <c r="K162" s="355"/>
+      <c r="L162" s="355"/>
       <c r="M162" s="31"/>
     </row>
     <row r="163" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18785,13 +18786,13 @@
       </c>
       <c r="D163" s="78"/>
       <c r="E163" s="59"/>
-      <c r="F163" s="60"/>
-      <c r="G163" s="60"/>
-      <c r="H163" s="60"/>
-      <c r="I163" s="60"/>
-      <c r="J163" s="60"/>
-      <c r="K163" s="60"/>
-      <c r="L163" s="60"/>
+      <c r="F163" s="355"/>
+      <c r="G163" s="355"/>
+      <c r="H163" s="355"/>
+      <c r="I163" s="355"/>
+      <c r="J163" s="355"/>
+      <c r="K163" s="355"/>
+      <c r="L163" s="355"/>
       <c r="M163" s="31"/>
     </row>
     <row r="164" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18805,13 +18806,13 @@
         <v>0</v>
       </c>
       <c r="E164" s="59"/>
-      <c r="F164" s="60"/>
-      <c r="G164" s="60"/>
-      <c r="H164" s="60"/>
-      <c r="I164" s="60"/>
-      <c r="J164" s="60"/>
-      <c r="K164" s="60"/>
-      <c r="L164" s="60"/>
+      <c r="F164" s="355"/>
+      <c r="G164" s="355"/>
+      <c r="H164" s="355"/>
+      <c r="I164" s="355"/>
+      <c r="J164" s="355"/>
+      <c r="K164" s="355"/>
+      <c r="L164" s="355"/>
       <c r="M164" s="31"/>
     </row>
     <row r="165" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18824,13 +18825,13 @@
         <v>1</v>
       </c>
       <c r="E165" s="59"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="60"/>
-      <c r="H165" s="60"/>
-      <c r="I165" s="60"/>
-      <c r="J165" s="60"/>
-      <c r="K165" s="60"/>
-      <c r="L165" s="60"/>
+      <c r="F165" s="355"/>
+      <c r="G165" s="355"/>
+      <c r="H165" s="355"/>
+      <c r="I165" s="355"/>
+      <c r="J165" s="355"/>
+      <c r="K165" s="355"/>
+      <c r="L165" s="355"/>
       <c r="M165" s="31"/>
     </row>
     <row r="166" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18844,13 +18845,13 @@
         <v>6</v>
       </c>
       <c r="E166" s="59"/>
-      <c r="F166" s="60"/>
-      <c r="G166" s="60"/>
-      <c r="H166" s="60"/>
-      <c r="I166" s="60"/>
-      <c r="J166" s="60"/>
-      <c r="K166" s="60"/>
-      <c r="L166" s="60"/>
+      <c r="F166" s="355"/>
+      <c r="G166" s="355"/>
+      <c r="H166" s="355"/>
+      <c r="I166" s="355"/>
+      <c r="J166" s="355"/>
+      <c r="K166" s="355"/>
+      <c r="L166" s="355"/>
       <c r="M166" s="31"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -18861,13 +18862,13 @@
       </c>
       <c r="D167" s="26"/>
       <c r="E167" s="59"/>
-      <c r="F167" s="60"/>
-      <c r="G167" s="60"/>
-      <c r="H167" s="60"/>
-      <c r="I167" s="60"/>
-      <c r="J167" s="60"/>
-      <c r="K167" s="60"/>
-      <c r="L167" s="60"/>
+      <c r="F167" s="355"/>
+      <c r="G167" s="355"/>
+      <c r="H167" s="355"/>
+      <c r="I167" s="355"/>
+      <c r="J167" s="355"/>
+      <c r="K167" s="355"/>
+      <c r="L167" s="355"/>
       <c r="M167" s="31"/>
     </row>
     <row r="168" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
@@ -18878,13 +18879,13 @@
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="59"/>
-      <c r="F168" s="60"/>
-      <c r="G168" s="60"/>
-      <c r="H168" s="60"/>
-      <c r="I168" s="60"/>
-      <c r="J168" s="60"/>
-      <c r="K168" s="60"/>
-      <c r="L168" s="60"/>
+      <c r="F168" s="355"/>
+      <c r="G168" s="355"/>
+      <c r="H168" s="355"/>
+      <c r="I168" s="355"/>
+      <c r="J168" s="355"/>
+      <c r="K168" s="355"/>
+      <c r="L168" s="355"/>
       <c r="M168" s="31"/>
     </row>
     <row r="169" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18892,15 +18893,15 @@
       <c r="B169" s="3"/>
       <c r="C169" s="15"/>
       <c r="D169" s="16"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="60"/>
-      <c r="G169" s="60"/>
-      <c r="H169" s="60"/>
-      <c r="I169" s="60"/>
-      <c r="J169" s="60"/>
-      <c r="K169" s="60"/>
-      <c r="L169" s="60"/>
-      <c r="M169" s="31"/>
+      <c r="E169" s="61"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="10"/>
+      <c r="L169" s="10"/>
+      <c r="M169" s="62"/>
     </row>
     <row r="170" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="24" t="s">
@@ -18909,10 +18910,10 @@
       <c r="B170" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C170" s="235" t="s">
+      <c r="C170" s="233" t="s">
         <v>46</v>
       </c>
-      <c r="D170" s="237"/>
+      <c r="D170" s="235"/>
       <c r="E170" s="59"/>
       <c r="F170" s="60"/>
       <c r="G170" s="60"/>
@@ -19184,10 +19185,10 @@
       <c r="B185" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="235" t="s">
+      <c r="C185" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="D185" s="237"/>
+      <c r="D185" s="235"/>
       <c r="E185" s="56"/>
       <c r="F185" s="57"/>
       <c r="G185" s="57"/>
@@ -19263,10 +19264,10 @@
       <c r="B189" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C189" s="235" t="s">
+      <c r="C189" s="233" t="s">
         <v>257</v>
       </c>
-      <c r="D189" s="237"/>
+      <c r="D189" s="235"/>
       <c r="E189" s="56"/>
       <c r="F189" s="57"/>
       <c r="G189" s="57"/>
@@ -19909,10 +19910,10 @@
       <c r="B228" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C228" s="235" t="s">
+      <c r="C228" s="233" t="s">
         <v>39</v>
       </c>
-      <c r="D228" s="236"/>
+      <c r="D228" s="234"/>
       <c r="E228" s="42"/>
       <c r="F228" s="44"/>
       <c r="G228" s="44"/>
@@ -20002,25 +20003,22 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="C5:M5"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C3:M3"/>
@@ -20037,22 +20035,25 @@
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="A86:M86"/>
     <mergeCell ref="E87:M87"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{CAFC6D68-6070-4D51-BEF1-3FF68EC64F87}"/>

--- a/ifrs-sme-model.xlsx
+++ b/ifrs-sme-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97639F6-200D-4B80-B2D9-F4B61E15F5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63DD4DE-7B78-467D-929F-3FB9C17B76C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
@@ -2446,7 +2446,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2792,7 +2792,6 @@
     <xf numFmtId="2" fontId="2" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3141,6 +3140,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3228,7 +3236,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -5127,7 +5134,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5140,41 +5147,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="228"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="227"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="262" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="264"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="263"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -5184,37 +5191,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="252">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="254"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="253"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -5224,90 +5231,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="254"/>
-      <c r="J5" s="254"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="254"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="227"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="228"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="227"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="213"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="212"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="223" t="s">
+      <c r="B8" s="222" t="s">
         <v>574</v>
       </c>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="225"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="224"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="255" t="s">
+      <c r="A11" s="254" t="s">
         <v>514</v>
       </c>
-      <c r="B11" s="351"/>
-      <c r="C11" s="351"/>
-      <c r="D11" s="351"/>
-      <c r="E11" s="351"/>
-      <c r="F11" s="351"/>
-      <c r="G11" s="351"/>
-      <c r="H11" s="351"/>
-      <c r="I11" s="351"/>
-      <c r="J11" s="351"/>
-      <c r="K11" s="351"/>
-      <c r="L11" s="351"/>
-      <c r="M11" s="256"/>
+      <c r="B11" s="353"/>
+      <c r="C11" s="353"/>
+      <c r="D11" s="353"/>
+      <c r="E11" s="353"/>
+      <c r="F11" s="353"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="353"/>
+      <c r="I11" s="353"/>
+      <c r="J11" s="353"/>
+      <c r="K11" s="353"/>
+      <c r="L11" s="353"/>
+      <c r="M11" s="255"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="52" t="s">
@@ -5322,17 +5329,17 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="344" t="s">
+      <c r="E12" s="346" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="345"/>
-      <c r="G12" s="345"/>
-      <c r="H12" s="345"/>
-      <c r="I12" s="345"/>
-      <c r="J12" s="345"/>
-      <c r="K12" s="345"/>
-      <c r="L12" s="345"/>
-      <c r="M12" s="352"/>
+      <c r="F12" s="347"/>
+      <c r="G12" s="347"/>
+      <c r="H12" s="347"/>
+      <c r="I12" s="347"/>
+      <c r="J12" s="347"/>
+      <c r="K12" s="347"/>
+      <c r="L12" s="347"/>
+      <c r="M12" s="354"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47" t="s">
@@ -5341,10 +5348,10 @@
       <c r="B13" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="C13" s="353" t="s">
+      <c r="C13" s="355" t="s">
         <v>528</v>
       </c>
-      <c r="D13" s="354"/>
+      <c r="D13" s="356"/>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -5533,7 +5540,7 @@
       <c r="C23" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="D23" s="206">
+      <c r="D23" s="205">
         <f>SUM(D14:D22)</f>
         <v>22</v>
       </c>
@@ -5766,41 +5773,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="228"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="227"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="262" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="264"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="263"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -5810,37 +5817,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="252">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="254"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="253"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -5850,90 +5857,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="254"/>
-      <c r="J5" s="254"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="254"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="227"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="228"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="227"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="213"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="212"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="223" t="s">
+      <c r="B8" s="222" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="225"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="224"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="255" t="s">
+      <c r="A11" s="254" t="s">
         <v>553</v>
       </c>
-      <c r="B11" s="351"/>
-      <c r="C11" s="351"/>
-      <c r="D11" s="351"/>
-      <c r="E11" s="351"/>
-      <c r="F11" s="351"/>
-      <c r="G11" s="351"/>
-      <c r="H11" s="351"/>
-      <c r="I11" s="351"/>
-      <c r="J11" s="351"/>
-      <c r="K11" s="351"/>
-      <c r="L11" s="351"/>
-      <c r="M11" s="256"/>
+      <c r="B11" s="353"/>
+      <c r="C11" s="353"/>
+      <c r="D11" s="353"/>
+      <c r="E11" s="353"/>
+      <c r="F11" s="353"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="353"/>
+      <c r="I11" s="353"/>
+      <c r="J11" s="353"/>
+      <c r="K11" s="353"/>
+      <c r="L11" s="353"/>
+      <c r="M11" s="255"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="108" t="s">
@@ -5948,17 +5955,17 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="344" t="s">
+      <c r="E12" s="346" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="345"/>
-      <c r="G12" s="345"/>
-      <c r="H12" s="345"/>
-      <c r="I12" s="345"/>
-      <c r="J12" s="345"/>
-      <c r="K12" s="345"/>
-      <c r="L12" s="345"/>
-      <c r="M12" s="352"/>
+      <c r="F12" s="347"/>
+      <c r="G12" s="347"/>
+      <c r="H12" s="347"/>
+      <c r="I12" s="347"/>
+      <c r="J12" s="347"/>
+      <c r="K12" s="347"/>
+      <c r="L12" s="347"/>
+      <c r="M12" s="354"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="141" t="s">
@@ -5967,10 +5974,10 @@
       <c r="B13" s="134" t="s">
         <v>555</v>
       </c>
-      <c r="C13" s="353" t="s">
+      <c r="C13" s="355" t="s">
         <v>555</v>
       </c>
-      <c r="D13" s="354"/>
+      <c r="D13" s="356"/>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -6045,7 +6052,7 @@
       <c r="C17" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="D17" s="210">
+      <c r="D17" s="209">
         <f>SUM(D14:D16)</f>
         <v>6</v>
       </c>
@@ -6161,10 +6168,10 @@
       <c r="A23" s="137">
         <v>7.21</v>
       </c>
-      <c r="B23" s="233" t="s">
+      <c r="B23" s="232" t="s">
         <v>564</v>
       </c>
-      <c r="C23" s="235"/>
+      <c r="C23" s="234"/>
       <c r="D23" s="41"/>
       <c r="E23" s="61"/>
       <c r="F23" s="10"/>
@@ -6931,119 +6938,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="225" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="227"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="216" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="219"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="107" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="219"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="218"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="216" t="s">
         <v>421</v>
       </c>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="219"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="218"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>547</v>
       </c>
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="216" t="s">
         <v>550</v>
       </c>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="219"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="218"/>
     </row>
     <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107" t="s">
         <v>418</v>
       </c>
-      <c r="B6" s="217" t="s">
+      <c r="B6" s="216" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="219"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="218"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="107" t="s">
         <v>548</v>
       </c>
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="216" t="s">
         <v>551</v>
       </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="219"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="218"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="220">
+      <c r="B8" s="219">
         <v>45292</v>
       </c>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="222"/>
+      <c r="C8" s="220"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="221"/>
     </row>
     <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="220">
+      <c r="B9" s="219">
         <v>45657</v>
       </c>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="222"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="221"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="117" t="s">
@@ -7116,95 +7123,95 @@
       <c r="A17" s="105" t="s">
         <v>407</v>
       </c>
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="210" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="213"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="212"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" s="105"/>
-      <c r="B18" s="214" t="s">
+      <c r="B18" s="213" t="s">
         <v>410</v>
       </c>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="215"/>
-      <c r="G18" s="216"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="215"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" s="105"/>
-      <c r="B19" s="214" t="s">
+      <c r="B19" s="213" t="s">
         <v>411</v>
       </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="216"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="215"/>
     </row>
     <row r="20" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="106"/>
-      <c r="B20" s="223" t="s">
+      <c r="B20" s="222" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="224"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="224"/>
-      <c r="G20" s="225"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="224"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="105" t="s">
         <v>408</v>
       </c>
-      <c r="B21" s="220" t="s">
+      <c r="B21" s="219" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="222"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="221"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="104" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="211" t="s">
+      <c r="B22" s="210" t="s">
         <v>415</v>
       </c>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="213"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="212"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A23" s="105"/>
-      <c r="B23" s="214" t="s">
+      <c r="B23" s="213" t="s">
         <v>416</v>
       </c>
-      <c r="C23" s="215"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="216"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="215"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A24" s="105"/>
-      <c r="B24" s="214" t="s">
+      <c r="B24" s="213" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="215"/>
-      <c r="G24" s="216"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="215"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A25" s="105"/>
@@ -7326,118 +7333,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="227"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="246" t="str">
+      <c r="B2" s="245" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="248"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="247"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="246" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="248"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="247"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="252">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="254"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="253"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="252">
+      <c r="B5" s="251">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="254"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="253"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="228"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="227"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="257" t="s">
+      <c r="B7" s="256" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="258"/>
-      <c r="D7" s="258"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="258"/>
-      <c r="G7" s="259"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="257"/>
+      <c r="F7" s="257"/>
+      <c r="G7" s="258"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="248" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="250"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="251"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="250"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="256"/>
+      <c r="C10" s="255"/>
       <c r="D10" s="138" t="s">
         <v>73</v>
       </c>
@@ -7454,33 +7461,33 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="235"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="234"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="241" t="s">
+      <c r="B12" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="242"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="243"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="242"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="231" t="s">
+      <c r="B13" s="230" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="232"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="6" t="s">
         <v>123</v>
       </c>
@@ -7499,10 +7506,10 @@
       <c r="A14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="230"/>
+      <c r="C14" s="229"/>
       <c r="D14" s="7"/>
       <c r="E14" s="72"/>
       <c r="F14" s="78">
@@ -7514,10 +7521,10 @@
       <c r="A15" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="229" t="s">
+      <c r="B15" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="230"/>
+      <c r="C15" s="229"/>
       <c r="D15" s="7"/>
       <c r="E15" s="72"/>
       <c r="F15" s="78"/>
@@ -7527,10 +7534,10 @@
       <c r="A16" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="229" t="s">
+      <c r="B16" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="230"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="7"/>
       <c r="E16" s="72">
         <v>20</v>
@@ -7544,10 +7551,10 @@
       <c r="A17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="230"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="7"/>
       <c r="E17" s="72">
         <v>30</v>
@@ -7561,10 +7568,10 @@
       <c r="A18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="230"/>
+      <c r="C18" s="229"/>
       <c r="D18" s="7"/>
       <c r="E18" s="72"/>
       <c r="F18" s="78"/>
@@ -7574,10 +7581,10 @@
       <c r="A19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="229" t="s">
+      <c r="B19" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="230"/>
+      <c r="C19" s="229"/>
       <c r="D19" s="7"/>
       <c r="E19" s="72"/>
       <c r="F19" s="78"/>
@@ -7587,10 +7594,10 @@
       <c r="A20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="228" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="230"/>
+      <c r="C20" s="229"/>
       <c r="D20" s="7"/>
       <c r="E20" s="72"/>
       <c r="F20" s="78"/>
@@ -7600,10 +7607,10 @@
       <c r="A21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="230"/>
+      <c r="C21" s="229"/>
       <c r="D21" s="7"/>
       <c r="E21" s="72"/>
       <c r="F21" s="78"/>
@@ -7613,10 +7620,10 @@
       <c r="A22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="228" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="230"/>
+      <c r="C22" s="229"/>
       <c r="D22" s="7" t="s">
         <v>124</v>
       </c>
@@ -7633,10 +7640,10 @@
       <c r="A23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="229" t="s">
+      <c r="B23" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="230"/>
+      <c r="C23" s="229"/>
       <c r="D23" s="7"/>
       <c r="E23" s="72"/>
       <c r="F23" s="78"/>
@@ -7646,10 +7653,10 @@
       <c r="A24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="229" t="s">
+      <c r="B24" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="230"/>
+      <c r="C24" s="229"/>
       <c r="D24" s="7"/>
       <c r="E24" s="72"/>
       <c r="F24" s="78"/>
@@ -7659,10 +7666,10 @@
       <c r="A25" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="229" t="s">
+      <c r="B25" s="228" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="230"/>
+      <c r="C25" s="229"/>
       <c r="D25" s="7"/>
       <c r="E25" s="72"/>
       <c r="F25" s="78"/>
@@ -7672,10 +7679,10 @@
       <c r="A26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="229" t="s">
+      <c r="B26" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="230"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="7"/>
       <c r="E26" s="72"/>
       <c r="F26" s="78"/>
@@ -7685,20 +7692,20 @@
       <c r="A27" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="239" t="s">
+      <c r="B27" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="240"/>
+      <c r="C27" s="239"/>
       <c r="D27" s="8"/>
       <c r="E27" s="79"/>
       <c r="F27" s="78"/>
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="244" t="s">
+      <c r="B28" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="245"/>
+      <c r="C28" s="244"/>
       <c r="E28" s="184">
         <f>SUM(E13:E27)</f>
         <v>51</v>
@@ -7726,23 +7733,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="233" t="s">
+      <c r="B31" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="234"/>
-      <c r="D31" s="234"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="234"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="233"/>
+      <c r="G31" s="233"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="231" t="s">
+      <c r="B32" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="232"/>
+      <c r="C32" s="231"/>
       <c r="D32" s="6" t="s">
         <v>125</v>
       </c>
@@ -7761,10 +7768,10 @@
       <c r="A33" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="229" t="s">
+      <c r="B33" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="230"/>
+      <c r="C33" s="229"/>
       <c r="D33" s="7" t="s">
         <v>126</v>
       </c>
@@ -7781,10 +7788,10 @@
       <c r="A34" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="229" t="s">
+      <c r="B34" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="230"/>
+      <c r="C34" s="229"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72"/>
       <c r="F34" s="72"/>
@@ -7794,10 +7801,10 @@
       <c r="A35" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="229" t="s">
+      <c r="B35" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="230"/>
+      <c r="C35" s="229"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72"/>
       <c r="F35" s="72"/>
@@ -7807,10 +7814,10 @@
       <c r="A36" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="229" t="s">
+      <c r="B36" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="230"/>
+      <c r="C36" s="229"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72"/>
       <c r="F36" s="72"/>
@@ -7820,10 +7827,10 @@
       <c r="A37" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="229" t="s">
+      <c r="B37" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="230"/>
+      <c r="C37" s="229"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
@@ -7833,10 +7840,10 @@
       <c r="A38" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="229" t="s">
+      <c r="B38" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="230"/>
+      <c r="C38" s="229"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72"/>
       <c r="F38" s="72"/>
@@ -7846,10 +7853,10 @@
       <c r="A39" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="229" t="s">
+      <c r="B39" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="230"/>
+      <c r="C39" s="229"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>10</v>
@@ -7863,20 +7870,20 @@
       <c r="A40" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="239" t="s">
+      <c r="B40" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="240"/>
+      <c r="C40" s="239"/>
       <c r="D40" s="8"/>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
       <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="233" t="s">
+      <c r="B41" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="235"/>
+      <c r="C41" s="234"/>
       <c r="E41" s="185">
         <f>SUM(E32:E40)</f>
         <v>40</v>
@@ -7887,10 +7894,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="233" t="s">
+      <c r="B42" s="232" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="235"/>
+      <c r="C42" s="234"/>
       <c r="E42" s="185">
         <f>SUM(E28,E41)</f>
         <v>91</v>
@@ -7921,33 +7928,33 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="233" t="s">
+      <c r="B45" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="234"/>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="235"/>
+      <c r="C45" s="233"/>
+      <c r="D45" s="233"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="233"/>
+      <c r="G45" s="234"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="233" t="s">
+      <c r="B46" s="232" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="234"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="234"/>
-      <c r="G46" s="235"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="234"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="231" t="s">
+      <c r="B47" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="232"/>
+      <c r="C47" s="231"/>
       <c r="D47" s="6" t="s">
         <v>127</v>
       </c>
@@ -7964,10 +7971,10 @@
       <c r="A48" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="229" t="s">
+      <c r="B48" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="230"/>
+      <c r="C48" s="229"/>
       <c r="D48" s="7" t="s">
         <v>128</v>
       </c>
@@ -7984,10 +7991,10 @@
       <c r="A49" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="229" t="s">
+      <c r="B49" s="228" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="230"/>
+      <c r="C49" s="229"/>
       <c r="D49" s="7" t="s">
         <v>129</v>
       </c>
@@ -8004,10 +8011,10 @@
       <c r="A50" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="229" t="s">
+      <c r="B50" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="230"/>
+      <c r="C50" s="229"/>
       <c r="D50" s="7"/>
       <c r="E50" s="72"/>
       <c r="F50" s="78"/>
@@ -8017,10 +8024,10 @@
       <c r="A51" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="229" t="s">
+      <c r="B51" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="230"/>
+      <c r="C51" s="229"/>
       <c r="D51" s="7" t="s">
         <v>130</v>
       </c>
@@ -8037,10 +8044,10 @@
       <c r="A52" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="229" t="s">
+      <c r="B52" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="230"/>
+      <c r="C52" s="229"/>
       <c r="D52" s="8" t="s">
         <v>131</v>
       </c>
@@ -8057,10 +8064,10 @@
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="233" t="s">
+      <c r="B53" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="235"/>
+      <c r="C53" s="234"/>
       <c r="D53" s="81"/>
       <c r="E53" s="186">
         <f>SUM(E47:E52)</f>
@@ -8075,19 +8082,19 @@
       <c r="A54" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="239" t="s">
+      <c r="B54" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="240"/>
+      <c r="C54" s="239"/>
       <c r="D54" s="82"/>
       <c r="E54" s="9"/>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="233" t="s">
+      <c r="B55" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="235"/>
+      <c r="C55" s="234"/>
       <c r="E55" s="184">
         <f>SUM(E53,E54)</f>
         <v>15</v>
@@ -8115,33 +8122,33 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="233" t="s">
+      <c r="B58" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="234"/>
-      <c r="D58" s="234"/>
-      <c r="E58" s="234"/>
-      <c r="F58" s="234"/>
-      <c r="G58" s="235"/>
+      <c r="C58" s="233"/>
+      <c r="D58" s="233"/>
+      <c r="E58" s="233"/>
+      <c r="F58" s="233"/>
+      <c r="G58" s="234"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="241" t="s">
+      <c r="B59" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="242"/>
-      <c r="D59" s="242"/>
-      <c r="E59" s="242"/>
-      <c r="F59" s="242"/>
-      <c r="G59" s="242"/>
+      <c r="C59" s="241"/>
+      <c r="D59" s="241"/>
+      <c r="E59" s="241"/>
+      <c r="F59" s="241"/>
+      <c r="G59" s="241"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="231" t="s">
+      <c r="B60" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="232"/>
+      <c r="C60" s="231"/>
       <c r="D60" s="6"/>
       <c r="E60" s="76"/>
       <c r="F60" s="77"/>
@@ -8151,10 +8158,10 @@
       <c r="A61" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="229" t="s">
+      <c r="B61" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="230"/>
+      <c r="C61" s="229"/>
       <c r="D61" s="7" t="s">
         <v>311</v>
       </c>
@@ -8173,10 +8180,10 @@
       <c r="A62" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="239" t="s">
+      <c r="B62" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="240"/>
+      <c r="C62" s="239"/>
       <c r="D62" s="8"/>
       <c r="E62" s="79">
         <v>2</v>
@@ -8205,10 +8212,10 @@
       <c r="A64" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="231" t="s">
+      <c r="B64" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="232"/>
+      <c r="C64" s="231"/>
       <c r="D64" s="6" t="s">
         <v>312</v>
       </c>
@@ -8225,10 +8232,10 @@
       <c r="A65" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="229" t="s">
+      <c r="B65" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="230"/>
+      <c r="C65" s="229"/>
       <c r="D65" s="7"/>
       <c r="E65" s="72">
         <v>4</v>
@@ -8242,10 +8249,10 @@
       <c r="A66" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="229" t="s">
+      <c r="B66" s="228" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="230"/>
+      <c r="C66" s="229"/>
       <c r="D66" s="7"/>
       <c r="E66" s="72"/>
       <c r="F66" s="78"/>
@@ -8255,10 +8262,10 @@
       <c r="A67" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="229" t="s">
+      <c r="B67" s="228" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="230"/>
+      <c r="C67" s="229"/>
       <c r="D67" s="7"/>
       <c r="E67" s="72"/>
       <c r="F67" s="78"/>
@@ -8268,10 +8275,10 @@
       <c r="A68" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="229" t="s">
+      <c r="B68" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="230"/>
+      <c r="C68" s="229"/>
       <c r="D68" s="7"/>
       <c r="E68" s="72"/>
       <c r="F68" s="78"/>
@@ -8281,20 +8288,20 @@
       <c r="A69" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="239" t="s">
+      <c r="B69" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="240"/>
+      <c r="C69" s="239"/>
       <c r="D69" s="8"/>
       <c r="E69" s="79"/>
       <c r="F69" s="83"/>
       <c r="G69" s="38"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="233" t="s">
+      <c r="B70" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="235"/>
+      <c r="C70" s="234"/>
       <c r="E70" s="184">
         <f>SUM(E63:E69)</f>
         <v>9</v>
@@ -8323,23 +8330,23 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="233" t="s">
+      <c r="B73" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="234"/>
-      <c r="D73" s="234"/>
-      <c r="E73" s="234"/>
-      <c r="F73" s="234"/>
-      <c r="G73" s="234"/>
+      <c r="C73" s="233"/>
+      <c r="D73" s="233"/>
+      <c r="E73" s="233"/>
+      <c r="F73" s="233"/>
+      <c r="G73" s="233"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B74" s="231" t="s">
+      <c r="B74" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="232"/>
+      <c r="C74" s="231"/>
       <c r="D74" s="6"/>
       <c r="E74" s="76"/>
       <c r="F74" s="78"/>
@@ -8349,10 +8356,10 @@
       <c r="A75" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B75" s="229" t="s">
+      <c r="B75" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="230"/>
+      <c r="C75" s="229"/>
       <c r="D75" s="7" t="s">
         <v>311</v>
       </c>
@@ -8371,20 +8378,20 @@
       <c r="A76" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B76" s="239" t="s">
+      <c r="B76" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="240"/>
+      <c r="C76" s="239"/>
       <c r="D76" s="8"/>
       <c r="E76" s="79"/>
       <c r="F76" s="78"/>
       <c r="G76" s="38"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="233" t="s">
+      <c r="B77" s="232" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="235"/>
+      <c r="C77" s="234"/>
       <c r="D77" s="84"/>
       <c r="E77" s="188">
         <f>SUM(E74:E76)</f>
@@ -8399,10 +8406,10 @@
       <c r="A78" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B78" s="231" t="s">
+      <c r="B78" s="230" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="232"/>
+      <c r="C78" s="231"/>
       <c r="D78" s="6" t="s">
         <v>312</v>
       </c>
@@ -8421,10 +8428,10 @@
       <c r="A79" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B79" s="229" t="s">
+      <c r="B79" s="228" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="230"/>
+      <c r="C79" s="229"/>
       <c r="D79" s="7"/>
       <c r="E79" s="72"/>
       <c r="F79" s="78"/>
@@ -8434,10 +8441,10 @@
       <c r="A80" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B80" s="229" t="s">
+      <c r="B80" s="228" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="230"/>
+      <c r="C80" s="229"/>
       <c r="D80" s="7"/>
       <c r="E80" s="72"/>
       <c r="F80" s="78"/>
@@ -8447,10 +8454,10 @@
       <c r="A81" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B81" s="229" t="s">
+      <c r="B81" s="228" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="230"/>
+      <c r="C81" s="229"/>
       <c r="D81" s="7"/>
       <c r="E81" s="72">
         <v>2</v>
@@ -8464,10 +8471,10 @@
       <c r="A82" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B82" s="229" t="s">
+      <c r="B82" s="228" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="230"/>
+      <c r="C82" s="229"/>
       <c r="D82" s="7"/>
       <c r="E82" s="72">
         <v>2</v>
@@ -8481,21 +8488,21 @@
       <c r="A83" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B83" s="239" t="s">
+      <c r="B83" s="238" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="240"/>
+      <c r="C83" s="239"/>
       <c r="D83" s="8"/>
       <c r="E83" s="79"/>
       <c r="F83" s="83"/>
       <c r="G83" s="38"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="233" t="s">
+      <c r="B84" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="234"/>
-      <c r="D84" s="235"/>
+      <c r="C84" s="233"/>
+      <c r="D84" s="234"/>
       <c r="E84" s="184">
         <f>SUM(E77:E83)</f>
         <v>16</v>
@@ -8509,11 +8516,11 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="233" t="s">
+      <c r="B86" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="234"/>
-      <c r="D86" s="235"/>
+      <c r="C86" s="233"/>
+      <c r="D86" s="234"/>
       <c r="E86" s="184">
         <f>SUM(E70,E84)</f>
         <v>25</v>
@@ -8525,11 +8532,11 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="233" t="s">
+      <c r="B88" s="232" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="234"/>
-      <c r="D88" s="235"/>
+      <c r="C88" s="233"/>
+      <c r="D88" s="234"/>
       <c r="E88" s="184">
         <f>SUM(E55,E86)</f>
         <v>40</v>
@@ -8547,12 +8554,12 @@
       <c r="A91" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="236" t="str">
+      <c r="B91" s="235" t="str">
         <f>IF(AND(E91=0,F91=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C91" s="237"/>
-      <c r="D91" s="238"/>
+      <c r="C91" s="236"/>
+      <c r="D91" s="237"/>
       <c r="E91" s="75">
         <f>E88-E42</f>
         <v>-51</v>
@@ -8704,14 +8711,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="261"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="260"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
       <c r="I1" s="97"/>
@@ -8720,63 +8727,63 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="262" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="264"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="263"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="246" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="248"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="247"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="252">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="254"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="253"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="265">
+      <c r="B5" s="264">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="266"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="270" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="260"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="261"/>
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="260"/>
       <c r="G6" s="97"/>
       <c r="H6" s="97"/>
       <c r="I6" s="97"/>
@@ -8785,35 +8792,35 @@
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="267" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="269"/>
-      <c r="D7" s="269"/>
-      <c r="E7" s="269"/>
-      <c r="F7" s="270"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="269"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="267" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="269"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="270"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="269"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="255" t="s">
+      <c r="B12" s="254" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="256"/>
+      <c r="C12" s="255"/>
       <c r="D12" s="138" t="s">
         <v>73</v>
       </c>
@@ -8830,23 +8837,23 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="233" t="s">
+      <c r="B13" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="234"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="233"/>
       <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="231" t="s">
+      <c r="B14" s="230" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="232"/>
+      <c r="C14" s="231"/>
       <c r="D14" s="113" t="s">
         <v>566</v>
       </c>
@@ -8865,10 +8872,10 @@
       <c r="A15" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B15" s="229" t="s">
+      <c r="B15" s="228" t="s">
         <v>372</v>
       </c>
-      <c r="C15" s="230"/>
+      <c r="C15" s="229"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>2</v>
@@ -8882,10 +8889,10 @@
       <c r="A16" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B16" s="229" t="s">
+      <c r="B16" s="228" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="230"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>3</v>
@@ -8899,10 +8906,10 @@
       <c r="A17" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="228" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="230"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>2</v>
@@ -8916,10 +8923,10 @@
       <c r="A18" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="228" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="230"/>
+      <c r="C18" s="229"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>-6</v>
@@ -8933,10 +8940,10 @@
       <c r="A19" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B19" s="229" t="s">
+      <c r="B19" s="228" t="s">
         <v>370</v>
       </c>
-      <c r="C19" s="230"/>
+      <c r="C19" s="229"/>
       <c r="D19" s="113">
         <v>28.4</v>
       </c>
@@ -8955,10 +8962,10 @@
       <c r="A20" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="228" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="230"/>
+      <c r="C20" s="229"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>-6</v>
@@ -8972,10 +8979,10 @@
       <c r="A21" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="228" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="230"/>
+      <c r="C21" s="229"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>-6</v>
@@ -8989,10 +8996,10 @@
       <c r="A22" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="228" t="s">
         <v>368</v>
       </c>
-      <c r="C22" s="230"/>
+      <c r="C22" s="229"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>-4</v>
@@ -9006,10 +9013,10 @@
       <c r="A23" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B23" s="239" t="s">
+      <c r="B23" s="238" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="240"/>
+      <c r="C23" s="239"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>-6</v>
@@ -9021,10 +9028,10 @@
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="110"/>
-      <c r="B24" s="234" t="s">
+      <c r="B24" s="233" t="s">
         <v>289</v>
       </c>
-      <c r="C24" s="235"/>
+      <c r="C24" s="234"/>
       <c r="D24" s="112"/>
       <c r="E24" s="188">
         <f>SUM(E14:E23)</f>
@@ -9040,10 +9047,10 @@
       <c r="A25" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B25" s="231" t="s">
+      <c r="B25" s="230" t="s">
         <v>374</v>
       </c>
-      <c r="C25" s="232"/>
+      <c r="C25" s="231"/>
       <c r="D25" s="113"/>
       <c r="E25" s="72">
         <v>6</v>
@@ -9057,10 +9064,10 @@
       <c r="A26" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B26" s="229" t="s">
+      <c r="B26" s="228" t="s">
         <v>375</v>
       </c>
-      <c r="C26" s="230"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="113"/>
       <c r="E26" s="72">
         <v>-3</v>
@@ -9074,10 +9081,10 @@
       <c r="A27" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B27" s="239" t="s">
+      <c r="B27" s="238" t="s">
         <v>376</v>
       </c>
-      <c r="C27" s="240"/>
+      <c r="C27" s="239"/>
       <c r="D27" s="113"/>
       <c r="E27" s="72">
         <v>6</v>
@@ -9089,10 +9096,10 @@
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="110"/>
-      <c r="B28" s="234" t="s">
+      <c r="B28" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="C28" s="235"/>
+      <c r="C28" s="234"/>
       <c r="D28" s="112"/>
       <c r="E28" s="188">
         <f>SUM(E24:E27)</f>
@@ -9108,10 +9115,10 @@
       <c r="A29" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B29" s="272" t="s">
+      <c r="B29" s="271" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="273"/>
+      <c r="C29" s="272"/>
       <c r="D29" s="113"/>
       <c r="E29" s="74">
         <v>1</v>
@@ -9123,10 +9130,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="110"/>
-      <c r="B30" s="234" t="s">
+      <c r="B30" s="233" t="s">
         <v>405</v>
       </c>
-      <c r="C30" s="235"/>
+      <c r="C30" s="234"/>
       <c r="D30" s="112"/>
       <c r="E30" s="188">
         <f>SUM(E28:E29)</f>
@@ -9202,12 +9209,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="260" t="s">
+      <c r="B1" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
@@ -9216,79 +9223,79 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="262" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="264"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="263"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="246" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="248"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="247"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="252">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="254"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="253"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="265">
+      <c r="B5" s="264">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="267"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="266"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="276" t="s">
+      <c r="B6" s="275" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="278"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="277"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="267" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="269"/>
-      <c r="D7" s="269"/>
-      <c r="E7" s="270"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="269"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="267" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="269"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="270"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9296,10 +9303,10 @@
       <c r="A11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="255" t="s">
+      <c r="B11" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="256"/>
+      <c r="C11" s="255"/>
       <c r="D11" s="11">
         <f>DATE(YEAR(B5),1,1)</f>
         <v>45292</v>
@@ -9313,31 +9320,31 @@
       <c r="A12" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="274" t="s">
+      <c r="B12" s="273" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="275"/>
+      <c r="C12" s="274"/>
       <c r="D12" s="72">
         <v>1</v>
       </c>
       <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="279" t="s">
+      <c r="B13" s="278" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="280"/>
-      <c r="D13" s="280"/>
-      <c r="E13" s="281"/>
+      <c r="C13" s="279"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="280"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B14" s="286" t="s">
+      <c r="B14" s="285" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="287"/>
+      <c r="C14" s="286"/>
       <c r="D14" s="94"/>
       <c r="E14" s="72">
         <v>1</v>
@@ -9347,21 +9354,21 @@
       <c r="A15" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="282" t="s">
+      <c r="B15" s="281" t="s">
         <v>389</v>
       </c>
-      <c r="C15" s="283"/>
+      <c r="C15" s="282"/>
       <c r="D15" s="94"/>
       <c r="E15" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="279" t="s">
+      <c r="B16" s="278" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="280"/>
-      <c r="D16" s="281"/>
+      <c r="C16" s="279"/>
+      <c r="D16" s="280"/>
       <c r="E16" s="189">
         <f>SUM(E14:E15)</f>
         <v>2</v>
@@ -9371,10 +9378,10 @@
       <c r="A17" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="B17" s="286" t="s">
+      <c r="B17" s="285" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="287"/>
+      <c r="C17" s="286"/>
       <c r="D17" s="95"/>
       <c r="E17" s="72">
         <v>1</v>
@@ -9384,10 +9391,10 @@
       <c r="A18" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="B18" s="284" t="s">
+      <c r="B18" s="283" t="s">
         <v>391</v>
       </c>
-      <c r="C18" s="285"/>
+      <c r="C18" s="284"/>
       <c r="D18" s="95"/>
       <c r="E18" s="72">
         <v>-1</v>
@@ -9397,10 +9404,10 @@
       <c r="A19" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="B19" s="284" t="s">
+      <c r="B19" s="283" t="s">
         <v>392</v>
       </c>
-      <c r="C19" s="285"/>
+      <c r="C19" s="284"/>
       <c r="D19" s="95"/>
       <c r="E19" s="72">
         <v>1</v>
@@ -9410,10 +9417,10 @@
       <c r="A20" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B20" s="284" t="s">
+      <c r="B20" s="283" t="s">
         <v>393</v>
       </c>
-      <c r="C20" s="285"/>
+      <c r="C20" s="284"/>
       <c r="D20" s="95"/>
       <c r="E20" s="72">
         <v>-1</v>
@@ -9423,10 +9430,10 @@
       <c r="A21" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="B21" s="284" t="s">
+      <c r="B21" s="283" t="s">
         <v>394</v>
       </c>
-      <c r="C21" s="285"/>
+      <c r="C21" s="284"/>
       <c r="D21" s="95"/>
       <c r="E21" s="72">
         <v>1</v>
@@ -9436,10 +9443,10 @@
       <c r="A22" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="B22" s="284" t="s">
+      <c r="B22" s="283" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="285"/>
+      <c r="C22" s="284"/>
       <c r="D22" s="95"/>
       <c r="E22" s="72">
         <v>1</v>
@@ -9449,10 +9456,10 @@
       <c r="A23" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B23" s="284" t="s">
+      <c r="B23" s="283" t="s">
         <v>396</v>
       </c>
-      <c r="C23" s="285"/>
+      <c r="C23" s="284"/>
       <c r="D23" s="95"/>
       <c r="E23" s="72">
         <v>-1</v>
@@ -9462,10 +9469,10 @@
       <c r="A24" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B24" s="282" t="s">
+      <c r="B24" s="281" t="s">
         <v>397</v>
       </c>
-      <c r="C24" s="283"/>
+      <c r="C24" s="282"/>
       <c r="D24" s="95"/>
       <c r="E24" s="72">
         <v>1</v>
@@ -9473,11 +9480,11 @@
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="279" t="s">
+      <c r="B25" s="278" t="s">
         <v>385</v>
       </c>
-      <c r="C25" s="280"/>
-      <c r="D25" s="281"/>
+      <c r="C25" s="279"/>
+      <c r="D25" s="280"/>
       <c r="E25" s="189">
         <f>SUM(E17:E24)</f>
         <v>2</v>
@@ -9488,10 +9495,10 @@
       <c r="A26" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B26" s="274" t="s">
+      <c r="B26" s="273" t="s">
         <v>386</v>
       </c>
-      <c r="C26" s="275"/>
+      <c r="C26" s="274"/>
       <c r="D26" s="96"/>
       <c r="E26" s="184">
         <f>SUM(D12,E16,E25)</f>
@@ -9557,146 +9564,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="298" t="s">
+      <c r="B1" s="297" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="299"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="298"/>
       <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="262" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="264"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="263"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="246" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="248"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="247"/>
     </row>
     <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="252">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="254"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="253"/>
     </row>
     <row r="5" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="265">
+      <c r="B5" s="264">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="267"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="266"/>
     </row>
     <row r="6" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="276" t="s">
+      <c r="B6" s="275" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="278"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="277"/>
       <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="267" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="269"/>
-      <c r="D7" s="269"/>
-      <c r="E7" s="270"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="269"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="267" t="s">
         <v>572</v>
       </c>
-      <c r="C8" s="269"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="270"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="290" t="s">
+      <c r="B10" s="289" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="291"/>
-      <c r="D10" s="300" t="s">
+      <c r="C10" s="290"/>
+      <c r="D10" s="299" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="288">
+      <c r="E10" s="287">
         <f>B5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="289"/>
-      <c r="B11" s="292"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="301"/>
-      <c r="E11" s="289"/>
+      <c r="A11" s="288"/>
+      <c r="B11" s="291"/>
+      <c r="C11" s="292"/>
+      <c r="D11" s="300"/>
+      <c r="E11" s="288"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="294" t="s">
+      <c r="B12" s="293" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="296"/>
-      <c r="D12" s="297"/>
+      <c r="C12" s="295"/>
+      <c r="D12" s="296"/>
       <c r="E12" s="149">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="293" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="297"/>
+      <c r="C13" s="295"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="296"/>
     </row>
     <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="B14" s="231" t="s">
+      <c r="B14" s="230" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="232"/>
+      <c r="C14" s="231"/>
       <c r="D14" s="113"/>
       <c r="E14" s="76">
         <v>1</v>
@@ -9706,10 +9713,10 @@
       <c r="A15" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B15" s="229" t="s">
+      <c r="B15" s="228" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="230"/>
+      <c r="C15" s="229"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>-1</v>
@@ -9719,10 +9726,10 @@
       <c r="A16" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="B16" s="229" t="s">
+      <c r="B16" s="228" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="230"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>-1</v>
@@ -9732,10 +9739,10 @@
       <c r="A17" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="228" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="230"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>-1</v>
@@ -9745,10 +9752,10 @@
       <c r="A18" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="228" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="230"/>
+      <c r="C18" s="229"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>2</v>
@@ -9758,10 +9765,10 @@
       <c r="A19" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="B19" s="229" t="s">
+      <c r="B19" s="228" t="s">
         <v>320</v>
       </c>
-      <c r="C19" s="230"/>
+      <c r="C19" s="229"/>
       <c r="D19" s="113"/>
       <c r="E19" s="72">
         <v>2</v>
@@ -9771,10 +9778,10 @@
       <c r="A20" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="228" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="230"/>
+      <c r="C20" s="229"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>3</v>
@@ -9785,10 +9792,10 @@
       <c r="A21" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="228" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="230"/>
+      <c r="C21" s="229"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>3</v>
@@ -9799,10 +9806,10 @@
       <c r="A22" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="228" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="230"/>
+      <c r="C22" s="229"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>4</v>
@@ -9813,10 +9820,10 @@
       <c r="A23" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="229" t="s">
+      <c r="B23" s="228" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="230"/>
+      <c r="C23" s="229"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>1</v>
@@ -9827,10 +9834,10 @@
       <c r="A24" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B24" s="229" t="s">
+      <c r="B24" s="228" t="s">
         <v>366</v>
       </c>
-      <c r="C24" s="230"/>
+      <c r="C24" s="229"/>
       <c r="D24" s="113"/>
       <c r="E24" s="72">
         <v>5</v>
@@ -9841,10 +9848,10 @@
       <c r="A25" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B25" s="229" t="s">
+      <c r="B25" s="228" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="230"/>
+      <c r="C25" s="229"/>
       <c r="D25" s="113"/>
       <c r="E25" s="72">
         <v>-3</v>
@@ -9855,10 +9862,10 @@
       <c r="A26" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="B26" s="229" t="s">
+      <c r="B26" s="228" t="s">
         <v>326</v>
       </c>
-      <c r="C26" s="230"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="113"/>
       <c r="E26" s="72">
         <v>4</v>
@@ -9869,10 +9876,10 @@
       <c r="A27" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B27" s="229" t="s">
+      <c r="B27" s="228" t="s">
         <v>327</v>
       </c>
-      <c r="C27" s="230"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="113"/>
       <c r="E27" s="72">
         <v>-5</v>
@@ -9883,10 +9890,10 @@
       <c r="A28" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B28" s="229" t="s">
+      <c r="B28" s="228" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="230"/>
+      <c r="C28" s="229"/>
       <c r="D28" s="113"/>
       <c r="E28" s="72">
         <v>-2</v>
@@ -9896,10 +9903,10 @@
       <c r="A29" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="B29" s="229" t="s">
+      <c r="B29" s="228" t="s">
         <v>328</v>
       </c>
-      <c r="C29" s="230"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="113"/>
       <c r="E29" s="72"/>
     </row>
@@ -9907,10 +9914,10 @@
       <c r="A30" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="229" t="s">
+      <c r="B30" s="228" t="s">
         <v>329</v>
       </c>
-      <c r="C30" s="230"/>
+      <c r="C30" s="229"/>
       <c r="D30" s="113"/>
       <c r="E30" s="72"/>
     </row>
@@ -9918,10 +9925,10 @@
       <c r="A31" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="229" t="s">
+      <c r="B31" s="228" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="230"/>
+      <c r="C31" s="229"/>
       <c r="D31" s="113"/>
       <c r="E31" s="72">
         <v>-3</v>
@@ -9931,10 +9938,10 @@
       <c r="A32" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B32" s="229" t="s">
+      <c r="B32" s="228" t="s">
         <v>330</v>
       </c>
-      <c r="C32" s="230"/>
+      <c r="C32" s="229"/>
       <c r="D32" s="113"/>
       <c r="E32" s="72"/>
     </row>
@@ -9942,10 +9949,10 @@
       <c r="A33" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B33" s="229" t="s">
+      <c r="B33" s="228" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="230"/>
+      <c r="C33" s="229"/>
       <c r="D33" s="113"/>
       <c r="E33" s="72">
         <v>2</v>
@@ -9955,10 +9962,10 @@
       <c r="A34" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="229" t="s">
+      <c r="B34" s="228" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="230"/>
+      <c r="C34" s="229"/>
       <c r="D34" s="113"/>
       <c r="E34" s="72"/>
     </row>
@@ -9966,21 +9973,21 @@
       <c r="A35" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B35" s="239" t="s">
+      <c r="B35" s="238" t="s">
         <v>333</v>
       </c>
-      <c r="C35" s="240"/>
+      <c r="C35" s="239"/>
       <c r="D35" s="113"/>
       <c r="E35" s="79">
         <v>-5</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="294" t="s">
+      <c r="B36" s="293" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="296"/>
-      <c r="D36" s="297"/>
+      <c r="C36" s="295"/>
+      <c r="D36" s="296"/>
       <c r="E36" s="191">
         <f>SUM(E14:E35)</f>
         <v>6</v>
@@ -9990,10 +9997,10 @@
       <c r="A37" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="B37" s="231" t="s">
+      <c r="B37" s="230" t="s">
         <v>334</v>
       </c>
-      <c r="C37" s="232"/>
+      <c r="C37" s="231"/>
       <c r="D37" s="113"/>
       <c r="E37" s="76">
         <v>-5</v>
@@ -10004,10 +10011,10 @@
       <c r="A38" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B38" s="229" t="s">
+      <c r="B38" s="228" t="s">
         <v>335</v>
       </c>
-      <c r="C38" s="230"/>
+      <c r="C38" s="229"/>
       <c r="D38" s="113"/>
       <c r="E38" s="72">
         <v>6</v>
@@ -10018,10 +10025,10 @@
       <c r="A39" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="B39" s="229" t="s">
+      <c r="B39" s="228" t="s">
         <v>336</v>
       </c>
-      <c r="C39" s="230"/>
+      <c r="C39" s="229"/>
       <c r="D39" s="113"/>
       <c r="E39" s="72">
         <v>-5</v>
@@ -10032,10 +10039,10 @@
       <c r="A40" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="B40" s="229" t="s">
+      <c r="B40" s="228" t="s">
         <v>337</v>
       </c>
-      <c r="C40" s="230"/>
+      <c r="C40" s="229"/>
       <c r="D40" s="113"/>
       <c r="E40" s="72">
         <v>5</v>
@@ -10046,10 +10053,10 @@
       <c r="A41" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="B41" s="229" t="s">
+      <c r="B41" s="228" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="230"/>
+      <c r="C41" s="229"/>
       <c r="D41" s="113" t="s">
         <v>619</v>
       </c>
@@ -10063,10 +10070,10 @@
       <c r="A42" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="B42" s="239" t="s">
+      <c r="B42" s="238" t="s">
         <v>339</v>
       </c>
-      <c r="C42" s="240"/>
+      <c r="C42" s="239"/>
       <c r="D42" s="113"/>
       <c r="E42" s="79">
         <v>5</v>
@@ -10074,32 +10081,32 @@
       <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="294" t="s">
+      <c r="B43" s="293" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="296"/>
-      <c r="D43" s="297"/>
+      <c r="C43" s="295"/>
+      <c r="D43" s="296"/>
       <c r="E43" s="192">
         <f>E12+E36+SUM(E37:E42)</f>
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="294" t="s">
+      <c r="B44" s="293" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="296"/>
-      <c r="D44" s="296"/>
-      <c r="E44" s="297"/>
+      <c r="C44" s="295"/>
+      <c r="D44" s="295"/>
+      <c r="E44" s="296"/>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="B45" s="231" t="s">
+      <c r="B45" s="230" t="s">
         <v>340</v>
       </c>
-      <c r="C45" s="232"/>
+      <c r="C45" s="231"/>
       <c r="D45" s="113"/>
       <c r="E45" s="76"/>
     </row>
@@ -10107,10 +10114,10 @@
       <c r="A46" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="229" t="s">
+      <c r="B46" s="228" t="s">
         <v>341</v>
       </c>
-      <c r="C46" s="230"/>
+      <c r="C46" s="229"/>
       <c r="D46" s="113"/>
       <c r="E46" s="72"/>
     </row>
@@ -10118,10 +10125,10 @@
       <c r="A47" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="B47" s="229" t="s">
+      <c r="B47" s="228" t="s">
         <v>342</v>
       </c>
-      <c r="C47" s="230"/>
+      <c r="C47" s="229"/>
       <c r="D47" s="113"/>
       <c r="E47" s="72">
         <v>5</v>
@@ -10132,10 +10139,10 @@
       <c r="A48" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="B48" s="229" t="s">
+      <c r="B48" s="228" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="230"/>
+      <c r="C48" s="229"/>
       <c r="D48" s="113"/>
       <c r="E48" s="72"/>
     </row>
@@ -10143,10 +10150,10 @@
       <c r="A49" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="B49" s="229" t="s">
+      <c r="B49" s="228" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="230"/>
+      <c r="C49" s="229"/>
       <c r="D49" s="113"/>
       <c r="E49" s="72">
         <v>65</v>
@@ -10157,10 +10164,10 @@
       <c r="A50" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="B50" s="229" t="s">
+      <c r="B50" s="228" t="s">
         <v>345</v>
       </c>
-      <c r="C50" s="230"/>
+      <c r="C50" s="229"/>
       <c r="D50" s="113"/>
       <c r="E50" s="72"/>
     </row>
@@ -10168,10 +10175,10 @@
       <c r="A51" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="229" t="s">
+      <c r="B51" s="228" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="230"/>
+      <c r="C51" s="229"/>
       <c r="D51" s="113"/>
       <c r="E51" s="72"/>
     </row>
@@ -10179,10 +10186,10 @@
       <c r="A52" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="B52" s="229" t="s">
+      <c r="B52" s="228" t="s">
         <v>347</v>
       </c>
-      <c r="C52" s="230"/>
+      <c r="C52" s="229"/>
       <c r="D52" s="113"/>
       <c r="E52" s="72"/>
     </row>
@@ -10190,10 +10197,10 @@
       <c r="A53" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="B53" s="229" t="s">
+      <c r="B53" s="228" t="s">
         <v>348</v>
       </c>
-      <c r="C53" s="230"/>
+      <c r="C53" s="229"/>
       <c r="D53" s="113"/>
       <c r="E53" s="72"/>
     </row>
@@ -10201,10 +10208,10 @@
       <c r="A54" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="B54" s="229" t="s">
+      <c r="B54" s="228" t="s">
         <v>349</v>
       </c>
-      <c r="C54" s="230"/>
+      <c r="C54" s="229"/>
       <c r="D54" s="113"/>
       <c r="E54" s="72">
         <v>-45</v>
@@ -10215,10 +10222,10 @@
       <c r="A55" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="B55" s="229" t="s">
+      <c r="B55" s="228" t="s">
         <v>350</v>
       </c>
-      <c r="C55" s="230"/>
+      <c r="C55" s="229"/>
       <c r="D55" s="113"/>
       <c r="E55" s="72"/>
     </row>
@@ -10226,10 +10233,10 @@
       <c r="A56" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="B56" s="229" t="s">
+      <c r="B56" s="228" t="s">
         <v>351</v>
       </c>
-      <c r="C56" s="230"/>
+      <c r="C56" s="229"/>
       <c r="D56" s="113"/>
       <c r="E56" s="72"/>
     </row>
@@ -10237,10 +10244,10 @@
       <c r="A57" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="B57" s="229" t="s">
+      <c r="B57" s="228" t="s">
         <v>352</v>
       </c>
-      <c r="C57" s="230"/>
+      <c r="C57" s="229"/>
       <c r="D57" s="113"/>
       <c r="E57" s="72"/>
     </row>
@@ -10248,10 +10255,10 @@
       <c r="A58" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="B58" s="229" t="s">
+      <c r="B58" s="228" t="s">
         <v>353</v>
       </c>
-      <c r="C58" s="230"/>
+      <c r="C58" s="229"/>
       <c r="D58" s="113"/>
       <c r="E58" s="72"/>
     </row>
@@ -10259,10 +10266,10 @@
       <c r="A59" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="B59" s="229" t="s">
+      <c r="B59" s="228" t="s">
         <v>354</v>
       </c>
-      <c r="C59" s="230"/>
+      <c r="C59" s="229"/>
       <c r="D59" s="113"/>
       <c r="E59" s="72"/>
     </row>
@@ -10270,10 +10277,10 @@
       <c r="A60" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B60" s="229" t="s">
+      <c r="B60" s="228" t="s">
         <v>355</v>
       </c>
-      <c r="C60" s="230"/>
+      <c r="C60" s="229"/>
       <c r="D60" s="113"/>
       <c r="E60" s="72"/>
     </row>
@@ -10281,10 +10288,10 @@
       <c r="A61" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B61" s="229" t="s">
+      <c r="B61" s="228" t="s">
         <v>335</v>
       </c>
-      <c r="C61" s="230"/>
+      <c r="C61" s="229"/>
       <c r="D61" s="113"/>
       <c r="E61" s="72"/>
     </row>
@@ -10292,10 +10299,10 @@
       <c r="A62" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B62" s="229" t="s">
+      <c r="B62" s="228" t="s">
         <v>336</v>
       </c>
-      <c r="C62" s="230"/>
+      <c r="C62" s="229"/>
       <c r="D62" s="113"/>
       <c r="E62" s="72"/>
     </row>
@@ -10303,10 +10310,10 @@
       <c r="A63" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="B63" s="229" t="s">
+      <c r="B63" s="228" t="s">
         <v>356</v>
       </c>
-      <c r="C63" s="230"/>
+      <c r="C63" s="229"/>
       <c r="D63" s="113"/>
       <c r="E63" s="72"/>
     </row>
@@ -10314,10 +10321,10 @@
       <c r="A64" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B64" s="229" t="s">
+      <c r="B64" s="228" t="s">
         <v>338</v>
       </c>
-      <c r="C64" s="230"/>
+      <c r="C64" s="229"/>
       <c r="D64" s="113" t="s">
         <v>619</v>
       </c>
@@ -10331,40 +10338,40 @@
       <c r="A65" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="B65" s="239" t="s">
+      <c r="B65" s="238" t="s">
         <v>339</v>
       </c>
-      <c r="C65" s="240"/>
+      <c r="C65" s="239"/>
       <c r="D65" s="113"/>
       <c r="E65" s="79"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="294" t="s">
+      <c r="B66" s="293" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="296"/>
-      <c r="D66" s="297"/>
+      <c r="C66" s="295"/>
+      <c r="D66" s="296"/>
       <c r="E66" s="193">
         <f>SUM(E45:E65)</f>
         <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="294" t="s">
+      <c r="B67" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="296"/>
-      <c r="D67" s="296"/>
-      <c r="E67" s="297"/>
+      <c r="C67" s="295"/>
+      <c r="D67" s="295"/>
+      <c r="E67" s="296"/>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="B68" s="231" t="s">
+      <c r="B68" s="230" t="s">
         <v>357</v>
       </c>
-      <c r="C68" s="232"/>
+      <c r="C68" s="231"/>
       <c r="D68" s="113"/>
       <c r="E68" s="76">
         <v>54</v>
@@ -10375,10 +10382,10 @@
       <c r="A69" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="B69" s="229" t="s">
+      <c r="B69" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="C69" s="230"/>
+      <c r="C69" s="229"/>
       <c r="D69" s="113"/>
       <c r="E69" s="72"/>
     </row>
@@ -10386,10 +10393,10 @@
       <c r="A70" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B70" s="229" t="s">
+      <c r="B70" s="228" t="s">
         <v>358</v>
       </c>
-      <c r="C70" s="230"/>
+      <c r="C70" s="229"/>
       <c r="D70" s="113"/>
       <c r="E70" s="72"/>
     </row>
@@ -10397,10 +10404,10 @@
       <c r="A71" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="B71" s="229" t="s">
+      <c r="B71" s="228" t="s">
         <v>359</v>
       </c>
-      <c r="C71" s="230"/>
+      <c r="C71" s="229"/>
       <c r="D71" s="113"/>
       <c r="E71" s="72">
         <v>54</v>
@@ -10411,10 +10418,10 @@
       <c r="A72" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B72" s="229" t="s">
+      <c r="B72" s="228" t="s">
         <v>360</v>
       </c>
-      <c r="C72" s="230"/>
+      <c r="C72" s="229"/>
       <c r="D72" s="113"/>
       <c r="E72" s="72"/>
     </row>
@@ -10422,10 +10429,10 @@
       <c r="A73" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B73" s="229" t="s">
+      <c r="B73" s="228" t="s">
         <v>362</v>
       </c>
-      <c r="C73" s="230"/>
+      <c r="C73" s="229"/>
       <c r="D73" s="113"/>
       <c r="E73" s="72"/>
     </row>
@@ -10433,10 +10440,10 @@
       <c r="A74" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B74" s="229" t="s">
+      <c r="B74" s="228" t="s">
         <v>361</v>
       </c>
-      <c r="C74" s="230"/>
+      <c r="C74" s="229"/>
       <c r="D74" s="113"/>
       <c r="E74" s="72">
         <v>-45</v>
@@ -10447,10 +10454,10 @@
       <c r="A75" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B75" s="229" t="s">
+      <c r="B75" s="228" t="s">
         <v>334</v>
       </c>
-      <c r="C75" s="230"/>
+      <c r="C75" s="229"/>
       <c r="D75" s="113"/>
       <c r="E75" s="72"/>
     </row>
@@ -10458,10 +10465,10 @@
       <c r="A76" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B76" s="229" t="s">
+      <c r="B76" s="228" t="s">
         <v>336</v>
       </c>
-      <c r="C76" s="230"/>
+      <c r="C76" s="229"/>
       <c r="D76" s="113"/>
       <c r="E76" s="72">
         <v>-54</v>
@@ -10472,10 +10479,10 @@
       <c r="A77" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="B77" s="229" t="s">
+      <c r="B77" s="228" t="s">
         <v>338</v>
       </c>
-      <c r="C77" s="230"/>
+      <c r="C77" s="229"/>
       <c r="D77" s="113" t="s">
         <v>619</v>
       </c>
@@ -10489,30 +10496,30 @@
       <c r="A78" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B78" s="239" t="s">
+      <c r="B78" s="238" t="s">
         <v>339</v>
       </c>
-      <c r="C78" s="240"/>
+      <c r="C78" s="239"/>
       <c r="D78" s="113"/>
       <c r="E78" s="79"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="294" t="s">
+      <c r="B79" s="293" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="296"/>
-      <c r="D79" s="297"/>
+      <c r="C79" s="295"/>
+      <c r="D79" s="296"/>
       <c r="E79" s="194">
         <f>SUM(E68:E78)</f>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="294" t="s">
+      <c r="B80" s="293" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="296"/>
-      <c r="D80" s="297"/>
+      <c r="C80" s="295"/>
+      <c r="D80" s="296"/>
       <c r="E80" s="184">
         <f>SUM(E43,E66,E79)</f>
         <v>62</v>
@@ -10522,18 +10529,18 @@
       <c r="A81" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="B81" s="272" t="s">
+      <c r="B81" s="271" t="s">
         <v>363</v>
       </c>
-      <c r="C81" s="302"/>
-      <c r="D81" s="273"/>
+      <c r="C81" s="301"/>
+      <c r="D81" s="272"/>
       <c r="E81" s="79"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="294" t="s">
+      <c r="B82" s="293" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="295"/>
+      <c r="C82" s="294"/>
       <c r="D82" s="133">
         <v>7.2</v>
       </c>
@@ -10543,33 +10550,33 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="294" t="s">
+      <c r="B83" s="293" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="296"/>
-      <c r="D83" s="297"/>
+      <c r="C83" s="295"/>
+      <c r="D83" s="296"/>
       <c r="E83" s="184">
         <f>'Statement of financial position'!E39</f>
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="294" t="s">
+      <c r="B84" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="296"/>
-      <c r="D84" s="297"/>
+      <c r="C84" s="295"/>
+      <c r="D84" s="296"/>
       <c r="E84" s="184">
         <f>'Statement of financial position'!F39</f>
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="294" t="s">
+      <c r="B85" s="293" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="296"/>
-      <c r="D85" s="297"/>
+      <c r="C85" s="295"/>
+      <c r="D85" s="296"/>
       <c r="E85" s="184">
         <f>E84-E83</f>
         <v>5</v>
@@ -10744,7 +10751,7 @@
   </sheetPr>
   <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -10763,118 +10770,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="227"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="246" t="str">
+      <c r="B2" s="245" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="248"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="247"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="246" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="248"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="247"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="252">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="254"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="253"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="252">
+      <c r="B5" s="251">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="254"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="253"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="228"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="227"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="257" t="s">
+      <c r="B7" s="256" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="258"/>
-      <c r="D7" s="258"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="258"/>
-      <c r="G7" s="259"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="257"/>
+      <c r="F7" s="257"/>
+      <c r="G7" s="258"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="248" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="250"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="251"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="250"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="256"/>
+      <c r="C10" s="255"/>
       <c r="D10" s="138" t="s">
         <v>73</v>
       </c>
@@ -10891,50 +10898,50 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="235"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="234"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="233" t="s">
+      <c r="B12" s="232" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="234"/>
-      <c r="D12" s="234"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="235"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="233"/>
+      <c r="G12" s="234"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="316" t="s">
+      <c r="B13" s="315" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="317"/>
+      <c r="C13" s="316"/>
       <c r="D13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="321" t="s">
+      <c r="E13" s="320" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="322"/>
-      <c r="G13" s="323"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="322"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="B14" s="306" t="s">
+      <c r="B14" s="305" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="307"/>
+      <c r="C14" s="306"/>
       <c r="D14" s="150"/>
       <c r="E14" s="76">
         <v>5</v>
@@ -10948,10 +10955,10 @@
       <c r="A15" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="B15" s="306" t="s">
+      <c r="B15" s="305" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="307"/>
+      <c r="C15" s="306"/>
       <c r="D15" s="150"/>
       <c r="E15" s="72">
         <v>4</v>
@@ -10965,10 +10972,10 @@
       <c r="A16" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="B16" s="319" t="s">
+      <c r="B16" s="318" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="320"/>
+      <c r="C16" s="319"/>
       <c r="D16" s="150"/>
       <c r="E16" s="79">
         <v>2</v>
@@ -10982,10 +10989,10 @@
       <c r="A17" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="B17" s="310" t="s">
+      <c r="B17" s="309" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="311"/>
+      <c r="C17" s="310"/>
       <c r="D17" s="150"/>
       <c r="E17" s="195">
         <f>SUM(E14:E16)</f>
@@ -11001,10 +11008,10 @@
       <c r="A18" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="B18" s="306" t="s">
+      <c r="B18" s="305" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="307"/>
+      <c r="C18" s="306"/>
       <c r="D18" s="150"/>
       <c r="E18" s="72">
         <v>5</v>
@@ -11018,10 +11025,10 @@
       <c r="A19" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="B19" s="306" t="s">
+      <c r="B19" s="305" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="307"/>
+      <c r="C19" s="306"/>
       <c r="D19" s="150"/>
       <c r="E19" s="72">
         <v>94</v>
@@ -11035,10 +11042,10 @@
       <c r="A20" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="B20" s="306" t="s">
+      <c r="B20" s="305" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="307"/>
+      <c r="C20" s="306"/>
       <c r="D20" s="150"/>
       <c r="E20" s="72">
         <v>5</v>
@@ -11052,10 +11059,10 @@
       <c r="A21" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="B21" s="306" t="s">
+      <c r="B21" s="305" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="307"/>
+      <c r="C21" s="306"/>
       <c r="D21" s="150"/>
       <c r="E21" s="72">
         <v>8</v>
@@ -11069,10 +11076,10 @@
       <c r="A22" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="B22" s="319" t="s">
+      <c r="B22" s="318" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="320"/>
+      <c r="C22" s="319"/>
       <c r="D22" s="150"/>
       <c r="E22" s="79">
         <v>6</v>
@@ -11086,10 +11093,10 @@
       <c r="A23" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="B23" s="310" t="s">
+      <c r="B23" s="309" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="311"/>
+      <c r="C23" s="310"/>
       <c r="D23" s="150"/>
       <c r="E23" s="195">
         <f>SUM(E18:E22)</f>
@@ -11105,10 +11112,10 @@
       <c r="A24" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="B24" s="306" t="s">
+      <c r="B24" s="305" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="307"/>
+      <c r="C24" s="306"/>
       <c r="D24" s="150"/>
       <c r="E24" s="72">
         <v>1</v>
@@ -11122,10 +11129,10 @@
       <c r="A25" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="B25" s="306" t="s">
+      <c r="B25" s="305" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="307"/>
+      <c r="C25" s="306"/>
       <c r="D25" s="150"/>
       <c r="E25" s="72">
         <v>5</v>
@@ -11139,10 +11146,10 @@
       <c r="A26" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="B26" s="306" t="s">
+      <c r="B26" s="305" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="307"/>
+      <c r="C26" s="306"/>
       <c r="D26" s="150"/>
       <c r="E26" s="72">
         <v>6</v>
@@ -11156,10 +11163,10 @@
       <c r="A27" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="B27" s="306" t="s">
+      <c r="B27" s="305" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="307"/>
+      <c r="C27" s="306"/>
       <c r="D27" s="150"/>
       <c r="E27" s="72">
         <v>3</v>
@@ -11173,10 +11180,10 @@
       <c r="A28" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="B28" s="306" t="s">
+      <c r="B28" s="305" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="307"/>
+      <c r="C28" s="306"/>
       <c r="D28" s="150"/>
       <c r="E28" s="72">
         <v>7</v>
@@ -11190,10 +11197,10 @@
       <c r="A29" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="B29" s="306" t="s">
+      <c r="B29" s="305" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="307"/>
+      <c r="C29" s="306"/>
       <c r="D29" s="150"/>
       <c r="E29" s="72">
         <v>6</v>
@@ -11207,10 +11214,10 @@
       <c r="A30" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="B30" s="306" t="s">
+      <c r="B30" s="305" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="307"/>
+      <c r="C30" s="306"/>
       <c r="D30" s="150"/>
       <c r="E30" s="72">
         <v>7</v>
@@ -11224,10 +11231,10 @@
       <c r="A31" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="B31" s="306" t="s">
+      <c r="B31" s="305" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="307"/>
+      <c r="C31" s="306"/>
       <c r="D31" s="150"/>
       <c r="E31" s="72">
         <v>6</v>
@@ -11241,10 +11248,10 @@
       <c r="A32" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="B32" s="319" t="s">
+      <c r="B32" s="318" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="320"/>
+      <c r="C32" s="319"/>
       <c r="D32" s="150"/>
       <c r="E32" s="79">
         <v>7</v>
@@ -11258,10 +11265,10 @@
       <c r="A33" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B33" s="310" t="s">
+      <c r="B33" s="309" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="311"/>
+      <c r="C33" s="310"/>
       <c r="D33" s="7"/>
       <c r="E33" s="197">
         <f>SUM(E17,E23:E32)</f>
@@ -11277,10 +11284,10 @@
       <c r="A34" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="308" t="s">
+      <c r="B34" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="309"/>
+      <c r="C34" s="308"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72">
         <v>4</v>
@@ -11294,10 +11301,10 @@
       <c r="A35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="308" t="s">
+      <c r="B35" s="307" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="309"/>
+      <c r="C35" s="308"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72">
         <v>4</v>
@@ -11311,10 +11318,10 @@
       <c r="A36" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="308" t="s">
+      <c r="B36" s="307" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="309"/>
+      <c r="C36" s="308"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72">
         <v>20</v>
@@ -11328,10 +11335,10 @@
       <c r="A37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="308" t="s">
+      <c r="B37" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="309"/>
+      <c r="C37" s="308"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72">
         <v>30</v>
@@ -11345,10 +11352,10 @@
       <c r="A38" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="308" t="s">
+      <c r="B38" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="309"/>
+      <c r="C38" s="308"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72">
         <v>4</v>
@@ -11362,10 +11369,10 @@
       <c r="A39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="308" t="s">
+      <c r="B39" s="307" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="309"/>
+      <c r="C39" s="308"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>6</v>
@@ -11379,10 +11386,10 @@
       <c r="A40" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="308" t="s">
+      <c r="B40" s="307" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="309"/>
+      <c r="C40" s="308"/>
       <c r="D40" s="7"/>
       <c r="E40" s="72">
         <v>4</v>
@@ -11396,10 +11403,10 @@
       <c r="A41" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="308" t="s">
+      <c r="B41" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="309"/>
+      <c r="C41" s="308"/>
       <c r="D41" s="7"/>
       <c r="E41" s="79">
         <v>6</v>
@@ -11413,27 +11420,27 @@
       <c r="A42" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="308" t="s">
+      <c r="B42" s="307" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="309"/>
+      <c r="C42" s="308"/>
       <c r="D42" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="321" t="s">
+      <c r="E42" s="320" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="322"/>
-      <c r="G42" s="323"/>
+      <c r="F42" s="321"/>
+      <c r="G42" s="322"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="B43" s="306" t="s">
+      <c r="B43" s="305" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="307"/>
+      <c r="C43" s="306"/>
       <c r="D43" s="7"/>
       <c r="E43" s="72">
         <v>1</v>
@@ -11447,10 +11454,10 @@
       <c r="A44" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="B44" s="306" t="s">
+      <c r="B44" s="305" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="307"/>
+      <c r="C44" s="306"/>
       <c r="D44" s="7"/>
       <c r="E44" s="72">
         <v>4</v>
@@ -11464,10 +11471,10 @@
       <c r="A45" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="B45" s="306" t="s">
+      <c r="B45" s="305" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="307"/>
+      <c r="C45" s="306"/>
       <c r="D45" s="7"/>
       <c r="E45" s="72">
         <v>2</v>
@@ -11481,10 +11488,10 @@
       <c r="A46" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="B46" s="306" t="s">
+      <c r="B46" s="305" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="307"/>
+      <c r="C46" s="306"/>
       <c r="D46" s="7"/>
       <c r="E46" s="79">
         <v>3</v>
@@ -11498,10 +11505,10 @@
       <c r="A47" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="B47" s="310" t="s">
+      <c r="B47" s="309" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="311"/>
+      <c r="C47" s="310"/>
       <c r="D47" s="7"/>
       <c r="E47" s="199">
         <f>SUM(E43:E46)</f>
@@ -11517,10 +11524,10 @@
       <c r="A48" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="B48" s="306" t="s">
+      <c r="B48" s="305" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="307"/>
+      <c r="C48" s="306"/>
       <c r="D48" s="7"/>
       <c r="E48" s="72">
         <v>2</v>
@@ -11534,10 +11541,10 @@
       <c r="A49" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="B49" s="306" t="s">
+      <c r="B49" s="305" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="307"/>
+      <c r="C49" s="306"/>
       <c r="D49" s="7"/>
       <c r="E49" s="72">
         <v>3</v>
@@ -11551,10 +11558,10 @@
       <c r="A50" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="B50" s="306" t="s">
+      <c r="B50" s="305" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="307"/>
+      <c r="C50" s="306"/>
       <c r="D50" s="7"/>
       <c r="E50" s="79">
         <v>4</v>
@@ -11568,10 +11575,10 @@
       <c r="A51" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="B51" s="310" t="s">
+      <c r="B51" s="309" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="311"/>
+      <c r="C51" s="310"/>
       <c r="D51" s="7"/>
       <c r="E51" s="199">
         <f>SUM(E48:E50)</f>
@@ -11587,10 +11594,10 @@
       <c r="A52" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="B52" s="306" t="s">
+      <c r="B52" s="305" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="307"/>
+      <c r="C52" s="306"/>
       <c r="D52" s="7"/>
       <c r="E52" s="72">
         <v>4</v>
@@ -11604,10 +11611,10 @@
       <c r="A53" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="B53" s="306" t="s">
+      <c r="B53" s="305" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="307"/>
+      <c r="C53" s="306"/>
       <c r="D53" s="7"/>
       <c r="E53" s="72">
         <v>6</v>
@@ -11621,10 +11628,10 @@
       <c r="A54" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="B54" s="306" t="s">
+      <c r="B54" s="305" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="307"/>
+      <c r="C54" s="306"/>
       <c r="D54" s="7"/>
       <c r="E54" s="72">
         <v>7</v>
@@ -11638,10 +11645,10 @@
       <c r="A55" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="B55" s="306" t="s">
+      <c r="B55" s="305" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="307"/>
+      <c r="C55" s="306"/>
       <c r="D55" s="7"/>
       <c r="E55" s="72">
         <v>8</v>
@@ -11655,10 +11662,10 @@
       <c r="A56" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="B56" s="306" t="s">
+      <c r="B56" s="305" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="307"/>
+      <c r="C56" s="306"/>
       <c r="D56" s="7"/>
       <c r="E56" s="79">
         <v>9</v>
@@ -11672,10 +11679,10 @@
       <c r="A57" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="B57" s="310" t="s">
+      <c r="B57" s="309" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="311"/>
+      <c r="C57" s="310"/>
       <c r="D57" s="7"/>
       <c r="E57" s="200">
         <f>SUM(E52:E56,E51,E47)</f>
@@ -11691,10 +11698,10 @@
       <c r="A58" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="308" t="s">
+      <c r="B58" s="307" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="309"/>
+      <c r="C58" s="308"/>
       <c r="D58" s="7"/>
       <c r="E58" s="72">
         <v>4</v>
@@ -11708,10 +11715,10 @@
       <c r="A59" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="308" t="s">
+      <c r="B59" s="307" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="309"/>
+      <c r="C59" s="308"/>
       <c r="D59" s="7"/>
       <c r="E59" s="72">
         <v>5</v>
@@ -11725,10 +11732,10 @@
       <c r="A60" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="308" t="s">
+      <c r="B60" s="307" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="309"/>
+      <c r="C60" s="308"/>
       <c r="D60" s="7"/>
       <c r="E60" s="72">
         <v>6</v>
@@ -11742,10 +11749,10 @@
       <c r="A61" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="308" t="s">
+      <c r="B61" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="309"/>
+      <c r="C61" s="308"/>
       <c r="D61" s="7"/>
       <c r="E61" s="72">
         <v>7</v>
@@ -11759,10 +11766,10 @@
       <c r="A62" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="308" t="s">
+      <c r="B62" s="307" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="309"/>
+      <c r="C62" s="308"/>
       <c r="D62" s="8"/>
       <c r="E62" s="79">
         <v>4</v>
@@ -11773,10 +11780,10 @@
       <c r="G62" s="38"/>
     </row>
     <row r="63" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="318" t="s">
+      <c r="B63" s="317" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="245"/>
+      <c r="C63" s="244"/>
       <c r="E63" s="184">
         <f>SUM(E57:E62,E33:E41)</f>
         <v>334</v>
@@ -11804,38 +11811,38 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="233" t="s">
+      <c r="B66" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="234"/>
-      <c r="D66" s="234"/>
-      <c r="E66" s="234"/>
-      <c r="F66" s="234"/>
-      <c r="G66" s="234"/>
+      <c r="C66" s="233"/>
+      <c r="D66" s="233"/>
+      <c r="E66" s="233"/>
+      <c r="F66" s="233"/>
+      <c r="G66" s="233"/>
     </row>
     <row r="67" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="316" t="s">
+      <c r="B67" s="315" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="317"/>
+      <c r="C67" s="316"/>
       <c r="D67" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="303" t="s">
+      <c r="E67" s="302" t="s">
         <v>284</v>
       </c>
-      <c r="F67" s="304"/>
-      <c r="G67" s="305"/>
+      <c r="F67" s="303"/>
+      <c r="G67" s="304"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
-      <c r="B68" s="306" t="s">
+      <c r="B68" s="305" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="307"/>
+      <c r="C68" s="306"/>
       <c r="D68" s="7"/>
       <c r="E68" s="72">
         <v>1</v>
@@ -11847,10 +11854,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
-      <c r="B69" s="306" t="s">
+      <c r="B69" s="305" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="307">
+      <c r="C69" s="306">
         <v>2</v>
       </c>
       <c r="D69" s="7"/>
@@ -11864,10 +11871,10 @@
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="21"/>
-      <c r="B70" s="306" t="s">
+      <c r="B70" s="305" t="s">
         <v>189</v>
       </c>
-      <c r="C70" s="307">
+      <c r="C70" s="306">
         <v>3</v>
       </c>
       <c r="D70" s="7"/>
@@ -11881,10 +11888,10 @@
     </row>
     <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="21"/>
-      <c r="B71" s="310" t="s">
+      <c r="B71" s="309" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="311">
+      <c r="C71" s="310">
         <f>SUM(C69:C70)</f>
         <v>5</v>
       </c>
@@ -11901,10 +11908,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
-      <c r="B72" s="306" t="s">
+      <c r="B72" s="305" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="307">
+      <c r="C72" s="306">
         <v>4</v>
       </c>
       <c r="D72" s="7"/>
@@ -11918,10 +11925,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
-      <c r="B73" s="306" t="s">
+      <c r="B73" s="305" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="307">
+      <c r="C73" s="306">
         <v>5</v>
       </c>
       <c r="D73" s="7"/>
@@ -11935,10 +11942,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
-      <c r="B74" s="306" t="s">
+      <c r="B74" s="305" t="s">
         <v>193</v>
       </c>
-      <c r="C74" s="307">
+      <c r="C74" s="306">
         <v>6</v>
       </c>
       <c r="D74" s="7"/>
@@ -11952,10 +11959,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
-      <c r="B75" s="306" t="s">
+      <c r="B75" s="305" t="s">
         <v>194</v>
       </c>
-      <c r="C75" s="307">
+      <c r="C75" s="306">
         <v>7</v>
       </c>
       <c r="D75" s="7"/>
@@ -11969,10 +11976,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
-      <c r="B76" s="306" t="s">
+      <c r="B76" s="305" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="307">
+      <c r="C76" s="306">
         <v>4</v>
       </c>
       <c r="D76" s="7"/>
@@ -11986,10 +11993,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
-      <c r="B77" s="306" t="s">
+      <c r="B77" s="305" t="s">
         <v>196</v>
       </c>
-      <c r="C77" s="307">
+      <c r="C77" s="306">
         <v>4</v>
       </c>
       <c r="D77" s="7"/>
@@ -12003,10 +12010,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
-      <c r="B78" s="306" t="s">
+      <c r="B78" s="305" t="s">
         <v>197</v>
       </c>
-      <c r="C78" s="307">
+      <c r="C78" s="306">
         <v>6</v>
       </c>
       <c r="D78" s="7"/>
@@ -12020,10 +12027,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
-      <c r="B79" s="306" t="s">
+      <c r="B79" s="305" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="307">
+      <c r="C79" s="306">
         <v>7</v>
       </c>
       <c r="D79" s="7"/>
@@ -12037,10 +12044,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
-      <c r="B80" s="306" t="s">
+      <c r="B80" s="305" t="s">
         <v>199</v>
       </c>
-      <c r="C80" s="307">
+      <c r="C80" s="306">
         <v>8</v>
       </c>
       <c r="D80" s="7"/>
@@ -12054,10 +12061,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
-      <c r="B81" s="306" t="s">
+      <c r="B81" s="305" t="s">
         <v>200</v>
       </c>
-      <c r="C81" s="307">
+      <c r="C81" s="306">
         <v>9</v>
       </c>
       <c r="D81" s="7"/>
@@ -12071,10 +12078,10 @@
     </row>
     <row r="82" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="21"/>
-      <c r="B82" s="306" t="s">
+      <c r="B82" s="305" t="s">
         <v>201</v>
       </c>
-      <c r="C82" s="307">
+      <c r="C82" s="306">
         <v>5</v>
       </c>
       <c r="D82" s="7"/>
@@ -12088,10 +12095,10 @@
     </row>
     <row r="83" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="21"/>
-      <c r="B83" s="310" t="s">
+      <c r="B83" s="309" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="311">
+      <c r="C83" s="310">
         <f>SUM(C72:C82)</f>
         <v>65</v>
       </c>
@@ -12110,25 +12117,25 @@
       <c r="A84" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="312" t="s">
+      <c r="B84" s="311" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="313"/>
+      <c r="C84" s="312"/>
       <c r="D84" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E84" s="303" t="s">
+      <c r="E84" s="302" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="304"/>
-      <c r="G84" s="305"/>
+      <c r="F84" s="303"/>
+      <c r="G84" s="304"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
-      <c r="B85" s="306" t="s">
+      <c r="B85" s="305" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="307">
+      <c r="C85" s="306">
         <v>1</v>
       </c>
       <c r="D85" s="7"/>
@@ -12142,10 +12149,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
-      <c r="B86" s="306" t="s">
+      <c r="B86" s="305" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="307">
+      <c r="C86" s="306">
         <v>2</v>
       </c>
       <c r="D86" s="7"/>
@@ -12159,10 +12166,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="21"/>
-      <c r="B87" s="306" t="s">
+      <c r="B87" s="305" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="307">
+      <c r="C87" s="306">
         <v>3</v>
       </c>
       <c r="D87" s="7"/>
@@ -12176,10 +12183,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="21"/>
-      <c r="B88" s="306" t="s">
+      <c r="B88" s="305" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="307">
+      <c r="C88" s="306">
         <v>4</v>
       </c>
       <c r="D88" s="7"/>
@@ -12193,10 +12200,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
-      <c r="B89" s="306" t="s">
+      <c r="B89" s="305" t="s">
         <v>187</v>
       </c>
-      <c r="C89" s="307"/>
+      <c r="C89" s="306"/>
       <c r="D89" s="7"/>
       <c r="E89" s="72">
         <v>4</v>
@@ -12208,10 +12215,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
-      <c r="B90" s="306" t="s">
+      <c r="B90" s="305" t="s">
         <v>186</v>
       </c>
-      <c r="C90" s="307"/>
+      <c r="C90" s="306"/>
       <c r="D90" s="7"/>
       <c r="E90" s="72">
         <v>2</v>
@@ -12223,10 +12230,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="21"/>
-      <c r="B91" s="306" t="s">
+      <c r="B91" s="305" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="307">
+      <c r="C91" s="306">
         <v>5</v>
       </c>
       <c r="D91" s="7"/>
@@ -12240,10 +12247,10 @@
     </row>
     <row r="92" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="21"/>
-      <c r="B92" s="306" t="s">
+      <c r="B92" s="305" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="307">
+      <c r="C92" s="306">
         <v>7</v>
       </c>
       <c r="D92" s="7"/>
@@ -12257,10 +12264,10 @@
     </row>
     <row r="93" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="21"/>
-      <c r="B93" s="310" t="s">
+      <c r="B93" s="309" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="311">
+      <c r="C93" s="310">
         <f>SUM(C91:C92)</f>
         <v>12</v>
       </c>
@@ -12277,10 +12284,10 @@
     </row>
     <row r="94" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="21"/>
-      <c r="B94" s="306" t="s">
+      <c r="B94" s="305" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="307">
+      <c r="C94" s="306">
         <v>4</v>
       </c>
       <c r="D94" s="7"/>
@@ -12294,10 +12301,10 @@
     </row>
     <row r="95" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="21"/>
-      <c r="B95" s="310" t="s">
+      <c r="B95" s="309" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="311">
+      <c r="C95" s="310">
         <f>SUM(C85:C88,C93)</f>
         <v>22</v>
       </c>
@@ -12314,10 +12321,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
-      <c r="B96" s="306" t="s">
+      <c r="B96" s="305" t="s">
         <v>180</v>
       </c>
-      <c r="C96" s="307">
+      <c r="C96" s="306">
         <v>3</v>
       </c>
       <c r="D96" s="7"/>
@@ -12331,10 +12338,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="21"/>
-      <c r="B97" s="306" t="s">
+      <c r="B97" s="305" t="s">
         <v>181</v>
       </c>
-      <c r="C97" s="307">
+      <c r="C97" s="306">
         <v>2</v>
       </c>
       <c r="D97" s="7"/>
@@ -12348,10 +12355,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
-      <c r="B98" s="306" t="s">
+      <c r="B98" s="305" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="307">
+      <c r="C98" s="306">
         <v>5</v>
       </c>
       <c r="D98" s="7"/>
@@ -12365,10 +12372,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="21"/>
-      <c r="B99" s="306" t="s">
+      <c r="B99" s="305" t="s">
         <v>183</v>
       </c>
-      <c r="C99" s="307">
+      <c r="C99" s="306">
         <v>4</v>
       </c>
       <c r="D99" s="7"/>
@@ -12382,10 +12389,10 @@
     </row>
     <row r="100" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="21"/>
-      <c r="B100" s="306" t="s">
+      <c r="B100" s="305" t="s">
         <v>184</v>
       </c>
-      <c r="C100" s="307">
+      <c r="C100" s="306">
         <v>2</v>
       </c>
       <c r="D100" s="7"/>
@@ -12399,10 +12406,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="21"/>
-      <c r="B101" s="310" t="s">
+      <c r="B101" s="309" t="s">
         <v>185</v>
       </c>
-      <c r="C101" s="311">
+      <c r="C101" s="310">
         <f>SUM(C96:C100,C95)</f>
         <v>38</v>
       </c>
@@ -12421,10 +12428,10 @@
       <c r="A102" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="308" t="s">
+      <c r="B102" s="307" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="309"/>
+      <c r="C102" s="308"/>
       <c r="D102" s="7"/>
       <c r="E102" s="72">
         <v>3</v>
@@ -12438,10 +12445,10 @@
       <c r="A103" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="308" t="s">
+      <c r="B103" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="309"/>
+      <c r="C103" s="308"/>
       <c r="D103" s="7"/>
       <c r="E103" s="72">
         <v>4</v>
@@ -12455,10 +12462,10 @@
       <c r="A104" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="308" t="s">
+      <c r="B104" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="309"/>
+      <c r="C104" s="308"/>
       <c r="D104" s="7"/>
       <c r="E104" s="72">
         <v>5</v>
@@ -12472,10 +12479,10 @@
       <c r="A105" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="308" t="s">
+      <c r="B105" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="309"/>
+      <c r="C105" s="308"/>
       <c r="D105" s="7"/>
       <c r="E105" s="72">
         <v>5</v>
@@ -12489,10 +12496,10 @@
       <c r="A106" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="308" t="s">
+      <c r="B106" s="307" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="309"/>
+      <c r="C106" s="308"/>
       <c r="D106" s="7"/>
       <c r="E106" s="72">
         <v>2</v>
@@ -12506,10 +12513,10 @@
       <c r="A107" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="308" t="s">
+      <c r="B107" s="307" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="309"/>
+      <c r="C107" s="308"/>
       <c r="D107" s="7"/>
       <c r="E107" s="72">
         <v>10</v>
@@ -12523,10 +12530,10 @@
       <c r="A108" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="314" t="s">
+      <c r="B108" s="313" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="315"/>
+      <c r="C108" s="314"/>
       <c r="D108" s="8"/>
       <c r="E108" s="79">
         <v>4</v>
@@ -12537,10 +12544,10 @@
       <c r="G108" s="38"/>
     </row>
     <row r="109" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="233" t="s">
+      <c r="B109" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="235"/>
+      <c r="C109" s="234"/>
       <c r="E109" s="185">
         <f>SUM(E101:E108,E83)</f>
         <v>169</v>
@@ -12551,10 +12558,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="233" t="s">
+      <c r="B110" s="232" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="235"/>
+      <c r="C110" s="234"/>
       <c r="E110" s="185">
         <f>SUM(E63,E109)</f>
         <v>503</v>
@@ -12582,48 +12589,48 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="233" t="s">
+      <c r="B113" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="234"/>
-      <c r="D113" s="234"/>
-      <c r="E113" s="234"/>
-      <c r="F113" s="234"/>
-      <c r="G113" s="235"/>
+      <c r="C113" s="233"/>
+      <c r="D113" s="233"/>
+      <c r="E113" s="233"/>
+      <c r="F113" s="233"/>
+      <c r="G113" s="234"/>
     </row>
     <row r="114" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="233" t="s">
+      <c r="B114" s="232" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="234"/>
-      <c r="D114" s="234"/>
-      <c r="E114" s="234"/>
-      <c r="F114" s="234"/>
-      <c r="G114" s="235"/>
+      <c r="C114" s="233"/>
+      <c r="D114" s="233"/>
+      <c r="E114" s="233"/>
+      <c r="F114" s="233"/>
+      <c r="G114" s="234"/>
     </row>
     <row r="115" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="316" t="s">
+      <c r="B115" s="315" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="317"/>
+      <c r="C115" s="316"/>
       <c r="D115" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E115" s="303" t="s">
+      <c r="E115" s="302" t="s">
         <v>285</v>
       </c>
-      <c r="F115" s="304"/>
-      <c r="G115" s="305"/>
+      <c r="F115" s="303"/>
+      <c r="G115" s="304"/>
     </row>
     <row r="116" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
-      <c r="B116" s="306" t="s">
+      <c r="B116" s="305" t="s">
         <v>251</v>
       </c>
-      <c r="C116" s="307">
+      <c r="C116" s="306">
         <v>1</v>
       </c>
       <c r="D116" s="7"/>
@@ -12637,10 +12644,10 @@
     </row>
     <row r="117" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="21"/>
-      <c r="B117" s="306" t="s">
+      <c r="B117" s="305" t="s">
         <v>252</v>
       </c>
-      <c r="C117" s="307">
+      <c r="C117" s="306">
         <v>2</v>
       </c>
       <c r="D117" s="7"/>
@@ -12654,10 +12661,10 @@
     </row>
     <row r="118" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="21"/>
-      <c r="B118" s="310" t="s">
+      <c r="B118" s="309" t="s">
         <v>253</v>
       </c>
-      <c r="C118" s="311">
+      <c r="C118" s="310">
         <f>SUM(C116:C117)</f>
         <v>3</v>
       </c>
@@ -12676,25 +12683,25 @@
       <c r="A119" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="312" t="s">
+      <c r="B119" s="311" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="313"/>
+      <c r="C119" s="312"/>
       <c r="D119" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E119" s="303" t="s">
+      <c r="E119" s="302" t="s">
         <v>285</v>
       </c>
-      <c r="F119" s="304"/>
-      <c r="G119" s="305"/>
+      <c r="F119" s="303"/>
+      <c r="G119" s="304"/>
     </row>
     <row r="120" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21"/>
-      <c r="B120" s="306" t="s">
+      <c r="B120" s="305" t="s">
         <v>254</v>
       </c>
-      <c r="C120" s="307">
+      <c r="C120" s="306">
         <v>3</v>
       </c>
       <c r="D120" s="7"/>
@@ -12708,10 +12715,10 @@
     </row>
     <row r="121" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="21"/>
-      <c r="B121" s="306" t="s">
+      <c r="B121" s="305" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="307">
+      <c r="C121" s="306">
         <v>4</v>
       </c>
       <c r="D121" s="7"/>
@@ -12725,10 +12732,10 @@
     </row>
     <row r="122" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="21"/>
-      <c r="B122" s="310" t="s">
+      <c r="B122" s="309" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="311">
+      <c r="C122" s="310">
         <f>SUM(C120:C121)</f>
         <v>7</v>
       </c>
@@ -12747,10 +12754,10 @@
       <c r="A123" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="308" t="s">
+      <c r="B123" s="307" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="309"/>
+      <c r="C123" s="308"/>
       <c r="D123" s="7" t="s">
         <v>129</v>
       </c>
@@ -12768,10 +12775,10 @@
       <c r="A124" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B124" s="308" t="s">
+      <c r="B124" s="307" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="309"/>
+      <c r="C124" s="308"/>
       <c r="D124" s="7"/>
       <c r="E124" s="72">
         <v>5</v>
@@ -12785,10 +12792,10 @@
       <c r="A125" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B125" s="308" t="s">
+      <c r="B125" s="307" t="s">
         <v>38</v>
       </c>
-      <c r="C125" s="309"/>
+      <c r="C125" s="308"/>
       <c r="D125" s="7" t="s">
         <v>130</v>
       </c>
@@ -12806,25 +12813,25 @@
       <c r="A126" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B126" s="312" t="s">
+      <c r="B126" s="311" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="313"/>
+      <c r="C126" s="312"/>
       <c r="D126" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="303" t="s">
+      <c r="E126" s="302" t="s">
         <v>285</v>
       </c>
-      <c r="F126" s="304"/>
-      <c r="G126" s="305"/>
+      <c r="F126" s="303"/>
+      <c r="G126" s="304"/>
     </row>
     <row r="127" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21"/>
-      <c r="B127" s="306" t="s">
+      <c r="B127" s="305" t="s">
         <v>265</v>
       </c>
-      <c r="C127" s="307">
+      <c r="C127" s="306">
         <v>1</v>
       </c>
       <c r="D127" s="7"/>
@@ -12838,10 +12845,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="21"/>
-      <c r="B128" s="306" t="s">
+      <c r="B128" s="305" t="s">
         <v>266</v>
       </c>
-      <c r="C128" s="307">
+      <c r="C128" s="306">
         <v>4</v>
       </c>
       <c r="D128" s="7"/>
@@ -12855,10 +12862,10 @@
     </row>
     <row r="129" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="21"/>
-      <c r="B129" s="306" t="s">
+      <c r="B129" s="305" t="s">
         <v>267</v>
       </c>
-      <c r="C129" s="307">
+      <c r="C129" s="306">
         <v>2</v>
       </c>
       <c r="D129" s="7"/>
@@ -12872,10 +12879,10 @@
     </row>
     <row r="130" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="22"/>
-      <c r="B130" s="310" t="s">
+      <c r="B130" s="309" t="s">
         <v>268</v>
       </c>
-      <c r="C130" s="311">
+      <c r="C130" s="310">
         <f>SUM(C127:C129)</f>
         <v>7</v>
       </c>
@@ -12892,10 +12899,10 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
-      <c r="B131" s="233" t="s">
+      <c r="B131" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="235"/>
+      <c r="C131" s="234"/>
       <c r="D131" s="81"/>
       <c r="E131" s="203">
         <f>SUM(E130,E118,E122:E125)</f>
@@ -12910,10 +12917,10 @@
       <c r="A132" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B132" s="239" t="s">
+      <c r="B132" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="C132" s="240"/>
+      <c r="C132" s="239"/>
       <c r="D132" s="82"/>
       <c r="E132" s="79">
         <v>3</v>
@@ -12923,10 +12930,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="233" t="s">
+      <c r="B133" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="C133" s="235"/>
+      <c r="C133" s="234"/>
       <c r="E133" s="184">
         <f>SUM(E131,E132)</f>
         <v>29</v>
@@ -12954,33 +12961,33 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="233" t="s">
+      <c r="B136" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="234"/>
-      <c r="D136" s="234"/>
-      <c r="E136" s="234"/>
-      <c r="F136" s="234"/>
-      <c r="G136" s="235"/>
+      <c r="C136" s="233"/>
+      <c r="D136" s="233"/>
+      <c r="E136" s="233"/>
+      <c r="F136" s="233"/>
+      <c r="G136" s="234"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="241" t="s">
+      <c r="B137" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="242"/>
-      <c r="D137" s="242"/>
-      <c r="E137" s="242"/>
-      <c r="F137" s="242"/>
-      <c r="G137" s="242"/>
+      <c r="C137" s="241"/>
+      <c r="D137" s="241"/>
+      <c r="E137" s="241"/>
+      <c r="F137" s="241"/>
+      <c r="G137" s="241"/>
     </row>
     <row r="138" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B138" s="308" t="s">
+      <c r="B138" s="307" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="309"/>
+      <c r="C138" s="308"/>
       <c r="D138" s="6"/>
       <c r="E138" s="76">
         <v>2</v>
@@ -12994,25 +13001,25 @@
       <c r="A139" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B139" s="312" t="s">
+      <c r="B139" s="311" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="313"/>
+      <c r="C139" s="312"/>
       <c r="D139" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E139" s="303" t="s">
+      <c r="E139" s="302" t="s">
         <v>286</v>
       </c>
-      <c r="F139" s="304"/>
-      <c r="G139" s="305"/>
+      <c r="F139" s="303"/>
+      <c r="G139" s="304"/>
     </row>
     <row r="140" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="21"/>
-      <c r="B140" s="306" t="s">
+      <c r="B140" s="305" t="s">
         <v>46</v>
       </c>
-      <c r="C140" s="307"/>
+      <c r="C140" s="306"/>
       <c r="D140" s="7"/>
       <c r="E140" s="72">
         <v>2</v>
@@ -13024,10 +13031,10 @@
     </row>
     <row r="141" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21"/>
-      <c r="B141" s="306" t="s">
+      <c r="B141" s="305" t="s">
         <v>516</v>
       </c>
-      <c r="C141" s="307"/>
+      <c r="C141" s="306"/>
       <c r="D141" s="7"/>
       <c r="E141" s="72">
         <v>3</v>
@@ -13039,10 +13046,10 @@
     </row>
     <row r="142" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="21"/>
-      <c r="B142" s="306" t="s">
+      <c r="B142" s="305" t="s">
         <v>518</v>
       </c>
-      <c r="C142" s="307"/>
+      <c r="C142" s="306"/>
       <c r="D142" s="7"/>
       <c r="E142" s="72">
         <v>2</v>
@@ -13054,10 +13061,10 @@
     </row>
     <row r="143" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="21"/>
-      <c r="B143" s="306" t="s">
+      <c r="B143" s="305" t="s">
         <v>517</v>
       </c>
-      <c r="C143" s="307"/>
+      <c r="C143" s="306"/>
       <c r="D143" s="7"/>
       <c r="E143" s="72">
         <v>2</v>
@@ -13069,10 +13076,10 @@
     </row>
     <row r="144" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="21"/>
-      <c r="B144" s="306" t="s">
+      <c r="B144" s="305" t="s">
         <v>519</v>
       </c>
-      <c r="C144" s="307"/>
+      <c r="C144" s="306"/>
       <c r="D144" s="7"/>
       <c r="E144" s="72">
         <v>4</v>
@@ -13084,10 +13091,10 @@
     </row>
     <row r="145" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="21"/>
-      <c r="B145" s="310" t="s">
+      <c r="B145" s="309" t="s">
         <v>269</v>
       </c>
-      <c r="C145" s="311">
+      <c r="C145" s="310">
         <f>SUM(C140:C144)</f>
         <v>0</v>
       </c>
@@ -13104,10 +13111,10 @@
     </row>
     <row r="146" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="21"/>
-      <c r="B146" s="306" t="s">
+      <c r="B146" s="305" t="s">
         <v>520</v>
       </c>
-      <c r="C146" s="307">
+      <c r="C146" s="306">
         <v>5</v>
       </c>
       <c r="D146" s="7"/>
@@ -13121,10 +13128,10 @@
     </row>
     <row r="147" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="21"/>
-      <c r="B147" s="306" t="s">
+      <c r="B147" s="305" t="s">
         <v>521</v>
       </c>
-      <c r="C147" s="307"/>
+      <c r="C147" s="306"/>
       <c r="D147" s="7"/>
       <c r="E147" s="72">
         <v>5</v>
@@ -13136,10 +13143,10 @@
     </row>
     <row r="148" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="21"/>
-      <c r="B148" s="310" t="s">
+      <c r="B148" s="309" t="s">
         <v>270</v>
       </c>
-      <c r="C148" s="311">
+      <c r="C148" s="310">
         <f>SUM(C146:C147)</f>
         <v>5</v>
       </c>
@@ -13156,10 +13163,10 @@
     </row>
     <row r="149" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="21"/>
-      <c r="B149" s="306" t="s">
+      <c r="B149" s="305" t="s">
         <v>522</v>
       </c>
-      <c r="C149" s="307"/>
+      <c r="C149" s="306"/>
       <c r="D149" s="7"/>
       <c r="E149" s="72">
         <v>1</v>
@@ -13171,10 +13178,10 @@
     </row>
     <row r="150" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="21"/>
-      <c r="B150" s="306" t="s">
+      <c r="B150" s="305" t="s">
         <v>523</v>
       </c>
-      <c r="C150" s="307"/>
+      <c r="C150" s="306"/>
       <c r="D150" s="7"/>
       <c r="E150" s="72">
         <v>4</v>
@@ -13186,10 +13193,10 @@
     </row>
     <row r="151" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="21"/>
-      <c r="B151" s="306" t="s">
+      <c r="B151" s="305" t="s">
         <v>524</v>
       </c>
-      <c r="C151" s="307"/>
+      <c r="C151" s="306"/>
       <c r="D151" s="7"/>
       <c r="E151" s="72">
         <v>1</v>
@@ -13201,10 +13208,10 @@
     </row>
     <row r="152" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="21"/>
-      <c r="B152" s="310" t="s">
+      <c r="B152" s="309" t="s">
         <v>271</v>
       </c>
-      <c r="C152" s="311">
+      <c r="C152" s="310">
         <f>SUM(C149:C151)</f>
         <v>0</v>
       </c>
@@ -13221,10 +13228,10 @@
     </row>
     <row r="153" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="21"/>
-      <c r="B153" s="310" t="s">
+      <c r="B153" s="309" t="s">
         <v>272</v>
       </c>
-      <c r="C153" s="311">
+      <c r="C153" s="310">
         <v>1</v>
       </c>
       <c r="D153" s="7"/>
@@ -13238,10 +13245,10 @@
     </row>
     <row r="154" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="21"/>
-      <c r="B154" s="310" t="s">
+      <c r="B154" s="309" t="s">
         <v>525</v>
       </c>
-      <c r="C154" s="311">
+      <c r="C154" s="310">
         <f>SUM(C145,C148,C152,C153)</f>
         <v>6</v>
       </c>
@@ -13260,10 +13267,10 @@
       <c r="A155" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B155" s="308" t="s">
+      <c r="B155" s="307" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="309"/>
+      <c r="C155" s="308"/>
       <c r="D155" s="8"/>
       <c r="E155" s="79">
         <v>2</v>
@@ -13292,25 +13299,25 @@
       <c r="A157" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B157" s="316" t="s">
+      <c r="B157" s="315" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="317"/>
+      <c r="C157" s="316"/>
       <c r="D157" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E157" s="303" t="s">
+      <c r="E157" s="302" t="s">
         <v>287</v>
       </c>
-      <c r="F157" s="304"/>
-      <c r="G157" s="305"/>
+      <c r="F157" s="303"/>
+      <c r="G157" s="304"/>
     </row>
     <row r="158" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
-      <c r="B158" s="306" t="s">
+      <c r="B158" s="305" t="s">
         <v>229</v>
       </c>
-      <c r="C158" s="307">
+      <c r="C158" s="306">
         <v>2</v>
       </c>
       <c r="D158" s="7"/>
@@ -13324,10 +13331,10 @@
     </row>
     <row r="159" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="21"/>
-      <c r="B159" s="306" t="s">
+      <c r="B159" s="305" t="s">
         <v>230</v>
       </c>
-      <c r="C159" s="307">
+      <c r="C159" s="306">
         <v>4</v>
       </c>
       <c r="D159" s="7"/>
@@ -13341,10 +13348,10 @@
     </row>
     <row r="160" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="21"/>
-      <c r="B160" s="306" t="s">
+      <c r="B160" s="305" t="s">
         <v>231</v>
       </c>
-      <c r="C160" s="307">
+      <c r="C160" s="306">
         <v>2</v>
       </c>
       <c r="D160" s="7"/>
@@ -13358,10 +13365,10 @@
     </row>
     <row r="161" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="21"/>
-      <c r="B161" s="306" t="s">
+      <c r="B161" s="305" t="s">
         <v>232</v>
       </c>
-      <c r="C161" s="307">
+      <c r="C161" s="306">
         <v>3</v>
       </c>
       <c r="D161" s="7"/>
@@ -13375,10 +13382,10 @@
     </row>
     <row r="162" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="21"/>
-      <c r="B162" s="306" t="s">
+      <c r="B162" s="305" t="s">
         <v>248</v>
       </c>
-      <c r="C162" s="307"/>
+      <c r="C162" s="306"/>
       <c r="D162" s="7"/>
       <c r="E162" s="72">
         <v>4</v>
@@ -13390,10 +13397,10 @@
     </row>
     <row r="163" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="21"/>
-      <c r="B163" s="306" t="s">
+      <c r="B163" s="305" t="s">
         <v>249</v>
       </c>
-      <c r="C163" s="307"/>
+      <c r="C163" s="306"/>
       <c r="D163" s="7"/>
       <c r="E163" s="72">
         <v>3</v>
@@ -13405,10 +13412,10 @@
     </row>
     <row r="164" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="21"/>
-      <c r="B164" s="306" t="s">
+      <c r="B164" s="305" t="s">
         <v>250</v>
       </c>
-      <c r="C164" s="307"/>
+      <c r="C164" s="306"/>
       <c r="D164" s="7"/>
       <c r="E164" s="72">
         <v>1</v>
@@ -13420,10 +13427,10 @@
     </row>
     <row r="165" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="21"/>
-      <c r="B165" s="306" t="s">
+      <c r="B165" s="305" t="s">
         <v>233</v>
       </c>
-      <c r="C165" s="307">
+      <c r="C165" s="306">
         <v>4</v>
       </c>
       <c r="D165" s="7"/>
@@ -13437,10 +13444,10 @@
     </row>
     <row r="166" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="21"/>
-      <c r="B166" s="306" t="s">
+      <c r="B166" s="305" t="s">
         <v>234</v>
       </c>
-      <c r="C166" s="307">
+      <c r="C166" s="306">
         <v>5</v>
       </c>
       <c r="D166" s="7"/>
@@ -13454,10 +13461,10 @@
     </row>
     <row r="167" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="21"/>
-      <c r="B167" s="310" t="s">
+      <c r="B167" s="309" t="s">
         <v>235</v>
       </c>
-      <c r="C167" s="311">
+      <c r="C167" s="310">
         <f>SUM(C165:C166)</f>
         <v>9</v>
       </c>
@@ -13474,10 +13481,10 @@
     </row>
     <row r="168" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="21"/>
-      <c r="B168" s="306" t="s">
+      <c r="B168" s="305" t="s">
         <v>236</v>
       </c>
-      <c r="C168" s="307">
+      <c r="C168" s="306">
         <v>4</v>
       </c>
       <c r="D168" s="7"/>
@@ -13491,10 +13498,10 @@
     </row>
     <row r="169" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="21"/>
-      <c r="B169" s="306" t="s">
+      <c r="B169" s="305" t="s">
         <v>237</v>
       </c>
-      <c r="C169" s="307">
+      <c r="C169" s="306">
         <v>7</v>
       </c>
       <c r="D169" s="7"/>
@@ -13508,10 +13515,10 @@
     </row>
     <row r="170" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="21"/>
-      <c r="B170" s="306" t="s">
+      <c r="B170" s="305" t="s">
         <v>238</v>
       </c>
-      <c r="C170" s="307">
+      <c r="C170" s="306">
         <v>9</v>
       </c>
       <c r="D170" s="7"/>
@@ -13525,10 +13532,10 @@
     </row>
     <row r="171" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="21"/>
-      <c r="B171" s="310" t="s">
+      <c r="B171" s="309" t="s">
         <v>239</v>
       </c>
-      <c r="C171" s="311">
+      <c r="C171" s="310">
         <f>SUM(C168:C170)</f>
         <v>20</v>
       </c>
@@ -13545,10 +13552,10 @@
     </row>
     <row r="172" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="21"/>
-      <c r="B172" s="306" t="s">
+      <c r="B172" s="305" t="s">
         <v>240</v>
       </c>
-      <c r="C172" s="307">
+      <c r="C172" s="306">
         <v>5</v>
       </c>
       <c r="D172" s="7"/>
@@ -13562,10 +13569,10 @@
     </row>
     <row r="173" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="21"/>
-      <c r="B173" s="310" t="s">
+      <c r="B173" s="309" t="s">
         <v>241</v>
       </c>
-      <c r="C173" s="311">
+      <c r="C173" s="310">
         <f>SUM(C172)</f>
         <v>5</v>
       </c>
@@ -13582,10 +13589,10 @@
     </row>
     <row r="174" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="21"/>
-      <c r="B174" s="306" t="s">
+      <c r="B174" s="305" t="s">
         <v>242</v>
       </c>
-      <c r="C174" s="307">
+      <c r="C174" s="306">
         <v>4</v>
       </c>
       <c r="D174" s="7"/>
@@ -13599,10 +13606,10 @@
     </row>
     <row r="175" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21"/>
-      <c r="B175" s="306" t="s">
+      <c r="B175" s="305" t="s">
         <v>243</v>
       </c>
-      <c r="C175" s="307">
+      <c r="C175" s="306">
         <v>5</v>
       </c>
       <c r="D175" s="7"/>
@@ -13616,10 +13623,10 @@
     </row>
     <row r="176" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="21"/>
-      <c r="B176" s="306" t="s">
+      <c r="B176" s="305" t="s">
         <v>244</v>
       </c>
-      <c r="C176" s="307">
+      <c r="C176" s="306">
         <v>6</v>
       </c>
       <c r="D176" s="7"/>
@@ -13633,10 +13640,10 @@
     </row>
     <row r="177" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="21"/>
-      <c r="B177" s="306" t="s">
+      <c r="B177" s="305" t="s">
         <v>245</v>
       </c>
-      <c r="C177" s="307">
+      <c r="C177" s="306">
         <v>7</v>
       </c>
       <c r="D177" s="7"/>
@@ -13650,10 +13657,10 @@
     </row>
     <row r="178" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="21"/>
-      <c r="B178" s="306" t="s">
+      <c r="B178" s="305" t="s">
         <v>246</v>
       </c>
-      <c r="C178" s="307">
+      <c r="C178" s="306">
         <v>1</v>
       </c>
       <c r="D178" s="7"/>
@@ -13667,10 +13674,10 @@
     </row>
     <row r="179" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="21"/>
-      <c r="B179" s="310" t="s">
+      <c r="B179" s="309" t="s">
         <v>247</v>
       </c>
-      <c r="C179" s="311">
+      <c r="C179" s="310">
         <f>SUM(C174:C178,C158:C161,C167,C171,C173)</f>
         <v>68</v>
       </c>
@@ -13689,10 +13696,10 @@
       <c r="A180" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B180" s="308" t="s">
+      <c r="B180" s="307" t="s">
         <v>50</v>
       </c>
-      <c r="C180" s="309"/>
+      <c r="C180" s="308"/>
       <c r="D180" s="7"/>
       <c r="E180" s="72">
         <v>4</v>
@@ -13706,10 +13713,10 @@
       <c r="A181" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B181" s="308" t="s">
+      <c r="B181" s="307" t="s">
         <v>51</v>
       </c>
-      <c r="C181" s="309"/>
+      <c r="C181" s="308"/>
       <c r="D181" s="7"/>
       <c r="E181" s="72">
         <v>4</v>
@@ -13723,10 +13730,10 @@
       <c r="A182" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B182" s="308" t="s">
+      <c r="B182" s="307" t="s">
         <v>52</v>
       </c>
-      <c r="C182" s="309"/>
+      <c r="C182" s="308"/>
       <c r="D182" s="7"/>
       <c r="E182" s="72">
         <v>1</v>
@@ -13740,10 +13747,10 @@
       <c r="A183" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B183" s="308" t="s">
+      <c r="B183" s="307" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="309"/>
+      <c r="C183" s="308"/>
       <c r="D183" s="7"/>
       <c r="E183" s="72">
         <v>2</v>
@@ -13757,10 +13764,10 @@
       <c r="A184" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B184" s="314" t="s">
+      <c r="B184" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="C184" s="315"/>
+      <c r="C184" s="314"/>
       <c r="D184" s="8"/>
       <c r="E184" s="79">
         <v>1</v>
@@ -13771,10 +13778,10 @@
       <c r="G184" s="38"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="233" t="s">
+      <c r="B185" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="C185" s="235"/>
+      <c r="C185" s="234"/>
       <c r="E185" s="184">
         <f>SUM(E156:E184)</f>
         <v>302</v>
@@ -13804,23 +13811,23 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="233" t="s">
+      <c r="B189" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="234"/>
-      <c r="D189" s="234"/>
-      <c r="E189" s="234"/>
-      <c r="F189" s="234"/>
-      <c r="G189" s="234"/>
+      <c r="C189" s="233"/>
+      <c r="D189" s="233"/>
+      <c r="E189" s="233"/>
+      <c r="F189" s="233"/>
+      <c r="G189" s="233"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B190" s="308" t="s">
+      <c r="B190" s="307" t="s">
         <v>57</v>
       </c>
-      <c r="C190" s="309"/>
+      <c r="C190" s="308"/>
       <c r="D190" s="6"/>
       <c r="E190" s="76">
         <v>1</v>
@@ -13834,10 +13841,10 @@
       <c r="A191" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B191" s="312" t="s">
+      <c r="B191" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="313"/>
+      <c r="C191" s="312"/>
       <c r="D191" s="7" t="s">
         <v>311</v>
       </c>
@@ -13853,10 +13860,10 @@
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="21"/>
-      <c r="B192" s="306" t="s">
+      <c r="B192" s="305" t="s">
         <v>516</v>
       </c>
-      <c r="C192" s="307"/>
+      <c r="C192" s="306"/>
       <c r="D192" s="7"/>
       <c r="E192" s="72">
         <v>2</v>
@@ -13868,10 +13875,10 @@
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="21"/>
-      <c r="B193" s="306" t="s">
+      <c r="B193" s="305" t="s">
         <v>518</v>
       </c>
-      <c r="C193" s="307"/>
+      <c r="C193" s="306"/>
       <c r="D193" s="7"/>
       <c r="E193" s="72">
         <v>1</v>
@@ -13883,10 +13890,10 @@
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="21"/>
-      <c r="B194" s="306" t="s">
+      <c r="B194" s="305" t="s">
         <v>517</v>
       </c>
-      <c r="C194" s="307"/>
+      <c r="C194" s="306"/>
       <c r="D194" s="7"/>
       <c r="E194" s="72">
         <v>2</v>
@@ -13898,10 +13905,10 @@
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="21"/>
-      <c r="B195" s="306" t="s">
+      <c r="B195" s="305" t="s">
         <v>519</v>
       </c>
-      <c r="C195" s="307"/>
+      <c r="C195" s="306"/>
       <c r="D195" s="7"/>
       <c r="E195" s="72">
         <v>3</v>
@@ -13913,10 +13920,10 @@
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="21"/>
-      <c r="B196" s="306" t="s">
+      <c r="B196" s="305" t="s">
         <v>269</v>
       </c>
-      <c r="C196" s="307">
+      <c r="C196" s="306">
         <f>SUM(C192:C195)</f>
         <v>0</v>
       </c>
@@ -13931,10 +13938,10 @@
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="21"/>
-      <c r="B197" s="306" t="s">
+      <c r="B197" s="305" t="s">
         <v>520</v>
       </c>
-      <c r="C197" s="307">
+      <c r="C197" s="306">
         <v>5</v>
       </c>
       <c r="D197" s="7"/>
@@ -13948,10 +13955,10 @@
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="21"/>
-      <c r="B198" s="306" t="s">
+      <c r="B198" s="305" t="s">
         <v>521</v>
       </c>
-      <c r="C198" s="307"/>
+      <c r="C198" s="306"/>
       <c r="D198" s="7"/>
       <c r="E198" s="72">
         <v>1</v>
@@ -13963,10 +13970,10 @@
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="21"/>
-      <c r="B199" s="306" t="s">
+      <c r="B199" s="305" t="s">
         <v>270</v>
       </c>
-      <c r="C199" s="307">
+      <c r="C199" s="306">
         <f>SUM(C197:C198)</f>
         <v>5</v>
       </c>
@@ -13981,10 +13988,10 @@
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="21"/>
-      <c r="B200" s="306" t="s">
+      <c r="B200" s="305" t="s">
         <v>522</v>
       </c>
-      <c r="C200" s="307"/>
+      <c r="C200" s="306"/>
       <c r="D200" s="7"/>
       <c r="E200" s="72">
         <v>4</v>
@@ -13996,10 +14003,10 @@
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="21"/>
-      <c r="B201" s="306" t="s">
+      <c r="B201" s="305" t="s">
         <v>523</v>
       </c>
-      <c r="C201" s="307"/>
+      <c r="C201" s="306"/>
       <c r="D201" s="7"/>
       <c r="E201" s="72">
         <v>1</v>
@@ -14011,10 +14018,10 @@
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="21"/>
-      <c r="B202" s="306" t="s">
+      <c r="B202" s="305" t="s">
         <v>524</v>
       </c>
-      <c r="C202" s="307"/>
+      <c r="C202" s="306"/>
       <c r="D202" s="7"/>
       <c r="E202" s="72">
         <v>2</v>
@@ -14026,10 +14033,10 @@
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="21"/>
-      <c r="B203" s="306" t="s">
+      <c r="B203" s="305" t="s">
         <v>271</v>
       </c>
-      <c r="C203" s="307">
+      <c r="C203" s="306">
         <f>SUM(C200:C202)</f>
         <v>0</v>
       </c>
@@ -14044,10 +14051,10 @@
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="21"/>
-      <c r="B204" s="306" t="s">
+      <c r="B204" s="305" t="s">
         <v>272</v>
       </c>
-      <c r="C204" s="307">
+      <c r="C204" s="306">
         <v>1</v>
       </c>
       <c r="D204" s="7"/>
@@ -14061,10 +14068,10 @@
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="21"/>
-      <c r="B205" s="310" t="s">
+      <c r="B205" s="309" t="s">
         <v>290</v>
       </c>
-      <c r="C205" s="311">
+      <c r="C205" s="310">
         <f>SUM(C196,C199,C203,C204)</f>
         <v>6</v>
       </c>
@@ -14081,10 +14088,10 @@
       <c r="A206" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B206" s="308" t="s">
+      <c r="B206" s="307" t="s">
         <v>59</v>
       </c>
-      <c r="C206" s="309"/>
+      <c r="C206" s="308"/>
       <c r="D206" s="8"/>
       <c r="E206" s="79">
         <v>4</v>
@@ -14095,10 +14102,10 @@
       <c r="G206" s="38"/>
     </row>
     <row r="207" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="233" t="s">
+      <c r="B207" s="232" t="s">
         <v>60</v>
       </c>
-      <c r="C207" s="235"/>
+      <c r="C207" s="234"/>
       <c r="D207" s="84"/>
       <c r="E207" s="73">
         <f>SUM(E190:E206)</f>
@@ -14113,25 +14120,25 @@
       <c r="A208" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B208" s="316" t="s">
+      <c r="B208" s="315" t="s">
         <v>61</v>
       </c>
-      <c r="C208" s="317"/>
+      <c r="C208" s="316"/>
       <c r="D208" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E208" s="303" t="s">
+      <c r="E208" s="302" t="s">
         <v>287</v>
       </c>
-      <c r="F208" s="304"/>
-      <c r="G208" s="305"/>
+      <c r="F208" s="303"/>
+      <c r="G208" s="304"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="21"/>
-      <c r="B209" s="306" t="s">
+      <c r="B209" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="C209" s="307">
+      <c r="C209" s="306">
         <v>4</v>
       </c>
       <c r="D209" s="7"/>
@@ -14145,10 +14152,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="21"/>
-      <c r="B210" s="306" t="s">
+      <c r="B210" s="305" t="s">
         <v>207</v>
       </c>
-      <c r="C210" s="307">
+      <c r="C210" s="306">
         <v>6</v>
       </c>
       <c r="D210" s="7"/>
@@ -14162,10 +14169,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="21"/>
-      <c r="B211" s="306" t="s">
+      <c r="B211" s="305" t="s">
         <v>208</v>
       </c>
-      <c r="C211" s="307">
+      <c r="C211" s="306">
         <v>7</v>
       </c>
       <c r="D211" s="7"/>
@@ -14179,10 +14186,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="21"/>
-      <c r="B212" s="306" t="s">
+      <c r="B212" s="305" t="s">
         <v>209</v>
       </c>
-      <c r="C212" s="307">
+      <c r="C212" s="306">
         <v>9</v>
       </c>
       <c r="D212" s="7"/>
@@ -14196,10 +14203,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="21"/>
-      <c r="B213" s="306" t="s">
+      <c r="B213" s="305" t="s">
         <v>226</v>
       </c>
-      <c r="C213" s="307"/>
+      <c r="C213" s="306"/>
       <c r="D213" s="7"/>
       <c r="E213" s="72">
         <v>5</v>
@@ -14211,10 +14218,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="21"/>
-      <c r="B214" s="306" t="s">
+      <c r="B214" s="305" t="s">
         <v>227</v>
       </c>
-      <c r="C214" s="307"/>
+      <c r="C214" s="306"/>
       <c r="D214" s="7"/>
       <c r="E214" s="72">
         <v>7</v>
@@ -14226,10 +14233,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="21"/>
-      <c r="B215" s="306" t="s">
+      <c r="B215" s="305" t="s">
         <v>228</v>
       </c>
-      <c r="C215" s="307">
+      <c r="C215" s="306">
         <v>6</v>
       </c>
       <c r="D215" s="7"/>
@@ -14243,10 +14250,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="21"/>
-      <c r="B216" s="306" t="s">
+      <c r="B216" s="305" t="s">
         <v>210</v>
       </c>
-      <c r="C216" s="307">
+      <c r="C216" s="306">
         <v>5</v>
       </c>
       <c r="D216" s="7"/>
@@ -14260,10 +14267,10 @@
     </row>
     <row r="217" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="21"/>
-      <c r="B217" s="306" t="s">
+      <c r="B217" s="305" t="s">
         <v>211</v>
       </c>
-      <c r="C217" s="307">
+      <c r="C217" s="306">
         <v>3</v>
       </c>
       <c r="D217" s="7"/>
@@ -14277,10 +14284,10 @@
     </row>
     <row r="218" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="21"/>
-      <c r="B218" s="310" t="s">
+      <c r="B218" s="309" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="311">
+      <c r="C218" s="310">
         <f>SUM(C215:C217)</f>
         <v>14</v>
       </c>
@@ -14297,10 +14304,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="21"/>
-      <c r="B219" s="306" t="s">
+      <c r="B219" s="305" t="s">
         <v>213</v>
       </c>
-      <c r="C219" s="307">
+      <c r="C219" s="306">
         <v>5</v>
       </c>
       <c r="D219" s="7"/>
@@ -14314,10 +14321,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="21"/>
-      <c r="B220" s="306" t="s">
+      <c r="B220" s="305" t="s">
         <v>214</v>
       </c>
-      <c r="C220" s="307">
+      <c r="C220" s="306">
         <v>6</v>
       </c>
       <c r="D220" s="7"/>
@@ -14331,10 +14338,10 @@
     </row>
     <row r="221" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="21"/>
-      <c r="B221" s="306" t="s">
+      <c r="B221" s="305" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="307">
+      <c r="C221" s="306">
         <v>7</v>
       </c>
       <c r="D221" s="7"/>
@@ -14348,10 +14355,10 @@
     </row>
     <row r="222" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="21"/>
-      <c r="B222" s="310" t="s">
+      <c r="B222" s="309" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="311">
+      <c r="C222" s="310">
         <f>SUM(C219:C221)</f>
         <v>18</v>
       </c>
@@ -14368,10 +14375,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="21"/>
-      <c r="B223" s="306" t="s">
+      <c r="B223" s="305" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="307">
+      <c r="C223" s="306">
         <v>3</v>
       </c>
       <c r="D223" s="7"/>
@@ -14385,10 +14392,10 @@
     </row>
     <row r="224" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="21"/>
-      <c r="B224" s="306" t="s">
+      <c r="B224" s="305" t="s">
         <v>218</v>
       </c>
-      <c r="C224" s="307">
+      <c r="C224" s="306">
         <v>2</v>
       </c>
       <c r="D224" s="7"/>
@@ -14402,10 +14409,10 @@
     </row>
     <row r="225" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="21"/>
-      <c r="B225" s="310" t="s">
+      <c r="B225" s="309" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="311">
+      <c r="C225" s="310">
         <f>SUM(C223:C224)</f>
         <v>5</v>
       </c>
@@ -14422,10 +14429,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="21"/>
-      <c r="B226" s="306" t="s">
+      <c r="B226" s="305" t="s">
         <v>220</v>
       </c>
-      <c r="C226" s="307">
+      <c r="C226" s="306">
         <v>4</v>
       </c>
       <c r="D226" s="7"/>
@@ -14439,10 +14446,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="21"/>
-      <c r="B227" s="306" t="s">
+      <c r="B227" s="305" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="307">
+      <c r="C227" s="306">
         <v>4</v>
       </c>
       <c r="D227" s="7"/>
@@ -14456,10 +14463,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="21"/>
-      <c r="B228" s="306" t="s">
+      <c r="B228" s="305" t="s">
         <v>222</v>
       </c>
-      <c r="C228" s="307">
+      <c r="C228" s="306">
         <v>5</v>
       </c>
       <c r="D228" s="7"/>
@@ -14473,10 +14480,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="21"/>
-      <c r="B229" s="306" t="s">
+      <c r="B229" s="305" t="s">
         <v>223</v>
       </c>
-      <c r="C229" s="307">
+      <c r="C229" s="306">
         <v>7</v>
       </c>
       <c r="D229" s="7"/>
@@ -14490,10 +14497,10 @@
     </row>
     <row r="230" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="21"/>
-      <c r="B230" s="306" t="s">
+      <c r="B230" s="305" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="307">
+      <c r="C230" s="306">
         <v>6</v>
       </c>
       <c r="D230" s="7"/>
@@ -14507,10 +14514,10 @@
     </row>
     <row r="231" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="21"/>
-      <c r="B231" s="310" t="s">
+      <c r="B231" s="309" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="311">
+      <c r="C231" s="310">
         <f>SUM(C226:C230,C209:C212,C218,C222,C225)</f>
         <v>89</v>
       </c>
@@ -14529,10 +14536,10 @@
       <c r="A232" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B232" s="308" t="s">
+      <c r="B232" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="C232" s="309"/>
+      <c r="C232" s="308"/>
       <c r="D232" s="7"/>
       <c r="E232" s="72">
         <v>4</v>
@@ -14546,10 +14553,10 @@
       <c r="A233" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B233" s="308" t="s">
+      <c r="B233" s="307" t="s">
         <v>63</v>
       </c>
-      <c r="C233" s="309"/>
+      <c r="C233" s="308"/>
       <c r="D233" s="7"/>
       <c r="E233" s="72">
         <v>5</v>
@@ -14563,10 +14570,10 @@
       <c r="A234" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B234" s="308" t="s">
+      <c r="B234" s="307" t="s">
         <v>64</v>
       </c>
-      <c r="C234" s="309"/>
+      <c r="C234" s="308"/>
       <c r="D234" s="7"/>
       <c r="E234" s="72">
         <v>2</v>
@@ -14580,10 +14587,10 @@
       <c r="A235" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B235" s="308" t="s">
+      <c r="B235" s="307" t="s">
         <v>65</v>
       </c>
-      <c r="C235" s="309"/>
+      <c r="C235" s="308"/>
       <c r="D235" s="7"/>
       <c r="E235" s="72">
         <v>2</v>
@@ -14597,10 +14604,10 @@
       <c r="A236" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B236" s="314" t="s">
+      <c r="B236" s="313" t="s">
         <v>66</v>
       </c>
-      <c r="C236" s="315"/>
+      <c r="C236" s="314"/>
       <c r="D236" s="8"/>
       <c r="E236" s="79">
         <v>2</v>
@@ -14611,11 +14618,11 @@
       <c r="G236" s="38"/>
     </row>
     <row r="237" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="233" t="s">
+      <c r="B237" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="C237" s="234"/>
-      <c r="D237" s="235"/>
+      <c r="C237" s="233"/>
+      <c r="D237" s="234"/>
       <c r="E237" s="75">
         <f>SUM(E207,E231:E236)</f>
         <v>121</v>
@@ -14629,11 +14636,11 @@
       <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="233" t="s">
+      <c r="B239" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="C239" s="234"/>
-      <c r="D239" s="235"/>
+      <c r="C239" s="233"/>
+      <c r="D239" s="234"/>
       <c r="E239" s="75">
         <f>SUM(E185,E237)</f>
         <v>423</v>
@@ -14645,11 +14652,11 @@
     </row>
     <row r="240" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="241" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="233" t="s">
+      <c r="B241" s="232" t="s">
         <v>69</v>
       </c>
-      <c r="C241" s="234"/>
-      <c r="D241" s="235"/>
+      <c r="C241" s="233"/>
+      <c r="D241" s="234"/>
       <c r="E241" s="75">
         <f>SUM(E133,E239)</f>
         <v>452</v>
@@ -14667,12 +14674,12 @@
       <c r="A244" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B244" s="236" t="str">
+      <c r="B244" s="235" t="str">
         <f>IF(AND(E244=0,F244=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C244" s="237"/>
-      <c r="D244" s="238"/>
+      <c r="C244" s="236"/>
+      <c r="D244" s="237"/>
       <c r="E244" s="75">
         <f>E241-E110</f>
         <v>-51</v>
@@ -14976,10 +14983,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14998,14 +15005,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="261"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="260"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
       <c r="I1" s="97"/>
@@ -15014,63 +15021,63 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="262" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="264"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="263"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="246" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="248"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="247"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="252">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="254"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="253"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="265">
+      <c r="B5" s="264">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="266"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="270" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="260"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="261"/>
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="260"/>
       <c r="G6" s="97"/>
       <c r="H6" s="97"/>
       <c r="I6" s="97"/>
@@ -15079,35 +15086,35 @@
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="267" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="269"/>
-      <c r="D7" s="269"/>
-      <c r="E7" s="269"/>
-      <c r="F7" s="270"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="269"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="267" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="269"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="270"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="269"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="255" t="s">
+      <c r="B12" s="254" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="256"/>
+      <c r="C12" s="255"/>
       <c r="D12" s="138" t="s">
         <v>73</v>
       </c>
@@ -15124,44 +15131,38 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="233" t="s">
+      <c r="B13" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="234"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="233"/>
       <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="316" t="s">
+      <c r="B14" s="315" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="317"/>
+      <c r="C14" s="316"/>
       <c r="D14" s="113" t="s">
         <v>566</v>
       </c>
-      <c r="E14" s="72">
-        <f>E25</f>
-        <v>116</v>
-      </c>
-      <c r="F14" s="72">
-        <f>F25</f>
-        <v>89</v>
-      </c>
-      <c r="G14" s="144" t="s">
+      <c r="E14" s="323" t="s">
         <v>567</v>
       </c>
+      <c r="F14" s="324"/>
+      <c r="G14" s="325"/>
     </row>
     <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="324" t="s">
+      <c r="B15" s="326" t="s">
         <v>528</v>
       </c>
-      <c r="C15" s="325"/>
+      <c r="C15" s="327"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>3</v>
@@ -15173,10 +15174,10 @@
     </row>
     <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="324" t="s">
+      <c r="B16" s="326" t="s">
         <v>528</v>
       </c>
-      <c r="C16" s="325"/>
+      <c r="C16" s="327"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>2</v>
@@ -15188,10 +15189,10 @@
     </row>
     <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="324" t="s">
+      <c r="B17" s="326" t="s">
         <v>529</v>
       </c>
-      <c r="C17" s="325"/>
+      <c r="C17" s="327"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>3</v>
@@ -15203,10 +15204,10 @@
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
-      <c r="B18" s="324" t="s">
+      <c r="B18" s="326" t="s">
         <v>530</v>
       </c>
-      <c r="C18" s="325"/>
+      <c r="C18" s="327"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>4</v>
@@ -15218,10 +15219,10 @@
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="324" t="s">
+      <c r="B19" s="326" t="s">
         <v>531</v>
       </c>
-      <c r="C19" s="325"/>
+      <c r="C19" s="327"/>
       <c r="D19" s="113"/>
       <c r="E19" s="72">
         <v>5</v>
@@ -15233,10 +15234,10 @@
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
-      <c r="B20" s="324" t="s">
+      <c r="B20" s="326" t="s">
         <v>532</v>
       </c>
-      <c r="C20" s="325"/>
+      <c r="C20" s="327"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>6</v>
@@ -15248,10 +15249,10 @@
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="324" t="s">
+      <c r="B21" s="326" t="s">
         <v>533</v>
       </c>
-      <c r="C21" s="325"/>
+      <c r="C21" s="327"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>76</v>
@@ -15263,10 +15264,10 @@
     </row>
     <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="324" t="s">
+      <c r="B22" s="326" t="s">
         <v>534</v>
       </c>
-      <c r="C22" s="325"/>
+      <c r="C22" s="327"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>8</v>
@@ -15280,10 +15281,10 @@
       <c r="A23" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B23" s="324" t="s">
+      <c r="B23" s="326" t="s">
         <v>535</v>
       </c>
-      <c r="C23" s="325"/>
+      <c r="C23" s="327"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>9</v>
@@ -15297,10 +15298,10 @@
       <c r="A24" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B24" s="324" t="s">
+      <c r="B24" s="326" t="s">
         <v>536</v>
       </c>
-      <c r="C24" s="325"/>
+      <c r="C24" s="327"/>
       <c r="D24" s="113"/>
       <c r="E24" s="79">
         <v>0</v>
@@ -15314,10 +15315,10 @@
       <c r="A25" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B25" s="326" t="s">
+      <c r="B25" s="328" t="s">
         <v>537</v>
       </c>
-      <c r="C25" s="327"/>
+      <c r="C25" s="329"/>
       <c r="D25" s="113"/>
       <c r="E25" s="201">
         <f>SUM(E15:E24)</f>
@@ -15333,10 +15334,10 @@
       <c r="A26" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="308" t="s">
+      <c r="B26" s="307" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="309"/>
+      <c r="C26" s="308"/>
       <c r="D26" s="113"/>
       <c r="E26" s="79">
         <v>-6</v>
@@ -15350,31 +15351,25 @@
       <c r="A27" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="311" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="313"/>
+      <c r="C27" s="312"/>
       <c r="D27" s="113">
         <v>28.4</v>
       </c>
-      <c r="E27" s="195">
-        <f>E36</f>
-        <v>44</v>
-      </c>
-      <c r="F27" s="205">
-        <f>F36</f>
-        <v>101</v>
-      </c>
-      <c r="G27" s="144" t="s">
+      <c r="E27" s="323" t="s">
         <v>568</v>
       </c>
+      <c r="F27" s="324"/>
+      <c r="G27" s="325"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="330" t="s">
+      <c r="B28" s="332" t="s">
         <v>539</v>
       </c>
-      <c r="C28" s="331"/>
+      <c r="C28" s="333"/>
       <c r="D28" s="113"/>
       <c r="E28" s="72">
         <v>2</v>
@@ -15386,10 +15381,10 @@
     </row>
     <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
-      <c r="B29" s="330" t="s">
+      <c r="B29" s="332" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="331"/>
+      <c r="C29" s="333"/>
       <c r="D29" s="113"/>
       <c r="E29" s="72">
         <v>3</v>
@@ -15401,10 +15396,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
-      <c r="B30" s="330" t="s">
+      <c r="B30" s="332" t="s">
         <v>541</v>
       </c>
-      <c r="C30" s="331"/>
+      <c r="C30" s="333"/>
       <c r="D30" s="113"/>
       <c r="E30" s="72">
         <v>4</v>
@@ -15416,10 +15411,10 @@
     </row>
     <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="330" t="s">
+      <c r="B31" s="332" t="s">
         <v>542</v>
       </c>
-      <c r="C31" s="331"/>
+      <c r="C31" s="333"/>
       <c r="D31" s="113"/>
       <c r="E31" s="72">
         <v>5</v>
@@ -15431,10 +15426,10 @@
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
-      <c r="B32" s="330" t="s">
+      <c r="B32" s="332" t="s">
         <v>543</v>
       </c>
-      <c r="C32" s="331"/>
+      <c r="C32" s="333"/>
       <c r="D32" s="113"/>
       <c r="E32" s="72">
         <v>6</v>
@@ -15444,12 +15439,12 @@
       </c>
       <c r="G32" s="142"/>
     </row>
-    <row r="33" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
-      <c r="B33" s="330" t="s">
+      <c r="B33" s="332" t="s">
         <v>544</v>
       </c>
-      <c r="C33" s="331"/>
+      <c r="C33" s="333"/>
       <c r="D33" s="113"/>
       <c r="E33" s="72">
         <v>7</v>
@@ -15459,12 +15454,12 @@
       </c>
       <c r="G33" s="142"/>
     </row>
-    <row r="34" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="330" t="s">
+      <c r="B34" s="332" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="331"/>
+      <c r="C34" s="333"/>
       <c r="D34" s="113"/>
       <c r="E34" s="72">
         <v>8</v>
@@ -15474,12 +15469,12 @@
       </c>
       <c r="G34" s="142"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21"/>
-      <c r="B35" s="330" t="s">
+      <c r="B35" s="332" t="s">
         <v>545</v>
       </c>
-      <c r="C35" s="331"/>
+      <c r="C35" s="333"/>
       <c r="D35" s="113"/>
       <c r="E35" s="79">
         <v>9</v>
@@ -15489,12 +15484,12 @@
       </c>
       <c r="G35" s="142"/>
     </row>
-    <row r="36" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="328" t="s">
+      <c r="B36" s="330" t="s">
         <v>546</v>
       </c>
-      <c r="C36" s="329"/>
+      <c r="C36" s="331"/>
       <c r="D36" s="113"/>
       <c r="E36" s="195">
         <f>SUM(E28:E35)</f>
@@ -15506,14 +15501,14 @@
       </c>
       <c r="G36" s="142"/>
     </row>
-    <row r="37" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B37" s="308" t="s">
+      <c r="B37" s="307" t="s">
         <v>369</v>
       </c>
-      <c r="C37" s="309"/>
+      <c r="C37" s="308"/>
       <c r="D37" s="113"/>
       <c r="E37" s="72">
         <v>-6</v>
@@ -15523,14 +15518,14 @@
       </c>
       <c r="G37" s="142"/>
     </row>
-    <row r="38" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B38" s="308" t="s">
+      <c r="B38" s="307" t="s">
         <v>378</v>
       </c>
-      <c r="C38" s="309"/>
+      <c r="C38" s="308"/>
       <c r="D38" s="113"/>
       <c r="E38" s="72">
         <v>-6</v>
@@ -15540,14 +15535,14 @@
       </c>
       <c r="G38" s="142"/>
     </row>
-    <row r="39" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B39" s="308" t="s">
+      <c r="B39" s="307" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="309"/>
+      <c r="C39" s="308"/>
       <c r="D39" s="113"/>
       <c r="E39" s="72">
         <v>-4</v>
@@ -15557,14 +15552,14 @@
       </c>
       <c r="G39" s="142"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B40" s="314" t="s">
+      <c r="B40" s="313" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="315"/>
+      <c r="C40" s="314"/>
       <c r="D40" s="113"/>
       <c r="E40" s="72">
         <v>-6</v>
@@ -15574,31 +15569,33 @@
       </c>
       <c r="G40" s="142"/>
     </row>
-    <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="110"/>
-      <c r="B41" s="234" t="s">
+      <c r="B41" s="233" t="s">
         <v>289</v>
       </c>
-      <c r="C41" s="235"/>
+      <c r="C41" s="234"/>
       <c r="D41" s="112"/>
       <c r="E41" s="188">
-        <f>SUM(E14:E40)</f>
-        <v>452</v>
+        <f>SUM(E36:E40,E25,E26)</f>
+        <v>132</v>
       </c>
       <c r="F41" s="188">
-        <f>SUM(F14:F40)</f>
-        <v>575</v>
+        <f>SUM(F36:F40,F25,F26)</f>
+        <v>195</v>
       </c>
       <c r="G41" s="142"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+    </row>
+    <row r="42" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B42" s="334" t="s">
+      <c r="B42" s="336" t="s">
         <v>374</v>
       </c>
-      <c r="C42" s="335"/>
+      <c r="C42" s="337"/>
       <c r="D42" s="113"/>
       <c r="E42" s="72">
         <v>6</v>
@@ -15608,14 +15605,14 @@
       </c>
       <c r="G42" s="142"/>
     </row>
-    <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B43" s="308" t="s">
+      <c r="B43" s="307" t="s">
         <v>375</v>
       </c>
-      <c r="C43" s="309"/>
+      <c r="C43" s="308"/>
       <c r="D43" s="113"/>
       <c r="E43" s="72">
         <v>-3</v>
@@ -15625,14 +15622,14 @@
       </c>
       <c r="G43" s="142"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B44" s="314" t="s">
+      <c r="B44" s="313" t="s">
         <v>376</v>
       </c>
-      <c r="C44" s="315"/>
+      <c r="C44" s="314"/>
       <c r="D44" s="113"/>
       <c r="E44" s="72">
         <v>6</v>
@@ -15642,31 +15639,31 @@
       </c>
       <c r="G44" s="142"/>
     </row>
-    <row r="45" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="110"/>
-      <c r="B45" s="234" t="s">
+      <c r="B45" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="C45" s="235"/>
+      <c r="C45" s="234"/>
       <c r="D45" s="112"/>
       <c r="E45" s="188">
         <f>SUM(E41:E44)</f>
-        <v>461</v>
+        <v>141</v>
       </c>
       <c r="F45" s="188">
         <f>SUM(F41:F44)</f>
-        <v>589</v>
+        <v>209</v>
       </c>
       <c r="G45" s="142"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B46" s="332" t="s">
+      <c r="B46" s="334" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="333"/>
+      <c r="C46" s="335"/>
       <c r="D46" s="113"/>
       <c r="E46" s="74">
         <v>1</v>
@@ -15676,20 +15673,20 @@
       </c>
       <c r="G46" s="142"/>
     </row>
-    <row r="47" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="110"/>
-      <c r="B47" s="234" t="s">
+      <c r="B47" s="233" t="s">
         <v>405</v>
       </c>
-      <c r="C47" s="235"/>
+      <c r="C47" s="234"/>
       <c r="D47" s="112"/>
       <c r="E47" s="188">
         <f>SUM(E45:E46)</f>
-        <v>462</v>
+        <v>142</v>
       </c>
       <c r="F47" s="188">
         <f>SUM(F45:F46)</f>
-        <v>594</v>
+        <v>214</v>
       </c>
       <c r="G47" s="143"/>
     </row>
@@ -15700,7 +15697,7 @@
       <c r="E55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="46">
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B37:C37"/>
@@ -15723,12 +15720,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E27:G27"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -15743,8 +15744,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DD4B0C15-1D0A-4E6A-9C64-50293F400D9C}"/>
@@ -15782,41 +15781,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="228"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="227"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="262" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="264"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="263"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -15826,37 +15825,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="252">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="254"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="253"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -15866,72 +15865,72 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="254"/>
-      <c r="J5" s="254"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="254"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="227"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="228"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="227"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="213"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="212"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="223" t="s">
+      <c r="B8" s="222" t="s">
         <v>573</v>
       </c>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="225"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="224"/>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -15939,21 +15938,21 @@
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="255" t="s">
+      <c r="A10" s="254" t="s">
         <v>292</v>
       </c>
-      <c r="B10" s="351"/>
-      <c r="C10" s="351"/>
-      <c r="D10" s="351"/>
-      <c r="E10" s="351"/>
-      <c r="F10" s="351"/>
-      <c r="G10" s="351"/>
-      <c r="H10" s="351"/>
-      <c r="I10" s="351"/>
-      <c r="J10" s="351"/>
-      <c r="K10" s="351"/>
-      <c r="L10" s="351"/>
-      <c r="M10" s="256"/>
+      <c r="B10" s="353"/>
+      <c r="C10" s="353"/>
+      <c r="D10" s="353"/>
+      <c r="E10" s="353"/>
+      <c r="F10" s="353"/>
+      <c r="G10" s="353"/>
+      <c r="H10" s="353"/>
+      <c r="I10" s="353"/>
+      <c r="J10" s="353"/>
+      <c r="K10" s="353"/>
+      <c r="L10" s="353"/>
+      <c r="M10" s="255"/>
     </row>
     <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="108" t="s">
@@ -15968,23 +15967,23 @@
       <c r="D11" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="348" t="s">
+      <c r="E11" s="350" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="349"/>
-      <c r="G11" s="349"/>
-      <c r="H11" s="349"/>
-      <c r="I11" s="349"/>
-      <c r="J11" s="349"/>
-      <c r="K11" s="349"/>
-      <c r="L11" s="349"/>
-      <c r="M11" s="350"/>
+      <c r="F11" s="351"/>
+      <c r="G11" s="351"/>
+      <c r="H11" s="351"/>
+      <c r="I11" s="351"/>
+      <c r="J11" s="351"/>
+      <c r="K11" s="351"/>
+      <c r="L11" s="351"/>
+      <c r="M11" s="352"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="342" t="s">
+      <c r="A12" s="344" t="s">
         <v>423</v>
       </c>
-      <c r="B12" s="343"/>
+      <c r="B12" s="345"/>
       <c r="C12" s="56"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
@@ -15998,8 +15997,8 @@
       <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="340"/>
-      <c r="B13" s="341"/>
+      <c r="A13" s="342"/>
+      <c r="B13" s="343"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -16013,8 +16012,8 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="336"/>
-      <c r="B14" s="337"/>
+      <c r="A14" s="338"/>
+      <c r="B14" s="339"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
@@ -16028,8 +16027,8 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="336"/>
-      <c r="B15" s="337"/>
+      <c r="A15" s="338"/>
+      <c r="B15" s="339"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
@@ -16043,8 +16042,8 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="336"/>
-      <c r="B16" s="337"/>
+      <c r="A16" s="338"/>
+      <c r="B16" s="339"/>
       <c r="C16" s="60" t="s">
         <v>513</v>
       </c>
@@ -16060,8 +16059,8 @@
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="336"/>
-      <c r="B17" s="337"/>
+      <c r="A17" s="338"/>
+      <c r="B17" s="339"/>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
@@ -16075,8 +16074,8 @@
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="336"/>
-      <c r="B18" s="337"/>
+      <c r="A18" s="338"/>
+      <c r="B18" s="339"/>
       <c r="C18" s="60" t="s">
         <v>424</v>
       </c>
@@ -16092,8 +16091,8 @@
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="336"/>
-      <c r="B19" s="337"/>
+      <c r="A19" s="338"/>
+      <c r="B19" s="339"/>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
@@ -16107,8 +16106,8 @@
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="336"/>
-      <c r="B20" s="337"/>
+      <c r="A20" s="338"/>
+      <c r="B20" s="339"/>
       <c r="C20" s="60" t="s">
         <v>425</v>
       </c>
@@ -16124,8 +16123,8 @@
       <c r="M20" s="31"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="336"/>
-      <c r="B21" s="337"/>
+      <c r="A21" s="338"/>
+      <c r="B21" s="339"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
@@ -16139,8 +16138,8 @@
       <c r="M21" s="31"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="336"/>
-      <c r="B22" s="337"/>
+      <c r="A22" s="338"/>
+      <c r="B22" s="339"/>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -16154,8 +16153,8 @@
       <c r="M22" s="31"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="336"/>
-      <c r="B23" s="337"/>
+      <c r="A23" s="338"/>
+      <c r="B23" s="339"/>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
@@ -16169,8 +16168,8 @@
       <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="336"/>
-      <c r="B24" s="337"/>
+      <c r="A24" s="338"/>
+      <c r="B24" s="339"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
@@ -16184,8 +16183,8 @@
       <c r="M24" s="31"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="336"/>
-      <c r="B25" s="337"/>
+      <c r="A25" s="338"/>
+      <c r="B25" s="339"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
@@ -16199,8 +16198,8 @@
       <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="336"/>
-      <c r="B26" s="337"/>
+      <c r="A26" s="338"/>
+      <c r="B26" s="339"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
@@ -16214,8 +16213,8 @@
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="336"/>
-      <c r="B27" s="337"/>
+      <c r="A27" s="338"/>
+      <c r="B27" s="339"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
@@ -16229,8 +16228,8 @@
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="336"/>
-      <c r="B28" s="337"/>
+      <c r="A28" s="338"/>
+      <c r="B28" s="339"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
@@ -16244,8 +16243,8 @@
       <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="336"/>
-      <c r="B29" s="337"/>
+      <c r="A29" s="338"/>
+      <c r="B29" s="339"/>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
@@ -16259,8 +16258,8 @@
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="336"/>
-      <c r="B30" s="337"/>
+      <c r="A30" s="338"/>
+      <c r="B30" s="339"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
@@ -16274,8 +16273,8 @@
       <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="338"/>
-      <c r="B31" s="339"/>
+      <c r="A31" s="340"/>
+      <c r="B31" s="341"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -16295,10 +16294,10 @@
       <c r="B32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="241" t="s">
+      <c r="C32" s="240" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="243"/>
+      <c r="D32" s="242"/>
       <c r="E32" s="60" t="s">
         <v>398</v>
       </c>
@@ -16395,10 +16394,10 @@
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="233" t="s">
+      <c r="C37" s="232" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="235"/>
+      <c r="D37" s="234"/>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
@@ -16688,10 +16687,10 @@
       <c r="B52" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="233" t="s">
+      <c r="C52" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="235"/>
+      <c r="D52" s="234"/>
       <c r="E52" s="59"/>
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
@@ -16781,10 +16780,10 @@
     <row r="57" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="233" t="s">
+      <c r="C57" s="232" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="235"/>
+      <c r="D57" s="234"/>
       <c r="E57" s="59"/>
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
@@ -16798,10 +16797,10 @@
     <row r="58" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="233" t="s">
+      <c r="C58" s="232" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="235"/>
+      <c r="D58" s="234"/>
       <c r="E58" s="59"/>
       <c r="F58" s="60"/>
       <c r="G58" s="60"/>
@@ -17031,10 +17030,10 @@
       <c r="B70" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="233" t="s">
+      <c r="C70" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="234"/>
+      <c r="D70" s="233"/>
       <c r="E70" s="59"/>
       <c r="F70" s="60"/>
       <c r="G70" s="60"/>
@@ -17319,7 +17318,7 @@
       <c r="C85" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D85" s="207">
+      <c r="D85" s="206">
         <f>SUM(D80:D84,D79,D75)</f>
         <v>73</v>
       </c>
@@ -17334,21 +17333,21 @@
       <c r="M85" s="62"/>
     </row>
     <row r="86" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="344" t="s">
+      <c r="A86" s="346" t="s">
         <v>292</v>
       </c>
-      <c r="B86" s="345"/>
-      <c r="C86" s="345"/>
-      <c r="D86" s="345"/>
-      <c r="E86" s="346"/>
-      <c r="F86" s="346"/>
-      <c r="G86" s="346"/>
-      <c r="H86" s="346"/>
-      <c r="I86" s="346"/>
-      <c r="J86" s="346"/>
-      <c r="K86" s="346"/>
-      <c r="L86" s="346"/>
-      <c r="M86" s="347"/>
+      <c r="B86" s="347"/>
+      <c r="C86" s="347"/>
+      <c r="D86" s="347"/>
+      <c r="E86" s="348"/>
+      <c r="F86" s="348"/>
+      <c r="G86" s="348"/>
+      <c r="H86" s="348"/>
+      <c r="I86" s="348"/>
+      <c r="J86" s="348"/>
+      <c r="K86" s="348"/>
+      <c r="L86" s="348"/>
+      <c r="M86" s="349"/>
     </row>
     <row r="87" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="52" t="s">
@@ -17363,17 +17362,17 @@
       <c r="D87" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E87" s="348" t="s">
+      <c r="E87" s="350" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="349"/>
-      <c r="G87" s="349"/>
-      <c r="H87" s="349"/>
-      <c r="I87" s="349"/>
-      <c r="J87" s="349"/>
-      <c r="K87" s="349"/>
-      <c r="L87" s="349"/>
-      <c r="M87" s="350"/>
+      <c r="F87" s="351"/>
+      <c r="G87" s="351"/>
+      <c r="H87" s="351"/>
+      <c r="I87" s="351"/>
+      <c r="J87" s="351"/>
+      <c r="K87" s="351"/>
+      <c r="L87" s="351"/>
+      <c r="M87" s="352"/>
     </row>
     <row r="88" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="48" t="s">
@@ -17398,10 +17397,10 @@
     </row>
     <row r="89" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
-      <c r="C89" s="233" t="s">
+      <c r="C89" s="232" t="s">
         <v>204</v>
       </c>
-      <c r="D89" s="235"/>
+      <c r="D89" s="234"/>
       <c r="E89" s="66"/>
       <c r="F89" s="67"/>
       <c r="G89" s="67"/>
@@ -17453,7 +17452,7 @@
       <c r="C92" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="208">
+      <c r="D92" s="207">
         <f>SUM(D90:D91)</f>
         <v>5</v>
       </c>
@@ -17670,7 +17669,7 @@
       <c r="C104" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D104" s="208">
+      <c r="D104" s="207">
         <f>SUM(D93:D103)</f>
         <v>65</v>
       </c>
@@ -17691,10 +17690,10 @@
       <c r="B105" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="233" t="s">
+      <c r="C105" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="235"/>
+      <c r="D105" s="234"/>
       <c r="E105" s="56"/>
       <c r="F105" s="57"/>
       <c r="G105" s="57"/>
@@ -17784,10 +17783,10 @@
     <row r="110" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="233" t="s">
+      <c r="C110" s="232" t="s">
         <v>226</v>
       </c>
-      <c r="D110" s="235"/>
+      <c r="D110" s="234"/>
       <c r="E110" s="59"/>
       <c r="F110" s="60"/>
       <c r="G110" s="60"/>
@@ -17801,10 +17800,10 @@
     <row r="111" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="233" t="s">
+      <c r="C111" s="232" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="235"/>
+      <c r="D111" s="234"/>
       <c r="E111" s="59"/>
       <c r="F111" s="60"/>
       <c r="G111" s="60"/>
@@ -18149,10 +18148,10 @@
       <c r="B129" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C129" s="233" t="s">
+      <c r="C129" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="235"/>
+      <c r="D129" s="234"/>
       <c r="E129" s="56"/>
       <c r="F129" s="57"/>
       <c r="G129" s="57"/>
@@ -18242,10 +18241,10 @@
     <row r="134" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="233" t="s">
+      <c r="C134" s="232" t="s">
         <v>248</v>
       </c>
-      <c r="D134" s="235"/>
+      <c r="D134" s="234"/>
       <c r="E134" s="59"/>
       <c r="F134" s="60"/>
       <c r="G134" s="60"/>
@@ -18259,10 +18258,10 @@
     <row r="135" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="233" t="s">
+      <c r="C135" s="232" t="s">
         <v>249</v>
       </c>
-      <c r="D135" s="235"/>
+      <c r="D135" s="234"/>
       <c r="E135" s="59"/>
       <c r="F135" s="60"/>
       <c r="G135" s="60"/>
@@ -18276,10 +18275,10 @@
     <row r="136" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="233" t="s">
+      <c r="C136" s="232" t="s">
         <v>250</v>
       </c>
-      <c r="D136" s="235"/>
+      <c r="D136" s="234"/>
       <c r="E136" s="59"/>
       <c r="F136" s="60"/>
       <c r="G136" s="60"/>
@@ -18586,10 +18585,10 @@
       <c r="B152" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C152" s="233" t="s">
+      <c r="C152" s="232" t="s">
         <v>58</v>
       </c>
-      <c r="D152" s="235"/>
+      <c r="D152" s="234"/>
       <c r="E152" s="56"/>
       <c r="F152" s="57"/>
       <c r="G152" s="57"/>
@@ -18608,13 +18607,13 @@
       </c>
       <c r="D153" s="72"/>
       <c r="E153" s="59"/>
-      <c r="F153" s="355"/>
-      <c r="G153" s="355"/>
-      <c r="H153" s="355"/>
-      <c r="I153" s="355"/>
-      <c r="J153" s="355"/>
-      <c r="K153" s="355"/>
-      <c r="L153" s="355"/>
+      <c r="F153" s="60"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="60"/>
+      <c r="I153" s="60"/>
+      <c r="J153" s="60"/>
+      <c r="K153" s="60"/>
+      <c r="L153" s="60"/>
       <c r="M153" s="31"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
@@ -18625,13 +18624,13 @@
       </c>
       <c r="D154" s="72"/>
       <c r="E154" s="59"/>
-      <c r="F154" s="355"/>
-      <c r="G154" s="355"/>
-      <c r="H154" s="355"/>
-      <c r="I154" s="355"/>
-      <c r="J154" s="355"/>
-      <c r="K154" s="355"/>
-      <c r="L154" s="355"/>
+      <c r="F154" s="60"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="60"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="60"/>
+      <c r="K154" s="60"/>
+      <c r="L154" s="60"/>
       <c r="M154" s="31"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
@@ -18642,13 +18641,13 @@
       </c>
       <c r="D155" s="72"/>
       <c r="E155" s="59"/>
-      <c r="F155" s="355"/>
-      <c r="G155" s="355"/>
-      <c r="H155" s="355"/>
-      <c r="I155" s="355"/>
-      <c r="J155" s="355"/>
-      <c r="K155" s="355"/>
-      <c r="L155" s="355"/>
+      <c r="F155" s="60"/>
+      <c r="G155" s="60"/>
+      <c r="H155" s="60"/>
+      <c r="I155" s="60"/>
+      <c r="J155" s="60"/>
+      <c r="K155" s="60"/>
+      <c r="L155" s="60"/>
       <c r="M155" s="31"/>
     </row>
     <row r="156" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18659,13 +18658,13 @@
       </c>
       <c r="D156" s="79"/>
       <c r="E156" s="59"/>
-      <c r="F156" s="355"/>
-      <c r="G156" s="355"/>
-      <c r="H156" s="355"/>
-      <c r="I156" s="355"/>
-      <c r="J156" s="355"/>
-      <c r="K156" s="355"/>
-      <c r="L156" s="355"/>
+      <c r="F156" s="60"/>
+      <c r="G156" s="60"/>
+      <c r="H156" s="60"/>
+      <c r="I156" s="60"/>
+      <c r="J156" s="60"/>
+      <c r="K156" s="60"/>
+      <c r="L156" s="60"/>
       <c r="M156" s="31"/>
     </row>
     <row r="157" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18679,13 +18678,13 @@
         <v>0</v>
       </c>
       <c r="E157" s="59"/>
-      <c r="F157" s="355"/>
-      <c r="G157" s="355"/>
-      <c r="H157" s="355"/>
-      <c r="I157" s="355"/>
-      <c r="J157" s="355"/>
-      <c r="K157" s="355"/>
-      <c r="L157" s="355"/>
+      <c r="F157" s="60"/>
+      <c r="G157" s="60"/>
+      <c r="H157" s="60"/>
+      <c r="I157" s="60"/>
+      <c r="J157" s="60"/>
+      <c r="K157" s="60"/>
+      <c r="L157" s="60"/>
       <c r="M157" s="31"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -18698,13 +18697,13 @@
         <v>5</v>
       </c>
       <c r="E158" s="59"/>
-      <c r="F158" s="355"/>
-      <c r="G158" s="355"/>
-      <c r="H158" s="355"/>
-      <c r="I158" s="355"/>
-      <c r="J158" s="355"/>
-      <c r="K158" s="355"/>
-      <c r="L158" s="355"/>
+      <c r="F158" s="60"/>
+      <c r="G158" s="60"/>
+      <c r="H158" s="60"/>
+      <c r="I158" s="60"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="60"/>
+      <c r="L158" s="60"/>
       <c r="M158" s="31"/>
     </row>
     <row r="159" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18715,13 +18714,13 @@
       </c>
       <c r="D159" s="78"/>
       <c r="E159" s="59"/>
-      <c r="F159" s="355"/>
-      <c r="G159" s="355"/>
-      <c r="H159" s="355"/>
-      <c r="I159" s="355"/>
-      <c r="J159" s="355"/>
-      <c r="K159" s="355"/>
-      <c r="L159" s="355"/>
+      <c r="F159" s="60"/>
+      <c r="G159" s="60"/>
+      <c r="H159" s="60"/>
+      <c r="I159" s="60"/>
+      <c r="J159" s="60"/>
+      <c r="K159" s="60"/>
+      <c r="L159" s="60"/>
       <c r="M159" s="31"/>
     </row>
     <row r="160" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18730,18 +18729,18 @@
       <c r="C160" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D160" s="209">
+      <c r="D160" s="208">
         <f>SUM(D158:D159)</f>
         <v>5</v>
       </c>
       <c r="E160" s="59"/>
-      <c r="F160" s="355"/>
-      <c r="G160" s="355"/>
-      <c r="H160" s="355"/>
-      <c r="I160" s="355"/>
-      <c r="J160" s="355"/>
-      <c r="K160" s="355"/>
-      <c r="L160" s="355"/>
+      <c r="F160" s="60"/>
+      <c r="G160" s="60"/>
+      <c r="H160" s="60"/>
+      <c r="I160" s="60"/>
+      <c r="J160" s="60"/>
+      <c r="K160" s="60"/>
+      <c r="L160" s="60"/>
       <c r="M160" s="31"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -18752,13 +18751,13 @@
       </c>
       <c r="D161" s="78"/>
       <c r="E161" s="59"/>
-      <c r="F161" s="355"/>
-      <c r="G161" s="355"/>
-      <c r="H161" s="355"/>
-      <c r="I161" s="355"/>
-      <c r="J161" s="355"/>
-      <c r="K161" s="355"/>
-      <c r="L161" s="355"/>
+      <c r="F161" s="60"/>
+      <c r="G161" s="60"/>
+      <c r="H161" s="60"/>
+      <c r="I161" s="60"/>
+      <c r="J161" s="60"/>
+      <c r="K161" s="60"/>
+      <c r="L161" s="60"/>
       <c r="M161" s="31"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -18769,13 +18768,13 @@
       </c>
       <c r="D162" s="78"/>
       <c r="E162" s="59"/>
-      <c r="F162" s="355"/>
-      <c r="G162" s="355"/>
-      <c r="H162" s="355"/>
-      <c r="I162" s="355"/>
-      <c r="J162" s="355"/>
-      <c r="K162" s="355"/>
-      <c r="L162" s="355"/>
+      <c r="F162" s="60"/>
+      <c r="G162" s="60"/>
+      <c r="H162" s="60"/>
+      <c r="I162" s="60"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="60"/>
+      <c r="L162" s="60"/>
       <c r="M162" s="31"/>
     </row>
     <row r="163" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18786,13 +18785,13 @@
       </c>
       <c r="D163" s="78"/>
       <c r="E163" s="59"/>
-      <c r="F163" s="355"/>
-      <c r="G163" s="355"/>
-      <c r="H163" s="355"/>
-      <c r="I163" s="355"/>
-      <c r="J163" s="355"/>
-      <c r="K163" s="355"/>
-      <c r="L163" s="355"/>
+      <c r="F163" s="60"/>
+      <c r="G163" s="60"/>
+      <c r="H163" s="60"/>
+      <c r="I163" s="60"/>
+      <c r="J163" s="60"/>
+      <c r="K163" s="60"/>
+      <c r="L163" s="60"/>
       <c r="M163" s="31"/>
     </row>
     <row r="164" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18801,18 +18800,18 @@
       <c r="C164" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="D164" s="209">
+      <c r="D164" s="208">
         <f>SUM(D161:D163)</f>
         <v>0</v>
       </c>
       <c r="E164" s="59"/>
-      <c r="F164" s="355"/>
-      <c r="G164" s="355"/>
-      <c r="H164" s="355"/>
-      <c r="I164" s="355"/>
-      <c r="J164" s="355"/>
-      <c r="K164" s="355"/>
-      <c r="L164" s="355"/>
+      <c r="F164" s="60"/>
+      <c r="G164" s="60"/>
+      <c r="H164" s="60"/>
+      <c r="I164" s="60"/>
+      <c r="J164" s="60"/>
+      <c r="K164" s="60"/>
+      <c r="L164" s="60"/>
       <c r="M164" s="31"/>
     </row>
     <row r="165" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18825,13 +18824,13 @@
         <v>1</v>
       </c>
       <c r="E165" s="59"/>
-      <c r="F165" s="355"/>
-      <c r="G165" s="355"/>
-      <c r="H165" s="355"/>
-      <c r="I165" s="355"/>
-      <c r="J165" s="355"/>
-      <c r="K165" s="355"/>
-      <c r="L165" s="355"/>
+      <c r="F165" s="60"/>
+      <c r="G165" s="60"/>
+      <c r="H165" s="60"/>
+      <c r="I165" s="60"/>
+      <c r="J165" s="60"/>
+      <c r="K165" s="60"/>
+      <c r="L165" s="60"/>
       <c r="M165" s="31"/>
     </row>
     <row r="166" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18845,13 +18844,13 @@
         <v>6</v>
       </c>
       <c r="E166" s="59"/>
-      <c r="F166" s="355"/>
-      <c r="G166" s="355"/>
-      <c r="H166" s="355"/>
-      <c r="I166" s="355"/>
-      <c r="J166" s="355"/>
-      <c r="K166" s="355"/>
-      <c r="L166" s="355"/>
+      <c r="F166" s="60"/>
+      <c r="G166" s="60"/>
+      <c r="H166" s="60"/>
+      <c r="I166" s="60"/>
+      <c r="J166" s="60"/>
+      <c r="K166" s="60"/>
+      <c r="L166" s="60"/>
       <c r="M166" s="31"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -18862,13 +18861,13 @@
       </c>
       <c r="D167" s="26"/>
       <c r="E167" s="59"/>
-      <c r="F167" s="355"/>
-      <c r="G167" s="355"/>
-      <c r="H167" s="355"/>
-      <c r="I167" s="355"/>
-      <c r="J167" s="355"/>
-      <c r="K167" s="355"/>
-      <c r="L167" s="355"/>
+      <c r="F167" s="60"/>
+      <c r="G167" s="60"/>
+      <c r="H167" s="60"/>
+      <c r="I167" s="60"/>
+      <c r="J167" s="60"/>
+      <c r="K167" s="60"/>
+      <c r="L167" s="60"/>
       <c r="M167" s="31"/>
     </row>
     <row r="168" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
@@ -18879,13 +18878,13 @@
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="59"/>
-      <c r="F168" s="355"/>
-      <c r="G168" s="355"/>
-      <c r="H168" s="355"/>
-      <c r="I168" s="355"/>
-      <c r="J168" s="355"/>
-      <c r="K168" s="355"/>
-      <c r="L168" s="355"/>
+      <c r="F168" s="60"/>
+      <c r="G168" s="60"/>
+      <c r="H168" s="60"/>
+      <c r="I168" s="60"/>
+      <c r="J168" s="60"/>
+      <c r="K168" s="60"/>
+      <c r="L168" s="60"/>
       <c r="M168" s="31"/>
     </row>
     <row r="169" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18910,10 +18909,10 @@
       <c r="B170" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C170" s="233" t="s">
+      <c r="C170" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="D170" s="235"/>
+      <c r="D170" s="234"/>
       <c r="E170" s="59"/>
       <c r="F170" s="60"/>
       <c r="G170" s="60"/>
@@ -19054,7 +19053,7 @@
       <c r="C178" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D178" s="209">
+      <c r="D178" s="208">
         <f>SUM(D176:D177)</f>
         <v>5</v>
       </c>
@@ -19125,7 +19124,7 @@
       <c r="C182" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="D182" s="209">
+      <c r="D182" s="208">
         <f>SUM(D179:D181)</f>
         <v>0</v>
       </c>
@@ -19185,10 +19184,10 @@
       <c r="B185" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="233" t="s">
+      <c r="C185" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="D185" s="235"/>
+      <c r="D185" s="234"/>
       <c r="E185" s="56"/>
       <c r="F185" s="57"/>
       <c r="G185" s="57"/>
@@ -19264,10 +19263,10 @@
       <c r="B189" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C189" s="233" t="s">
+      <c r="C189" s="232" t="s">
         <v>257</v>
       </c>
-      <c r="D189" s="235"/>
+      <c r="D189" s="234"/>
       <c r="E189" s="56"/>
       <c r="F189" s="57"/>
       <c r="G189" s="57"/>
@@ -19322,7 +19321,7 @@
       <c r="C192" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="D192" s="210">
+      <c r="D192" s="209">
         <f>SUM(D189:D191)</f>
         <v>7</v>
       </c>
@@ -19910,10 +19909,10 @@
       <c r="B228" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C228" s="233" t="s">
+      <c r="C228" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="D228" s="234"/>
+      <c r="D228" s="233"/>
       <c r="E228" s="42"/>
       <c r="F228" s="44"/>
       <c r="G228" s="44"/>

--- a/ifrs-sme-model.xlsx
+++ b/ifrs-sme-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63DD4DE-7B78-467D-929F-3FB9C17B76C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A930194-8677-41B1-B43F-7299A55F7A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="692" firstSheet="3" activeTab="6" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="12" r:id="rId1"/>
@@ -2446,7 +2446,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2803,6 +2803,33 @@
     <xf numFmtId="2" fontId="1" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2821,24 +2848,6 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2848,14 +2857,56 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2869,13 +2920,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2887,67 +2950,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2974,23 +2989,20 @@
     <xf numFmtId="14" fontId="5" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2998,6 +3010,12 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3016,23 +3034,23 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3040,6 +3058,12 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3052,32 +3076,23 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3088,11 +3103,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3100,11 +3115,20 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3118,38 +3142,17 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3167,17 +3170,50 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3191,42 +3227,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3234,6 +3234,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5118,7 +5146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E39E00-679F-4C07-AF1E-EEF0925BBADB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -5147,41 +5175,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="210" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="227"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="212"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="261" t="str">
+      <c r="B2" s="266" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="263"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="267"/>
+      <c r="M2" s="268"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -5191,37 +5219,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="251">
+      <c r="B4" s="237">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="252"/>
-      <c r="J4" s="252"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="252"/>
-      <c r="M4" s="253"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="239"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -5231,90 +5259,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="253"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="239"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="225" t="s">
+      <c r="A6" s="210" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="227"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="212"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="212"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="221"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="222" t="s">
+      <c r="B8" s="225" t="s">
         <v>574</v>
       </c>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="224"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="226"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="227"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="254" t="s">
+      <c r="A11" s="240" t="s">
         <v>514</v>
       </c>
-      <c r="B11" s="353"/>
-      <c r="C11" s="353"/>
-      <c r="D11" s="353"/>
-      <c r="E11" s="353"/>
-      <c r="F11" s="353"/>
-      <c r="G11" s="353"/>
-      <c r="H11" s="353"/>
-      <c r="I11" s="353"/>
-      <c r="J11" s="353"/>
-      <c r="K11" s="353"/>
-      <c r="L11" s="353"/>
-      <c r="M11" s="255"/>
+      <c r="B11" s="338"/>
+      <c r="C11" s="338"/>
+      <c r="D11" s="338"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="338"/>
+      <c r="G11" s="338"/>
+      <c r="H11" s="338"/>
+      <c r="I11" s="338"/>
+      <c r="J11" s="338"/>
+      <c r="K11" s="338"/>
+      <c r="L11" s="338"/>
+      <c r="M11" s="241"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="52" t="s">
@@ -5329,16 +5357,16 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="346" t="s">
+      <c r="E12" s="344" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="347"/>
-      <c r="G12" s="347"/>
-      <c r="H12" s="347"/>
-      <c r="I12" s="347"/>
-      <c r="J12" s="347"/>
-      <c r="K12" s="347"/>
-      <c r="L12" s="347"/>
+      <c r="F12" s="345"/>
+      <c r="G12" s="345"/>
+      <c r="H12" s="345"/>
+      <c r="I12" s="345"/>
+      <c r="J12" s="345"/>
+      <c r="K12" s="345"/>
+      <c r="L12" s="345"/>
       <c r="M12" s="354"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5773,41 +5801,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="210" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="227"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="212"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="261" t="str">
+      <c r="B2" s="266" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="263"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="267"/>
+      <c r="M2" s="268"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -5817,37 +5845,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="251">
+      <c r="B4" s="237">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="252"/>
-      <c r="J4" s="252"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="252"/>
-      <c r="M4" s="253"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="239"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -5857,90 +5885,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="253"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="239"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="225" t="s">
+      <c r="A6" s="210" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="227"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="212"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="212"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="221"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="222" t="s">
+      <c r="B8" s="225" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="224"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="226"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="227"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="254" t="s">
+      <c r="A11" s="240" t="s">
         <v>553</v>
       </c>
-      <c r="B11" s="353"/>
-      <c r="C11" s="353"/>
-      <c r="D11" s="353"/>
-      <c r="E11" s="353"/>
-      <c r="F11" s="353"/>
-      <c r="G11" s="353"/>
-      <c r="H11" s="353"/>
-      <c r="I11" s="353"/>
-      <c r="J11" s="353"/>
-      <c r="K11" s="353"/>
-      <c r="L11" s="353"/>
-      <c r="M11" s="255"/>
+      <c r="B11" s="338"/>
+      <c r="C11" s="338"/>
+      <c r="D11" s="338"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="338"/>
+      <c r="G11" s="338"/>
+      <c r="H11" s="338"/>
+      <c r="I11" s="338"/>
+      <c r="J11" s="338"/>
+      <c r="K11" s="338"/>
+      <c r="L11" s="338"/>
+      <c r="M11" s="241"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="108" t="s">
@@ -5955,16 +5983,16 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="346" t="s">
+      <c r="E12" s="344" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="347"/>
-      <c r="G12" s="347"/>
-      <c r="H12" s="347"/>
-      <c r="I12" s="347"/>
-      <c r="J12" s="347"/>
-      <c r="K12" s="347"/>
-      <c r="L12" s="347"/>
+      <c r="F12" s="345"/>
+      <c r="G12" s="345"/>
+      <c r="H12" s="345"/>
+      <c r="I12" s="345"/>
+      <c r="J12" s="345"/>
+      <c r="K12" s="345"/>
+      <c r="L12" s="345"/>
       <c r="M12" s="354"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6168,10 +6196,10 @@
       <c r="A23" s="137">
         <v>7.21</v>
       </c>
-      <c r="B23" s="232" t="s">
+      <c r="B23" s="234" t="s">
         <v>564</v>
       </c>
-      <c r="C23" s="234"/>
+      <c r="C23" s="236"/>
       <c r="D23" s="41"/>
       <c r="E23" s="61"/>
       <c r="F23" s="10"/>
@@ -6938,119 +6966,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="210" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="227"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="212"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="213" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="218"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="107" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="218"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="215"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="213" t="s">
         <v>421</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="218"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="215"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>547</v>
       </c>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="213" t="s">
         <v>550</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="218"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="215"/>
     </row>
     <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107" t="s">
         <v>418</v>
       </c>
-      <c r="B6" s="216" t="s">
+      <c r="B6" s="213" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="218"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="215"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="107" t="s">
         <v>548</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="213" t="s">
         <v>551</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="218"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="215"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="219">
+      <c r="B8" s="216">
         <v>45292</v>
       </c>
-      <c r="C8" s="220"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="221"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
     </row>
     <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="219">
+      <c r="B9" s="216">
         <v>45657</v>
       </c>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="221"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="218"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="117" t="s">
@@ -7123,95 +7151,95 @@
       <c r="A17" s="105" t="s">
         <v>407</v>
       </c>
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="219" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="212"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="220"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="221"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" s="105"/>
-      <c r="B18" s="213" t="s">
+      <c r="B18" s="222" t="s">
         <v>410</v>
       </c>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="215"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="224"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" s="105"/>
-      <c r="B19" s="213" t="s">
+      <c r="B19" s="222" t="s">
         <v>411</v>
       </c>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="215"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="223"/>
+      <c r="G19" s="224"/>
     </row>
     <row r="20" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="106"/>
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="225" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="223"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="223"/>
-      <c r="F20" s="223"/>
-      <c r="G20" s="224"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="227"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="105" t="s">
         <v>408</v>
       </c>
-      <c r="B21" s="219" t="s">
+      <c r="B21" s="216" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="220"/>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="221"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="218"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="104" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="219" t="s">
         <v>415</v>
       </c>
-      <c r="C22" s="211"/>
-      <c r="D22" s="211"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="212"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="221"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A23" s="105"/>
-      <c r="B23" s="213" t="s">
+      <c r="B23" s="222" t="s">
         <v>416</v>
       </c>
-      <c r="C23" s="214"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="215"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="223"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="224"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A24" s="105"/>
-      <c r="B24" s="213" t="s">
+      <c r="B24" s="222" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="215"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="223"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="224"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A25" s="105"/>
@@ -7281,14 +7309,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
@@ -7298,6 +7318,14 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
@@ -7333,118 +7361,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="210" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="227"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="212"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="245" t="str">
+      <c r="B2" s="228" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="247"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="230"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="245" t="str">
+      <c r="B3" s="228" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="247"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="230"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="251">
+      <c r="B4" s="237">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="253"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="251">
+      <c r="B5" s="237">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="253"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="225" t="s">
+      <c r="A6" s="210" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="227"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="212"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="256" t="s">
+      <c r="B7" s="242" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="258"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="244"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="248" t="s">
+      <c r="B8" s="231" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249"/>
-      <c r="G8" s="250"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="233"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="254" t="s">
+      <c r="B10" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="255"/>
+      <c r="C10" s="241"/>
       <c r="D10" s="138" t="s">
         <v>73</v>
       </c>
@@ -7461,33 +7489,33 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="232" t="s">
+      <c r="B11" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="234"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="236"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="240" t="s">
+      <c r="B12" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="241"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="241"/>
-      <c r="G12" s="242"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="255"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="230" t="s">
+      <c r="B13" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="231"/>
+      <c r="C13" s="248"/>
       <c r="D13" s="6" t="s">
         <v>123</v>
       </c>
@@ -7506,10 +7534,10 @@
       <c r="A14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="245" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="229"/>
+      <c r="C14" s="246"/>
       <c r="D14" s="7"/>
       <c r="E14" s="72"/>
       <c r="F14" s="78">
@@ -7521,10 +7549,10 @@
       <c r="A15" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="228" t="s">
+      <c r="B15" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="229"/>
+      <c r="C15" s="246"/>
       <c r="D15" s="7"/>
       <c r="E15" s="72"/>
       <c r="F15" s="78"/>
@@ -7534,10 +7562,10 @@
       <c r="A16" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="228" t="s">
+      <c r="B16" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="229"/>
+      <c r="C16" s="246"/>
       <c r="D16" s="7"/>
       <c r="E16" s="72">
         <v>20</v>
@@ -7551,10 +7579,10 @@
       <c r="A17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="229"/>
+      <c r="C17" s="246"/>
       <c r="D17" s="7"/>
       <c r="E17" s="72">
         <v>30</v>
@@ -7568,10 +7596,10 @@
       <c r="A18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="228" t="s">
+      <c r="B18" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="229"/>
+      <c r="C18" s="246"/>
       <c r="D18" s="7"/>
       <c r="E18" s="72"/>
       <c r="F18" s="78"/>
@@ -7581,10 +7609,10 @@
       <c r="A19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="228" t="s">
+      <c r="B19" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="229"/>
+      <c r="C19" s="246"/>
       <c r="D19" s="7"/>
       <c r="E19" s="72"/>
       <c r="F19" s="78"/>
@@ -7594,10 +7622,10 @@
       <c r="A20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="228" t="s">
+      <c r="B20" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="229"/>
+      <c r="C20" s="246"/>
       <c r="D20" s="7"/>
       <c r="E20" s="72"/>
       <c r="F20" s="78"/>
@@ -7607,10 +7635,10 @@
       <c r="A21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="245" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="229"/>
+      <c r="C21" s="246"/>
       <c r="D21" s="7"/>
       <c r="E21" s="72"/>
       <c r="F21" s="78"/>
@@ -7620,10 +7648,10 @@
       <c r="A22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="228" t="s">
+      <c r="B22" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="229"/>
+      <c r="C22" s="246"/>
       <c r="D22" s="7" t="s">
         <v>124</v>
       </c>
@@ -7640,10 +7668,10 @@
       <c r="A23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="228" t="s">
+      <c r="B23" s="245" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="229"/>
+      <c r="C23" s="246"/>
       <c r="D23" s="7"/>
       <c r="E23" s="72"/>
       <c r="F23" s="78"/>
@@ -7653,10 +7681,10 @@
       <c r="A24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="228" t="s">
+      <c r="B24" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="229"/>
+      <c r="C24" s="246"/>
       <c r="D24" s="7"/>
       <c r="E24" s="72"/>
       <c r="F24" s="78"/>
@@ -7666,10 +7694,10 @@
       <c r="A25" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="228" t="s">
+      <c r="B25" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="229"/>
+      <c r="C25" s="246"/>
       <c r="D25" s="7"/>
       <c r="E25" s="72"/>
       <c r="F25" s="78"/>
@@ -7679,10 +7707,10 @@
       <c r="A26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="228" t="s">
+      <c r="B26" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="229"/>
+      <c r="C26" s="246"/>
       <c r="D26" s="7"/>
       <c r="E26" s="72"/>
       <c r="F26" s="78"/>
@@ -7692,20 +7720,20 @@
       <c r="A27" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="238" t="s">
+      <c r="B27" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="239"/>
+      <c r="C27" s="252"/>
       <c r="D27" s="8"/>
       <c r="E27" s="79"/>
       <c r="F27" s="78"/>
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="243" t="s">
+      <c r="B28" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="244"/>
+      <c r="C28" s="250"/>
       <c r="E28" s="184">
         <f>SUM(E13:E27)</f>
         <v>51</v>
@@ -7733,23 +7761,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="232" t="s">
+      <c r="B31" s="234" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="233"/>
-      <c r="D31" s="233"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="233"/>
-      <c r="G31" s="233"/>
+      <c r="C31" s="235"/>
+      <c r="D31" s="235"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="230" t="s">
+      <c r="B32" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="231"/>
+      <c r="C32" s="248"/>
       <c r="D32" s="6" t="s">
         <v>125</v>
       </c>
@@ -7768,10 +7796,10 @@
       <c r="A33" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="228" t="s">
+      <c r="B33" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="229"/>
+      <c r="C33" s="246"/>
       <c r="D33" s="7" t="s">
         <v>126</v>
       </c>
@@ -7788,10 +7816,10 @@
       <c r="A34" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="228" t="s">
+      <c r="B34" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="229"/>
+      <c r="C34" s="246"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72"/>
       <c r="F34" s="72"/>
@@ -7801,10 +7829,10 @@
       <c r="A35" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="228" t="s">
+      <c r="B35" s="245" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="229"/>
+      <c r="C35" s="246"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72"/>
       <c r="F35" s="72"/>
@@ -7814,10 +7842,10 @@
       <c r="A36" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="228" t="s">
+      <c r="B36" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="229"/>
+      <c r="C36" s="246"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72"/>
       <c r="F36" s="72"/>
@@ -7827,10 +7855,10 @@
       <c r="A37" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="228" t="s">
+      <c r="B37" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="229"/>
+      <c r="C37" s="246"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
@@ -7840,10 +7868,10 @@
       <c r="A38" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="228" t="s">
+      <c r="B38" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="229"/>
+      <c r="C38" s="246"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72"/>
       <c r="F38" s="72"/>
@@ -7853,10 +7881,10 @@
       <c r="A39" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="228" t="s">
+      <c r="B39" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="229"/>
+      <c r="C39" s="246"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>10</v>
@@ -7870,20 +7898,20 @@
       <c r="A40" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="238" t="s">
+      <c r="B40" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="239"/>
+      <c r="C40" s="252"/>
       <c r="D40" s="8"/>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
       <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="232" t="s">
+      <c r="B41" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="234"/>
+      <c r="C41" s="236"/>
       <c r="E41" s="185">
         <f>SUM(E32:E40)</f>
         <v>40</v>
@@ -7894,10 +7922,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="232" t="s">
+      <c r="B42" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="234"/>
+      <c r="C42" s="236"/>
       <c r="E42" s="185">
         <f>SUM(E28,E41)</f>
         <v>91</v>
@@ -7928,33 +7956,33 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="232" t="s">
+      <c r="B45" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="233"/>
-      <c r="D45" s="233"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="233"/>
-      <c r="G45" s="234"/>
+      <c r="C45" s="235"/>
+      <c r="D45" s="235"/>
+      <c r="E45" s="235"/>
+      <c r="F45" s="235"/>
+      <c r="G45" s="236"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="232" t="s">
+      <c r="B46" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="233"/>
-      <c r="D46" s="233"/>
-      <c r="E46" s="233"/>
-      <c r="F46" s="233"/>
-      <c r="G46" s="234"/>
+      <c r="C46" s="235"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="235"/>
+      <c r="G46" s="236"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="230" t="s">
+      <c r="B47" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="231"/>
+      <c r="C47" s="248"/>
       <c r="D47" s="6" t="s">
         <v>127</v>
       </c>
@@ -7971,10 +7999,10 @@
       <c r="A48" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="228" t="s">
+      <c r="B48" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="229"/>
+      <c r="C48" s="246"/>
       <c r="D48" s="7" t="s">
         <v>128</v>
       </c>
@@ -7991,10 +8019,10 @@
       <c r="A49" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="228" t="s">
+      <c r="B49" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="229"/>
+      <c r="C49" s="246"/>
       <c r="D49" s="7" t="s">
         <v>129</v>
       </c>
@@ -8011,10 +8039,10 @@
       <c r="A50" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="228" t="s">
+      <c r="B50" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="229"/>
+      <c r="C50" s="246"/>
       <c r="D50" s="7"/>
       <c r="E50" s="72"/>
       <c r="F50" s="78"/>
@@ -8024,10 +8052,10 @@
       <c r="A51" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="228" t="s">
+      <c r="B51" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="229"/>
+      <c r="C51" s="246"/>
       <c r="D51" s="7" t="s">
         <v>130</v>
       </c>
@@ -8044,10 +8072,10 @@
       <c r="A52" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="228" t="s">
+      <c r="B52" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="229"/>
+      <c r="C52" s="246"/>
       <c r="D52" s="8" t="s">
         <v>131</v>
       </c>
@@ -8064,10 +8092,10 @@
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="232" t="s">
+      <c r="B53" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="234"/>
+      <c r="C53" s="236"/>
       <c r="D53" s="81"/>
       <c r="E53" s="186">
         <f>SUM(E47:E52)</f>
@@ -8082,19 +8110,19 @@
       <c r="A54" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="238" t="s">
+      <c r="B54" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="239"/>
+      <c r="C54" s="252"/>
       <c r="D54" s="82"/>
       <c r="E54" s="9"/>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="232" t="s">
+      <c r="B55" s="234" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="234"/>
+      <c r="C55" s="236"/>
       <c r="E55" s="184">
         <f>SUM(E53,E54)</f>
         <v>15</v>
@@ -8122,33 +8150,33 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="232" t="s">
+      <c r="B58" s="234" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="233"/>
-      <c r="D58" s="233"/>
-      <c r="E58" s="233"/>
-      <c r="F58" s="233"/>
-      <c r="G58" s="234"/>
+      <c r="C58" s="235"/>
+      <c r="D58" s="235"/>
+      <c r="E58" s="235"/>
+      <c r="F58" s="235"/>
+      <c r="G58" s="236"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="240" t="s">
+      <c r="B59" s="253" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="241"/>
-      <c r="D59" s="241"/>
-      <c r="E59" s="241"/>
-      <c r="F59" s="241"/>
-      <c r="G59" s="241"/>
+      <c r="C59" s="254"/>
+      <c r="D59" s="254"/>
+      <c r="E59" s="254"/>
+      <c r="F59" s="254"/>
+      <c r="G59" s="254"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="230" t="s">
+      <c r="B60" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="231"/>
+      <c r="C60" s="248"/>
       <c r="D60" s="6"/>
       <c r="E60" s="76"/>
       <c r="F60" s="77"/>
@@ -8158,10 +8186,10 @@
       <c r="A61" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="228" t="s">
+      <c r="B61" s="245" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="229"/>
+      <c r="C61" s="246"/>
       <c r="D61" s="7" t="s">
         <v>311</v>
       </c>
@@ -8180,10 +8208,10 @@
       <c r="A62" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="238" t="s">
+      <c r="B62" s="251" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="239"/>
+      <c r="C62" s="252"/>
       <c r="D62" s="8"/>
       <c r="E62" s="79">
         <v>2</v>
@@ -8212,10 +8240,10 @@
       <c r="A64" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="230" t="s">
+      <c r="B64" s="247" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="231"/>
+      <c r="C64" s="248"/>
       <c r="D64" s="6" t="s">
         <v>312</v>
       </c>
@@ -8232,10 +8260,10 @@
       <c r="A65" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="228" t="s">
+      <c r="B65" s="245" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="229"/>
+      <c r="C65" s="246"/>
       <c r="D65" s="7"/>
       <c r="E65" s="72">
         <v>4</v>
@@ -8249,10 +8277,10 @@
       <c r="A66" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="228" t="s">
+      <c r="B66" s="245" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="229"/>
+      <c r="C66" s="246"/>
       <c r="D66" s="7"/>
       <c r="E66" s="72"/>
       <c r="F66" s="78"/>
@@ -8262,10 +8290,10 @@
       <c r="A67" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="228" t="s">
+      <c r="B67" s="245" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="229"/>
+      <c r="C67" s="246"/>
       <c r="D67" s="7"/>
       <c r="E67" s="72"/>
       <c r="F67" s="78"/>
@@ -8275,10 +8303,10 @@
       <c r="A68" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="228" t="s">
+      <c r="B68" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="229"/>
+      <c r="C68" s="246"/>
       <c r="D68" s="7"/>
       <c r="E68" s="72"/>
       <c r="F68" s="78"/>
@@ -8288,20 +8316,20 @@
       <c r="A69" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="238" t="s">
+      <c r="B69" s="251" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="239"/>
+      <c r="C69" s="252"/>
       <c r="D69" s="8"/>
       <c r="E69" s="79"/>
       <c r="F69" s="83"/>
       <c r="G69" s="38"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="232" t="s">
+      <c r="B70" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="234"/>
+      <c r="C70" s="236"/>
       <c r="E70" s="184">
         <f>SUM(E63:E69)</f>
         <v>9</v>
@@ -8330,23 +8358,23 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="232" t="s">
+      <c r="B73" s="234" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="233"/>
-      <c r="D73" s="233"/>
-      <c r="E73" s="233"/>
-      <c r="F73" s="233"/>
-      <c r="G73" s="233"/>
+      <c r="C73" s="235"/>
+      <c r="D73" s="235"/>
+      <c r="E73" s="235"/>
+      <c r="F73" s="235"/>
+      <c r="G73" s="235"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B74" s="230" t="s">
+      <c r="B74" s="247" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="231"/>
+      <c r="C74" s="248"/>
       <c r="D74" s="6"/>
       <c r="E74" s="76"/>
       <c r="F74" s="78"/>
@@ -8356,10 +8384,10 @@
       <c r="A75" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B75" s="228" t="s">
+      <c r="B75" s="245" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="229"/>
+      <c r="C75" s="246"/>
       <c r="D75" s="7" t="s">
         <v>311</v>
       </c>
@@ -8378,20 +8406,20 @@
       <c r="A76" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B76" s="238" t="s">
+      <c r="B76" s="251" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="239"/>
+      <c r="C76" s="252"/>
       <c r="D76" s="8"/>
       <c r="E76" s="79"/>
       <c r="F76" s="78"/>
       <c r="G76" s="38"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="232" t="s">
+      <c r="B77" s="234" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="234"/>
+      <c r="C77" s="236"/>
       <c r="D77" s="84"/>
       <c r="E77" s="188">
         <f>SUM(E74:E76)</f>
@@ -8406,10 +8434,10 @@
       <c r="A78" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B78" s="230" t="s">
+      <c r="B78" s="247" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="231"/>
+      <c r="C78" s="248"/>
       <c r="D78" s="6" t="s">
         <v>312</v>
       </c>
@@ -8428,10 +8456,10 @@
       <c r="A79" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B79" s="228" t="s">
+      <c r="B79" s="245" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="229"/>
+      <c r="C79" s="246"/>
       <c r="D79" s="7"/>
       <c r="E79" s="72"/>
       <c r="F79" s="78"/>
@@ -8441,10 +8469,10 @@
       <c r="A80" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B80" s="228" t="s">
+      <c r="B80" s="245" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="229"/>
+      <c r="C80" s="246"/>
       <c r="D80" s="7"/>
       <c r="E80" s="72"/>
       <c r="F80" s="78"/>
@@ -8454,10 +8482,10 @@
       <c r="A81" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B81" s="228" t="s">
+      <c r="B81" s="245" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="229"/>
+      <c r="C81" s="246"/>
       <c r="D81" s="7"/>
       <c r="E81" s="72">
         <v>2</v>
@@ -8471,10 +8499,10 @@
       <c r="A82" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B82" s="228" t="s">
+      <c r="B82" s="245" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="229"/>
+      <c r="C82" s="246"/>
       <c r="D82" s="7"/>
       <c r="E82" s="72">
         <v>2</v>
@@ -8488,21 +8516,21 @@
       <c r="A83" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B83" s="238" t="s">
+      <c r="B83" s="251" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="239"/>
+      <c r="C83" s="252"/>
       <c r="D83" s="8"/>
       <c r="E83" s="79"/>
       <c r="F83" s="83"/>
       <c r="G83" s="38"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="232" t="s">
+      <c r="B84" s="234" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="233"/>
-      <c r="D84" s="234"/>
+      <c r="C84" s="235"/>
+      <c r="D84" s="236"/>
       <c r="E84" s="184">
         <f>SUM(E77:E83)</f>
         <v>16</v>
@@ -8516,11 +8544,11 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="232" t="s">
+      <c r="B86" s="234" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="233"/>
-      <c r="D86" s="234"/>
+      <c r="C86" s="235"/>
+      <c r="D86" s="236"/>
       <c r="E86" s="184">
         <f>SUM(E70,E84)</f>
         <v>25</v>
@@ -8532,11 +8560,11 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="232" t="s">
+      <c r="B88" s="234" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="233"/>
-      <c r="D88" s="234"/>
+      <c r="C88" s="235"/>
+      <c r="D88" s="236"/>
       <c r="E88" s="184">
         <f>SUM(E55,E86)</f>
         <v>40</v>
@@ -8554,12 +8582,12 @@
       <c r="A91" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="235" t="str">
+      <c r="B91" s="256" t="str">
         <f>IF(AND(E91=0,F91=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C91" s="236"/>
-      <c r="D91" s="237"/>
+      <c r="C91" s="257"/>
+      <c r="D91" s="258"/>
       <c r="E91" s="75">
         <f>E88-E42</f>
         <v>-51</v>
@@ -8578,22 +8606,51 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B74:C74"/>
@@ -8610,51 +8667,22 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B91">
@@ -8693,7 +8721,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G8" sqref="B7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8711,14 +8739,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="264" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="260"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="265"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
       <c r="I1" s="97"/>
@@ -8727,63 +8755,63 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="261" t="str">
+      <c r="B2" s="266" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="263"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="268"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="245" t="str">
+      <c r="B3" s="228" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="247"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="230"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="251">
+      <c r="B4" s="237">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="253"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="239"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="264">
+      <c r="B5" s="269">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="266"/>
+      <c r="C5" s="270"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="270"/>
+      <c r="F5" s="271"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="270" t="s">
+      <c r="A6" s="272" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="259"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="260"/>
+      <c r="B6" s="264"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="265"/>
       <c r="G6" s="97"/>
       <c r="H6" s="97"/>
       <c r="I6" s="97"/>
@@ -8792,35 +8820,37 @@
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="267" t="s">
+      <c r="B7" s="357" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="269"/>
+      <c r="C7" s="358"/>
+      <c r="D7" s="358"/>
+      <c r="E7" s="358"/>
+      <c r="F7" s="359"/>
+      <c r="G7" s="360"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="267" t="s">
+      <c r="B8" s="357" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="269"/>
+      <c r="C8" s="358"/>
+      <c r="D8" s="358"/>
+      <c r="E8" s="358"/>
+      <c r="F8" s="359"/>
+      <c r="G8" s="360"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="254" t="s">
+      <c r="B12" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="255"/>
+      <c r="C12" s="241"/>
       <c r="D12" s="138" t="s">
         <v>73</v>
       </c>
@@ -8837,23 +8867,23 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="232" t="s">
+      <c r="B13" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="233"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="235"/>
       <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="230" t="s">
+      <c r="B14" s="247" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="231"/>
+      <c r="C14" s="248"/>
       <c r="D14" s="113" t="s">
         <v>566</v>
       </c>
@@ -8872,10 +8902,10 @@
       <c r="A15" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B15" s="228" t="s">
+      <c r="B15" s="245" t="s">
         <v>372</v>
       </c>
-      <c r="C15" s="229"/>
+      <c r="C15" s="246"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>2</v>
@@ -8889,10 +8919,10 @@
       <c r="A16" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B16" s="228" t="s">
+      <c r="B16" s="245" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="229"/>
+      <c r="C16" s="246"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>3</v>
@@ -8906,10 +8936,10 @@
       <c r="A17" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="245" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="229"/>
+      <c r="C17" s="246"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>2</v>
@@ -8923,10 +8953,10 @@
       <c r="A18" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="228" t="s">
+      <c r="B18" s="245" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="229"/>
+      <c r="C18" s="246"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>-6</v>
@@ -8940,10 +8970,10 @@
       <c r="A19" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B19" s="228" t="s">
+      <c r="B19" s="245" t="s">
         <v>370</v>
       </c>
-      <c r="C19" s="229"/>
+      <c r="C19" s="246"/>
       <c r="D19" s="113">
         <v>28.4</v>
       </c>
@@ -8962,10 +8992,10 @@
       <c r="A20" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B20" s="228" t="s">
+      <c r="B20" s="245" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="229"/>
+      <c r="C20" s="246"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>-6</v>
@@ -8979,10 +9009,10 @@
       <c r="A21" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="245" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="229"/>
+      <c r="C21" s="246"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>-6</v>
@@ -8996,10 +9026,10 @@
       <c r="A22" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="228" t="s">
+      <c r="B22" s="245" t="s">
         <v>368</v>
       </c>
-      <c r="C22" s="229"/>
+      <c r="C22" s="246"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>-4</v>
@@ -9013,10 +9043,10 @@
       <c r="A23" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B23" s="238" t="s">
+      <c r="B23" s="251" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="239"/>
+      <c r="C23" s="252"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>-6</v>
@@ -9028,10 +9058,10 @@
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="110"/>
-      <c r="B24" s="233" t="s">
+      <c r="B24" s="235" t="s">
         <v>289</v>
       </c>
-      <c r="C24" s="234"/>
+      <c r="C24" s="236"/>
       <c r="D24" s="112"/>
       <c r="E24" s="188">
         <f>SUM(E14:E23)</f>
@@ -9047,10 +9077,10 @@
       <c r="A25" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B25" s="230" t="s">
+      <c r="B25" s="247" t="s">
         <v>374</v>
       </c>
-      <c r="C25" s="231"/>
+      <c r="C25" s="248"/>
       <c r="D25" s="113"/>
       <c r="E25" s="72">
         <v>6</v>
@@ -9064,10 +9094,10 @@
       <c r="A26" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B26" s="228" t="s">
+      <c r="B26" s="245" t="s">
         <v>375</v>
       </c>
-      <c r="C26" s="229"/>
+      <c r="C26" s="246"/>
       <c r="D26" s="113"/>
       <c r="E26" s="72">
         <v>-3</v>
@@ -9081,10 +9111,10 @@
       <c r="A27" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B27" s="238" t="s">
+      <c r="B27" s="251" t="s">
         <v>376</v>
       </c>
-      <c r="C27" s="239"/>
+      <c r="C27" s="252"/>
       <c r="D27" s="113"/>
       <c r="E27" s="72">
         <v>6</v>
@@ -9096,10 +9126,10 @@
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="110"/>
-      <c r="B28" s="233" t="s">
+      <c r="B28" s="235" t="s">
         <v>288</v>
       </c>
-      <c r="C28" s="234"/>
+      <c r="C28" s="236"/>
       <c r="D28" s="112"/>
       <c r="E28" s="188">
         <f>SUM(E24:E27)</f>
@@ -9115,10 +9145,10 @@
       <c r="A29" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B29" s="271" t="s">
+      <c r="B29" s="262" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="272"/>
+      <c r="C29" s="263"/>
       <c r="D29" s="113"/>
       <c r="E29" s="74">
         <v>1</v>
@@ -9130,10 +9160,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="110"/>
-      <c r="B30" s="233" t="s">
+      <c r="B30" s="235" t="s">
         <v>405</v>
       </c>
-      <c r="C30" s="234"/>
+      <c r="C30" s="236"/>
       <c r="D30" s="112"/>
       <c r="E30" s="188">
         <f>SUM(E28:E29)</f>
@@ -9153,11 +9183,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B12:C12"/>
@@ -9174,12 +9205,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9A9E6224-643C-4AD9-9436-A2DC070A0C83}"/>
@@ -9197,7 +9227,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F7" sqref="B7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9209,12 +9239,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="259" t="s">
+      <c r="B1" s="264" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
@@ -9223,79 +9253,81 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="261" t="str">
+      <c r="B2" s="266" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="263"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="268"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="245" t="str">
+      <c r="B3" s="228" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="247"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="230"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="251">
+      <c r="B4" s="237">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="253"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="239"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="264">
+      <c r="B5" s="269">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="266"/>
+      <c r="C5" s="270"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="271"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="281" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="276"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="277"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="283"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="267" t="s">
+      <c r="B7" s="357" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="269"/>
+      <c r="C7" s="358"/>
+      <c r="D7" s="358"/>
+      <c r="E7" s="359"/>
+      <c r="F7" s="360"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="267" t="s">
+      <c r="B8" s="357" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="269"/>
+      <c r="C8" s="358"/>
+      <c r="D8" s="358"/>
+      <c r="E8" s="359"/>
+      <c r="F8" s="360"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9303,10 +9335,10 @@
       <c r="A11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="254" t="s">
+      <c r="B11" s="240" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="255"/>
+      <c r="C11" s="241"/>
       <c r="D11" s="11">
         <f>DATE(YEAR(B5),1,1)</f>
         <v>45292</v>
@@ -9320,31 +9352,31 @@
       <c r="A12" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="273" t="s">
+      <c r="B12" s="277" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="274"/>
+      <c r="C12" s="278"/>
       <c r="D12" s="72">
         <v>1</v>
       </c>
       <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="278" t="s">
+      <c r="B13" s="284" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="279"/>
-      <c r="D13" s="279"/>
-      <c r="E13" s="280"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="286"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B14" s="285" t="s">
+      <c r="B14" s="275" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="286"/>
+      <c r="C14" s="276"/>
       <c r="D14" s="94"/>
       <c r="E14" s="72">
         <v>1</v>
@@ -9354,21 +9386,21 @@
       <c r="A15" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="281" t="s">
+      <c r="B15" s="279" t="s">
         <v>389</v>
       </c>
-      <c r="C15" s="282"/>
+      <c r="C15" s="280"/>
       <c r="D15" s="94"/>
       <c r="E15" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="278" t="s">
+      <c r="B16" s="284" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="279"/>
-      <c r="D16" s="280"/>
+      <c r="C16" s="285"/>
+      <c r="D16" s="286"/>
       <c r="E16" s="189">
         <f>SUM(E14:E15)</f>
         <v>2</v>
@@ -9378,10 +9410,10 @@
       <c r="A17" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="B17" s="285" t="s">
+      <c r="B17" s="275" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="286"/>
+      <c r="C17" s="276"/>
       <c r="D17" s="95"/>
       <c r="E17" s="72">
         <v>1</v>
@@ -9391,10 +9423,10 @@
       <c r="A18" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="B18" s="283" t="s">
+      <c r="B18" s="273" t="s">
         <v>391</v>
       </c>
-      <c r="C18" s="284"/>
+      <c r="C18" s="274"/>
       <c r="D18" s="95"/>
       <c r="E18" s="72">
         <v>-1</v>
@@ -9404,10 +9436,10 @@
       <c r="A19" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="B19" s="283" t="s">
+      <c r="B19" s="273" t="s">
         <v>392</v>
       </c>
-      <c r="C19" s="284"/>
+      <c r="C19" s="274"/>
       <c r="D19" s="95"/>
       <c r="E19" s="72">
         <v>1</v>
@@ -9417,10 +9449,10 @@
       <c r="A20" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B20" s="283" t="s">
+      <c r="B20" s="273" t="s">
         <v>393</v>
       </c>
-      <c r="C20" s="284"/>
+      <c r="C20" s="274"/>
       <c r="D20" s="95"/>
       <c r="E20" s="72">
         <v>-1</v>
@@ -9430,10 +9462,10 @@
       <c r="A21" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="B21" s="283" t="s">
+      <c r="B21" s="273" t="s">
         <v>394</v>
       </c>
-      <c r="C21" s="284"/>
+      <c r="C21" s="274"/>
       <c r="D21" s="95"/>
       <c r="E21" s="72">
         <v>1</v>
@@ -9443,10 +9475,10 @@
       <c r="A22" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="B22" s="283" t="s">
+      <c r="B22" s="273" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="284"/>
+      <c r="C22" s="274"/>
       <c r="D22" s="95"/>
       <c r="E22" s="72">
         <v>1</v>
@@ -9456,10 +9488,10 @@
       <c r="A23" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B23" s="283" t="s">
+      <c r="B23" s="273" t="s">
         <v>396</v>
       </c>
-      <c r="C23" s="284"/>
+      <c r="C23" s="274"/>
       <c r="D23" s="95"/>
       <c r="E23" s="72">
         <v>-1</v>
@@ -9469,10 +9501,10 @@
       <c r="A24" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B24" s="281" t="s">
+      <c r="B24" s="279" t="s">
         <v>397</v>
       </c>
-      <c r="C24" s="282"/>
+      <c r="C24" s="280"/>
       <c r="D24" s="95"/>
       <c r="E24" s="72">
         <v>1</v>
@@ -9480,11 +9512,11 @@
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="278" t="s">
+      <c r="B25" s="284" t="s">
         <v>385</v>
       </c>
-      <c r="C25" s="279"/>
-      <c r="D25" s="280"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="286"/>
       <c r="E25" s="189">
         <f>SUM(E17:E24)</f>
         <v>2</v>
@@ -9495,10 +9527,10 @@
       <c r="A26" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B26" s="273" t="s">
+      <c r="B26" s="277" t="s">
         <v>386</v>
       </c>
-      <c r="C26" s="274"/>
+      <c r="C26" s="278"/>
       <c r="D26" s="96"/>
       <c r="E26" s="184">
         <f>SUM(D12,E16,E25)</f>
@@ -9507,14 +9539,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B1:E1"/>
@@ -9531,6 +9555,14 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{C1006350-697E-4D07-926A-51DA25DB4809}"/>
@@ -9551,7 +9583,7 @@
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9564,146 +9596,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="297" t="s">
+      <c r="B1" s="295" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="298"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="296"/>
       <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="261" t="str">
+      <c r="B2" s="266" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="263"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="268"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="245" t="str">
+      <c r="B3" s="228" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="247"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="230"/>
     </row>
     <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="251">
+      <c r="B4" s="237">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="253"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="239"/>
     </row>
     <row r="5" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="264">
+      <c r="B5" s="269">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="266"/>
+      <c r="C5" s="270"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="271"/>
     </row>
     <row r="6" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="281" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="276"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="277"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="283"/>
       <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="267" t="s">
+      <c r="B7" s="357" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="269"/>
+      <c r="C7" s="358"/>
+      <c r="D7" s="358"/>
+      <c r="E7" s="359"/>
+      <c r="F7" s="360"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="267" t="s">
+      <c r="B8" s="357" t="s">
         <v>572</v>
       </c>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="269"/>
+      <c r="C8" s="358"/>
+      <c r="D8" s="358"/>
+      <c r="E8" s="359"/>
+      <c r="F8" s="360"/>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="287" t="s">
+      <c r="A10" s="293" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="289" t="s">
+      <c r="B10" s="297" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="290"/>
-      <c r="D10" s="299" t="s">
+      <c r="C10" s="298"/>
+      <c r="D10" s="288" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="287">
+      <c r="E10" s="293">
         <f>B5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="288"/>
-      <c r="B11" s="291"/>
-      <c r="C11" s="292"/>
-      <c r="D11" s="300"/>
-      <c r="E11" s="288"/>
+      <c r="A11" s="294"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="300"/>
+      <c r="D11" s="289"/>
+      <c r="E11" s="294"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="293" t="s">
+      <c r="B12" s="290" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="295"/>
-      <c r="D12" s="296"/>
+      <c r="C12" s="291"/>
+      <c r="D12" s="292"/>
       <c r="E12" s="149">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="290" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="296"/>
+      <c r="C13" s="291"/>
+      <c r="D13" s="291"/>
+      <c r="E13" s="292"/>
     </row>
     <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="B14" s="230" t="s">
+      <c r="B14" s="247" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="231"/>
+      <c r="C14" s="248"/>
       <c r="D14" s="113"/>
       <c r="E14" s="76">
         <v>1</v>
@@ -9713,10 +9747,10 @@
       <c r="A15" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B15" s="228" t="s">
+      <c r="B15" s="245" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="229"/>
+      <c r="C15" s="246"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>-1</v>
@@ -9726,10 +9760,10 @@
       <c r="A16" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="B16" s="228" t="s">
+      <c r="B16" s="245" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="229"/>
+      <c r="C16" s="246"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>-1</v>
@@ -9739,10 +9773,10 @@
       <c r="A17" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="245" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="229"/>
+      <c r="C17" s="246"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>-1</v>
@@ -9752,10 +9786,10 @@
       <c r="A18" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="B18" s="228" t="s">
+      <c r="B18" s="245" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="229"/>
+      <c r="C18" s="246"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>2</v>
@@ -9765,10 +9799,10 @@
       <c r="A19" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="B19" s="228" t="s">
+      <c r="B19" s="245" t="s">
         <v>320</v>
       </c>
-      <c r="C19" s="229"/>
+      <c r="C19" s="246"/>
       <c r="D19" s="113"/>
       <c r="E19" s="72">
         <v>2</v>
@@ -9778,10 +9812,10 @@
       <c r="A20" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="B20" s="228" t="s">
+      <c r="B20" s="245" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="229"/>
+      <c r="C20" s="246"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>3</v>
@@ -9792,10 +9826,10 @@
       <c r="A21" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="245" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="229"/>
+      <c r="C21" s="246"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>3</v>
@@ -9806,10 +9840,10 @@
       <c r="A22" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="228" t="s">
+      <c r="B22" s="245" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="229"/>
+      <c r="C22" s="246"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>4</v>
@@ -9820,10 +9854,10 @@
       <c r="A23" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="228" t="s">
+      <c r="B23" s="245" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="229"/>
+      <c r="C23" s="246"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>1</v>
@@ -9834,10 +9868,10 @@
       <c r="A24" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B24" s="228" t="s">
+      <c r="B24" s="245" t="s">
         <v>366</v>
       </c>
-      <c r="C24" s="229"/>
+      <c r="C24" s="246"/>
       <c r="D24" s="113"/>
       <c r="E24" s="72">
         <v>5</v>
@@ -9848,10 +9882,10 @@
       <c r="A25" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B25" s="228" t="s">
+      <c r="B25" s="245" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="229"/>
+      <c r="C25" s="246"/>
       <c r="D25" s="113"/>
       <c r="E25" s="72">
         <v>-3</v>
@@ -9862,10 +9896,10 @@
       <c r="A26" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="B26" s="228" t="s">
+      <c r="B26" s="245" t="s">
         <v>326</v>
       </c>
-      <c r="C26" s="229"/>
+      <c r="C26" s="246"/>
       <c r="D26" s="113"/>
       <c r="E26" s="72">
         <v>4</v>
@@ -9876,10 +9910,10 @@
       <c r="A27" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B27" s="228" t="s">
+      <c r="B27" s="245" t="s">
         <v>327</v>
       </c>
-      <c r="C27" s="229"/>
+      <c r="C27" s="246"/>
       <c r="D27" s="113"/>
       <c r="E27" s="72">
         <v>-5</v>
@@ -9890,10 +9924,10 @@
       <c r="A28" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B28" s="228" t="s">
+      <c r="B28" s="245" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="229"/>
+      <c r="C28" s="246"/>
       <c r="D28" s="113"/>
       <c r="E28" s="72">
         <v>-2</v>
@@ -9903,10 +9937,10 @@
       <c r="A29" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="B29" s="228" t="s">
+      <c r="B29" s="245" t="s">
         <v>328</v>
       </c>
-      <c r="C29" s="229"/>
+      <c r="C29" s="246"/>
       <c r="D29" s="113"/>
       <c r="E29" s="72"/>
     </row>
@@ -9914,10 +9948,10 @@
       <c r="A30" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="228" t="s">
+      <c r="B30" s="245" t="s">
         <v>329</v>
       </c>
-      <c r="C30" s="229"/>
+      <c r="C30" s="246"/>
       <c r="D30" s="113"/>
       <c r="E30" s="72"/>
     </row>
@@ -9925,10 +9959,10 @@
       <c r="A31" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="228" t="s">
+      <c r="B31" s="245" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="229"/>
+      <c r="C31" s="246"/>
       <c r="D31" s="113"/>
       <c r="E31" s="72">
         <v>-3</v>
@@ -9938,10 +9972,10 @@
       <c r="A32" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B32" s="228" t="s">
+      <c r="B32" s="245" t="s">
         <v>330</v>
       </c>
-      <c r="C32" s="229"/>
+      <c r="C32" s="246"/>
       <c r="D32" s="113"/>
       <c r="E32" s="72"/>
     </row>
@@ -9949,10 +9983,10 @@
       <c r="A33" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B33" s="228" t="s">
+      <c r="B33" s="245" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="229"/>
+      <c r="C33" s="246"/>
       <c r="D33" s="113"/>
       <c r="E33" s="72">
         <v>2</v>
@@ -9962,10 +9996,10 @@
       <c r="A34" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="228" t="s">
+      <c r="B34" s="245" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="229"/>
+      <c r="C34" s="246"/>
       <c r="D34" s="113"/>
       <c r="E34" s="72"/>
     </row>
@@ -9973,21 +10007,21 @@
       <c r="A35" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B35" s="238" t="s">
+      <c r="B35" s="251" t="s">
         <v>333</v>
       </c>
-      <c r="C35" s="239"/>
+      <c r="C35" s="252"/>
       <c r="D35" s="113"/>
       <c r="E35" s="79">
         <v>-5</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="293" t="s">
+      <c r="B36" s="290" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="295"/>
-      <c r="D36" s="296"/>
+      <c r="C36" s="291"/>
+      <c r="D36" s="292"/>
       <c r="E36" s="191">
         <f>SUM(E14:E35)</f>
         <v>6</v>
@@ -9997,10 +10031,10 @@
       <c r="A37" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="B37" s="230" t="s">
+      <c r="B37" s="247" t="s">
         <v>334</v>
       </c>
-      <c r="C37" s="231"/>
+      <c r="C37" s="248"/>
       <c r="D37" s="113"/>
       <c r="E37" s="76">
         <v>-5</v>
@@ -10011,10 +10045,10 @@
       <c r="A38" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B38" s="228" t="s">
+      <c r="B38" s="245" t="s">
         <v>335</v>
       </c>
-      <c r="C38" s="229"/>
+      <c r="C38" s="246"/>
       <c r="D38" s="113"/>
       <c r="E38" s="72">
         <v>6</v>
@@ -10025,10 +10059,10 @@
       <c r="A39" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="B39" s="228" t="s">
+      <c r="B39" s="245" t="s">
         <v>336</v>
       </c>
-      <c r="C39" s="229"/>
+      <c r="C39" s="246"/>
       <c r="D39" s="113"/>
       <c r="E39" s="72">
         <v>-5</v>
@@ -10039,10 +10073,10 @@
       <c r="A40" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="B40" s="228" t="s">
+      <c r="B40" s="245" t="s">
         <v>337</v>
       </c>
-      <c r="C40" s="229"/>
+      <c r="C40" s="246"/>
       <c r="D40" s="113"/>
       <c r="E40" s="72">
         <v>5</v>
@@ -10053,10 +10087,10 @@
       <c r="A41" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="B41" s="228" t="s">
+      <c r="B41" s="245" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="229"/>
+      <c r="C41" s="246"/>
       <c r="D41" s="113" t="s">
         <v>619</v>
       </c>
@@ -10070,10 +10104,10 @@
       <c r="A42" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="B42" s="238" t="s">
+      <c r="B42" s="251" t="s">
         <v>339</v>
       </c>
-      <c r="C42" s="239"/>
+      <c r="C42" s="252"/>
       <c r="D42" s="113"/>
       <c r="E42" s="79">
         <v>5</v>
@@ -10081,32 +10115,32 @@
       <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="293" t="s">
+      <c r="B43" s="290" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="295"/>
-      <c r="D43" s="296"/>
+      <c r="C43" s="291"/>
+      <c r="D43" s="292"/>
       <c r="E43" s="192">
         <f>E12+E36+SUM(E37:E42)</f>
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="293" t="s">
+      <c r="B44" s="290" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="295"/>
-      <c r="D44" s="295"/>
-      <c r="E44" s="296"/>
+      <c r="C44" s="291"/>
+      <c r="D44" s="291"/>
+      <c r="E44" s="292"/>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="B45" s="230" t="s">
+      <c r="B45" s="247" t="s">
         <v>340</v>
       </c>
-      <c r="C45" s="231"/>
+      <c r="C45" s="248"/>
       <c r="D45" s="113"/>
       <c r="E45" s="76"/>
     </row>
@@ -10114,10 +10148,10 @@
       <c r="A46" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="228" t="s">
+      <c r="B46" s="245" t="s">
         <v>341</v>
       </c>
-      <c r="C46" s="229"/>
+      <c r="C46" s="246"/>
       <c r="D46" s="113"/>
       <c r="E46" s="72"/>
     </row>
@@ -10125,10 +10159,10 @@
       <c r="A47" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="B47" s="228" t="s">
+      <c r="B47" s="245" t="s">
         <v>342</v>
       </c>
-      <c r="C47" s="229"/>
+      <c r="C47" s="246"/>
       <c r="D47" s="113"/>
       <c r="E47" s="72">
         <v>5</v>
@@ -10139,10 +10173,10 @@
       <c r="A48" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="B48" s="228" t="s">
+      <c r="B48" s="245" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="229"/>
+      <c r="C48" s="246"/>
       <c r="D48" s="113"/>
       <c r="E48" s="72"/>
     </row>
@@ -10150,10 +10184,10 @@
       <c r="A49" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="B49" s="228" t="s">
+      <c r="B49" s="245" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="229"/>
+      <c r="C49" s="246"/>
       <c r="D49" s="113"/>
       <c r="E49" s="72">
         <v>65</v>
@@ -10164,10 +10198,10 @@
       <c r="A50" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="B50" s="228" t="s">
+      <c r="B50" s="245" t="s">
         <v>345</v>
       </c>
-      <c r="C50" s="229"/>
+      <c r="C50" s="246"/>
       <c r="D50" s="113"/>
       <c r="E50" s="72"/>
     </row>
@@ -10175,10 +10209,10 @@
       <c r="A51" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="228" t="s">
+      <c r="B51" s="245" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="229"/>
+      <c r="C51" s="246"/>
       <c r="D51" s="113"/>
       <c r="E51" s="72"/>
     </row>
@@ -10186,10 +10220,10 @@
       <c r="A52" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="B52" s="228" t="s">
+      <c r="B52" s="245" t="s">
         <v>347</v>
       </c>
-      <c r="C52" s="229"/>
+      <c r="C52" s="246"/>
       <c r="D52" s="113"/>
       <c r="E52" s="72"/>
     </row>
@@ -10197,10 +10231,10 @@
       <c r="A53" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="B53" s="228" t="s">
+      <c r="B53" s="245" t="s">
         <v>348</v>
       </c>
-      <c r="C53" s="229"/>
+      <c r="C53" s="246"/>
       <c r="D53" s="113"/>
       <c r="E53" s="72"/>
     </row>
@@ -10208,10 +10242,10 @@
       <c r="A54" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="B54" s="228" t="s">
+      <c r="B54" s="245" t="s">
         <v>349</v>
       </c>
-      <c r="C54" s="229"/>
+      <c r="C54" s="246"/>
       <c r="D54" s="113"/>
       <c r="E54" s="72">
         <v>-45</v>
@@ -10222,10 +10256,10 @@
       <c r="A55" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="B55" s="228" t="s">
+      <c r="B55" s="245" t="s">
         <v>350</v>
       </c>
-      <c r="C55" s="229"/>
+      <c r="C55" s="246"/>
       <c r="D55" s="113"/>
       <c r="E55" s="72"/>
     </row>
@@ -10233,10 +10267,10 @@
       <c r="A56" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="B56" s="228" t="s">
+      <c r="B56" s="245" t="s">
         <v>351</v>
       </c>
-      <c r="C56" s="229"/>
+      <c r="C56" s="246"/>
       <c r="D56" s="113"/>
       <c r="E56" s="72"/>
     </row>
@@ -10244,10 +10278,10 @@
       <c r="A57" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="B57" s="228" t="s">
+      <c r="B57" s="245" t="s">
         <v>352</v>
       </c>
-      <c r="C57" s="229"/>
+      <c r="C57" s="246"/>
       <c r="D57" s="113"/>
       <c r="E57" s="72"/>
     </row>
@@ -10255,10 +10289,10 @@
       <c r="A58" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="B58" s="228" t="s">
+      <c r="B58" s="245" t="s">
         <v>353</v>
       </c>
-      <c r="C58" s="229"/>
+      <c r="C58" s="246"/>
       <c r="D58" s="113"/>
       <c r="E58" s="72"/>
     </row>
@@ -10266,10 +10300,10 @@
       <c r="A59" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="B59" s="228" t="s">
+      <c r="B59" s="245" t="s">
         <v>354</v>
       </c>
-      <c r="C59" s="229"/>
+      <c r="C59" s="246"/>
       <c r="D59" s="113"/>
       <c r="E59" s="72"/>
     </row>
@@ -10277,10 +10311,10 @@
       <c r="A60" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B60" s="228" t="s">
+      <c r="B60" s="245" t="s">
         <v>355</v>
       </c>
-      <c r="C60" s="229"/>
+      <c r="C60" s="246"/>
       <c r="D60" s="113"/>
       <c r="E60" s="72"/>
     </row>
@@ -10288,10 +10322,10 @@
       <c r="A61" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B61" s="228" t="s">
+      <c r="B61" s="245" t="s">
         <v>335</v>
       </c>
-      <c r="C61" s="229"/>
+      <c r="C61" s="246"/>
       <c r="D61" s="113"/>
       <c r="E61" s="72"/>
     </row>
@@ -10299,10 +10333,10 @@
       <c r="A62" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B62" s="228" t="s">
+      <c r="B62" s="245" t="s">
         <v>336</v>
       </c>
-      <c r="C62" s="229"/>
+      <c r="C62" s="246"/>
       <c r="D62" s="113"/>
       <c r="E62" s="72"/>
     </row>
@@ -10310,10 +10344,10 @@
       <c r="A63" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="B63" s="228" t="s">
+      <c r="B63" s="245" t="s">
         <v>356</v>
       </c>
-      <c r="C63" s="229"/>
+      <c r="C63" s="246"/>
       <c r="D63" s="113"/>
       <c r="E63" s="72"/>
     </row>
@@ -10321,10 +10355,10 @@
       <c r="A64" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B64" s="228" t="s">
+      <c r="B64" s="245" t="s">
         <v>338</v>
       </c>
-      <c r="C64" s="229"/>
+      <c r="C64" s="246"/>
       <c r="D64" s="113" t="s">
         <v>619</v>
       </c>
@@ -10338,40 +10372,40 @@
       <c r="A65" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="B65" s="238" t="s">
+      <c r="B65" s="251" t="s">
         <v>339</v>
       </c>
-      <c r="C65" s="239"/>
+      <c r="C65" s="252"/>
       <c r="D65" s="113"/>
       <c r="E65" s="79"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="293" t="s">
+      <c r="B66" s="290" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="295"/>
-      <c r="D66" s="296"/>
+      <c r="C66" s="291"/>
+      <c r="D66" s="292"/>
       <c r="E66" s="193">
         <f>SUM(E45:E65)</f>
         <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="293" t="s">
+      <c r="B67" s="290" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="295"/>
-      <c r="D67" s="295"/>
-      <c r="E67" s="296"/>
+      <c r="C67" s="291"/>
+      <c r="D67" s="291"/>
+      <c r="E67" s="292"/>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="B68" s="230" t="s">
+      <c r="B68" s="247" t="s">
         <v>357</v>
       </c>
-      <c r="C68" s="231"/>
+      <c r="C68" s="248"/>
       <c r="D68" s="113"/>
       <c r="E68" s="76">
         <v>54</v>
@@ -10382,10 +10416,10 @@
       <c r="A69" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="B69" s="228" t="s">
+      <c r="B69" s="245" t="s">
         <v>365</v>
       </c>
-      <c r="C69" s="229"/>
+      <c r="C69" s="246"/>
       <c r="D69" s="113"/>
       <c r="E69" s="72"/>
     </row>
@@ -10393,10 +10427,10 @@
       <c r="A70" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B70" s="228" t="s">
+      <c r="B70" s="245" t="s">
         <v>358</v>
       </c>
-      <c r="C70" s="229"/>
+      <c r="C70" s="246"/>
       <c r="D70" s="113"/>
       <c r="E70" s="72"/>
     </row>
@@ -10404,10 +10438,10 @@
       <c r="A71" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="B71" s="228" t="s">
+      <c r="B71" s="245" t="s">
         <v>359</v>
       </c>
-      <c r="C71" s="229"/>
+      <c r="C71" s="246"/>
       <c r="D71" s="113"/>
       <c r="E71" s="72">
         <v>54</v>
@@ -10418,10 +10452,10 @@
       <c r="A72" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B72" s="228" t="s">
+      <c r="B72" s="245" t="s">
         <v>360</v>
       </c>
-      <c r="C72" s="229"/>
+      <c r="C72" s="246"/>
       <c r="D72" s="113"/>
       <c r="E72" s="72"/>
     </row>
@@ -10429,10 +10463,10 @@
       <c r="A73" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B73" s="228" t="s">
+      <c r="B73" s="245" t="s">
         <v>362</v>
       </c>
-      <c r="C73" s="229"/>
+      <c r="C73" s="246"/>
       <c r="D73" s="113"/>
       <c r="E73" s="72"/>
     </row>
@@ -10440,10 +10474,10 @@
       <c r="A74" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B74" s="228" t="s">
+      <c r="B74" s="245" t="s">
         <v>361</v>
       </c>
-      <c r="C74" s="229"/>
+      <c r="C74" s="246"/>
       <c r="D74" s="113"/>
       <c r="E74" s="72">
         <v>-45</v>
@@ -10454,10 +10488,10 @@
       <c r="A75" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B75" s="228" t="s">
+      <c r="B75" s="245" t="s">
         <v>334</v>
       </c>
-      <c r="C75" s="229"/>
+      <c r="C75" s="246"/>
       <c r="D75" s="113"/>
       <c r="E75" s="72"/>
     </row>
@@ -10465,10 +10499,10 @@
       <c r="A76" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B76" s="228" t="s">
+      <c r="B76" s="245" t="s">
         <v>336</v>
       </c>
-      <c r="C76" s="229"/>
+      <c r="C76" s="246"/>
       <c r="D76" s="113"/>
       <c r="E76" s="72">
         <v>-54</v>
@@ -10479,10 +10513,10 @@
       <c r="A77" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="B77" s="228" t="s">
+      <c r="B77" s="245" t="s">
         <v>338</v>
       </c>
-      <c r="C77" s="229"/>
+      <c r="C77" s="246"/>
       <c r="D77" s="113" t="s">
         <v>619</v>
       </c>
@@ -10496,30 +10530,30 @@
       <c r="A78" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B78" s="238" t="s">
+      <c r="B78" s="251" t="s">
         <v>339</v>
       </c>
-      <c r="C78" s="239"/>
+      <c r="C78" s="252"/>
       <c r="D78" s="113"/>
       <c r="E78" s="79"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="293" t="s">
+      <c r="B79" s="290" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="295"/>
-      <c r="D79" s="296"/>
+      <c r="C79" s="291"/>
+      <c r="D79" s="292"/>
       <c r="E79" s="194">
         <f>SUM(E68:E78)</f>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="293" t="s">
+      <c r="B80" s="290" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="295"/>
-      <c r="D80" s="296"/>
+      <c r="C80" s="291"/>
+      <c r="D80" s="292"/>
       <c r="E80" s="184">
         <f>SUM(E43,E66,E79)</f>
         <v>62</v>
@@ -10529,18 +10563,18 @@
       <c r="A81" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="B81" s="271" t="s">
+      <c r="B81" s="262" t="s">
         <v>363</v>
       </c>
-      <c r="C81" s="301"/>
-      <c r="D81" s="272"/>
+      <c r="C81" s="287"/>
+      <c r="D81" s="263"/>
       <c r="E81" s="79"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="293" t="s">
+      <c r="B82" s="290" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="294"/>
+      <c r="C82" s="301"/>
       <c r="D82" s="133">
         <v>7.2</v>
       </c>
@@ -10550,33 +10584,33 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="293" t="s">
+      <c r="B83" s="290" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="295"/>
-      <c r="D83" s="296"/>
+      <c r="C83" s="291"/>
+      <c r="D83" s="292"/>
       <c r="E83" s="184">
         <f>'Statement of financial position'!E39</f>
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="293" t="s">
+      <c r="B84" s="290" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="295"/>
-      <c r="D84" s="296"/>
+      <c r="C84" s="291"/>
+      <c r="D84" s="292"/>
       <c r="E84" s="184">
         <f>'Statement of financial position'!F39</f>
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="293" t="s">
+      <c r="B85" s="290" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="295"/>
-      <c r="D85" s="296"/>
+      <c r="C85" s="291"/>
+      <c r="D85" s="292"/>
       <c r="E85" s="184">
         <f>E84-E83</f>
         <v>5</v>
@@ -10645,29 +10679,53 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B47:C47"/>
@@ -10684,53 +10742,29 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{5A53CF31-79B9-4E1F-A6DA-D8AE91352090}"/>
@@ -10749,10 +10783,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H8" sqref="B7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10769,119 +10803,121 @@
     <col min="22" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="225" t="s">
+    <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="210" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="227"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="212"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="245" t="str">
+      <c r="B2" s="228" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="247"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="230"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="245" t="str">
+      <c r="B3" s="228" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="247"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="230"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="251">
+      <c r="B4" s="237">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="253"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="251">
+      <c r="B5" s="237">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="253"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="225" t="s">
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="210" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="227"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="212"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="256" t="s">
+      <c r="B7" s="361" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="258"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="362"/>
+      <c r="D7" s="362"/>
+      <c r="E7" s="362"/>
+      <c r="F7" s="362"/>
+      <c r="G7" s="363"/>
+      <c r="H7" s="360"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="248" t="s">
+      <c r="B8" s="364" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249"/>
-      <c r="G8" s="250"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="365"/>
+      <c r="D8" s="365"/>
+      <c r="E8" s="365"/>
+      <c r="F8" s="365"/>
+      <c r="G8" s="366"/>
+      <c r="H8" s="360"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="254" t="s">
+      <c r="B10" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="255"/>
+      <c r="C10" s="241"/>
       <c r="D10" s="138" t="s">
         <v>73</v>
       </c>
@@ -10897,44 +10933,44 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="232" t="s">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="234"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="232" t="s">
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="236"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="233"/>
-      <c r="G12" s="234"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="235"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="236"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="316"/>
+      <c r="C13" s="315"/>
       <c r="D13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="320" t="s">
+      <c r="E13" s="302" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="321"/>
-      <c r="G13" s="322"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="303"/>
+      <c r="G13" s="304"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>582</v>
       </c>
@@ -10951,7 +10987,7 @@
       </c>
       <c r="G14" s="151"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>583</v>
       </c>
@@ -10968,14 +11004,14 @@
       </c>
       <c r="G15" s="151"/>
     </row>
-    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="B16" s="318" t="s">
+      <c r="B16" s="316" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="319"/>
+      <c r="C16" s="317"/>
       <c r="D16" s="150"/>
       <c r="E16" s="79">
         <v>2</v>
@@ -10989,10 +11025,10 @@
       <c r="A17" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="B17" s="309" t="s">
+      <c r="B17" s="310" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="310"/>
+      <c r="C17" s="311"/>
       <c r="D17" s="150"/>
       <c r="E17" s="195">
         <f>SUM(E14:E16)</f>
@@ -11076,10 +11112,10 @@
       <c r="A22" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="B22" s="318" t="s">
+      <c r="B22" s="316" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="319"/>
+      <c r="C22" s="317"/>
       <c r="D22" s="150"/>
       <c r="E22" s="79">
         <v>6</v>
@@ -11093,10 +11129,10 @@
       <c r="A23" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="B23" s="309" t="s">
+      <c r="B23" s="310" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="310"/>
+      <c r="C23" s="311"/>
       <c r="D23" s="150"/>
       <c r="E23" s="195">
         <f>SUM(E18:E22)</f>
@@ -11248,10 +11284,10 @@
       <c r="A32" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="B32" s="318" t="s">
+      <c r="B32" s="316" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="319"/>
+      <c r="C32" s="317"/>
       <c r="D32" s="150"/>
       <c r="E32" s="79">
         <v>7</v>
@@ -11265,10 +11301,10 @@
       <c r="A33" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B33" s="309" t="s">
+      <c r="B33" s="310" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="310"/>
+      <c r="C33" s="311"/>
       <c r="D33" s="7"/>
       <c r="E33" s="197">
         <f>SUM(E17,E23:E32)</f>
@@ -11284,10 +11320,10 @@
       <c r="A34" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="307" t="s">
+      <c r="B34" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="308"/>
+      <c r="C34" s="313"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72">
         <v>4</v>
@@ -11301,10 +11337,10 @@
       <c r="A35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="307" t="s">
+      <c r="B35" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="308"/>
+      <c r="C35" s="313"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72">
         <v>4</v>
@@ -11318,10 +11354,10 @@
       <c r="A36" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="307" t="s">
+      <c r="B36" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="308"/>
+      <c r="C36" s="313"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72">
         <v>20</v>
@@ -11335,10 +11371,10 @@
       <c r="A37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="307" t="s">
+      <c r="B37" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="308"/>
+      <c r="C37" s="313"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72">
         <v>30</v>
@@ -11352,10 +11388,10 @@
       <c r="A38" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="307" t="s">
+      <c r="B38" s="312" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="308"/>
+      <c r="C38" s="313"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72">
         <v>4</v>
@@ -11369,10 +11405,10 @@
       <c r="A39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="307" t="s">
+      <c r="B39" s="312" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="308"/>
+      <c r="C39" s="313"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>6</v>
@@ -11386,10 +11422,10 @@
       <c r="A40" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="307" t="s">
+      <c r="B40" s="312" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="308"/>
+      <c r="C40" s="313"/>
       <c r="D40" s="7"/>
       <c r="E40" s="72">
         <v>4</v>
@@ -11403,10 +11439,10 @@
       <c r="A41" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="307" t="s">
+      <c r="B41" s="312" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="308"/>
+      <c r="C41" s="313"/>
       <c r="D41" s="7"/>
       <c r="E41" s="79">
         <v>6</v>
@@ -11420,18 +11456,18 @@
       <c r="A42" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="307" t="s">
+      <c r="B42" s="312" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="308"/>
+      <c r="C42" s="313"/>
       <c r="D42" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="320" t="s">
+      <c r="E42" s="302" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="321"/>
-      <c r="G42" s="322"/>
+      <c r="F42" s="303"/>
+      <c r="G42" s="304"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
@@ -11505,10 +11541,10 @@
       <c r="A47" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="B47" s="309" t="s">
+      <c r="B47" s="310" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="310"/>
+      <c r="C47" s="311"/>
       <c r="D47" s="7"/>
       <c r="E47" s="199">
         <f>SUM(E43:E46)</f>
@@ -11575,10 +11611,10 @@
       <c r="A51" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="B51" s="309" t="s">
+      <c r="B51" s="310" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="310"/>
+      <c r="C51" s="311"/>
       <c r="D51" s="7"/>
       <c r="E51" s="199">
         <f>SUM(E48:E50)</f>
@@ -11679,10 +11715,10 @@
       <c r="A57" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="B57" s="309" t="s">
+      <c r="B57" s="310" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="310"/>
+      <c r="C57" s="311"/>
       <c r="D57" s="7"/>
       <c r="E57" s="200">
         <f>SUM(E52:E56,E51,E47)</f>
@@ -11698,10 +11734,10 @@
       <c r="A58" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="307" t="s">
+      <c r="B58" s="312" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="308"/>
+      <c r="C58" s="313"/>
       <c r="D58" s="7"/>
       <c r="E58" s="72">
         <v>4</v>
@@ -11715,10 +11751,10 @@
       <c r="A59" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="307" t="s">
+      <c r="B59" s="312" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="308"/>
+      <c r="C59" s="313"/>
       <c r="D59" s="7"/>
       <c r="E59" s="72">
         <v>5</v>
@@ -11732,10 +11768,10 @@
       <c r="A60" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="307" t="s">
+      <c r="B60" s="312" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="308"/>
+      <c r="C60" s="313"/>
       <c r="D60" s="7"/>
       <c r="E60" s="72">
         <v>6</v>
@@ -11749,10 +11785,10 @@
       <c r="A61" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="307" t="s">
+      <c r="B61" s="312" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="308"/>
+      <c r="C61" s="313"/>
       <c r="D61" s="7"/>
       <c r="E61" s="72">
         <v>7</v>
@@ -11766,10 +11802,10 @@
       <c r="A62" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="307" t="s">
+      <c r="B62" s="312" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="308"/>
+      <c r="C62" s="313"/>
       <c r="D62" s="8"/>
       <c r="E62" s="79">
         <v>4</v>
@@ -11780,10 +11816,10 @@
       <c r="G62" s="38"/>
     </row>
     <row r="63" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="317" t="s">
+      <c r="B63" s="318" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="244"/>
+      <c r="C63" s="250"/>
       <c r="E63" s="184">
         <f>SUM(E57:E62,E33:E41)</f>
         <v>334</v>
@@ -11811,31 +11847,31 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="232" t="s">
+      <c r="B66" s="234" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="233"/>
-      <c r="D66" s="233"/>
-      <c r="E66" s="233"/>
-      <c r="F66" s="233"/>
-      <c r="G66" s="233"/>
+      <c r="C66" s="235"/>
+      <c r="D66" s="235"/>
+      <c r="E66" s="235"/>
+      <c r="F66" s="235"/>
+      <c r="G66" s="235"/>
     </row>
     <row r="67" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="315" t="s">
+      <c r="B67" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="316"/>
+      <c r="C67" s="315"/>
       <c r="D67" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="302" t="s">
+      <c r="E67" s="307" t="s">
         <v>284</v>
       </c>
-      <c r="F67" s="303"/>
-      <c r="G67" s="304"/>
+      <c r="F67" s="308"/>
+      <c r="G67" s="309"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
@@ -11888,10 +11924,10 @@
     </row>
     <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="21"/>
-      <c r="B71" s="309" t="s">
+      <c r="B71" s="310" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="310">
+      <c r="C71" s="311">
         <f>SUM(C69:C70)</f>
         <v>5</v>
       </c>
@@ -12095,10 +12131,10 @@
     </row>
     <row r="83" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="21"/>
-      <c r="B83" s="309" t="s">
+      <c r="B83" s="310" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="310">
+      <c r="C83" s="311">
         <f>SUM(C72:C82)</f>
         <v>65</v>
       </c>
@@ -12117,18 +12153,18 @@
       <c r="A84" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="311" t="s">
+      <c r="B84" s="319" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="312"/>
+      <c r="C84" s="320"/>
       <c r="D84" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E84" s="302" t="s">
+      <c r="E84" s="307" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="303"/>
-      <c r="G84" s="304"/>
+      <c r="F84" s="308"/>
+      <c r="G84" s="309"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
@@ -12264,10 +12300,10 @@
     </row>
     <row r="93" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="21"/>
-      <c r="B93" s="309" t="s">
+      <c r="B93" s="310" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="310">
+      <c r="C93" s="311">
         <f>SUM(C91:C92)</f>
         <v>12</v>
       </c>
@@ -12301,10 +12337,10 @@
     </row>
     <row r="95" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="21"/>
-      <c r="B95" s="309" t="s">
+      <c r="B95" s="310" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="310">
+      <c r="C95" s="311">
         <f>SUM(C85:C88,C93)</f>
         <v>22</v>
       </c>
@@ -12406,10 +12442,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="21"/>
-      <c r="B101" s="309" t="s">
+      <c r="B101" s="310" t="s">
         <v>185</v>
       </c>
-      <c r="C101" s="310">
+      <c r="C101" s="311">
         <f>SUM(C96:C100,C95)</f>
         <v>38</v>
       </c>
@@ -12428,10 +12464,10 @@
       <c r="A102" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="307" t="s">
+      <c r="B102" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="308"/>
+      <c r="C102" s="313"/>
       <c r="D102" s="7"/>
       <c r="E102" s="72">
         <v>3</v>
@@ -12445,10 +12481,10 @@
       <c r="A103" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="307" t="s">
+      <c r="B103" s="312" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="308"/>
+      <c r="C103" s="313"/>
       <c r="D103" s="7"/>
       <c r="E103" s="72">
         <v>4</v>
@@ -12462,10 +12498,10 @@
       <c r="A104" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="307" t="s">
+      <c r="B104" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="308"/>
+      <c r="C104" s="313"/>
       <c r="D104" s="7"/>
       <c r="E104" s="72">
         <v>5</v>
@@ -12479,10 +12515,10 @@
       <c r="A105" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="307" t="s">
+      <c r="B105" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="308"/>
+      <c r="C105" s="313"/>
       <c r="D105" s="7"/>
       <c r="E105" s="72">
         <v>5</v>
@@ -12496,10 +12532,10 @@
       <c r="A106" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="307" t="s">
+      <c r="B106" s="312" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="308"/>
+      <c r="C106" s="313"/>
       <c r="D106" s="7"/>
       <c r="E106" s="72">
         <v>2</v>
@@ -12513,10 +12549,10 @@
       <c r="A107" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="307" t="s">
+      <c r="B107" s="312" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="308"/>
+      <c r="C107" s="313"/>
       <c r="D107" s="7"/>
       <c r="E107" s="72">
         <v>10</v>
@@ -12530,10 +12566,10 @@
       <c r="A108" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="313" t="s">
+      <c r="B108" s="321" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="314"/>
+      <c r="C108" s="322"/>
       <c r="D108" s="8"/>
       <c r="E108" s="79">
         <v>4</v>
@@ -12544,10 +12580,10 @@
       <c r="G108" s="38"/>
     </row>
     <row r="109" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="232" t="s">
+      <c r="B109" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="234"/>
+      <c r="C109" s="236"/>
       <c r="E109" s="185">
         <f>SUM(E101:E108,E83)</f>
         <v>169</v>
@@ -12558,10 +12594,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="232" t="s">
+      <c r="B110" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="234"/>
+      <c r="C110" s="236"/>
       <c r="E110" s="185">
         <f>SUM(E63,E109)</f>
         <v>503</v>
@@ -12589,41 +12625,41 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="232" t="s">
+      <c r="B113" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="233"/>
-      <c r="D113" s="233"/>
-      <c r="E113" s="233"/>
-      <c r="F113" s="233"/>
-      <c r="G113" s="234"/>
+      <c r="C113" s="235"/>
+      <c r="D113" s="235"/>
+      <c r="E113" s="235"/>
+      <c r="F113" s="235"/>
+      <c r="G113" s="236"/>
     </row>
     <row r="114" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="232" t="s">
+      <c r="B114" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="233"/>
-      <c r="D114" s="233"/>
-      <c r="E114" s="233"/>
-      <c r="F114" s="233"/>
-      <c r="G114" s="234"/>
+      <c r="C114" s="235"/>
+      <c r="D114" s="235"/>
+      <c r="E114" s="235"/>
+      <c r="F114" s="235"/>
+      <c r="G114" s="236"/>
     </row>
     <row r="115" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="315" t="s">
+      <c r="B115" s="314" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="316"/>
+      <c r="C115" s="315"/>
       <c r="D115" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E115" s="302" t="s">
+      <c r="E115" s="307" t="s">
         <v>285</v>
       </c>
-      <c r="F115" s="303"/>
-      <c r="G115" s="304"/>
+      <c r="F115" s="308"/>
+      <c r="G115" s="309"/>
     </row>
     <row r="116" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
@@ -12661,10 +12697,10 @@
     </row>
     <row r="118" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="21"/>
-      <c r="B118" s="309" t="s">
+      <c r="B118" s="310" t="s">
         <v>253</v>
       </c>
-      <c r="C118" s="310">
+      <c r="C118" s="311">
         <f>SUM(C116:C117)</f>
         <v>3</v>
       </c>
@@ -12683,18 +12719,18 @@
       <c r="A119" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="311" t="s">
+      <c r="B119" s="319" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="312"/>
+      <c r="C119" s="320"/>
       <c r="D119" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E119" s="302" t="s">
+      <c r="E119" s="307" t="s">
         <v>285</v>
       </c>
-      <c r="F119" s="303"/>
-      <c r="G119" s="304"/>
+      <c r="F119" s="308"/>
+      <c r="G119" s="309"/>
     </row>
     <row r="120" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21"/>
@@ -12732,10 +12768,10 @@
     </row>
     <row r="122" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="21"/>
-      <c r="B122" s="309" t="s">
+      <c r="B122" s="310" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="310">
+      <c r="C122" s="311">
         <f>SUM(C120:C121)</f>
         <v>7</v>
       </c>
@@ -12754,10 +12790,10 @@
       <c r="A123" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="307" t="s">
+      <c r="B123" s="312" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="308"/>
+      <c r="C123" s="313"/>
       <c r="D123" s="7" t="s">
         <v>129</v>
       </c>
@@ -12775,10 +12811,10 @@
       <c r="A124" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B124" s="307" t="s">
+      <c r="B124" s="312" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="308"/>
+      <c r="C124" s="313"/>
       <c r="D124" s="7"/>
       <c r="E124" s="72">
         <v>5</v>
@@ -12792,10 +12828,10 @@
       <c r="A125" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B125" s="307" t="s">
+      <c r="B125" s="312" t="s">
         <v>38</v>
       </c>
-      <c r="C125" s="308"/>
+      <c r="C125" s="313"/>
       <c r="D125" s="7" t="s">
         <v>130</v>
       </c>
@@ -12813,18 +12849,18 @@
       <c r="A126" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B126" s="311" t="s">
+      <c r="B126" s="319" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="312"/>
+      <c r="C126" s="320"/>
       <c r="D126" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="302" t="s">
+      <c r="E126" s="307" t="s">
         <v>285</v>
       </c>
-      <c r="F126" s="303"/>
-      <c r="G126" s="304"/>
+      <c r="F126" s="308"/>
+      <c r="G126" s="309"/>
     </row>
     <row r="127" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21"/>
@@ -12879,10 +12915,10 @@
     </row>
     <row r="130" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="22"/>
-      <c r="B130" s="309" t="s">
+      <c r="B130" s="310" t="s">
         <v>268</v>
       </c>
-      <c r="C130" s="310">
+      <c r="C130" s="311">
         <f>SUM(C127:C129)</f>
         <v>7</v>
       </c>
@@ -12899,10 +12935,10 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
-      <c r="B131" s="232" t="s">
+      <c r="B131" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="234"/>
+      <c r="C131" s="236"/>
       <c r="D131" s="81"/>
       <c r="E131" s="203">
         <f>SUM(E130,E118,E122:E125)</f>
@@ -12917,10 +12953,10 @@
       <c r="A132" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B132" s="238" t="s">
+      <c r="B132" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="C132" s="239"/>
+      <c r="C132" s="252"/>
       <c r="D132" s="82"/>
       <c r="E132" s="79">
         <v>3</v>
@@ -12930,10 +12966,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="232" t="s">
+      <c r="B133" s="234" t="s">
         <v>42</v>
       </c>
-      <c r="C133" s="234"/>
+      <c r="C133" s="236"/>
       <c r="E133" s="184">
         <f>SUM(E131,E132)</f>
         <v>29</v>
@@ -12961,33 +12997,33 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="232" t="s">
+      <c r="B136" s="234" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="233"/>
-      <c r="D136" s="233"/>
-      <c r="E136" s="233"/>
-      <c r="F136" s="233"/>
-      <c r="G136" s="234"/>
+      <c r="C136" s="235"/>
+      <c r="D136" s="235"/>
+      <c r="E136" s="235"/>
+      <c r="F136" s="235"/>
+      <c r="G136" s="236"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="240" t="s">
+      <c r="B137" s="253" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="241"/>
-      <c r="D137" s="241"/>
-      <c r="E137" s="241"/>
-      <c r="F137" s="241"/>
-      <c r="G137" s="241"/>
+      <c r="C137" s="254"/>
+      <c r="D137" s="254"/>
+      <c r="E137" s="254"/>
+      <c r="F137" s="254"/>
+      <c r="G137" s="254"/>
     </row>
     <row r="138" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B138" s="307" t="s">
+      <c r="B138" s="312" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="308"/>
+      <c r="C138" s="313"/>
       <c r="D138" s="6"/>
       <c r="E138" s="76">
         <v>2</v>
@@ -13001,18 +13037,18 @@
       <c r="A139" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B139" s="311" t="s">
+      <c r="B139" s="319" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="312"/>
+      <c r="C139" s="320"/>
       <c r="D139" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E139" s="302" t="s">
+      <c r="E139" s="307" t="s">
         <v>286</v>
       </c>
-      <c r="F139" s="303"/>
-      <c r="G139" s="304"/>
+      <c r="F139" s="308"/>
+      <c r="G139" s="309"/>
     </row>
     <row r="140" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="21"/>
@@ -13091,10 +13127,10 @@
     </row>
     <row r="145" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="21"/>
-      <c r="B145" s="309" t="s">
+      <c r="B145" s="310" t="s">
         <v>269</v>
       </c>
-      <c r="C145" s="310">
+      <c r="C145" s="311">
         <f>SUM(C140:C144)</f>
         <v>0</v>
       </c>
@@ -13143,10 +13179,10 @@
     </row>
     <row r="148" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="21"/>
-      <c r="B148" s="309" t="s">
+      <c r="B148" s="310" t="s">
         <v>270</v>
       </c>
-      <c r="C148" s="310">
+      <c r="C148" s="311">
         <f>SUM(C146:C147)</f>
         <v>5</v>
       </c>
@@ -13208,10 +13244,10 @@
     </row>
     <row r="152" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="21"/>
-      <c r="B152" s="309" t="s">
+      <c r="B152" s="310" t="s">
         <v>271</v>
       </c>
-      <c r="C152" s="310">
+      <c r="C152" s="311">
         <f>SUM(C149:C151)</f>
         <v>0</v>
       </c>
@@ -13228,10 +13264,10 @@
     </row>
     <row r="153" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="21"/>
-      <c r="B153" s="309" t="s">
+      <c r="B153" s="310" t="s">
         <v>272</v>
       </c>
-      <c r="C153" s="310">
+      <c r="C153" s="311">
         <v>1</v>
       </c>
       <c r="D153" s="7"/>
@@ -13245,10 +13281,10 @@
     </row>
     <row r="154" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="21"/>
-      <c r="B154" s="309" t="s">
+      <c r="B154" s="310" t="s">
         <v>525</v>
       </c>
-      <c r="C154" s="310">
+      <c r="C154" s="311">
         <f>SUM(C145,C148,C152,C153)</f>
         <v>6</v>
       </c>
@@ -13267,10 +13303,10 @@
       <c r="A155" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B155" s="307" t="s">
+      <c r="B155" s="312" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="308"/>
+      <c r="C155" s="313"/>
       <c r="D155" s="8"/>
       <c r="E155" s="79">
         <v>2</v>
@@ -13299,18 +13335,18 @@
       <c r="A157" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B157" s="315" t="s">
+      <c r="B157" s="314" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="316"/>
+      <c r="C157" s="315"/>
       <c r="D157" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E157" s="302" t="s">
+      <c r="E157" s="307" t="s">
         <v>287</v>
       </c>
-      <c r="F157" s="303"/>
-      <c r="G157" s="304"/>
+      <c r="F157" s="308"/>
+      <c r="G157" s="309"/>
     </row>
     <row r="158" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
@@ -13461,10 +13497,10 @@
     </row>
     <row r="167" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="21"/>
-      <c r="B167" s="309" t="s">
+      <c r="B167" s="310" t="s">
         <v>235</v>
       </c>
-      <c r="C167" s="310">
+      <c r="C167" s="311">
         <f>SUM(C165:C166)</f>
         <v>9</v>
       </c>
@@ -13532,10 +13568,10 @@
     </row>
     <row r="171" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="21"/>
-      <c r="B171" s="309" t="s">
+      <c r="B171" s="310" t="s">
         <v>239</v>
       </c>
-      <c r="C171" s="310">
+      <c r="C171" s="311">
         <f>SUM(C168:C170)</f>
         <v>20</v>
       </c>
@@ -13569,10 +13605,10 @@
     </row>
     <row r="173" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="21"/>
-      <c r="B173" s="309" t="s">
+      <c r="B173" s="310" t="s">
         <v>241</v>
       </c>
-      <c r="C173" s="310">
+      <c r="C173" s="311">
         <f>SUM(C172)</f>
         <v>5</v>
       </c>
@@ -13674,10 +13710,10 @@
     </row>
     <row r="179" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="21"/>
-      <c r="B179" s="309" t="s">
+      <c r="B179" s="310" t="s">
         <v>247</v>
       </c>
-      <c r="C179" s="310">
+      <c r="C179" s="311">
         <f>SUM(C174:C178,C158:C161,C167,C171,C173)</f>
         <v>68</v>
       </c>
@@ -13696,10 +13732,10 @@
       <c r="A180" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B180" s="307" t="s">
+      <c r="B180" s="312" t="s">
         <v>50</v>
       </c>
-      <c r="C180" s="308"/>
+      <c r="C180" s="313"/>
       <c r="D180" s="7"/>
       <c r="E180" s="72">
         <v>4</v>
@@ -13713,10 +13749,10 @@
       <c r="A181" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B181" s="307" t="s">
+      <c r="B181" s="312" t="s">
         <v>51</v>
       </c>
-      <c r="C181" s="308"/>
+      <c r="C181" s="313"/>
       <c r="D181" s="7"/>
       <c r="E181" s="72">
         <v>4</v>
@@ -13730,10 +13766,10 @@
       <c r="A182" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B182" s="307" t="s">
+      <c r="B182" s="312" t="s">
         <v>52</v>
       </c>
-      <c r="C182" s="308"/>
+      <c r="C182" s="313"/>
       <c r="D182" s="7"/>
       <c r="E182" s="72">
         <v>1</v>
@@ -13747,10 +13783,10 @@
       <c r="A183" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B183" s="307" t="s">
+      <c r="B183" s="312" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="308"/>
+      <c r="C183" s="313"/>
       <c r="D183" s="7"/>
       <c r="E183" s="72">
         <v>2</v>
@@ -13764,10 +13800,10 @@
       <c r="A184" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B184" s="313" t="s">
+      <c r="B184" s="321" t="s">
         <v>54</v>
       </c>
-      <c r="C184" s="314"/>
+      <c r="C184" s="322"/>
       <c r="D184" s="8"/>
       <c r="E184" s="79">
         <v>1</v>
@@ -13778,10 +13814,10 @@
       <c r="G184" s="38"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="232" t="s">
+      <c r="B185" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="C185" s="234"/>
+      <c r="C185" s="236"/>
       <c r="E185" s="184">
         <f>SUM(E156:E184)</f>
         <v>302</v>
@@ -13811,23 +13847,23 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="232" t="s">
+      <c r="B189" s="234" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="233"/>
-      <c r="D189" s="233"/>
-      <c r="E189" s="233"/>
-      <c r="F189" s="233"/>
-      <c r="G189" s="233"/>
+      <c r="C189" s="235"/>
+      <c r="D189" s="235"/>
+      <c r="E189" s="235"/>
+      <c r="F189" s="235"/>
+      <c r="G189" s="235"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B190" s="307" t="s">
+      <c r="B190" s="312" t="s">
         <v>57</v>
       </c>
-      <c r="C190" s="308"/>
+      <c r="C190" s="313"/>
       <c r="D190" s="6"/>
       <c r="E190" s="76">
         <v>1</v>
@@ -13841,10 +13877,10 @@
       <c r="A191" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B191" s="311" t="s">
+      <c r="B191" s="319" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="312"/>
+      <c r="C191" s="320"/>
       <c r="D191" s="7" t="s">
         <v>311</v>
       </c>
@@ -14068,10 +14104,10 @@
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="21"/>
-      <c r="B205" s="309" t="s">
+      <c r="B205" s="310" t="s">
         <v>290</v>
       </c>
-      <c r="C205" s="310">
+      <c r="C205" s="311">
         <f>SUM(C196,C199,C203,C204)</f>
         <v>6</v>
       </c>
@@ -14088,10 +14124,10 @@
       <c r="A206" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B206" s="307" t="s">
+      <c r="B206" s="312" t="s">
         <v>59</v>
       </c>
-      <c r="C206" s="308"/>
+      <c r="C206" s="313"/>
       <c r="D206" s="8"/>
       <c r="E206" s="79">
         <v>4</v>
@@ -14102,10 +14138,10 @@
       <c r="G206" s="38"/>
     </row>
     <row r="207" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="232" t="s">
+      <c r="B207" s="234" t="s">
         <v>60</v>
       </c>
-      <c r="C207" s="234"/>
+      <c r="C207" s="236"/>
       <c r="D207" s="84"/>
       <c r="E207" s="73">
         <f>SUM(E190:E206)</f>
@@ -14120,18 +14156,18 @@
       <c r="A208" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B208" s="315" t="s">
+      <c r="B208" s="314" t="s">
         <v>61</v>
       </c>
-      <c r="C208" s="316"/>
+      <c r="C208" s="315"/>
       <c r="D208" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E208" s="302" t="s">
+      <c r="E208" s="307" t="s">
         <v>287</v>
       </c>
-      <c r="F208" s="303"/>
-      <c r="G208" s="304"/>
+      <c r="F208" s="308"/>
+      <c r="G208" s="309"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="21"/>
@@ -14284,10 +14320,10 @@
     </row>
     <row r="218" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="21"/>
-      <c r="B218" s="309" t="s">
+      <c r="B218" s="310" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="310">
+      <c r="C218" s="311">
         <f>SUM(C215:C217)</f>
         <v>14</v>
       </c>
@@ -14355,10 +14391,10 @@
     </row>
     <row r="222" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="21"/>
-      <c r="B222" s="309" t="s">
+      <c r="B222" s="310" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="310">
+      <c r="C222" s="311">
         <f>SUM(C219:C221)</f>
         <v>18</v>
       </c>
@@ -14409,10 +14445,10 @@
     </row>
     <row r="225" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="21"/>
-      <c r="B225" s="309" t="s">
+      <c r="B225" s="310" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="310">
+      <c r="C225" s="311">
         <f>SUM(C223:C224)</f>
         <v>5</v>
       </c>
@@ -14514,10 +14550,10 @@
     </row>
     <row r="231" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="21"/>
-      <c r="B231" s="309" t="s">
+      <c r="B231" s="310" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="310">
+      <c r="C231" s="311">
         <f>SUM(C226:C230,C209:C212,C218,C222,C225)</f>
         <v>89</v>
       </c>
@@ -14536,10 +14572,10 @@
       <c r="A232" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B232" s="307" t="s">
+      <c r="B232" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="C232" s="308"/>
+      <c r="C232" s="313"/>
       <c r="D232" s="7"/>
       <c r="E232" s="72">
         <v>4</v>
@@ -14553,10 +14589,10 @@
       <c r="A233" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B233" s="307" t="s">
+      <c r="B233" s="312" t="s">
         <v>63</v>
       </c>
-      <c r="C233" s="308"/>
+      <c r="C233" s="313"/>
       <c r="D233" s="7"/>
       <c r="E233" s="72">
         <v>5</v>
@@ -14570,10 +14606,10 @@
       <c r="A234" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B234" s="307" t="s">
+      <c r="B234" s="312" t="s">
         <v>64</v>
       </c>
-      <c r="C234" s="308"/>
+      <c r="C234" s="313"/>
       <c r="D234" s="7"/>
       <c r="E234" s="72">
         <v>2</v>
@@ -14587,10 +14623,10 @@
       <c r="A235" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B235" s="307" t="s">
+      <c r="B235" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="C235" s="308"/>
+      <c r="C235" s="313"/>
       <c r="D235" s="7"/>
       <c r="E235" s="72">
         <v>2</v>
@@ -14604,10 +14640,10 @@
       <c r="A236" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B236" s="313" t="s">
+      <c r="B236" s="321" t="s">
         <v>66</v>
       </c>
-      <c r="C236" s="314"/>
+      <c r="C236" s="322"/>
       <c r="D236" s="8"/>
       <c r="E236" s="79">
         <v>2</v>
@@ -14618,11 +14654,11 @@
       <c r="G236" s="38"/>
     </row>
     <row r="237" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="232" t="s">
+      <c r="B237" s="234" t="s">
         <v>67</v>
       </c>
-      <c r="C237" s="233"/>
-      <c r="D237" s="234"/>
+      <c r="C237" s="235"/>
+      <c r="D237" s="236"/>
       <c r="E237" s="75">
         <f>SUM(E207,E231:E236)</f>
         <v>121</v>
@@ -14636,11 +14672,11 @@
       <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="232" t="s">
+      <c r="B239" s="234" t="s">
         <v>68</v>
       </c>
-      <c r="C239" s="233"/>
-      <c r="D239" s="234"/>
+      <c r="C239" s="235"/>
+      <c r="D239" s="236"/>
       <c r="E239" s="75">
         <f>SUM(E185,E237)</f>
         <v>423</v>
@@ -14652,11 +14688,11 @@
     </row>
     <row r="240" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="241" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="232" t="s">
+      <c r="B241" s="234" t="s">
         <v>69</v>
       </c>
-      <c r="C241" s="233"/>
-      <c r="D241" s="234"/>
+      <c r="C241" s="235"/>
+      <c r="D241" s="236"/>
       <c r="E241" s="75">
         <f>SUM(E133,E239)</f>
         <v>452</v>
@@ -14674,12 +14710,12 @@
       <c r="A244" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B244" s="235" t="str">
+      <c r="B244" s="256" t="str">
         <f>IF(AND(E244=0,F244=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C244" s="236"/>
-      <c r="D244" s="237"/>
+      <c r="C244" s="257"/>
+      <c r="D244" s="258"/>
       <c r="E244" s="75">
         <f>E241-E110</f>
         <v>-51</v>
@@ -14709,6 +14745,221 @@
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:D237"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="B176:C176"/>
@@ -14733,221 +14984,6 @@
     <mergeCell ref="B163:C163"/>
     <mergeCell ref="B164:C164"/>
     <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:D237"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B244">
@@ -15005,14 +15041,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="264" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="260"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="265"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
       <c r="I1" s="97"/>
@@ -15021,63 +15057,63 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="261" t="str">
+      <c r="B2" s="266" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="263"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="268"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="245" t="str">
+      <c r="B3" s="228" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="247"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="230"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="251">
+      <c r="B4" s="237">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="253"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="239"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="264">
+      <c r="B5" s="269">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="266"/>
+      <c r="C5" s="270"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="270"/>
+      <c r="F5" s="271"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="270" t="s">
+      <c r="A6" s="272" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="259"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="260"/>
+      <c r="B6" s="264"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="265"/>
       <c r="G6" s="97"/>
       <c r="H6" s="97"/>
       <c r="I6" s="97"/>
@@ -15086,35 +15122,35 @@
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="267" t="s">
+      <c r="B7" s="259" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="269"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="261"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="267" t="s">
+      <c r="B8" s="259" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="269"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="261"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="254" t="s">
+      <c r="B12" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="255"/>
+      <c r="C12" s="241"/>
       <c r="D12" s="138" t="s">
         <v>73</v>
       </c>
@@ -15131,38 +15167,38 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="232" t="s">
+      <c r="B13" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="233"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="235"/>
       <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="315" t="s">
+      <c r="B14" s="314" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="316"/>
+      <c r="C14" s="315"/>
       <c r="D14" s="113" t="s">
         <v>566</v>
       </c>
-      <c r="E14" s="323" t="s">
+      <c r="E14" s="335" t="s">
         <v>567</v>
       </c>
-      <c r="F14" s="324"/>
-      <c r="G14" s="325"/>
+      <c r="F14" s="336"/>
+      <c r="G14" s="337"/>
     </row>
     <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="326" t="s">
+      <c r="B15" s="327" t="s">
         <v>528</v>
       </c>
-      <c r="C15" s="327"/>
+      <c r="C15" s="328"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>3</v>
@@ -15174,10 +15210,10 @@
     </row>
     <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="326" t="s">
+      <c r="B16" s="327" t="s">
         <v>528</v>
       </c>
-      <c r="C16" s="327"/>
+      <c r="C16" s="328"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>2</v>
@@ -15189,10 +15225,10 @@
     </row>
     <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="326" t="s">
+      <c r="B17" s="327" t="s">
         <v>529</v>
       </c>
-      <c r="C17" s="327"/>
+      <c r="C17" s="328"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>3</v>
@@ -15204,10 +15240,10 @@
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
-      <c r="B18" s="326" t="s">
+      <c r="B18" s="327" t="s">
         <v>530</v>
       </c>
-      <c r="C18" s="327"/>
+      <c r="C18" s="328"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>4</v>
@@ -15219,10 +15255,10 @@
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="326" t="s">
+      <c r="B19" s="327" t="s">
         <v>531</v>
       </c>
-      <c r="C19" s="327"/>
+      <c r="C19" s="328"/>
       <c r="D19" s="113"/>
       <c r="E19" s="72">
         <v>5</v>
@@ -15234,10 +15270,10 @@
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
-      <c r="B20" s="326" t="s">
+      <c r="B20" s="327" t="s">
         <v>532</v>
       </c>
-      <c r="C20" s="327"/>
+      <c r="C20" s="328"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>6</v>
@@ -15249,10 +15285,10 @@
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="326" t="s">
+      <c r="B21" s="327" t="s">
         <v>533</v>
       </c>
-      <c r="C21" s="327"/>
+      <c r="C21" s="328"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>76</v>
@@ -15264,10 +15300,10 @@
     </row>
     <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="326" t="s">
+      <c r="B22" s="327" t="s">
         <v>534</v>
       </c>
-      <c r="C22" s="327"/>
+      <c r="C22" s="328"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>8</v>
@@ -15281,10 +15317,10 @@
       <c r="A23" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B23" s="326" t="s">
+      <c r="B23" s="327" t="s">
         <v>535</v>
       </c>
-      <c r="C23" s="327"/>
+      <c r="C23" s="328"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>9</v>
@@ -15298,10 +15334,10 @@
       <c r="A24" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B24" s="326" t="s">
+      <c r="B24" s="327" t="s">
         <v>536</v>
       </c>
-      <c r="C24" s="327"/>
+      <c r="C24" s="328"/>
       <c r="D24" s="113"/>
       <c r="E24" s="79">
         <v>0</v>
@@ -15315,10 +15351,10 @@
       <c r="A25" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B25" s="328" t="s">
+      <c r="B25" s="329" t="s">
         <v>537</v>
       </c>
-      <c r="C25" s="329"/>
+      <c r="C25" s="330"/>
       <c r="D25" s="113"/>
       <c r="E25" s="201">
         <f>SUM(E15:E24)</f>
@@ -15334,10 +15370,10 @@
       <c r="A26" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="307" t="s">
+      <c r="B26" s="312" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="308"/>
+      <c r="C26" s="313"/>
       <c r="D26" s="113"/>
       <c r="E26" s="79">
         <v>-6</v>
@@ -15351,25 +15387,25 @@
       <c r="A27" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="319" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="312"/>
+      <c r="C27" s="320"/>
       <c r="D27" s="113">
         <v>28.4</v>
       </c>
-      <c r="E27" s="323" t="s">
+      <c r="E27" s="335" t="s">
         <v>568</v>
       </c>
-      <c r="F27" s="324"/>
-      <c r="G27" s="325"/>
+      <c r="F27" s="336"/>
+      <c r="G27" s="337"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="332" t="s">
+      <c r="B28" s="333" t="s">
         <v>539</v>
       </c>
-      <c r="C28" s="333"/>
+      <c r="C28" s="334"/>
       <c r="D28" s="113"/>
       <c r="E28" s="72">
         <v>2</v>
@@ -15381,10 +15417,10 @@
     </row>
     <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
-      <c r="B29" s="332" t="s">
+      <c r="B29" s="333" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="333"/>
+      <c r="C29" s="334"/>
       <c r="D29" s="113"/>
       <c r="E29" s="72">
         <v>3</v>
@@ -15396,10 +15432,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
-      <c r="B30" s="332" t="s">
+      <c r="B30" s="333" t="s">
         <v>541</v>
       </c>
-      <c r="C30" s="333"/>
+      <c r="C30" s="334"/>
       <c r="D30" s="113"/>
       <c r="E30" s="72">
         <v>4</v>
@@ -15411,10 +15447,10 @@
     </row>
     <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="332" t="s">
+      <c r="B31" s="333" t="s">
         <v>542</v>
       </c>
-      <c r="C31" s="333"/>
+      <c r="C31" s="334"/>
       <c r="D31" s="113"/>
       <c r="E31" s="72">
         <v>5</v>
@@ -15426,10 +15462,10 @@
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
-      <c r="B32" s="332" t="s">
+      <c r="B32" s="333" t="s">
         <v>543</v>
       </c>
-      <c r="C32" s="333"/>
+      <c r="C32" s="334"/>
       <c r="D32" s="113"/>
       <c r="E32" s="72">
         <v>6</v>
@@ -15441,10 +15477,10 @@
     </row>
     <row r="33" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
-      <c r="B33" s="332" t="s">
+      <c r="B33" s="333" t="s">
         <v>544</v>
       </c>
-      <c r="C33" s="333"/>
+      <c r="C33" s="334"/>
       <c r="D33" s="113"/>
       <c r="E33" s="72">
         <v>7</v>
@@ -15456,10 +15492,10 @@
     </row>
     <row r="34" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="332" t="s">
+      <c r="B34" s="333" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="333"/>
+      <c r="C34" s="334"/>
       <c r="D34" s="113"/>
       <c r="E34" s="72">
         <v>8</v>
@@ -15471,10 +15507,10 @@
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21"/>
-      <c r="B35" s="332" t="s">
+      <c r="B35" s="333" t="s">
         <v>545</v>
       </c>
-      <c r="C35" s="333"/>
+      <c r="C35" s="334"/>
       <c r="D35" s="113"/>
       <c r="E35" s="79">
         <v>9</v>
@@ -15486,10 +15522,10 @@
     </row>
     <row r="36" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="330" t="s">
+      <c r="B36" s="331" t="s">
         <v>546</v>
       </c>
-      <c r="C36" s="331"/>
+      <c r="C36" s="332"/>
       <c r="D36" s="113"/>
       <c r="E36" s="195">
         <f>SUM(E28:E35)</f>
@@ -15505,10 +15541,10 @@
       <c r="A37" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B37" s="307" t="s">
+      <c r="B37" s="312" t="s">
         <v>369</v>
       </c>
-      <c r="C37" s="308"/>
+      <c r="C37" s="313"/>
       <c r="D37" s="113"/>
       <c r="E37" s="72">
         <v>-6</v>
@@ -15522,10 +15558,10 @@
       <c r="A38" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B38" s="307" t="s">
+      <c r="B38" s="312" t="s">
         <v>378</v>
       </c>
-      <c r="C38" s="308"/>
+      <c r="C38" s="313"/>
       <c r="D38" s="113"/>
       <c r="E38" s="72">
         <v>-6</v>
@@ -15539,10 +15575,10 @@
       <c r="A39" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B39" s="307" t="s">
+      <c r="B39" s="312" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="308"/>
+      <c r="C39" s="313"/>
       <c r="D39" s="113"/>
       <c r="E39" s="72">
         <v>-4</v>
@@ -15556,10 +15592,10 @@
       <c r="A40" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B40" s="313" t="s">
+      <c r="B40" s="321" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="314"/>
+      <c r="C40" s="322"/>
       <c r="D40" s="113"/>
       <c r="E40" s="72">
         <v>-6</v>
@@ -15571,10 +15607,10 @@
     </row>
     <row r="41" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="110"/>
-      <c r="B41" s="233" t="s">
+      <c r="B41" s="235" t="s">
         <v>289</v>
       </c>
-      <c r="C41" s="234"/>
+      <c r="C41" s="236"/>
       <c r="D41" s="112"/>
       <c r="E41" s="188">
         <f>SUM(E36:E40,E25,E26)</f>
@@ -15592,10 +15628,10 @@
       <c r="A42" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B42" s="336" t="s">
+      <c r="B42" s="325" t="s">
         <v>374</v>
       </c>
-      <c r="C42" s="337"/>
+      <c r="C42" s="326"/>
       <c r="D42" s="113"/>
       <c r="E42" s="72">
         <v>6</v>
@@ -15609,10 +15645,10 @@
       <c r="A43" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B43" s="307" t="s">
+      <c r="B43" s="312" t="s">
         <v>375</v>
       </c>
-      <c r="C43" s="308"/>
+      <c r="C43" s="313"/>
       <c r="D43" s="113"/>
       <c r="E43" s="72">
         <v>-3</v>
@@ -15626,10 +15662,10 @@
       <c r="A44" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B44" s="313" t="s">
+      <c r="B44" s="321" t="s">
         <v>376</v>
       </c>
-      <c r="C44" s="314"/>
+      <c r="C44" s="322"/>
       <c r="D44" s="113"/>
       <c r="E44" s="72">
         <v>6</v>
@@ -15641,10 +15677,10 @@
     </row>
     <row r="45" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="110"/>
-      <c r="B45" s="233" t="s">
+      <c r="B45" s="235" t="s">
         <v>288</v>
       </c>
-      <c r="C45" s="234"/>
+      <c r="C45" s="236"/>
       <c r="D45" s="112"/>
       <c r="E45" s="188">
         <f>SUM(E41:E44)</f>
@@ -15660,10 +15696,10 @@
       <c r="A46" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B46" s="334" t="s">
+      <c r="B46" s="323" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="335"/>
+      <c r="C46" s="324"/>
       <c r="D46" s="113"/>
       <c r="E46" s="74">
         <v>1</v>
@@ -15675,10 +15711,10 @@
     </row>
     <row r="47" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="110"/>
-      <c r="B47" s="233" t="s">
+      <c r="B47" s="235" t="s">
         <v>405</v>
       </c>
-      <c r="C47" s="234"/>
+      <c r="C47" s="236"/>
       <c r="D47" s="112"/>
       <c r="E47" s="188">
         <f>SUM(E45:E46)</f>
@@ -15698,37 +15734,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B7:F7"/>
@@ -15744,6 +15749,37 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DD4B0C15-1D0A-4E6A-9C64-50293F400D9C}"/>
@@ -15781,41 +15817,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="210" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="227"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="212"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="261" t="str">
+      <c r="B2" s="266" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="263"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="267"/>
+      <c r="M2" s="268"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -15825,37 +15861,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="251">
+      <c r="B4" s="237">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="252"/>
-      <c r="J4" s="252"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="252"/>
-      <c r="M4" s="253"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="239"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -15865,72 +15901,72 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="253"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="239"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="225" t="s">
+      <c r="A6" s="210" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="227"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="212"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="212"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="221"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="222" t="s">
+      <c r="B8" s="225" t="s">
         <v>573</v>
       </c>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="224"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="226"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="227"/>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -15938,21 +15974,21 @@
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="254" t="s">
+      <c r="A10" s="240" t="s">
         <v>292</v>
       </c>
-      <c r="B10" s="353"/>
-      <c r="C10" s="353"/>
-      <c r="D10" s="353"/>
-      <c r="E10" s="353"/>
-      <c r="F10" s="353"/>
-      <c r="G10" s="353"/>
-      <c r="H10" s="353"/>
-      <c r="I10" s="353"/>
-      <c r="J10" s="353"/>
-      <c r="K10" s="353"/>
-      <c r="L10" s="353"/>
-      <c r="M10" s="255"/>
+      <c r="B10" s="338"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
+      <c r="G10" s="338"/>
+      <c r="H10" s="338"/>
+      <c r="I10" s="338"/>
+      <c r="J10" s="338"/>
+      <c r="K10" s="338"/>
+      <c r="L10" s="338"/>
+      <c r="M10" s="241"/>
     </row>
     <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="108" t="s">
@@ -15967,23 +16003,23 @@
       <c r="D11" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="350" t="s">
+      <c r="E11" s="339" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="351"/>
-      <c r="G11" s="351"/>
-      <c r="H11" s="351"/>
-      <c r="I11" s="351"/>
-      <c r="J11" s="351"/>
-      <c r="K11" s="351"/>
-      <c r="L11" s="351"/>
-      <c r="M11" s="352"/>
+      <c r="F11" s="340"/>
+      <c r="G11" s="340"/>
+      <c r="H11" s="340"/>
+      <c r="I11" s="340"/>
+      <c r="J11" s="340"/>
+      <c r="K11" s="340"/>
+      <c r="L11" s="340"/>
+      <c r="M11" s="341"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="344" t="s">
+      <c r="A12" s="342" t="s">
         <v>423</v>
       </c>
-      <c r="B12" s="345"/>
+      <c r="B12" s="343"/>
       <c r="C12" s="56"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
@@ -15997,8 +16033,8 @@
       <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="342"/>
-      <c r="B13" s="343"/>
+      <c r="A13" s="348"/>
+      <c r="B13" s="349"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -16012,8 +16048,8 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="338"/>
-      <c r="B14" s="339"/>
+      <c r="A14" s="350"/>
+      <c r="B14" s="351"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
@@ -16027,8 +16063,8 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="338"/>
-      <c r="B15" s="339"/>
+      <c r="A15" s="350"/>
+      <c r="B15" s="351"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
@@ -16042,8 +16078,8 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="338"/>
-      <c r="B16" s="339"/>
+      <c r="A16" s="350"/>
+      <c r="B16" s="351"/>
       <c r="C16" s="60" t="s">
         <v>513</v>
       </c>
@@ -16059,8 +16095,8 @@
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="338"/>
-      <c r="B17" s="339"/>
+      <c r="A17" s="350"/>
+      <c r="B17" s="351"/>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
@@ -16074,8 +16110,8 @@
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="338"/>
-      <c r="B18" s="339"/>
+      <c r="A18" s="350"/>
+      <c r="B18" s="351"/>
       <c r="C18" s="60" t="s">
         <v>424</v>
       </c>
@@ -16091,8 +16127,8 @@
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="338"/>
-      <c r="B19" s="339"/>
+      <c r="A19" s="350"/>
+      <c r="B19" s="351"/>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
@@ -16106,8 +16142,8 @@
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="338"/>
-      <c r="B20" s="339"/>
+      <c r="A20" s="350"/>
+      <c r="B20" s="351"/>
       <c r="C20" s="60" t="s">
         <v>425</v>
       </c>
@@ -16123,8 +16159,8 @@
       <c r="M20" s="31"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="338"/>
-      <c r="B21" s="339"/>
+      <c r="A21" s="350"/>
+      <c r="B21" s="351"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
@@ -16138,8 +16174,8 @@
       <c r="M21" s="31"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="338"/>
-      <c r="B22" s="339"/>
+      <c r="A22" s="350"/>
+      <c r="B22" s="351"/>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -16153,8 +16189,8 @@
       <c r="M22" s="31"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="338"/>
-      <c r="B23" s="339"/>
+      <c r="A23" s="350"/>
+      <c r="B23" s="351"/>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
@@ -16168,8 +16204,8 @@
       <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="338"/>
-      <c r="B24" s="339"/>
+      <c r="A24" s="350"/>
+      <c r="B24" s="351"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
@@ -16183,8 +16219,8 @@
       <c r="M24" s="31"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="338"/>
-      <c r="B25" s="339"/>
+      <c r="A25" s="350"/>
+      <c r="B25" s="351"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
@@ -16198,8 +16234,8 @@
       <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="338"/>
-      <c r="B26" s="339"/>
+      <c r="A26" s="350"/>
+      <c r="B26" s="351"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
@@ -16213,8 +16249,8 @@
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="338"/>
-      <c r="B27" s="339"/>
+      <c r="A27" s="350"/>
+      <c r="B27" s="351"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
@@ -16228,8 +16264,8 @@
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="338"/>
-      <c r="B28" s="339"/>
+      <c r="A28" s="350"/>
+      <c r="B28" s="351"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
@@ -16243,8 +16279,8 @@
       <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="338"/>
-      <c r="B29" s="339"/>
+      <c r="A29" s="350"/>
+      <c r="B29" s="351"/>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
@@ -16258,8 +16294,8 @@
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="338"/>
-      <c r="B30" s="339"/>
+      <c r="A30" s="350"/>
+      <c r="B30" s="351"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
@@ -16273,8 +16309,8 @@
       <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="340"/>
-      <c r="B31" s="341"/>
+      <c r="A31" s="352"/>
+      <c r="B31" s="353"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -16294,10 +16330,10 @@
       <c r="B32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="240" t="s">
+      <c r="C32" s="253" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="242"/>
+      <c r="D32" s="255"/>
       <c r="E32" s="60" t="s">
         <v>398</v>
       </c>
@@ -16394,10 +16430,10 @@
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="232" t="s">
+      <c r="C37" s="234" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="234"/>
+      <c r="D37" s="236"/>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
@@ -16687,10 +16723,10 @@
       <c r="B52" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="232" t="s">
+      <c r="C52" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="234"/>
+      <c r="D52" s="236"/>
       <c r="E52" s="59"/>
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
@@ -16780,10 +16816,10 @@
     <row r="57" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="232" t="s">
+      <c r="C57" s="234" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="234"/>
+      <c r="D57" s="236"/>
       <c r="E57" s="59"/>
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
@@ -16797,10 +16833,10 @@
     <row r="58" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="232" t="s">
+      <c r="C58" s="234" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="234"/>
+      <c r="D58" s="236"/>
       <c r="E58" s="59"/>
       <c r="F58" s="60"/>
       <c r="G58" s="60"/>
@@ -17030,10 +17066,10 @@
       <c r="B70" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="232" t="s">
+      <c r="C70" s="234" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="233"/>
+      <c r="D70" s="235"/>
       <c r="E70" s="59"/>
       <c r="F70" s="60"/>
       <c r="G70" s="60"/>
@@ -17333,21 +17369,21 @@
       <c r="M85" s="62"/>
     </row>
     <row r="86" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="346" t="s">
+      <c r="A86" s="344" t="s">
         <v>292</v>
       </c>
-      <c r="B86" s="347"/>
-      <c r="C86" s="347"/>
-      <c r="D86" s="347"/>
-      <c r="E86" s="348"/>
-      <c r="F86" s="348"/>
-      <c r="G86" s="348"/>
-      <c r="H86" s="348"/>
-      <c r="I86" s="348"/>
-      <c r="J86" s="348"/>
-      <c r="K86" s="348"/>
-      <c r="L86" s="348"/>
-      <c r="M86" s="349"/>
+      <c r="B86" s="345"/>
+      <c r="C86" s="345"/>
+      <c r="D86" s="345"/>
+      <c r="E86" s="346"/>
+      <c r="F86" s="346"/>
+      <c r="G86" s="346"/>
+      <c r="H86" s="346"/>
+      <c r="I86" s="346"/>
+      <c r="J86" s="346"/>
+      <c r="K86" s="346"/>
+      <c r="L86" s="346"/>
+      <c r="M86" s="347"/>
     </row>
     <row r="87" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="52" t="s">
@@ -17362,17 +17398,17 @@
       <c r="D87" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E87" s="350" t="s">
+      <c r="E87" s="339" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="351"/>
-      <c r="G87" s="351"/>
-      <c r="H87" s="351"/>
-      <c r="I87" s="351"/>
-      <c r="J87" s="351"/>
-      <c r="K87" s="351"/>
-      <c r="L87" s="351"/>
-      <c r="M87" s="352"/>
+      <c r="F87" s="340"/>
+      <c r="G87" s="340"/>
+      <c r="H87" s="340"/>
+      <c r="I87" s="340"/>
+      <c r="J87" s="340"/>
+      <c r="K87" s="340"/>
+      <c r="L87" s="340"/>
+      <c r="M87" s="341"/>
     </row>
     <row r="88" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="48" t="s">
@@ -17397,10 +17433,10 @@
     </row>
     <row r="89" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
-      <c r="C89" s="232" t="s">
+      <c r="C89" s="234" t="s">
         <v>204</v>
       </c>
-      <c r="D89" s="234"/>
+      <c r="D89" s="236"/>
       <c r="E89" s="66"/>
       <c r="F89" s="67"/>
       <c r="G89" s="67"/>
@@ -17690,10 +17726,10 @@
       <c r="B105" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="232" t="s">
+      <c r="C105" s="234" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="234"/>
+      <c r="D105" s="236"/>
       <c r="E105" s="56"/>
       <c r="F105" s="57"/>
       <c r="G105" s="57"/>
@@ -17783,10 +17819,10 @@
     <row r="110" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="232" t="s">
+      <c r="C110" s="234" t="s">
         <v>226</v>
       </c>
-      <c r="D110" s="234"/>
+      <c r="D110" s="236"/>
       <c r="E110" s="59"/>
       <c r="F110" s="60"/>
       <c r="G110" s="60"/>
@@ -17800,10 +17836,10 @@
     <row r="111" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="232" t="s">
+      <c r="C111" s="234" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="234"/>
+      <c r="D111" s="236"/>
       <c r="E111" s="59"/>
       <c r="F111" s="60"/>
       <c r="G111" s="60"/>
@@ -18148,10 +18184,10 @@
       <c r="B129" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C129" s="232" t="s">
+      <c r="C129" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="234"/>
+      <c r="D129" s="236"/>
       <c r="E129" s="56"/>
       <c r="F129" s="57"/>
       <c r="G129" s="57"/>
@@ -18241,10 +18277,10 @@
     <row r="134" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="232" t="s">
+      <c r="C134" s="234" t="s">
         <v>248</v>
       </c>
-      <c r="D134" s="234"/>
+      <c r="D134" s="236"/>
       <c r="E134" s="59"/>
       <c r="F134" s="60"/>
       <c r="G134" s="60"/>
@@ -18258,10 +18294,10 @@
     <row r="135" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="232" t="s">
+      <c r="C135" s="234" t="s">
         <v>249</v>
       </c>
-      <c r="D135" s="234"/>
+      <c r="D135" s="236"/>
       <c r="E135" s="59"/>
       <c r="F135" s="60"/>
       <c r="G135" s="60"/>
@@ -18275,10 +18311,10 @@
     <row r="136" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="232" t="s">
+      <c r="C136" s="234" t="s">
         <v>250</v>
       </c>
-      <c r="D136" s="234"/>
+      <c r="D136" s="236"/>
       <c r="E136" s="59"/>
       <c r="F136" s="60"/>
       <c r="G136" s="60"/>
@@ -18585,10 +18621,10 @@
       <c r="B152" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C152" s="232" t="s">
+      <c r="C152" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="D152" s="234"/>
+      <c r="D152" s="236"/>
       <c r="E152" s="56"/>
       <c r="F152" s="57"/>
       <c r="G152" s="57"/>
@@ -18909,10 +18945,10 @@
       <c r="B170" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C170" s="232" t="s">
+      <c r="C170" s="234" t="s">
         <v>46</v>
       </c>
-      <c r="D170" s="234"/>
+      <c r="D170" s="236"/>
       <c r="E170" s="59"/>
       <c r="F170" s="60"/>
       <c r="G170" s="60"/>
@@ -19184,10 +19220,10 @@
       <c r="B185" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="232" t="s">
+      <c r="C185" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="D185" s="234"/>
+      <c r="D185" s="236"/>
       <c r="E185" s="56"/>
       <c r="F185" s="57"/>
       <c r="G185" s="57"/>
@@ -19263,10 +19299,10 @@
       <c r="B189" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C189" s="232" t="s">
+      <c r="C189" s="234" t="s">
         <v>257</v>
       </c>
-      <c r="D189" s="234"/>
+      <c r="D189" s="236"/>
       <c r="E189" s="56"/>
       <c r="F189" s="57"/>
       <c r="G189" s="57"/>
@@ -19909,10 +19945,10 @@
       <c r="B228" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C228" s="232" t="s">
+      <c r="C228" s="234" t="s">
         <v>39</v>
       </c>
-      <c r="D228" s="233"/>
+      <c r="D228" s="235"/>
       <c r="E228" s="42"/>
       <c r="F228" s="44"/>
       <c r="G228" s="44"/>
@@ -20002,6 +20038,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A86:M86"/>
+    <mergeCell ref="E87:M87"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="C185:D185"/>
@@ -20018,41 +20089,6 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="B8:M8"/>
     <mergeCell ref="C5:M5"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A86:M86"/>
-    <mergeCell ref="E87:M87"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{CAFC6D68-6070-4D51-BEF1-3FF68EC64F87}"/>

--- a/ifrs-sme-model.xlsx
+++ b/ifrs-sme-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A930194-8677-41B1-B43F-7299A55F7A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CDE55B-7C2A-4047-8DAC-B8E80436726B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="692" firstSheet="3" activeTab="6" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="12" r:id="rId1"/>
@@ -2803,6 +2803,51 @@
     <xf numFmtId="2" fontId="1" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,49 +2857,55 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2875,15 +2926,6 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2908,46 +2950,223 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2957,201 +3176,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3170,63 +3194,66 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3236,34 +3263,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -5146,7 +5146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E39E00-679F-4C07-AF1E-EEF0925BBADB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -5162,7 +5162,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5175,41 +5175,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="212"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="227"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="266" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="268"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="263"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -5219,37 +5219,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="237">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="238"/>
-      <c r="M4" s="239"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="253"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -5259,90 +5259,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="212"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="227"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="221"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="212"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="225" t="s">
+      <c r="B8" s="222" t="s">
         <v>574</v>
       </c>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="226"/>
-      <c r="J8" s="226"/>
-      <c r="K8" s="226"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="227"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="224"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="240" t="s">
+      <c r="A11" s="254" t="s">
         <v>514</v>
       </c>
-      <c r="B11" s="338"/>
-      <c r="C11" s="338"/>
-      <c r="D11" s="338"/>
-      <c r="E11" s="338"/>
-      <c r="F11" s="338"/>
-      <c r="G11" s="338"/>
-      <c r="H11" s="338"/>
-      <c r="I11" s="338"/>
-      <c r="J11" s="338"/>
-      <c r="K11" s="338"/>
-      <c r="L11" s="338"/>
-      <c r="M11" s="241"/>
+      <c r="B11" s="362"/>
+      <c r="C11" s="362"/>
+      <c r="D11" s="362"/>
+      <c r="E11" s="362"/>
+      <c r="F11" s="362"/>
+      <c r="G11" s="362"/>
+      <c r="H11" s="362"/>
+      <c r="I11" s="362"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="362"/>
+      <c r="L11" s="362"/>
+      <c r="M11" s="255"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="52" t="s">
@@ -5357,17 +5357,17 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="344" t="s">
+      <c r="E12" s="355" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="345"/>
-      <c r="G12" s="345"/>
-      <c r="H12" s="345"/>
-      <c r="I12" s="345"/>
-      <c r="J12" s="345"/>
-      <c r="K12" s="345"/>
-      <c r="L12" s="345"/>
-      <c r="M12" s="354"/>
+      <c r="F12" s="356"/>
+      <c r="G12" s="356"/>
+      <c r="H12" s="356"/>
+      <c r="I12" s="356"/>
+      <c r="J12" s="356"/>
+      <c r="K12" s="356"/>
+      <c r="L12" s="356"/>
+      <c r="M12" s="363"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47" t="s">
@@ -5376,10 +5376,10 @@
       <c r="B13" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="C13" s="355" t="s">
+      <c r="C13" s="364" t="s">
         <v>528</v>
       </c>
-      <c r="D13" s="356"/>
+      <c r="D13" s="365"/>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -5801,41 +5801,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="212"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="227"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="266" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="268"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="263"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -5845,37 +5845,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="237">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="238"/>
-      <c r="M4" s="239"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="253"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -5885,90 +5885,90 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="212"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="227"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="221"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="212"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="225" t="s">
+      <c r="B8" s="222" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="226"/>
-      <c r="J8" s="226"/>
-      <c r="K8" s="226"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="227"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="224"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="240" t="s">
+      <c r="A11" s="254" t="s">
         <v>553</v>
       </c>
-      <c r="B11" s="338"/>
-      <c r="C11" s="338"/>
-      <c r="D11" s="338"/>
-      <c r="E11" s="338"/>
-      <c r="F11" s="338"/>
-      <c r="G11" s="338"/>
-      <c r="H11" s="338"/>
-      <c r="I11" s="338"/>
-      <c r="J11" s="338"/>
-      <c r="K11" s="338"/>
-      <c r="L11" s="338"/>
-      <c r="M11" s="241"/>
+      <c r="B11" s="362"/>
+      <c r="C11" s="362"/>
+      <c r="D11" s="362"/>
+      <c r="E11" s="362"/>
+      <c r="F11" s="362"/>
+      <c r="G11" s="362"/>
+      <c r="H11" s="362"/>
+      <c r="I11" s="362"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="362"/>
+      <c r="L11" s="362"/>
+      <c r="M11" s="255"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="108" t="s">
@@ -5983,17 +5983,17 @@
       <c r="D12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="344" t="s">
+      <c r="E12" s="355" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="345"/>
-      <c r="G12" s="345"/>
-      <c r="H12" s="345"/>
-      <c r="I12" s="345"/>
-      <c r="J12" s="345"/>
-      <c r="K12" s="345"/>
-      <c r="L12" s="345"/>
-      <c r="M12" s="354"/>
+      <c r="F12" s="356"/>
+      <c r="G12" s="356"/>
+      <c r="H12" s="356"/>
+      <c r="I12" s="356"/>
+      <c r="J12" s="356"/>
+      <c r="K12" s="356"/>
+      <c r="L12" s="356"/>
+      <c r="M12" s="363"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="141" t="s">
@@ -6002,10 +6002,10 @@
       <c r="B13" s="134" t="s">
         <v>555</v>
       </c>
-      <c r="C13" s="355" t="s">
+      <c r="C13" s="364" t="s">
         <v>555</v>
       </c>
-      <c r="D13" s="356"/>
+      <c r="D13" s="365"/>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -6196,10 +6196,10 @@
       <c r="A23" s="137">
         <v>7.21</v>
       </c>
-      <c r="B23" s="234" t="s">
+      <c r="B23" s="232" t="s">
         <v>564</v>
       </c>
-      <c r="C23" s="236"/>
+      <c r="C23" s="234"/>
       <c r="D23" s="41"/>
       <c r="E23" s="61"/>
       <c r="F23" s="10"/>
@@ -6966,119 +6966,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="225" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="212"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="227"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="216" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="107" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="215"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="218"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="216" t="s">
         <v>421</v>
       </c>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="215"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="218"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>547</v>
       </c>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="216" t="s">
         <v>550</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="215"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="218"/>
     </row>
     <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107" t="s">
         <v>418</v>
       </c>
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="216" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="215"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="218"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="107" t="s">
         <v>548</v>
       </c>
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="216" t="s">
         <v>551</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="215"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="218"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="216">
+      <c r="B8" s="219">
         <v>45292</v>
       </c>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="218"/>
+      <c r="C8" s="220"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="221"/>
     </row>
     <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="216">
+      <c r="B9" s="219">
         <v>45657</v>
       </c>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="218"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="221"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="117" t="s">
@@ -7151,95 +7151,95 @@
       <c r="A17" s="105" t="s">
         <v>407</v>
       </c>
-      <c r="B17" s="219" t="s">
+      <c r="B17" s="210" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="220"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="221"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="212"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" s="105"/>
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="213" t="s">
         <v>410</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="224"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="215"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" s="105"/>
-      <c r="B19" s="222" t="s">
+      <c r="B19" s="213" t="s">
         <v>411</v>
       </c>
-      <c r="C19" s="223"/>
-      <c r="D19" s="223"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="223"/>
-      <c r="G19" s="224"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="215"/>
     </row>
     <row r="20" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="106"/>
-      <c r="B20" s="225" t="s">
+      <c r="B20" s="222" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="226"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="227"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="224"/>
     </row>
     <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="105" t="s">
         <v>408</v>
       </c>
-      <c r="B21" s="216" t="s">
+      <c r="B21" s="219" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="217"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="217"/>
-      <c r="G21" s="218"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="221"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="104" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="219" t="s">
+      <c r="B22" s="210" t="s">
         <v>415</v>
       </c>
-      <c r="C22" s="220"/>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="221"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="212"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A23" s="105"/>
-      <c r="B23" s="222" t="s">
+      <c r="B23" s="213" t="s">
         <v>416</v>
       </c>
-      <c r="C23" s="223"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="224"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="215"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A24" s="105"/>
-      <c r="B24" s="222" t="s">
+      <c r="B24" s="213" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="223"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="224"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="215"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A25" s="105"/>
@@ -7309,6 +7309,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
@@ -7318,14 +7326,6 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
@@ -7342,7 +7342,7 @@
   </sheetPr>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -7361,118 +7361,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="212"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="227"/>
     </row>
     <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="228" t="str">
+      <c r="B2" s="245" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="230"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="247"/>
     </row>
     <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="228" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="230"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="247"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="237">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="239"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="253"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="237">
+      <c r="B5" s="251">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="239"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="253"/>
     </row>
     <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="212"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="227"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="242" t="s">
+      <c r="B7" s="256" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="244"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="257"/>
+      <c r="F7" s="257"/>
+      <c r="G7" s="258"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="248" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="233"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="250"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="240" t="s">
+      <c r="B10" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="241"/>
+      <c r="C10" s="255"/>
       <c r="D10" s="138" t="s">
         <v>73</v>
       </c>
@@ -7489,33 +7489,33 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="234" t="s">
+      <c r="B11" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="236"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="234"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="253" t="s">
+      <c r="B12" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="254"/>
-      <c r="D12" s="254"/>
-      <c r="E12" s="254"/>
-      <c r="F12" s="254"/>
-      <c r="G12" s="255"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="242"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="247" t="s">
+      <c r="B13" s="230" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="248"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="6" t="s">
         <v>123</v>
       </c>
@@ -7534,10 +7534,10 @@
       <c r="A14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="245" t="s">
+      <c r="B14" s="228" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="246"/>
+      <c r="C14" s="229"/>
       <c r="D14" s="7"/>
       <c r="E14" s="72"/>
       <c r="F14" s="78">
@@ -7549,10 +7549,10 @@
       <c r="A15" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="245" t="s">
+      <c r="B15" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="246"/>
+      <c r="C15" s="229"/>
       <c r="D15" s="7"/>
       <c r="E15" s="72"/>
       <c r="F15" s="78"/>
@@ -7562,10 +7562,10 @@
       <c r="A16" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="245" t="s">
+      <c r="B16" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="246"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="7"/>
       <c r="E16" s="72">
         <v>20</v>
@@ -7579,10 +7579,10 @@
       <c r="A17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="245" t="s">
+      <c r="B17" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="246"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="7"/>
       <c r="E17" s="72">
         <v>30</v>
@@ -7596,10 +7596,10 @@
       <c r="A18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="245" t="s">
+      <c r="B18" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="246"/>
+      <c r="C18" s="229"/>
       <c r="D18" s="7"/>
       <c r="E18" s="72"/>
       <c r="F18" s="78"/>
@@ -7609,10 +7609,10 @@
       <c r="A19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="245" t="s">
+      <c r="B19" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="246"/>
+      <c r="C19" s="229"/>
       <c r="D19" s="7"/>
       <c r="E19" s="72"/>
       <c r="F19" s="78"/>
@@ -7622,10 +7622,10 @@
       <c r="A20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="245" t="s">
+      <c r="B20" s="228" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="246"/>
+      <c r="C20" s="229"/>
       <c r="D20" s="7"/>
       <c r="E20" s="72"/>
       <c r="F20" s="78"/>
@@ -7635,10 +7635,10 @@
       <c r="A21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="245" t="s">
+      <c r="B21" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="246"/>
+      <c r="C21" s="229"/>
       <c r="D21" s="7"/>
       <c r="E21" s="72"/>
       <c r="F21" s="78"/>
@@ -7648,10 +7648,10 @@
       <c r="A22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="245" t="s">
+      <c r="B22" s="228" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="246"/>
+      <c r="C22" s="229"/>
       <c r="D22" s="7" t="s">
         <v>124</v>
       </c>
@@ -7668,10 +7668,10 @@
       <c r="A23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="245" t="s">
+      <c r="B23" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="246"/>
+      <c r="C23" s="229"/>
       <c r="D23" s="7"/>
       <c r="E23" s="72"/>
       <c r="F23" s="78"/>
@@ -7681,10 +7681,10 @@
       <c r="A24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="245" t="s">
+      <c r="B24" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="246"/>
+      <c r="C24" s="229"/>
       <c r="D24" s="7"/>
       <c r="E24" s="72"/>
       <c r="F24" s="78"/>
@@ -7694,10 +7694,10 @@
       <c r="A25" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="245" t="s">
+      <c r="B25" s="228" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="246"/>
+      <c r="C25" s="229"/>
       <c r="D25" s="7"/>
       <c r="E25" s="72"/>
       <c r="F25" s="78"/>
@@ -7707,10 +7707,10 @@
       <c r="A26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="245" t="s">
+      <c r="B26" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="246"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="7"/>
       <c r="E26" s="72"/>
       <c r="F26" s="78"/>
@@ -7720,20 +7720,20 @@
       <c r="A27" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="251" t="s">
+      <c r="B27" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="252"/>
+      <c r="C27" s="239"/>
       <c r="D27" s="8"/>
       <c r="E27" s="79"/>
       <c r="F27" s="78"/>
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="249" t="s">
+      <c r="B28" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="250"/>
+      <c r="C28" s="244"/>
       <c r="E28" s="184">
         <f>SUM(E13:E27)</f>
         <v>51</v>
@@ -7761,23 +7761,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="234" t="s">
+      <c r="B31" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="235"/>
-      <c r="D31" s="235"/>
-      <c r="E31" s="235"/>
-      <c r="F31" s="235"/>
-      <c r="G31" s="235"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="233"/>
+      <c r="G31" s="233"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="247" t="s">
+      <c r="B32" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="248"/>
+      <c r="C32" s="231"/>
       <c r="D32" s="6" t="s">
         <v>125</v>
       </c>
@@ -7796,10 +7796,10 @@
       <c r="A33" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="245" t="s">
+      <c r="B33" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="246"/>
+      <c r="C33" s="229"/>
       <c r="D33" s="7" t="s">
         <v>126</v>
       </c>
@@ -7816,10 +7816,10 @@
       <c r="A34" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="245" t="s">
+      <c r="B34" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="246"/>
+      <c r="C34" s="229"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72"/>
       <c r="F34" s="72"/>
@@ -7829,10 +7829,10 @@
       <c r="A35" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="245" t="s">
+      <c r="B35" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="246"/>
+      <c r="C35" s="229"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72"/>
       <c r="F35" s="72"/>
@@ -7842,10 +7842,10 @@
       <c r="A36" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="245" t="s">
+      <c r="B36" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="246"/>
+      <c r="C36" s="229"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72"/>
       <c r="F36" s="72"/>
@@ -7855,10 +7855,10 @@
       <c r="A37" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="245" t="s">
+      <c r="B37" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="246"/>
+      <c r="C37" s="229"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
@@ -7868,10 +7868,10 @@
       <c r="A38" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="245" t="s">
+      <c r="B38" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="246"/>
+      <c r="C38" s="229"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72"/>
       <c r="F38" s="72"/>
@@ -7881,10 +7881,10 @@
       <c r="A39" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="245" t="s">
+      <c r="B39" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="246"/>
+      <c r="C39" s="229"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>10</v>
@@ -7898,20 +7898,20 @@
       <c r="A40" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="251" t="s">
+      <c r="B40" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="252"/>
+      <c r="C40" s="239"/>
       <c r="D40" s="8"/>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
       <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="234" t="s">
+      <c r="B41" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="236"/>
+      <c r="C41" s="234"/>
       <c r="E41" s="185">
         <f>SUM(E32:E40)</f>
         <v>40</v>
@@ -7922,10 +7922,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="234" t="s">
+      <c r="B42" s="232" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="236"/>
+      <c r="C42" s="234"/>
       <c r="E42" s="185">
         <f>SUM(E28,E41)</f>
         <v>91</v>
@@ -7956,33 +7956,33 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="234" t="s">
+      <c r="B45" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="235"/>
-      <c r="D45" s="235"/>
-      <c r="E45" s="235"/>
-      <c r="F45" s="235"/>
-      <c r="G45" s="236"/>
+      <c r="C45" s="233"/>
+      <c r="D45" s="233"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="233"/>
+      <c r="G45" s="234"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="234" t="s">
+      <c r="B46" s="232" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="235"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="235"/>
-      <c r="F46" s="235"/>
-      <c r="G46" s="236"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="234"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="247" t="s">
+      <c r="B47" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="248"/>
+      <c r="C47" s="231"/>
       <c r="D47" s="6" t="s">
         <v>127</v>
       </c>
@@ -7999,10 +7999,10 @@
       <c r="A48" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="245" t="s">
+      <c r="B48" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="246"/>
+      <c r="C48" s="229"/>
       <c r="D48" s="7" t="s">
         <v>128</v>
       </c>
@@ -8019,10 +8019,10 @@
       <c r="A49" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="245" t="s">
+      <c r="B49" s="228" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="246"/>
+      <c r="C49" s="229"/>
       <c r="D49" s="7" t="s">
         <v>129</v>
       </c>
@@ -8039,10 +8039,10 @@
       <c r="A50" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="245" t="s">
+      <c r="B50" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="246"/>
+      <c r="C50" s="229"/>
       <c r="D50" s="7"/>
       <c r="E50" s="72"/>
       <c r="F50" s="78"/>
@@ -8052,10 +8052,10 @@
       <c r="A51" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="245" t="s">
+      <c r="B51" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="246"/>
+      <c r="C51" s="229"/>
       <c r="D51" s="7" t="s">
         <v>130</v>
       </c>
@@ -8072,10 +8072,10 @@
       <c r="A52" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="245" t="s">
+      <c r="B52" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="246"/>
+      <c r="C52" s="229"/>
       <c r="D52" s="8" t="s">
         <v>131</v>
       </c>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="234" t="s">
+      <c r="B53" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="236"/>
+      <c r="C53" s="234"/>
       <c r="D53" s="81"/>
       <c r="E53" s="186">
         <f>SUM(E47:E52)</f>
@@ -8110,19 +8110,19 @@
       <c r="A54" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="251" t="s">
+      <c r="B54" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="252"/>
+      <c r="C54" s="239"/>
       <c r="D54" s="82"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="10"/>
+      <c r="F54" s="366"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="234" t="s">
+      <c r="B55" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="236"/>
+      <c r="C55" s="234"/>
       <c r="E55" s="184">
         <f>SUM(E53,E54)</f>
         <v>15</v>
@@ -8150,33 +8150,33 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="234" t="s">
+      <c r="B58" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="235"/>
-      <c r="D58" s="235"/>
-      <c r="E58" s="235"/>
-      <c r="F58" s="235"/>
-      <c r="G58" s="236"/>
+      <c r="C58" s="233"/>
+      <c r="D58" s="233"/>
+      <c r="E58" s="233"/>
+      <c r="F58" s="233"/>
+      <c r="G58" s="234"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="253" t="s">
+      <c r="B59" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="254"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="254"/>
-      <c r="F59" s="254"/>
-      <c r="G59" s="254"/>
+      <c r="C59" s="241"/>
+      <c r="D59" s="241"/>
+      <c r="E59" s="241"/>
+      <c r="F59" s="241"/>
+      <c r="G59" s="241"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="247" t="s">
+      <c r="B60" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="248"/>
+      <c r="C60" s="231"/>
       <c r="D60" s="6"/>
       <c r="E60" s="76"/>
       <c r="F60" s="77"/>
@@ -8186,10 +8186,10 @@
       <c r="A61" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="245" t="s">
+      <c r="B61" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="246"/>
+      <c r="C61" s="229"/>
       <c r="D61" s="7" t="s">
         <v>311</v>
       </c>
@@ -8208,10 +8208,10 @@
       <c r="A62" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="251" t="s">
+      <c r="B62" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="252"/>
+      <c r="C62" s="239"/>
       <c r="D62" s="8"/>
       <c r="E62" s="79">
         <v>2</v>
@@ -8240,10 +8240,10 @@
       <c r="A64" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="247" t="s">
+      <c r="B64" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="248"/>
+      <c r="C64" s="231"/>
       <c r="D64" s="6" t="s">
         <v>312</v>
       </c>
@@ -8260,10 +8260,10 @@
       <c r="A65" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="245" t="s">
+      <c r="B65" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="246"/>
+      <c r="C65" s="229"/>
       <c r="D65" s="7"/>
       <c r="E65" s="72">
         <v>4</v>
@@ -8277,10 +8277,10 @@
       <c r="A66" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="245" t="s">
+      <c r="B66" s="228" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="246"/>
+      <c r="C66" s="229"/>
       <c r="D66" s="7"/>
       <c r="E66" s="72"/>
       <c r="F66" s="78"/>
@@ -8290,10 +8290,10 @@
       <c r="A67" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="245" t="s">
+      <c r="B67" s="228" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="246"/>
+      <c r="C67" s="229"/>
       <c r="D67" s="7"/>
       <c r="E67" s="72"/>
       <c r="F67" s="78"/>
@@ -8303,10 +8303,10 @@
       <c r="A68" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="245" t="s">
+      <c r="B68" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="246"/>
+      <c r="C68" s="229"/>
       <c r="D68" s="7"/>
       <c r="E68" s="72"/>
       <c r="F68" s="78"/>
@@ -8316,20 +8316,20 @@
       <c r="A69" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="251" t="s">
+      <c r="B69" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="252"/>
+      <c r="C69" s="239"/>
       <c r="D69" s="8"/>
       <c r="E69" s="79"/>
       <c r="F69" s="83"/>
       <c r="G69" s="38"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="234" t="s">
+      <c r="B70" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="236"/>
+      <c r="C70" s="234"/>
       <c r="E70" s="184">
         <f>SUM(E63:E69)</f>
         <v>9</v>
@@ -8358,23 +8358,23 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="234" t="s">
+      <c r="B73" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="235"/>
-      <c r="D73" s="235"/>
-      <c r="E73" s="235"/>
-      <c r="F73" s="235"/>
-      <c r="G73" s="235"/>
+      <c r="C73" s="233"/>
+      <c r="D73" s="233"/>
+      <c r="E73" s="233"/>
+      <c r="F73" s="233"/>
+      <c r="G73" s="233"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B74" s="247" t="s">
+      <c r="B74" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="248"/>
+      <c r="C74" s="231"/>
       <c r="D74" s="6"/>
       <c r="E74" s="76"/>
       <c r="F74" s="78"/>
@@ -8384,10 +8384,10 @@
       <c r="A75" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B75" s="245" t="s">
+      <c r="B75" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="246"/>
+      <c r="C75" s="229"/>
       <c r="D75" s="7" t="s">
         <v>311</v>
       </c>
@@ -8406,20 +8406,20 @@
       <c r="A76" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B76" s="251" t="s">
+      <c r="B76" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="252"/>
+      <c r="C76" s="239"/>
       <c r="D76" s="8"/>
       <c r="E76" s="79"/>
       <c r="F76" s="78"/>
       <c r="G76" s="38"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="234" t="s">
+      <c r="B77" s="232" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="236"/>
+      <c r="C77" s="234"/>
       <c r="D77" s="84"/>
       <c r="E77" s="188">
         <f>SUM(E74:E76)</f>
@@ -8434,10 +8434,10 @@
       <c r="A78" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B78" s="247" t="s">
+      <c r="B78" s="230" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="248"/>
+      <c r="C78" s="231"/>
       <c r="D78" s="6" t="s">
         <v>312</v>
       </c>
@@ -8456,10 +8456,10 @@
       <c r="A79" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B79" s="245" t="s">
+      <c r="B79" s="228" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="246"/>
+      <c r="C79" s="229"/>
       <c r="D79" s="7"/>
       <c r="E79" s="72"/>
       <c r="F79" s="78"/>
@@ -8469,10 +8469,10 @@
       <c r="A80" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B80" s="245" t="s">
+      <c r="B80" s="228" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="246"/>
+      <c r="C80" s="229"/>
       <c r="D80" s="7"/>
       <c r="E80" s="72"/>
       <c r="F80" s="78"/>
@@ -8482,10 +8482,10 @@
       <c r="A81" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B81" s="245" t="s">
+      <c r="B81" s="228" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="246"/>
+      <c r="C81" s="229"/>
       <c r="D81" s="7"/>
       <c r="E81" s="72">
         <v>2</v>
@@ -8499,10 +8499,10 @@
       <c r="A82" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B82" s="245" t="s">
+      <c r="B82" s="228" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="246"/>
+      <c r="C82" s="229"/>
       <c r="D82" s="7"/>
       <c r="E82" s="72">
         <v>2</v>
@@ -8516,21 +8516,21 @@
       <c r="A83" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B83" s="251" t="s">
+      <c r="B83" s="238" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="252"/>
+      <c r="C83" s="239"/>
       <c r="D83" s="8"/>
       <c r="E83" s="79"/>
       <c r="F83" s="83"/>
       <c r="G83" s="38"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="234" t="s">
+      <c r="B84" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="235"/>
-      <c r="D84" s="236"/>
+      <c r="C84" s="233"/>
+      <c r="D84" s="234"/>
       <c r="E84" s="184">
         <f>SUM(E77:E83)</f>
         <v>16</v>
@@ -8544,11 +8544,11 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="234" t="s">
+      <c r="B86" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="235"/>
-      <c r="D86" s="236"/>
+      <c r="C86" s="233"/>
+      <c r="D86" s="234"/>
       <c r="E86" s="184">
         <f>SUM(E70,E84)</f>
         <v>25</v>
@@ -8560,11 +8560,11 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="234" t="s">
+      <c r="B88" s="232" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="235"/>
-      <c r="D88" s="236"/>
+      <c r="C88" s="233"/>
+      <c r="D88" s="234"/>
       <c r="E88" s="184">
         <f>SUM(E55,E86)</f>
         <v>40</v>
@@ -8582,12 +8582,12 @@
       <c r="A91" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="256" t="str">
+      <c r="B91" s="235" t="str">
         <f>IF(AND(E91=0,F91=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C91" s="257"/>
-      <c r="D91" s="258"/>
+      <c r="C91" s="236"/>
+      <c r="D91" s="237"/>
       <c r="E91" s="75">
         <f>E88-E42</f>
         <v>-51</v>
@@ -8606,11 +8606,62 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B84:D84"/>
@@ -8627,62 +8678,11 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B91">
@@ -8720,7 +8720,7 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G8" sqref="B7:G8"/>
     </sheetView>
   </sheetViews>
@@ -8739,14 +8739,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="265"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="260"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
       <c r="I1" s="97"/>
@@ -8755,63 +8755,63 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="266" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="268"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="263"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="228" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="230"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="247"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="237">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="239"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="253"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="269">
+      <c r="B5" s="264">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="270"/>
-      <c r="F5" s="271"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="266"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="272" t="s">
+      <c r="A6" s="270" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="264"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="265"/>
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="260"/>
       <c r="G6" s="97"/>
       <c r="H6" s="97"/>
       <c r="I6" s="97"/>
@@ -8820,37 +8820,35 @@
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="357" t="s">
+      <c r="B7" s="267" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="358"/>
-      <c r="D7" s="358"/>
-      <c r="E7" s="358"/>
-      <c r="F7" s="359"/>
-      <c r="G7" s="360"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="269"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="357" t="s">
+      <c r="B8" s="267" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="358"/>
-      <c r="D8" s="358"/>
-      <c r="E8" s="358"/>
-      <c r="F8" s="359"/>
-      <c r="G8" s="360"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="269"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="240" t="s">
+      <c r="B12" s="254" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="241"/>
+      <c r="C12" s="255"/>
       <c r="D12" s="138" t="s">
         <v>73</v>
       </c>
@@ -8867,23 +8865,23 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="234" t="s">
+      <c r="B13" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="233"/>
       <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="247" t="s">
+      <c r="B14" s="230" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="248"/>
+      <c r="C14" s="231"/>
       <c r="D14" s="113" t="s">
         <v>566</v>
       </c>
@@ -8902,10 +8900,10 @@
       <c r="A15" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B15" s="245" t="s">
+      <c r="B15" s="228" t="s">
         <v>372</v>
       </c>
-      <c r="C15" s="246"/>
+      <c r="C15" s="229"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>2</v>
@@ -8919,10 +8917,10 @@
       <c r="A16" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B16" s="245" t="s">
+      <c r="B16" s="228" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="246"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>3</v>
@@ -8936,10 +8934,10 @@
       <c r="A17" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="245" t="s">
+      <c r="B17" s="228" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="246"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>2</v>
@@ -8953,10 +8951,10 @@
       <c r="A18" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="245" t="s">
+      <c r="B18" s="228" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="246"/>
+      <c r="C18" s="229"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>-6</v>
@@ -8970,10 +8968,10 @@
       <c r="A19" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B19" s="245" t="s">
+      <c r="B19" s="228" t="s">
         <v>370</v>
       </c>
-      <c r="C19" s="246"/>
+      <c r="C19" s="229"/>
       <c r="D19" s="113">
         <v>28.4</v>
       </c>
@@ -8992,10 +8990,10 @@
       <c r="A20" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B20" s="245" t="s">
+      <c r="B20" s="228" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="246"/>
+      <c r="C20" s="229"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>-6</v>
@@ -9009,10 +9007,10 @@
       <c r="A21" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B21" s="245" t="s">
+      <c r="B21" s="228" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="246"/>
+      <c r="C21" s="229"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>-6</v>
@@ -9026,10 +9024,10 @@
       <c r="A22" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="245" t="s">
+      <c r="B22" s="228" t="s">
         <v>368</v>
       </c>
-      <c r="C22" s="246"/>
+      <c r="C22" s="229"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>-4</v>
@@ -9043,10 +9041,10 @@
       <c r="A23" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B23" s="251" t="s">
+      <c r="B23" s="238" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="252"/>
+      <c r="C23" s="239"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>-6</v>
@@ -9058,10 +9056,10 @@
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="110"/>
-      <c r="B24" s="235" t="s">
+      <c r="B24" s="233" t="s">
         <v>289</v>
       </c>
-      <c r="C24" s="236"/>
+      <c r="C24" s="234"/>
       <c r="D24" s="112"/>
       <c r="E24" s="188">
         <f>SUM(E14:E23)</f>
@@ -9077,10 +9075,10 @@
       <c r="A25" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B25" s="247" t="s">
+      <c r="B25" s="230" t="s">
         <v>374</v>
       </c>
-      <c r="C25" s="248"/>
+      <c r="C25" s="231"/>
       <c r="D25" s="113"/>
       <c r="E25" s="72">
         <v>6</v>
@@ -9094,10 +9092,10 @@
       <c r="A26" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B26" s="245" t="s">
+      <c r="B26" s="228" t="s">
         <v>375</v>
       </c>
-      <c r="C26" s="246"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="113"/>
       <c r="E26" s="72">
         <v>-3</v>
@@ -9111,10 +9109,10 @@
       <c r="A27" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B27" s="251" t="s">
+      <c r="B27" s="238" t="s">
         <v>376</v>
       </c>
-      <c r="C27" s="252"/>
+      <c r="C27" s="239"/>
       <c r="D27" s="113"/>
       <c r="E27" s="72">
         <v>6</v>
@@ -9126,10 +9124,10 @@
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="110"/>
-      <c r="B28" s="235" t="s">
+      <c r="B28" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="C28" s="236"/>
+      <c r="C28" s="234"/>
       <c r="D28" s="112"/>
       <c r="E28" s="188">
         <f>SUM(E24:E27)</f>
@@ -9145,10 +9143,10 @@
       <c r="A29" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B29" s="262" t="s">
+      <c r="B29" s="271" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="263"/>
+      <c r="C29" s="272"/>
       <c r="D29" s="113"/>
       <c r="E29" s="74">
         <v>1</v>
@@ -9160,10 +9158,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="110"/>
-      <c r="B30" s="235" t="s">
+      <c r="B30" s="233" t="s">
         <v>405</v>
       </c>
-      <c r="C30" s="236"/>
+      <c r="C30" s="234"/>
       <c r="D30" s="112"/>
       <c r="E30" s="188">
         <f>SUM(E28:E29)</f>
@@ -9183,12 +9181,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B12:C12"/>
@@ -9205,11 +9202,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9A9E6224-643C-4AD9-9436-A2DC070A0C83}"/>
@@ -9239,12 +9237,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="264" t="s">
+      <c r="B1" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
@@ -9253,81 +9251,79 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="266" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="268"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="263"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="228" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="230"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="247"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="237">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="239"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="253"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="269">
+      <c r="B5" s="264">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="271"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="266"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="281" t="s">
+      <c r="B6" s="275" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="283"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="277"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="357" t="s">
+      <c r="B7" s="267" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="358"/>
-      <c r="D7" s="358"/>
-      <c r="E7" s="359"/>
-      <c r="F7" s="360"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="269"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="357" t="s">
+      <c r="B8" s="267" t="s">
         <v>571</v>
       </c>
-      <c r="C8" s="358"/>
-      <c r="D8" s="358"/>
-      <c r="E8" s="359"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9335,10 +9331,10 @@
       <c r="A11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="240" t="s">
+      <c r="B11" s="254" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="241"/>
+      <c r="C11" s="255"/>
       <c r="D11" s="11">
         <f>DATE(YEAR(B5),1,1)</f>
         <v>45292</v>
@@ -9352,31 +9348,31 @@
       <c r="A12" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="277" t="s">
+      <c r="B12" s="273" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="278"/>
+      <c r="C12" s="274"/>
       <c r="D12" s="72">
         <v>1</v>
       </c>
       <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="278" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="286"/>
+      <c r="C13" s="279"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="280"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B14" s="275" t="s">
+      <c r="B14" s="285" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="276"/>
+      <c r="C14" s="286"/>
       <c r="D14" s="94"/>
       <c r="E14" s="72">
         <v>1</v>
@@ -9386,21 +9382,21 @@
       <c r="A15" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="279" t="s">
+      <c r="B15" s="281" t="s">
         <v>389</v>
       </c>
-      <c r="C15" s="280"/>
+      <c r="C15" s="282"/>
       <c r="D15" s="94"/>
       <c r="E15" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="284" t="s">
+      <c r="B16" s="278" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="285"/>
-      <c r="D16" s="286"/>
+      <c r="C16" s="279"/>
+      <c r="D16" s="280"/>
       <c r="E16" s="189">
         <f>SUM(E14:E15)</f>
         <v>2</v>
@@ -9410,10 +9406,10 @@
       <c r="A17" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="B17" s="275" t="s">
+      <c r="B17" s="285" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="276"/>
+      <c r="C17" s="286"/>
       <c r="D17" s="95"/>
       <c r="E17" s="72">
         <v>1</v>
@@ -9423,10 +9419,10 @@
       <c r="A18" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="B18" s="273" t="s">
+      <c r="B18" s="283" t="s">
         <v>391</v>
       </c>
-      <c r="C18" s="274"/>
+      <c r="C18" s="284"/>
       <c r="D18" s="95"/>
       <c r="E18" s="72">
         <v>-1</v>
@@ -9436,10 +9432,10 @@
       <c r="A19" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="B19" s="273" t="s">
+      <c r="B19" s="283" t="s">
         <v>392</v>
       </c>
-      <c r="C19" s="274"/>
+      <c r="C19" s="284"/>
       <c r="D19" s="95"/>
       <c r="E19" s="72">
         <v>1</v>
@@ -9449,10 +9445,10 @@
       <c r="A20" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B20" s="273" t="s">
+      <c r="B20" s="283" t="s">
         <v>393</v>
       </c>
-      <c r="C20" s="274"/>
+      <c r="C20" s="284"/>
       <c r="D20" s="95"/>
       <c r="E20" s="72">
         <v>-1</v>
@@ -9462,10 +9458,10 @@
       <c r="A21" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="B21" s="273" t="s">
+      <c r="B21" s="283" t="s">
         <v>394</v>
       </c>
-      <c r="C21" s="274"/>
+      <c r="C21" s="284"/>
       <c r="D21" s="95"/>
       <c r="E21" s="72">
         <v>1</v>
@@ -9475,10 +9471,10 @@
       <c r="A22" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="B22" s="273" t="s">
+      <c r="B22" s="283" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="274"/>
+      <c r="C22" s="284"/>
       <c r="D22" s="95"/>
       <c r="E22" s="72">
         <v>1</v>
@@ -9488,10 +9484,10 @@
       <c r="A23" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B23" s="273" t="s">
+      <c r="B23" s="283" t="s">
         <v>396</v>
       </c>
-      <c r="C23" s="274"/>
+      <c r="C23" s="284"/>
       <c r="D23" s="95"/>
       <c r="E23" s="72">
         <v>-1</v>
@@ -9501,10 +9497,10 @@
       <c r="A24" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B24" s="279" t="s">
+      <c r="B24" s="281" t="s">
         <v>397</v>
       </c>
-      <c r="C24" s="280"/>
+      <c r="C24" s="282"/>
       <c r="D24" s="95"/>
       <c r="E24" s="72">
         <v>1</v>
@@ -9512,11 +9508,11 @@
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="284" t="s">
+      <c r="B25" s="278" t="s">
         <v>385</v>
       </c>
-      <c r="C25" s="285"/>
-      <c r="D25" s="286"/>
+      <c r="C25" s="279"/>
+      <c r="D25" s="280"/>
       <c r="E25" s="189">
         <f>SUM(E17:E24)</f>
         <v>2</v>
@@ -9527,10 +9523,10 @@
       <c r="A26" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B26" s="277" t="s">
+      <c r="B26" s="273" t="s">
         <v>386</v>
       </c>
-      <c r="C26" s="278"/>
+      <c r="C26" s="274"/>
       <c r="D26" s="96"/>
       <c r="E26" s="184">
         <f>SUM(D12,E16,E25)</f>
@@ -9539,6 +9535,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B1:E1"/>
@@ -9555,14 +9559,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{C1006350-697E-4D07-926A-51DA25DB4809}"/>
@@ -9582,8 +9578,8 @@
   </sheetPr>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9596,148 +9592,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="295" t="s">
+      <c r="B1" s="297" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="296"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="298"/>
       <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="266" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="268"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="263"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="228" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="230"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="247"/>
     </row>
     <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="237">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="239"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="253"/>
     </row>
     <row r="5" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="269">
+      <c r="B5" s="264">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="271"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="266"/>
     </row>
     <row r="6" spans="1:6" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="281" t="s">
+      <c r="B6" s="275" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="283"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="277"/>
       <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="357" t="s">
+      <c r="B7" s="267" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="358"/>
-      <c r="D7" s="358"/>
-      <c r="E7" s="359"/>
-      <c r="F7" s="360"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="269"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="357" t="s">
+      <c r="B8" s="267" t="s">
         <v>572</v>
       </c>
-      <c r="C8" s="358"/>
-      <c r="D8" s="358"/>
-      <c r="E8" s="359"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="293" t="s">
+      <c r="A10" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="297" t="s">
+      <c r="B10" s="289" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="298"/>
-      <c r="D10" s="288" t="s">
+      <c r="C10" s="290"/>
+      <c r="D10" s="299" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="293">
+      <c r="E10" s="287">
         <f>B5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="294"/>
-      <c r="B11" s="299"/>
-      <c r="C11" s="300"/>
-      <c r="D11" s="289"/>
-      <c r="E11" s="294"/>
+      <c r="A11" s="288"/>
+      <c r="B11" s="291"/>
+      <c r="C11" s="292"/>
+      <c r="D11" s="300"/>
+      <c r="E11" s="288"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B12" s="290" t="s">
+      <c r="B12" s="293" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="291"/>
-      <c r="D12" s="292"/>
+      <c r="C12" s="295"/>
+      <c r="D12" s="296"/>
       <c r="E12" s="149">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="293" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="292"/>
+      <c r="C13" s="295"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="296"/>
     </row>
     <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="B14" s="247" t="s">
+      <c r="B14" s="230" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="248"/>
+      <c r="C14" s="231"/>
       <c r="D14" s="113"/>
       <c r="E14" s="76">
         <v>1</v>
@@ -9747,10 +9741,10 @@
       <c r="A15" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B15" s="245" t="s">
+      <c r="B15" s="228" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="246"/>
+      <c r="C15" s="229"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>-1</v>
@@ -9760,10 +9754,10 @@
       <c r="A16" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="B16" s="245" t="s">
+      <c r="B16" s="228" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="246"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>-1</v>
@@ -9773,10 +9767,10 @@
       <c r="A17" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="245" t="s">
+      <c r="B17" s="228" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="246"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>-1</v>
@@ -9786,10 +9780,10 @@
       <c r="A18" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="B18" s="245" t="s">
+      <c r="B18" s="228" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="246"/>
+      <c r="C18" s="229"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>2</v>
@@ -9799,10 +9793,10 @@
       <c r="A19" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="B19" s="245" t="s">
+      <c r="B19" s="228" t="s">
         <v>320</v>
       </c>
-      <c r="C19" s="246"/>
+      <c r="C19" s="229"/>
       <c r="D19" s="113"/>
       <c r="E19" s="72">
         <v>2</v>
@@ -9812,10 +9806,10 @@
       <c r="A20" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="B20" s="245" t="s">
+      <c r="B20" s="228" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="246"/>
+      <c r="C20" s="229"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>3</v>
@@ -9826,10 +9820,10 @@
       <c r="A21" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="B21" s="245" t="s">
+      <c r="B21" s="228" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="246"/>
+      <c r="C21" s="229"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>3</v>
@@ -9840,10 +9834,10 @@
       <c r="A22" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="245" t="s">
+      <c r="B22" s="228" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="246"/>
+      <c r="C22" s="229"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>4</v>
@@ -9854,10 +9848,10 @@
       <c r="A23" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B23" s="245" t="s">
+      <c r="B23" s="228" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="246"/>
+      <c r="C23" s="229"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>1</v>
@@ -9868,10 +9862,10 @@
       <c r="A24" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B24" s="245" t="s">
+      <c r="B24" s="228" t="s">
         <v>366</v>
       </c>
-      <c r="C24" s="246"/>
+      <c r="C24" s="229"/>
       <c r="D24" s="113"/>
       <c r="E24" s="72">
         <v>5</v>
@@ -9882,10 +9876,10 @@
       <c r="A25" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B25" s="245" t="s">
+      <c r="B25" s="228" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="246"/>
+      <c r="C25" s="229"/>
       <c r="D25" s="113"/>
       <c r="E25" s="72">
         <v>-3</v>
@@ -9896,10 +9890,10 @@
       <c r="A26" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="B26" s="245" t="s">
+      <c r="B26" s="228" t="s">
         <v>326</v>
       </c>
-      <c r="C26" s="246"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="113"/>
       <c r="E26" s="72">
         <v>4</v>
@@ -9910,10 +9904,10 @@
       <c r="A27" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B27" s="245" t="s">
+      <c r="B27" s="228" t="s">
         <v>327</v>
       </c>
-      <c r="C27" s="246"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="113"/>
       <c r="E27" s="72">
         <v>-5</v>
@@ -9924,10 +9918,10 @@
       <c r="A28" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B28" s="245" t="s">
+      <c r="B28" s="228" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="246"/>
+      <c r="C28" s="229"/>
       <c r="D28" s="113"/>
       <c r="E28" s="72">
         <v>-2</v>
@@ -9937,10 +9931,10 @@
       <c r="A29" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="B29" s="245" t="s">
+      <c r="B29" s="228" t="s">
         <v>328</v>
       </c>
-      <c r="C29" s="246"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="113"/>
       <c r="E29" s="72"/>
     </row>
@@ -9948,10 +9942,10 @@
       <c r="A30" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="245" t="s">
+      <c r="B30" s="228" t="s">
         <v>329</v>
       </c>
-      <c r="C30" s="246"/>
+      <c r="C30" s="229"/>
       <c r="D30" s="113"/>
       <c r="E30" s="72"/>
     </row>
@@ -9959,10 +9953,10 @@
       <c r="A31" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="245" t="s">
+      <c r="B31" s="228" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="246"/>
+      <c r="C31" s="229"/>
       <c r="D31" s="113"/>
       <c r="E31" s="72">
         <v>-3</v>
@@ -9972,10 +9966,10 @@
       <c r="A32" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B32" s="245" t="s">
+      <c r="B32" s="228" t="s">
         <v>330</v>
       </c>
-      <c r="C32" s="246"/>
+      <c r="C32" s="229"/>
       <c r="D32" s="113"/>
       <c r="E32" s="72"/>
     </row>
@@ -9983,10 +9977,10 @@
       <c r="A33" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B33" s="245" t="s">
+      <c r="B33" s="228" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="246"/>
+      <c r="C33" s="229"/>
       <c r="D33" s="113"/>
       <c r="E33" s="72">
         <v>2</v>
@@ -9996,10 +9990,10 @@
       <c r="A34" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="245" t="s">
+      <c r="B34" s="228" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="246"/>
+      <c r="C34" s="229"/>
       <c r="D34" s="113"/>
       <c r="E34" s="72"/>
     </row>
@@ -10007,21 +10001,21 @@
       <c r="A35" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B35" s="251" t="s">
+      <c r="B35" s="238" t="s">
         <v>333</v>
       </c>
-      <c r="C35" s="252"/>
+      <c r="C35" s="239"/>
       <c r="D35" s="113"/>
       <c r="E35" s="79">
         <v>-5</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="290" t="s">
+      <c r="B36" s="293" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="291"/>
-      <c r="D36" s="292"/>
+      <c r="C36" s="295"/>
+      <c r="D36" s="296"/>
       <c r="E36" s="191">
         <f>SUM(E14:E35)</f>
         <v>6</v>
@@ -10031,10 +10025,10 @@
       <c r="A37" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="B37" s="247" t="s">
+      <c r="B37" s="230" t="s">
         <v>334</v>
       </c>
-      <c r="C37" s="248"/>
+      <c r="C37" s="231"/>
       <c r="D37" s="113"/>
       <c r="E37" s="76">
         <v>-5</v>
@@ -10045,10 +10039,10 @@
       <c r="A38" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B38" s="245" t="s">
+      <c r="B38" s="228" t="s">
         <v>335</v>
       </c>
-      <c r="C38" s="246"/>
+      <c r="C38" s="229"/>
       <c r="D38" s="113"/>
       <c r="E38" s="72">
         <v>6</v>
@@ -10059,10 +10053,10 @@
       <c r="A39" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="B39" s="245" t="s">
+      <c r="B39" s="228" t="s">
         <v>336</v>
       </c>
-      <c r="C39" s="246"/>
+      <c r="C39" s="229"/>
       <c r="D39" s="113"/>
       <c r="E39" s="72">
         <v>-5</v>
@@ -10073,10 +10067,10 @@
       <c r="A40" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="B40" s="245" t="s">
+      <c r="B40" s="228" t="s">
         <v>337</v>
       </c>
-      <c r="C40" s="246"/>
+      <c r="C40" s="229"/>
       <c r="D40" s="113"/>
       <c r="E40" s="72">
         <v>5</v>
@@ -10087,10 +10081,10 @@
       <c r="A41" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="B41" s="245" t="s">
+      <c r="B41" s="228" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="246"/>
+      <c r="C41" s="229"/>
       <c r="D41" s="113" t="s">
         <v>619</v>
       </c>
@@ -10104,10 +10098,10 @@
       <c r="A42" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="238" t="s">
         <v>339</v>
       </c>
-      <c r="C42" s="252"/>
+      <c r="C42" s="239"/>
       <c r="D42" s="113"/>
       <c r="E42" s="79">
         <v>5</v>
@@ -10115,32 +10109,32 @@
       <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="290" t="s">
+      <c r="B43" s="293" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="291"/>
-      <c r="D43" s="292"/>
+      <c r="C43" s="295"/>
+      <c r="D43" s="296"/>
       <c r="E43" s="192">
         <f>E12+E36+SUM(E37:E42)</f>
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="290" t="s">
+      <c r="B44" s="293" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="291"/>
-      <c r="D44" s="291"/>
-      <c r="E44" s="292"/>
+      <c r="C44" s="295"/>
+      <c r="D44" s="295"/>
+      <c r="E44" s="296"/>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="B45" s="247" t="s">
+      <c r="B45" s="230" t="s">
         <v>340</v>
       </c>
-      <c r="C45" s="248"/>
+      <c r="C45" s="231"/>
       <c r="D45" s="113"/>
       <c r="E45" s="76"/>
     </row>
@@ -10148,10 +10142,10 @@
       <c r="A46" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="245" t="s">
+      <c r="B46" s="228" t="s">
         <v>341</v>
       </c>
-      <c r="C46" s="246"/>
+      <c r="C46" s="229"/>
       <c r="D46" s="113"/>
       <c r="E46" s="72"/>
     </row>
@@ -10159,10 +10153,10 @@
       <c r="A47" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="B47" s="245" t="s">
+      <c r="B47" s="228" t="s">
         <v>342</v>
       </c>
-      <c r="C47" s="246"/>
+      <c r="C47" s="229"/>
       <c r="D47" s="113"/>
       <c r="E47" s="72">
         <v>5</v>
@@ -10173,10 +10167,10 @@
       <c r="A48" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="B48" s="245" t="s">
+      <c r="B48" s="228" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="246"/>
+      <c r="C48" s="229"/>
       <c r="D48" s="113"/>
       <c r="E48" s="72"/>
     </row>
@@ -10184,10 +10178,10 @@
       <c r="A49" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="B49" s="245" t="s">
+      <c r="B49" s="228" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="246"/>
+      <c r="C49" s="229"/>
       <c r="D49" s="113"/>
       <c r="E49" s="72">
         <v>65</v>
@@ -10198,10 +10192,10 @@
       <c r="A50" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="B50" s="245" t="s">
+      <c r="B50" s="228" t="s">
         <v>345</v>
       </c>
-      <c r="C50" s="246"/>
+      <c r="C50" s="229"/>
       <c r="D50" s="113"/>
       <c r="E50" s="72"/>
     </row>
@@ -10209,10 +10203,10 @@
       <c r="A51" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="245" t="s">
+      <c r="B51" s="228" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="246"/>
+      <c r="C51" s="229"/>
       <c r="D51" s="113"/>
       <c r="E51" s="72"/>
     </row>
@@ -10220,10 +10214,10 @@
       <c r="A52" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="B52" s="245" t="s">
+      <c r="B52" s="228" t="s">
         <v>347</v>
       </c>
-      <c r="C52" s="246"/>
+      <c r="C52" s="229"/>
       <c r="D52" s="113"/>
       <c r="E52" s="72"/>
     </row>
@@ -10231,10 +10225,10 @@
       <c r="A53" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="B53" s="245" t="s">
+      <c r="B53" s="228" t="s">
         <v>348</v>
       </c>
-      <c r="C53" s="246"/>
+      <c r="C53" s="229"/>
       <c r="D53" s="113"/>
       <c r="E53" s="72"/>
     </row>
@@ -10242,10 +10236,10 @@
       <c r="A54" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="B54" s="245" t="s">
+      <c r="B54" s="228" t="s">
         <v>349</v>
       </c>
-      <c r="C54" s="246"/>
+      <c r="C54" s="229"/>
       <c r="D54" s="113"/>
       <c r="E54" s="72">
         <v>-45</v>
@@ -10256,10 +10250,10 @@
       <c r="A55" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="B55" s="245" t="s">
+      <c r="B55" s="228" t="s">
         <v>350</v>
       </c>
-      <c r="C55" s="246"/>
+      <c r="C55" s="229"/>
       <c r="D55" s="113"/>
       <c r="E55" s="72"/>
     </row>
@@ -10267,10 +10261,10 @@
       <c r="A56" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="B56" s="245" t="s">
+      <c r="B56" s="228" t="s">
         <v>351</v>
       </c>
-      <c r="C56" s="246"/>
+      <c r="C56" s="229"/>
       <c r="D56" s="113"/>
       <c r="E56" s="72"/>
     </row>
@@ -10278,10 +10272,10 @@
       <c r="A57" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="B57" s="245" t="s">
+      <c r="B57" s="228" t="s">
         <v>352</v>
       </c>
-      <c r="C57" s="246"/>
+      <c r="C57" s="229"/>
       <c r="D57" s="113"/>
       <c r="E57" s="72"/>
     </row>
@@ -10289,10 +10283,10 @@
       <c r="A58" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="B58" s="245" t="s">
+      <c r="B58" s="228" t="s">
         <v>353</v>
       </c>
-      <c r="C58" s="246"/>
+      <c r="C58" s="229"/>
       <c r="D58" s="113"/>
       <c r="E58" s="72"/>
     </row>
@@ -10300,10 +10294,10 @@
       <c r="A59" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="B59" s="245" t="s">
+      <c r="B59" s="228" t="s">
         <v>354</v>
       </c>
-      <c r="C59" s="246"/>
+      <c r="C59" s="229"/>
       <c r="D59" s="113"/>
       <c r="E59" s="72"/>
     </row>
@@ -10311,10 +10305,10 @@
       <c r="A60" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B60" s="245" t="s">
+      <c r="B60" s="228" t="s">
         <v>355</v>
       </c>
-      <c r="C60" s="246"/>
+      <c r="C60" s="229"/>
       <c r="D60" s="113"/>
       <c r="E60" s="72"/>
     </row>
@@ -10322,10 +10316,10 @@
       <c r="A61" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B61" s="245" t="s">
+      <c r="B61" s="228" t="s">
         <v>335</v>
       </c>
-      <c r="C61" s="246"/>
+      <c r="C61" s="229"/>
       <c r="D61" s="113"/>
       <c r="E61" s="72"/>
     </row>
@@ -10333,10 +10327,10 @@
       <c r="A62" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B62" s="245" t="s">
+      <c r="B62" s="228" t="s">
         <v>336</v>
       </c>
-      <c r="C62" s="246"/>
+      <c r="C62" s="229"/>
       <c r="D62" s="113"/>
       <c r="E62" s="72"/>
     </row>
@@ -10344,10 +10338,10 @@
       <c r="A63" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="B63" s="245" t="s">
+      <c r="B63" s="228" t="s">
         <v>356</v>
       </c>
-      <c r="C63" s="246"/>
+      <c r="C63" s="229"/>
       <c r="D63" s="113"/>
       <c r="E63" s="72"/>
     </row>
@@ -10355,10 +10349,10 @@
       <c r="A64" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="B64" s="245" t="s">
+      <c r="B64" s="228" t="s">
         <v>338</v>
       </c>
-      <c r="C64" s="246"/>
+      <c r="C64" s="229"/>
       <c r="D64" s="113" t="s">
         <v>619</v>
       </c>
@@ -10372,40 +10366,40 @@
       <c r="A65" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="B65" s="251" t="s">
+      <c r="B65" s="238" t="s">
         <v>339</v>
       </c>
-      <c r="C65" s="252"/>
+      <c r="C65" s="239"/>
       <c r="D65" s="113"/>
       <c r="E65" s="79"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="290" t="s">
+      <c r="B66" s="293" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="291"/>
-      <c r="D66" s="292"/>
+      <c r="C66" s="295"/>
+      <c r="D66" s="296"/>
       <c r="E66" s="193">
         <f>SUM(E45:E65)</f>
         <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="290" t="s">
+      <c r="B67" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="291"/>
-      <c r="D67" s="291"/>
-      <c r="E67" s="292"/>
+      <c r="C67" s="295"/>
+      <c r="D67" s="295"/>
+      <c r="E67" s="296"/>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="B68" s="247" t="s">
+      <c r="B68" s="230" t="s">
         <v>357</v>
       </c>
-      <c r="C68" s="248"/>
+      <c r="C68" s="231"/>
       <c r="D68" s="113"/>
       <c r="E68" s="76">
         <v>54</v>
@@ -10416,10 +10410,10 @@
       <c r="A69" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="B69" s="245" t="s">
+      <c r="B69" s="228" t="s">
         <v>365</v>
       </c>
-      <c r="C69" s="246"/>
+      <c r="C69" s="229"/>
       <c r="D69" s="113"/>
       <c r="E69" s="72"/>
     </row>
@@ -10427,10 +10421,10 @@
       <c r="A70" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B70" s="245" t="s">
+      <c r="B70" s="228" t="s">
         <v>358</v>
       </c>
-      <c r="C70" s="246"/>
+      <c r="C70" s="229"/>
       <c r="D70" s="113"/>
       <c r="E70" s="72"/>
     </row>
@@ -10438,10 +10432,10 @@
       <c r="A71" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="B71" s="245" t="s">
+      <c r="B71" s="228" t="s">
         <v>359</v>
       </c>
-      <c r="C71" s="246"/>
+      <c r="C71" s="229"/>
       <c r="D71" s="113"/>
       <c r="E71" s="72">
         <v>54</v>
@@ -10452,10 +10446,10 @@
       <c r="A72" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B72" s="245" t="s">
+      <c r="B72" s="228" t="s">
         <v>360</v>
       </c>
-      <c r="C72" s="246"/>
+      <c r="C72" s="229"/>
       <c r="D72" s="113"/>
       <c r="E72" s="72"/>
     </row>
@@ -10463,10 +10457,10 @@
       <c r="A73" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B73" s="245" t="s">
+      <c r="B73" s="228" t="s">
         <v>362</v>
       </c>
-      <c r="C73" s="246"/>
+      <c r="C73" s="229"/>
       <c r="D73" s="113"/>
       <c r="E73" s="72"/>
     </row>
@@ -10474,10 +10468,10 @@
       <c r="A74" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B74" s="245" t="s">
+      <c r="B74" s="228" t="s">
         <v>361</v>
       </c>
-      <c r="C74" s="246"/>
+      <c r="C74" s="229"/>
       <c r="D74" s="113"/>
       <c r="E74" s="72">
         <v>-45</v>
@@ -10488,10 +10482,10 @@
       <c r="A75" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B75" s="245" t="s">
+      <c r="B75" s="228" t="s">
         <v>334</v>
       </c>
-      <c r="C75" s="246"/>
+      <c r="C75" s="229"/>
       <c r="D75" s="113"/>
       <c r="E75" s="72"/>
     </row>
@@ -10499,10 +10493,10 @@
       <c r="A76" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B76" s="245" t="s">
+      <c r="B76" s="228" t="s">
         <v>336</v>
       </c>
-      <c r="C76" s="246"/>
+      <c r="C76" s="229"/>
       <c r="D76" s="113"/>
       <c r="E76" s="72">
         <v>-54</v>
@@ -10513,10 +10507,10 @@
       <c r="A77" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="B77" s="245" t="s">
+      <c r="B77" s="228" t="s">
         <v>338</v>
       </c>
-      <c r="C77" s="246"/>
+      <c r="C77" s="229"/>
       <c r="D77" s="113" t="s">
         <v>619</v>
       </c>
@@ -10530,30 +10524,30 @@
       <c r="A78" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B78" s="251" t="s">
+      <c r="B78" s="238" t="s">
         <v>339</v>
       </c>
-      <c r="C78" s="252"/>
+      <c r="C78" s="239"/>
       <c r="D78" s="113"/>
       <c r="E78" s="79"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="290" t="s">
+      <c r="B79" s="293" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="291"/>
-      <c r="D79" s="292"/>
+      <c r="C79" s="295"/>
+      <c r="D79" s="296"/>
       <c r="E79" s="194">
         <f>SUM(E68:E78)</f>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="290" t="s">
+      <c r="B80" s="293" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="291"/>
-      <c r="D80" s="292"/>
+      <c r="C80" s="295"/>
+      <c r="D80" s="296"/>
       <c r="E80" s="184">
         <f>SUM(E43,E66,E79)</f>
         <v>62</v>
@@ -10563,18 +10557,18 @@
       <c r="A81" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="B81" s="262" t="s">
+      <c r="B81" s="271" t="s">
         <v>363</v>
       </c>
-      <c r="C81" s="287"/>
-      <c r="D81" s="263"/>
+      <c r="C81" s="301"/>
+      <c r="D81" s="272"/>
       <c r="E81" s="79"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="290" t="s">
+      <c r="B82" s="293" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="301"/>
+      <c r="C82" s="294"/>
       <c r="D82" s="133">
         <v>7.2</v>
       </c>
@@ -10584,33 +10578,33 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="290" t="s">
+      <c r="B83" s="293" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="291"/>
-      <c r="D83" s="292"/>
+      <c r="C83" s="295"/>
+      <c r="D83" s="296"/>
       <c r="E83" s="184">
         <f>'Statement of financial position'!E39</f>
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="290" t="s">
+      <c r="B84" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="291"/>
-      <c r="D84" s="292"/>
+      <c r="C84" s="295"/>
+      <c r="D84" s="296"/>
       <c r="E84" s="184">
         <f>'Statement of financial position'!F39</f>
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="290" t="s">
+      <c r="B85" s="293" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="291"/>
-      <c r="D85" s="292"/>
+      <c r="C85" s="295"/>
+      <c r="D85" s="296"/>
       <c r="E85" s="184">
         <f>E84-E83</f>
         <v>5</v>
@@ -10679,6 +10673,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B82:C82"/>
@@ -10695,76 +10759,6 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{5A53CF31-79B9-4E1F-A6DA-D8AE91352090}"/>
@@ -10783,10 +10777,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H268"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H8" sqref="B7:H8"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10803,121 +10797,119 @@
     <col min="22" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="212"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="227"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="228" t="str">
+      <c r="B2" s="245" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="230"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="247"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="228" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="230"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="247"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="237">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="239"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="253"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="237">
+      <c r="B5" s="251">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="239"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="210" t="s">
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="253"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="212"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="227"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="361" t="s">
+      <c r="B7" s="318" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="362"/>
-      <c r="D7" s="362"/>
-      <c r="E7" s="362"/>
-      <c r="F7" s="362"/>
-      <c r="G7" s="363"/>
-      <c r="H7" s="360"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="319"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="320"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="364" t="s">
+      <c r="B8" s="321" t="s">
         <v>569</v>
       </c>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
-      <c r="G8" s="366"/>
-      <c r="H8" s="360"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="322"/>
+      <c r="D8" s="322"/>
+      <c r="E8" s="322"/>
+      <c r="F8" s="322"/>
+      <c r="G8" s="323"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="240" t="s">
+      <c r="B10" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="241"/>
+      <c r="C10" s="255"/>
       <c r="D10" s="138" t="s">
         <v>73</v>
       </c>
@@ -10933,44 +10925,44 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="234" t="s">
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="236"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="234" t="s">
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="234"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="232" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="236"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="233"/>
+      <c r="G12" s="234"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="314" t="s">
+      <c r="B13" s="315" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="315"/>
+      <c r="C13" s="316"/>
       <c r="D13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="302" t="s">
+      <c r="E13" s="326" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="303"/>
-      <c r="G13" s="304"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="327"/>
+      <c r="G13" s="328"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>582</v>
       </c>
@@ -10987,7 +10979,7 @@
       </c>
       <c r="G14" s="151"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>583</v>
       </c>
@@ -11004,14 +10996,14 @@
       </c>
       <c r="G15" s="151"/>
     </row>
-    <row r="16" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="B16" s="316" t="s">
+      <c r="B16" s="324" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="317"/>
+      <c r="C16" s="325"/>
       <c r="D16" s="150"/>
       <c r="E16" s="79">
         <v>2</v>
@@ -11025,10 +11017,10 @@
       <c r="A17" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="B17" s="310" t="s">
+      <c r="B17" s="309" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="311"/>
+      <c r="C17" s="310"/>
       <c r="D17" s="150"/>
       <c r="E17" s="195">
         <f>SUM(E14:E16)</f>
@@ -11112,10 +11104,10 @@
       <c r="A22" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="B22" s="316" t="s">
+      <c r="B22" s="324" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="317"/>
+      <c r="C22" s="325"/>
       <c r="D22" s="150"/>
       <c r="E22" s="79">
         <v>6</v>
@@ -11129,10 +11121,10 @@
       <c r="A23" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="B23" s="310" t="s">
+      <c r="B23" s="309" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="311"/>
+      <c r="C23" s="310"/>
       <c r="D23" s="150"/>
       <c r="E23" s="195">
         <f>SUM(E18:E22)</f>
@@ -11284,10 +11276,10 @@
       <c r="A32" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="B32" s="316" t="s">
+      <c r="B32" s="324" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="317"/>
+      <c r="C32" s="325"/>
       <c r="D32" s="150"/>
       <c r="E32" s="79">
         <v>7</v>
@@ -11301,10 +11293,10 @@
       <c r="A33" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B33" s="310" t="s">
+      <c r="B33" s="309" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="311"/>
+      <c r="C33" s="310"/>
       <c r="D33" s="7"/>
       <c r="E33" s="197">
         <f>SUM(E17,E23:E32)</f>
@@ -11320,10 +11312,10 @@
       <c r="A34" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="312" t="s">
+      <c r="B34" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="313"/>
+      <c r="C34" s="308"/>
       <c r="D34" s="7"/>
       <c r="E34" s="72">
         <v>4</v>
@@ -11337,10 +11329,10 @@
       <c r="A35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="312" t="s">
+      <c r="B35" s="307" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="313"/>
+      <c r="C35" s="308"/>
       <c r="D35" s="7"/>
       <c r="E35" s="72">
         <v>4</v>
@@ -11354,10 +11346,10 @@
       <c r="A36" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="312" t="s">
+      <c r="B36" s="307" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="313"/>
+      <c r="C36" s="308"/>
       <c r="D36" s="7"/>
       <c r="E36" s="72">
         <v>20</v>
@@ -11371,10 +11363,10 @@
       <c r="A37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="312" t="s">
+      <c r="B37" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="313"/>
+      <c r="C37" s="308"/>
       <c r="D37" s="7"/>
       <c r="E37" s="72">
         <v>30</v>
@@ -11388,10 +11380,10 @@
       <c r="A38" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="312" t="s">
+      <c r="B38" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="313"/>
+      <c r="C38" s="308"/>
       <c r="D38" s="7"/>
       <c r="E38" s="72">
         <v>4</v>
@@ -11405,10 +11397,10 @@
       <c r="A39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="312" t="s">
+      <c r="B39" s="307" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="313"/>
+      <c r="C39" s="308"/>
       <c r="D39" s="7"/>
       <c r="E39" s="72">
         <v>6</v>
@@ -11422,10 +11414,10 @@
       <c r="A40" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="312" t="s">
+      <c r="B40" s="307" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="313"/>
+      <c r="C40" s="308"/>
       <c r="D40" s="7"/>
       <c r="E40" s="72">
         <v>4</v>
@@ -11439,10 +11431,10 @@
       <c r="A41" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="312" t="s">
+      <c r="B41" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="313"/>
+      <c r="C41" s="308"/>
       <c r="D41" s="7"/>
       <c r="E41" s="79">
         <v>6</v>
@@ -11456,18 +11448,18 @@
       <c r="A42" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="312" t="s">
+      <c r="B42" s="307" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="313"/>
+      <c r="C42" s="308"/>
       <c r="D42" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="302" t="s">
+      <c r="E42" s="326" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="303"/>
-      <c r="G42" s="304"/>
+      <c r="F42" s="327"/>
+      <c r="G42" s="328"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
@@ -11541,10 +11533,10 @@
       <c r="A47" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="B47" s="310" t="s">
+      <c r="B47" s="309" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="311"/>
+      <c r="C47" s="310"/>
       <c r="D47" s="7"/>
       <c r="E47" s="199">
         <f>SUM(E43:E46)</f>
@@ -11611,10 +11603,10 @@
       <c r="A51" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="B51" s="310" t="s">
+      <c r="B51" s="309" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="311"/>
+      <c r="C51" s="310"/>
       <c r="D51" s="7"/>
       <c r="E51" s="199">
         <f>SUM(E48:E50)</f>
@@ -11715,10 +11707,10 @@
       <c r="A57" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="B57" s="310" t="s">
+      <c r="B57" s="309" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="311"/>
+      <c r="C57" s="310"/>
       <c r="D57" s="7"/>
       <c r="E57" s="200">
         <f>SUM(E52:E56,E51,E47)</f>
@@ -11734,10 +11726,10 @@
       <c r="A58" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="312" t="s">
+      <c r="B58" s="307" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="313"/>
+      <c r="C58" s="308"/>
       <c r="D58" s="7"/>
       <c r="E58" s="72">
         <v>4</v>
@@ -11751,10 +11743,10 @@
       <c r="A59" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="312" t="s">
+      <c r="B59" s="307" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="313"/>
+      <c r="C59" s="308"/>
       <c r="D59" s="7"/>
       <c r="E59" s="72">
         <v>5</v>
@@ -11768,10 +11760,10 @@
       <c r="A60" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="312" t="s">
+      <c r="B60" s="307" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="313"/>
+      <c r="C60" s="308"/>
       <c r="D60" s="7"/>
       <c r="E60" s="72">
         <v>6</v>
@@ -11785,10 +11777,10 @@
       <c r="A61" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="312" t="s">
+      <c r="B61" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="313"/>
+      <c r="C61" s="308"/>
       <c r="D61" s="7"/>
       <c r="E61" s="72">
         <v>7</v>
@@ -11802,10 +11794,10 @@
       <c r="A62" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="312" t="s">
+      <c r="B62" s="307" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="313"/>
+      <c r="C62" s="308"/>
       <c r="D62" s="8"/>
       <c r="E62" s="79">
         <v>4</v>
@@ -11816,10 +11808,10 @@
       <c r="G62" s="38"/>
     </row>
     <row r="63" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="318" t="s">
+      <c r="B63" s="317" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="250"/>
+      <c r="C63" s="244"/>
       <c r="E63" s="184">
         <f>SUM(E57:E62,E33:E41)</f>
         <v>334</v>
@@ -11847,31 +11839,31 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="234" t="s">
+      <c r="B66" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="235"/>
-      <c r="D66" s="235"/>
-      <c r="E66" s="235"/>
-      <c r="F66" s="235"/>
-      <c r="G66" s="235"/>
+      <c r="C66" s="233"/>
+      <c r="D66" s="233"/>
+      <c r="E66" s="233"/>
+      <c r="F66" s="233"/>
+      <c r="G66" s="233"/>
     </row>
     <row r="67" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="314" t="s">
+      <c r="B67" s="315" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="315"/>
+      <c r="C67" s="316"/>
       <c r="D67" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="307" t="s">
+      <c r="E67" s="302" t="s">
         <v>284</v>
       </c>
-      <c r="F67" s="308"/>
-      <c r="G67" s="309"/>
+      <c r="F67" s="303"/>
+      <c r="G67" s="304"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
@@ -11924,10 +11916,10 @@
     </row>
     <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="21"/>
-      <c r="B71" s="310" t="s">
+      <c r="B71" s="309" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="311">
+      <c r="C71" s="310">
         <f>SUM(C69:C70)</f>
         <v>5</v>
       </c>
@@ -12131,10 +12123,10 @@
     </row>
     <row r="83" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="21"/>
-      <c r="B83" s="310" t="s">
+      <c r="B83" s="309" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="311">
+      <c r="C83" s="310">
         <f>SUM(C72:C82)</f>
         <v>65</v>
       </c>
@@ -12153,18 +12145,18 @@
       <c r="A84" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="319" t="s">
+      <c r="B84" s="311" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="320"/>
+      <c r="C84" s="312"/>
       <c r="D84" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E84" s="307" t="s">
+      <c r="E84" s="302" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="308"/>
-      <c r="G84" s="309"/>
+      <c r="F84" s="303"/>
+      <c r="G84" s="304"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
@@ -12300,10 +12292,10 @@
     </row>
     <row r="93" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="21"/>
-      <c r="B93" s="310" t="s">
+      <c r="B93" s="309" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="311">
+      <c r="C93" s="310">
         <f>SUM(C91:C92)</f>
         <v>12</v>
       </c>
@@ -12337,10 +12329,10 @@
     </row>
     <row r="95" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="21"/>
-      <c r="B95" s="310" t="s">
+      <c r="B95" s="309" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="311">
+      <c r="C95" s="310">
         <f>SUM(C85:C88,C93)</f>
         <v>22</v>
       </c>
@@ -12442,10 +12434,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="21"/>
-      <c r="B101" s="310" t="s">
+      <c r="B101" s="309" t="s">
         <v>185</v>
       </c>
-      <c r="C101" s="311">
+      <c r="C101" s="310">
         <f>SUM(C96:C100,C95)</f>
         <v>38</v>
       </c>
@@ -12464,10 +12456,10 @@
       <c r="A102" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="312" t="s">
+      <c r="B102" s="307" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="313"/>
+      <c r="C102" s="308"/>
       <c r="D102" s="7"/>
       <c r="E102" s="72">
         <v>3</v>
@@ -12481,10 +12473,10 @@
       <c r="A103" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="312" t="s">
+      <c r="B103" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="313"/>
+      <c r="C103" s="308"/>
       <c r="D103" s="7"/>
       <c r="E103" s="72">
         <v>4</v>
@@ -12498,10 +12490,10 @@
       <c r="A104" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="312" t="s">
+      <c r="B104" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="313"/>
+      <c r="C104" s="308"/>
       <c r="D104" s="7"/>
       <c r="E104" s="72">
         <v>5</v>
@@ -12515,10 +12507,10 @@
       <c r="A105" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="312" t="s">
+      <c r="B105" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="313"/>
+      <c r="C105" s="308"/>
       <c r="D105" s="7"/>
       <c r="E105" s="72">
         <v>5</v>
@@ -12532,10 +12524,10 @@
       <c r="A106" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="312" t="s">
+      <c r="B106" s="307" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="313"/>
+      <c r="C106" s="308"/>
       <c r="D106" s="7"/>
       <c r="E106" s="72">
         <v>2</v>
@@ -12549,10 +12541,10 @@
       <c r="A107" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="312" t="s">
+      <c r="B107" s="307" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="313"/>
+      <c r="C107" s="308"/>
       <c r="D107" s="7"/>
       <c r="E107" s="72">
         <v>10</v>
@@ -12566,10 +12558,10 @@
       <c r="A108" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="321" t="s">
+      <c r="B108" s="313" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="322"/>
+      <c r="C108" s="314"/>
       <c r="D108" s="8"/>
       <c r="E108" s="79">
         <v>4</v>
@@ -12580,10 +12572,10 @@
       <c r="G108" s="38"/>
     </row>
     <row r="109" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="234" t="s">
+      <c r="B109" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="236"/>
+      <c r="C109" s="234"/>
       <c r="E109" s="185">
         <f>SUM(E101:E108,E83)</f>
         <v>169</v>
@@ -12594,10 +12586,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="234" t="s">
+      <c r="B110" s="232" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="236"/>
+      <c r="C110" s="234"/>
       <c r="E110" s="185">
         <f>SUM(E63,E109)</f>
         <v>503</v>
@@ -12625,41 +12617,41 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="234" t="s">
+      <c r="B113" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="235"/>
-      <c r="D113" s="235"/>
-      <c r="E113" s="235"/>
-      <c r="F113" s="235"/>
-      <c r="G113" s="236"/>
+      <c r="C113" s="233"/>
+      <c r="D113" s="233"/>
+      <c r="E113" s="233"/>
+      <c r="F113" s="233"/>
+      <c r="G113" s="234"/>
     </row>
     <row r="114" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="234" t="s">
+      <c r="B114" s="232" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="235"/>
-      <c r="D114" s="235"/>
-      <c r="E114" s="235"/>
-      <c r="F114" s="235"/>
-      <c r="G114" s="236"/>
+      <c r="C114" s="233"/>
+      <c r="D114" s="233"/>
+      <c r="E114" s="233"/>
+      <c r="F114" s="233"/>
+      <c r="G114" s="234"/>
     </row>
     <row r="115" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="314" t="s">
+      <c r="B115" s="315" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="315"/>
+      <c r="C115" s="316"/>
       <c r="D115" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E115" s="307" t="s">
+      <c r="E115" s="302" t="s">
         <v>285</v>
       </c>
-      <c r="F115" s="308"/>
-      <c r="G115" s="309"/>
+      <c r="F115" s="303"/>
+      <c r="G115" s="304"/>
     </row>
     <row r="116" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
@@ -12697,10 +12689,10 @@
     </row>
     <row r="118" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="21"/>
-      <c r="B118" s="310" t="s">
+      <c r="B118" s="309" t="s">
         <v>253</v>
       </c>
-      <c r="C118" s="311">
+      <c r="C118" s="310">
         <f>SUM(C116:C117)</f>
         <v>3</v>
       </c>
@@ -12719,18 +12711,18 @@
       <c r="A119" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="319" t="s">
+      <c r="B119" s="311" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="320"/>
+      <c r="C119" s="312"/>
       <c r="D119" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E119" s="307" t="s">
+      <c r="E119" s="302" t="s">
         <v>285</v>
       </c>
-      <c r="F119" s="308"/>
-      <c r="G119" s="309"/>
+      <c r="F119" s="303"/>
+      <c r="G119" s="304"/>
     </row>
     <row r="120" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21"/>
@@ -12768,10 +12760,10 @@
     </row>
     <row r="122" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="21"/>
-      <c r="B122" s="310" t="s">
+      <c r="B122" s="309" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="311">
+      <c r="C122" s="310">
         <f>SUM(C120:C121)</f>
         <v>7</v>
       </c>
@@ -12790,10 +12782,10 @@
       <c r="A123" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="312" t="s">
+      <c r="B123" s="307" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="313"/>
+      <c r="C123" s="308"/>
       <c r="D123" s="7" t="s">
         <v>129</v>
       </c>
@@ -12811,10 +12803,10 @@
       <c r="A124" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B124" s="312" t="s">
+      <c r="B124" s="307" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="313"/>
+      <c r="C124" s="308"/>
       <c r="D124" s="7"/>
       <c r="E124" s="72">
         <v>5</v>
@@ -12828,10 +12820,10 @@
       <c r="A125" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B125" s="312" t="s">
+      <c r="B125" s="307" t="s">
         <v>38</v>
       </c>
-      <c r="C125" s="313"/>
+      <c r="C125" s="308"/>
       <c r="D125" s="7" t="s">
         <v>130</v>
       </c>
@@ -12849,18 +12841,18 @@
       <c r="A126" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B126" s="319" t="s">
+      <c r="B126" s="311" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="320"/>
+      <c r="C126" s="312"/>
       <c r="D126" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="307" t="s">
+      <c r="E126" s="302" t="s">
         <v>285</v>
       </c>
-      <c r="F126" s="308"/>
-      <c r="G126" s="309"/>
+      <c r="F126" s="303"/>
+      <c r="G126" s="304"/>
     </row>
     <row r="127" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21"/>
@@ -12915,10 +12907,10 @@
     </row>
     <row r="130" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="22"/>
-      <c r="B130" s="310" t="s">
+      <c r="B130" s="309" t="s">
         <v>268</v>
       </c>
-      <c r="C130" s="311">
+      <c r="C130" s="310">
         <f>SUM(C127:C129)</f>
         <v>7</v>
       </c>
@@ -12935,10 +12927,10 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
-      <c r="B131" s="234" t="s">
+      <c r="B131" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="236"/>
+      <c r="C131" s="234"/>
       <c r="D131" s="81"/>
       <c r="E131" s="203">
         <f>SUM(E130,E118,E122:E125)</f>
@@ -12953,10 +12945,10 @@
       <c r="A132" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B132" s="251" t="s">
+      <c r="B132" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="C132" s="252"/>
+      <c r="C132" s="239"/>
       <c r="D132" s="82"/>
       <c r="E132" s="79">
         <v>3</v>
@@ -12966,10 +12958,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="234" t="s">
+      <c r="B133" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="C133" s="236"/>
+      <c r="C133" s="234"/>
       <c r="E133" s="184">
         <f>SUM(E131,E132)</f>
         <v>29</v>
@@ -12997,33 +12989,33 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="234" t="s">
+      <c r="B136" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="235"/>
-      <c r="D136" s="235"/>
-      <c r="E136" s="235"/>
-      <c r="F136" s="235"/>
-      <c r="G136" s="236"/>
+      <c r="C136" s="233"/>
+      <c r="D136" s="233"/>
+      <c r="E136" s="233"/>
+      <c r="F136" s="233"/>
+      <c r="G136" s="234"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="253" t="s">
+      <c r="B137" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="254"/>
-      <c r="D137" s="254"/>
-      <c r="E137" s="254"/>
-      <c r="F137" s="254"/>
-      <c r="G137" s="254"/>
+      <c r="C137" s="241"/>
+      <c r="D137" s="241"/>
+      <c r="E137" s="241"/>
+      <c r="F137" s="241"/>
+      <c r="G137" s="241"/>
     </row>
     <row r="138" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B138" s="312" t="s">
+      <c r="B138" s="307" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="313"/>
+      <c r="C138" s="308"/>
       <c r="D138" s="6"/>
       <c r="E138" s="76">
         <v>2</v>
@@ -13037,18 +13029,18 @@
       <c r="A139" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B139" s="319" t="s">
+      <c r="B139" s="311" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="320"/>
+      <c r="C139" s="312"/>
       <c r="D139" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E139" s="307" t="s">
+      <c r="E139" s="302" t="s">
         <v>286</v>
       </c>
-      <c r="F139" s="308"/>
-      <c r="G139" s="309"/>
+      <c r="F139" s="303"/>
+      <c r="G139" s="304"/>
     </row>
     <row r="140" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="21"/>
@@ -13127,10 +13119,10 @@
     </row>
     <row r="145" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="21"/>
-      <c r="B145" s="310" t="s">
+      <c r="B145" s="309" t="s">
         <v>269</v>
       </c>
-      <c r="C145" s="311">
+      <c r="C145" s="310">
         <f>SUM(C140:C144)</f>
         <v>0</v>
       </c>
@@ -13179,10 +13171,10 @@
     </row>
     <row r="148" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="21"/>
-      <c r="B148" s="310" t="s">
+      <c r="B148" s="309" t="s">
         <v>270</v>
       </c>
-      <c r="C148" s="311">
+      <c r="C148" s="310">
         <f>SUM(C146:C147)</f>
         <v>5</v>
       </c>
@@ -13244,10 +13236,10 @@
     </row>
     <row r="152" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="21"/>
-      <c r="B152" s="310" t="s">
+      <c r="B152" s="309" t="s">
         <v>271</v>
       </c>
-      <c r="C152" s="311">
+      <c r="C152" s="310">
         <f>SUM(C149:C151)</f>
         <v>0</v>
       </c>
@@ -13264,10 +13256,10 @@
     </row>
     <row r="153" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="21"/>
-      <c r="B153" s="310" t="s">
+      <c r="B153" s="309" t="s">
         <v>272</v>
       </c>
-      <c r="C153" s="311">
+      <c r="C153" s="310">
         <v>1</v>
       </c>
       <c r="D153" s="7"/>
@@ -13281,10 +13273,10 @@
     </row>
     <row r="154" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="21"/>
-      <c r="B154" s="310" t="s">
+      <c r="B154" s="309" t="s">
         <v>525</v>
       </c>
-      <c r="C154" s="311">
+      <c r="C154" s="310">
         <f>SUM(C145,C148,C152,C153)</f>
         <v>6</v>
       </c>
@@ -13303,10 +13295,10 @@
       <c r="A155" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B155" s="312" t="s">
+      <c r="B155" s="307" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="313"/>
+      <c r="C155" s="308"/>
       <c r="D155" s="8"/>
       <c r="E155" s="79">
         <v>2</v>
@@ -13335,18 +13327,18 @@
       <c r="A157" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B157" s="314" t="s">
+      <c r="B157" s="315" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="315"/>
+      <c r="C157" s="316"/>
       <c r="D157" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E157" s="307" t="s">
+      <c r="E157" s="302" t="s">
         <v>287</v>
       </c>
-      <c r="F157" s="308"/>
-      <c r="G157" s="309"/>
+      <c r="F157" s="303"/>
+      <c r="G157" s="304"/>
     </row>
     <row r="158" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
@@ -13497,10 +13489,10 @@
     </row>
     <row r="167" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="21"/>
-      <c r="B167" s="310" t="s">
+      <c r="B167" s="309" t="s">
         <v>235</v>
       </c>
-      <c r="C167" s="311">
+      <c r="C167" s="310">
         <f>SUM(C165:C166)</f>
         <v>9</v>
       </c>
@@ -13568,10 +13560,10 @@
     </row>
     <row r="171" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="21"/>
-      <c r="B171" s="310" t="s">
+      <c r="B171" s="309" t="s">
         <v>239</v>
       </c>
-      <c r="C171" s="311">
+      <c r="C171" s="310">
         <f>SUM(C168:C170)</f>
         <v>20</v>
       </c>
@@ -13605,10 +13597,10 @@
     </row>
     <row r="173" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="21"/>
-      <c r="B173" s="310" t="s">
+      <c r="B173" s="309" t="s">
         <v>241</v>
       </c>
-      <c r="C173" s="311">
+      <c r="C173" s="310">
         <f>SUM(C172)</f>
         <v>5</v>
       </c>
@@ -13710,10 +13702,10 @@
     </row>
     <row r="179" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="21"/>
-      <c r="B179" s="310" t="s">
+      <c r="B179" s="309" t="s">
         <v>247</v>
       </c>
-      <c r="C179" s="311">
+      <c r="C179" s="310">
         <f>SUM(C174:C178,C158:C161,C167,C171,C173)</f>
         <v>68</v>
       </c>
@@ -13732,10 +13724,10 @@
       <c r="A180" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B180" s="312" t="s">
+      <c r="B180" s="307" t="s">
         <v>50</v>
       </c>
-      <c r="C180" s="313"/>
+      <c r="C180" s="308"/>
       <c r="D180" s="7"/>
       <c r="E180" s="72">
         <v>4</v>
@@ -13749,10 +13741,10 @@
       <c r="A181" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B181" s="312" t="s">
+      <c r="B181" s="307" t="s">
         <v>51</v>
       </c>
-      <c r="C181" s="313"/>
+      <c r="C181" s="308"/>
       <c r="D181" s="7"/>
       <c r="E181" s="72">
         <v>4</v>
@@ -13766,10 +13758,10 @@
       <c r="A182" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B182" s="312" t="s">
+      <c r="B182" s="307" t="s">
         <v>52</v>
       </c>
-      <c r="C182" s="313"/>
+      <c r="C182" s="308"/>
       <c r="D182" s="7"/>
       <c r="E182" s="72">
         <v>1</v>
@@ -13783,10 +13775,10 @@
       <c r="A183" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B183" s="312" t="s">
+      <c r="B183" s="307" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="313"/>
+      <c r="C183" s="308"/>
       <c r="D183" s="7"/>
       <c r="E183" s="72">
         <v>2</v>
@@ -13800,10 +13792,10 @@
       <c r="A184" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B184" s="321" t="s">
+      <c r="B184" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="C184" s="322"/>
+      <c r="C184" s="314"/>
       <c r="D184" s="8"/>
       <c r="E184" s="79">
         <v>1</v>
@@ -13814,10 +13806,10 @@
       <c r="G184" s="38"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="234" t="s">
+      <c r="B185" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="C185" s="236"/>
+      <c r="C185" s="234"/>
       <c r="E185" s="184">
         <f>SUM(E156:E184)</f>
         <v>302</v>
@@ -13847,23 +13839,23 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="234" t="s">
+      <c r="B189" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="235"/>
-      <c r="D189" s="235"/>
-      <c r="E189" s="235"/>
-      <c r="F189" s="235"/>
-      <c r="G189" s="235"/>
+      <c r="C189" s="233"/>
+      <c r="D189" s="233"/>
+      <c r="E189" s="233"/>
+      <c r="F189" s="233"/>
+      <c r="G189" s="233"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B190" s="312" t="s">
+      <c r="B190" s="307" t="s">
         <v>57</v>
       </c>
-      <c r="C190" s="313"/>
+      <c r="C190" s="308"/>
       <c r="D190" s="6"/>
       <c r="E190" s="76">
         <v>1</v>
@@ -13877,10 +13869,10 @@
       <c r="A191" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B191" s="319" t="s">
+      <c r="B191" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="320"/>
+      <c r="C191" s="312"/>
       <c r="D191" s="7" t="s">
         <v>311</v>
       </c>
@@ -14104,10 +14096,10 @@
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="21"/>
-      <c r="B205" s="310" t="s">
+      <c r="B205" s="309" t="s">
         <v>290</v>
       </c>
-      <c r="C205" s="311">
+      <c r="C205" s="310">
         <f>SUM(C196,C199,C203,C204)</f>
         <v>6</v>
       </c>
@@ -14124,10 +14116,10 @@
       <c r="A206" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="B206" s="312" t="s">
+      <c r="B206" s="307" t="s">
         <v>59</v>
       </c>
-      <c r="C206" s="313"/>
+      <c r="C206" s="308"/>
       <c r="D206" s="8"/>
       <c r="E206" s="79">
         <v>4</v>
@@ -14138,10 +14130,10 @@
       <c r="G206" s="38"/>
     </row>
     <row r="207" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="234" t="s">
+      <c r="B207" s="232" t="s">
         <v>60</v>
       </c>
-      <c r="C207" s="236"/>
+      <c r="C207" s="234"/>
       <c r="D207" s="84"/>
       <c r="E207" s="73">
         <f>SUM(E190:E206)</f>
@@ -14156,18 +14148,18 @@
       <c r="A208" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B208" s="314" t="s">
+      <c r="B208" s="315" t="s">
         <v>61</v>
       </c>
-      <c r="C208" s="315"/>
+      <c r="C208" s="316"/>
       <c r="D208" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E208" s="307" t="s">
+      <c r="E208" s="302" t="s">
         <v>287</v>
       </c>
-      <c r="F208" s="308"/>
-      <c r="G208" s="309"/>
+      <c r="F208" s="303"/>
+      <c r="G208" s="304"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="21"/>
@@ -14320,10 +14312,10 @@
     </row>
     <row r="218" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="21"/>
-      <c r="B218" s="310" t="s">
+      <c r="B218" s="309" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="311">
+      <c r="C218" s="310">
         <f>SUM(C215:C217)</f>
         <v>14</v>
       </c>
@@ -14391,10 +14383,10 @@
     </row>
     <row r="222" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="21"/>
-      <c r="B222" s="310" t="s">
+      <c r="B222" s="309" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="311">
+      <c r="C222" s="310">
         <f>SUM(C219:C221)</f>
         <v>18</v>
       </c>
@@ -14445,10 +14437,10 @@
     </row>
     <row r="225" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="21"/>
-      <c r="B225" s="310" t="s">
+      <c r="B225" s="309" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="311">
+      <c r="C225" s="310">
         <f>SUM(C223:C224)</f>
         <v>5</v>
       </c>
@@ -14550,10 +14542,10 @@
     </row>
     <row r="231" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="21"/>
-      <c r="B231" s="310" t="s">
+      <c r="B231" s="309" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="311">
+      <c r="C231" s="310">
         <f>SUM(C226:C230,C209:C212,C218,C222,C225)</f>
         <v>89</v>
       </c>
@@ -14572,10 +14564,10 @@
       <c r="A232" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B232" s="312" t="s">
+      <c r="B232" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="C232" s="313"/>
+      <c r="C232" s="308"/>
       <c r="D232" s="7"/>
       <c r="E232" s="72">
         <v>4</v>
@@ -14589,10 +14581,10 @@
       <c r="A233" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B233" s="312" t="s">
+      <c r="B233" s="307" t="s">
         <v>63</v>
       </c>
-      <c r="C233" s="313"/>
+      <c r="C233" s="308"/>
       <c r="D233" s="7"/>
       <c r="E233" s="72">
         <v>5</v>
@@ -14606,10 +14598,10 @@
       <c r="A234" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B234" s="312" t="s">
+      <c r="B234" s="307" t="s">
         <v>64</v>
       </c>
-      <c r="C234" s="313"/>
+      <c r="C234" s="308"/>
       <c r="D234" s="7"/>
       <c r="E234" s="72">
         <v>2</v>
@@ -14623,10 +14615,10 @@
       <c r="A235" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="B235" s="312" t="s">
+      <c r="B235" s="307" t="s">
         <v>65</v>
       </c>
-      <c r="C235" s="313"/>
+      <c r="C235" s="308"/>
       <c r="D235" s="7"/>
       <c r="E235" s="72">
         <v>2</v>
@@ -14640,10 +14632,10 @@
       <c r="A236" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B236" s="321" t="s">
+      <c r="B236" s="313" t="s">
         <v>66</v>
       </c>
-      <c r="C236" s="322"/>
+      <c r="C236" s="314"/>
       <c r="D236" s="8"/>
       <c r="E236" s="79">
         <v>2</v>
@@ -14654,11 +14646,11 @@
       <c r="G236" s="38"/>
     </row>
     <row r="237" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="234" t="s">
+      <c r="B237" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="C237" s="235"/>
-      <c r="D237" s="236"/>
+      <c r="C237" s="233"/>
+      <c r="D237" s="234"/>
       <c r="E237" s="75">
         <f>SUM(E207,E231:E236)</f>
         <v>121</v>
@@ -14672,11 +14664,11 @@
       <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="234" t="s">
+      <c r="B239" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="C239" s="235"/>
-      <c r="D239" s="236"/>
+      <c r="C239" s="233"/>
+      <c r="D239" s="234"/>
       <c r="E239" s="75">
         <f>SUM(E185,E237)</f>
         <v>423</v>
@@ -14688,11 +14680,11 @@
     </row>
     <row r="240" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="241" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="234" t="s">
+      <c r="B241" s="232" t="s">
         <v>69</v>
       </c>
-      <c r="C241" s="235"/>
-      <c r="D241" s="236"/>
+      <c r="C241" s="233"/>
+      <c r="D241" s="234"/>
       <c r="E241" s="75">
         <f>SUM(E133,E239)</f>
         <v>452</v>
@@ -14710,12 +14702,12 @@
       <c r="A244" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B244" s="256" t="str">
+      <c r="B244" s="235" t="str">
         <f>IF(AND(E244=0,F244=0),"Ok","Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!")</f>
         <v>Attention: The total liabilities do not match the total assets. Please verify the amounts to ensure accurate financial reporting!</v>
       </c>
-      <c r="C244" s="257"/>
-      <c r="D244" s="258"/>
+      <c r="C244" s="236"/>
+      <c r="D244" s="237"/>
       <c r="E244" s="75">
         <f>E241-E110</f>
         <v>-51</v>
@@ -14745,6 +14737,221 @@
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="E139:G139"/>
+    <mergeCell ref="E157:G157"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:D237"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
     <mergeCell ref="E208:G208"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
@@ -14769,221 +14976,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:D237"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="E139:G139"/>
-    <mergeCell ref="E157:G157"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B158:C158"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B244">
@@ -15041,14 +15033,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="265"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="260"/>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
       <c r="I1" s="97"/>
@@ -15057,63 +15049,63 @@
       <c r="A2" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="266" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="268"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="263"/>
     </row>
     <row r="3" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="228" t="str">
+      <c r="B3" s="245" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="230"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="247"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="237">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="239"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="253"/>
     </row>
     <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="269">
+      <c r="B5" s="264">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="270"/>
-      <c r="F5" s="271"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="266"/>
     </row>
     <row r="6" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="272" t="s">
+      <c r="A6" s="270" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="264"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="265"/>
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="260"/>
       <c r="G6" s="97"/>
       <c r="H6" s="97"/>
       <c r="I6" s="97"/>
@@ -15122,35 +15114,35 @@
       <c r="A7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="332" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="260"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="261"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="333"/>
+      <c r="F7" s="334"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="332" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="261"/>
+      <c r="C8" s="333"/>
+      <c r="D8" s="333"/>
+      <c r="E8" s="333"/>
+      <c r="F8" s="334"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="240" t="s">
+      <c r="B12" s="254" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="241"/>
+      <c r="C12" s="255"/>
       <c r="D12" s="138" t="s">
         <v>73</v>
       </c>
@@ -15167,38 +15159,38 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="234" t="s">
+      <c r="B13" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="233"/>
       <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="314" t="s">
+      <c r="B14" s="315" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="315"/>
+      <c r="C14" s="316"/>
       <c r="D14" s="113" t="s">
         <v>566</v>
       </c>
-      <c r="E14" s="335" t="s">
+      <c r="E14" s="329" t="s">
         <v>567</v>
       </c>
-      <c r="F14" s="336"/>
-      <c r="G14" s="337"/>
+      <c r="F14" s="330"/>
+      <c r="G14" s="331"/>
     </row>
     <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="327" t="s">
+      <c r="B15" s="335" t="s">
         <v>528</v>
       </c>
-      <c r="C15" s="328"/>
+      <c r="C15" s="336"/>
       <c r="D15" s="113"/>
       <c r="E15" s="72">
         <v>3</v>
@@ -15210,10 +15202,10 @@
     </row>
     <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="327" t="s">
+      <c r="B16" s="335" t="s">
         <v>528</v>
       </c>
-      <c r="C16" s="328"/>
+      <c r="C16" s="336"/>
       <c r="D16" s="113"/>
       <c r="E16" s="72">
         <v>2</v>
@@ -15225,10 +15217,10 @@
     </row>
     <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="327" t="s">
+      <c r="B17" s="335" t="s">
         <v>529</v>
       </c>
-      <c r="C17" s="328"/>
+      <c r="C17" s="336"/>
       <c r="D17" s="113"/>
       <c r="E17" s="72">
         <v>3</v>
@@ -15240,10 +15232,10 @@
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
-      <c r="B18" s="327" t="s">
+      <c r="B18" s="335" t="s">
         <v>530</v>
       </c>
-      <c r="C18" s="328"/>
+      <c r="C18" s="336"/>
       <c r="D18" s="113"/>
       <c r="E18" s="72">
         <v>4</v>
@@ -15255,10 +15247,10 @@
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="327" t="s">
+      <c r="B19" s="335" t="s">
         <v>531</v>
       </c>
-      <c r="C19" s="328"/>
+      <c r="C19" s="336"/>
       <c r="D19" s="113"/>
       <c r="E19" s="72">
         <v>5</v>
@@ -15270,10 +15262,10 @@
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
-      <c r="B20" s="327" t="s">
+      <c r="B20" s="335" t="s">
         <v>532</v>
       </c>
-      <c r="C20" s="328"/>
+      <c r="C20" s="336"/>
       <c r="D20" s="113"/>
       <c r="E20" s="72">
         <v>6</v>
@@ -15285,10 +15277,10 @@
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="327" t="s">
+      <c r="B21" s="335" t="s">
         <v>533</v>
       </c>
-      <c r="C21" s="328"/>
+      <c r="C21" s="336"/>
       <c r="D21" s="113"/>
       <c r="E21" s="72">
         <v>76</v>
@@ -15300,10 +15292,10 @@
     </row>
     <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="327" t="s">
+      <c r="B22" s="335" t="s">
         <v>534</v>
       </c>
-      <c r="C22" s="328"/>
+      <c r="C22" s="336"/>
       <c r="D22" s="113"/>
       <c r="E22" s="72">
         <v>8</v>
@@ -15317,10 +15309,10 @@
       <c r="A23" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B23" s="327" t="s">
+      <c r="B23" s="335" t="s">
         <v>535</v>
       </c>
-      <c r="C23" s="328"/>
+      <c r="C23" s="336"/>
       <c r="D23" s="113"/>
       <c r="E23" s="72">
         <v>9</v>
@@ -15334,10 +15326,10 @@
       <c r="A24" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B24" s="327" t="s">
+      <c r="B24" s="335" t="s">
         <v>536</v>
       </c>
-      <c r="C24" s="328"/>
+      <c r="C24" s="336"/>
       <c r="D24" s="113"/>
       <c r="E24" s="79">
         <v>0</v>
@@ -15351,10 +15343,10 @@
       <c r="A25" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B25" s="329" t="s">
+      <c r="B25" s="337" t="s">
         <v>537</v>
       </c>
-      <c r="C25" s="330"/>
+      <c r="C25" s="338"/>
       <c r="D25" s="113"/>
       <c r="E25" s="201">
         <f>SUM(E15:E24)</f>
@@ -15370,10 +15362,10 @@
       <c r="A26" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="312" t="s">
+      <c r="B26" s="307" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="313"/>
+      <c r="C26" s="308"/>
       <c r="D26" s="113"/>
       <c r="E26" s="79">
         <v>-6</v>
@@ -15387,25 +15379,25 @@
       <c r="A27" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B27" s="319" t="s">
+      <c r="B27" s="311" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="320"/>
+      <c r="C27" s="312"/>
       <c r="D27" s="113">
         <v>28.4</v>
       </c>
-      <c r="E27" s="335" t="s">
+      <c r="E27" s="329" t="s">
         <v>568</v>
       </c>
-      <c r="F27" s="336"/>
-      <c r="G27" s="337"/>
+      <c r="F27" s="330"/>
+      <c r="G27" s="331"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="333" t="s">
+      <c r="B28" s="341" t="s">
         <v>539</v>
       </c>
-      <c r="C28" s="334"/>
+      <c r="C28" s="342"/>
       <c r="D28" s="113"/>
       <c r="E28" s="72">
         <v>2</v>
@@ -15417,10 +15409,10 @@
     </row>
     <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
-      <c r="B29" s="333" t="s">
+      <c r="B29" s="341" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="334"/>
+      <c r="C29" s="342"/>
       <c r="D29" s="113"/>
       <c r="E29" s="72">
         <v>3</v>
@@ -15432,10 +15424,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
-      <c r="B30" s="333" t="s">
+      <c r="B30" s="341" t="s">
         <v>541</v>
       </c>
-      <c r="C30" s="334"/>
+      <c r="C30" s="342"/>
       <c r="D30" s="113"/>
       <c r="E30" s="72">
         <v>4</v>
@@ -15447,10 +15439,10 @@
     </row>
     <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="333" t="s">
+      <c r="B31" s="341" t="s">
         <v>542</v>
       </c>
-      <c r="C31" s="334"/>
+      <c r="C31" s="342"/>
       <c r="D31" s="113"/>
       <c r="E31" s="72">
         <v>5</v>
@@ -15462,10 +15454,10 @@
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
-      <c r="B32" s="333" t="s">
+      <c r="B32" s="341" t="s">
         <v>543</v>
       </c>
-      <c r="C32" s="334"/>
+      <c r="C32" s="342"/>
       <c r="D32" s="113"/>
       <c r="E32" s="72">
         <v>6</v>
@@ -15477,10 +15469,10 @@
     </row>
     <row r="33" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
-      <c r="B33" s="333" t="s">
+      <c r="B33" s="341" t="s">
         <v>544</v>
       </c>
-      <c r="C33" s="334"/>
+      <c r="C33" s="342"/>
       <c r="D33" s="113"/>
       <c r="E33" s="72">
         <v>7</v>
@@ -15492,10 +15484,10 @@
     </row>
     <row r="34" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="333" t="s">
+      <c r="B34" s="341" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="334"/>
+      <c r="C34" s="342"/>
       <c r="D34" s="113"/>
       <c r="E34" s="72">
         <v>8</v>
@@ -15507,10 +15499,10 @@
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21"/>
-      <c r="B35" s="333" t="s">
+      <c r="B35" s="341" t="s">
         <v>545</v>
       </c>
-      <c r="C35" s="334"/>
+      <c r="C35" s="342"/>
       <c r="D35" s="113"/>
       <c r="E35" s="79">
         <v>9</v>
@@ -15522,10 +15514,10 @@
     </row>
     <row r="36" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="331" t="s">
+      <c r="B36" s="339" t="s">
         <v>546</v>
       </c>
-      <c r="C36" s="332"/>
+      <c r="C36" s="340"/>
       <c r="D36" s="113"/>
       <c r="E36" s="195">
         <f>SUM(E28:E35)</f>
@@ -15541,10 +15533,10 @@
       <c r="A37" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B37" s="312" t="s">
+      <c r="B37" s="307" t="s">
         <v>369</v>
       </c>
-      <c r="C37" s="313"/>
+      <c r="C37" s="308"/>
       <c r="D37" s="113"/>
       <c r="E37" s="72">
         <v>-6</v>
@@ -15558,10 +15550,10 @@
       <c r="A38" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B38" s="312" t="s">
+      <c r="B38" s="307" t="s">
         <v>378</v>
       </c>
-      <c r="C38" s="313"/>
+      <c r="C38" s="308"/>
       <c r="D38" s="113"/>
       <c r="E38" s="72">
         <v>-6</v>
@@ -15575,10 +15567,10 @@
       <c r="A39" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B39" s="312" t="s">
+      <c r="B39" s="307" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="313"/>
+      <c r="C39" s="308"/>
       <c r="D39" s="113"/>
       <c r="E39" s="72">
         <v>-4</v>
@@ -15592,10 +15584,10 @@
       <c r="A40" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B40" s="321" t="s">
+      <c r="B40" s="313" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="322"/>
+      <c r="C40" s="314"/>
       <c r="D40" s="113"/>
       <c r="E40" s="72">
         <v>-6</v>
@@ -15607,10 +15599,10 @@
     </row>
     <row r="41" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="110"/>
-      <c r="B41" s="235" t="s">
+      <c r="B41" s="233" t="s">
         <v>289</v>
       </c>
-      <c r="C41" s="236"/>
+      <c r="C41" s="234"/>
       <c r="D41" s="112"/>
       <c r="E41" s="188">
         <f>SUM(E36:E40,E25,E26)</f>
@@ -15628,10 +15620,10 @@
       <c r="A42" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B42" s="325" t="s">
+      <c r="B42" s="345" t="s">
         <v>374</v>
       </c>
-      <c r="C42" s="326"/>
+      <c r="C42" s="346"/>
       <c r="D42" s="113"/>
       <c r="E42" s="72">
         <v>6</v>
@@ -15645,10 +15637,10 @@
       <c r="A43" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B43" s="312" t="s">
+      <c r="B43" s="307" t="s">
         <v>375</v>
       </c>
-      <c r="C43" s="313"/>
+      <c r="C43" s="308"/>
       <c r="D43" s="113"/>
       <c r="E43" s="72">
         <v>-3</v>
@@ -15662,10 +15654,10 @@
       <c r="A44" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B44" s="321" t="s">
+      <c r="B44" s="313" t="s">
         <v>376</v>
       </c>
-      <c r="C44" s="322"/>
+      <c r="C44" s="314"/>
       <c r="D44" s="113"/>
       <c r="E44" s="72">
         <v>6</v>
@@ -15677,10 +15669,10 @@
     </row>
     <row r="45" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="110"/>
-      <c r="B45" s="235" t="s">
+      <c r="B45" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="C45" s="236"/>
+      <c r="C45" s="234"/>
       <c r="D45" s="112"/>
       <c r="E45" s="188">
         <f>SUM(E41:E44)</f>
@@ -15696,10 +15688,10 @@
       <c r="A46" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="B46" s="323" t="s">
+      <c r="B46" s="343" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="324"/>
+      <c r="C46" s="344"/>
       <c r="D46" s="113"/>
       <c r="E46" s="74">
         <v>1</v>
@@ -15711,10 +15703,10 @@
     </row>
     <row r="47" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="110"/>
-      <c r="B47" s="235" t="s">
+      <c r="B47" s="233" t="s">
         <v>405</v>
       </c>
-      <c r="C47" s="236"/>
+      <c r="C47" s="234"/>
       <c r="D47" s="112"/>
       <c r="E47" s="188">
         <f>SUM(E45:E46)</f>
@@ -15734,6 +15726,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B7:F7"/>
@@ -15750,36 +15772,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DD4B0C15-1D0A-4E6A-9C64-50293F400D9C}"/>
@@ -15817,41 +15809,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="212"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="227"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="266" t="str">
+      <c r="B2" s="261" t="str">
         <f>'General information'!B2</f>
         <v>CompanyName LegalForm</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="268"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="263"/>
     </row>
     <row r="3" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="109" t="s">
@@ -15861,37 +15853,37 @@
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
     </row>
     <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="237">
+      <c r="B4" s="251">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="238"/>
-      <c r="M4" s="239"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="253"/>
     </row>
     <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
@@ -15901,72 +15893,72 @@
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
     </row>
     <row r="6" spans="1:13" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="225" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="212"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="227"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="221"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="212"/>
     </row>
     <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="225" t="s">
+      <c r="B8" s="222" t="s">
         <v>573</v>
       </c>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="226"/>
-      <c r="J8" s="226"/>
-      <c r="K8" s="226"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="227"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="224"/>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -15974,21 +15966,21 @@
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="240" t="s">
+      <c r="A10" s="254" t="s">
         <v>292</v>
       </c>
-      <c r="B10" s="338"/>
-      <c r="C10" s="338"/>
-      <c r="D10" s="338"/>
-      <c r="E10" s="338"/>
-      <c r="F10" s="338"/>
-      <c r="G10" s="338"/>
-      <c r="H10" s="338"/>
-      <c r="I10" s="338"/>
-      <c r="J10" s="338"/>
-      <c r="K10" s="338"/>
-      <c r="L10" s="338"/>
-      <c r="M10" s="241"/>
+      <c r="B10" s="362"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
+      <c r="G10" s="362"/>
+      <c r="H10" s="362"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="362"/>
+      <c r="L10" s="362"/>
+      <c r="M10" s="255"/>
     </row>
     <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="108" t="s">
@@ -16003,23 +15995,23 @@
       <c r="D11" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="339" t="s">
+      <c r="E11" s="359" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="340"/>
-      <c r="G11" s="340"/>
-      <c r="H11" s="340"/>
-      <c r="I11" s="340"/>
-      <c r="J11" s="340"/>
-      <c r="K11" s="340"/>
-      <c r="L11" s="340"/>
-      <c r="M11" s="341"/>
+      <c r="F11" s="360"/>
+      <c r="G11" s="360"/>
+      <c r="H11" s="360"/>
+      <c r="I11" s="360"/>
+      <c r="J11" s="360"/>
+      <c r="K11" s="360"/>
+      <c r="L11" s="360"/>
+      <c r="M11" s="361"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="342" t="s">
+      <c r="A12" s="353" t="s">
         <v>423</v>
       </c>
-      <c r="B12" s="343"/>
+      <c r="B12" s="354"/>
       <c r="C12" s="56"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
@@ -16033,8 +16025,8 @@
       <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="348"/>
-      <c r="B13" s="349"/>
+      <c r="A13" s="351"/>
+      <c r="B13" s="352"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -16048,8 +16040,8 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="350"/>
-      <c r="B14" s="351"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="348"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
@@ -16063,8 +16055,8 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="350"/>
-      <c r="B15" s="351"/>
+      <c r="A15" s="347"/>
+      <c r="B15" s="348"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
@@ -16078,8 +16070,8 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="350"/>
-      <c r="B16" s="351"/>
+      <c r="A16" s="347"/>
+      <c r="B16" s="348"/>
       <c r="C16" s="60" t="s">
         <v>513</v>
       </c>
@@ -16095,8 +16087,8 @@
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="350"/>
-      <c r="B17" s="351"/>
+      <c r="A17" s="347"/>
+      <c r="B17" s="348"/>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
@@ -16110,8 +16102,8 @@
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="350"/>
-      <c r="B18" s="351"/>
+      <c r="A18" s="347"/>
+      <c r="B18" s="348"/>
       <c r="C18" s="60" t="s">
         <v>424</v>
       </c>
@@ -16127,8 +16119,8 @@
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="350"/>
-      <c r="B19" s="351"/>
+      <c r="A19" s="347"/>
+      <c r="B19" s="348"/>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
@@ -16142,8 +16134,8 @@
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="350"/>
-      <c r="B20" s="351"/>
+      <c r="A20" s="347"/>
+      <c r="B20" s="348"/>
       <c r="C20" s="60" t="s">
         <v>425</v>
       </c>
@@ -16159,8 +16151,8 @@
       <c r="M20" s="31"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="350"/>
-      <c r="B21" s="351"/>
+      <c r="A21" s="347"/>
+      <c r="B21" s="348"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
@@ -16174,8 +16166,8 @@
       <c r="M21" s="31"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="350"/>
-      <c r="B22" s="351"/>
+      <c r="A22" s="347"/>
+      <c r="B22" s="348"/>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -16189,8 +16181,8 @@
       <c r="M22" s="31"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="350"/>
-      <c r="B23" s="351"/>
+      <c r="A23" s="347"/>
+      <c r="B23" s="348"/>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
@@ -16204,8 +16196,8 @@
       <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="350"/>
-      <c r="B24" s="351"/>
+      <c r="A24" s="347"/>
+      <c r="B24" s="348"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
@@ -16219,8 +16211,8 @@
       <c r="M24" s="31"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="350"/>
-      <c r="B25" s="351"/>
+      <c r="A25" s="347"/>
+      <c r="B25" s="348"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
@@ -16234,8 +16226,8 @@
       <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="350"/>
-      <c r="B26" s="351"/>
+      <c r="A26" s="347"/>
+      <c r="B26" s="348"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
@@ -16249,8 +16241,8 @@
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="350"/>
-      <c r="B27" s="351"/>
+      <c r="A27" s="347"/>
+      <c r="B27" s="348"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
@@ -16264,8 +16256,8 @@
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="350"/>
-      <c r="B28" s="351"/>
+      <c r="A28" s="347"/>
+      <c r="B28" s="348"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
@@ -16279,8 +16271,8 @@
       <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="350"/>
-      <c r="B29" s="351"/>
+      <c r="A29" s="347"/>
+      <c r="B29" s="348"/>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
@@ -16294,8 +16286,8 @@
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="350"/>
-      <c r="B30" s="351"/>
+      <c r="A30" s="347"/>
+      <c r="B30" s="348"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
@@ -16309,8 +16301,8 @@
       <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="352"/>
-      <c r="B31" s="353"/>
+      <c r="A31" s="349"/>
+      <c r="B31" s="350"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -16330,10 +16322,10 @@
       <c r="B32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="253" t="s">
+      <c r="C32" s="240" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="255"/>
+      <c r="D32" s="242"/>
       <c r="E32" s="60" t="s">
         <v>398</v>
       </c>
@@ -16430,10 +16422,10 @@
     <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="234" t="s">
+      <c r="C37" s="232" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="236"/>
+      <c r="D37" s="234"/>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
@@ -16723,10 +16715,10 @@
       <c r="B52" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="234" t="s">
+      <c r="C52" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="236"/>
+      <c r="D52" s="234"/>
       <c r="E52" s="59"/>
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
@@ -16816,10 +16808,10 @@
     <row r="57" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="234" t="s">
+      <c r="C57" s="232" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="236"/>
+      <c r="D57" s="234"/>
       <c r="E57" s="59"/>
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
@@ -16833,10 +16825,10 @@
     <row r="58" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="234" t="s">
+      <c r="C58" s="232" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="236"/>
+      <c r="D58" s="234"/>
       <c r="E58" s="59"/>
       <c r="F58" s="60"/>
       <c r="G58" s="60"/>
@@ -17066,10 +17058,10 @@
       <c r="B70" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="234" t="s">
+      <c r="C70" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="235"/>
+      <c r="D70" s="233"/>
       <c r="E70" s="59"/>
       <c r="F70" s="60"/>
       <c r="G70" s="60"/>
@@ -17369,21 +17361,21 @@
       <c r="M85" s="62"/>
     </row>
     <row r="86" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="344" t="s">
+      <c r="A86" s="355" t="s">
         <v>292</v>
       </c>
-      <c r="B86" s="345"/>
-      <c r="C86" s="345"/>
-      <c r="D86" s="345"/>
-      <c r="E86" s="346"/>
-      <c r="F86" s="346"/>
-      <c r="G86" s="346"/>
-      <c r="H86" s="346"/>
-      <c r="I86" s="346"/>
-      <c r="J86" s="346"/>
-      <c r="K86" s="346"/>
-      <c r="L86" s="346"/>
-      <c r="M86" s="347"/>
+      <c r="B86" s="356"/>
+      <c r="C86" s="356"/>
+      <c r="D86" s="356"/>
+      <c r="E86" s="357"/>
+      <c r="F86" s="357"/>
+      <c r="G86" s="357"/>
+      <c r="H86" s="357"/>
+      <c r="I86" s="357"/>
+      <c r="J86" s="357"/>
+      <c r="K86" s="357"/>
+      <c r="L86" s="357"/>
+      <c r="M86" s="358"/>
     </row>
     <row r="87" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="52" t="s">
@@ -17398,17 +17390,17 @@
       <c r="D87" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="E87" s="339" t="s">
+      <c r="E87" s="359" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="340"/>
-      <c r="G87" s="340"/>
-      <c r="H87" s="340"/>
-      <c r="I87" s="340"/>
-      <c r="J87" s="340"/>
-      <c r="K87" s="340"/>
-      <c r="L87" s="340"/>
-      <c r="M87" s="341"/>
+      <c r="F87" s="360"/>
+      <c r="G87" s="360"/>
+      <c r="H87" s="360"/>
+      <c r="I87" s="360"/>
+      <c r="J87" s="360"/>
+      <c r="K87" s="360"/>
+      <c r="L87" s="360"/>
+      <c r="M87" s="361"/>
     </row>
     <row r="88" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="48" t="s">
@@ -17433,10 +17425,10 @@
     </row>
     <row r="89" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
-      <c r="C89" s="234" t="s">
+      <c r="C89" s="232" t="s">
         <v>204</v>
       </c>
-      <c r="D89" s="236"/>
+      <c r="D89" s="234"/>
       <c r="E89" s="66"/>
       <c r="F89" s="67"/>
       <c r="G89" s="67"/>
@@ -17726,10 +17718,10 @@
       <c r="B105" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="234" t="s">
+      <c r="C105" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="236"/>
+      <c r="D105" s="234"/>
       <c r="E105" s="56"/>
       <c r="F105" s="57"/>
       <c r="G105" s="57"/>
@@ -17819,10 +17811,10 @@
     <row r="110" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="234" t="s">
+      <c r="C110" s="232" t="s">
         <v>226</v>
       </c>
-      <c r="D110" s="236"/>
+      <c r="D110" s="234"/>
       <c r="E110" s="59"/>
       <c r="F110" s="60"/>
       <c r="G110" s="60"/>
@@ -17836,10 +17828,10 @@
     <row r="111" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="234" t="s">
+      <c r="C111" s="232" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="236"/>
+      <c r="D111" s="234"/>
       <c r="E111" s="59"/>
       <c r="F111" s="60"/>
       <c r="G111" s="60"/>
@@ -18184,10 +18176,10 @@
       <c r="B129" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C129" s="234" t="s">
+      <c r="C129" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="236"/>
+      <c r="D129" s="234"/>
       <c r="E129" s="56"/>
       <c r="F129" s="57"/>
       <c r="G129" s="57"/>
@@ -18277,10 +18269,10 @@
     <row r="134" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="234" t="s">
+      <c r="C134" s="232" t="s">
         <v>248</v>
       </c>
-      <c r="D134" s="236"/>
+      <c r="D134" s="234"/>
       <c r="E134" s="59"/>
       <c r="F134" s="60"/>
       <c r="G134" s="60"/>
@@ -18294,10 +18286,10 @@
     <row r="135" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="234" t="s">
+      <c r="C135" s="232" t="s">
         <v>249</v>
       </c>
-      <c r="D135" s="236"/>
+      <c r="D135" s="234"/>
       <c r="E135" s="59"/>
       <c r="F135" s="60"/>
       <c r="G135" s="60"/>
@@ -18311,10 +18303,10 @@
     <row r="136" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="234" t="s">
+      <c r="C136" s="232" t="s">
         <v>250</v>
       </c>
-      <c r="D136" s="236"/>
+      <c r="D136" s="234"/>
       <c r="E136" s="59"/>
       <c r="F136" s="60"/>
       <c r="G136" s="60"/>
@@ -18621,10 +18613,10 @@
       <c r="B152" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C152" s="234" t="s">
+      <c r="C152" s="232" t="s">
         <v>58</v>
       </c>
-      <c r="D152" s="236"/>
+      <c r="D152" s="234"/>
       <c r="E152" s="56"/>
       <c r="F152" s="57"/>
       <c r="G152" s="57"/>
@@ -18945,10 +18937,10 @@
       <c r="B170" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C170" s="234" t="s">
+      <c r="C170" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="D170" s="236"/>
+      <c r="D170" s="234"/>
       <c r="E170" s="59"/>
       <c r="F170" s="60"/>
       <c r="G170" s="60"/>
@@ -19220,10 +19212,10 @@
       <c r="B185" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C185" s="234" t="s">
+      <c r="C185" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="D185" s="236"/>
+      <c r="D185" s="234"/>
       <c r="E185" s="56"/>
       <c r="F185" s="57"/>
       <c r="G185" s="57"/>
@@ -19299,10 +19291,10 @@
       <c r="B189" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C189" s="234" t="s">
+      <c r="C189" s="232" t="s">
         <v>257</v>
       </c>
-      <c r="D189" s="236"/>
+      <c r="D189" s="234"/>
       <c r="E189" s="56"/>
       <c r="F189" s="57"/>
       <c r="G189" s="57"/>
@@ -19945,10 +19937,10 @@
       <c r="B228" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C228" s="234" t="s">
+      <c r="C228" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="D228" s="235"/>
+      <c r="D228" s="233"/>
       <c r="E228" s="42"/>
       <c r="F228" s="44"/>
       <c r="G228" s="44"/>
@@ -20038,25 +20030,22 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="C5:M5"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C3:M3"/>
@@ -20073,22 +20062,25 @@
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="A86:M86"/>
     <mergeCell ref="E87:M87"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{CAFC6D68-6070-4D51-BEF1-3FF68EC64F87}"/>

--- a/ifrs-sme-model.xlsx
+++ b/ifrs-sme-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.bravi\Documents\GitHub\IFRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23627BC7-7841-4397-AD00-A3870FDBF800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA90CE-DD41-4D5F-8687-ACED6895A93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
@@ -2184,7 +2184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2254,6 +2254,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0F13D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,7 +2527,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2876,6 +2882,51 @@
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2885,49 +2936,55 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorde